--- a/GradesRachid.xlsx
+++ b/GradesRachid.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RachidGrages\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5920CB-E994-4882-B6DC-D7AEE776B80D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4575" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4470" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الرئيسية" sheetId="1" r:id="rId1"/>
@@ -69,7 +70,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="11">'9-1'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="12">'9-2'!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2199,7 +2200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="39">
     <font>
       <sz val="11"/>
@@ -3238,84 +3239,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
@@ -3337,11 +3260,89 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
@@ -3351,6 +3352,40 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3424,45 +3459,11 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3494,7 +3495,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3538,7 +3545,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3584,6 +3597,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Round Same Side Corner Rectangle 5">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -3681,6 +3699,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Round Same Side Corner Rectangle 6">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -3779,6 +3802,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="Round Same Side Corner Rectangle 7">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -3872,6 +3900,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="Round Same Side Corner Rectangle 8">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -3963,7 +3996,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4014,6 +4053,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Round Same Side Corner Rectangle 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -4103,7 +4147,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="Young business workers posting with sticky notes stickers reminders  creative brainstorming at board the colleague in a modern co-working space. Premium Photo"/>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Young business workers posting with sticky notes stickers reminders  creative brainstorming at board the colleague in a modern co-working space. Premium Photo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4158,7 +4208,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Round Same Side Corner Rectangle 5"/>
+        <xdr:cNvPr id="6" name="Round Same Side Corner Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4260,6 +4316,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Round Same Side Corner Rectangle 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -4354,7 +4415,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4398,7 +4465,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Round Same Side Corner Rectangle 3"/>
+        <xdr:cNvPr id="4" name="Round Same Side Corner Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4496,6 +4569,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Round Same Side Corner Rectangle 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -4590,7 +4668,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4634,7 +4718,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Round Same Side Corner Rectangle 3"/>
+        <xdr:cNvPr id="4" name="Round Same Side Corner Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4732,6 +4822,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Round Same Side Corner Rectangle 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -4823,7 +4918,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Businessman analyzing company financial report with augmented reality graphics Premium Photo"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Businessman analyzing company financial report with augmented reality graphics Premium Photo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4878,7 +4979,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Round Same Side Corner Rectangle 3"/>
+        <xdr:cNvPr id="4" name="Round Same Side Corner Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5224,7 +5331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:N17"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0"/>
@@ -5326,14 +5433,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IY56"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A22" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A16" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.75"/>
@@ -5791,37 +5898,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A1" s="153"/>
-      <c r="B1" s="153"/>
-      <c r="C1" s="154" t="s">
+      <c r="A1" s="134"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
       <c r="N1" s="40"/>
       <c r="O1" s="40"/>
       <c r="P1" s="41"/>
     </row>
     <row r="2" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A2" s="156"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
       <c r="M2" s="42" t="s">
         <v>134</v>
       </c>
@@ -5832,19 +5939,19 @@
       <c r="P2" s="41"/>
     </row>
     <row r="3" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="139" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
       <c r="M3" s="42" t="s">
         <v>135</v>
       </c>
@@ -5855,8 +5962,8 @@
       <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1">
-      <c r="A4" s="151"/>
-      <c r="B4" s="152"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="133"/>
       <c r="C4" s="45"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -5871,67 +5978,67 @@
       <c r="P4" s="41"/>
     </row>
     <row r="5" spans="1:259" ht="92.25" customHeight="1">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="152" t="s">
         <v>136</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="153" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="143" t="s">
+      <c r="D5" s="154"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="153" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="146" t="s">
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="156" t="s">
         <v>140</v>
       </c>
-      <c r="L5" s="147" t="s">
+      <c r="L5" s="157" t="s">
         <v>141</v>
       </c>
-      <c r="M5" s="149" t="s">
+      <c r="M5" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="N5" s="150"/>
-      <c r="O5" s="134" t="s">
+      <c r="N5" s="160"/>
+      <c r="O5" s="144" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:259" ht="200.25" customHeight="1">
-      <c r="A6" s="142"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="145" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135" t="s">
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="148"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="N6" s="136" t="s">
+      <c r="N6" s="146" t="s">
         <v>147</v>
       </c>
-      <c r="O6" s="134"/>
+      <c r="O6" s="144"/>
     </row>
     <row r="7" spans="1:259" ht="60" customHeight="1">
-      <c r="A7" s="142"/>
+      <c r="A7" s="152"/>
       <c r="B7" s="52" t="s">
         <v>148</v>
       </c>
@@ -5968,7 +6075,7 @@
       <c r="M7" s="56">
         <v>100</v>
       </c>
-      <c r="N7" s="137"/>
+      <c r="N7" s="147"/>
       <c r="O7" s="57">
         <v>100</v>
       </c>
@@ -8090,23 +8197,23 @@
       </c>
     </row>
     <row r="48" spans="1:259" ht="60" customHeight="1">
-      <c r="A48" s="138" t="s">
+      <c r="A48" s="148" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="138"/>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="138"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="138"/>
-      <c r="J48" s="138"/>
-      <c r="K48" s="138"/>
-      <c r="L48" s="138"/>
-      <c r="M48" s="138"/>
-      <c r="N48" s="138"/>
-      <c r="O48" s="138"/>
+      <c r="B48" s="148"/>
+      <c r="C48" s="148"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="148"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="148"/>
+      <c r="J48" s="148"/>
+      <c r="K48" s="148"/>
+      <c r="L48" s="148"/>
+      <c r="M48" s="148"/>
+      <c r="N48" s="148"/>
+      <c r="O48" s="148"/>
       <c r="P48" s="68"/>
       <c r="Q48" s="68"/>
       <c r="R48" s="68"/>
@@ -8357,17 +8464,17 @@
       <c r="B49" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="C49" s="139"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="140"/>
-      <c r="F49" s="140"/>
-      <c r="G49" s="140"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="140"/>
-      <c r="K49" s="140"/>
-      <c r="L49" s="140"/>
-      <c r="M49" s="141"/>
+      <c r="C49" s="149"/>
+      <c r="D49" s="150"/>
+      <c r="E49" s="150"/>
+      <c r="F49" s="150"/>
+      <c r="G49" s="150"/>
+      <c r="H49" s="150"/>
+      <c r="I49" s="150"/>
+      <c r="J49" s="150"/>
+      <c r="K49" s="150"/>
+      <c r="L49" s="150"/>
+      <c r="M49" s="151"/>
       <c r="N49" s="71"/>
       <c r="O49" s="71"/>
     </row>
@@ -8616,24 +8723,24 @@
       <c r="B55" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="C55" s="132" t="s">
+      <c r="C55" s="142" t="s">
         <v>183</v>
       </c>
-      <c r="D55" s="132" t="s">
+      <c r="D55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="E55" s="132" t="s">
+      <c r="E55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="F55" s="132" t="s">
+      <c r="F55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="G55" s="132"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132" t="s">
+      <c r="G55" s="142"/>
+      <c r="H55" s="142"/>
+      <c r="I55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="J55" s="132" t="s">
+      <c r="J55" s="142" t="s">
         <v>184</v>
       </c>
       <c r="K55" s="79" t="s">
@@ -8650,14 +8757,14 @@
       <c r="B56" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="133"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="133"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="143"/>
       <c r="K56" s="85"/>
       <c r="L56" s="86"/>
       <c r="M56" s="86"/>
@@ -8668,12 +8775,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="bymfRcfdrKcinTwDVsD9Sw9HEi8Aylyen4Sk5Zge/jYh+kvPJ7FX30Y4JStUMt7GaslXX539UxCjP4mWFs/Pug==" saltValue="rJpldvugpSjeUtd+V1m7xQ==" spinCount="100000" sheet="1"/>
   <mergeCells count="20">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:L2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:K3"/>
     <mergeCell ref="C55:J55"/>
     <mergeCell ref="C56:J56"/>
     <mergeCell ref="O5:O6"/>
@@ -8688,22 +8789,28 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:L2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:K3"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L47" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:I47 K8:K47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:I47 K8:K47" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D47" xr:uid="{00000000-0002-0000-0900-000002000000}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="يجب أن تكون القيمة بين 0 و 5" sqref="SU46:TF50 ACQ46:ADB50 AMM46:AMX50 AWI46:AWT50 BGE46:BGP50 BQA46:BQL50 BZW46:CAH50 CJS46:CKD50 CTO46:CTZ50 DDK46:DDV50 DNG46:DNR50 DXC46:DXN50 EGY46:EHJ50 EQU46:ERF50 FAQ46:FBB50 FKM46:FKX50 FUI46:FUT50 GEE46:GEP50 GOA46:GOL50 GXW46:GYH50 HHS46:HID50 HRO46:HRZ50 IBK46:IBV50 ILG46:ILR50 IVC46:IVN50 JEY46:JFJ50 JOU46:JPF50 JYQ46:JZB50 KIM46:KIX50 KSI46:KST50 LCE46:LCP50 LMA46:LML50 LVW46:LWH50 MFS46:MGD50 MPO46:MPZ50 MZK46:MZV50 NJG46:NJR50 NTC46:NTN50 OCY46:ODJ50 OMU46:ONF50 OWQ46:OXB50 PGM46:PGX50 PQI46:PQT50 QAE46:QAP50 QKA46:QKL50 QTW46:QUH50 RDS46:RED50 RNO46:RNZ50 RXK46:RXV50 SHG46:SHR50 SRC46:SRN50 TAY46:TBJ50 TKU46:TLF50 TUQ46:TVB50 UEM46:UEX50 UOI46:UOT50 UYE46:UYP50 VIA46:VIL50 VRW46:VSH50 WBS46:WCD50 WLO46:WLZ50 WVK46:WVV50 SU65584:TF65588 ACQ65584:ADB65588 AMM65584:AMX65588 AWI65584:AWT65588 BGE65584:BGP65588 BQA65584:BQL65588 BZW65584:CAH65588 CJS65584:CKD65588 CTO65584:CTZ65588 DDK65584:DDV65588 DNG65584:DNR65588 DXC65584:DXN65588 EGY65584:EHJ65588 EQU65584:ERF65588 FAQ65584:FBB65588 FKM65584:FKX65588 FUI65584:FUT65588 GEE65584:GEP65588 GOA65584:GOL65588 GXW65584:GYH65588 HHS65584:HID65588 HRO65584:HRZ65588 IBK65584:IBV65588 ILG65584:ILR65588 IVC65584:IVN65588 JEY65584:JFJ65588 JOU65584:JPF65588 JYQ65584:JZB65588 KIM65584:KIX65588 KSI65584:KST65588 LCE65584:LCP65588 LMA65584:LML65588 LVW65584:LWH65588 MFS65584:MGD65588 MPO65584:MPZ65588 MZK65584:MZV65588 NJG65584:NJR65588 NTC65584:NTN65588 OCY65584:ODJ65588 OMU65584:ONF65588 OWQ65584:OXB65588 PGM65584:PGX65588 PQI65584:PQT65588 QAE65584:QAP65588 QKA65584:QKL65588 QTW65584:QUH65588 RDS65584:RED65588 RNO65584:RNZ65588 RXK65584:RXV65588 SHG65584:SHR65588 SRC65584:SRN65588 TAY65584:TBJ65588 TKU65584:TLF65588 TUQ65584:TVB65588 UEM65584:UEX65588 UOI65584:UOT65588 UYE65584:UYP65588 VIA65584:VIL65588 VRW65584:VSH65588 WBS65584:WCD65588 WLO65584:WLZ65588 WVK65584:WVV65588 SU131120:TF131124 ACQ131120:ADB131124 AMM131120:AMX131124 AWI131120:AWT131124 BGE131120:BGP131124 BQA131120:BQL131124 BZW131120:CAH131124 CJS131120:CKD131124 CTO131120:CTZ131124 DDK131120:DDV131124 DNG131120:DNR131124 DXC131120:DXN131124 EGY131120:EHJ131124 EQU131120:ERF131124 FAQ131120:FBB131124 FKM131120:FKX131124 FUI131120:FUT131124 GEE131120:GEP131124 GOA131120:GOL131124 GXW131120:GYH131124 HHS131120:HID131124 HRO131120:HRZ131124 IBK131120:IBV131124 ILG131120:ILR131124 IVC131120:IVN131124 JEY131120:JFJ131124 JOU131120:JPF131124 JYQ131120:JZB131124 KIM131120:KIX131124 KSI131120:KST131124 LCE131120:LCP131124 LMA131120:LML131124 LVW131120:LWH131124 MFS131120:MGD131124 MPO131120:MPZ131124 MZK131120:MZV131124 NJG131120:NJR131124 NTC131120:NTN131124 OCY131120:ODJ131124 OMU131120:ONF131124 OWQ131120:OXB131124 PGM131120:PGX131124 PQI131120:PQT131124 QAE131120:QAP131124 QKA131120:QKL131124 QTW131120:QUH131124 RDS131120:RED131124 RNO131120:RNZ131124 RXK131120:RXV131124 SHG131120:SHR131124 SRC131120:SRN131124 TAY131120:TBJ131124 TKU131120:TLF131124 TUQ131120:TVB131124 UEM131120:UEX131124 UOI131120:UOT131124 UYE131120:UYP131124 VIA131120:VIL131124 VRW131120:VSH131124 WBS131120:WCD131124 WLO131120:WLZ131124 WVK131120:WVV131124 SU196656:TF196660 ACQ196656:ADB196660 AMM196656:AMX196660 AWI196656:AWT196660 BGE196656:BGP196660 BQA196656:BQL196660 BZW196656:CAH196660 CJS196656:CKD196660 CTO196656:CTZ196660 DDK196656:DDV196660 DNG196656:DNR196660 DXC196656:DXN196660 EGY196656:EHJ196660 EQU196656:ERF196660 FAQ196656:FBB196660 FKM196656:FKX196660 FUI196656:FUT196660 GEE196656:GEP196660 GOA196656:GOL196660 GXW196656:GYH196660 HHS196656:HID196660 HRO196656:HRZ196660 IBK196656:IBV196660 ILG196656:ILR196660 IVC196656:IVN196660 JEY196656:JFJ196660 JOU196656:JPF196660 JYQ196656:JZB196660 KIM196656:KIX196660 KSI196656:KST196660 LCE196656:LCP196660 LMA196656:LML196660 LVW196656:LWH196660 MFS196656:MGD196660 MPO196656:MPZ196660 MZK196656:MZV196660 NJG196656:NJR196660 NTC196656:NTN196660 OCY196656:ODJ196660 OMU196656:ONF196660 OWQ196656:OXB196660 PGM196656:PGX196660 PQI196656:PQT196660 QAE196656:QAP196660 QKA196656:QKL196660 QTW196656:QUH196660 RDS196656:RED196660 RNO196656:RNZ196660 RXK196656:RXV196660 SHG196656:SHR196660 SRC196656:SRN196660 TAY196656:TBJ196660 TKU196656:TLF196660 TUQ196656:TVB196660 UEM196656:UEX196660 UOI196656:UOT196660 UYE196656:UYP196660 VIA196656:VIL196660 VRW196656:VSH196660 WBS196656:WCD196660 WLO196656:WLZ196660 WVK196656:WVV196660 SU262192:TF262196 ACQ262192:ADB262196 AMM262192:AMX262196 AWI262192:AWT262196 BGE262192:BGP262196 BQA262192:BQL262196 BZW262192:CAH262196 CJS262192:CKD262196 CTO262192:CTZ262196 DDK262192:DDV262196 DNG262192:DNR262196 DXC262192:DXN262196 EGY262192:EHJ262196 EQU262192:ERF262196 FAQ262192:FBB262196 FKM262192:FKX262196 FUI262192:FUT262196 GEE262192:GEP262196 GOA262192:GOL262196 GXW262192:GYH262196 HHS262192:HID262196 HRO262192:HRZ262196 IBK262192:IBV262196 ILG262192:ILR262196 IVC262192:IVN262196 JEY262192:JFJ262196 JOU262192:JPF262196 JYQ262192:JZB262196 KIM262192:KIX262196 KSI262192:KST262196 LCE262192:LCP262196 LMA262192:LML262196 LVW262192:LWH262196 MFS262192:MGD262196 MPO262192:MPZ262196 MZK262192:MZV262196 NJG262192:NJR262196 NTC262192:NTN262196 OCY262192:ODJ262196 OMU262192:ONF262196 OWQ262192:OXB262196 PGM262192:PGX262196 PQI262192:PQT262196 QAE262192:QAP262196 QKA262192:QKL262196 QTW262192:QUH262196 RDS262192:RED262196 RNO262192:RNZ262196 RXK262192:RXV262196 SHG262192:SHR262196 SRC262192:SRN262196 TAY262192:TBJ262196 TKU262192:TLF262196 TUQ262192:TVB262196 UEM262192:UEX262196 UOI262192:UOT262196 UYE262192:UYP262196 VIA262192:VIL262196 VRW262192:VSH262196 WBS262192:WCD262196 WLO262192:WLZ262196 WVK262192:WVV262196 SU327728:TF327732 ACQ327728:ADB327732 AMM327728:AMX327732 AWI327728:AWT327732 BGE327728:BGP327732 BQA327728:BQL327732 BZW327728:CAH327732 CJS327728:CKD327732 CTO327728:CTZ327732 DDK327728:DDV327732 DNG327728:DNR327732 DXC327728:DXN327732 EGY327728:EHJ327732 EQU327728:ERF327732 FAQ327728:FBB327732 FKM327728:FKX327732 FUI327728:FUT327732 GEE327728:GEP327732 GOA327728:GOL327732 GXW327728:GYH327732 HHS327728:HID327732 HRO327728:HRZ327732 IBK327728:IBV327732 ILG327728:ILR327732 IVC327728:IVN327732 JEY327728:JFJ327732 JOU327728:JPF327732 JYQ327728:JZB327732 KIM327728:KIX327732 KSI327728:KST327732 LCE327728:LCP327732 LMA327728:LML327732 LVW327728:LWH327732 MFS327728:MGD327732 MPO327728:MPZ327732 MZK327728:MZV327732 NJG327728:NJR327732 NTC327728:NTN327732 OCY327728:ODJ327732 OMU327728:ONF327732 OWQ327728:OXB327732 PGM327728:PGX327732 PQI327728:PQT327732 QAE327728:QAP327732 QKA327728:QKL327732 QTW327728:QUH327732 RDS327728:RED327732 RNO327728:RNZ327732 RXK327728:RXV327732 SHG327728:SHR327732 SRC327728:SRN327732 TAY327728:TBJ327732 TKU327728:TLF327732 TUQ327728:TVB327732 UEM327728:UEX327732 UOI327728:UOT327732 UYE327728:UYP327732 VIA327728:VIL327732 VRW327728:VSH327732 WBS327728:WCD327732 WLO327728:WLZ327732 WVK327728:WVV327732 SU393264:TF393268 ACQ393264:ADB393268 AMM393264:AMX393268 AWI393264:AWT393268 BGE393264:BGP393268 BQA393264:BQL393268 BZW393264:CAH393268 CJS393264:CKD393268 CTO393264:CTZ393268 DDK393264:DDV393268 DNG393264:DNR393268 DXC393264:DXN393268 EGY393264:EHJ393268 EQU393264:ERF393268 FAQ393264:FBB393268 FKM393264:FKX393268 FUI393264:FUT393268 GEE393264:GEP393268 GOA393264:GOL393268 GXW393264:GYH393268 HHS393264:HID393268 HRO393264:HRZ393268 IBK393264:IBV393268 ILG393264:ILR393268 IVC393264:IVN393268 JEY393264:JFJ393268 JOU393264:JPF393268 JYQ393264:JZB393268 KIM393264:KIX393268 KSI393264:KST393268 LCE393264:LCP393268 LMA393264:LML393268 LVW393264:LWH393268 MFS393264:MGD393268 MPO393264:MPZ393268 MZK393264:MZV393268 NJG393264:NJR393268 NTC393264:NTN393268 OCY393264:ODJ393268 OMU393264:ONF393268 OWQ393264:OXB393268 PGM393264:PGX393268 PQI393264:PQT393268 QAE393264:QAP393268 QKA393264:QKL393268 QTW393264:QUH393268 RDS393264:RED393268 RNO393264:RNZ393268 RXK393264:RXV393268 SHG393264:SHR393268 SRC393264:SRN393268 TAY393264:TBJ393268 TKU393264:TLF393268 TUQ393264:TVB393268 UEM393264:UEX393268 UOI393264:UOT393268 UYE393264:UYP393268 VIA393264:VIL393268 VRW393264:VSH393268 WBS393264:WCD393268 WLO393264:WLZ393268 WVK393264:WVV393268 SU458800:TF458804 ACQ458800:ADB458804 AMM458800:AMX458804 AWI458800:AWT458804 BGE458800:BGP458804 BQA458800:BQL458804 BZW458800:CAH458804 CJS458800:CKD458804 CTO458800:CTZ458804 DDK458800:DDV458804 DNG458800:DNR458804 DXC458800:DXN458804 EGY458800:EHJ458804 EQU458800:ERF458804 FAQ458800:FBB458804 FKM458800:FKX458804 FUI458800:FUT458804 GEE458800:GEP458804 GOA458800:GOL458804 GXW458800:GYH458804 HHS458800:HID458804 HRO458800:HRZ458804 IBK458800:IBV458804 ILG458800:ILR458804 IVC458800:IVN458804 JEY458800:JFJ458804 JOU458800:JPF458804 JYQ458800:JZB458804 KIM458800:KIX458804 KSI458800:KST458804 LCE458800:LCP458804 LMA458800:LML458804 LVW458800:LWH458804 MFS458800:MGD458804 MPO458800:MPZ458804 MZK458800:MZV458804 NJG458800:NJR458804 NTC458800:NTN458804 OCY458800:ODJ458804 OMU458800:ONF458804 OWQ458800:OXB458804 PGM458800:PGX458804 PQI458800:PQT458804 QAE458800:QAP458804 QKA458800:QKL458804 QTW458800:QUH458804 RDS458800:RED458804 RNO458800:RNZ458804 RXK458800:RXV458804 SHG458800:SHR458804 SRC458800:SRN458804 TAY458800:TBJ458804 TKU458800:TLF458804 TUQ458800:TVB458804 UEM458800:UEX458804 UOI458800:UOT458804 UYE458800:UYP458804 VIA458800:VIL458804 VRW458800:VSH458804 WBS458800:WCD458804 WLO458800:WLZ458804 WVK458800:WVV458804 SU524336:TF524340 ACQ524336:ADB524340 AMM524336:AMX524340 AWI524336:AWT524340 BGE524336:BGP524340 BQA524336:BQL524340 BZW524336:CAH524340 CJS524336:CKD524340 CTO524336:CTZ524340 DDK524336:DDV524340 DNG524336:DNR524340 DXC524336:DXN524340 EGY524336:EHJ524340 EQU524336:ERF524340 FAQ524336:FBB524340 FKM524336:FKX524340 FUI524336:FUT524340 GEE524336:GEP524340 GOA524336:GOL524340 GXW524336:GYH524340 HHS524336:HID524340 HRO524336:HRZ524340 IBK524336:IBV524340 ILG524336:ILR524340 IVC524336:IVN524340 JEY524336:JFJ524340 JOU524336:JPF524340 JYQ524336:JZB524340 KIM524336:KIX524340 KSI524336:KST524340 LCE524336:LCP524340 LMA524336:LML524340 LVW524336:LWH524340 MFS524336:MGD524340 MPO524336:MPZ524340 MZK524336:MZV524340 NJG524336:NJR524340 NTC524336:NTN524340 OCY524336:ODJ524340 OMU524336:ONF524340 OWQ524336:OXB524340 PGM524336:PGX524340 PQI524336:PQT524340 QAE524336:QAP524340 QKA524336:QKL524340 QTW524336:QUH524340 RDS524336:RED524340 RNO524336:RNZ524340 RXK524336:RXV524340 SHG524336:SHR524340 SRC524336:SRN524340 TAY524336:TBJ524340 TKU524336:TLF524340 TUQ524336:TVB524340 UEM524336:UEX524340 UOI524336:UOT524340 UYE524336:UYP524340 VIA524336:VIL524340 VRW524336:VSH524340 WBS524336:WCD524340 WLO524336:WLZ524340 WVK524336:WVV524340 SU589872:TF589876 ACQ589872:ADB589876 AMM589872:AMX589876 AWI589872:AWT589876 BGE589872:BGP589876 BQA589872:BQL589876 BZW589872:CAH589876 CJS589872:CKD589876 CTO589872:CTZ589876 DDK589872:DDV589876 DNG589872:DNR589876 DXC589872:DXN589876 EGY589872:EHJ589876 EQU589872:ERF589876 FAQ589872:FBB589876 FKM589872:FKX589876 FUI589872:FUT589876 GEE589872:GEP589876 GOA589872:GOL589876 GXW589872:GYH589876 HHS589872:HID589876 HRO589872:HRZ589876 IBK589872:IBV589876 ILG589872:ILR589876 IVC589872:IVN589876 JEY589872:JFJ589876 JOU589872:JPF589876 JYQ589872:JZB589876 KIM589872:KIX589876 KSI589872:KST589876 LCE589872:LCP589876 LMA589872:LML589876 LVW589872:LWH589876 MFS589872:MGD589876 MPO589872:MPZ589876 MZK589872:MZV589876 NJG589872:NJR589876 NTC589872:NTN589876 OCY589872:ODJ589876 OMU589872:ONF589876 OWQ589872:OXB589876 PGM589872:PGX589876 PQI589872:PQT589876 QAE589872:QAP589876 QKA589872:QKL589876 QTW589872:QUH589876 RDS589872:RED589876 RNO589872:RNZ589876 RXK589872:RXV589876 SHG589872:SHR589876 SRC589872:SRN589876 TAY589872:TBJ589876 TKU589872:TLF589876 TUQ589872:TVB589876 UEM589872:UEX589876 UOI589872:UOT589876 UYE589872:UYP589876 VIA589872:VIL589876 VRW589872:VSH589876 WBS589872:WCD589876 WLO589872:WLZ589876 WVK589872:WVV589876 SU655408:TF655412 ACQ655408:ADB655412 AMM655408:AMX655412 AWI655408:AWT655412 BGE655408:BGP655412 BQA655408:BQL655412 BZW655408:CAH655412 CJS655408:CKD655412 CTO655408:CTZ655412 DDK655408:DDV655412 DNG655408:DNR655412 DXC655408:DXN655412 EGY655408:EHJ655412 EQU655408:ERF655412 FAQ655408:FBB655412 FKM655408:FKX655412 FUI655408:FUT655412 GEE655408:GEP655412 GOA655408:GOL655412 GXW655408:GYH655412 HHS655408:HID655412 HRO655408:HRZ655412 IBK655408:IBV655412 ILG655408:ILR655412 IVC655408:IVN655412 JEY655408:JFJ655412 JOU655408:JPF655412 JYQ655408:JZB655412 KIM655408:KIX655412 KSI655408:KST655412 LCE655408:LCP655412 LMA655408:LML655412 LVW655408:LWH655412 MFS655408:MGD655412 MPO655408:MPZ655412 MZK655408:MZV655412 NJG655408:NJR655412 NTC655408:NTN655412 OCY655408:ODJ655412 OMU655408:ONF655412 OWQ655408:OXB655412 PGM655408:PGX655412 PQI655408:PQT655412 QAE655408:QAP655412 QKA655408:QKL655412 QTW655408:QUH655412 RDS655408:RED655412 RNO655408:RNZ655412 RXK655408:RXV655412 SHG655408:SHR655412 SRC655408:SRN655412 TAY655408:TBJ655412 TKU655408:TLF655412 TUQ655408:TVB655412 UEM655408:UEX655412 UOI655408:UOT655412 UYE655408:UYP655412 VIA655408:VIL655412 VRW655408:VSH655412 WBS655408:WCD655412 WLO655408:WLZ655412 WVK655408:WVV655412 SU720944:TF720948 ACQ720944:ADB720948 AMM720944:AMX720948 AWI720944:AWT720948 BGE720944:BGP720948 BQA720944:BQL720948 BZW720944:CAH720948 CJS720944:CKD720948 CTO720944:CTZ720948 DDK720944:DDV720948 DNG720944:DNR720948 DXC720944:DXN720948 EGY720944:EHJ720948 EQU720944:ERF720948 FAQ720944:FBB720948 FKM720944:FKX720948 FUI720944:FUT720948 GEE720944:GEP720948 GOA720944:GOL720948 GXW720944:GYH720948 HHS720944:HID720948 HRO720944:HRZ720948 IBK720944:IBV720948 ILG720944:ILR720948 IVC720944:IVN720948 JEY720944:JFJ720948 JOU720944:JPF720948 JYQ720944:JZB720948 KIM720944:KIX720948 KSI720944:KST720948 LCE720944:LCP720948 LMA720944:LML720948 LVW720944:LWH720948 MFS720944:MGD720948 MPO720944:MPZ720948 MZK720944:MZV720948 NJG720944:NJR720948 NTC720944:NTN720948 OCY720944:ODJ720948 OMU720944:ONF720948 OWQ720944:OXB720948 PGM720944:PGX720948 PQI720944:PQT720948 QAE720944:QAP720948 QKA720944:QKL720948 QTW720944:QUH720948 RDS720944:RED720948 RNO720944:RNZ720948 RXK720944:RXV720948 SHG720944:SHR720948 SRC720944:SRN720948 TAY720944:TBJ720948 TKU720944:TLF720948 TUQ720944:TVB720948 UEM720944:UEX720948 UOI720944:UOT720948 UYE720944:UYP720948 VIA720944:VIL720948 VRW720944:VSH720948 WBS720944:WCD720948 WLO720944:WLZ720948 WVK720944:WVV720948 SU786480:TF786484 ACQ786480:ADB786484 AMM786480:AMX786484 AWI786480:AWT786484 BGE786480:BGP786484 BQA786480:BQL786484 BZW786480:CAH786484 CJS786480:CKD786484 CTO786480:CTZ786484 DDK786480:DDV786484 DNG786480:DNR786484 DXC786480:DXN786484 EGY786480:EHJ786484 EQU786480:ERF786484 FAQ786480:FBB786484 FKM786480:FKX786484 FUI786480:FUT786484 GEE786480:GEP786484 GOA786480:GOL786484 GXW786480:GYH786484 HHS786480:HID786484 HRO786480:HRZ786484 IBK786480:IBV786484 ILG786480:ILR786484 IVC786480:IVN786484 JEY786480:JFJ786484 JOU786480:JPF786484 JYQ786480:JZB786484 KIM786480:KIX786484 KSI786480:KST786484 LCE786480:LCP786484 LMA786480:LML786484 LVW786480:LWH786484 MFS786480:MGD786484 MPO786480:MPZ786484 MZK786480:MZV786484 NJG786480:NJR786484 NTC786480:NTN786484 OCY786480:ODJ786484 OMU786480:ONF786484 OWQ786480:OXB786484 PGM786480:PGX786484 PQI786480:PQT786484 QAE786480:QAP786484 QKA786480:QKL786484 QTW786480:QUH786484 RDS786480:RED786484 RNO786480:RNZ786484 RXK786480:RXV786484 SHG786480:SHR786484 SRC786480:SRN786484 TAY786480:TBJ786484 TKU786480:TLF786484 TUQ786480:TVB786484 UEM786480:UEX786484 UOI786480:UOT786484 UYE786480:UYP786484 VIA786480:VIL786484 VRW786480:VSH786484 WBS786480:WCD786484 WLO786480:WLZ786484 WVK786480:WVV786484 SU852016:TF852020 ACQ852016:ADB852020 AMM852016:AMX852020 AWI852016:AWT852020 BGE852016:BGP852020 BQA852016:BQL852020 BZW852016:CAH852020 CJS852016:CKD852020 CTO852016:CTZ852020 DDK852016:DDV852020 DNG852016:DNR852020 DXC852016:DXN852020 EGY852016:EHJ852020 EQU852016:ERF852020 FAQ852016:FBB852020 FKM852016:FKX852020 FUI852016:FUT852020 GEE852016:GEP852020 GOA852016:GOL852020 GXW852016:GYH852020 HHS852016:HID852020 HRO852016:HRZ852020 IBK852016:IBV852020 ILG852016:ILR852020 IVC852016:IVN852020 JEY852016:JFJ852020 JOU852016:JPF852020 JYQ852016:JZB852020 KIM852016:KIX852020 KSI852016:KST852020 LCE852016:LCP852020 LMA852016:LML852020 LVW852016:LWH852020 MFS852016:MGD852020 MPO852016:MPZ852020 MZK852016:MZV852020 NJG852016:NJR852020 NTC852016:NTN852020 OCY852016:ODJ852020 OMU852016:ONF852020 OWQ852016:OXB852020 PGM852016:PGX852020 PQI852016:PQT852020 QAE852016:QAP852020 QKA852016:QKL852020 QTW852016:QUH852020 RDS852016:RED852020 RNO852016:RNZ852020 RXK852016:RXV852020 SHG852016:SHR852020 SRC852016:SRN852020 TAY852016:TBJ852020 TKU852016:TLF852020 TUQ852016:TVB852020 UEM852016:UEX852020 UOI852016:UOT852020 UYE852016:UYP852020 VIA852016:VIL852020 VRW852016:VSH852020 WBS852016:WCD852020 WLO852016:WLZ852020 WVK852016:WVV852020 SU917552:TF917556 ACQ917552:ADB917556 AMM917552:AMX917556 AWI917552:AWT917556 BGE917552:BGP917556 BQA917552:BQL917556 BZW917552:CAH917556 CJS917552:CKD917556 CTO917552:CTZ917556 DDK917552:DDV917556 DNG917552:DNR917556 DXC917552:DXN917556 EGY917552:EHJ917556 EQU917552:ERF917556 FAQ917552:FBB917556 FKM917552:FKX917556 FUI917552:FUT917556 GEE917552:GEP917556 GOA917552:GOL917556 GXW917552:GYH917556 HHS917552:HID917556 HRO917552:HRZ917556 IBK917552:IBV917556 ILG917552:ILR917556 IVC917552:IVN917556 JEY917552:JFJ917556 JOU917552:JPF917556 JYQ917552:JZB917556 KIM917552:KIX917556 KSI917552:KST917556 LCE917552:LCP917556 LMA917552:LML917556 LVW917552:LWH917556 MFS917552:MGD917556 MPO917552:MPZ917556 MZK917552:MZV917556 NJG917552:NJR917556 NTC917552:NTN917556 OCY917552:ODJ917556 OMU917552:ONF917556 OWQ917552:OXB917556 PGM917552:PGX917556 PQI917552:PQT917556 QAE917552:QAP917556 QKA917552:QKL917556 QTW917552:QUH917556 RDS917552:RED917556 RNO917552:RNZ917556 RXK917552:RXV917556 SHG917552:SHR917556 SRC917552:SRN917556 TAY917552:TBJ917556 TKU917552:TLF917556 TUQ917552:TVB917556 UEM917552:UEX917556 UOI917552:UOT917556 UYE917552:UYP917556 VIA917552:VIL917556 VRW917552:VSH917556 WBS917552:WCD917556 WLO917552:WLZ917556 WVK917552:WVV917556 WVK983088:WVV983092 SU983088:TF983092 ACQ983088:ADB983092 AMM983088:AMX983092 AWI983088:AWT983092 BGE983088:BGP983092 BQA983088:BQL983092 BZW983088:CAH983092 CJS983088:CKD983092 CTO983088:CTZ983092 DDK983088:DDV983092 DNG983088:DNR983092 DXC983088:DXN983092 EGY983088:EHJ983092 EQU983088:ERF983092 FAQ983088:FBB983092 FKM983088:FKX983092 FUI983088:FUT983092 GEE983088:GEP983092 GOA983088:GOL983092 GXW983088:GYH983092 HHS983088:HID983092 HRO983088:HRZ983092 IBK983088:IBV983092 ILG983088:ILR983092 IVC983088:IVN983092 JEY983088:JFJ983092 JOU983088:JPF983092 JYQ983088:JZB983092 KIM983088:KIX983092 KSI983088:KST983092 LCE983088:LCP983092 LMA983088:LML983092 LVW983088:LWH983092 MFS983088:MGD983092 MPO983088:MPZ983092 MZK983088:MZV983092 NJG983088:NJR983092 NTC983088:NTN983092 OCY983088:ODJ983092 OMU983088:ONF983092 OWQ983088:OXB983092 PGM983088:PGX983092 PQI983088:PQT983092 QAE983088:QAP983092 QKA983088:QKL983092 QTW983088:QUH983092 RDS983088:RED983092 RNO983088:RNZ983092 RXK983088:RXV983092 SHG983088:SHR983092 SRC983088:SRN983092 TAY983088:TBJ983092 TKU983088:TLF983092 TUQ983088:TVB983092 UEM983088:UEX983092 UOI983088:UOT983092 UYE983088:UYP983092 VIA983088:VIL983092 VRW983088:VSH983092 WBS983088:WCD983092 WLO983088:WLZ983092 IY50:IY54 C917556:M917560 C852020:M852024 C786484:M786488 C720948:M720952 C655412:M655416 C589876:M589880 C524340:M524344 C458804:M458808 C393268:M393272 C327732:M327736 C262196:M262200 C196660:M196664 C131124:M131128 C65588:M65592 C983092:M983096 IY983092:IY983096 IZ983088:JJ983092 IY917556:IY917560 IZ917552:JJ917556 IY852020:IY852024 IZ852016:JJ852020 IY786484:IY786488 IZ786480:JJ786484 IY720948:IY720952 IZ720944:JJ720948 IY655412:IY655416 IZ655408:JJ655412 IY589876:IY589880 IZ589872:JJ589876 IY524340:IY524344 IZ524336:JJ524340 IY458804:IY458808 IZ458800:JJ458804 IY393268:IY393272 IZ393264:JJ393268 IY327732:IY327736 IZ327728:JJ327732 IY262196:IY262200 IZ262192:JJ262196 IY196660:IY196664 IZ196656:JJ196660 IY131124:IY131128 IZ131120:JJ131124 IY65588:IY65592 IZ65584:JJ65588 IZ46:JJ50 C50:M54"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JI65542:JI65581 TE65542:TE65581 ADA65542:ADA65581 AMW65542:AMW65581 AWS65542:AWS65581 BGO65542:BGO65581 BQK65542:BQK65581 CAG65542:CAG65581 CKC65542:CKC65581 CTY65542:CTY65581 DDU65542:DDU65581 DNQ65542:DNQ65581 DXM65542:DXM65581 EHI65542:EHI65581 ERE65542:ERE65581 FBA65542:FBA65581 FKW65542:FKW65581 FUS65542:FUS65581 GEO65542:GEO65581 GOK65542:GOK65581 GYG65542:GYG65581 HIC65542:HIC65581 HRY65542:HRY65581 IBU65542:IBU65581 ILQ65542:ILQ65581 IVM65542:IVM65581 JFI65542:JFI65581 JPE65542:JPE65581 JZA65542:JZA65581 KIW65542:KIW65581 KSS65542:KSS65581 LCO65542:LCO65581 LMK65542:LMK65581 LWG65542:LWG65581 MGC65542:MGC65581 MPY65542:MPY65581 MZU65542:MZU65581 NJQ65542:NJQ65581 NTM65542:NTM65581 ODI65542:ODI65581 ONE65542:ONE65581 OXA65542:OXA65581 PGW65542:PGW65581 PQS65542:PQS65581 QAO65542:QAO65581 QKK65542:QKK65581 QUG65542:QUG65581 REC65542:REC65581 RNY65542:RNY65581 RXU65542:RXU65581 SHQ65542:SHQ65581 SRM65542:SRM65581 TBI65542:TBI65581 TLE65542:TLE65581 TVA65542:TVA65581 UEW65542:UEW65581 UOS65542:UOS65581 UYO65542:UYO65581 VIK65542:VIK65581 VSG65542:VSG65581 WCC65542:WCC65581 WLY65542:WLY65581 WVU65542:WVU65581 JI131078:JI131117 TE131078:TE131117 ADA131078:ADA131117 AMW131078:AMW131117 AWS131078:AWS131117 BGO131078:BGO131117 BQK131078:BQK131117 CAG131078:CAG131117 CKC131078:CKC131117 CTY131078:CTY131117 DDU131078:DDU131117 DNQ131078:DNQ131117 DXM131078:DXM131117 EHI131078:EHI131117 ERE131078:ERE131117 FBA131078:FBA131117 FKW131078:FKW131117 FUS131078:FUS131117 GEO131078:GEO131117 GOK131078:GOK131117 GYG131078:GYG131117 HIC131078:HIC131117 HRY131078:HRY131117 IBU131078:IBU131117 ILQ131078:ILQ131117 IVM131078:IVM131117 JFI131078:JFI131117 JPE131078:JPE131117 JZA131078:JZA131117 KIW131078:KIW131117 KSS131078:KSS131117 LCO131078:LCO131117 LMK131078:LMK131117 LWG131078:LWG131117 MGC131078:MGC131117 MPY131078:MPY131117 MZU131078:MZU131117 NJQ131078:NJQ131117 NTM131078:NTM131117 ODI131078:ODI131117 ONE131078:ONE131117 OXA131078:OXA131117 PGW131078:PGW131117 PQS131078:PQS131117 QAO131078:QAO131117 QKK131078:QKK131117 QUG131078:QUG131117 REC131078:REC131117 RNY131078:RNY131117 RXU131078:RXU131117 SHQ131078:SHQ131117 SRM131078:SRM131117 TBI131078:TBI131117 TLE131078:TLE131117 TVA131078:TVA131117 UEW131078:UEW131117 UOS131078:UOS131117 UYO131078:UYO131117 VIK131078:VIK131117 VSG131078:VSG131117 WCC131078:WCC131117 WLY131078:WLY131117 WVU131078:WVU131117 JI196614:JI196653 TE196614:TE196653 ADA196614:ADA196653 AMW196614:AMW196653 AWS196614:AWS196653 BGO196614:BGO196653 BQK196614:BQK196653 CAG196614:CAG196653 CKC196614:CKC196653 CTY196614:CTY196653 DDU196614:DDU196653 DNQ196614:DNQ196653 DXM196614:DXM196653 EHI196614:EHI196653 ERE196614:ERE196653 FBA196614:FBA196653 FKW196614:FKW196653 FUS196614:FUS196653 GEO196614:GEO196653 GOK196614:GOK196653 GYG196614:GYG196653 HIC196614:HIC196653 HRY196614:HRY196653 IBU196614:IBU196653 ILQ196614:ILQ196653 IVM196614:IVM196653 JFI196614:JFI196653 JPE196614:JPE196653 JZA196614:JZA196653 KIW196614:KIW196653 KSS196614:KSS196653 LCO196614:LCO196653 LMK196614:LMK196653 LWG196614:LWG196653 MGC196614:MGC196653 MPY196614:MPY196653 MZU196614:MZU196653 NJQ196614:NJQ196653 NTM196614:NTM196653 ODI196614:ODI196653 ONE196614:ONE196653 OXA196614:OXA196653 PGW196614:PGW196653 PQS196614:PQS196653 QAO196614:QAO196653 QKK196614:QKK196653 QUG196614:QUG196653 REC196614:REC196653 RNY196614:RNY196653 RXU196614:RXU196653 SHQ196614:SHQ196653 SRM196614:SRM196653 TBI196614:TBI196653 TLE196614:TLE196653 TVA196614:TVA196653 UEW196614:UEW196653 UOS196614:UOS196653 UYO196614:UYO196653 VIK196614:VIK196653 VSG196614:VSG196653 WCC196614:WCC196653 WLY196614:WLY196653 WVU196614:WVU196653 JI262150:JI262189 TE262150:TE262189 ADA262150:ADA262189 AMW262150:AMW262189 AWS262150:AWS262189 BGO262150:BGO262189 BQK262150:BQK262189 CAG262150:CAG262189 CKC262150:CKC262189 CTY262150:CTY262189 DDU262150:DDU262189 DNQ262150:DNQ262189 DXM262150:DXM262189 EHI262150:EHI262189 ERE262150:ERE262189 FBA262150:FBA262189 FKW262150:FKW262189 FUS262150:FUS262189 GEO262150:GEO262189 GOK262150:GOK262189 GYG262150:GYG262189 HIC262150:HIC262189 HRY262150:HRY262189 IBU262150:IBU262189 ILQ262150:ILQ262189 IVM262150:IVM262189 JFI262150:JFI262189 JPE262150:JPE262189 JZA262150:JZA262189 KIW262150:KIW262189 KSS262150:KSS262189 LCO262150:LCO262189 LMK262150:LMK262189 LWG262150:LWG262189 MGC262150:MGC262189 MPY262150:MPY262189 MZU262150:MZU262189 NJQ262150:NJQ262189 NTM262150:NTM262189 ODI262150:ODI262189 ONE262150:ONE262189 OXA262150:OXA262189 PGW262150:PGW262189 PQS262150:PQS262189 QAO262150:QAO262189 QKK262150:QKK262189 QUG262150:QUG262189 REC262150:REC262189 RNY262150:RNY262189 RXU262150:RXU262189 SHQ262150:SHQ262189 SRM262150:SRM262189 TBI262150:TBI262189 TLE262150:TLE262189 TVA262150:TVA262189 UEW262150:UEW262189 UOS262150:UOS262189 UYO262150:UYO262189 VIK262150:VIK262189 VSG262150:VSG262189 WCC262150:WCC262189 WLY262150:WLY262189 WVU262150:WVU262189 JI327686:JI327725 TE327686:TE327725 ADA327686:ADA327725 AMW327686:AMW327725 AWS327686:AWS327725 BGO327686:BGO327725 BQK327686:BQK327725 CAG327686:CAG327725 CKC327686:CKC327725 CTY327686:CTY327725 DDU327686:DDU327725 DNQ327686:DNQ327725 DXM327686:DXM327725 EHI327686:EHI327725 ERE327686:ERE327725 FBA327686:FBA327725 FKW327686:FKW327725 FUS327686:FUS327725 GEO327686:GEO327725 GOK327686:GOK327725 GYG327686:GYG327725 HIC327686:HIC327725 HRY327686:HRY327725 IBU327686:IBU327725 ILQ327686:ILQ327725 IVM327686:IVM327725 JFI327686:JFI327725 JPE327686:JPE327725 JZA327686:JZA327725 KIW327686:KIW327725 KSS327686:KSS327725 LCO327686:LCO327725 LMK327686:LMK327725 LWG327686:LWG327725 MGC327686:MGC327725 MPY327686:MPY327725 MZU327686:MZU327725 NJQ327686:NJQ327725 NTM327686:NTM327725 ODI327686:ODI327725 ONE327686:ONE327725 OXA327686:OXA327725 PGW327686:PGW327725 PQS327686:PQS327725 QAO327686:QAO327725 QKK327686:QKK327725 QUG327686:QUG327725 REC327686:REC327725 RNY327686:RNY327725 RXU327686:RXU327725 SHQ327686:SHQ327725 SRM327686:SRM327725 TBI327686:TBI327725 TLE327686:TLE327725 TVA327686:TVA327725 UEW327686:UEW327725 UOS327686:UOS327725 UYO327686:UYO327725 VIK327686:VIK327725 VSG327686:VSG327725 WCC327686:WCC327725 WLY327686:WLY327725 WVU327686:WVU327725 JI393222:JI393261 TE393222:TE393261 ADA393222:ADA393261 AMW393222:AMW393261 AWS393222:AWS393261 BGO393222:BGO393261 BQK393222:BQK393261 CAG393222:CAG393261 CKC393222:CKC393261 CTY393222:CTY393261 DDU393222:DDU393261 DNQ393222:DNQ393261 DXM393222:DXM393261 EHI393222:EHI393261 ERE393222:ERE393261 FBA393222:FBA393261 FKW393222:FKW393261 FUS393222:FUS393261 GEO393222:GEO393261 GOK393222:GOK393261 GYG393222:GYG393261 HIC393222:HIC393261 HRY393222:HRY393261 IBU393222:IBU393261 ILQ393222:ILQ393261 IVM393222:IVM393261 JFI393222:JFI393261 JPE393222:JPE393261 JZA393222:JZA393261 KIW393222:KIW393261 KSS393222:KSS393261 LCO393222:LCO393261 LMK393222:LMK393261 LWG393222:LWG393261 MGC393222:MGC393261 MPY393222:MPY393261 MZU393222:MZU393261 NJQ393222:NJQ393261 NTM393222:NTM393261 ODI393222:ODI393261 ONE393222:ONE393261 OXA393222:OXA393261 PGW393222:PGW393261 PQS393222:PQS393261 QAO393222:QAO393261 QKK393222:QKK393261 QUG393222:QUG393261 REC393222:REC393261 RNY393222:RNY393261 RXU393222:RXU393261 SHQ393222:SHQ393261 SRM393222:SRM393261 TBI393222:TBI393261 TLE393222:TLE393261 TVA393222:TVA393261 UEW393222:UEW393261 UOS393222:UOS393261 UYO393222:UYO393261 VIK393222:VIK393261 VSG393222:VSG393261 WCC393222:WCC393261 WLY393222:WLY393261 WVU393222:WVU393261 JI458758:JI458797 TE458758:TE458797 ADA458758:ADA458797 AMW458758:AMW458797 AWS458758:AWS458797 BGO458758:BGO458797 BQK458758:BQK458797 CAG458758:CAG458797 CKC458758:CKC458797 CTY458758:CTY458797 DDU458758:DDU458797 DNQ458758:DNQ458797 DXM458758:DXM458797 EHI458758:EHI458797 ERE458758:ERE458797 FBA458758:FBA458797 FKW458758:FKW458797 FUS458758:FUS458797 GEO458758:GEO458797 GOK458758:GOK458797 GYG458758:GYG458797 HIC458758:HIC458797 HRY458758:HRY458797 IBU458758:IBU458797 ILQ458758:ILQ458797 IVM458758:IVM458797 JFI458758:JFI458797 JPE458758:JPE458797 JZA458758:JZA458797 KIW458758:KIW458797 KSS458758:KSS458797 LCO458758:LCO458797 LMK458758:LMK458797 LWG458758:LWG458797 MGC458758:MGC458797 MPY458758:MPY458797 MZU458758:MZU458797 NJQ458758:NJQ458797 NTM458758:NTM458797 ODI458758:ODI458797 ONE458758:ONE458797 OXA458758:OXA458797 PGW458758:PGW458797 PQS458758:PQS458797 QAO458758:QAO458797 QKK458758:QKK458797 QUG458758:QUG458797 REC458758:REC458797 RNY458758:RNY458797 RXU458758:RXU458797 SHQ458758:SHQ458797 SRM458758:SRM458797 TBI458758:TBI458797 TLE458758:TLE458797 TVA458758:TVA458797 UEW458758:UEW458797 UOS458758:UOS458797 UYO458758:UYO458797 VIK458758:VIK458797 VSG458758:VSG458797 WCC458758:WCC458797 WLY458758:WLY458797 WVU458758:WVU458797 JI524294:JI524333 TE524294:TE524333 ADA524294:ADA524333 AMW524294:AMW524333 AWS524294:AWS524333 BGO524294:BGO524333 BQK524294:BQK524333 CAG524294:CAG524333 CKC524294:CKC524333 CTY524294:CTY524333 DDU524294:DDU524333 DNQ524294:DNQ524333 DXM524294:DXM524333 EHI524294:EHI524333 ERE524294:ERE524333 FBA524294:FBA524333 FKW524294:FKW524333 FUS524294:FUS524333 GEO524294:GEO524333 GOK524294:GOK524333 GYG524294:GYG524333 HIC524294:HIC524333 HRY524294:HRY524333 IBU524294:IBU524333 ILQ524294:ILQ524333 IVM524294:IVM524333 JFI524294:JFI524333 JPE524294:JPE524333 JZA524294:JZA524333 KIW524294:KIW524333 KSS524294:KSS524333 LCO524294:LCO524333 LMK524294:LMK524333 LWG524294:LWG524333 MGC524294:MGC524333 MPY524294:MPY524333 MZU524294:MZU524333 NJQ524294:NJQ524333 NTM524294:NTM524333 ODI524294:ODI524333 ONE524294:ONE524333 OXA524294:OXA524333 PGW524294:PGW524333 PQS524294:PQS524333 QAO524294:QAO524333 QKK524294:QKK524333 QUG524294:QUG524333 REC524294:REC524333 RNY524294:RNY524333 RXU524294:RXU524333 SHQ524294:SHQ524333 SRM524294:SRM524333 TBI524294:TBI524333 TLE524294:TLE524333 TVA524294:TVA524333 UEW524294:UEW524333 UOS524294:UOS524333 UYO524294:UYO524333 VIK524294:VIK524333 VSG524294:VSG524333 WCC524294:WCC524333 WLY524294:WLY524333 WVU524294:WVU524333 JI589830:JI589869 TE589830:TE589869 ADA589830:ADA589869 AMW589830:AMW589869 AWS589830:AWS589869 BGO589830:BGO589869 BQK589830:BQK589869 CAG589830:CAG589869 CKC589830:CKC589869 CTY589830:CTY589869 DDU589830:DDU589869 DNQ589830:DNQ589869 DXM589830:DXM589869 EHI589830:EHI589869 ERE589830:ERE589869 FBA589830:FBA589869 FKW589830:FKW589869 FUS589830:FUS589869 GEO589830:GEO589869 GOK589830:GOK589869 GYG589830:GYG589869 HIC589830:HIC589869 HRY589830:HRY589869 IBU589830:IBU589869 ILQ589830:ILQ589869 IVM589830:IVM589869 JFI589830:JFI589869 JPE589830:JPE589869 JZA589830:JZA589869 KIW589830:KIW589869 KSS589830:KSS589869 LCO589830:LCO589869 LMK589830:LMK589869 LWG589830:LWG589869 MGC589830:MGC589869 MPY589830:MPY589869 MZU589830:MZU589869 NJQ589830:NJQ589869 NTM589830:NTM589869 ODI589830:ODI589869 ONE589830:ONE589869 OXA589830:OXA589869 PGW589830:PGW589869 PQS589830:PQS589869 QAO589830:QAO589869 QKK589830:QKK589869 QUG589830:QUG589869 REC589830:REC589869 RNY589830:RNY589869 RXU589830:RXU589869 SHQ589830:SHQ589869 SRM589830:SRM589869 TBI589830:TBI589869 TLE589830:TLE589869 TVA589830:TVA589869 UEW589830:UEW589869 UOS589830:UOS589869 UYO589830:UYO589869 VIK589830:VIK589869 VSG589830:VSG589869 WCC589830:WCC589869 WLY589830:WLY589869 WVU589830:WVU589869 JI655366:JI655405 TE655366:TE655405 ADA655366:ADA655405 AMW655366:AMW655405 AWS655366:AWS655405 BGO655366:BGO655405 BQK655366:BQK655405 CAG655366:CAG655405 CKC655366:CKC655405 CTY655366:CTY655405 DDU655366:DDU655405 DNQ655366:DNQ655405 DXM655366:DXM655405 EHI655366:EHI655405 ERE655366:ERE655405 FBA655366:FBA655405 FKW655366:FKW655405 FUS655366:FUS655405 GEO655366:GEO655405 GOK655366:GOK655405 GYG655366:GYG655405 HIC655366:HIC655405 HRY655366:HRY655405 IBU655366:IBU655405 ILQ655366:ILQ655405 IVM655366:IVM655405 JFI655366:JFI655405 JPE655366:JPE655405 JZA655366:JZA655405 KIW655366:KIW655405 KSS655366:KSS655405 LCO655366:LCO655405 LMK655366:LMK655405 LWG655366:LWG655405 MGC655366:MGC655405 MPY655366:MPY655405 MZU655366:MZU655405 NJQ655366:NJQ655405 NTM655366:NTM655405 ODI655366:ODI655405 ONE655366:ONE655405 OXA655366:OXA655405 PGW655366:PGW655405 PQS655366:PQS655405 QAO655366:QAO655405 QKK655366:QKK655405 QUG655366:QUG655405 REC655366:REC655405 RNY655366:RNY655405 RXU655366:RXU655405 SHQ655366:SHQ655405 SRM655366:SRM655405 TBI655366:TBI655405 TLE655366:TLE655405 TVA655366:TVA655405 UEW655366:UEW655405 UOS655366:UOS655405 UYO655366:UYO655405 VIK655366:VIK655405 VSG655366:VSG655405 WCC655366:WCC655405 WLY655366:WLY655405 WVU655366:WVU655405 JI720902:JI720941 TE720902:TE720941 ADA720902:ADA720941 AMW720902:AMW720941 AWS720902:AWS720941 BGO720902:BGO720941 BQK720902:BQK720941 CAG720902:CAG720941 CKC720902:CKC720941 CTY720902:CTY720941 DDU720902:DDU720941 DNQ720902:DNQ720941 DXM720902:DXM720941 EHI720902:EHI720941 ERE720902:ERE720941 FBA720902:FBA720941 FKW720902:FKW720941 FUS720902:FUS720941 GEO720902:GEO720941 GOK720902:GOK720941 GYG720902:GYG720941 HIC720902:HIC720941 HRY720902:HRY720941 IBU720902:IBU720941 ILQ720902:ILQ720941 IVM720902:IVM720941 JFI720902:JFI720941 JPE720902:JPE720941 JZA720902:JZA720941 KIW720902:KIW720941 KSS720902:KSS720941 LCO720902:LCO720941 LMK720902:LMK720941 LWG720902:LWG720941 MGC720902:MGC720941 MPY720902:MPY720941 MZU720902:MZU720941 NJQ720902:NJQ720941 NTM720902:NTM720941 ODI720902:ODI720941 ONE720902:ONE720941 OXA720902:OXA720941 PGW720902:PGW720941 PQS720902:PQS720941 QAO720902:QAO720941 QKK720902:QKK720941 QUG720902:QUG720941 REC720902:REC720941 RNY720902:RNY720941 RXU720902:RXU720941 SHQ720902:SHQ720941 SRM720902:SRM720941 TBI720902:TBI720941 TLE720902:TLE720941 TVA720902:TVA720941 UEW720902:UEW720941 UOS720902:UOS720941 UYO720902:UYO720941 VIK720902:VIK720941 VSG720902:VSG720941 WCC720902:WCC720941 WLY720902:WLY720941 WVU720902:WVU720941 JI786438:JI786477 TE786438:TE786477 ADA786438:ADA786477 AMW786438:AMW786477 AWS786438:AWS786477 BGO786438:BGO786477 BQK786438:BQK786477 CAG786438:CAG786477 CKC786438:CKC786477 CTY786438:CTY786477 DDU786438:DDU786477 DNQ786438:DNQ786477 DXM786438:DXM786477 EHI786438:EHI786477 ERE786438:ERE786477 FBA786438:FBA786477 FKW786438:FKW786477 FUS786438:FUS786477 GEO786438:GEO786477 GOK786438:GOK786477 GYG786438:GYG786477 HIC786438:HIC786477 HRY786438:HRY786477 IBU786438:IBU786477 ILQ786438:ILQ786477 IVM786438:IVM786477 JFI786438:JFI786477 JPE786438:JPE786477 JZA786438:JZA786477 KIW786438:KIW786477 KSS786438:KSS786477 LCO786438:LCO786477 LMK786438:LMK786477 LWG786438:LWG786477 MGC786438:MGC786477 MPY786438:MPY786477 MZU786438:MZU786477 NJQ786438:NJQ786477 NTM786438:NTM786477 ODI786438:ODI786477 ONE786438:ONE786477 OXA786438:OXA786477 PGW786438:PGW786477 PQS786438:PQS786477 QAO786438:QAO786477 QKK786438:QKK786477 QUG786438:QUG786477 REC786438:REC786477 RNY786438:RNY786477 RXU786438:RXU786477 SHQ786438:SHQ786477 SRM786438:SRM786477 TBI786438:TBI786477 TLE786438:TLE786477 TVA786438:TVA786477 UEW786438:UEW786477 UOS786438:UOS786477 UYO786438:UYO786477 VIK786438:VIK786477 VSG786438:VSG786477 WCC786438:WCC786477 WLY786438:WLY786477 WVU786438:WVU786477 JI851974:JI852013 TE851974:TE852013 ADA851974:ADA852013 AMW851974:AMW852013 AWS851974:AWS852013 BGO851974:BGO852013 BQK851974:BQK852013 CAG851974:CAG852013 CKC851974:CKC852013 CTY851974:CTY852013 DDU851974:DDU852013 DNQ851974:DNQ852013 DXM851974:DXM852013 EHI851974:EHI852013 ERE851974:ERE852013 FBA851974:FBA852013 FKW851974:FKW852013 FUS851974:FUS852013 GEO851974:GEO852013 GOK851974:GOK852013 GYG851974:GYG852013 HIC851974:HIC852013 HRY851974:HRY852013 IBU851974:IBU852013 ILQ851974:ILQ852013 IVM851974:IVM852013 JFI851974:JFI852013 JPE851974:JPE852013 JZA851974:JZA852013 KIW851974:KIW852013 KSS851974:KSS852013 LCO851974:LCO852013 LMK851974:LMK852013 LWG851974:LWG852013 MGC851974:MGC852013 MPY851974:MPY852013 MZU851974:MZU852013 NJQ851974:NJQ852013 NTM851974:NTM852013 ODI851974:ODI852013 ONE851974:ONE852013 OXA851974:OXA852013 PGW851974:PGW852013 PQS851974:PQS852013 QAO851974:QAO852013 QKK851974:QKK852013 QUG851974:QUG852013 REC851974:REC852013 RNY851974:RNY852013 RXU851974:RXU852013 SHQ851974:SHQ852013 SRM851974:SRM852013 TBI851974:TBI852013 TLE851974:TLE852013 TVA851974:TVA852013 UEW851974:UEW852013 UOS851974:UOS852013 UYO851974:UYO852013 VIK851974:VIK852013 VSG851974:VSG852013 WCC851974:WCC852013 WLY851974:WLY852013 WVU851974:WVU852013 JI917510:JI917549 TE917510:TE917549 ADA917510:ADA917549 AMW917510:AMW917549 AWS917510:AWS917549 BGO917510:BGO917549 BQK917510:BQK917549 CAG917510:CAG917549 CKC917510:CKC917549 CTY917510:CTY917549 DDU917510:DDU917549 DNQ917510:DNQ917549 DXM917510:DXM917549 EHI917510:EHI917549 ERE917510:ERE917549 FBA917510:FBA917549 FKW917510:FKW917549 FUS917510:FUS917549 GEO917510:GEO917549 GOK917510:GOK917549 GYG917510:GYG917549 HIC917510:HIC917549 HRY917510:HRY917549 IBU917510:IBU917549 ILQ917510:ILQ917549 IVM917510:IVM917549 JFI917510:JFI917549 JPE917510:JPE917549 JZA917510:JZA917549 KIW917510:KIW917549 KSS917510:KSS917549 LCO917510:LCO917549 LMK917510:LMK917549 LWG917510:LWG917549 MGC917510:MGC917549 MPY917510:MPY917549 MZU917510:MZU917549 NJQ917510:NJQ917549 NTM917510:NTM917549 ODI917510:ODI917549 ONE917510:ONE917549 OXA917510:OXA917549 PGW917510:PGW917549 PQS917510:PQS917549 QAO917510:QAO917549 QKK917510:QKK917549 QUG917510:QUG917549 REC917510:REC917549 RNY917510:RNY917549 RXU917510:RXU917549 SHQ917510:SHQ917549 SRM917510:SRM917549 TBI917510:TBI917549 TLE917510:TLE917549 TVA917510:TVA917549 UEW917510:UEW917549 UOS917510:UOS917549 UYO917510:UYO917549 VIK917510:VIK917549 VSG917510:VSG917549 WCC917510:WCC917549 WLY917510:WLY917549 WVU917510:WVU917549 JI983046:JI983085 TE983046:TE983085 ADA983046:ADA983085 AMW983046:AMW983085 AWS983046:AWS983085 BGO983046:BGO983085 BQK983046:BQK983085 CAG983046:CAG983085 CKC983046:CKC983085 CTY983046:CTY983085 DDU983046:DDU983085 DNQ983046:DNQ983085 DXM983046:DXM983085 EHI983046:EHI983085 ERE983046:ERE983085 FBA983046:FBA983085 FKW983046:FKW983085 FUS983046:FUS983085 GEO983046:GEO983085 GOK983046:GOK983085 GYG983046:GYG983085 HIC983046:HIC983085 HRY983046:HRY983085 IBU983046:IBU983085 ILQ983046:ILQ983085 IVM983046:IVM983085 JFI983046:JFI983085 JPE983046:JPE983085 JZA983046:JZA983085 KIW983046:KIW983085 KSS983046:KSS983085 LCO983046:LCO983085 LMK983046:LMK983085 LWG983046:LWG983085 MGC983046:MGC983085 MPY983046:MPY983085 MZU983046:MZU983085 NJQ983046:NJQ983085 NTM983046:NTM983085 ODI983046:ODI983085 ONE983046:ONE983085 OXA983046:OXA983085 PGW983046:PGW983085 PQS983046:PQS983085 QAO983046:QAO983085 QKK983046:QKK983085 QUG983046:QUG983085 REC983046:REC983085 RNY983046:RNY983085 RXU983046:RXU983085 SHQ983046:SHQ983085 SRM983046:SRM983085 TBI983046:TBI983085 TLE983046:TLE983085 TVA983046:TVA983085 UEW983046:UEW983085 UOS983046:UOS983085 UYO983046:UYO983085 VIK983046:VIK983085 VSG983046:VSG983085 WCC983046:WCC983085 WLY983046:WLY983085 WVU983046:WVU983085 WVU5:WVU43 WLY5:WLY43 WCC5:WCC43 VSG5:VSG43 VIK5:VIK43 UYO5:UYO43 UOS5:UOS43 UEW5:UEW43 TVA5:TVA43 TLE5:TLE43 TBI5:TBI43 SRM5:SRM43 SHQ5:SHQ43 RXU5:RXU43 RNY5:RNY43 REC5:REC43 QUG5:QUG43 QKK5:QKK43 QAO5:QAO43 PQS5:PQS43 PGW5:PGW43 OXA5:OXA43 ONE5:ONE43 ODI5:ODI43 NTM5:NTM43 NJQ5:NJQ43 MZU5:MZU43 MPY5:MPY43 MGC5:MGC43 LWG5:LWG43 LMK5:LMK43 LCO5:LCO43 KSS5:KSS43 KIW5:KIW43 JZA5:JZA43 JPE5:JPE43 JFI5:JFI43 IVM5:IVM43 ILQ5:ILQ43 IBU5:IBU43 HRY5:HRY43 HIC5:HIC43 GYG5:GYG43 GOK5:GOK43 GEO5:GEO43 FUS5:FUS43 FKW5:FKW43 FBA5:FBA43 ERE5:ERE43 EHI5:EHI43 DXM5:DXM43 DNQ5:DNQ43 DDU5:DDU43 CTY5:CTY43 CKC5:CKC43 CAG5:CAG43 BQK5:BQK43 BGO5:BGO43 AWS5:AWS43 AMW5:AMW43 ADA5:ADA43 TE5:TE43 JI5:JI43">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="يجب أن تكون القيمة بين 0 و 5" sqref="SU46:TF50 ACQ46:ADB50 AMM46:AMX50 AWI46:AWT50 BGE46:BGP50 BQA46:BQL50 BZW46:CAH50 CJS46:CKD50 CTO46:CTZ50 DDK46:DDV50 DNG46:DNR50 DXC46:DXN50 EGY46:EHJ50 EQU46:ERF50 FAQ46:FBB50 FKM46:FKX50 FUI46:FUT50 GEE46:GEP50 GOA46:GOL50 GXW46:GYH50 HHS46:HID50 HRO46:HRZ50 IBK46:IBV50 ILG46:ILR50 IVC46:IVN50 JEY46:JFJ50 JOU46:JPF50 JYQ46:JZB50 KIM46:KIX50 KSI46:KST50 LCE46:LCP50 LMA46:LML50 LVW46:LWH50 MFS46:MGD50 MPO46:MPZ50 MZK46:MZV50 NJG46:NJR50 NTC46:NTN50 OCY46:ODJ50 OMU46:ONF50 OWQ46:OXB50 PGM46:PGX50 PQI46:PQT50 QAE46:QAP50 QKA46:QKL50 QTW46:QUH50 RDS46:RED50 RNO46:RNZ50 RXK46:RXV50 SHG46:SHR50 SRC46:SRN50 TAY46:TBJ50 TKU46:TLF50 TUQ46:TVB50 UEM46:UEX50 UOI46:UOT50 UYE46:UYP50 VIA46:VIL50 VRW46:VSH50 WBS46:WCD50 WLO46:WLZ50 WVK46:WVV50 SU65584:TF65588 ACQ65584:ADB65588 AMM65584:AMX65588 AWI65584:AWT65588 BGE65584:BGP65588 BQA65584:BQL65588 BZW65584:CAH65588 CJS65584:CKD65588 CTO65584:CTZ65588 DDK65584:DDV65588 DNG65584:DNR65588 DXC65584:DXN65588 EGY65584:EHJ65588 EQU65584:ERF65588 FAQ65584:FBB65588 FKM65584:FKX65588 FUI65584:FUT65588 GEE65584:GEP65588 GOA65584:GOL65588 GXW65584:GYH65588 HHS65584:HID65588 HRO65584:HRZ65588 IBK65584:IBV65588 ILG65584:ILR65588 IVC65584:IVN65588 JEY65584:JFJ65588 JOU65584:JPF65588 JYQ65584:JZB65588 KIM65584:KIX65588 KSI65584:KST65588 LCE65584:LCP65588 LMA65584:LML65588 LVW65584:LWH65588 MFS65584:MGD65588 MPO65584:MPZ65588 MZK65584:MZV65588 NJG65584:NJR65588 NTC65584:NTN65588 OCY65584:ODJ65588 OMU65584:ONF65588 OWQ65584:OXB65588 PGM65584:PGX65588 PQI65584:PQT65588 QAE65584:QAP65588 QKA65584:QKL65588 QTW65584:QUH65588 RDS65584:RED65588 RNO65584:RNZ65588 RXK65584:RXV65588 SHG65584:SHR65588 SRC65584:SRN65588 TAY65584:TBJ65588 TKU65584:TLF65588 TUQ65584:TVB65588 UEM65584:UEX65588 UOI65584:UOT65588 UYE65584:UYP65588 VIA65584:VIL65588 VRW65584:VSH65588 WBS65584:WCD65588 WLO65584:WLZ65588 WVK65584:WVV65588 SU131120:TF131124 ACQ131120:ADB131124 AMM131120:AMX131124 AWI131120:AWT131124 BGE131120:BGP131124 BQA131120:BQL131124 BZW131120:CAH131124 CJS131120:CKD131124 CTO131120:CTZ131124 DDK131120:DDV131124 DNG131120:DNR131124 DXC131120:DXN131124 EGY131120:EHJ131124 EQU131120:ERF131124 FAQ131120:FBB131124 FKM131120:FKX131124 FUI131120:FUT131124 GEE131120:GEP131124 GOA131120:GOL131124 GXW131120:GYH131124 HHS131120:HID131124 HRO131120:HRZ131124 IBK131120:IBV131124 ILG131120:ILR131124 IVC131120:IVN131124 JEY131120:JFJ131124 JOU131120:JPF131124 JYQ131120:JZB131124 KIM131120:KIX131124 KSI131120:KST131124 LCE131120:LCP131124 LMA131120:LML131124 LVW131120:LWH131124 MFS131120:MGD131124 MPO131120:MPZ131124 MZK131120:MZV131124 NJG131120:NJR131124 NTC131120:NTN131124 OCY131120:ODJ131124 OMU131120:ONF131124 OWQ131120:OXB131124 PGM131120:PGX131124 PQI131120:PQT131124 QAE131120:QAP131124 QKA131120:QKL131124 QTW131120:QUH131124 RDS131120:RED131124 RNO131120:RNZ131124 RXK131120:RXV131124 SHG131120:SHR131124 SRC131120:SRN131124 TAY131120:TBJ131124 TKU131120:TLF131124 TUQ131120:TVB131124 UEM131120:UEX131124 UOI131120:UOT131124 UYE131120:UYP131124 VIA131120:VIL131124 VRW131120:VSH131124 WBS131120:WCD131124 WLO131120:WLZ131124 WVK131120:WVV131124 SU196656:TF196660 ACQ196656:ADB196660 AMM196656:AMX196660 AWI196656:AWT196660 BGE196656:BGP196660 BQA196656:BQL196660 BZW196656:CAH196660 CJS196656:CKD196660 CTO196656:CTZ196660 DDK196656:DDV196660 DNG196656:DNR196660 DXC196656:DXN196660 EGY196656:EHJ196660 EQU196656:ERF196660 FAQ196656:FBB196660 FKM196656:FKX196660 FUI196656:FUT196660 GEE196656:GEP196660 GOA196656:GOL196660 GXW196656:GYH196660 HHS196656:HID196660 HRO196656:HRZ196660 IBK196656:IBV196660 ILG196656:ILR196660 IVC196656:IVN196660 JEY196656:JFJ196660 JOU196656:JPF196660 JYQ196656:JZB196660 KIM196656:KIX196660 KSI196656:KST196660 LCE196656:LCP196660 LMA196656:LML196660 LVW196656:LWH196660 MFS196656:MGD196660 MPO196656:MPZ196660 MZK196656:MZV196660 NJG196656:NJR196660 NTC196656:NTN196660 OCY196656:ODJ196660 OMU196656:ONF196660 OWQ196656:OXB196660 PGM196656:PGX196660 PQI196656:PQT196660 QAE196656:QAP196660 QKA196656:QKL196660 QTW196656:QUH196660 RDS196656:RED196660 RNO196656:RNZ196660 RXK196656:RXV196660 SHG196656:SHR196660 SRC196656:SRN196660 TAY196656:TBJ196660 TKU196656:TLF196660 TUQ196656:TVB196660 UEM196656:UEX196660 UOI196656:UOT196660 UYE196656:UYP196660 VIA196656:VIL196660 VRW196656:VSH196660 WBS196656:WCD196660 WLO196656:WLZ196660 WVK196656:WVV196660 SU262192:TF262196 ACQ262192:ADB262196 AMM262192:AMX262196 AWI262192:AWT262196 BGE262192:BGP262196 BQA262192:BQL262196 BZW262192:CAH262196 CJS262192:CKD262196 CTO262192:CTZ262196 DDK262192:DDV262196 DNG262192:DNR262196 DXC262192:DXN262196 EGY262192:EHJ262196 EQU262192:ERF262196 FAQ262192:FBB262196 FKM262192:FKX262196 FUI262192:FUT262196 GEE262192:GEP262196 GOA262192:GOL262196 GXW262192:GYH262196 HHS262192:HID262196 HRO262192:HRZ262196 IBK262192:IBV262196 ILG262192:ILR262196 IVC262192:IVN262196 JEY262192:JFJ262196 JOU262192:JPF262196 JYQ262192:JZB262196 KIM262192:KIX262196 KSI262192:KST262196 LCE262192:LCP262196 LMA262192:LML262196 LVW262192:LWH262196 MFS262192:MGD262196 MPO262192:MPZ262196 MZK262192:MZV262196 NJG262192:NJR262196 NTC262192:NTN262196 OCY262192:ODJ262196 OMU262192:ONF262196 OWQ262192:OXB262196 PGM262192:PGX262196 PQI262192:PQT262196 QAE262192:QAP262196 QKA262192:QKL262196 QTW262192:QUH262196 RDS262192:RED262196 RNO262192:RNZ262196 RXK262192:RXV262196 SHG262192:SHR262196 SRC262192:SRN262196 TAY262192:TBJ262196 TKU262192:TLF262196 TUQ262192:TVB262196 UEM262192:UEX262196 UOI262192:UOT262196 UYE262192:UYP262196 VIA262192:VIL262196 VRW262192:VSH262196 WBS262192:WCD262196 WLO262192:WLZ262196 WVK262192:WVV262196 SU327728:TF327732 ACQ327728:ADB327732 AMM327728:AMX327732 AWI327728:AWT327732 BGE327728:BGP327732 BQA327728:BQL327732 BZW327728:CAH327732 CJS327728:CKD327732 CTO327728:CTZ327732 DDK327728:DDV327732 DNG327728:DNR327732 DXC327728:DXN327732 EGY327728:EHJ327732 EQU327728:ERF327732 FAQ327728:FBB327732 FKM327728:FKX327732 FUI327728:FUT327732 GEE327728:GEP327732 GOA327728:GOL327732 GXW327728:GYH327732 HHS327728:HID327732 HRO327728:HRZ327732 IBK327728:IBV327732 ILG327728:ILR327732 IVC327728:IVN327732 JEY327728:JFJ327732 JOU327728:JPF327732 JYQ327728:JZB327732 KIM327728:KIX327732 KSI327728:KST327732 LCE327728:LCP327732 LMA327728:LML327732 LVW327728:LWH327732 MFS327728:MGD327732 MPO327728:MPZ327732 MZK327728:MZV327732 NJG327728:NJR327732 NTC327728:NTN327732 OCY327728:ODJ327732 OMU327728:ONF327732 OWQ327728:OXB327732 PGM327728:PGX327732 PQI327728:PQT327732 QAE327728:QAP327732 QKA327728:QKL327732 QTW327728:QUH327732 RDS327728:RED327732 RNO327728:RNZ327732 RXK327728:RXV327732 SHG327728:SHR327732 SRC327728:SRN327732 TAY327728:TBJ327732 TKU327728:TLF327732 TUQ327728:TVB327732 UEM327728:UEX327732 UOI327728:UOT327732 UYE327728:UYP327732 VIA327728:VIL327732 VRW327728:VSH327732 WBS327728:WCD327732 WLO327728:WLZ327732 WVK327728:WVV327732 SU393264:TF393268 ACQ393264:ADB393268 AMM393264:AMX393268 AWI393264:AWT393268 BGE393264:BGP393268 BQA393264:BQL393268 BZW393264:CAH393268 CJS393264:CKD393268 CTO393264:CTZ393268 DDK393264:DDV393268 DNG393264:DNR393268 DXC393264:DXN393268 EGY393264:EHJ393268 EQU393264:ERF393268 FAQ393264:FBB393268 FKM393264:FKX393268 FUI393264:FUT393268 GEE393264:GEP393268 GOA393264:GOL393268 GXW393264:GYH393268 HHS393264:HID393268 HRO393264:HRZ393268 IBK393264:IBV393268 ILG393264:ILR393268 IVC393264:IVN393268 JEY393264:JFJ393268 JOU393264:JPF393268 JYQ393264:JZB393268 KIM393264:KIX393268 KSI393264:KST393268 LCE393264:LCP393268 LMA393264:LML393268 LVW393264:LWH393268 MFS393264:MGD393268 MPO393264:MPZ393268 MZK393264:MZV393268 NJG393264:NJR393268 NTC393264:NTN393268 OCY393264:ODJ393268 OMU393264:ONF393268 OWQ393264:OXB393268 PGM393264:PGX393268 PQI393264:PQT393268 QAE393264:QAP393268 QKA393264:QKL393268 QTW393264:QUH393268 RDS393264:RED393268 RNO393264:RNZ393268 RXK393264:RXV393268 SHG393264:SHR393268 SRC393264:SRN393268 TAY393264:TBJ393268 TKU393264:TLF393268 TUQ393264:TVB393268 UEM393264:UEX393268 UOI393264:UOT393268 UYE393264:UYP393268 VIA393264:VIL393268 VRW393264:VSH393268 WBS393264:WCD393268 WLO393264:WLZ393268 WVK393264:WVV393268 SU458800:TF458804 ACQ458800:ADB458804 AMM458800:AMX458804 AWI458800:AWT458804 BGE458800:BGP458804 BQA458800:BQL458804 BZW458800:CAH458804 CJS458800:CKD458804 CTO458800:CTZ458804 DDK458800:DDV458804 DNG458800:DNR458804 DXC458800:DXN458804 EGY458800:EHJ458804 EQU458800:ERF458804 FAQ458800:FBB458804 FKM458800:FKX458804 FUI458800:FUT458804 GEE458800:GEP458804 GOA458800:GOL458804 GXW458800:GYH458804 HHS458800:HID458804 HRO458800:HRZ458804 IBK458800:IBV458804 ILG458800:ILR458804 IVC458800:IVN458804 JEY458800:JFJ458804 JOU458800:JPF458804 JYQ458800:JZB458804 KIM458800:KIX458804 KSI458800:KST458804 LCE458800:LCP458804 LMA458800:LML458804 LVW458800:LWH458804 MFS458800:MGD458804 MPO458800:MPZ458804 MZK458800:MZV458804 NJG458800:NJR458804 NTC458800:NTN458804 OCY458800:ODJ458804 OMU458800:ONF458804 OWQ458800:OXB458804 PGM458800:PGX458804 PQI458800:PQT458804 QAE458800:QAP458804 QKA458800:QKL458804 QTW458800:QUH458804 RDS458800:RED458804 RNO458800:RNZ458804 RXK458800:RXV458804 SHG458800:SHR458804 SRC458800:SRN458804 TAY458800:TBJ458804 TKU458800:TLF458804 TUQ458800:TVB458804 UEM458800:UEX458804 UOI458800:UOT458804 UYE458800:UYP458804 VIA458800:VIL458804 VRW458800:VSH458804 WBS458800:WCD458804 WLO458800:WLZ458804 WVK458800:WVV458804 SU524336:TF524340 ACQ524336:ADB524340 AMM524336:AMX524340 AWI524336:AWT524340 BGE524336:BGP524340 BQA524336:BQL524340 BZW524336:CAH524340 CJS524336:CKD524340 CTO524336:CTZ524340 DDK524336:DDV524340 DNG524336:DNR524340 DXC524336:DXN524340 EGY524336:EHJ524340 EQU524336:ERF524340 FAQ524336:FBB524340 FKM524336:FKX524340 FUI524336:FUT524340 GEE524336:GEP524340 GOA524336:GOL524340 GXW524336:GYH524340 HHS524336:HID524340 HRO524336:HRZ524340 IBK524336:IBV524340 ILG524336:ILR524340 IVC524336:IVN524340 JEY524336:JFJ524340 JOU524336:JPF524340 JYQ524336:JZB524340 KIM524336:KIX524340 KSI524336:KST524340 LCE524336:LCP524340 LMA524336:LML524340 LVW524336:LWH524340 MFS524336:MGD524340 MPO524336:MPZ524340 MZK524336:MZV524340 NJG524336:NJR524340 NTC524336:NTN524340 OCY524336:ODJ524340 OMU524336:ONF524340 OWQ524336:OXB524340 PGM524336:PGX524340 PQI524336:PQT524340 QAE524336:QAP524340 QKA524336:QKL524340 QTW524336:QUH524340 RDS524336:RED524340 RNO524336:RNZ524340 RXK524336:RXV524340 SHG524336:SHR524340 SRC524336:SRN524340 TAY524336:TBJ524340 TKU524336:TLF524340 TUQ524336:TVB524340 UEM524336:UEX524340 UOI524336:UOT524340 UYE524336:UYP524340 VIA524336:VIL524340 VRW524336:VSH524340 WBS524336:WCD524340 WLO524336:WLZ524340 WVK524336:WVV524340 SU589872:TF589876 ACQ589872:ADB589876 AMM589872:AMX589876 AWI589872:AWT589876 BGE589872:BGP589876 BQA589872:BQL589876 BZW589872:CAH589876 CJS589872:CKD589876 CTO589872:CTZ589876 DDK589872:DDV589876 DNG589872:DNR589876 DXC589872:DXN589876 EGY589872:EHJ589876 EQU589872:ERF589876 FAQ589872:FBB589876 FKM589872:FKX589876 FUI589872:FUT589876 GEE589872:GEP589876 GOA589872:GOL589876 GXW589872:GYH589876 HHS589872:HID589876 HRO589872:HRZ589876 IBK589872:IBV589876 ILG589872:ILR589876 IVC589872:IVN589876 JEY589872:JFJ589876 JOU589872:JPF589876 JYQ589872:JZB589876 KIM589872:KIX589876 KSI589872:KST589876 LCE589872:LCP589876 LMA589872:LML589876 LVW589872:LWH589876 MFS589872:MGD589876 MPO589872:MPZ589876 MZK589872:MZV589876 NJG589872:NJR589876 NTC589872:NTN589876 OCY589872:ODJ589876 OMU589872:ONF589876 OWQ589872:OXB589876 PGM589872:PGX589876 PQI589872:PQT589876 QAE589872:QAP589876 QKA589872:QKL589876 QTW589872:QUH589876 RDS589872:RED589876 RNO589872:RNZ589876 RXK589872:RXV589876 SHG589872:SHR589876 SRC589872:SRN589876 TAY589872:TBJ589876 TKU589872:TLF589876 TUQ589872:TVB589876 UEM589872:UEX589876 UOI589872:UOT589876 UYE589872:UYP589876 VIA589872:VIL589876 VRW589872:VSH589876 WBS589872:WCD589876 WLO589872:WLZ589876 WVK589872:WVV589876 SU655408:TF655412 ACQ655408:ADB655412 AMM655408:AMX655412 AWI655408:AWT655412 BGE655408:BGP655412 BQA655408:BQL655412 BZW655408:CAH655412 CJS655408:CKD655412 CTO655408:CTZ655412 DDK655408:DDV655412 DNG655408:DNR655412 DXC655408:DXN655412 EGY655408:EHJ655412 EQU655408:ERF655412 FAQ655408:FBB655412 FKM655408:FKX655412 FUI655408:FUT655412 GEE655408:GEP655412 GOA655408:GOL655412 GXW655408:GYH655412 HHS655408:HID655412 HRO655408:HRZ655412 IBK655408:IBV655412 ILG655408:ILR655412 IVC655408:IVN655412 JEY655408:JFJ655412 JOU655408:JPF655412 JYQ655408:JZB655412 KIM655408:KIX655412 KSI655408:KST655412 LCE655408:LCP655412 LMA655408:LML655412 LVW655408:LWH655412 MFS655408:MGD655412 MPO655408:MPZ655412 MZK655408:MZV655412 NJG655408:NJR655412 NTC655408:NTN655412 OCY655408:ODJ655412 OMU655408:ONF655412 OWQ655408:OXB655412 PGM655408:PGX655412 PQI655408:PQT655412 QAE655408:QAP655412 QKA655408:QKL655412 QTW655408:QUH655412 RDS655408:RED655412 RNO655408:RNZ655412 RXK655408:RXV655412 SHG655408:SHR655412 SRC655408:SRN655412 TAY655408:TBJ655412 TKU655408:TLF655412 TUQ655408:TVB655412 UEM655408:UEX655412 UOI655408:UOT655412 UYE655408:UYP655412 VIA655408:VIL655412 VRW655408:VSH655412 WBS655408:WCD655412 WLO655408:WLZ655412 WVK655408:WVV655412 SU720944:TF720948 ACQ720944:ADB720948 AMM720944:AMX720948 AWI720944:AWT720948 BGE720944:BGP720948 BQA720944:BQL720948 BZW720944:CAH720948 CJS720944:CKD720948 CTO720944:CTZ720948 DDK720944:DDV720948 DNG720944:DNR720948 DXC720944:DXN720948 EGY720944:EHJ720948 EQU720944:ERF720948 FAQ720944:FBB720948 FKM720944:FKX720948 FUI720944:FUT720948 GEE720944:GEP720948 GOA720944:GOL720948 GXW720944:GYH720948 HHS720944:HID720948 HRO720944:HRZ720948 IBK720944:IBV720948 ILG720944:ILR720948 IVC720944:IVN720948 JEY720944:JFJ720948 JOU720944:JPF720948 JYQ720944:JZB720948 KIM720944:KIX720948 KSI720944:KST720948 LCE720944:LCP720948 LMA720944:LML720948 LVW720944:LWH720948 MFS720944:MGD720948 MPO720944:MPZ720948 MZK720944:MZV720948 NJG720944:NJR720948 NTC720944:NTN720948 OCY720944:ODJ720948 OMU720944:ONF720948 OWQ720944:OXB720948 PGM720944:PGX720948 PQI720944:PQT720948 QAE720944:QAP720948 QKA720944:QKL720948 QTW720944:QUH720948 RDS720944:RED720948 RNO720944:RNZ720948 RXK720944:RXV720948 SHG720944:SHR720948 SRC720944:SRN720948 TAY720944:TBJ720948 TKU720944:TLF720948 TUQ720944:TVB720948 UEM720944:UEX720948 UOI720944:UOT720948 UYE720944:UYP720948 VIA720944:VIL720948 VRW720944:VSH720948 WBS720944:WCD720948 WLO720944:WLZ720948 WVK720944:WVV720948 SU786480:TF786484 ACQ786480:ADB786484 AMM786480:AMX786484 AWI786480:AWT786484 BGE786480:BGP786484 BQA786480:BQL786484 BZW786480:CAH786484 CJS786480:CKD786484 CTO786480:CTZ786484 DDK786480:DDV786484 DNG786480:DNR786484 DXC786480:DXN786484 EGY786480:EHJ786484 EQU786480:ERF786484 FAQ786480:FBB786484 FKM786480:FKX786484 FUI786480:FUT786484 GEE786480:GEP786484 GOA786480:GOL786484 GXW786480:GYH786484 HHS786480:HID786484 HRO786480:HRZ786484 IBK786480:IBV786484 ILG786480:ILR786484 IVC786480:IVN786484 JEY786480:JFJ786484 JOU786480:JPF786484 JYQ786480:JZB786484 KIM786480:KIX786484 KSI786480:KST786484 LCE786480:LCP786484 LMA786480:LML786484 LVW786480:LWH786484 MFS786480:MGD786484 MPO786480:MPZ786484 MZK786480:MZV786484 NJG786480:NJR786484 NTC786480:NTN786484 OCY786480:ODJ786484 OMU786480:ONF786484 OWQ786480:OXB786484 PGM786480:PGX786484 PQI786480:PQT786484 QAE786480:QAP786484 QKA786480:QKL786484 QTW786480:QUH786484 RDS786480:RED786484 RNO786480:RNZ786484 RXK786480:RXV786484 SHG786480:SHR786484 SRC786480:SRN786484 TAY786480:TBJ786484 TKU786480:TLF786484 TUQ786480:TVB786484 UEM786480:UEX786484 UOI786480:UOT786484 UYE786480:UYP786484 VIA786480:VIL786484 VRW786480:VSH786484 WBS786480:WCD786484 WLO786480:WLZ786484 WVK786480:WVV786484 SU852016:TF852020 ACQ852016:ADB852020 AMM852016:AMX852020 AWI852016:AWT852020 BGE852016:BGP852020 BQA852016:BQL852020 BZW852016:CAH852020 CJS852016:CKD852020 CTO852016:CTZ852020 DDK852016:DDV852020 DNG852016:DNR852020 DXC852016:DXN852020 EGY852016:EHJ852020 EQU852016:ERF852020 FAQ852016:FBB852020 FKM852016:FKX852020 FUI852016:FUT852020 GEE852016:GEP852020 GOA852016:GOL852020 GXW852016:GYH852020 HHS852016:HID852020 HRO852016:HRZ852020 IBK852016:IBV852020 ILG852016:ILR852020 IVC852016:IVN852020 JEY852016:JFJ852020 JOU852016:JPF852020 JYQ852016:JZB852020 KIM852016:KIX852020 KSI852016:KST852020 LCE852016:LCP852020 LMA852016:LML852020 LVW852016:LWH852020 MFS852016:MGD852020 MPO852016:MPZ852020 MZK852016:MZV852020 NJG852016:NJR852020 NTC852016:NTN852020 OCY852016:ODJ852020 OMU852016:ONF852020 OWQ852016:OXB852020 PGM852016:PGX852020 PQI852016:PQT852020 QAE852016:QAP852020 QKA852016:QKL852020 QTW852016:QUH852020 RDS852016:RED852020 RNO852016:RNZ852020 RXK852016:RXV852020 SHG852016:SHR852020 SRC852016:SRN852020 TAY852016:TBJ852020 TKU852016:TLF852020 TUQ852016:TVB852020 UEM852016:UEX852020 UOI852016:UOT852020 UYE852016:UYP852020 VIA852016:VIL852020 VRW852016:VSH852020 WBS852016:WCD852020 WLO852016:WLZ852020 WVK852016:WVV852020 SU917552:TF917556 ACQ917552:ADB917556 AMM917552:AMX917556 AWI917552:AWT917556 BGE917552:BGP917556 BQA917552:BQL917556 BZW917552:CAH917556 CJS917552:CKD917556 CTO917552:CTZ917556 DDK917552:DDV917556 DNG917552:DNR917556 DXC917552:DXN917556 EGY917552:EHJ917556 EQU917552:ERF917556 FAQ917552:FBB917556 FKM917552:FKX917556 FUI917552:FUT917556 GEE917552:GEP917556 GOA917552:GOL917556 GXW917552:GYH917556 HHS917552:HID917556 HRO917552:HRZ917556 IBK917552:IBV917556 ILG917552:ILR917556 IVC917552:IVN917556 JEY917552:JFJ917556 JOU917552:JPF917556 JYQ917552:JZB917556 KIM917552:KIX917556 KSI917552:KST917556 LCE917552:LCP917556 LMA917552:LML917556 LVW917552:LWH917556 MFS917552:MGD917556 MPO917552:MPZ917556 MZK917552:MZV917556 NJG917552:NJR917556 NTC917552:NTN917556 OCY917552:ODJ917556 OMU917552:ONF917556 OWQ917552:OXB917556 PGM917552:PGX917556 PQI917552:PQT917556 QAE917552:QAP917556 QKA917552:QKL917556 QTW917552:QUH917556 RDS917552:RED917556 RNO917552:RNZ917556 RXK917552:RXV917556 SHG917552:SHR917556 SRC917552:SRN917556 TAY917552:TBJ917556 TKU917552:TLF917556 TUQ917552:TVB917556 UEM917552:UEX917556 UOI917552:UOT917556 UYE917552:UYP917556 VIA917552:VIL917556 VRW917552:VSH917556 WBS917552:WCD917556 WLO917552:WLZ917556 WVK917552:WVV917556 WVK983088:WVV983092 SU983088:TF983092 ACQ983088:ADB983092 AMM983088:AMX983092 AWI983088:AWT983092 BGE983088:BGP983092 BQA983088:BQL983092 BZW983088:CAH983092 CJS983088:CKD983092 CTO983088:CTZ983092 DDK983088:DDV983092 DNG983088:DNR983092 DXC983088:DXN983092 EGY983088:EHJ983092 EQU983088:ERF983092 FAQ983088:FBB983092 FKM983088:FKX983092 FUI983088:FUT983092 GEE983088:GEP983092 GOA983088:GOL983092 GXW983088:GYH983092 HHS983088:HID983092 HRO983088:HRZ983092 IBK983088:IBV983092 ILG983088:ILR983092 IVC983088:IVN983092 JEY983088:JFJ983092 JOU983088:JPF983092 JYQ983088:JZB983092 KIM983088:KIX983092 KSI983088:KST983092 LCE983088:LCP983092 LMA983088:LML983092 LVW983088:LWH983092 MFS983088:MGD983092 MPO983088:MPZ983092 MZK983088:MZV983092 NJG983088:NJR983092 NTC983088:NTN983092 OCY983088:ODJ983092 OMU983088:ONF983092 OWQ983088:OXB983092 PGM983088:PGX983092 PQI983088:PQT983092 QAE983088:QAP983092 QKA983088:QKL983092 QTW983088:QUH983092 RDS983088:RED983092 RNO983088:RNZ983092 RXK983088:RXV983092 SHG983088:SHR983092 SRC983088:SRN983092 TAY983088:TBJ983092 TKU983088:TLF983092 TUQ983088:TVB983092 UEM983088:UEX983092 UOI983088:UOT983092 UYE983088:UYP983092 VIA983088:VIL983092 VRW983088:VSH983092 WBS983088:WCD983092 WLO983088:WLZ983092 IY50:IY54 C917556:M917560 C852020:M852024 C786484:M786488 C720948:M720952 C655412:M655416 C589876:M589880 C524340:M524344 C458804:M458808 C393268:M393272 C327732:M327736 C262196:M262200 C196660:M196664 C131124:M131128 C65588:M65592 C983092:M983096 IY983092:IY983096 IZ983088:JJ983092 IY917556:IY917560 IZ917552:JJ917556 IY852020:IY852024 IZ852016:JJ852020 IY786484:IY786488 IZ786480:JJ786484 IY720948:IY720952 IZ720944:JJ720948 IY655412:IY655416 IZ655408:JJ655412 IY589876:IY589880 IZ589872:JJ589876 IY524340:IY524344 IZ524336:JJ524340 IY458804:IY458808 IZ458800:JJ458804 IY393268:IY393272 IZ393264:JJ393268 IY327732:IY327736 IZ327728:JJ327732 IY262196:IY262200 IZ262192:JJ262196 IY196660:IY196664 IZ196656:JJ196660 IY131124:IY131128 IZ131120:JJ131124 IY65588:IY65592 IZ65584:JJ65588 IZ46:JJ50 C50:M54" xr:uid="{00000000-0002-0000-0900-000003000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JI65542:JI65581 TE65542:TE65581 ADA65542:ADA65581 AMW65542:AMW65581 AWS65542:AWS65581 BGO65542:BGO65581 BQK65542:BQK65581 CAG65542:CAG65581 CKC65542:CKC65581 CTY65542:CTY65581 DDU65542:DDU65581 DNQ65542:DNQ65581 DXM65542:DXM65581 EHI65542:EHI65581 ERE65542:ERE65581 FBA65542:FBA65581 FKW65542:FKW65581 FUS65542:FUS65581 GEO65542:GEO65581 GOK65542:GOK65581 GYG65542:GYG65581 HIC65542:HIC65581 HRY65542:HRY65581 IBU65542:IBU65581 ILQ65542:ILQ65581 IVM65542:IVM65581 JFI65542:JFI65581 JPE65542:JPE65581 JZA65542:JZA65581 KIW65542:KIW65581 KSS65542:KSS65581 LCO65542:LCO65581 LMK65542:LMK65581 LWG65542:LWG65581 MGC65542:MGC65581 MPY65542:MPY65581 MZU65542:MZU65581 NJQ65542:NJQ65581 NTM65542:NTM65581 ODI65542:ODI65581 ONE65542:ONE65581 OXA65542:OXA65581 PGW65542:PGW65581 PQS65542:PQS65581 QAO65542:QAO65581 QKK65542:QKK65581 QUG65542:QUG65581 REC65542:REC65581 RNY65542:RNY65581 RXU65542:RXU65581 SHQ65542:SHQ65581 SRM65542:SRM65581 TBI65542:TBI65581 TLE65542:TLE65581 TVA65542:TVA65581 UEW65542:UEW65581 UOS65542:UOS65581 UYO65542:UYO65581 VIK65542:VIK65581 VSG65542:VSG65581 WCC65542:WCC65581 WLY65542:WLY65581 WVU65542:WVU65581 JI131078:JI131117 TE131078:TE131117 ADA131078:ADA131117 AMW131078:AMW131117 AWS131078:AWS131117 BGO131078:BGO131117 BQK131078:BQK131117 CAG131078:CAG131117 CKC131078:CKC131117 CTY131078:CTY131117 DDU131078:DDU131117 DNQ131078:DNQ131117 DXM131078:DXM131117 EHI131078:EHI131117 ERE131078:ERE131117 FBA131078:FBA131117 FKW131078:FKW131117 FUS131078:FUS131117 GEO131078:GEO131117 GOK131078:GOK131117 GYG131078:GYG131117 HIC131078:HIC131117 HRY131078:HRY131117 IBU131078:IBU131117 ILQ131078:ILQ131117 IVM131078:IVM131117 JFI131078:JFI131117 JPE131078:JPE131117 JZA131078:JZA131117 KIW131078:KIW131117 KSS131078:KSS131117 LCO131078:LCO131117 LMK131078:LMK131117 LWG131078:LWG131117 MGC131078:MGC131117 MPY131078:MPY131117 MZU131078:MZU131117 NJQ131078:NJQ131117 NTM131078:NTM131117 ODI131078:ODI131117 ONE131078:ONE131117 OXA131078:OXA131117 PGW131078:PGW131117 PQS131078:PQS131117 QAO131078:QAO131117 QKK131078:QKK131117 QUG131078:QUG131117 REC131078:REC131117 RNY131078:RNY131117 RXU131078:RXU131117 SHQ131078:SHQ131117 SRM131078:SRM131117 TBI131078:TBI131117 TLE131078:TLE131117 TVA131078:TVA131117 UEW131078:UEW131117 UOS131078:UOS131117 UYO131078:UYO131117 VIK131078:VIK131117 VSG131078:VSG131117 WCC131078:WCC131117 WLY131078:WLY131117 WVU131078:WVU131117 JI196614:JI196653 TE196614:TE196653 ADA196614:ADA196653 AMW196614:AMW196653 AWS196614:AWS196653 BGO196614:BGO196653 BQK196614:BQK196653 CAG196614:CAG196653 CKC196614:CKC196653 CTY196614:CTY196653 DDU196614:DDU196653 DNQ196614:DNQ196653 DXM196614:DXM196653 EHI196614:EHI196653 ERE196614:ERE196653 FBA196614:FBA196653 FKW196614:FKW196653 FUS196614:FUS196653 GEO196614:GEO196653 GOK196614:GOK196653 GYG196614:GYG196653 HIC196614:HIC196653 HRY196614:HRY196653 IBU196614:IBU196653 ILQ196614:ILQ196653 IVM196614:IVM196653 JFI196614:JFI196653 JPE196614:JPE196653 JZA196614:JZA196653 KIW196614:KIW196653 KSS196614:KSS196653 LCO196614:LCO196653 LMK196614:LMK196653 LWG196614:LWG196653 MGC196614:MGC196653 MPY196614:MPY196653 MZU196614:MZU196653 NJQ196614:NJQ196653 NTM196614:NTM196653 ODI196614:ODI196653 ONE196614:ONE196653 OXA196614:OXA196653 PGW196614:PGW196653 PQS196614:PQS196653 QAO196614:QAO196653 QKK196614:QKK196653 QUG196614:QUG196653 REC196614:REC196653 RNY196614:RNY196653 RXU196614:RXU196653 SHQ196614:SHQ196653 SRM196614:SRM196653 TBI196614:TBI196653 TLE196614:TLE196653 TVA196614:TVA196653 UEW196614:UEW196653 UOS196614:UOS196653 UYO196614:UYO196653 VIK196614:VIK196653 VSG196614:VSG196653 WCC196614:WCC196653 WLY196614:WLY196653 WVU196614:WVU196653 JI262150:JI262189 TE262150:TE262189 ADA262150:ADA262189 AMW262150:AMW262189 AWS262150:AWS262189 BGO262150:BGO262189 BQK262150:BQK262189 CAG262150:CAG262189 CKC262150:CKC262189 CTY262150:CTY262189 DDU262150:DDU262189 DNQ262150:DNQ262189 DXM262150:DXM262189 EHI262150:EHI262189 ERE262150:ERE262189 FBA262150:FBA262189 FKW262150:FKW262189 FUS262150:FUS262189 GEO262150:GEO262189 GOK262150:GOK262189 GYG262150:GYG262189 HIC262150:HIC262189 HRY262150:HRY262189 IBU262150:IBU262189 ILQ262150:ILQ262189 IVM262150:IVM262189 JFI262150:JFI262189 JPE262150:JPE262189 JZA262150:JZA262189 KIW262150:KIW262189 KSS262150:KSS262189 LCO262150:LCO262189 LMK262150:LMK262189 LWG262150:LWG262189 MGC262150:MGC262189 MPY262150:MPY262189 MZU262150:MZU262189 NJQ262150:NJQ262189 NTM262150:NTM262189 ODI262150:ODI262189 ONE262150:ONE262189 OXA262150:OXA262189 PGW262150:PGW262189 PQS262150:PQS262189 QAO262150:QAO262189 QKK262150:QKK262189 QUG262150:QUG262189 REC262150:REC262189 RNY262150:RNY262189 RXU262150:RXU262189 SHQ262150:SHQ262189 SRM262150:SRM262189 TBI262150:TBI262189 TLE262150:TLE262189 TVA262150:TVA262189 UEW262150:UEW262189 UOS262150:UOS262189 UYO262150:UYO262189 VIK262150:VIK262189 VSG262150:VSG262189 WCC262150:WCC262189 WLY262150:WLY262189 WVU262150:WVU262189 JI327686:JI327725 TE327686:TE327725 ADA327686:ADA327725 AMW327686:AMW327725 AWS327686:AWS327725 BGO327686:BGO327725 BQK327686:BQK327725 CAG327686:CAG327725 CKC327686:CKC327725 CTY327686:CTY327725 DDU327686:DDU327725 DNQ327686:DNQ327725 DXM327686:DXM327725 EHI327686:EHI327725 ERE327686:ERE327725 FBA327686:FBA327725 FKW327686:FKW327725 FUS327686:FUS327725 GEO327686:GEO327725 GOK327686:GOK327725 GYG327686:GYG327725 HIC327686:HIC327725 HRY327686:HRY327725 IBU327686:IBU327725 ILQ327686:ILQ327725 IVM327686:IVM327725 JFI327686:JFI327725 JPE327686:JPE327725 JZA327686:JZA327725 KIW327686:KIW327725 KSS327686:KSS327725 LCO327686:LCO327725 LMK327686:LMK327725 LWG327686:LWG327725 MGC327686:MGC327725 MPY327686:MPY327725 MZU327686:MZU327725 NJQ327686:NJQ327725 NTM327686:NTM327725 ODI327686:ODI327725 ONE327686:ONE327725 OXA327686:OXA327725 PGW327686:PGW327725 PQS327686:PQS327725 QAO327686:QAO327725 QKK327686:QKK327725 QUG327686:QUG327725 REC327686:REC327725 RNY327686:RNY327725 RXU327686:RXU327725 SHQ327686:SHQ327725 SRM327686:SRM327725 TBI327686:TBI327725 TLE327686:TLE327725 TVA327686:TVA327725 UEW327686:UEW327725 UOS327686:UOS327725 UYO327686:UYO327725 VIK327686:VIK327725 VSG327686:VSG327725 WCC327686:WCC327725 WLY327686:WLY327725 WVU327686:WVU327725 JI393222:JI393261 TE393222:TE393261 ADA393222:ADA393261 AMW393222:AMW393261 AWS393222:AWS393261 BGO393222:BGO393261 BQK393222:BQK393261 CAG393222:CAG393261 CKC393222:CKC393261 CTY393222:CTY393261 DDU393222:DDU393261 DNQ393222:DNQ393261 DXM393222:DXM393261 EHI393222:EHI393261 ERE393222:ERE393261 FBA393222:FBA393261 FKW393222:FKW393261 FUS393222:FUS393261 GEO393222:GEO393261 GOK393222:GOK393261 GYG393222:GYG393261 HIC393222:HIC393261 HRY393222:HRY393261 IBU393222:IBU393261 ILQ393222:ILQ393261 IVM393222:IVM393261 JFI393222:JFI393261 JPE393222:JPE393261 JZA393222:JZA393261 KIW393222:KIW393261 KSS393222:KSS393261 LCO393222:LCO393261 LMK393222:LMK393261 LWG393222:LWG393261 MGC393222:MGC393261 MPY393222:MPY393261 MZU393222:MZU393261 NJQ393222:NJQ393261 NTM393222:NTM393261 ODI393222:ODI393261 ONE393222:ONE393261 OXA393222:OXA393261 PGW393222:PGW393261 PQS393222:PQS393261 QAO393222:QAO393261 QKK393222:QKK393261 QUG393222:QUG393261 REC393222:REC393261 RNY393222:RNY393261 RXU393222:RXU393261 SHQ393222:SHQ393261 SRM393222:SRM393261 TBI393222:TBI393261 TLE393222:TLE393261 TVA393222:TVA393261 UEW393222:UEW393261 UOS393222:UOS393261 UYO393222:UYO393261 VIK393222:VIK393261 VSG393222:VSG393261 WCC393222:WCC393261 WLY393222:WLY393261 WVU393222:WVU393261 JI458758:JI458797 TE458758:TE458797 ADA458758:ADA458797 AMW458758:AMW458797 AWS458758:AWS458797 BGO458758:BGO458797 BQK458758:BQK458797 CAG458758:CAG458797 CKC458758:CKC458797 CTY458758:CTY458797 DDU458758:DDU458797 DNQ458758:DNQ458797 DXM458758:DXM458797 EHI458758:EHI458797 ERE458758:ERE458797 FBA458758:FBA458797 FKW458758:FKW458797 FUS458758:FUS458797 GEO458758:GEO458797 GOK458758:GOK458797 GYG458758:GYG458797 HIC458758:HIC458797 HRY458758:HRY458797 IBU458758:IBU458797 ILQ458758:ILQ458797 IVM458758:IVM458797 JFI458758:JFI458797 JPE458758:JPE458797 JZA458758:JZA458797 KIW458758:KIW458797 KSS458758:KSS458797 LCO458758:LCO458797 LMK458758:LMK458797 LWG458758:LWG458797 MGC458758:MGC458797 MPY458758:MPY458797 MZU458758:MZU458797 NJQ458758:NJQ458797 NTM458758:NTM458797 ODI458758:ODI458797 ONE458758:ONE458797 OXA458758:OXA458797 PGW458758:PGW458797 PQS458758:PQS458797 QAO458758:QAO458797 QKK458758:QKK458797 QUG458758:QUG458797 REC458758:REC458797 RNY458758:RNY458797 RXU458758:RXU458797 SHQ458758:SHQ458797 SRM458758:SRM458797 TBI458758:TBI458797 TLE458758:TLE458797 TVA458758:TVA458797 UEW458758:UEW458797 UOS458758:UOS458797 UYO458758:UYO458797 VIK458758:VIK458797 VSG458758:VSG458797 WCC458758:WCC458797 WLY458758:WLY458797 WVU458758:WVU458797 JI524294:JI524333 TE524294:TE524333 ADA524294:ADA524333 AMW524294:AMW524333 AWS524294:AWS524333 BGO524294:BGO524333 BQK524294:BQK524333 CAG524294:CAG524333 CKC524294:CKC524333 CTY524294:CTY524333 DDU524294:DDU524333 DNQ524294:DNQ524333 DXM524294:DXM524333 EHI524294:EHI524333 ERE524294:ERE524333 FBA524294:FBA524333 FKW524294:FKW524333 FUS524294:FUS524333 GEO524294:GEO524333 GOK524294:GOK524333 GYG524294:GYG524333 HIC524294:HIC524333 HRY524294:HRY524333 IBU524294:IBU524333 ILQ524294:ILQ524333 IVM524294:IVM524333 JFI524294:JFI524333 JPE524294:JPE524333 JZA524294:JZA524333 KIW524294:KIW524333 KSS524294:KSS524333 LCO524294:LCO524333 LMK524294:LMK524333 LWG524294:LWG524333 MGC524294:MGC524333 MPY524294:MPY524333 MZU524294:MZU524333 NJQ524294:NJQ524333 NTM524294:NTM524333 ODI524294:ODI524333 ONE524294:ONE524333 OXA524294:OXA524333 PGW524294:PGW524333 PQS524294:PQS524333 QAO524294:QAO524333 QKK524294:QKK524333 QUG524294:QUG524333 REC524294:REC524333 RNY524294:RNY524333 RXU524294:RXU524333 SHQ524294:SHQ524333 SRM524294:SRM524333 TBI524294:TBI524333 TLE524294:TLE524333 TVA524294:TVA524333 UEW524294:UEW524333 UOS524294:UOS524333 UYO524294:UYO524333 VIK524294:VIK524333 VSG524294:VSG524333 WCC524294:WCC524333 WLY524294:WLY524333 WVU524294:WVU524333 JI589830:JI589869 TE589830:TE589869 ADA589830:ADA589869 AMW589830:AMW589869 AWS589830:AWS589869 BGO589830:BGO589869 BQK589830:BQK589869 CAG589830:CAG589869 CKC589830:CKC589869 CTY589830:CTY589869 DDU589830:DDU589869 DNQ589830:DNQ589869 DXM589830:DXM589869 EHI589830:EHI589869 ERE589830:ERE589869 FBA589830:FBA589869 FKW589830:FKW589869 FUS589830:FUS589869 GEO589830:GEO589869 GOK589830:GOK589869 GYG589830:GYG589869 HIC589830:HIC589869 HRY589830:HRY589869 IBU589830:IBU589869 ILQ589830:ILQ589869 IVM589830:IVM589869 JFI589830:JFI589869 JPE589830:JPE589869 JZA589830:JZA589869 KIW589830:KIW589869 KSS589830:KSS589869 LCO589830:LCO589869 LMK589830:LMK589869 LWG589830:LWG589869 MGC589830:MGC589869 MPY589830:MPY589869 MZU589830:MZU589869 NJQ589830:NJQ589869 NTM589830:NTM589869 ODI589830:ODI589869 ONE589830:ONE589869 OXA589830:OXA589869 PGW589830:PGW589869 PQS589830:PQS589869 QAO589830:QAO589869 QKK589830:QKK589869 QUG589830:QUG589869 REC589830:REC589869 RNY589830:RNY589869 RXU589830:RXU589869 SHQ589830:SHQ589869 SRM589830:SRM589869 TBI589830:TBI589869 TLE589830:TLE589869 TVA589830:TVA589869 UEW589830:UEW589869 UOS589830:UOS589869 UYO589830:UYO589869 VIK589830:VIK589869 VSG589830:VSG589869 WCC589830:WCC589869 WLY589830:WLY589869 WVU589830:WVU589869 JI655366:JI655405 TE655366:TE655405 ADA655366:ADA655405 AMW655366:AMW655405 AWS655366:AWS655405 BGO655366:BGO655405 BQK655366:BQK655405 CAG655366:CAG655405 CKC655366:CKC655405 CTY655366:CTY655405 DDU655366:DDU655405 DNQ655366:DNQ655405 DXM655366:DXM655405 EHI655366:EHI655405 ERE655366:ERE655405 FBA655366:FBA655405 FKW655366:FKW655405 FUS655366:FUS655405 GEO655366:GEO655405 GOK655366:GOK655405 GYG655366:GYG655405 HIC655366:HIC655405 HRY655366:HRY655405 IBU655366:IBU655405 ILQ655366:ILQ655405 IVM655366:IVM655405 JFI655366:JFI655405 JPE655366:JPE655405 JZA655366:JZA655405 KIW655366:KIW655405 KSS655366:KSS655405 LCO655366:LCO655405 LMK655366:LMK655405 LWG655366:LWG655405 MGC655366:MGC655405 MPY655366:MPY655405 MZU655366:MZU655405 NJQ655366:NJQ655405 NTM655366:NTM655405 ODI655366:ODI655405 ONE655366:ONE655405 OXA655366:OXA655405 PGW655366:PGW655405 PQS655366:PQS655405 QAO655366:QAO655405 QKK655366:QKK655405 QUG655366:QUG655405 REC655366:REC655405 RNY655366:RNY655405 RXU655366:RXU655405 SHQ655366:SHQ655405 SRM655366:SRM655405 TBI655366:TBI655405 TLE655366:TLE655405 TVA655366:TVA655405 UEW655366:UEW655405 UOS655366:UOS655405 UYO655366:UYO655405 VIK655366:VIK655405 VSG655366:VSG655405 WCC655366:WCC655405 WLY655366:WLY655405 WVU655366:WVU655405 JI720902:JI720941 TE720902:TE720941 ADA720902:ADA720941 AMW720902:AMW720941 AWS720902:AWS720941 BGO720902:BGO720941 BQK720902:BQK720941 CAG720902:CAG720941 CKC720902:CKC720941 CTY720902:CTY720941 DDU720902:DDU720941 DNQ720902:DNQ720941 DXM720902:DXM720941 EHI720902:EHI720941 ERE720902:ERE720941 FBA720902:FBA720941 FKW720902:FKW720941 FUS720902:FUS720941 GEO720902:GEO720941 GOK720902:GOK720941 GYG720902:GYG720941 HIC720902:HIC720941 HRY720902:HRY720941 IBU720902:IBU720941 ILQ720902:ILQ720941 IVM720902:IVM720941 JFI720902:JFI720941 JPE720902:JPE720941 JZA720902:JZA720941 KIW720902:KIW720941 KSS720902:KSS720941 LCO720902:LCO720941 LMK720902:LMK720941 LWG720902:LWG720941 MGC720902:MGC720941 MPY720902:MPY720941 MZU720902:MZU720941 NJQ720902:NJQ720941 NTM720902:NTM720941 ODI720902:ODI720941 ONE720902:ONE720941 OXA720902:OXA720941 PGW720902:PGW720941 PQS720902:PQS720941 QAO720902:QAO720941 QKK720902:QKK720941 QUG720902:QUG720941 REC720902:REC720941 RNY720902:RNY720941 RXU720902:RXU720941 SHQ720902:SHQ720941 SRM720902:SRM720941 TBI720902:TBI720941 TLE720902:TLE720941 TVA720902:TVA720941 UEW720902:UEW720941 UOS720902:UOS720941 UYO720902:UYO720941 VIK720902:VIK720941 VSG720902:VSG720941 WCC720902:WCC720941 WLY720902:WLY720941 WVU720902:WVU720941 JI786438:JI786477 TE786438:TE786477 ADA786438:ADA786477 AMW786438:AMW786477 AWS786438:AWS786477 BGO786438:BGO786477 BQK786438:BQK786477 CAG786438:CAG786477 CKC786438:CKC786477 CTY786438:CTY786477 DDU786438:DDU786477 DNQ786438:DNQ786477 DXM786438:DXM786477 EHI786438:EHI786477 ERE786438:ERE786477 FBA786438:FBA786477 FKW786438:FKW786477 FUS786438:FUS786477 GEO786438:GEO786477 GOK786438:GOK786477 GYG786438:GYG786477 HIC786438:HIC786477 HRY786438:HRY786477 IBU786438:IBU786477 ILQ786438:ILQ786477 IVM786438:IVM786477 JFI786438:JFI786477 JPE786438:JPE786477 JZA786438:JZA786477 KIW786438:KIW786477 KSS786438:KSS786477 LCO786438:LCO786477 LMK786438:LMK786477 LWG786438:LWG786477 MGC786438:MGC786477 MPY786438:MPY786477 MZU786438:MZU786477 NJQ786438:NJQ786477 NTM786438:NTM786477 ODI786438:ODI786477 ONE786438:ONE786477 OXA786438:OXA786477 PGW786438:PGW786477 PQS786438:PQS786477 QAO786438:QAO786477 QKK786438:QKK786477 QUG786438:QUG786477 REC786438:REC786477 RNY786438:RNY786477 RXU786438:RXU786477 SHQ786438:SHQ786477 SRM786438:SRM786477 TBI786438:TBI786477 TLE786438:TLE786477 TVA786438:TVA786477 UEW786438:UEW786477 UOS786438:UOS786477 UYO786438:UYO786477 VIK786438:VIK786477 VSG786438:VSG786477 WCC786438:WCC786477 WLY786438:WLY786477 WVU786438:WVU786477 JI851974:JI852013 TE851974:TE852013 ADA851974:ADA852013 AMW851974:AMW852013 AWS851974:AWS852013 BGO851974:BGO852013 BQK851974:BQK852013 CAG851974:CAG852013 CKC851974:CKC852013 CTY851974:CTY852013 DDU851974:DDU852013 DNQ851974:DNQ852013 DXM851974:DXM852013 EHI851974:EHI852013 ERE851974:ERE852013 FBA851974:FBA852013 FKW851974:FKW852013 FUS851974:FUS852013 GEO851974:GEO852013 GOK851974:GOK852013 GYG851974:GYG852013 HIC851974:HIC852013 HRY851974:HRY852013 IBU851974:IBU852013 ILQ851974:ILQ852013 IVM851974:IVM852013 JFI851974:JFI852013 JPE851974:JPE852013 JZA851974:JZA852013 KIW851974:KIW852013 KSS851974:KSS852013 LCO851974:LCO852013 LMK851974:LMK852013 LWG851974:LWG852013 MGC851974:MGC852013 MPY851974:MPY852013 MZU851974:MZU852013 NJQ851974:NJQ852013 NTM851974:NTM852013 ODI851974:ODI852013 ONE851974:ONE852013 OXA851974:OXA852013 PGW851974:PGW852013 PQS851974:PQS852013 QAO851974:QAO852013 QKK851974:QKK852013 QUG851974:QUG852013 REC851974:REC852013 RNY851974:RNY852013 RXU851974:RXU852013 SHQ851974:SHQ852013 SRM851974:SRM852013 TBI851974:TBI852013 TLE851974:TLE852013 TVA851974:TVA852013 UEW851974:UEW852013 UOS851974:UOS852013 UYO851974:UYO852013 VIK851974:VIK852013 VSG851974:VSG852013 WCC851974:WCC852013 WLY851974:WLY852013 WVU851974:WVU852013 JI917510:JI917549 TE917510:TE917549 ADA917510:ADA917549 AMW917510:AMW917549 AWS917510:AWS917549 BGO917510:BGO917549 BQK917510:BQK917549 CAG917510:CAG917549 CKC917510:CKC917549 CTY917510:CTY917549 DDU917510:DDU917549 DNQ917510:DNQ917549 DXM917510:DXM917549 EHI917510:EHI917549 ERE917510:ERE917549 FBA917510:FBA917549 FKW917510:FKW917549 FUS917510:FUS917549 GEO917510:GEO917549 GOK917510:GOK917549 GYG917510:GYG917549 HIC917510:HIC917549 HRY917510:HRY917549 IBU917510:IBU917549 ILQ917510:ILQ917549 IVM917510:IVM917549 JFI917510:JFI917549 JPE917510:JPE917549 JZA917510:JZA917549 KIW917510:KIW917549 KSS917510:KSS917549 LCO917510:LCO917549 LMK917510:LMK917549 LWG917510:LWG917549 MGC917510:MGC917549 MPY917510:MPY917549 MZU917510:MZU917549 NJQ917510:NJQ917549 NTM917510:NTM917549 ODI917510:ODI917549 ONE917510:ONE917549 OXA917510:OXA917549 PGW917510:PGW917549 PQS917510:PQS917549 QAO917510:QAO917549 QKK917510:QKK917549 QUG917510:QUG917549 REC917510:REC917549 RNY917510:RNY917549 RXU917510:RXU917549 SHQ917510:SHQ917549 SRM917510:SRM917549 TBI917510:TBI917549 TLE917510:TLE917549 TVA917510:TVA917549 UEW917510:UEW917549 UOS917510:UOS917549 UYO917510:UYO917549 VIK917510:VIK917549 VSG917510:VSG917549 WCC917510:WCC917549 WLY917510:WLY917549 WVU917510:WVU917549 JI983046:JI983085 TE983046:TE983085 ADA983046:ADA983085 AMW983046:AMW983085 AWS983046:AWS983085 BGO983046:BGO983085 BQK983046:BQK983085 CAG983046:CAG983085 CKC983046:CKC983085 CTY983046:CTY983085 DDU983046:DDU983085 DNQ983046:DNQ983085 DXM983046:DXM983085 EHI983046:EHI983085 ERE983046:ERE983085 FBA983046:FBA983085 FKW983046:FKW983085 FUS983046:FUS983085 GEO983046:GEO983085 GOK983046:GOK983085 GYG983046:GYG983085 HIC983046:HIC983085 HRY983046:HRY983085 IBU983046:IBU983085 ILQ983046:ILQ983085 IVM983046:IVM983085 JFI983046:JFI983085 JPE983046:JPE983085 JZA983046:JZA983085 KIW983046:KIW983085 KSS983046:KSS983085 LCO983046:LCO983085 LMK983046:LMK983085 LWG983046:LWG983085 MGC983046:MGC983085 MPY983046:MPY983085 MZU983046:MZU983085 NJQ983046:NJQ983085 NTM983046:NTM983085 ODI983046:ODI983085 ONE983046:ONE983085 OXA983046:OXA983085 PGW983046:PGW983085 PQS983046:PQS983085 QAO983046:QAO983085 QKK983046:QKK983085 QUG983046:QUG983085 REC983046:REC983085 RNY983046:RNY983085 RXU983046:RXU983085 SHQ983046:SHQ983085 SRM983046:SRM983085 TBI983046:TBI983085 TLE983046:TLE983085 TVA983046:TVA983085 UEW983046:UEW983085 UOS983046:UOS983085 UYO983046:UYO983085 VIK983046:VIK983085 VSG983046:VSG983085 WCC983046:WCC983085 WLY983046:WLY983085 WVU983046:WVU983085 WVU5:WVU43 WLY5:WLY43 WCC5:WCC43 VSG5:VSG43 VIK5:VIK43 UYO5:UYO43 UOS5:UOS43 UEW5:UEW43 TVA5:TVA43 TLE5:TLE43 TBI5:TBI43 SRM5:SRM43 SHQ5:SHQ43 RXU5:RXU43 RNY5:RNY43 REC5:REC43 QUG5:QUG43 QKK5:QKK43 QAO5:QAO43 PQS5:PQS43 PGW5:PGW43 OXA5:OXA43 ONE5:ONE43 ODI5:ODI43 NTM5:NTM43 NJQ5:NJQ43 MZU5:MZU43 MPY5:MPY43 MGC5:MGC43 LWG5:LWG43 LMK5:LMK43 LCO5:LCO43 KSS5:KSS43 KIW5:KIW43 JZA5:JZA43 JPE5:JPE43 JFI5:JFI43 IVM5:IVM43 ILQ5:ILQ43 IBU5:IBU43 HRY5:HRY43 HIC5:HIC43 GYG5:GYG43 GOK5:GOK43 GEO5:GEO43 FUS5:FUS43 FKW5:FKW43 FBA5:FBA43 ERE5:ERE43 EHI5:EHI43 DXM5:DXM43 DNQ5:DNQ43 DDU5:DDU43 CTY5:CTY43 CKC5:CKC43 CAG5:CAG43 BQK5:BQK43 BGO5:BGO43 AWS5:AWS43 AMW5:AMW43 ADA5:ADA43 TE5:TE43 JI5:JI43" xr:uid="{00000000-0002-0000-0900-000004000000}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
@@ -8716,7 +8823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9181,37 +9288,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A1" s="153"/>
-      <c r="B1" s="153"/>
-      <c r="C1" s="154" t="s">
+      <c r="A1" s="134"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
       <c r="N1" s="40"/>
       <c r="O1" s="40"/>
       <c r="P1" s="41"/>
     </row>
     <row r="2" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A2" s="156"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
       <c r="M2" s="42" t="s">
         <v>134</v>
       </c>
@@ -9222,19 +9329,19 @@
       <c r="P2" s="41"/>
     </row>
     <row r="3" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="139" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
       <c r="M3" s="42" t="s">
         <v>135</v>
       </c>
@@ -9245,8 +9352,8 @@
       <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1">
-      <c r="A4" s="151"/>
-      <c r="B4" s="152"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="133"/>
       <c r="C4" s="45"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -9261,67 +9368,67 @@
       <c r="P4" s="41"/>
     </row>
     <row r="5" spans="1:259" ht="92.25" customHeight="1">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="152" t="s">
         <v>136</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="153" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="143" t="s">
+      <c r="D5" s="154"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="153" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="146" t="s">
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="156" t="s">
         <v>140</v>
       </c>
-      <c r="L5" s="147" t="s">
+      <c r="L5" s="157" t="s">
         <v>141</v>
       </c>
-      <c r="M5" s="149" t="s">
+      <c r="M5" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="N5" s="150"/>
-      <c r="O5" s="134" t="s">
+      <c r="N5" s="160"/>
+      <c r="O5" s="144" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:259" ht="200.25" customHeight="1">
-      <c r="A6" s="142"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="145" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135" t="s">
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="148"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="N6" s="136" t="s">
+      <c r="N6" s="146" t="s">
         <v>147</v>
       </c>
-      <c r="O6" s="134"/>
+      <c r="O6" s="144"/>
     </row>
     <row r="7" spans="1:259" ht="60" customHeight="1">
-      <c r="A7" s="142"/>
+      <c r="A7" s="152"/>
       <c r="B7" s="52" t="s">
         <v>148</v>
       </c>
@@ -9358,7 +9465,7 @@
       <c r="M7" s="56">
         <v>100</v>
       </c>
-      <c r="N7" s="137"/>
+      <c r="N7" s="147"/>
       <c r="O7" s="57">
         <v>100</v>
       </c>
@@ -11474,23 +11581,23 @@
       </c>
     </row>
     <row r="48" spans="1:259" ht="60" customHeight="1">
-      <c r="A48" s="138" t="s">
+      <c r="A48" s="148" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="138"/>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="138"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="138"/>
-      <c r="J48" s="138"/>
-      <c r="K48" s="138"/>
-      <c r="L48" s="138"/>
-      <c r="M48" s="138"/>
-      <c r="N48" s="138"/>
-      <c r="O48" s="138"/>
+      <c r="B48" s="148"/>
+      <c r="C48" s="148"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="148"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="148"/>
+      <c r="J48" s="148"/>
+      <c r="K48" s="148"/>
+      <c r="L48" s="148"/>
+      <c r="M48" s="148"/>
+      <c r="N48" s="148"/>
+      <c r="O48" s="148"/>
       <c r="P48" s="68"/>
       <c r="Q48" s="68"/>
       <c r="R48" s="68"/>
@@ -11741,17 +11848,17 @@
       <c r="B49" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="C49" s="139"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="140"/>
-      <c r="F49" s="140"/>
-      <c r="G49" s="140"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="140"/>
-      <c r="K49" s="140"/>
-      <c r="L49" s="140"/>
-      <c r="M49" s="141"/>
+      <c r="C49" s="149"/>
+      <c r="D49" s="150"/>
+      <c r="E49" s="150"/>
+      <c r="F49" s="150"/>
+      <c r="G49" s="150"/>
+      <c r="H49" s="150"/>
+      <c r="I49" s="150"/>
+      <c r="J49" s="150"/>
+      <c r="K49" s="150"/>
+      <c r="L49" s="150"/>
+      <c r="M49" s="151"/>
       <c r="N49" s="71"/>
       <c r="O49" s="71"/>
     </row>
@@ -12000,24 +12107,24 @@
       <c r="B55" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="C55" s="132" t="s">
+      <c r="C55" s="142" t="s">
         <v>183</v>
       </c>
-      <c r="D55" s="132" t="s">
+      <c r="D55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="E55" s="132" t="s">
+      <c r="E55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="F55" s="132" t="s">
+      <c r="F55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="G55" s="132"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132" t="s">
+      <c r="G55" s="142"/>
+      <c r="H55" s="142"/>
+      <c r="I55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="J55" s="132" t="s">
+      <c r="J55" s="142" t="s">
         <v>184</v>
       </c>
       <c r="K55" s="79" t="s">
@@ -12034,14 +12141,14 @@
       <c r="B56" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="133"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="133"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="143"/>
       <c r="K56" s="85"/>
       <c r="L56" s="86"/>
       <c r="M56" s="86"/>
@@ -12052,12 +12159,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="bymfRcfdrKcinTwDVsD9Sw9HEi8Aylyen4Sk5Zge/jYh+kvPJ7FX30Y4JStUMt7GaslXX539UxCjP4mWFs/Pug==" saltValue="rJpldvugpSjeUtd+V1m7xQ==" spinCount="100000" sheet="1"/>
   <mergeCells count="20">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:L2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:K3"/>
     <mergeCell ref="C55:J55"/>
     <mergeCell ref="C56:J56"/>
     <mergeCell ref="O5:O6"/>
@@ -12072,22 +12173,28 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:L2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:K3"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L47" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:I47 K8:K47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:I47 K8:K47" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D47" xr:uid="{00000000-0002-0000-0A00-000002000000}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="يجب أن تكون القيمة بين 0 و 5" sqref="SU46:TF50 ACQ46:ADB50 AMM46:AMX50 AWI46:AWT50 BGE46:BGP50 BQA46:BQL50 BZW46:CAH50 CJS46:CKD50 CTO46:CTZ50 DDK46:DDV50 DNG46:DNR50 DXC46:DXN50 EGY46:EHJ50 EQU46:ERF50 FAQ46:FBB50 FKM46:FKX50 FUI46:FUT50 GEE46:GEP50 GOA46:GOL50 GXW46:GYH50 HHS46:HID50 HRO46:HRZ50 IBK46:IBV50 ILG46:ILR50 IVC46:IVN50 JEY46:JFJ50 JOU46:JPF50 JYQ46:JZB50 KIM46:KIX50 KSI46:KST50 LCE46:LCP50 LMA46:LML50 LVW46:LWH50 MFS46:MGD50 MPO46:MPZ50 MZK46:MZV50 NJG46:NJR50 NTC46:NTN50 OCY46:ODJ50 OMU46:ONF50 OWQ46:OXB50 PGM46:PGX50 PQI46:PQT50 QAE46:QAP50 QKA46:QKL50 QTW46:QUH50 RDS46:RED50 RNO46:RNZ50 RXK46:RXV50 SHG46:SHR50 SRC46:SRN50 TAY46:TBJ50 TKU46:TLF50 TUQ46:TVB50 UEM46:UEX50 UOI46:UOT50 UYE46:UYP50 VIA46:VIL50 VRW46:VSH50 WBS46:WCD50 WLO46:WLZ50 WVK46:WVV50 SU65584:TF65588 ACQ65584:ADB65588 AMM65584:AMX65588 AWI65584:AWT65588 BGE65584:BGP65588 BQA65584:BQL65588 BZW65584:CAH65588 CJS65584:CKD65588 CTO65584:CTZ65588 DDK65584:DDV65588 DNG65584:DNR65588 DXC65584:DXN65588 EGY65584:EHJ65588 EQU65584:ERF65588 FAQ65584:FBB65588 FKM65584:FKX65588 FUI65584:FUT65588 GEE65584:GEP65588 GOA65584:GOL65588 GXW65584:GYH65588 HHS65584:HID65588 HRO65584:HRZ65588 IBK65584:IBV65588 ILG65584:ILR65588 IVC65584:IVN65588 JEY65584:JFJ65588 JOU65584:JPF65588 JYQ65584:JZB65588 KIM65584:KIX65588 KSI65584:KST65588 LCE65584:LCP65588 LMA65584:LML65588 LVW65584:LWH65588 MFS65584:MGD65588 MPO65584:MPZ65588 MZK65584:MZV65588 NJG65584:NJR65588 NTC65584:NTN65588 OCY65584:ODJ65588 OMU65584:ONF65588 OWQ65584:OXB65588 PGM65584:PGX65588 PQI65584:PQT65588 QAE65584:QAP65588 QKA65584:QKL65588 QTW65584:QUH65588 RDS65584:RED65588 RNO65584:RNZ65588 RXK65584:RXV65588 SHG65584:SHR65588 SRC65584:SRN65588 TAY65584:TBJ65588 TKU65584:TLF65588 TUQ65584:TVB65588 UEM65584:UEX65588 UOI65584:UOT65588 UYE65584:UYP65588 VIA65584:VIL65588 VRW65584:VSH65588 WBS65584:WCD65588 WLO65584:WLZ65588 WVK65584:WVV65588 SU131120:TF131124 ACQ131120:ADB131124 AMM131120:AMX131124 AWI131120:AWT131124 BGE131120:BGP131124 BQA131120:BQL131124 BZW131120:CAH131124 CJS131120:CKD131124 CTO131120:CTZ131124 DDK131120:DDV131124 DNG131120:DNR131124 DXC131120:DXN131124 EGY131120:EHJ131124 EQU131120:ERF131124 FAQ131120:FBB131124 FKM131120:FKX131124 FUI131120:FUT131124 GEE131120:GEP131124 GOA131120:GOL131124 GXW131120:GYH131124 HHS131120:HID131124 HRO131120:HRZ131124 IBK131120:IBV131124 ILG131120:ILR131124 IVC131120:IVN131124 JEY131120:JFJ131124 JOU131120:JPF131124 JYQ131120:JZB131124 KIM131120:KIX131124 KSI131120:KST131124 LCE131120:LCP131124 LMA131120:LML131124 LVW131120:LWH131124 MFS131120:MGD131124 MPO131120:MPZ131124 MZK131120:MZV131124 NJG131120:NJR131124 NTC131120:NTN131124 OCY131120:ODJ131124 OMU131120:ONF131124 OWQ131120:OXB131124 PGM131120:PGX131124 PQI131120:PQT131124 QAE131120:QAP131124 QKA131120:QKL131124 QTW131120:QUH131124 RDS131120:RED131124 RNO131120:RNZ131124 RXK131120:RXV131124 SHG131120:SHR131124 SRC131120:SRN131124 TAY131120:TBJ131124 TKU131120:TLF131124 TUQ131120:TVB131124 UEM131120:UEX131124 UOI131120:UOT131124 UYE131120:UYP131124 VIA131120:VIL131124 VRW131120:VSH131124 WBS131120:WCD131124 WLO131120:WLZ131124 WVK131120:WVV131124 SU196656:TF196660 ACQ196656:ADB196660 AMM196656:AMX196660 AWI196656:AWT196660 BGE196656:BGP196660 BQA196656:BQL196660 BZW196656:CAH196660 CJS196656:CKD196660 CTO196656:CTZ196660 DDK196656:DDV196660 DNG196656:DNR196660 DXC196656:DXN196660 EGY196656:EHJ196660 EQU196656:ERF196660 FAQ196656:FBB196660 FKM196656:FKX196660 FUI196656:FUT196660 GEE196656:GEP196660 GOA196656:GOL196660 GXW196656:GYH196660 HHS196656:HID196660 HRO196656:HRZ196660 IBK196656:IBV196660 ILG196656:ILR196660 IVC196656:IVN196660 JEY196656:JFJ196660 JOU196656:JPF196660 JYQ196656:JZB196660 KIM196656:KIX196660 KSI196656:KST196660 LCE196656:LCP196660 LMA196656:LML196660 LVW196656:LWH196660 MFS196656:MGD196660 MPO196656:MPZ196660 MZK196656:MZV196660 NJG196656:NJR196660 NTC196656:NTN196660 OCY196656:ODJ196660 OMU196656:ONF196660 OWQ196656:OXB196660 PGM196656:PGX196660 PQI196656:PQT196660 QAE196656:QAP196660 QKA196656:QKL196660 QTW196656:QUH196660 RDS196656:RED196660 RNO196656:RNZ196660 RXK196656:RXV196660 SHG196656:SHR196660 SRC196656:SRN196660 TAY196656:TBJ196660 TKU196656:TLF196660 TUQ196656:TVB196660 UEM196656:UEX196660 UOI196656:UOT196660 UYE196656:UYP196660 VIA196656:VIL196660 VRW196656:VSH196660 WBS196656:WCD196660 WLO196656:WLZ196660 WVK196656:WVV196660 SU262192:TF262196 ACQ262192:ADB262196 AMM262192:AMX262196 AWI262192:AWT262196 BGE262192:BGP262196 BQA262192:BQL262196 BZW262192:CAH262196 CJS262192:CKD262196 CTO262192:CTZ262196 DDK262192:DDV262196 DNG262192:DNR262196 DXC262192:DXN262196 EGY262192:EHJ262196 EQU262192:ERF262196 FAQ262192:FBB262196 FKM262192:FKX262196 FUI262192:FUT262196 GEE262192:GEP262196 GOA262192:GOL262196 GXW262192:GYH262196 HHS262192:HID262196 HRO262192:HRZ262196 IBK262192:IBV262196 ILG262192:ILR262196 IVC262192:IVN262196 JEY262192:JFJ262196 JOU262192:JPF262196 JYQ262192:JZB262196 KIM262192:KIX262196 KSI262192:KST262196 LCE262192:LCP262196 LMA262192:LML262196 LVW262192:LWH262196 MFS262192:MGD262196 MPO262192:MPZ262196 MZK262192:MZV262196 NJG262192:NJR262196 NTC262192:NTN262196 OCY262192:ODJ262196 OMU262192:ONF262196 OWQ262192:OXB262196 PGM262192:PGX262196 PQI262192:PQT262196 QAE262192:QAP262196 QKA262192:QKL262196 QTW262192:QUH262196 RDS262192:RED262196 RNO262192:RNZ262196 RXK262192:RXV262196 SHG262192:SHR262196 SRC262192:SRN262196 TAY262192:TBJ262196 TKU262192:TLF262196 TUQ262192:TVB262196 UEM262192:UEX262196 UOI262192:UOT262196 UYE262192:UYP262196 VIA262192:VIL262196 VRW262192:VSH262196 WBS262192:WCD262196 WLO262192:WLZ262196 WVK262192:WVV262196 SU327728:TF327732 ACQ327728:ADB327732 AMM327728:AMX327732 AWI327728:AWT327732 BGE327728:BGP327732 BQA327728:BQL327732 BZW327728:CAH327732 CJS327728:CKD327732 CTO327728:CTZ327732 DDK327728:DDV327732 DNG327728:DNR327732 DXC327728:DXN327732 EGY327728:EHJ327732 EQU327728:ERF327732 FAQ327728:FBB327732 FKM327728:FKX327732 FUI327728:FUT327732 GEE327728:GEP327732 GOA327728:GOL327732 GXW327728:GYH327732 HHS327728:HID327732 HRO327728:HRZ327732 IBK327728:IBV327732 ILG327728:ILR327732 IVC327728:IVN327732 JEY327728:JFJ327732 JOU327728:JPF327732 JYQ327728:JZB327732 KIM327728:KIX327732 KSI327728:KST327732 LCE327728:LCP327732 LMA327728:LML327732 LVW327728:LWH327732 MFS327728:MGD327732 MPO327728:MPZ327732 MZK327728:MZV327732 NJG327728:NJR327732 NTC327728:NTN327732 OCY327728:ODJ327732 OMU327728:ONF327732 OWQ327728:OXB327732 PGM327728:PGX327732 PQI327728:PQT327732 QAE327728:QAP327732 QKA327728:QKL327732 QTW327728:QUH327732 RDS327728:RED327732 RNO327728:RNZ327732 RXK327728:RXV327732 SHG327728:SHR327732 SRC327728:SRN327732 TAY327728:TBJ327732 TKU327728:TLF327732 TUQ327728:TVB327732 UEM327728:UEX327732 UOI327728:UOT327732 UYE327728:UYP327732 VIA327728:VIL327732 VRW327728:VSH327732 WBS327728:WCD327732 WLO327728:WLZ327732 WVK327728:WVV327732 SU393264:TF393268 ACQ393264:ADB393268 AMM393264:AMX393268 AWI393264:AWT393268 BGE393264:BGP393268 BQA393264:BQL393268 BZW393264:CAH393268 CJS393264:CKD393268 CTO393264:CTZ393268 DDK393264:DDV393268 DNG393264:DNR393268 DXC393264:DXN393268 EGY393264:EHJ393268 EQU393264:ERF393268 FAQ393264:FBB393268 FKM393264:FKX393268 FUI393264:FUT393268 GEE393264:GEP393268 GOA393264:GOL393268 GXW393264:GYH393268 HHS393264:HID393268 HRO393264:HRZ393268 IBK393264:IBV393268 ILG393264:ILR393268 IVC393264:IVN393268 JEY393264:JFJ393268 JOU393264:JPF393268 JYQ393264:JZB393268 KIM393264:KIX393268 KSI393264:KST393268 LCE393264:LCP393268 LMA393264:LML393268 LVW393264:LWH393268 MFS393264:MGD393268 MPO393264:MPZ393268 MZK393264:MZV393268 NJG393264:NJR393268 NTC393264:NTN393268 OCY393264:ODJ393268 OMU393264:ONF393268 OWQ393264:OXB393268 PGM393264:PGX393268 PQI393264:PQT393268 QAE393264:QAP393268 QKA393264:QKL393268 QTW393264:QUH393268 RDS393264:RED393268 RNO393264:RNZ393268 RXK393264:RXV393268 SHG393264:SHR393268 SRC393264:SRN393268 TAY393264:TBJ393268 TKU393264:TLF393268 TUQ393264:TVB393268 UEM393264:UEX393268 UOI393264:UOT393268 UYE393264:UYP393268 VIA393264:VIL393268 VRW393264:VSH393268 WBS393264:WCD393268 WLO393264:WLZ393268 WVK393264:WVV393268 SU458800:TF458804 ACQ458800:ADB458804 AMM458800:AMX458804 AWI458800:AWT458804 BGE458800:BGP458804 BQA458800:BQL458804 BZW458800:CAH458804 CJS458800:CKD458804 CTO458800:CTZ458804 DDK458800:DDV458804 DNG458800:DNR458804 DXC458800:DXN458804 EGY458800:EHJ458804 EQU458800:ERF458804 FAQ458800:FBB458804 FKM458800:FKX458804 FUI458800:FUT458804 GEE458800:GEP458804 GOA458800:GOL458804 GXW458800:GYH458804 HHS458800:HID458804 HRO458800:HRZ458804 IBK458800:IBV458804 ILG458800:ILR458804 IVC458800:IVN458804 JEY458800:JFJ458804 JOU458800:JPF458804 JYQ458800:JZB458804 KIM458800:KIX458804 KSI458800:KST458804 LCE458800:LCP458804 LMA458800:LML458804 LVW458800:LWH458804 MFS458800:MGD458804 MPO458800:MPZ458804 MZK458800:MZV458804 NJG458800:NJR458804 NTC458800:NTN458804 OCY458800:ODJ458804 OMU458800:ONF458804 OWQ458800:OXB458804 PGM458800:PGX458804 PQI458800:PQT458804 QAE458800:QAP458804 QKA458800:QKL458804 QTW458800:QUH458804 RDS458800:RED458804 RNO458800:RNZ458804 RXK458800:RXV458804 SHG458800:SHR458804 SRC458800:SRN458804 TAY458800:TBJ458804 TKU458800:TLF458804 TUQ458800:TVB458804 UEM458800:UEX458804 UOI458800:UOT458804 UYE458800:UYP458804 VIA458800:VIL458804 VRW458800:VSH458804 WBS458800:WCD458804 WLO458800:WLZ458804 WVK458800:WVV458804 SU524336:TF524340 ACQ524336:ADB524340 AMM524336:AMX524340 AWI524336:AWT524340 BGE524336:BGP524340 BQA524336:BQL524340 BZW524336:CAH524340 CJS524336:CKD524340 CTO524336:CTZ524340 DDK524336:DDV524340 DNG524336:DNR524340 DXC524336:DXN524340 EGY524336:EHJ524340 EQU524336:ERF524340 FAQ524336:FBB524340 FKM524336:FKX524340 FUI524336:FUT524340 GEE524336:GEP524340 GOA524336:GOL524340 GXW524336:GYH524340 HHS524336:HID524340 HRO524336:HRZ524340 IBK524336:IBV524340 ILG524336:ILR524340 IVC524336:IVN524340 JEY524336:JFJ524340 JOU524336:JPF524340 JYQ524336:JZB524340 KIM524336:KIX524340 KSI524336:KST524340 LCE524336:LCP524340 LMA524336:LML524340 LVW524336:LWH524340 MFS524336:MGD524340 MPO524336:MPZ524340 MZK524336:MZV524340 NJG524336:NJR524340 NTC524336:NTN524340 OCY524336:ODJ524340 OMU524336:ONF524340 OWQ524336:OXB524340 PGM524336:PGX524340 PQI524336:PQT524340 QAE524336:QAP524340 QKA524336:QKL524340 QTW524336:QUH524340 RDS524336:RED524340 RNO524336:RNZ524340 RXK524336:RXV524340 SHG524336:SHR524340 SRC524336:SRN524340 TAY524336:TBJ524340 TKU524336:TLF524340 TUQ524336:TVB524340 UEM524336:UEX524340 UOI524336:UOT524340 UYE524336:UYP524340 VIA524336:VIL524340 VRW524336:VSH524340 WBS524336:WCD524340 WLO524336:WLZ524340 WVK524336:WVV524340 SU589872:TF589876 ACQ589872:ADB589876 AMM589872:AMX589876 AWI589872:AWT589876 BGE589872:BGP589876 BQA589872:BQL589876 BZW589872:CAH589876 CJS589872:CKD589876 CTO589872:CTZ589876 DDK589872:DDV589876 DNG589872:DNR589876 DXC589872:DXN589876 EGY589872:EHJ589876 EQU589872:ERF589876 FAQ589872:FBB589876 FKM589872:FKX589876 FUI589872:FUT589876 GEE589872:GEP589876 GOA589872:GOL589876 GXW589872:GYH589876 HHS589872:HID589876 HRO589872:HRZ589876 IBK589872:IBV589876 ILG589872:ILR589876 IVC589872:IVN589876 JEY589872:JFJ589876 JOU589872:JPF589876 JYQ589872:JZB589876 KIM589872:KIX589876 KSI589872:KST589876 LCE589872:LCP589876 LMA589872:LML589876 LVW589872:LWH589876 MFS589872:MGD589876 MPO589872:MPZ589876 MZK589872:MZV589876 NJG589872:NJR589876 NTC589872:NTN589876 OCY589872:ODJ589876 OMU589872:ONF589876 OWQ589872:OXB589876 PGM589872:PGX589876 PQI589872:PQT589876 QAE589872:QAP589876 QKA589872:QKL589876 QTW589872:QUH589876 RDS589872:RED589876 RNO589872:RNZ589876 RXK589872:RXV589876 SHG589872:SHR589876 SRC589872:SRN589876 TAY589872:TBJ589876 TKU589872:TLF589876 TUQ589872:TVB589876 UEM589872:UEX589876 UOI589872:UOT589876 UYE589872:UYP589876 VIA589872:VIL589876 VRW589872:VSH589876 WBS589872:WCD589876 WLO589872:WLZ589876 WVK589872:WVV589876 SU655408:TF655412 ACQ655408:ADB655412 AMM655408:AMX655412 AWI655408:AWT655412 BGE655408:BGP655412 BQA655408:BQL655412 BZW655408:CAH655412 CJS655408:CKD655412 CTO655408:CTZ655412 DDK655408:DDV655412 DNG655408:DNR655412 DXC655408:DXN655412 EGY655408:EHJ655412 EQU655408:ERF655412 FAQ655408:FBB655412 FKM655408:FKX655412 FUI655408:FUT655412 GEE655408:GEP655412 GOA655408:GOL655412 GXW655408:GYH655412 HHS655408:HID655412 HRO655408:HRZ655412 IBK655408:IBV655412 ILG655408:ILR655412 IVC655408:IVN655412 JEY655408:JFJ655412 JOU655408:JPF655412 JYQ655408:JZB655412 KIM655408:KIX655412 KSI655408:KST655412 LCE655408:LCP655412 LMA655408:LML655412 LVW655408:LWH655412 MFS655408:MGD655412 MPO655408:MPZ655412 MZK655408:MZV655412 NJG655408:NJR655412 NTC655408:NTN655412 OCY655408:ODJ655412 OMU655408:ONF655412 OWQ655408:OXB655412 PGM655408:PGX655412 PQI655408:PQT655412 QAE655408:QAP655412 QKA655408:QKL655412 QTW655408:QUH655412 RDS655408:RED655412 RNO655408:RNZ655412 RXK655408:RXV655412 SHG655408:SHR655412 SRC655408:SRN655412 TAY655408:TBJ655412 TKU655408:TLF655412 TUQ655408:TVB655412 UEM655408:UEX655412 UOI655408:UOT655412 UYE655408:UYP655412 VIA655408:VIL655412 VRW655408:VSH655412 WBS655408:WCD655412 WLO655408:WLZ655412 WVK655408:WVV655412 SU720944:TF720948 ACQ720944:ADB720948 AMM720944:AMX720948 AWI720944:AWT720948 BGE720944:BGP720948 BQA720944:BQL720948 BZW720944:CAH720948 CJS720944:CKD720948 CTO720944:CTZ720948 DDK720944:DDV720948 DNG720944:DNR720948 DXC720944:DXN720948 EGY720944:EHJ720948 EQU720944:ERF720948 FAQ720944:FBB720948 FKM720944:FKX720948 FUI720944:FUT720948 GEE720944:GEP720948 GOA720944:GOL720948 GXW720944:GYH720948 HHS720944:HID720948 HRO720944:HRZ720948 IBK720944:IBV720948 ILG720944:ILR720948 IVC720944:IVN720948 JEY720944:JFJ720948 JOU720944:JPF720948 JYQ720944:JZB720948 KIM720944:KIX720948 KSI720944:KST720948 LCE720944:LCP720948 LMA720944:LML720948 LVW720944:LWH720948 MFS720944:MGD720948 MPO720944:MPZ720948 MZK720944:MZV720948 NJG720944:NJR720948 NTC720944:NTN720948 OCY720944:ODJ720948 OMU720944:ONF720948 OWQ720944:OXB720948 PGM720944:PGX720948 PQI720944:PQT720948 QAE720944:QAP720948 QKA720944:QKL720948 QTW720944:QUH720948 RDS720944:RED720948 RNO720944:RNZ720948 RXK720944:RXV720948 SHG720944:SHR720948 SRC720944:SRN720948 TAY720944:TBJ720948 TKU720944:TLF720948 TUQ720944:TVB720948 UEM720944:UEX720948 UOI720944:UOT720948 UYE720944:UYP720948 VIA720944:VIL720948 VRW720944:VSH720948 WBS720944:WCD720948 WLO720944:WLZ720948 WVK720944:WVV720948 SU786480:TF786484 ACQ786480:ADB786484 AMM786480:AMX786484 AWI786480:AWT786484 BGE786480:BGP786484 BQA786480:BQL786484 BZW786480:CAH786484 CJS786480:CKD786484 CTO786480:CTZ786484 DDK786480:DDV786484 DNG786480:DNR786484 DXC786480:DXN786484 EGY786480:EHJ786484 EQU786480:ERF786484 FAQ786480:FBB786484 FKM786480:FKX786484 FUI786480:FUT786484 GEE786480:GEP786484 GOA786480:GOL786484 GXW786480:GYH786484 HHS786480:HID786484 HRO786480:HRZ786484 IBK786480:IBV786484 ILG786480:ILR786484 IVC786480:IVN786484 JEY786480:JFJ786484 JOU786480:JPF786484 JYQ786480:JZB786484 KIM786480:KIX786484 KSI786480:KST786484 LCE786480:LCP786484 LMA786480:LML786484 LVW786480:LWH786484 MFS786480:MGD786484 MPO786480:MPZ786484 MZK786480:MZV786484 NJG786480:NJR786484 NTC786480:NTN786484 OCY786480:ODJ786484 OMU786480:ONF786484 OWQ786480:OXB786484 PGM786480:PGX786484 PQI786480:PQT786484 QAE786480:QAP786484 QKA786480:QKL786484 QTW786480:QUH786484 RDS786480:RED786484 RNO786480:RNZ786484 RXK786480:RXV786484 SHG786480:SHR786484 SRC786480:SRN786484 TAY786480:TBJ786484 TKU786480:TLF786484 TUQ786480:TVB786484 UEM786480:UEX786484 UOI786480:UOT786484 UYE786480:UYP786484 VIA786480:VIL786484 VRW786480:VSH786484 WBS786480:WCD786484 WLO786480:WLZ786484 WVK786480:WVV786484 SU852016:TF852020 ACQ852016:ADB852020 AMM852016:AMX852020 AWI852016:AWT852020 BGE852016:BGP852020 BQA852016:BQL852020 BZW852016:CAH852020 CJS852016:CKD852020 CTO852016:CTZ852020 DDK852016:DDV852020 DNG852016:DNR852020 DXC852016:DXN852020 EGY852016:EHJ852020 EQU852016:ERF852020 FAQ852016:FBB852020 FKM852016:FKX852020 FUI852016:FUT852020 GEE852016:GEP852020 GOA852016:GOL852020 GXW852016:GYH852020 HHS852016:HID852020 HRO852016:HRZ852020 IBK852016:IBV852020 ILG852016:ILR852020 IVC852016:IVN852020 JEY852016:JFJ852020 JOU852016:JPF852020 JYQ852016:JZB852020 KIM852016:KIX852020 KSI852016:KST852020 LCE852016:LCP852020 LMA852016:LML852020 LVW852016:LWH852020 MFS852016:MGD852020 MPO852016:MPZ852020 MZK852016:MZV852020 NJG852016:NJR852020 NTC852016:NTN852020 OCY852016:ODJ852020 OMU852016:ONF852020 OWQ852016:OXB852020 PGM852016:PGX852020 PQI852016:PQT852020 QAE852016:QAP852020 QKA852016:QKL852020 QTW852016:QUH852020 RDS852016:RED852020 RNO852016:RNZ852020 RXK852016:RXV852020 SHG852016:SHR852020 SRC852016:SRN852020 TAY852016:TBJ852020 TKU852016:TLF852020 TUQ852016:TVB852020 UEM852016:UEX852020 UOI852016:UOT852020 UYE852016:UYP852020 VIA852016:VIL852020 VRW852016:VSH852020 WBS852016:WCD852020 WLO852016:WLZ852020 WVK852016:WVV852020 SU917552:TF917556 ACQ917552:ADB917556 AMM917552:AMX917556 AWI917552:AWT917556 BGE917552:BGP917556 BQA917552:BQL917556 BZW917552:CAH917556 CJS917552:CKD917556 CTO917552:CTZ917556 DDK917552:DDV917556 DNG917552:DNR917556 DXC917552:DXN917556 EGY917552:EHJ917556 EQU917552:ERF917556 FAQ917552:FBB917556 FKM917552:FKX917556 FUI917552:FUT917556 GEE917552:GEP917556 GOA917552:GOL917556 GXW917552:GYH917556 HHS917552:HID917556 HRO917552:HRZ917556 IBK917552:IBV917556 ILG917552:ILR917556 IVC917552:IVN917556 JEY917552:JFJ917556 JOU917552:JPF917556 JYQ917552:JZB917556 KIM917552:KIX917556 KSI917552:KST917556 LCE917552:LCP917556 LMA917552:LML917556 LVW917552:LWH917556 MFS917552:MGD917556 MPO917552:MPZ917556 MZK917552:MZV917556 NJG917552:NJR917556 NTC917552:NTN917556 OCY917552:ODJ917556 OMU917552:ONF917556 OWQ917552:OXB917556 PGM917552:PGX917556 PQI917552:PQT917556 QAE917552:QAP917556 QKA917552:QKL917556 QTW917552:QUH917556 RDS917552:RED917556 RNO917552:RNZ917556 RXK917552:RXV917556 SHG917552:SHR917556 SRC917552:SRN917556 TAY917552:TBJ917556 TKU917552:TLF917556 TUQ917552:TVB917556 UEM917552:UEX917556 UOI917552:UOT917556 UYE917552:UYP917556 VIA917552:VIL917556 VRW917552:VSH917556 WBS917552:WCD917556 WLO917552:WLZ917556 WVK917552:WVV917556 WVK983088:WVV983092 SU983088:TF983092 ACQ983088:ADB983092 AMM983088:AMX983092 AWI983088:AWT983092 BGE983088:BGP983092 BQA983088:BQL983092 BZW983088:CAH983092 CJS983088:CKD983092 CTO983088:CTZ983092 DDK983088:DDV983092 DNG983088:DNR983092 DXC983088:DXN983092 EGY983088:EHJ983092 EQU983088:ERF983092 FAQ983088:FBB983092 FKM983088:FKX983092 FUI983088:FUT983092 GEE983088:GEP983092 GOA983088:GOL983092 GXW983088:GYH983092 HHS983088:HID983092 HRO983088:HRZ983092 IBK983088:IBV983092 ILG983088:ILR983092 IVC983088:IVN983092 JEY983088:JFJ983092 JOU983088:JPF983092 JYQ983088:JZB983092 KIM983088:KIX983092 KSI983088:KST983092 LCE983088:LCP983092 LMA983088:LML983092 LVW983088:LWH983092 MFS983088:MGD983092 MPO983088:MPZ983092 MZK983088:MZV983092 NJG983088:NJR983092 NTC983088:NTN983092 OCY983088:ODJ983092 OMU983088:ONF983092 OWQ983088:OXB983092 PGM983088:PGX983092 PQI983088:PQT983092 QAE983088:QAP983092 QKA983088:QKL983092 QTW983088:QUH983092 RDS983088:RED983092 RNO983088:RNZ983092 RXK983088:RXV983092 SHG983088:SHR983092 SRC983088:SRN983092 TAY983088:TBJ983092 TKU983088:TLF983092 TUQ983088:TVB983092 UEM983088:UEX983092 UOI983088:UOT983092 UYE983088:UYP983092 VIA983088:VIL983092 VRW983088:VSH983092 WBS983088:WCD983092 WLO983088:WLZ983092 IY50:IY54 C917556:M917560 C852020:M852024 C786484:M786488 C720948:M720952 C655412:M655416 C589876:M589880 C524340:M524344 C458804:M458808 C393268:M393272 C327732:M327736 C262196:M262200 C196660:M196664 C131124:M131128 C65588:M65592 C983092:M983096 IY983092:IY983096 IZ983088:JJ983092 IY917556:IY917560 IZ917552:JJ917556 IY852020:IY852024 IZ852016:JJ852020 IY786484:IY786488 IZ786480:JJ786484 IY720948:IY720952 IZ720944:JJ720948 IY655412:IY655416 IZ655408:JJ655412 IY589876:IY589880 IZ589872:JJ589876 IY524340:IY524344 IZ524336:JJ524340 IY458804:IY458808 IZ458800:JJ458804 IY393268:IY393272 IZ393264:JJ393268 IY327732:IY327736 IZ327728:JJ327732 IY262196:IY262200 IZ262192:JJ262196 IY196660:IY196664 IZ196656:JJ196660 IY131124:IY131128 IZ131120:JJ131124 IY65588:IY65592 IZ65584:JJ65588 IZ46:JJ50 C50:M54"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JI65542:JI65581 TE65542:TE65581 ADA65542:ADA65581 AMW65542:AMW65581 AWS65542:AWS65581 BGO65542:BGO65581 BQK65542:BQK65581 CAG65542:CAG65581 CKC65542:CKC65581 CTY65542:CTY65581 DDU65542:DDU65581 DNQ65542:DNQ65581 DXM65542:DXM65581 EHI65542:EHI65581 ERE65542:ERE65581 FBA65542:FBA65581 FKW65542:FKW65581 FUS65542:FUS65581 GEO65542:GEO65581 GOK65542:GOK65581 GYG65542:GYG65581 HIC65542:HIC65581 HRY65542:HRY65581 IBU65542:IBU65581 ILQ65542:ILQ65581 IVM65542:IVM65581 JFI65542:JFI65581 JPE65542:JPE65581 JZA65542:JZA65581 KIW65542:KIW65581 KSS65542:KSS65581 LCO65542:LCO65581 LMK65542:LMK65581 LWG65542:LWG65581 MGC65542:MGC65581 MPY65542:MPY65581 MZU65542:MZU65581 NJQ65542:NJQ65581 NTM65542:NTM65581 ODI65542:ODI65581 ONE65542:ONE65581 OXA65542:OXA65581 PGW65542:PGW65581 PQS65542:PQS65581 QAO65542:QAO65581 QKK65542:QKK65581 QUG65542:QUG65581 REC65542:REC65581 RNY65542:RNY65581 RXU65542:RXU65581 SHQ65542:SHQ65581 SRM65542:SRM65581 TBI65542:TBI65581 TLE65542:TLE65581 TVA65542:TVA65581 UEW65542:UEW65581 UOS65542:UOS65581 UYO65542:UYO65581 VIK65542:VIK65581 VSG65542:VSG65581 WCC65542:WCC65581 WLY65542:WLY65581 WVU65542:WVU65581 JI131078:JI131117 TE131078:TE131117 ADA131078:ADA131117 AMW131078:AMW131117 AWS131078:AWS131117 BGO131078:BGO131117 BQK131078:BQK131117 CAG131078:CAG131117 CKC131078:CKC131117 CTY131078:CTY131117 DDU131078:DDU131117 DNQ131078:DNQ131117 DXM131078:DXM131117 EHI131078:EHI131117 ERE131078:ERE131117 FBA131078:FBA131117 FKW131078:FKW131117 FUS131078:FUS131117 GEO131078:GEO131117 GOK131078:GOK131117 GYG131078:GYG131117 HIC131078:HIC131117 HRY131078:HRY131117 IBU131078:IBU131117 ILQ131078:ILQ131117 IVM131078:IVM131117 JFI131078:JFI131117 JPE131078:JPE131117 JZA131078:JZA131117 KIW131078:KIW131117 KSS131078:KSS131117 LCO131078:LCO131117 LMK131078:LMK131117 LWG131078:LWG131117 MGC131078:MGC131117 MPY131078:MPY131117 MZU131078:MZU131117 NJQ131078:NJQ131117 NTM131078:NTM131117 ODI131078:ODI131117 ONE131078:ONE131117 OXA131078:OXA131117 PGW131078:PGW131117 PQS131078:PQS131117 QAO131078:QAO131117 QKK131078:QKK131117 QUG131078:QUG131117 REC131078:REC131117 RNY131078:RNY131117 RXU131078:RXU131117 SHQ131078:SHQ131117 SRM131078:SRM131117 TBI131078:TBI131117 TLE131078:TLE131117 TVA131078:TVA131117 UEW131078:UEW131117 UOS131078:UOS131117 UYO131078:UYO131117 VIK131078:VIK131117 VSG131078:VSG131117 WCC131078:WCC131117 WLY131078:WLY131117 WVU131078:WVU131117 JI196614:JI196653 TE196614:TE196653 ADA196614:ADA196653 AMW196614:AMW196653 AWS196614:AWS196653 BGO196614:BGO196653 BQK196614:BQK196653 CAG196614:CAG196653 CKC196614:CKC196653 CTY196614:CTY196653 DDU196614:DDU196653 DNQ196614:DNQ196653 DXM196614:DXM196653 EHI196614:EHI196653 ERE196614:ERE196653 FBA196614:FBA196653 FKW196614:FKW196653 FUS196614:FUS196653 GEO196614:GEO196653 GOK196614:GOK196653 GYG196614:GYG196653 HIC196614:HIC196653 HRY196614:HRY196653 IBU196614:IBU196653 ILQ196614:ILQ196653 IVM196614:IVM196653 JFI196614:JFI196653 JPE196614:JPE196653 JZA196614:JZA196653 KIW196614:KIW196653 KSS196614:KSS196653 LCO196614:LCO196653 LMK196614:LMK196653 LWG196614:LWG196653 MGC196614:MGC196653 MPY196614:MPY196653 MZU196614:MZU196653 NJQ196614:NJQ196653 NTM196614:NTM196653 ODI196614:ODI196653 ONE196614:ONE196653 OXA196614:OXA196653 PGW196614:PGW196653 PQS196614:PQS196653 QAO196614:QAO196653 QKK196614:QKK196653 QUG196614:QUG196653 REC196614:REC196653 RNY196614:RNY196653 RXU196614:RXU196653 SHQ196614:SHQ196653 SRM196614:SRM196653 TBI196614:TBI196653 TLE196614:TLE196653 TVA196614:TVA196653 UEW196614:UEW196653 UOS196614:UOS196653 UYO196614:UYO196653 VIK196614:VIK196653 VSG196614:VSG196653 WCC196614:WCC196653 WLY196614:WLY196653 WVU196614:WVU196653 JI262150:JI262189 TE262150:TE262189 ADA262150:ADA262189 AMW262150:AMW262189 AWS262150:AWS262189 BGO262150:BGO262189 BQK262150:BQK262189 CAG262150:CAG262189 CKC262150:CKC262189 CTY262150:CTY262189 DDU262150:DDU262189 DNQ262150:DNQ262189 DXM262150:DXM262189 EHI262150:EHI262189 ERE262150:ERE262189 FBA262150:FBA262189 FKW262150:FKW262189 FUS262150:FUS262189 GEO262150:GEO262189 GOK262150:GOK262189 GYG262150:GYG262189 HIC262150:HIC262189 HRY262150:HRY262189 IBU262150:IBU262189 ILQ262150:ILQ262189 IVM262150:IVM262189 JFI262150:JFI262189 JPE262150:JPE262189 JZA262150:JZA262189 KIW262150:KIW262189 KSS262150:KSS262189 LCO262150:LCO262189 LMK262150:LMK262189 LWG262150:LWG262189 MGC262150:MGC262189 MPY262150:MPY262189 MZU262150:MZU262189 NJQ262150:NJQ262189 NTM262150:NTM262189 ODI262150:ODI262189 ONE262150:ONE262189 OXA262150:OXA262189 PGW262150:PGW262189 PQS262150:PQS262189 QAO262150:QAO262189 QKK262150:QKK262189 QUG262150:QUG262189 REC262150:REC262189 RNY262150:RNY262189 RXU262150:RXU262189 SHQ262150:SHQ262189 SRM262150:SRM262189 TBI262150:TBI262189 TLE262150:TLE262189 TVA262150:TVA262189 UEW262150:UEW262189 UOS262150:UOS262189 UYO262150:UYO262189 VIK262150:VIK262189 VSG262150:VSG262189 WCC262150:WCC262189 WLY262150:WLY262189 WVU262150:WVU262189 JI327686:JI327725 TE327686:TE327725 ADA327686:ADA327725 AMW327686:AMW327725 AWS327686:AWS327725 BGO327686:BGO327725 BQK327686:BQK327725 CAG327686:CAG327725 CKC327686:CKC327725 CTY327686:CTY327725 DDU327686:DDU327725 DNQ327686:DNQ327725 DXM327686:DXM327725 EHI327686:EHI327725 ERE327686:ERE327725 FBA327686:FBA327725 FKW327686:FKW327725 FUS327686:FUS327725 GEO327686:GEO327725 GOK327686:GOK327725 GYG327686:GYG327725 HIC327686:HIC327725 HRY327686:HRY327725 IBU327686:IBU327725 ILQ327686:ILQ327725 IVM327686:IVM327725 JFI327686:JFI327725 JPE327686:JPE327725 JZA327686:JZA327725 KIW327686:KIW327725 KSS327686:KSS327725 LCO327686:LCO327725 LMK327686:LMK327725 LWG327686:LWG327725 MGC327686:MGC327725 MPY327686:MPY327725 MZU327686:MZU327725 NJQ327686:NJQ327725 NTM327686:NTM327725 ODI327686:ODI327725 ONE327686:ONE327725 OXA327686:OXA327725 PGW327686:PGW327725 PQS327686:PQS327725 QAO327686:QAO327725 QKK327686:QKK327725 QUG327686:QUG327725 REC327686:REC327725 RNY327686:RNY327725 RXU327686:RXU327725 SHQ327686:SHQ327725 SRM327686:SRM327725 TBI327686:TBI327725 TLE327686:TLE327725 TVA327686:TVA327725 UEW327686:UEW327725 UOS327686:UOS327725 UYO327686:UYO327725 VIK327686:VIK327725 VSG327686:VSG327725 WCC327686:WCC327725 WLY327686:WLY327725 WVU327686:WVU327725 JI393222:JI393261 TE393222:TE393261 ADA393222:ADA393261 AMW393222:AMW393261 AWS393222:AWS393261 BGO393222:BGO393261 BQK393222:BQK393261 CAG393222:CAG393261 CKC393222:CKC393261 CTY393222:CTY393261 DDU393222:DDU393261 DNQ393222:DNQ393261 DXM393222:DXM393261 EHI393222:EHI393261 ERE393222:ERE393261 FBA393222:FBA393261 FKW393222:FKW393261 FUS393222:FUS393261 GEO393222:GEO393261 GOK393222:GOK393261 GYG393222:GYG393261 HIC393222:HIC393261 HRY393222:HRY393261 IBU393222:IBU393261 ILQ393222:ILQ393261 IVM393222:IVM393261 JFI393222:JFI393261 JPE393222:JPE393261 JZA393222:JZA393261 KIW393222:KIW393261 KSS393222:KSS393261 LCO393222:LCO393261 LMK393222:LMK393261 LWG393222:LWG393261 MGC393222:MGC393261 MPY393222:MPY393261 MZU393222:MZU393261 NJQ393222:NJQ393261 NTM393222:NTM393261 ODI393222:ODI393261 ONE393222:ONE393261 OXA393222:OXA393261 PGW393222:PGW393261 PQS393222:PQS393261 QAO393222:QAO393261 QKK393222:QKK393261 QUG393222:QUG393261 REC393222:REC393261 RNY393222:RNY393261 RXU393222:RXU393261 SHQ393222:SHQ393261 SRM393222:SRM393261 TBI393222:TBI393261 TLE393222:TLE393261 TVA393222:TVA393261 UEW393222:UEW393261 UOS393222:UOS393261 UYO393222:UYO393261 VIK393222:VIK393261 VSG393222:VSG393261 WCC393222:WCC393261 WLY393222:WLY393261 WVU393222:WVU393261 JI458758:JI458797 TE458758:TE458797 ADA458758:ADA458797 AMW458758:AMW458797 AWS458758:AWS458797 BGO458758:BGO458797 BQK458758:BQK458797 CAG458758:CAG458797 CKC458758:CKC458797 CTY458758:CTY458797 DDU458758:DDU458797 DNQ458758:DNQ458797 DXM458758:DXM458797 EHI458758:EHI458797 ERE458758:ERE458797 FBA458758:FBA458797 FKW458758:FKW458797 FUS458758:FUS458797 GEO458758:GEO458797 GOK458758:GOK458797 GYG458758:GYG458797 HIC458758:HIC458797 HRY458758:HRY458797 IBU458758:IBU458797 ILQ458758:ILQ458797 IVM458758:IVM458797 JFI458758:JFI458797 JPE458758:JPE458797 JZA458758:JZA458797 KIW458758:KIW458797 KSS458758:KSS458797 LCO458758:LCO458797 LMK458758:LMK458797 LWG458758:LWG458797 MGC458758:MGC458797 MPY458758:MPY458797 MZU458758:MZU458797 NJQ458758:NJQ458797 NTM458758:NTM458797 ODI458758:ODI458797 ONE458758:ONE458797 OXA458758:OXA458797 PGW458758:PGW458797 PQS458758:PQS458797 QAO458758:QAO458797 QKK458758:QKK458797 QUG458758:QUG458797 REC458758:REC458797 RNY458758:RNY458797 RXU458758:RXU458797 SHQ458758:SHQ458797 SRM458758:SRM458797 TBI458758:TBI458797 TLE458758:TLE458797 TVA458758:TVA458797 UEW458758:UEW458797 UOS458758:UOS458797 UYO458758:UYO458797 VIK458758:VIK458797 VSG458758:VSG458797 WCC458758:WCC458797 WLY458758:WLY458797 WVU458758:WVU458797 JI524294:JI524333 TE524294:TE524333 ADA524294:ADA524333 AMW524294:AMW524333 AWS524294:AWS524333 BGO524294:BGO524333 BQK524294:BQK524333 CAG524294:CAG524333 CKC524294:CKC524333 CTY524294:CTY524333 DDU524294:DDU524333 DNQ524294:DNQ524333 DXM524294:DXM524333 EHI524294:EHI524333 ERE524294:ERE524333 FBA524294:FBA524333 FKW524294:FKW524333 FUS524294:FUS524333 GEO524294:GEO524333 GOK524294:GOK524333 GYG524294:GYG524333 HIC524294:HIC524333 HRY524294:HRY524333 IBU524294:IBU524333 ILQ524294:ILQ524333 IVM524294:IVM524333 JFI524294:JFI524333 JPE524294:JPE524333 JZA524294:JZA524333 KIW524294:KIW524333 KSS524294:KSS524333 LCO524294:LCO524333 LMK524294:LMK524333 LWG524294:LWG524333 MGC524294:MGC524333 MPY524294:MPY524333 MZU524294:MZU524333 NJQ524294:NJQ524333 NTM524294:NTM524333 ODI524294:ODI524333 ONE524294:ONE524333 OXA524294:OXA524333 PGW524294:PGW524333 PQS524294:PQS524333 QAO524294:QAO524333 QKK524294:QKK524333 QUG524294:QUG524333 REC524294:REC524333 RNY524294:RNY524333 RXU524294:RXU524333 SHQ524294:SHQ524333 SRM524294:SRM524333 TBI524294:TBI524333 TLE524294:TLE524333 TVA524294:TVA524333 UEW524294:UEW524333 UOS524294:UOS524333 UYO524294:UYO524333 VIK524294:VIK524333 VSG524294:VSG524333 WCC524294:WCC524333 WLY524294:WLY524333 WVU524294:WVU524333 JI589830:JI589869 TE589830:TE589869 ADA589830:ADA589869 AMW589830:AMW589869 AWS589830:AWS589869 BGO589830:BGO589869 BQK589830:BQK589869 CAG589830:CAG589869 CKC589830:CKC589869 CTY589830:CTY589869 DDU589830:DDU589869 DNQ589830:DNQ589869 DXM589830:DXM589869 EHI589830:EHI589869 ERE589830:ERE589869 FBA589830:FBA589869 FKW589830:FKW589869 FUS589830:FUS589869 GEO589830:GEO589869 GOK589830:GOK589869 GYG589830:GYG589869 HIC589830:HIC589869 HRY589830:HRY589869 IBU589830:IBU589869 ILQ589830:ILQ589869 IVM589830:IVM589869 JFI589830:JFI589869 JPE589830:JPE589869 JZA589830:JZA589869 KIW589830:KIW589869 KSS589830:KSS589869 LCO589830:LCO589869 LMK589830:LMK589869 LWG589830:LWG589869 MGC589830:MGC589869 MPY589830:MPY589869 MZU589830:MZU589869 NJQ589830:NJQ589869 NTM589830:NTM589869 ODI589830:ODI589869 ONE589830:ONE589869 OXA589830:OXA589869 PGW589830:PGW589869 PQS589830:PQS589869 QAO589830:QAO589869 QKK589830:QKK589869 QUG589830:QUG589869 REC589830:REC589869 RNY589830:RNY589869 RXU589830:RXU589869 SHQ589830:SHQ589869 SRM589830:SRM589869 TBI589830:TBI589869 TLE589830:TLE589869 TVA589830:TVA589869 UEW589830:UEW589869 UOS589830:UOS589869 UYO589830:UYO589869 VIK589830:VIK589869 VSG589830:VSG589869 WCC589830:WCC589869 WLY589830:WLY589869 WVU589830:WVU589869 JI655366:JI655405 TE655366:TE655405 ADA655366:ADA655405 AMW655366:AMW655405 AWS655366:AWS655405 BGO655366:BGO655405 BQK655366:BQK655405 CAG655366:CAG655405 CKC655366:CKC655405 CTY655366:CTY655405 DDU655366:DDU655405 DNQ655366:DNQ655405 DXM655366:DXM655405 EHI655366:EHI655405 ERE655366:ERE655405 FBA655366:FBA655405 FKW655366:FKW655405 FUS655366:FUS655405 GEO655366:GEO655405 GOK655366:GOK655405 GYG655366:GYG655405 HIC655366:HIC655405 HRY655366:HRY655405 IBU655366:IBU655405 ILQ655366:ILQ655405 IVM655366:IVM655405 JFI655366:JFI655405 JPE655366:JPE655405 JZA655366:JZA655405 KIW655366:KIW655405 KSS655366:KSS655405 LCO655366:LCO655405 LMK655366:LMK655405 LWG655366:LWG655405 MGC655366:MGC655405 MPY655366:MPY655405 MZU655366:MZU655405 NJQ655366:NJQ655405 NTM655366:NTM655405 ODI655366:ODI655405 ONE655366:ONE655405 OXA655366:OXA655405 PGW655366:PGW655405 PQS655366:PQS655405 QAO655366:QAO655405 QKK655366:QKK655405 QUG655366:QUG655405 REC655366:REC655405 RNY655366:RNY655405 RXU655366:RXU655405 SHQ655366:SHQ655405 SRM655366:SRM655405 TBI655366:TBI655405 TLE655366:TLE655405 TVA655366:TVA655405 UEW655366:UEW655405 UOS655366:UOS655405 UYO655366:UYO655405 VIK655366:VIK655405 VSG655366:VSG655405 WCC655366:WCC655405 WLY655366:WLY655405 WVU655366:WVU655405 JI720902:JI720941 TE720902:TE720941 ADA720902:ADA720941 AMW720902:AMW720941 AWS720902:AWS720941 BGO720902:BGO720941 BQK720902:BQK720941 CAG720902:CAG720941 CKC720902:CKC720941 CTY720902:CTY720941 DDU720902:DDU720941 DNQ720902:DNQ720941 DXM720902:DXM720941 EHI720902:EHI720941 ERE720902:ERE720941 FBA720902:FBA720941 FKW720902:FKW720941 FUS720902:FUS720941 GEO720902:GEO720941 GOK720902:GOK720941 GYG720902:GYG720941 HIC720902:HIC720941 HRY720902:HRY720941 IBU720902:IBU720941 ILQ720902:ILQ720941 IVM720902:IVM720941 JFI720902:JFI720941 JPE720902:JPE720941 JZA720902:JZA720941 KIW720902:KIW720941 KSS720902:KSS720941 LCO720902:LCO720941 LMK720902:LMK720941 LWG720902:LWG720941 MGC720902:MGC720941 MPY720902:MPY720941 MZU720902:MZU720941 NJQ720902:NJQ720941 NTM720902:NTM720941 ODI720902:ODI720941 ONE720902:ONE720941 OXA720902:OXA720941 PGW720902:PGW720941 PQS720902:PQS720941 QAO720902:QAO720941 QKK720902:QKK720941 QUG720902:QUG720941 REC720902:REC720941 RNY720902:RNY720941 RXU720902:RXU720941 SHQ720902:SHQ720941 SRM720902:SRM720941 TBI720902:TBI720941 TLE720902:TLE720941 TVA720902:TVA720941 UEW720902:UEW720941 UOS720902:UOS720941 UYO720902:UYO720941 VIK720902:VIK720941 VSG720902:VSG720941 WCC720902:WCC720941 WLY720902:WLY720941 WVU720902:WVU720941 JI786438:JI786477 TE786438:TE786477 ADA786438:ADA786477 AMW786438:AMW786477 AWS786438:AWS786477 BGO786438:BGO786477 BQK786438:BQK786477 CAG786438:CAG786477 CKC786438:CKC786477 CTY786438:CTY786477 DDU786438:DDU786477 DNQ786438:DNQ786477 DXM786438:DXM786477 EHI786438:EHI786477 ERE786438:ERE786477 FBA786438:FBA786477 FKW786438:FKW786477 FUS786438:FUS786477 GEO786438:GEO786477 GOK786438:GOK786477 GYG786438:GYG786477 HIC786438:HIC786477 HRY786438:HRY786477 IBU786438:IBU786477 ILQ786438:ILQ786477 IVM786438:IVM786477 JFI786438:JFI786477 JPE786438:JPE786477 JZA786438:JZA786477 KIW786438:KIW786477 KSS786438:KSS786477 LCO786438:LCO786477 LMK786438:LMK786477 LWG786438:LWG786477 MGC786438:MGC786477 MPY786438:MPY786477 MZU786438:MZU786477 NJQ786438:NJQ786477 NTM786438:NTM786477 ODI786438:ODI786477 ONE786438:ONE786477 OXA786438:OXA786477 PGW786438:PGW786477 PQS786438:PQS786477 QAO786438:QAO786477 QKK786438:QKK786477 QUG786438:QUG786477 REC786438:REC786477 RNY786438:RNY786477 RXU786438:RXU786477 SHQ786438:SHQ786477 SRM786438:SRM786477 TBI786438:TBI786477 TLE786438:TLE786477 TVA786438:TVA786477 UEW786438:UEW786477 UOS786438:UOS786477 UYO786438:UYO786477 VIK786438:VIK786477 VSG786438:VSG786477 WCC786438:WCC786477 WLY786438:WLY786477 WVU786438:WVU786477 JI851974:JI852013 TE851974:TE852013 ADA851974:ADA852013 AMW851974:AMW852013 AWS851974:AWS852013 BGO851974:BGO852013 BQK851974:BQK852013 CAG851974:CAG852013 CKC851974:CKC852013 CTY851974:CTY852013 DDU851974:DDU852013 DNQ851974:DNQ852013 DXM851974:DXM852013 EHI851974:EHI852013 ERE851974:ERE852013 FBA851974:FBA852013 FKW851974:FKW852013 FUS851974:FUS852013 GEO851974:GEO852013 GOK851974:GOK852013 GYG851974:GYG852013 HIC851974:HIC852013 HRY851974:HRY852013 IBU851974:IBU852013 ILQ851974:ILQ852013 IVM851974:IVM852013 JFI851974:JFI852013 JPE851974:JPE852013 JZA851974:JZA852013 KIW851974:KIW852013 KSS851974:KSS852013 LCO851974:LCO852013 LMK851974:LMK852013 LWG851974:LWG852013 MGC851974:MGC852013 MPY851974:MPY852013 MZU851974:MZU852013 NJQ851974:NJQ852013 NTM851974:NTM852013 ODI851974:ODI852013 ONE851974:ONE852013 OXA851974:OXA852013 PGW851974:PGW852013 PQS851974:PQS852013 QAO851974:QAO852013 QKK851974:QKK852013 QUG851974:QUG852013 REC851974:REC852013 RNY851974:RNY852013 RXU851974:RXU852013 SHQ851974:SHQ852013 SRM851974:SRM852013 TBI851974:TBI852013 TLE851974:TLE852013 TVA851974:TVA852013 UEW851974:UEW852013 UOS851974:UOS852013 UYO851974:UYO852013 VIK851974:VIK852013 VSG851974:VSG852013 WCC851974:WCC852013 WLY851974:WLY852013 WVU851974:WVU852013 JI917510:JI917549 TE917510:TE917549 ADA917510:ADA917549 AMW917510:AMW917549 AWS917510:AWS917549 BGO917510:BGO917549 BQK917510:BQK917549 CAG917510:CAG917549 CKC917510:CKC917549 CTY917510:CTY917549 DDU917510:DDU917549 DNQ917510:DNQ917549 DXM917510:DXM917549 EHI917510:EHI917549 ERE917510:ERE917549 FBA917510:FBA917549 FKW917510:FKW917549 FUS917510:FUS917549 GEO917510:GEO917549 GOK917510:GOK917549 GYG917510:GYG917549 HIC917510:HIC917549 HRY917510:HRY917549 IBU917510:IBU917549 ILQ917510:ILQ917549 IVM917510:IVM917549 JFI917510:JFI917549 JPE917510:JPE917549 JZA917510:JZA917549 KIW917510:KIW917549 KSS917510:KSS917549 LCO917510:LCO917549 LMK917510:LMK917549 LWG917510:LWG917549 MGC917510:MGC917549 MPY917510:MPY917549 MZU917510:MZU917549 NJQ917510:NJQ917549 NTM917510:NTM917549 ODI917510:ODI917549 ONE917510:ONE917549 OXA917510:OXA917549 PGW917510:PGW917549 PQS917510:PQS917549 QAO917510:QAO917549 QKK917510:QKK917549 QUG917510:QUG917549 REC917510:REC917549 RNY917510:RNY917549 RXU917510:RXU917549 SHQ917510:SHQ917549 SRM917510:SRM917549 TBI917510:TBI917549 TLE917510:TLE917549 TVA917510:TVA917549 UEW917510:UEW917549 UOS917510:UOS917549 UYO917510:UYO917549 VIK917510:VIK917549 VSG917510:VSG917549 WCC917510:WCC917549 WLY917510:WLY917549 WVU917510:WVU917549 JI983046:JI983085 TE983046:TE983085 ADA983046:ADA983085 AMW983046:AMW983085 AWS983046:AWS983085 BGO983046:BGO983085 BQK983046:BQK983085 CAG983046:CAG983085 CKC983046:CKC983085 CTY983046:CTY983085 DDU983046:DDU983085 DNQ983046:DNQ983085 DXM983046:DXM983085 EHI983046:EHI983085 ERE983046:ERE983085 FBA983046:FBA983085 FKW983046:FKW983085 FUS983046:FUS983085 GEO983046:GEO983085 GOK983046:GOK983085 GYG983046:GYG983085 HIC983046:HIC983085 HRY983046:HRY983085 IBU983046:IBU983085 ILQ983046:ILQ983085 IVM983046:IVM983085 JFI983046:JFI983085 JPE983046:JPE983085 JZA983046:JZA983085 KIW983046:KIW983085 KSS983046:KSS983085 LCO983046:LCO983085 LMK983046:LMK983085 LWG983046:LWG983085 MGC983046:MGC983085 MPY983046:MPY983085 MZU983046:MZU983085 NJQ983046:NJQ983085 NTM983046:NTM983085 ODI983046:ODI983085 ONE983046:ONE983085 OXA983046:OXA983085 PGW983046:PGW983085 PQS983046:PQS983085 QAO983046:QAO983085 QKK983046:QKK983085 QUG983046:QUG983085 REC983046:REC983085 RNY983046:RNY983085 RXU983046:RXU983085 SHQ983046:SHQ983085 SRM983046:SRM983085 TBI983046:TBI983085 TLE983046:TLE983085 TVA983046:TVA983085 UEW983046:UEW983085 UOS983046:UOS983085 UYO983046:UYO983085 VIK983046:VIK983085 VSG983046:VSG983085 WCC983046:WCC983085 WLY983046:WLY983085 WVU983046:WVU983085 WVU5:WVU43 WLY5:WLY43 WCC5:WCC43 VSG5:VSG43 VIK5:VIK43 UYO5:UYO43 UOS5:UOS43 UEW5:UEW43 TVA5:TVA43 TLE5:TLE43 TBI5:TBI43 SRM5:SRM43 SHQ5:SHQ43 RXU5:RXU43 RNY5:RNY43 REC5:REC43 QUG5:QUG43 QKK5:QKK43 QAO5:QAO43 PQS5:PQS43 PGW5:PGW43 OXA5:OXA43 ONE5:ONE43 ODI5:ODI43 NTM5:NTM43 NJQ5:NJQ43 MZU5:MZU43 MPY5:MPY43 MGC5:MGC43 LWG5:LWG43 LMK5:LMK43 LCO5:LCO43 KSS5:KSS43 KIW5:KIW43 JZA5:JZA43 JPE5:JPE43 JFI5:JFI43 IVM5:IVM43 ILQ5:ILQ43 IBU5:IBU43 HRY5:HRY43 HIC5:HIC43 GYG5:GYG43 GOK5:GOK43 GEO5:GEO43 FUS5:FUS43 FKW5:FKW43 FBA5:FBA43 ERE5:ERE43 EHI5:EHI43 DXM5:DXM43 DNQ5:DNQ43 DDU5:DDU43 CTY5:CTY43 CKC5:CKC43 CAG5:CAG43 BQK5:BQK43 BGO5:BGO43 AWS5:AWS43 AMW5:AMW43 ADA5:ADA43 TE5:TE43 JI5:JI43">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="يجب أن تكون القيمة بين 0 و 5" sqref="SU46:TF50 ACQ46:ADB50 AMM46:AMX50 AWI46:AWT50 BGE46:BGP50 BQA46:BQL50 BZW46:CAH50 CJS46:CKD50 CTO46:CTZ50 DDK46:DDV50 DNG46:DNR50 DXC46:DXN50 EGY46:EHJ50 EQU46:ERF50 FAQ46:FBB50 FKM46:FKX50 FUI46:FUT50 GEE46:GEP50 GOA46:GOL50 GXW46:GYH50 HHS46:HID50 HRO46:HRZ50 IBK46:IBV50 ILG46:ILR50 IVC46:IVN50 JEY46:JFJ50 JOU46:JPF50 JYQ46:JZB50 KIM46:KIX50 KSI46:KST50 LCE46:LCP50 LMA46:LML50 LVW46:LWH50 MFS46:MGD50 MPO46:MPZ50 MZK46:MZV50 NJG46:NJR50 NTC46:NTN50 OCY46:ODJ50 OMU46:ONF50 OWQ46:OXB50 PGM46:PGX50 PQI46:PQT50 QAE46:QAP50 QKA46:QKL50 QTW46:QUH50 RDS46:RED50 RNO46:RNZ50 RXK46:RXV50 SHG46:SHR50 SRC46:SRN50 TAY46:TBJ50 TKU46:TLF50 TUQ46:TVB50 UEM46:UEX50 UOI46:UOT50 UYE46:UYP50 VIA46:VIL50 VRW46:VSH50 WBS46:WCD50 WLO46:WLZ50 WVK46:WVV50 SU65584:TF65588 ACQ65584:ADB65588 AMM65584:AMX65588 AWI65584:AWT65588 BGE65584:BGP65588 BQA65584:BQL65588 BZW65584:CAH65588 CJS65584:CKD65588 CTO65584:CTZ65588 DDK65584:DDV65588 DNG65584:DNR65588 DXC65584:DXN65588 EGY65584:EHJ65588 EQU65584:ERF65588 FAQ65584:FBB65588 FKM65584:FKX65588 FUI65584:FUT65588 GEE65584:GEP65588 GOA65584:GOL65588 GXW65584:GYH65588 HHS65584:HID65588 HRO65584:HRZ65588 IBK65584:IBV65588 ILG65584:ILR65588 IVC65584:IVN65588 JEY65584:JFJ65588 JOU65584:JPF65588 JYQ65584:JZB65588 KIM65584:KIX65588 KSI65584:KST65588 LCE65584:LCP65588 LMA65584:LML65588 LVW65584:LWH65588 MFS65584:MGD65588 MPO65584:MPZ65588 MZK65584:MZV65588 NJG65584:NJR65588 NTC65584:NTN65588 OCY65584:ODJ65588 OMU65584:ONF65588 OWQ65584:OXB65588 PGM65584:PGX65588 PQI65584:PQT65588 QAE65584:QAP65588 QKA65584:QKL65588 QTW65584:QUH65588 RDS65584:RED65588 RNO65584:RNZ65588 RXK65584:RXV65588 SHG65584:SHR65588 SRC65584:SRN65588 TAY65584:TBJ65588 TKU65584:TLF65588 TUQ65584:TVB65588 UEM65584:UEX65588 UOI65584:UOT65588 UYE65584:UYP65588 VIA65584:VIL65588 VRW65584:VSH65588 WBS65584:WCD65588 WLO65584:WLZ65588 WVK65584:WVV65588 SU131120:TF131124 ACQ131120:ADB131124 AMM131120:AMX131124 AWI131120:AWT131124 BGE131120:BGP131124 BQA131120:BQL131124 BZW131120:CAH131124 CJS131120:CKD131124 CTO131120:CTZ131124 DDK131120:DDV131124 DNG131120:DNR131124 DXC131120:DXN131124 EGY131120:EHJ131124 EQU131120:ERF131124 FAQ131120:FBB131124 FKM131120:FKX131124 FUI131120:FUT131124 GEE131120:GEP131124 GOA131120:GOL131124 GXW131120:GYH131124 HHS131120:HID131124 HRO131120:HRZ131124 IBK131120:IBV131124 ILG131120:ILR131124 IVC131120:IVN131124 JEY131120:JFJ131124 JOU131120:JPF131124 JYQ131120:JZB131124 KIM131120:KIX131124 KSI131120:KST131124 LCE131120:LCP131124 LMA131120:LML131124 LVW131120:LWH131124 MFS131120:MGD131124 MPO131120:MPZ131124 MZK131120:MZV131124 NJG131120:NJR131124 NTC131120:NTN131124 OCY131120:ODJ131124 OMU131120:ONF131124 OWQ131120:OXB131124 PGM131120:PGX131124 PQI131120:PQT131124 QAE131120:QAP131124 QKA131120:QKL131124 QTW131120:QUH131124 RDS131120:RED131124 RNO131120:RNZ131124 RXK131120:RXV131124 SHG131120:SHR131124 SRC131120:SRN131124 TAY131120:TBJ131124 TKU131120:TLF131124 TUQ131120:TVB131124 UEM131120:UEX131124 UOI131120:UOT131124 UYE131120:UYP131124 VIA131120:VIL131124 VRW131120:VSH131124 WBS131120:WCD131124 WLO131120:WLZ131124 WVK131120:WVV131124 SU196656:TF196660 ACQ196656:ADB196660 AMM196656:AMX196660 AWI196656:AWT196660 BGE196656:BGP196660 BQA196656:BQL196660 BZW196656:CAH196660 CJS196656:CKD196660 CTO196656:CTZ196660 DDK196656:DDV196660 DNG196656:DNR196660 DXC196656:DXN196660 EGY196656:EHJ196660 EQU196656:ERF196660 FAQ196656:FBB196660 FKM196656:FKX196660 FUI196656:FUT196660 GEE196656:GEP196660 GOA196656:GOL196660 GXW196656:GYH196660 HHS196656:HID196660 HRO196656:HRZ196660 IBK196656:IBV196660 ILG196656:ILR196660 IVC196656:IVN196660 JEY196656:JFJ196660 JOU196656:JPF196660 JYQ196656:JZB196660 KIM196656:KIX196660 KSI196656:KST196660 LCE196656:LCP196660 LMA196656:LML196660 LVW196656:LWH196660 MFS196656:MGD196660 MPO196656:MPZ196660 MZK196656:MZV196660 NJG196656:NJR196660 NTC196656:NTN196660 OCY196656:ODJ196660 OMU196656:ONF196660 OWQ196656:OXB196660 PGM196656:PGX196660 PQI196656:PQT196660 QAE196656:QAP196660 QKA196656:QKL196660 QTW196656:QUH196660 RDS196656:RED196660 RNO196656:RNZ196660 RXK196656:RXV196660 SHG196656:SHR196660 SRC196656:SRN196660 TAY196656:TBJ196660 TKU196656:TLF196660 TUQ196656:TVB196660 UEM196656:UEX196660 UOI196656:UOT196660 UYE196656:UYP196660 VIA196656:VIL196660 VRW196656:VSH196660 WBS196656:WCD196660 WLO196656:WLZ196660 WVK196656:WVV196660 SU262192:TF262196 ACQ262192:ADB262196 AMM262192:AMX262196 AWI262192:AWT262196 BGE262192:BGP262196 BQA262192:BQL262196 BZW262192:CAH262196 CJS262192:CKD262196 CTO262192:CTZ262196 DDK262192:DDV262196 DNG262192:DNR262196 DXC262192:DXN262196 EGY262192:EHJ262196 EQU262192:ERF262196 FAQ262192:FBB262196 FKM262192:FKX262196 FUI262192:FUT262196 GEE262192:GEP262196 GOA262192:GOL262196 GXW262192:GYH262196 HHS262192:HID262196 HRO262192:HRZ262196 IBK262192:IBV262196 ILG262192:ILR262196 IVC262192:IVN262196 JEY262192:JFJ262196 JOU262192:JPF262196 JYQ262192:JZB262196 KIM262192:KIX262196 KSI262192:KST262196 LCE262192:LCP262196 LMA262192:LML262196 LVW262192:LWH262196 MFS262192:MGD262196 MPO262192:MPZ262196 MZK262192:MZV262196 NJG262192:NJR262196 NTC262192:NTN262196 OCY262192:ODJ262196 OMU262192:ONF262196 OWQ262192:OXB262196 PGM262192:PGX262196 PQI262192:PQT262196 QAE262192:QAP262196 QKA262192:QKL262196 QTW262192:QUH262196 RDS262192:RED262196 RNO262192:RNZ262196 RXK262192:RXV262196 SHG262192:SHR262196 SRC262192:SRN262196 TAY262192:TBJ262196 TKU262192:TLF262196 TUQ262192:TVB262196 UEM262192:UEX262196 UOI262192:UOT262196 UYE262192:UYP262196 VIA262192:VIL262196 VRW262192:VSH262196 WBS262192:WCD262196 WLO262192:WLZ262196 WVK262192:WVV262196 SU327728:TF327732 ACQ327728:ADB327732 AMM327728:AMX327732 AWI327728:AWT327732 BGE327728:BGP327732 BQA327728:BQL327732 BZW327728:CAH327732 CJS327728:CKD327732 CTO327728:CTZ327732 DDK327728:DDV327732 DNG327728:DNR327732 DXC327728:DXN327732 EGY327728:EHJ327732 EQU327728:ERF327732 FAQ327728:FBB327732 FKM327728:FKX327732 FUI327728:FUT327732 GEE327728:GEP327732 GOA327728:GOL327732 GXW327728:GYH327732 HHS327728:HID327732 HRO327728:HRZ327732 IBK327728:IBV327732 ILG327728:ILR327732 IVC327728:IVN327732 JEY327728:JFJ327732 JOU327728:JPF327732 JYQ327728:JZB327732 KIM327728:KIX327732 KSI327728:KST327732 LCE327728:LCP327732 LMA327728:LML327732 LVW327728:LWH327732 MFS327728:MGD327732 MPO327728:MPZ327732 MZK327728:MZV327732 NJG327728:NJR327732 NTC327728:NTN327732 OCY327728:ODJ327732 OMU327728:ONF327732 OWQ327728:OXB327732 PGM327728:PGX327732 PQI327728:PQT327732 QAE327728:QAP327732 QKA327728:QKL327732 QTW327728:QUH327732 RDS327728:RED327732 RNO327728:RNZ327732 RXK327728:RXV327732 SHG327728:SHR327732 SRC327728:SRN327732 TAY327728:TBJ327732 TKU327728:TLF327732 TUQ327728:TVB327732 UEM327728:UEX327732 UOI327728:UOT327732 UYE327728:UYP327732 VIA327728:VIL327732 VRW327728:VSH327732 WBS327728:WCD327732 WLO327728:WLZ327732 WVK327728:WVV327732 SU393264:TF393268 ACQ393264:ADB393268 AMM393264:AMX393268 AWI393264:AWT393268 BGE393264:BGP393268 BQA393264:BQL393268 BZW393264:CAH393268 CJS393264:CKD393268 CTO393264:CTZ393268 DDK393264:DDV393268 DNG393264:DNR393268 DXC393264:DXN393268 EGY393264:EHJ393268 EQU393264:ERF393268 FAQ393264:FBB393268 FKM393264:FKX393268 FUI393264:FUT393268 GEE393264:GEP393268 GOA393264:GOL393268 GXW393264:GYH393268 HHS393264:HID393268 HRO393264:HRZ393268 IBK393264:IBV393268 ILG393264:ILR393268 IVC393264:IVN393268 JEY393264:JFJ393268 JOU393264:JPF393268 JYQ393264:JZB393268 KIM393264:KIX393268 KSI393264:KST393268 LCE393264:LCP393268 LMA393264:LML393268 LVW393264:LWH393268 MFS393264:MGD393268 MPO393264:MPZ393268 MZK393264:MZV393268 NJG393264:NJR393268 NTC393264:NTN393268 OCY393264:ODJ393268 OMU393264:ONF393268 OWQ393264:OXB393268 PGM393264:PGX393268 PQI393264:PQT393268 QAE393264:QAP393268 QKA393264:QKL393268 QTW393264:QUH393268 RDS393264:RED393268 RNO393264:RNZ393268 RXK393264:RXV393268 SHG393264:SHR393268 SRC393264:SRN393268 TAY393264:TBJ393268 TKU393264:TLF393268 TUQ393264:TVB393268 UEM393264:UEX393268 UOI393264:UOT393268 UYE393264:UYP393268 VIA393264:VIL393268 VRW393264:VSH393268 WBS393264:WCD393268 WLO393264:WLZ393268 WVK393264:WVV393268 SU458800:TF458804 ACQ458800:ADB458804 AMM458800:AMX458804 AWI458800:AWT458804 BGE458800:BGP458804 BQA458800:BQL458804 BZW458800:CAH458804 CJS458800:CKD458804 CTO458800:CTZ458804 DDK458800:DDV458804 DNG458800:DNR458804 DXC458800:DXN458804 EGY458800:EHJ458804 EQU458800:ERF458804 FAQ458800:FBB458804 FKM458800:FKX458804 FUI458800:FUT458804 GEE458800:GEP458804 GOA458800:GOL458804 GXW458800:GYH458804 HHS458800:HID458804 HRO458800:HRZ458804 IBK458800:IBV458804 ILG458800:ILR458804 IVC458800:IVN458804 JEY458800:JFJ458804 JOU458800:JPF458804 JYQ458800:JZB458804 KIM458800:KIX458804 KSI458800:KST458804 LCE458800:LCP458804 LMA458800:LML458804 LVW458800:LWH458804 MFS458800:MGD458804 MPO458800:MPZ458804 MZK458800:MZV458804 NJG458800:NJR458804 NTC458800:NTN458804 OCY458800:ODJ458804 OMU458800:ONF458804 OWQ458800:OXB458804 PGM458800:PGX458804 PQI458800:PQT458804 QAE458800:QAP458804 QKA458800:QKL458804 QTW458800:QUH458804 RDS458800:RED458804 RNO458800:RNZ458804 RXK458800:RXV458804 SHG458800:SHR458804 SRC458800:SRN458804 TAY458800:TBJ458804 TKU458800:TLF458804 TUQ458800:TVB458804 UEM458800:UEX458804 UOI458800:UOT458804 UYE458800:UYP458804 VIA458800:VIL458804 VRW458800:VSH458804 WBS458800:WCD458804 WLO458800:WLZ458804 WVK458800:WVV458804 SU524336:TF524340 ACQ524336:ADB524340 AMM524336:AMX524340 AWI524336:AWT524340 BGE524336:BGP524340 BQA524336:BQL524340 BZW524336:CAH524340 CJS524336:CKD524340 CTO524336:CTZ524340 DDK524336:DDV524340 DNG524336:DNR524340 DXC524336:DXN524340 EGY524336:EHJ524340 EQU524336:ERF524340 FAQ524336:FBB524340 FKM524336:FKX524340 FUI524336:FUT524340 GEE524336:GEP524340 GOA524336:GOL524340 GXW524336:GYH524340 HHS524336:HID524340 HRO524336:HRZ524340 IBK524336:IBV524340 ILG524336:ILR524340 IVC524336:IVN524340 JEY524336:JFJ524340 JOU524336:JPF524340 JYQ524336:JZB524340 KIM524336:KIX524340 KSI524336:KST524340 LCE524336:LCP524340 LMA524336:LML524340 LVW524336:LWH524340 MFS524336:MGD524340 MPO524336:MPZ524340 MZK524336:MZV524340 NJG524336:NJR524340 NTC524336:NTN524340 OCY524336:ODJ524340 OMU524336:ONF524340 OWQ524336:OXB524340 PGM524336:PGX524340 PQI524336:PQT524340 QAE524336:QAP524340 QKA524336:QKL524340 QTW524336:QUH524340 RDS524336:RED524340 RNO524336:RNZ524340 RXK524336:RXV524340 SHG524336:SHR524340 SRC524336:SRN524340 TAY524336:TBJ524340 TKU524336:TLF524340 TUQ524336:TVB524340 UEM524336:UEX524340 UOI524336:UOT524340 UYE524336:UYP524340 VIA524336:VIL524340 VRW524336:VSH524340 WBS524336:WCD524340 WLO524336:WLZ524340 WVK524336:WVV524340 SU589872:TF589876 ACQ589872:ADB589876 AMM589872:AMX589876 AWI589872:AWT589876 BGE589872:BGP589876 BQA589872:BQL589876 BZW589872:CAH589876 CJS589872:CKD589876 CTO589872:CTZ589876 DDK589872:DDV589876 DNG589872:DNR589876 DXC589872:DXN589876 EGY589872:EHJ589876 EQU589872:ERF589876 FAQ589872:FBB589876 FKM589872:FKX589876 FUI589872:FUT589876 GEE589872:GEP589876 GOA589872:GOL589876 GXW589872:GYH589876 HHS589872:HID589876 HRO589872:HRZ589876 IBK589872:IBV589876 ILG589872:ILR589876 IVC589872:IVN589876 JEY589872:JFJ589876 JOU589872:JPF589876 JYQ589872:JZB589876 KIM589872:KIX589876 KSI589872:KST589876 LCE589872:LCP589876 LMA589872:LML589876 LVW589872:LWH589876 MFS589872:MGD589876 MPO589872:MPZ589876 MZK589872:MZV589876 NJG589872:NJR589876 NTC589872:NTN589876 OCY589872:ODJ589876 OMU589872:ONF589876 OWQ589872:OXB589876 PGM589872:PGX589876 PQI589872:PQT589876 QAE589872:QAP589876 QKA589872:QKL589876 QTW589872:QUH589876 RDS589872:RED589876 RNO589872:RNZ589876 RXK589872:RXV589876 SHG589872:SHR589876 SRC589872:SRN589876 TAY589872:TBJ589876 TKU589872:TLF589876 TUQ589872:TVB589876 UEM589872:UEX589876 UOI589872:UOT589876 UYE589872:UYP589876 VIA589872:VIL589876 VRW589872:VSH589876 WBS589872:WCD589876 WLO589872:WLZ589876 WVK589872:WVV589876 SU655408:TF655412 ACQ655408:ADB655412 AMM655408:AMX655412 AWI655408:AWT655412 BGE655408:BGP655412 BQA655408:BQL655412 BZW655408:CAH655412 CJS655408:CKD655412 CTO655408:CTZ655412 DDK655408:DDV655412 DNG655408:DNR655412 DXC655408:DXN655412 EGY655408:EHJ655412 EQU655408:ERF655412 FAQ655408:FBB655412 FKM655408:FKX655412 FUI655408:FUT655412 GEE655408:GEP655412 GOA655408:GOL655412 GXW655408:GYH655412 HHS655408:HID655412 HRO655408:HRZ655412 IBK655408:IBV655412 ILG655408:ILR655412 IVC655408:IVN655412 JEY655408:JFJ655412 JOU655408:JPF655412 JYQ655408:JZB655412 KIM655408:KIX655412 KSI655408:KST655412 LCE655408:LCP655412 LMA655408:LML655412 LVW655408:LWH655412 MFS655408:MGD655412 MPO655408:MPZ655412 MZK655408:MZV655412 NJG655408:NJR655412 NTC655408:NTN655412 OCY655408:ODJ655412 OMU655408:ONF655412 OWQ655408:OXB655412 PGM655408:PGX655412 PQI655408:PQT655412 QAE655408:QAP655412 QKA655408:QKL655412 QTW655408:QUH655412 RDS655408:RED655412 RNO655408:RNZ655412 RXK655408:RXV655412 SHG655408:SHR655412 SRC655408:SRN655412 TAY655408:TBJ655412 TKU655408:TLF655412 TUQ655408:TVB655412 UEM655408:UEX655412 UOI655408:UOT655412 UYE655408:UYP655412 VIA655408:VIL655412 VRW655408:VSH655412 WBS655408:WCD655412 WLO655408:WLZ655412 WVK655408:WVV655412 SU720944:TF720948 ACQ720944:ADB720948 AMM720944:AMX720948 AWI720944:AWT720948 BGE720944:BGP720948 BQA720944:BQL720948 BZW720944:CAH720948 CJS720944:CKD720948 CTO720944:CTZ720948 DDK720944:DDV720948 DNG720944:DNR720948 DXC720944:DXN720948 EGY720944:EHJ720948 EQU720944:ERF720948 FAQ720944:FBB720948 FKM720944:FKX720948 FUI720944:FUT720948 GEE720944:GEP720948 GOA720944:GOL720948 GXW720944:GYH720948 HHS720944:HID720948 HRO720944:HRZ720948 IBK720944:IBV720948 ILG720944:ILR720948 IVC720944:IVN720948 JEY720944:JFJ720948 JOU720944:JPF720948 JYQ720944:JZB720948 KIM720944:KIX720948 KSI720944:KST720948 LCE720944:LCP720948 LMA720944:LML720948 LVW720944:LWH720948 MFS720944:MGD720948 MPO720944:MPZ720948 MZK720944:MZV720948 NJG720944:NJR720948 NTC720944:NTN720948 OCY720944:ODJ720948 OMU720944:ONF720948 OWQ720944:OXB720948 PGM720944:PGX720948 PQI720944:PQT720948 QAE720944:QAP720948 QKA720944:QKL720948 QTW720944:QUH720948 RDS720944:RED720948 RNO720944:RNZ720948 RXK720944:RXV720948 SHG720944:SHR720948 SRC720944:SRN720948 TAY720944:TBJ720948 TKU720944:TLF720948 TUQ720944:TVB720948 UEM720944:UEX720948 UOI720944:UOT720948 UYE720944:UYP720948 VIA720944:VIL720948 VRW720944:VSH720948 WBS720944:WCD720948 WLO720944:WLZ720948 WVK720944:WVV720948 SU786480:TF786484 ACQ786480:ADB786484 AMM786480:AMX786484 AWI786480:AWT786484 BGE786480:BGP786484 BQA786480:BQL786484 BZW786480:CAH786484 CJS786480:CKD786484 CTO786480:CTZ786484 DDK786480:DDV786484 DNG786480:DNR786484 DXC786480:DXN786484 EGY786480:EHJ786484 EQU786480:ERF786484 FAQ786480:FBB786484 FKM786480:FKX786484 FUI786480:FUT786484 GEE786480:GEP786484 GOA786480:GOL786484 GXW786480:GYH786484 HHS786480:HID786484 HRO786480:HRZ786484 IBK786480:IBV786484 ILG786480:ILR786484 IVC786480:IVN786484 JEY786480:JFJ786484 JOU786480:JPF786484 JYQ786480:JZB786484 KIM786480:KIX786484 KSI786480:KST786484 LCE786480:LCP786484 LMA786480:LML786484 LVW786480:LWH786484 MFS786480:MGD786484 MPO786480:MPZ786484 MZK786480:MZV786484 NJG786480:NJR786484 NTC786480:NTN786484 OCY786480:ODJ786484 OMU786480:ONF786484 OWQ786480:OXB786484 PGM786480:PGX786484 PQI786480:PQT786484 QAE786480:QAP786484 QKA786480:QKL786484 QTW786480:QUH786484 RDS786480:RED786484 RNO786480:RNZ786484 RXK786480:RXV786484 SHG786480:SHR786484 SRC786480:SRN786484 TAY786480:TBJ786484 TKU786480:TLF786484 TUQ786480:TVB786484 UEM786480:UEX786484 UOI786480:UOT786484 UYE786480:UYP786484 VIA786480:VIL786484 VRW786480:VSH786484 WBS786480:WCD786484 WLO786480:WLZ786484 WVK786480:WVV786484 SU852016:TF852020 ACQ852016:ADB852020 AMM852016:AMX852020 AWI852016:AWT852020 BGE852016:BGP852020 BQA852016:BQL852020 BZW852016:CAH852020 CJS852016:CKD852020 CTO852016:CTZ852020 DDK852016:DDV852020 DNG852016:DNR852020 DXC852016:DXN852020 EGY852016:EHJ852020 EQU852016:ERF852020 FAQ852016:FBB852020 FKM852016:FKX852020 FUI852016:FUT852020 GEE852016:GEP852020 GOA852016:GOL852020 GXW852016:GYH852020 HHS852016:HID852020 HRO852016:HRZ852020 IBK852016:IBV852020 ILG852016:ILR852020 IVC852016:IVN852020 JEY852016:JFJ852020 JOU852016:JPF852020 JYQ852016:JZB852020 KIM852016:KIX852020 KSI852016:KST852020 LCE852016:LCP852020 LMA852016:LML852020 LVW852016:LWH852020 MFS852016:MGD852020 MPO852016:MPZ852020 MZK852016:MZV852020 NJG852016:NJR852020 NTC852016:NTN852020 OCY852016:ODJ852020 OMU852016:ONF852020 OWQ852016:OXB852020 PGM852016:PGX852020 PQI852016:PQT852020 QAE852016:QAP852020 QKA852016:QKL852020 QTW852016:QUH852020 RDS852016:RED852020 RNO852016:RNZ852020 RXK852016:RXV852020 SHG852016:SHR852020 SRC852016:SRN852020 TAY852016:TBJ852020 TKU852016:TLF852020 TUQ852016:TVB852020 UEM852016:UEX852020 UOI852016:UOT852020 UYE852016:UYP852020 VIA852016:VIL852020 VRW852016:VSH852020 WBS852016:WCD852020 WLO852016:WLZ852020 WVK852016:WVV852020 SU917552:TF917556 ACQ917552:ADB917556 AMM917552:AMX917556 AWI917552:AWT917556 BGE917552:BGP917556 BQA917552:BQL917556 BZW917552:CAH917556 CJS917552:CKD917556 CTO917552:CTZ917556 DDK917552:DDV917556 DNG917552:DNR917556 DXC917552:DXN917556 EGY917552:EHJ917556 EQU917552:ERF917556 FAQ917552:FBB917556 FKM917552:FKX917556 FUI917552:FUT917556 GEE917552:GEP917556 GOA917552:GOL917556 GXW917552:GYH917556 HHS917552:HID917556 HRO917552:HRZ917556 IBK917552:IBV917556 ILG917552:ILR917556 IVC917552:IVN917556 JEY917552:JFJ917556 JOU917552:JPF917556 JYQ917552:JZB917556 KIM917552:KIX917556 KSI917552:KST917556 LCE917552:LCP917556 LMA917552:LML917556 LVW917552:LWH917556 MFS917552:MGD917556 MPO917552:MPZ917556 MZK917552:MZV917556 NJG917552:NJR917556 NTC917552:NTN917556 OCY917552:ODJ917556 OMU917552:ONF917556 OWQ917552:OXB917556 PGM917552:PGX917556 PQI917552:PQT917556 QAE917552:QAP917556 QKA917552:QKL917556 QTW917552:QUH917556 RDS917552:RED917556 RNO917552:RNZ917556 RXK917552:RXV917556 SHG917552:SHR917556 SRC917552:SRN917556 TAY917552:TBJ917556 TKU917552:TLF917556 TUQ917552:TVB917556 UEM917552:UEX917556 UOI917552:UOT917556 UYE917552:UYP917556 VIA917552:VIL917556 VRW917552:VSH917556 WBS917552:WCD917556 WLO917552:WLZ917556 WVK917552:WVV917556 WVK983088:WVV983092 SU983088:TF983092 ACQ983088:ADB983092 AMM983088:AMX983092 AWI983088:AWT983092 BGE983088:BGP983092 BQA983088:BQL983092 BZW983088:CAH983092 CJS983088:CKD983092 CTO983088:CTZ983092 DDK983088:DDV983092 DNG983088:DNR983092 DXC983088:DXN983092 EGY983088:EHJ983092 EQU983088:ERF983092 FAQ983088:FBB983092 FKM983088:FKX983092 FUI983088:FUT983092 GEE983088:GEP983092 GOA983088:GOL983092 GXW983088:GYH983092 HHS983088:HID983092 HRO983088:HRZ983092 IBK983088:IBV983092 ILG983088:ILR983092 IVC983088:IVN983092 JEY983088:JFJ983092 JOU983088:JPF983092 JYQ983088:JZB983092 KIM983088:KIX983092 KSI983088:KST983092 LCE983088:LCP983092 LMA983088:LML983092 LVW983088:LWH983092 MFS983088:MGD983092 MPO983088:MPZ983092 MZK983088:MZV983092 NJG983088:NJR983092 NTC983088:NTN983092 OCY983088:ODJ983092 OMU983088:ONF983092 OWQ983088:OXB983092 PGM983088:PGX983092 PQI983088:PQT983092 QAE983088:QAP983092 QKA983088:QKL983092 QTW983088:QUH983092 RDS983088:RED983092 RNO983088:RNZ983092 RXK983088:RXV983092 SHG983088:SHR983092 SRC983088:SRN983092 TAY983088:TBJ983092 TKU983088:TLF983092 TUQ983088:TVB983092 UEM983088:UEX983092 UOI983088:UOT983092 UYE983088:UYP983092 VIA983088:VIL983092 VRW983088:VSH983092 WBS983088:WCD983092 WLO983088:WLZ983092 IY50:IY54 C917556:M917560 C852020:M852024 C786484:M786488 C720948:M720952 C655412:M655416 C589876:M589880 C524340:M524344 C458804:M458808 C393268:M393272 C327732:M327736 C262196:M262200 C196660:M196664 C131124:M131128 C65588:M65592 C983092:M983096 IY983092:IY983096 IZ983088:JJ983092 IY917556:IY917560 IZ917552:JJ917556 IY852020:IY852024 IZ852016:JJ852020 IY786484:IY786488 IZ786480:JJ786484 IY720948:IY720952 IZ720944:JJ720948 IY655412:IY655416 IZ655408:JJ655412 IY589876:IY589880 IZ589872:JJ589876 IY524340:IY524344 IZ524336:JJ524340 IY458804:IY458808 IZ458800:JJ458804 IY393268:IY393272 IZ393264:JJ393268 IY327732:IY327736 IZ327728:JJ327732 IY262196:IY262200 IZ262192:JJ262196 IY196660:IY196664 IZ196656:JJ196660 IY131124:IY131128 IZ131120:JJ131124 IY65588:IY65592 IZ65584:JJ65588 IZ46:JJ50 C50:M54" xr:uid="{00000000-0002-0000-0A00-000003000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JI65542:JI65581 TE65542:TE65581 ADA65542:ADA65581 AMW65542:AMW65581 AWS65542:AWS65581 BGO65542:BGO65581 BQK65542:BQK65581 CAG65542:CAG65581 CKC65542:CKC65581 CTY65542:CTY65581 DDU65542:DDU65581 DNQ65542:DNQ65581 DXM65542:DXM65581 EHI65542:EHI65581 ERE65542:ERE65581 FBA65542:FBA65581 FKW65542:FKW65581 FUS65542:FUS65581 GEO65542:GEO65581 GOK65542:GOK65581 GYG65542:GYG65581 HIC65542:HIC65581 HRY65542:HRY65581 IBU65542:IBU65581 ILQ65542:ILQ65581 IVM65542:IVM65581 JFI65542:JFI65581 JPE65542:JPE65581 JZA65542:JZA65581 KIW65542:KIW65581 KSS65542:KSS65581 LCO65542:LCO65581 LMK65542:LMK65581 LWG65542:LWG65581 MGC65542:MGC65581 MPY65542:MPY65581 MZU65542:MZU65581 NJQ65542:NJQ65581 NTM65542:NTM65581 ODI65542:ODI65581 ONE65542:ONE65581 OXA65542:OXA65581 PGW65542:PGW65581 PQS65542:PQS65581 QAO65542:QAO65581 QKK65542:QKK65581 QUG65542:QUG65581 REC65542:REC65581 RNY65542:RNY65581 RXU65542:RXU65581 SHQ65542:SHQ65581 SRM65542:SRM65581 TBI65542:TBI65581 TLE65542:TLE65581 TVA65542:TVA65581 UEW65542:UEW65581 UOS65542:UOS65581 UYO65542:UYO65581 VIK65542:VIK65581 VSG65542:VSG65581 WCC65542:WCC65581 WLY65542:WLY65581 WVU65542:WVU65581 JI131078:JI131117 TE131078:TE131117 ADA131078:ADA131117 AMW131078:AMW131117 AWS131078:AWS131117 BGO131078:BGO131117 BQK131078:BQK131117 CAG131078:CAG131117 CKC131078:CKC131117 CTY131078:CTY131117 DDU131078:DDU131117 DNQ131078:DNQ131117 DXM131078:DXM131117 EHI131078:EHI131117 ERE131078:ERE131117 FBA131078:FBA131117 FKW131078:FKW131117 FUS131078:FUS131117 GEO131078:GEO131117 GOK131078:GOK131117 GYG131078:GYG131117 HIC131078:HIC131117 HRY131078:HRY131117 IBU131078:IBU131117 ILQ131078:ILQ131117 IVM131078:IVM131117 JFI131078:JFI131117 JPE131078:JPE131117 JZA131078:JZA131117 KIW131078:KIW131117 KSS131078:KSS131117 LCO131078:LCO131117 LMK131078:LMK131117 LWG131078:LWG131117 MGC131078:MGC131117 MPY131078:MPY131117 MZU131078:MZU131117 NJQ131078:NJQ131117 NTM131078:NTM131117 ODI131078:ODI131117 ONE131078:ONE131117 OXA131078:OXA131117 PGW131078:PGW131117 PQS131078:PQS131117 QAO131078:QAO131117 QKK131078:QKK131117 QUG131078:QUG131117 REC131078:REC131117 RNY131078:RNY131117 RXU131078:RXU131117 SHQ131078:SHQ131117 SRM131078:SRM131117 TBI131078:TBI131117 TLE131078:TLE131117 TVA131078:TVA131117 UEW131078:UEW131117 UOS131078:UOS131117 UYO131078:UYO131117 VIK131078:VIK131117 VSG131078:VSG131117 WCC131078:WCC131117 WLY131078:WLY131117 WVU131078:WVU131117 JI196614:JI196653 TE196614:TE196653 ADA196614:ADA196653 AMW196614:AMW196653 AWS196614:AWS196653 BGO196614:BGO196653 BQK196614:BQK196653 CAG196614:CAG196653 CKC196614:CKC196653 CTY196614:CTY196653 DDU196614:DDU196653 DNQ196614:DNQ196653 DXM196614:DXM196653 EHI196614:EHI196653 ERE196614:ERE196653 FBA196614:FBA196653 FKW196614:FKW196653 FUS196614:FUS196653 GEO196614:GEO196653 GOK196614:GOK196653 GYG196614:GYG196653 HIC196614:HIC196653 HRY196614:HRY196653 IBU196614:IBU196653 ILQ196614:ILQ196653 IVM196614:IVM196653 JFI196614:JFI196653 JPE196614:JPE196653 JZA196614:JZA196653 KIW196614:KIW196653 KSS196614:KSS196653 LCO196614:LCO196653 LMK196614:LMK196653 LWG196614:LWG196653 MGC196614:MGC196653 MPY196614:MPY196653 MZU196614:MZU196653 NJQ196614:NJQ196653 NTM196614:NTM196653 ODI196614:ODI196653 ONE196614:ONE196653 OXA196614:OXA196653 PGW196614:PGW196653 PQS196614:PQS196653 QAO196614:QAO196653 QKK196614:QKK196653 QUG196614:QUG196653 REC196614:REC196653 RNY196614:RNY196653 RXU196614:RXU196653 SHQ196614:SHQ196653 SRM196614:SRM196653 TBI196614:TBI196653 TLE196614:TLE196653 TVA196614:TVA196653 UEW196614:UEW196653 UOS196614:UOS196653 UYO196614:UYO196653 VIK196614:VIK196653 VSG196614:VSG196653 WCC196614:WCC196653 WLY196614:WLY196653 WVU196614:WVU196653 JI262150:JI262189 TE262150:TE262189 ADA262150:ADA262189 AMW262150:AMW262189 AWS262150:AWS262189 BGO262150:BGO262189 BQK262150:BQK262189 CAG262150:CAG262189 CKC262150:CKC262189 CTY262150:CTY262189 DDU262150:DDU262189 DNQ262150:DNQ262189 DXM262150:DXM262189 EHI262150:EHI262189 ERE262150:ERE262189 FBA262150:FBA262189 FKW262150:FKW262189 FUS262150:FUS262189 GEO262150:GEO262189 GOK262150:GOK262189 GYG262150:GYG262189 HIC262150:HIC262189 HRY262150:HRY262189 IBU262150:IBU262189 ILQ262150:ILQ262189 IVM262150:IVM262189 JFI262150:JFI262189 JPE262150:JPE262189 JZA262150:JZA262189 KIW262150:KIW262189 KSS262150:KSS262189 LCO262150:LCO262189 LMK262150:LMK262189 LWG262150:LWG262189 MGC262150:MGC262189 MPY262150:MPY262189 MZU262150:MZU262189 NJQ262150:NJQ262189 NTM262150:NTM262189 ODI262150:ODI262189 ONE262150:ONE262189 OXA262150:OXA262189 PGW262150:PGW262189 PQS262150:PQS262189 QAO262150:QAO262189 QKK262150:QKK262189 QUG262150:QUG262189 REC262150:REC262189 RNY262150:RNY262189 RXU262150:RXU262189 SHQ262150:SHQ262189 SRM262150:SRM262189 TBI262150:TBI262189 TLE262150:TLE262189 TVA262150:TVA262189 UEW262150:UEW262189 UOS262150:UOS262189 UYO262150:UYO262189 VIK262150:VIK262189 VSG262150:VSG262189 WCC262150:WCC262189 WLY262150:WLY262189 WVU262150:WVU262189 JI327686:JI327725 TE327686:TE327725 ADA327686:ADA327725 AMW327686:AMW327725 AWS327686:AWS327725 BGO327686:BGO327725 BQK327686:BQK327725 CAG327686:CAG327725 CKC327686:CKC327725 CTY327686:CTY327725 DDU327686:DDU327725 DNQ327686:DNQ327725 DXM327686:DXM327725 EHI327686:EHI327725 ERE327686:ERE327725 FBA327686:FBA327725 FKW327686:FKW327725 FUS327686:FUS327725 GEO327686:GEO327725 GOK327686:GOK327725 GYG327686:GYG327725 HIC327686:HIC327725 HRY327686:HRY327725 IBU327686:IBU327725 ILQ327686:ILQ327725 IVM327686:IVM327725 JFI327686:JFI327725 JPE327686:JPE327725 JZA327686:JZA327725 KIW327686:KIW327725 KSS327686:KSS327725 LCO327686:LCO327725 LMK327686:LMK327725 LWG327686:LWG327725 MGC327686:MGC327725 MPY327686:MPY327725 MZU327686:MZU327725 NJQ327686:NJQ327725 NTM327686:NTM327725 ODI327686:ODI327725 ONE327686:ONE327725 OXA327686:OXA327725 PGW327686:PGW327725 PQS327686:PQS327725 QAO327686:QAO327725 QKK327686:QKK327725 QUG327686:QUG327725 REC327686:REC327725 RNY327686:RNY327725 RXU327686:RXU327725 SHQ327686:SHQ327725 SRM327686:SRM327725 TBI327686:TBI327725 TLE327686:TLE327725 TVA327686:TVA327725 UEW327686:UEW327725 UOS327686:UOS327725 UYO327686:UYO327725 VIK327686:VIK327725 VSG327686:VSG327725 WCC327686:WCC327725 WLY327686:WLY327725 WVU327686:WVU327725 JI393222:JI393261 TE393222:TE393261 ADA393222:ADA393261 AMW393222:AMW393261 AWS393222:AWS393261 BGO393222:BGO393261 BQK393222:BQK393261 CAG393222:CAG393261 CKC393222:CKC393261 CTY393222:CTY393261 DDU393222:DDU393261 DNQ393222:DNQ393261 DXM393222:DXM393261 EHI393222:EHI393261 ERE393222:ERE393261 FBA393222:FBA393261 FKW393222:FKW393261 FUS393222:FUS393261 GEO393222:GEO393261 GOK393222:GOK393261 GYG393222:GYG393261 HIC393222:HIC393261 HRY393222:HRY393261 IBU393222:IBU393261 ILQ393222:ILQ393261 IVM393222:IVM393261 JFI393222:JFI393261 JPE393222:JPE393261 JZA393222:JZA393261 KIW393222:KIW393261 KSS393222:KSS393261 LCO393222:LCO393261 LMK393222:LMK393261 LWG393222:LWG393261 MGC393222:MGC393261 MPY393222:MPY393261 MZU393222:MZU393261 NJQ393222:NJQ393261 NTM393222:NTM393261 ODI393222:ODI393261 ONE393222:ONE393261 OXA393222:OXA393261 PGW393222:PGW393261 PQS393222:PQS393261 QAO393222:QAO393261 QKK393222:QKK393261 QUG393222:QUG393261 REC393222:REC393261 RNY393222:RNY393261 RXU393222:RXU393261 SHQ393222:SHQ393261 SRM393222:SRM393261 TBI393222:TBI393261 TLE393222:TLE393261 TVA393222:TVA393261 UEW393222:UEW393261 UOS393222:UOS393261 UYO393222:UYO393261 VIK393222:VIK393261 VSG393222:VSG393261 WCC393222:WCC393261 WLY393222:WLY393261 WVU393222:WVU393261 JI458758:JI458797 TE458758:TE458797 ADA458758:ADA458797 AMW458758:AMW458797 AWS458758:AWS458797 BGO458758:BGO458797 BQK458758:BQK458797 CAG458758:CAG458797 CKC458758:CKC458797 CTY458758:CTY458797 DDU458758:DDU458797 DNQ458758:DNQ458797 DXM458758:DXM458797 EHI458758:EHI458797 ERE458758:ERE458797 FBA458758:FBA458797 FKW458758:FKW458797 FUS458758:FUS458797 GEO458758:GEO458797 GOK458758:GOK458797 GYG458758:GYG458797 HIC458758:HIC458797 HRY458758:HRY458797 IBU458758:IBU458797 ILQ458758:ILQ458797 IVM458758:IVM458797 JFI458758:JFI458797 JPE458758:JPE458797 JZA458758:JZA458797 KIW458758:KIW458797 KSS458758:KSS458797 LCO458758:LCO458797 LMK458758:LMK458797 LWG458758:LWG458797 MGC458758:MGC458797 MPY458758:MPY458797 MZU458758:MZU458797 NJQ458758:NJQ458797 NTM458758:NTM458797 ODI458758:ODI458797 ONE458758:ONE458797 OXA458758:OXA458797 PGW458758:PGW458797 PQS458758:PQS458797 QAO458758:QAO458797 QKK458758:QKK458797 QUG458758:QUG458797 REC458758:REC458797 RNY458758:RNY458797 RXU458758:RXU458797 SHQ458758:SHQ458797 SRM458758:SRM458797 TBI458758:TBI458797 TLE458758:TLE458797 TVA458758:TVA458797 UEW458758:UEW458797 UOS458758:UOS458797 UYO458758:UYO458797 VIK458758:VIK458797 VSG458758:VSG458797 WCC458758:WCC458797 WLY458758:WLY458797 WVU458758:WVU458797 JI524294:JI524333 TE524294:TE524333 ADA524294:ADA524333 AMW524294:AMW524333 AWS524294:AWS524333 BGO524294:BGO524333 BQK524294:BQK524333 CAG524294:CAG524333 CKC524294:CKC524333 CTY524294:CTY524333 DDU524294:DDU524333 DNQ524294:DNQ524333 DXM524294:DXM524333 EHI524294:EHI524333 ERE524294:ERE524333 FBA524294:FBA524333 FKW524294:FKW524333 FUS524294:FUS524333 GEO524294:GEO524333 GOK524294:GOK524333 GYG524294:GYG524333 HIC524294:HIC524333 HRY524294:HRY524333 IBU524294:IBU524333 ILQ524294:ILQ524333 IVM524294:IVM524333 JFI524294:JFI524333 JPE524294:JPE524333 JZA524294:JZA524333 KIW524294:KIW524333 KSS524294:KSS524333 LCO524294:LCO524333 LMK524294:LMK524333 LWG524294:LWG524333 MGC524294:MGC524333 MPY524294:MPY524333 MZU524294:MZU524333 NJQ524294:NJQ524333 NTM524294:NTM524333 ODI524294:ODI524333 ONE524294:ONE524333 OXA524294:OXA524333 PGW524294:PGW524333 PQS524294:PQS524333 QAO524294:QAO524333 QKK524294:QKK524333 QUG524294:QUG524333 REC524294:REC524333 RNY524294:RNY524333 RXU524294:RXU524333 SHQ524294:SHQ524333 SRM524294:SRM524333 TBI524294:TBI524333 TLE524294:TLE524333 TVA524294:TVA524333 UEW524294:UEW524333 UOS524294:UOS524333 UYO524294:UYO524333 VIK524294:VIK524333 VSG524294:VSG524333 WCC524294:WCC524333 WLY524294:WLY524333 WVU524294:WVU524333 JI589830:JI589869 TE589830:TE589869 ADA589830:ADA589869 AMW589830:AMW589869 AWS589830:AWS589869 BGO589830:BGO589869 BQK589830:BQK589869 CAG589830:CAG589869 CKC589830:CKC589869 CTY589830:CTY589869 DDU589830:DDU589869 DNQ589830:DNQ589869 DXM589830:DXM589869 EHI589830:EHI589869 ERE589830:ERE589869 FBA589830:FBA589869 FKW589830:FKW589869 FUS589830:FUS589869 GEO589830:GEO589869 GOK589830:GOK589869 GYG589830:GYG589869 HIC589830:HIC589869 HRY589830:HRY589869 IBU589830:IBU589869 ILQ589830:ILQ589869 IVM589830:IVM589869 JFI589830:JFI589869 JPE589830:JPE589869 JZA589830:JZA589869 KIW589830:KIW589869 KSS589830:KSS589869 LCO589830:LCO589869 LMK589830:LMK589869 LWG589830:LWG589869 MGC589830:MGC589869 MPY589830:MPY589869 MZU589830:MZU589869 NJQ589830:NJQ589869 NTM589830:NTM589869 ODI589830:ODI589869 ONE589830:ONE589869 OXA589830:OXA589869 PGW589830:PGW589869 PQS589830:PQS589869 QAO589830:QAO589869 QKK589830:QKK589869 QUG589830:QUG589869 REC589830:REC589869 RNY589830:RNY589869 RXU589830:RXU589869 SHQ589830:SHQ589869 SRM589830:SRM589869 TBI589830:TBI589869 TLE589830:TLE589869 TVA589830:TVA589869 UEW589830:UEW589869 UOS589830:UOS589869 UYO589830:UYO589869 VIK589830:VIK589869 VSG589830:VSG589869 WCC589830:WCC589869 WLY589830:WLY589869 WVU589830:WVU589869 JI655366:JI655405 TE655366:TE655405 ADA655366:ADA655405 AMW655366:AMW655405 AWS655366:AWS655405 BGO655366:BGO655405 BQK655366:BQK655405 CAG655366:CAG655405 CKC655366:CKC655405 CTY655366:CTY655405 DDU655366:DDU655405 DNQ655366:DNQ655405 DXM655366:DXM655405 EHI655366:EHI655405 ERE655366:ERE655405 FBA655366:FBA655405 FKW655366:FKW655405 FUS655366:FUS655405 GEO655366:GEO655405 GOK655366:GOK655405 GYG655366:GYG655405 HIC655366:HIC655405 HRY655366:HRY655405 IBU655366:IBU655405 ILQ655366:ILQ655405 IVM655366:IVM655405 JFI655366:JFI655405 JPE655366:JPE655405 JZA655366:JZA655405 KIW655366:KIW655405 KSS655366:KSS655405 LCO655366:LCO655405 LMK655366:LMK655405 LWG655366:LWG655405 MGC655366:MGC655405 MPY655366:MPY655405 MZU655366:MZU655405 NJQ655366:NJQ655405 NTM655366:NTM655405 ODI655366:ODI655405 ONE655366:ONE655405 OXA655366:OXA655405 PGW655366:PGW655405 PQS655366:PQS655405 QAO655366:QAO655405 QKK655366:QKK655405 QUG655366:QUG655405 REC655366:REC655405 RNY655366:RNY655405 RXU655366:RXU655405 SHQ655366:SHQ655405 SRM655366:SRM655405 TBI655366:TBI655405 TLE655366:TLE655405 TVA655366:TVA655405 UEW655366:UEW655405 UOS655366:UOS655405 UYO655366:UYO655405 VIK655366:VIK655405 VSG655366:VSG655405 WCC655366:WCC655405 WLY655366:WLY655405 WVU655366:WVU655405 JI720902:JI720941 TE720902:TE720941 ADA720902:ADA720941 AMW720902:AMW720941 AWS720902:AWS720941 BGO720902:BGO720941 BQK720902:BQK720941 CAG720902:CAG720941 CKC720902:CKC720941 CTY720902:CTY720941 DDU720902:DDU720941 DNQ720902:DNQ720941 DXM720902:DXM720941 EHI720902:EHI720941 ERE720902:ERE720941 FBA720902:FBA720941 FKW720902:FKW720941 FUS720902:FUS720941 GEO720902:GEO720941 GOK720902:GOK720941 GYG720902:GYG720941 HIC720902:HIC720941 HRY720902:HRY720941 IBU720902:IBU720941 ILQ720902:ILQ720941 IVM720902:IVM720941 JFI720902:JFI720941 JPE720902:JPE720941 JZA720902:JZA720941 KIW720902:KIW720941 KSS720902:KSS720941 LCO720902:LCO720941 LMK720902:LMK720941 LWG720902:LWG720941 MGC720902:MGC720941 MPY720902:MPY720941 MZU720902:MZU720941 NJQ720902:NJQ720941 NTM720902:NTM720941 ODI720902:ODI720941 ONE720902:ONE720941 OXA720902:OXA720941 PGW720902:PGW720941 PQS720902:PQS720941 QAO720902:QAO720941 QKK720902:QKK720941 QUG720902:QUG720941 REC720902:REC720941 RNY720902:RNY720941 RXU720902:RXU720941 SHQ720902:SHQ720941 SRM720902:SRM720941 TBI720902:TBI720941 TLE720902:TLE720941 TVA720902:TVA720941 UEW720902:UEW720941 UOS720902:UOS720941 UYO720902:UYO720941 VIK720902:VIK720941 VSG720902:VSG720941 WCC720902:WCC720941 WLY720902:WLY720941 WVU720902:WVU720941 JI786438:JI786477 TE786438:TE786477 ADA786438:ADA786477 AMW786438:AMW786477 AWS786438:AWS786477 BGO786438:BGO786477 BQK786438:BQK786477 CAG786438:CAG786477 CKC786438:CKC786477 CTY786438:CTY786477 DDU786438:DDU786477 DNQ786438:DNQ786477 DXM786438:DXM786477 EHI786438:EHI786477 ERE786438:ERE786477 FBA786438:FBA786477 FKW786438:FKW786477 FUS786438:FUS786477 GEO786438:GEO786477 GOK786438:GOK786477 GYG786438:GYG786477 HIC786438:HIC786477 HRY786438:HRY786477 IBU786438:IBU786477 ILQ786438:ILQ786477 IVM786438:IVM786477 JFI786438:JFI786477 JPE786438:JPE786477 JZA786438:JZA786477 KIW786438:KIW786477 KSS786438:KSS786477 LCO786438:LCO786477 LMK786438:LMK786477 LWG786438:LWG786477 MGC786438:MGC786477 MPY786438:MPY786477 MZU786438:MZU786477 NJQ786438:NJQ786477 NTM786438:NTM786477 ODI786438:ODI786477 ONE786438:ONE786477 OXA786438:OXA786477 PGW786438:PGW786477 PQS786438:PQS786477 QAO786438:QAO786477 QKK786438:QKK786477 QUG786438:QUG786477 REC786438:REC786477 RNY786438:RNY786477 RXU786438:RXU786477 SHQ786438:SHQ786477 SRM786438:SRM786477 TBI786438:TBI786477 TLE786438:TLE786477 TVA786438:TVA786477 UEW786438:UEW786477 UOS786438:UOS786477 UYO786438:UYO786477 VIK786438:VIK786477 VSG786438:VSG786477 WCC786438:WCC786477 WLY786438:WLY786477 WVU786438:WVU786477 JI851974:JI852013 TE851974:TE852013 ADA851974:ADA852013 AMW851974:AMW852013 AWS851974:AWS852013 BGO851974:BGO852013 BQK851974:BQK852013 CAG851974:CAG852013 CKC851974:CKC852013 CTY851974:CTY852013 DDU851974:DDU852013 DNQ851974:DNQ852013 DXM851974:DXM852013 EHI851974:EHI852013 ERE851974:ERE852013 FBA851974:FBA852013 FKW851974:FKW852013 FUS851974:FUS852013 GEO851974:GEO852013 GOK851974:GOK852013 GYG851974:GYG852013 HIC851974:HIC852013 HRY851974:HRY852013 IBU851974:IBU852013 ILQ851974:ILQ852013 IVM851974:IVM852013 JFI851974:JFI852013 JPE851974:JPE852013 JZA851974:JZA852013 KIW851974:KIW852013 KSS851974:KSS852013 LCO851974:LCO852013 LMK851974:LMK852013 LWG851974:LWG852013 MGC851974:MGC852013 MPY851974:MPY852013 MZU851974:MZU852013 NJQ851974:NJQ852013 NTM851974:NTM852013 ODI851974:ODI852013 ONE851974:ONE852013 OXA851974:OXA852013 PGW851974:PGW852013 PQS851974:PQS852013 QAO851974:QAO852013 QKK851974:QKK852013 QUG851974:QUG852013 REC851974:REC852013 RNY851974:RNY852013 RXU851974:RXU852013 SHQ851974:SHQ852013 SRM851974:SRM852013 TBI851974:TBI852013 TLE851974:TLE852013 TVA851974:TVA852013 UEW851974:UEW852013 UOS851974:UOS852013 UYO851974:UYO852013 VIK851974:VIK852013 VSG851974:VSG852013 WCC851974:WCC852013 WLY851974:WLY852013 WVU851974:WVU852013 JI917510:JI917549 TE917510:TE917549 ADA917510:ADA917549 AMW917510:AMW917549 AWS917510:AWS917549 BGO917510:BGO917549 BQK917510:BQK917549 CAG917510:CAG917549 CKC917510:CKC917549 CTY917510:CTY917549 DDU917510:DDU917549 DNQ917510:DNQ917549 DXM917510:DXM917549 EHI917510:EHI917549 ERE917510:ERE917549 FBA917510:FBA917549 FKW917510:FKW917549 FUS917510:FUS917549 GEO917510:GEO917549 GOK917510:GOK917549 GYG917510:GYG917549 HIC917510:HIC917549 HRY917510:HRY917549 IBU917510:IBU917549 ILQ917510:ILQ917549 IVM917510:IVM917549 JFI917510:JFI917549 JPE917510:JPE917549 JZA917510:JZA917549 KIW917510:KIW917549 KSS917510:KSS917549 LCO917510:LCO917549 LMK917510:LMK917549 LWG917510:LWG917549 MGC917510:MGC917549 MPY917510:MPY917549 MZU917510:MZU917549 NJQ917510:NJQ917549 NTM917510:NTM917549 ODI917510:ODI917549 ONE917510:ONE917549 OXA917510:OXA917549 PGW917510:PGW917549 PQS917510:PQS917549 QAO917510:QAO917549 QKK917510:QKK917549 QUG917510:QUG917549 REC917510:REC917549 RNY917510:RNY917549 RXU917510:RXU917549 SHQ917510:SHQ917549 SRM917510:SRM917549 TBI917510:TBI917549 TLE917510:TLE917549 TVA917510:TVA917549 UEW917510:UEW917549 UOS917510:UOS917549 UYO917510:UYO917549 VIK917510:VIK917549 VSG917510:VSG917549 WCC917510:WCC917549 WLY917510:WLY917549 WVU917510:WVU917549 JI983046:JI983085 TE983046:TE983085 ADA983046:ADA983085 AMW983046:AMW983085 AWS983046:AWS983085 BGO983046:BGO983085 BQK983046:BQK983085 CAG983046:CAG983085 CKC983046:CKC983085 CTY983046:CTY983085 DDU983046:DDU983085 DNQ983046:DNQ983085 DXM983046:DXM983085 EHI983046:EHI983085 ERE983046:ERE983085 FBA983046:FBA983085 FKW983046:FKW983085 FUS983046:FUS983085 GEO983046:GEO983085 GOK983046:GOK983085 GYG983046:GYG983085 HIC983046:HIC983085 HRY983046:HRY983085 IBU983046:IBU983085 ILQ983046:ILQ983085 IVM983046:IVM983085 JFI983046:JFI983085 JPE983046:JPE983085 JZA983046:JZA983085 KIW983046:KIW983085 KSS983046:KSS983085 LCO983046:LCO983085 LMK983046:LMK983085 LWG983046:LWG983085 MGC983046:MGC983085 MPY983046:MPY983085 MZU983046:MZU983085 NJQ983046:NJQ983085 NTM983046:NTM983085 ODI983046:ODI983085 ONE983046:ONE983085 OXA983046:OXA983085 PGW983046:PGW983085 PQS983046:PQS983085 QAO983046:QAO983085 QKK983046:QKK983085 QUG983046:QUG983085 REC983046:REC983085 RNY983046:RNY983085 RXU983046:RXU983085 SHQ983046:SHQ983085 SRM983046:SRM983085 TBI983046:TBI983085 TLE983046:TLE983085 TVA983046:TVA983085 UEW983046:UEW983085 UOS983046:UOS983085 UYO983046:UYO983085 VIK983046:VIK983085 VSG983046:VSG983085 WCC983046:WCC983085 WLY983046:WLY983085 WVU983046:WVU983085 WVU5:WVU43 WLY5:WLY43 WCC5:WCC43 VSG5:VSG43 VIK5:VIK43 UYO5:UYO43 UOS5:UOS43 UEW5:UEW43 TVA5:TVA43 TLE5:TLE43 TBI5:TBI43 SRM5:SRM43 SHQ5:SHQ43 RXU5:RXU43 RNY5:RNY43 REC5:REC43 QUG5:QUG43 QKK5:QKK43 QAO5:QAO43 PQS5:PQS43 PGW5:PGW43 OXA5:OXA43 ONE5:ONE43 ODI5:ODI43 NTM5:NTM43 NJQ5:NJQ43 MZU5:MZU43 MPY5:MPY43 MGC5:MGC43 LWG5:LWG43 LMK5:LMK43 LCO5:LCO43 KSS5:KSS43 KIW5:KIW43 JZA5:JZA43 JPE5:JPE43 JFI5:JFI43 IVM5:IVM43 ILQ5:ILQ43 IBU5:IBU43 HRY5:HRY43 HIC5:HIC43 GYG5:GYG43 GOK5:GOK43 GEO5:GEO43 FUS5:FUS43 FKW5:FKW43 FBA5:FBA43 ERE5:ERE43 EHI5:EHI43 DXM5:DXM43 DNQ5:DNQ43 DDU5:DDU43 CTY5:CTY43 CKC5:CKC43 CAG5:CAG43 BQK5:BQK43 BGO5:BGO43 AWS5:AWS43 AMW5:AMW43 ADA5:ADA43 TE5:TE43 JI5:JI43" xr:uid="{00000000-0002-0000-0A00-000004000000}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
@@ -12100,7 +12207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12565,37 +12672,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A1" s="153"/>
-      <c r="B1" s="153"/>
-      <c r="C1" s="154" t="s">
+      <c r="A1" s="134"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
       <c r="N1" s="40"/>
       <c r="O1" s="40"/>
       <c r="P1" s="41"/>
     </row>
     <row r="2" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A2" s="156"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
       <c r="M2" s="42" t="s">
         <v>134</v>
       </c>
@@ -12606,19 +12713,19 @@
       <c r="P2" s="41"/>
     </row>
     <row r="3" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="139" t="s">
         <v>277</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
       <c r="M3" s="42" t="s">
         <v>135</v>
       </c>
@@ -12629,8 +12736,8 @@
       <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1">
-      <c r="A4" s="151"/>
-      <c r="B4" s="152"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="133"/>
       <c r="C4" s="45"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -12645,67 +12752,67 @@
       <c r="P4" s="41"/>
     </row>
     <row r="5" spans="1:259" ht="92.25" customHeight="1">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="152" t="s">
         <v>136</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="153" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="143" t="s">
+      <c r="D5" s="154"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="153" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="146" t="s">
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="156" t="s">
         <v>140</v>
       </c>
-      <c r="L5" s="147" t="s">
+      <c r="L5" s="157" t="s">
         <v>141</v>
       </c>
-      <c r="M5" s="149" t="s">
+      <c r="M5" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="N5" s="150"/>
-      <c r="O5" s="134" t="s">
+      <c r="N5" s="160"/>
+      <c r="O5" s="144" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:259" ht="200.25" customHeight="1">
-      <c r="A6" s="142"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="145" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135" t="s">
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="148"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="N6" s="136" t="s">
+      <c r="N6" s="146" t="s">
         <v>147</v>
       </c>
-      <c r="O6" s="134"/>
+      <c r="O6" s="144"/>
     </row>
     <row r="7" spans="1:259" ht="60" customHeight="1">
-      <c r="A7" s="142"/>
+      <c r="A7" s="152"/>
       <c r="B7" s="52" t="s">
         <v>148</v>
       </c>
@@ -12742,7 +12849,7 @@
       <c r="M7" s="56">
         <v>100</v>
       </c>
-      <c r="N7" s="137"/>
+      <c r="N7" s="147"/>
       <c r="O7" s="57">
         <v>100</v>
       </c>
@@ -14822,23 +14929,23 @@
       </c>
     </row>
     <row r="48" spans="1:259" ht="60" customHeight="1">
-      <c r="A48" s="138" t="s">
+      <c r="A48" s="148" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="138"/>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="138"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="138"/>
-      <c r="J48" s="138"/>
-      <c r="K48" s="138"/>
-      <c r="L48" s="138"/>
-      <c r="M48" s="138"/>
-      <c r="N48" s="138"/>
-      <c r="O48" s="138"/>
+      <c r="B48" s="148"/>
+      <c r="C48" s="148"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="148"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="148"/>
+      <c r="J48" s="148"/>
+      <c r="K48" s="148"/>
+      <c r="L48" s="148"/>
+      <c r="M48" s="148"/>
+      <c r="N48" s="148"/>
+      <c r="O48" s="148"/>
       <c r="P48" s="68"/>
       <c r="Q48" s="68"/>
       <c r="R48" s="68"/>
@@ -15089,17 +15196,17 @@
       <c r="B49" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="C49" s="139"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="140"/>
-      <c r="F49" s="140"/>
-      <c r="G49" s="140"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="140"/>
-      <c r="K49" s="140"/>
-      <c r="L49" s="140"/>
-      <c r="M49" s="141"/>
+      <c r="C49" s="149"/>
+      <c r="D49" s="150"/>
+      <c r="E49" s="150"/>
+      <c r="F49" s="150"/>
+      <c r="G49" s="150"/>
+      <c r="H49" s="150"/>
+      <c r="I49" s="150"/>
+      <c r="J49" s="150"/>
+      <c r="K49" s="150"/>
+      <c r="L49" s="150"/>
+      <c r="M49" s="151"/>
       <c r="N49" s="71"/>
       <c r="O49" s="71"/>
     </row>
@@ -15348,24 +15455,24 @@
       <c r="B55" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="C55" s="132" t="s">
+      <c r="C55" s="142" t="s">
         <v>183</v>
       </c>
-      <c r="D55" s="132" t="s">
+      <c r="D55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="E55" s="132" t="s">
+      <c r="E55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="F55" s="132" t="s">
+      <c r="F55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="G55" s="132"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132" t="s">
+      <c r="G55" s="142"/>
+      <c r="H55" s="142"/>
+      <c r="I55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="J55" s="132" t="s">
+      <c r="J55" s="142" t="s">
         <v>184</v>
       </c>
       <c r="K55" s="79" t="s">
@@ -15382,14 +15489,14 @@
       <c r="B56" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="133"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="133"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="143"/>
       <c r="K56" s="85"/>
       <c r="L56" s="86"/>
       <c r="M56" s="86"/>
@@ -15400,12 +15507,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="bymfRcfdrKcinTwDVsD9Sw9HEi8Aylyen4Sk5Zge/jYh+kvPJ7FX30Y4JStUMt7GaslXX539UxCjP4mWFs/Pug==" saltValue="rJpldvugpSjeUtd+V1m7xQ==" spinCount="100000" sheet="1"/>
   <mergeCells count="20">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:L2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:K3"/>
     <mergeCell ref="C55:J55"/>
     <mergeCell ref="C56:J56"/>
     <mergeCell ref="O5:O6"/>
@@ -15420,22 +15521,28 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:L2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:K3"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L47" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:I47 K8:K47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:I47 K8:K47" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D47" xr:uid="{00000000-0002-0000-0B00-000002000000}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="يجب أن تكون القيمة بين 0 و 5" sqref="SU46:TF50 ACQ46:ADB50 AMM46:AMX50 AWI46:AWT50 BGE46:BGP50 BQA46:BQL50 BZW46:CAH50 CJS46:CKD50 CTO46:CTZ50 DDK46:DDV50 DNG46:DNR50 DXC46:DXN50 EGY46:EHJ50 EQU46:ERF50 FAQ46:FBB50 FKM46:FKX50 FUI46:FUT50 GEE46:GEP50 GOA46:GOL50 GXW46:GYH50 HHS46:HID50 HRO46:HRZ50 IBK46:IBV50 ILG46:ILR50 IVC46:IVN50 JEY46:JFJ50 JOU46:JPF50 JYQ46:JZB50 KIM46:KIX50 KSI46:KST50 LCE46:LCP50 LMA46:LML50 LVW46:LWH50 MFS46:MGD50 MPO46:MPZ50 MZK46:MZV50 NJG46:NJR50 NTC46:NTN50 OCY46:ODJ50 OMU46:ONF50 OWQ46:OXB50 PGM46:PGX50 PQI46:PQT50 QAE46:QAP50 QKA46:QKL50 QTW46:QUH50 RDS46:RED50 RNO46:RNZ50 RXK46:RXV50 SHG46:SHR50 SRC46:SRN50 TAY46:TBJ50 TKU46:TLF50 TUQ46:TVB50 UEM46:UEX50 UOI46:UOT50 UYE46:UYP50 VIA46:VIL50 VRW46:VSH50 WBS46:WCD50 WLO46:WLZ50 WVK46:WVV50 SU65584:TF65588 ACQ65584:ADB65588 AMM65584:AMX65588 AWI65584:AWT65588 BGE65584:BGP65588 BQA65584:BQL65588 BZW65584:CAH65588 CJS65584:CKD65588 CTO65584:CTZ65588 DDK65584:DDV65588 DNG65584:DNR65588 DXC65584:DXN65588 EGY65584:EHJ65588 EQU65584:ERF65588 FAQ65584:FBB65588 FKM65584:FKX65588 FUI65584:FUT65588 GEE65584:GEP65588 GOA65584:GOL65588 GXW65584:GYH65588 HHS65584:HID65588 HRO65584:HRZ65588 IBK65584:IBV65588 ILG65584:ILR65588 IVC65584:IVN65588 JEY65584:JFJ65588 JOU65584:JPF65588 JYQ65584:JZB65588 KIM65584:KIX65588 KSI65584:KST65588 LCE65584:LCP65588 LMA65584:LML65588 LVW65584:LWH65588 MFS65584:MGD65588 MPO65584:MPZ65588 MZK65584:MZV65588 NJG65584:NJR65588 NTC65584:NTN65588 OCY65584:ODJ65588 OMU65584:ONF65588 OWQ65584:OXB65588 PGM65584:PGX65588 PQI65584:PQT65588 QAE65584:QAP65588 QKA65584:QKL65588 QTW65584:QUH65588 RDS65584:RED65588 RNO65584:RNZ65588 RXK65584:RXV65588 SHG65584:SHR65588 SRC65584:SRN65588 TAY65584:TBJ65588 TKU65584:TLF65588 TUQ65584:TVB65588 UEM65584:UEX65588 UOI65584:UOT65588 UYE65584:UYP65588 VIA65584:VIL65588 VRW65584:VSH65588 WBS65584:WCD65588 WLO65584:WLZ65588 WVK65584:WVV65588 SU131120:TF131124 ACQ131120:ADB131124 AMM131120:AMX131124 AWI131120:AWT131124 BGE131120:BGP131124 BQA131120:BQL131124 BZW131120:CAH131124 CJS131120:CKD131124 CTO131120:CTZ131124 DDK131120:DDV131124 DNG131120:DNR131124 DXC131120:DXN131124 EGY131120:EHJ131124 EQU131120:ERF131124 FAQ131120:FBB131124 FKM131120:FKX131124 FUI131120:FUT131124 GEE131120:GEP131124 GOA131120:GOL131124 GXW131120:GYH131124 HHS131120:HID131124 HRO131120:HRZ131124 IBK131120:IBV131124 ILG131120:ILR131124 IVC131120:IVN131124 JEY131120:JFJ131124 JOU131120:JPF131124 JYQ131120:JZB131124 KIM131120:KIX131124 KSI131120:KST131124 LCE131120:LCP131124 LMA131120:LML131124 LVW131120:LWH131124 MFS131120:MGD131124 MPO131120:MPZ131124 MZK131120:MZV131124 NJG131120:NJR131124 NTC131120:NTN131124 OCY131120:ODJ131124 OMU131120:ONF131124 OWQ131120:OXB131124 PGM131120:PGX131124 PQI131120:PQT131124 QAE131120:QAP131124 QKA131120:QKL131124 QTW131120:QUH131124 RDS131120:RED131124 RNO131120:RNZ131124 RXK131120:RXV131124 SHG131120:SHR131124 SRC131120:SRN131124 TAY131120:TBJ131124 TKU131120:TLF131124 TUQ131120:TVB131124 UEM131120:UEX131124 UOI131120:UOT131124 UYE131120:UYP131124 VIA131120:VIL131124 VRW131120:VSH131124 WBS131120:WCD131124 WLO131120:WLZ131124 WVK131120:WVV131124 SU196656:TF196660 ACQ196656:ADB196660 AMM196656:AMX196660 AWI196656:AWT196660 BGE196656:BGP196660 BQA196656:BQL196660 BZW196656:CAH196660 CJS196656:CKD196660 CTO196656:CTZ196660 DDK196656:DDV196660 DNG196656:DNR196660 DXC196656:DXN196660 EGY196656:EHJ196660 EQU196656:ERF196660 FAQ196656:FBB196660 FKM196656:FKX196660 FUI196656:FUT196660 GEE196656:GEP196660 GOA196656:GOL196660 GXW196656:GYH196660 HHS196656:HID196660 HRO196656:HRZ196660 IBK196656:IBV196660 ILG196656:ILR196660 IVC196656:IVN196660 JEY196656:JFJ196660 JOU196656:JPF196660 JYQ196656:JZB196660 KIM196656:KIX196660 KSI196656:KST196660 LCE196656:LCP196660 LMA196656:LML196660 LVW196656:LWH196660 MFS196656:MGD196660 MPO196656:MPZ196660 MZK196656:MZV196660 NJG196656:NJR196660 NTC196656:NTN196660 OCY196656:ODJ196660 OMU196656:ONF196660 OWQ196656:OXB196660 PGM196656:PGX196660 PQI196656:PQT196660 QAE196656:QAP196660 QKA196656:QKL196660 QTW196656:QUH196660 RDS196656:RED196660 RNO196656:RNZ196660 RXK196656:RXV196660 SHG196656:SHR196660 SRC196656:SRN196660 TAY196656:TBJ196660 TKU196656:TLF196660 TUQ196656:TVB196660 UEM196656:UEX196660 UOI196656:UOT196660 UYE196656:UYP196660 VIA196656:VIL196660 VRW196656:VSH196660 WBS196656:WCD196660 WLO196656:WLZ196660 WVK196656:WVV196660 SU262192:TF262196 ACQ262192:ADB262196 AMM262192:AMX262196 AWI262192:AWT262196 BGE262192:BGP262196 BQA262192:BQL262196 BZW262192:CAH262196 CJS262192:CKD262196 CTO262192:CTZ262196 DDK262192:DDV262196 DNG262192:DNR262196 DXC262192:DXN262196 EGY262192:EHJ262196 EQU262192:ERF262196 FAQ262192:FBB262196 FKM262192:FKX262196 FUI262192:FUT262196 GEE262192:GEP262196 GOA262192:GOL262196 GXW262192:GYH262196 HHS262192:HID262196 HRO262192:HRZ262196 IBK262192:IBV262196 ILG262192:ILR262196 IVC262192:IVN262196 JEY262192:JFJ262196 JOU262192:JPF262196 JYQ262192:JZB262196 KIM262192:KIX262196 KSI262192:KST262196 LCE262192:LCP262196 LMA262192:LML262196 LVW262192:LWH262196 MFS262192:MGD262196 MPO262192:MPZ262196 MZK262192:MZV262196 NJG262192:NJR262196 NTC262192:NTN262196 OCY262192:ODJ262196 OMU262192:ONF262196 OWQ262192:OXB262196 PGM262192:PGX262196 PQI262192:PQT262196 QAE262192:QAP262196 QKA262192:QKL262196 QTW262192:QUH262196 RDS262192:RED262196 RNO262192:RNZ262196 RXK262192:RXV262196 SHG262192:SHR262196 SRC262192:SRN262196 TAY262192:TBJ262196 TKU262192:TLF262196 TUQ262192:TVB262196 UEM262192:UEX262196 UOI262192:UOT262196 UYE262192:UYP262196 VIA262192:VIL262196 VRW262192:VSH262196 WBS262192:WCD262196 WLO262192:WLZ262196 WVK262192:WVV262196 SU327728:TF327732 ACQ327728:ADB327732 AMM327728:AMX327732 AWI327728:AWT327732 BGE327728:BGP327732 BQA327728:BQL327732 BZW327728:CAH327732 CJS327728:CKD327732 CTO327728:CTZ327732 DDK327728:DDV327732 DNG327728:DNR327732 DXC327728:DXN327732 EGY327728:EHJ327732 EQU327728:ERF327732 FAQ327728:FBB327732 FKM327728:FKX327732 FUI327728:FUT327732 GEE327728:GEP327732 GOA327728:GOL327732 GXW327728:GYH327732 HHS327728:HID327732 HRO327728:HRZ327732 IBK327728:IBV327732 ILG327728:ILR327732 IVC327728:IVN327732 JEY327728:JFJ327732 JOU327728:JPF327732 JYQ327728:JZB327732 KIM327728:KIX327732 KSI327728:KST327732 LCE327728:LCP327732 LMA327728:LML327732 LVW327728:LWH327732 MFS327728:MGD327732 MPO327728:MPZ327732 MZK327728:MZV327732 NJG327728:NJR327732 NTC327728:NTN327732 OCY327728:ODJ327732 OMU327728:ONF327732 OWQ327728:OXB327732 PGM327728:PGX327732 PQI327728:PQT327732 QAE327728:QAP327732 QKA327728:QKL327732 QTW327728:QUH327732 RDS327728:RED327732 RNO327728:RNZ327732 RXK327728:RXV327732 SHG327728:SHR327732 SRC327728:SRN327732 TAY327728:TBJ327732 TKU327728:TLF327732 TUQ327728:TVB327732 UEM327728:UEX327732 UOI327728:UOT327732 UYE327728:UYP327732 VIA327728:VIL327732 VRW327728:VSH327732 WBS327728:WCD327732 WLO327728:WLZ327732 WVK327728:WVV327732 SU393264:TF393268 ACQ393264:ADB393268 AMM393264:AMX393268 AWI393264:AWT393268 BGE393264:BGP393268 BQA393264:BQL393268 BZW393264:CAH393268 CJS393264:CKD393268 CTO393264:CTZ393268 DDK393264:DDV393268 DNG393264:DNR393268 DXC393264:DXN393268 EGY393264:EHJ393268 EQU393264:ERF393268 FAQ393264:FBB393268 FKM393264:FKX393268 FUI393264:FUT393268 GEE393264:GEP393268 GOA393264:GOL393268 GXW393264:GYH393268 HHS393264:HID393268 HRO393264:HRZ393268 IBK393264:IBV393268 ILG393264:ILR393268 IVC393264:IVN393268 JEY393264:JFJ393268 JOU393264:JPF393268 JYQ393264:JZB393268 KIM393264:KIX393268 KSI393264:KST393268 LCE393264:LCP393268 LMA393264:LML393268 LVW393264:LWH393268 MFS393264:MGD393268 MPO393264:MPZ393268 MZK393264:MZV393268 NJG393264:NJR393268 NTC393264:NTN393268 OCY393264:ODJ393268 OMU393264:ONF393268 OWQ393264:OXB393268 PGM393264:PGX393268 PQI393264:PQT393268 QAE393264:QAP393268 QKA393264:QKL393268 QTW393264:QUH393268 RDS393264:RED393268 RNO393264:RNZ393268 RXK393264:RXV393268 SHG393264:SHR393268 SRC393264:SRN393268 TAY393264:TBJ393268 TKU393264:TLF393268 TUQ393264:TVB393268 UEM393264:UEX393268 UOI393264:UOT393268 UYE393264:UYP393268 VIA393264:VIL393268 VRW393264:VSH393268 WBS393264:WCD393268 WLO393264:WLZ393268 WVK393264:WVV393268 SU458800:TF458804 ACQ458800:ADB458804 AMM458800:AMX458804 AWI458800:AWT458804 BGE458800:BGP458804 BQA458800:BQL458804 BZW458800:CAH458804 CJS458800:CKD458804 CTO458800:CTZ458804 DDK458800:DDV458804 DNG458800:DNR458804 DXC458800:DXN458804 EGY458800:EHJ458804 EQU458800:ERF458804 FAQ458800:FBB458804 FKM458800:FKX458804 FUI458800:FUT458804 GEE458800:GEP458804 GOA458800:GOL458804 GXW458800:GYH458804 HHS458800:HID458804 HRO458800:HRZ458804 IBK458800:IBV458804 ILG458800:ILR458804 IVC458800:IVN458804 JEY458800:JFJ458804 JOU458800:JPF458804 JYQ458800:JZB458804 KIM458800:KIX458804 KSI458800:KST458804 LCE458800:LCP458804 LMA458800:LML458804 LVW458800:LWH458804 MFS458800:MGD458804 MPO458800:MPZ458804 MZK458800:MZV458804 NJG458800:NJR458804 NTC458800:NTN458804 OCY458800:ODJ458804 OMU458800:ONF458804 OWQ458800:OXB458804 PGM458800:PGX458804 PQI458800:PQT458804 QAE458800:QAP458804 QKA458800:QKL458804 QTW458800:QUH458804 RDS458800:RED458804 RNO458800:RNZ458804 RXK458800:RXV458804 SHG458800:SHR458804 SRC458800:SRN458804 TAY458800:TBJ458804 TKU458800:TLF458804 TUQ458800:TVB458804 UEM458800:UEX458804 UOI458800:UOT458804 UYE458800:UYP458804 VIA458800:VIL458804 VRW458800:VSH458804 WBS458800:WCD458804 WLO458800:WLZ458804 WVK458800:WVV458804 SU524336:TF524340 ACQ524336:ADB524340 AMM524336:AMX524340 AWI524336:AWT524340 BGE524336:BGP524340 BQA524336:BQL524340 BZW524336:CAH524340 CJS524336:CKD524340 CTO524336:CTZ524340 DDK524336:DDV524340 DNG524336:DNR524340 DXC524336:DXN524340 EGY524336:EHJ524340 EQU524336:ERF524340 FAQ524336:FBB524340 FKM524336:FKX524340 FUI524336:FUT524340 GEE524336:GEP524340 GOA524336:GOL524340 GXW524336:GYH524340 HHS524336:HID524340 HRO524336:HRZ524340 IBK524336:IBV524340 ILG524336:ILR524340 IVC524336:IVN524340 JEY524336:JFJ524340 JOU524336:JPF524340 JYQ524336:JZB524340 KIM524336:KIX524340 KSI524336:KST524340 LCE524336:LCP524340 LMA524336:LML524340 LVW524336:LWH524340 MFS524336:MGD524340 MPO524336:MPZ524340 MZK524336:MZV524340 NJG524336:NJR524340 NTC524336:NTN524340 OCY524336:ODJ524340 OMU524336:ONF524340 OWQ524336:OXB524340 PGM524336:PGX524340 PQI524336:PQT524340 QAE524336:QAP524340 QKA524336:QKL524340 QTW524336:QUH524340 RDS524336:RED524340 RNO524336:RNZ524340 RXK524336:RXV524340 SHG524336:SHR524340 SRC524336:SRN524340 TAY524336:TBJ524340 TKU524336:TLF524340 TUQ524336:TVB524340 UEM524336:UEX524340 UOI524336:UOT524340 UYE524336:UYP524340 VIA524336:VIL524340 VRW524336:VSH524340 WBS524336:WCD524340 WLO524336:WLZ524340 WVK524336:WVV524340 SU589872:TF589876 ACQ589872:ADB589876 AMM589872:AMX589876 AWI589872:AWT589876 BGE589872:BGP589876 BQA589872:BQL589876 BZW589872:CAH589876 CJS589872:CKD589876 CTO589872:CTZ589876 DDK589872:DDV589876 DNG589872:DNR589876 DXC589872:DXN589876 EGY589872:EHJ589876 EQU589872:ERF589876 FAQ589872:FBB589876 FKM589872:FKX589876 FUI589872:FUT589876 GEE589872:GEP589876 GOA589872:GOL589876 GXW589872:GYH589876 HHS589872:HID589876 HRO589872:HRZ589876 IBK589872:IBV589876 ILG589872:ILR589876 IVC589872:IVN589876 JEY589872:JFJ589876 JOU589872:JPF589876 JYQ589872:JZB589876 KIM589872:KIX589876 KSI589872:KST589876 LCE589872:LCP589876 LMA589872:LML589876 LVW589872:LWH589876 MFS589872:MGD589876 MPO589872:MPZ589876 MZK589872:MZV589876 NJG589872:NJR589876 NTC589872:NTN589876 OCY589872:ODJ589876 OMU589872:ONF589876 OWQ589872:OXB589876 PGM589872:PGX589876 PQI589872:PQT589876 QAE589872:QAP589876 QKA589872:QKL589876 QTW589872:QUH589876 RDS589872:RED589876 RNO589872:RNZ589876 RXK589872:RXV589876 SHG589872:SHR589876 SRC589872:SRN589876 TAY589872:TBJ589876 TKU589872:TLF589876 TUQ589872:TVB589876 UEM589872:UEX589876 UOI589872:UOT589876 UYE589872:UYP589876 VIA589872:VIL589876 VRW589872:VSH589876 WBS589872:WCD589876 WLO589872:WLZ589876 WVK589872:WVV589876 SU655408:TF655412 ACQ655408:ADB655412 AMM655408:AMX655412 AWI655408:AWT655412 BGE655408:BGP655412 BQA655408:BQL655412 BZW655408:CAH655412 CJS655408:CKD655412 CTO655408:CTZ655412 DDK655408:DDV655412 DNG655408:DNR655412 DXC655408:DXN655412 EGY655408:EHJ655412 EQU655408:ERF655412 FAQ655408:FBB655412 FKM655408:FKX655412 FUI655408:FUT655412 GEE655408:GEP655412 GOA655408:GOL655412 GXW655408:GYH655412 HHS655408:HID655412 HRO655408:HRZ655412 IBK655408:IBV655412 ILG655408:ILR655412 IVC655408:IVN655412 JEY655408:JFJ655412 JOU655408:JPF655412 JYQ655408:JZB655412 KIM655408:KIX655412 KSI655408:KST655412 LCE655408:LCP655412 LMA655408:LML655412 LVW655408:LWH655412 MFS655408:MGD655412 MPO655408:MPZ655412 MZK655408:MZV655412 NJG655408:NJR655412 NTC655408:NTN655412 OCY655408:ODJ655412 OMU655408:ONF655412 OWQ655408:OXB655412 PGM655408:PGX655412 PQI655408:PQT655412 QAE655408:QAP655412 QKA655408:QKL655412 QTW655408:QUH655412 RDS655408:RED655412 RNO655408:RNZ655412 RXK655408:RXV655412 SHG655408:SHR655412 SRC655408:SRN655412 TAY655408:TBJ655412 TKU655408:TLF655412 TUQ655408:TVB655412 UEM655408:UEX655412 UOI655408:UOT655412 UYE655408:UYP655412 VIA655408:VIL655412 VRW655408:VSH655412 WBS655408:WCD655412 WLO655408:WLZ655412 WVK655408:WVV655412 SU720944:TF720948 ACQ720944:ADB720948 AMM720944:AMX720948 AWI720944:AWT720948 BGE720944:BGP720948 BQA720944:BQL720948 BZW720944:CAH720948 CJS720944:CKD720948 CTO720944:CTZ720948 DDK720944:DDV720948 DNG720944:DNR720948 DXC720944:DXN720948 EGY720944:EHJ720948 EQU720944:ERF720948 FAQ720944:FBB720948 FKM720944:FKX720948 FUI720944:FUT720948 GEE720944:GEP720948 GOA720944:GOL720948 GXW720944:GYH720948 HHS720944:HID720948 HRO720944:HRZ720948 IBK720944:IBV720948 ILG720944:ILR720948 IVC720944:IVN720948 JEY720944:JFJ720948 JOU720944:JPF720948 JYQ720944:JZB720948 KIM720944:KIX720948 KSI720944:KST720948 LCE720944:LCP720948 LMA720944:LML720948 LVW720944:LWH720948 MFS720944:MGD720948 MPO720944:MPZ720948 MZK720944:MZV720948 NJG720944:NJR720948 NTC720944:NTN720948 OCY720944:ODJ720948 OMU720944:ONF720948 OWQ720944:OXB720948 PGM720944:PGX720948 PQI720944:PQT720948 QAE720944:QAP720948 QKA720944:QKL720948 QTW720944:QUH720948 RDS720944:RED720948 RNO720944:RNZ720948 RXK720944:RXV720948 SHG720944:SHR720948 SRC720944:SRN720948 TAY720944:TBJ720948 TKU720944:TLF720948 TUQ720944:TVB720948 UEM720944:UEX720948 UOI720944:UOT720948 UYE720944:UYP720948 VIA720944:VIL720948 VRW720944:VSH720948 WBS720944:WCD720948 WLO720944:WLZ720948 WVK720944:WVV720948 SU786480:TF786484 ACQ786480:ADB786484 AMM786480:AMX786484 AWI786480:AWT786484 BGE786480:BGP786484 BQA786480:BQL786484 BZW786480:CAH786484 CJS786480:CKD786484 CTO786480:CTZ786484 DDK786480:DDV786484 DNG786480:DNR786484 DXC786480:DXN786484 EGY786480:EHJ786484 EQU786480:ERF786484 FAQ786480:FBB786484 FKM786480:FKX786484 FUI786480:FUT786484 GEE786480:GEP786484 GOA786480:GOL786484 GXW786480:GYH786484 HHS786480:HID786484 HRO786480:HRZ786484 IBK786480:IBV786484 ILG786480:ILR786484 IVC786480:IVN786484 JEY786480:JFJ786484 JOU786480:JPF786484 JYQ786480:JZB786484 KIM786480:KIX786484 KSI786480:KST786484 LCE786480:LCP786484 LMA786480:LML786484 LVW786480:LWH786484 MFS786480:MGD786484 MPO786480:MPZ786484 MZK786480:MZV786484 NJG786480:NJR786484 NTC786480:NTN786484 OCY786480:ODJ786484 OMU786480:ONF786484 OWQ786480:OXB786484 PGM786480:PGX786484 PQI786480:PQT786484 QAE786480:QAP786484 QKA786480:QKL786484 QTW786480:QUH786484 RDS786480:RED786484 RNO786480:RNZ786484 RXK786480:RXV786484 SHG786480:SHR786484 SRC786480:SRN786484 TAY786480:TBJ786484 TKU786480:TLF786484 TUQ786480:TVB786484 UEM786480:UEX786484 UOI786480:UOT786484 UYE786480:UYP786484 VIA786480:VIL786484 VRW786480:VSH786484 WBS786480:WCD786484 WLO786480:WLZ786484 WVK786480:WVV786484 SU852016:TF852020 ACQ852016:ADB852020 AMM852016:AMX852020 AWI852016:AWT852020 BGE852016:BGP852020 BQA852016:BQL852020 BZW852016:CAH852020 CJS852016:CKD852020 CTO852016:CTZ852020 DDK852016:DDV852020 DNG852016:DNR852020 DXC852016:DXN852020 EGY852016:EHJ852020 EQU852016:ERF852020 FAQ852016:FBB852020 FKM852016:FKX852020 FUI852016:FUT852020 GEE852016:GEP852020 GOA852016:GOL852020 GXW852016:GYH852020 HHS852016:HID852020 HRO852016:HRZ852020 IBK852016:IBV852020 ILG852016:ILR852020 IVC852016:IVN852020 JEY852016:JFJ852020 JOU852016:JPF852020 JYQ852016:JZB852020 KIM852016:KIX852020 KSI852016:KST852020 LCE852016:LCP852020 LMA852016:LML852020 LVW852016:LWH852020 MFS852016:MGD852020 MPO852016:MPZ852020 MZK852016:MZV852020 NJG852016:NJR852020 NTC852016:NTN852020 OCY852016:ODJ852020 OMU852016:ONF852020 OWQ852016:OXB852020 PGM852016:PGX852020 PQI852016:PQT852020 QAE852016:QAP852020 QKA852016:QKL852020 QTW852016:QUH852020 RDS852016:RED852020 RNO852016:RNZ852020 RXK852016:RXV852020 SHG852016:SHR852020 SRC852016:SRN852020 TAY852016:TBJ852020 TKU852016:TLF852020 TUQ852016:TVB852020 UEM852016:UEX852020 UOI852016:UOT852020 UYE852016:UYP852020 VIA852016:VIL852020 VRW852016:VSH852020 WBS852016:WCD852020 WLO852016:WLZ852020 WVK852016:WVV852020 SU917552:TF917556 ACQ917552:ADB917556 AMM917552:AMX917556 AWI917552:AWT917556 BGE917552:BGP917556 BQA917552:BQL917556 BZW917552:CAH917556 CJS917552:CKD917556 CTO917552:CTZ917556 DDK917552:DDV917556 DNG917552:DNR917556 DXC917552:DXN917556 EGY917552:EHJ917556 EQU917552:ERF917556 FAQ917552:FBB917556 FKM917552:FKX917556 FUI917552:FUT917556 GEE917552:GEP917556 GOA917552:GOL917556 GXW917552:GYH917556 HHS917552:HID917556 HRO917552:HRZ917556 IBK917552:IBV917556 ILG917552:ILR917556 IVC917552:IVN917556 JEY917552:JFJ917556 JOU917552:JPF917556 JYQ917552:JZB917556 KIM917552:KIX917556 KSI917552:KST917556 LCE917552:LCP917556 LMA917552:LML917556 LVW917552:LWH917556 MFS917552:MGD917556 MPO917552:MPZ917556 MZK917552:MZV917556 NJG917552:NJR917556 NTC917552:NTN917556 OCY917552:ODJ917556 OMU917552:ONF917556 OWQ917552:OXB917556 PGM917552:PGX917556 PQI917552:PQT917556 QAE917552:QAP917556 QKA917552:QKL917556 QTW917552:QUH917556 RDS917552:RED917556 RNO917552:RNZ917556 RXK917552:RXV917556 SHG917552:SHR917556 SRC917552:SRN917556 TAY917552:TBJ917556 TKU917552:TLF917556 TUQ917552:TVB917556 UEM917552:UEX917556 UOI917552:UOT917556 UYE917552:UYP917556 VIA917552:VIL917556 VRW917552:VSH917556 WBS917552:WCD917556 WLO917552:WLZ917556 WVK917552:WVV917556 WVK983088:WVV983092 SU983088:TF983092 ACQ983088:ADB983092 AMM983088:AMX983092 AWI983088:AWT983092 BGE983088:BGP983092 BQA983088:BQL983092 BZW983088:CAH983092 CJS983088:CKD983092 CTO983088:CTZ983092 DDK983088:DDV983092 DNG983088:DNR983092 DXC983088:DXN983092 EGY983088:EHJ983092 EQU983088:ERF983092 FAQ983088:FBB983092 FKM983088:FKX983092 FUI983088:FUT983092 GEE983088:GEP983092 GOA983088:GOL983092 GXW983088:GYH983092 HHS983088:HID983092 HRO983088:HRZ983092 IBK983088:IBV983092 ILG983088:ILR983092 IVC983088:IVN983092 JEY983088:JFJ983092 JOU983088:JPF983092 JYQ983088:JZB983092 KIM983088:KIX983092 KSI983088:KST983092 LCE983088:LCP983092 LMA983088:LML983092 LVW983088:LWH983092 MFS983088:MGD983092 MPO983088:MPZ983092 MZK983088:MZV983092 NJG983088:NJR983092 NTC983088:NTN983092 OCY983088:ODJ983092 OMU983088:ONF983092 OWQ983088:OXB983092 PGM983088:PGX983092 PQI983088:PQT983092 QAE983088:QAP983092 QKA983088:QKL983092 QTW983088:QUH983092 RDS983088:RED983092 RNO983088:RNZ983092 RXK983088:RXV983092 SHG983088:SHR983092 SRC983088:SRN983092 TAY983088:TBJ983092 TKU983088:TLF983092 TUQ983088:TVB983092 UEM983088:UEX983092 UOI983088:UOT983092 UYE983088:UYP983092 VIA983088:VIL983092 VRW983088:VSH983092 WBS983088:WCD983092 WLO983088:WLZ983092 IY50:IY54 C917556:M917560 C852020:M852024 C786484:M786488 C720948:M720952 C655412:M655416 C589876:M589880 C524340:M524344 C458804:M458808 C393268:M393272 C327732:M327736 C262196:M262200 C196660:M196664 C131124:M131128 C65588:M65592 C983092:M983096 IY983092:IY983096 IZ983088:JJ983092 IY917556:IY917560 IZ917552:JJ917556 IY852020:IY852024 IZ852016:JJ852020 IY786484:IY786488 IZ786480:JJ786484 IY720948:IY720952 IZ720944:JJ720948 IY655412:IY655416 IZ655408:JJ655412 IY589876:IY589880 IZ589872:JJ589876 IY524340:IY524344 IZ524336:JJ524340 IY458804:IY458808 IZ458800:JJ458804 IY393268:IY393272 IZ393264:JJ393268 IY327732:IY327736 IZ327728:JJ327732 IY262196:IY262200 IZ262192:JJ262196 IY196660:IY196664 IZ196656:JJ196660 IY131124:IY131128 IZ131120:JJ131124 IY65588:IY65592 IZ65584:JJ65588 IZ46:JJ50 C50:M54"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JI65542:JI65581 TE65542:TE65581 ADA65542:ADA65581 AMW65542:AMW65581 AWS65542:AWS65581 BGO65542:BGO65581 BQK65542:BQK65581 CAG65542:CAG65581 CKC65542:CKC65581 CTY65542:CTY65581 DDU65542:DDU65581 DNQ65542:DNQ65581 DXM65542:DXM65581 EHI65542:EHI65581 ERE65542:ERE65581 FBA65542:FBA65581 FKW65542:FKW65581 FUS65542:FUS65581 GEO65542:GEO65581 GOK65542:GOK65581 GYG65542:GYG65581 HIC65542:HIC65581 HRY65542:HRY65581 IBU65542:IBU65581 ILQ65542:ILQ65581 IVM65542:IVM65581 JFI65542:JFI65581 JPE65542:JPE65581 JZA65542:JZA65581 KIW65542:KIW65581 KSS65542:KSS65581 LCO65542:LCO65581 LMK65542:LMK65581 LWG65542:LWG65581 MGC65542:MGC65581 MPY65542:MPY65581 MZU65542:MZU65581 NJQ65542:NJQ65581 NTM65542:NTM65581 ODI65542:ODI65581 ONE65542:ONE65581 OXA65542:OXA65581 PGW65542:PGW65581 PQS65542:PQS65581 QAO65542:QAO65581 QKK65542:QKK65581 QUG65542:QUG65581 REC65542:REC65581 RNY65542:RNY65581 RXU65542:RXU65581 SHQ65542:SHQ65581 SRM65542:SRM65581 TBI65542:TBI65581 TLE65542:TLE65581 TVA65542:TVA65581 UEW65542:UEW65581 UOS65542:UOS65581 UYO65542:UYO65581 VIK65542:VIK65581 VSG65542:VSG65581 WCC65542:WCC65581 WLY65542:WLY65581 WVU65542:WVU65581 JI131078:JI131117 TE131078:TE131117 ADA131078:ADA131117 AMW131078:AMW131117 AWS131078:AWS131117 BGO131078:BGO131117 BQK131078:BQK131117 CAG131078:CAG131117 CKC131078:CKC131117 CTY131078:CTY131117 DDU131078:DDU131117 DNQ131078:DNQ131117 DXM131078:DXM131117 EHI131078:EHI131117 ERE131078:ERE131117 FBA131078:FBA131117 FKW131078:FKW131117 FUS131078:FUS131117 GEO131078:GEO131117 GOK131078:GOK131117 GYG131078:GYG131117 HIC131078:HIC131117 HRY131078:HRY131117 IBU131078:IBU131117 ILQ131078:ILQ131117 IVM131078:IVM131117 JFI131078:JFI131117 JPE131078:JPE131117 JZA131078:JZA131117 KIW131078:KIW131117 KSS131078:KSS131117 LCO131078:LCO131117 LMK131078:LMK131117 LWG131078:LWG131117 MGC131078:MGC131117 MPY131078:MPY131117 MZU131078:MZU131117 NJQ131078:NJQ131117 NTM131078:NTM131117 ODI131078:ODI131117 ONE131078:ONE131117 OXA131078:OXA131117 PGW131078:PGW131117 PQS131078:PQS131117 QAO131078:QAO131117 QKK131078:QKK131117 QUG131078:QUG131117 REC131078:REC131117 RNY131078:RNY131117 RXU131078:RXU131117 SHQ131078:SHQ131117 SRM131078:SRM131117 TBI131078:TBI131117 TLE131078:TLE131117 TVA131078:TVA131117 UEW131078:UEW131117 UOS131078:UOS131117 UYO131078:UYO131117 VIK131078:VIK131117 VSG131078:VSG131117 WCC131078:WCC131117 WLY131078:WLY131117 WVU131078:WVU131117 JI196614:JI196653 TE196614:TE196653 ADA196614:ADA196653 AMW196614:AMW196653 AWS196614:AWS196653 BGO196614:BGO196653 BQK196614:BQK196653 CAG196614:CAG196653 CKC196614:CKC196653 CTY196614:CTY196653 DDU196614:DDU196653 DNQ196614:DNQ196653 DXM196614:DXM196653 EHI196614:EHI196653 ERE196614:ERE196653 FBA196614:FBA196653 FKW196614:FKW196653 FUS196614:FUS196653 GEO196614:GEO196653 GOK196614:GOK196653 GYG196614:GYG196653 HIC196614:HIC196653 HRY196614:HRY196653 IBU196614:IBU196653 ILQ196614:ILQ196653 IVM196614:IVM196653 JFI196614:JFI196653 JPE196614:JPE196653 JZA196614:JZA196653 KIW196614:KIW196653 KSS196614:KSS196653 LCO196614:LCO196653 LMK196614:LMK196653 LWG196614:LWG196653 MGC196614:MGC196653 MPY196614:MPY196653 MZU196614:MZU196653 NJQ196614:NJQ196653 NTM196614:NTM196653 ODI196614:ODI196653 ONE196614:ONE196653 OXA196614:OXA196653 PGW196614:PGW196653 PQS196614:PQS196653 QAO196614:QAO196653 QKK196614:QKK196653 QUG196614:QUG196653 REC196614:REC196653 RNY196614:RNY196653 RXU196614:RXU196653 SHQ196614:SHQ196653 SRM196614:SRM196653 TBI196614:TBI196653 TLE196614:TLE196653 TVA196614:TVA196653 UEW196614:UEW196653 UOS196614:UOS196653 UYO196614:UYO196653 VIK196614:VIK196653 VSG196614:VSG196653 WCC196614:WCC196653 WLY196614:WLY196653 WVU196614:WVU196653 JI262150:JI262189 TE262150:TE262189 ADA262150:ADA262189 AMW262150:AMW262189 AWS262150:AWS262189 BGO262150:BGO262189 BQK262150:BQK262189 CAG262150:CAG262189 CKC262150:CKC262189 CTY262150:CTY262189 DDU262150:DDU262189 DNQ262150:DNQ262189 DXM262150:DXM262189 EHI262150:EHI262189 ERE262150:ERE262189 FBA262150:FBA262189 FKW262150:FKW262189 FUS262150:FUS262189 GEO262150:GEO262189 GOK262150:GOK262189 GYG262150:GYG262189 HIC262150:HIC262189 HRY262150:HRY262189 IBU262150:IBU262189 ILQ262150:ILQ262189 IVM262150:IVM262189 JFI262150:JFI262189 JPE262150:JPE262189 JZA262150:JZA262189 KIW262150:KIW262189 KSS262150:KSS262189 LCO262150:LCO262189 LMK262150:LMK262189 LWG262150:LWG262189 MGC262150:MGC262189 MPY262150:MPY262189 MZU262150:MZU262189 NJQ262150:NJQ262189 NTM262150:NTM262189 ODI262150:ODI262189 ONE262150:ONE262189 OXA262150:OXA262189 PGW262150:PGW262189 PQS262150:PQS262189 QAO262150:QAO262189 QKK262150:QKK262189 QUG262150:QUG262189 REC262150:REC262189 RNY262150:RNY262189 RXU262150:RXU262189 SHQ262150:SHQ262189 SRM262150:SRM262189 TBI262150:TBI262189 TLE262150:TLE262189 TVA262150:TVA262189 UEW262150:UEW262189 UOS262150:UOS262189 UYO262150:UYO262189 VIK262150:VIK262189 VSG262150:VSG262189 WCC262150:WCC262189 WLY262150:WLY262189 WVU262150:WVU262189 JI327686:JI327725 TE327686:TE327725 ADA327686:ADA327725 AMW327686:AMW327725 AWS327686:AWS327725 BGO327686:BGO327725 BQK327686:BQK327725 CAG327686:CAG327725 CKC327686:CKC327725 CTY327686:CTY327725 DDU327686:DDU327725 DNQ327686:DNQ327725 DXM327686:DXM327725 EHI327686:EHI327725 ERE327686:ERE327725 FBA327686:FBA327725 FKW327686:FKW327725 FUS327686:FUS327725 GEO327686:GEO327725 GOK327686:GOK327725 GYG327686:GYG327725 HIC327686:HIC327725 HRY327686:HRY327725 IBU327686:IBU327725 ILQ327686:ILQ327725 IVM327686:IVM327725 JFI327686:JFI327725 JPE327686:JPE327725 JZA327686:JZA327725 KIW327686:KIW327725 KSS327686:KSS327725 LCO327686:LCO327725 LMK327686:LMK327725 LWG327686:LWG327725 MGC327686:MGC327725 MPY327686:MPY327725 MZU327686:MZU327725 NJQ327686:NJQ327725 NTM327686:NTM327725 ODI327686:ODI327725 ONE327686:ONE327725 OXA327686:OXA327725 PGW327686:PGW327725 PQS327686:PQS327725 QAO327686:QAO327725 QKK327686:QKK327725 QUG327686:QUG327725 REC327686:REC327725 RNY327686:RNY327725 RXU327686:RXU327725 SHQ327686:SHQ327725 SRM327686:SRM327725 TBI327686:TBI327725 TLE327686:TLE327725 TVA327686:TVA327725 UEW327686:UEW327725 UOS327686:UOS327725 UYO327686:UYO327725 VIK327686:VIK327725 VSG327686:VSG327725 WCC327686:WCC327725 WLY327686:WLY327725 WVU327686:WVU327725 JI393222:JI393261 TE393222:TE393261 ADA393222:ADA393261 AMW393222:AMW393261 AWS393222:AWS393261 BGO393222:BGO393261 BQK393222:BQK393261 CAG393222:CAG393261 CKC393222:CKC393261 CTY393222:CTY393261 DDU393222:DDU393261 DNQ393222:DNQ393261 DXM393222:DXM393261 EHI393222:EHI393261 ERE393222:ERE393261 FBA393222:FBA393261 FKW393222:FKW393261 FUS393222:FUS393261 GEO393222:GEO393261 GOK393222:GOK393261 GYG393222:GYG393261 HIC393222:HIC393261 HRY393222:HRY393261 IBU393222:IBU393261 ILQ393222:ILQ393261 IVM393222:IVM393261 JFI393222:JFI393261 JPE393222:JPE393261 JZA393222:JZA393261 KIW393222:KIW393261 KSS393222:KSS393261 LCO393222:LCO393261 LMK393222:LMK393261 LWG393222:LWG393261 MGC393222:MGC393261 MPY393222:MPY393261 MZU393222:MZU393261 NJQ393222:NJQ393261 NTM393222:NTM393261 ODI393222:ODI393261 ONE393222:ONE393261 OXA393222:OXA393261 PGW393222:PGW393261 PQS393222:PQS393261 QAO393222:QAO393261 QKK393222:QKK393261 QUG393222:QUG393261 REC393222:REC393261 RNY393222:RNY393261 RXU393222:RXU393261 SHQ393222:SHQ393261 SRM393222:SRM393261 TBI393222:TBI393261 TLE393222:TLE393261 TVA393222:TVA393261 UEW393222:UEW393261 UOS393222:UOS393261 UYO393222:UYO393261 VIK393222:VIK393261 VSG393222:VSG393261 WCC393222:WCC393261 WLY393222:WLY393261 WVU393222:WVU393261 JI458758:JI458797 TE458758:TE458797 ADA458758:ADA458797 AMW458758:AMW458797 AWS458758:AWS458797 BGO458758:BGO458797 BQK458758:BQK458797 CAG458758:CAG458797 CKC458758:CKC458797 CTY458758:CTY458797 DDU458758:DDU458797 DNQ458758:DNQ458797 DXM458758:DXM458797 EHI458758:EHI458797 ERE458758:ERE458797 FBA458758:FBA458797 FKW458758:FKW458797 FUS458758:FUS458797 GEO458758:GEO458797 GOK458758:GOK458797 GYG458758:GYG458797 HIC458758:HIC458797 HRY458758:HRY458797 IBU458758:IBU458797 ILQ458758:ILQ458797 IVM458758:IVM458797 JFI458758:JFI458797 JPE458758:JPE458797 JZA458758:JZA458797 KIW458758:KIW458797 KSS458758:KSS458797 LCO458758:LCO458797 LMK458758:LMK458797 LWG458758:LWG458797 MGC458758:MGC458797 MPY458758:MPY458797 MZU458758:MZU458797 NJQ458758:NJQ458797 NTM458758:NTM458797 ODI458758:ODI458797 ONE458758:ONE458797 OXA458758:OXA458797 PGW458758:PGW458797 PQS458758:PQS458797 QAO458758:QAO458797 QKK458758:QKK458797 QUG458758:QUG458797 REC458758:REC458797 RNY458758:RNY458797 RXU458758:RXU458797 SHQ458758:SHQ458797 SRM458758:SRM458797 TBI458758:TBI458797 TLE458758:TLE458797 TVA458758:TVA458797 UEW458758:UEW458797 UOS458758:UOS458797 UYO458758:UYO458797 VIK458758:VIK458797 VSG458758:VSG458797 WCC458758:WCC458797 WLY458758:WLY458797 WVU458758:WVU458797 JI524294:JI524333 TE524294:TE524333 ADA524294:ADA524333 AMW524294:AMW524333 AWS524294:AWS524333 BGO524294:BGO524333 BQK524294:BQK524333 CAG524294:CAG524333 CKC524294:CKC524333 CTY524294:CTY524333 DDU524294:DDU524333 DNQ524294:DNQ524333 DXM524294:DXM524333 EHI524294:EHI524333 ERE524294:ERE524333 FBA524294:FBA524333 FKW524294:FKW524333 FUS524294:FUS524333 GEO524294:GEO524333 GOK524294:GOK524333 GYG524294:GYG524333 HIC524294:HIC524333 HRY524294:HRY524333 IBU524294:IBU524333 ILQ524294:ILQ524333 IVM524294:IVM524333 JFI524294:JFI524333 JPE524294:JPE524333 JZA524294:JZA524333 KIW524294:KIW524333 KSS524294:KSS524333 LCO524294:LCO524333 LMK524294:LMK524333 LWG524294:LWG524333 MGC524294:MGC524333 MPY524294:MPY524333 MZU524294:MZU524333 NJQ524294:NJQ524333 NTM524294:NTM524333 ODI524294:ODI524333 ONE524294:ONE524333 OXA524294:OXA524333 PGW524294:PGW524333 PQS524294:PQS524333 QAO524294:QAO524333 QKK524294:QKK524333 QUG524294:QUG524333 REC524294:REC524333 RNY524294:RNY524333 RXU524294:RXU524333 SHQ524294:SHQ524333 SRM524294:SRM524333 TBI524294:TBI524333 TLE524294:TLE524333 TVA524294:TVA524333 UEW524294:UEW524333 UOS524294:UOS524333 UYO524294:UYO524333 VIK524294:VIK524333 VSG524294:VSG524333 WCC524294:WCC524333 WLY524294:WLY524333 WVU524294:WVU524333 JI589830:JI589869 TE589830:TE589869 ADA589830:ADA589869 AMW589830:AMW589869 AWS589830:AWS589869 BGO589830:BGO589869 BQK589830:BQK589869 CAG589830:CAG589869 CKC589830:CKC589869 CTY589830:CTY589869 DDU589830:DDU589869 DNQ589830:DNQ589869 DXM589830:DXM589869 EHI589830:EHI589869 ERE589830:ERE589869 FBA589830:FBA589869 FKW589830:FKW589869 FUS589830:FUS589869 GEO589830:GEO589869 GOK589830:GOK589869 GYG589830:GYG589869 HIC589830:HIC589869 HRY589830:HRY589869 IBU589830:IBU589869 ILQ589830:ILQ589869 IVM589830:IVM589869 JFI589830:JFI589869 JPE589830:JPE589869 JZA589830:JZA589869 KIW589830:KIW589869 KSS589830:KSS589869 LCO589830:LCO589869 LMK589830:LMK589869 LWG589830:LWG589869 MGC589830:MGC589869 MPY589830:MPY589869 MZU589830:MZU589869 NJQ589830:NJQ589869 NTM589830:NTM589869 ODI589830:ODI589869 ONE589830:ONE589869 OXA589830:OXA589869 PGW589830:PGW589869 PQS589830:PQS589869 QAO589830:QAO589869 QKK589830:QKK589869 QUG589830:QUG589869 REC589830:REC589869 RNY589830:RNY589869 RXU589830:RXU589869 SHQ589830:SHQ589869 SRM589830:SRM589869 TBI589830:TBI589869 TLE589830:TLE589869 TVA589830:TVA589869 UEW589830:UEW589869 UOS589830:UOS589869 UYO589830:UYO589869 VIK589830:VIK589869 VSG589830:VSG589869 WCC589830:WCC589869 WLY589830:WLY589869 WVU589830:WVU589869 JI655366:JI655405 TE655366:TE655405 ADA655366:ADA655405 AMW655366:AMW655405 AWS655366:AWS655405 BGO655366:BGO655405 BQK655366:BQK655405 CAG655366:CAG655405 CKC655366:CKC655405 CTY655366:CTY655405 DDU655366:DDU655405 DNQ655366:DNQ655405 DXM655366:DXM655405 EHI655366:EHI655405 ERE655366:ERE655405 FBA655366:FBA655405 FKW655366:FKW655405 FUS655366:FUS655405 GEO655366:GEO655405 GOK655366:GOK655405 GYG655366:GYG655405 HIC655366:HIC655405 HRY655366:HRY655405 IBU655366:IBU655405 ILQ655366:ILQ655405 IVM655366:IVM655405 JFI655366:JFI655405 JPE655366:JPE655405 JZA655366:JZA655405 KIW655366:KIW655405 KSS655366:KSS655405 LCO655366:LCO655405 LMK655366:LMK655405 LWG655366:LWG655405 MGC655366:MGC655405 MPY655366:MPY655405 MZU655366:MZU655405 NJQ655366:NJQ655405 NTM655366:NTM655405 ODI655366:ODI655405 ONE655366:ONE655405 OXA655366:OXA655405 PGW655366:PGW655405 PQS655366:PQS655405 QAO655366:QAO655405 QKK655366:QKK655405 QUG655366:QUG655405 REC655366:REC655405 RNY655366:RNY655405 RXU655366:RXU655405 SHQ655366:SHQ655405 SRM655366:SRM655405 TBI655366:TBI655405 TLE655366:TLE655405 TVA655366:TVA655405 UEW655366:UEW655405 UOS655366:UOS655405 UYO655366:UYO655405 VIK655366:VIK655405 VSG655366:VSG655405 WCC655366:WCC655405 WLY655366:WLY655405 WVU655366:WVU655405 JI720902:JI720941 TE720902:TE720941 ADA720902:ADA720941 AMW720902:AMW720941 AWS720902:AWS720941 BGO720902:BGO720941 BQK720902:BQK720941 CAG720902:CAG720941 CKC720902:CKC720941 CTY720902:CTY720941 DDU720902:DDU720941 DNQ720902:DNQ720941 DXM720902:DXM720941 EHI720902:EHI720941 ERE720902:ERE720941 FBA720902:FBA720941 FKW720902:FKW720941 FUS720902:FUS720941 GEO720902:GEO720941 GOK720902:GOK720941 GYG720902:GYG720941 HIC720902:HIC720941 HRY720902:HRY720941 IBU720902:IBU720941 ILQ720902:ILQ720941 IVM720902:IVM720941 JFI720902:JFI720941 JPE720902:JPE720941 JZA720902:JZA720941 KIW720902:KIW720941 KSS720902:KSS720941 LCO720902:LCO720941 LMK720902:LMK720941 LWG720902:LWG720941 MGC720902:MGC720941 MPY720902:MPY720941 MZU720902:MZU720941 NJQ720902:NJQ720941 NTM720902:NTM720941 ODI720902:ODI720941 ONE720902:ONE720941 OXA720902:OXA720941 PGW720902:PGW720941 PQS720902:PQS720941 QAO720902:QAO720941 QKK720902:QKK720941 QUG720902:QUG720941 REC720902:REC720941 RNY720902:RNY720941 RXU720902:RXU720941 SHQ720902:SHQ720941 SRM720902:SRM720941 TBI720902:TBI720941 TLE720902:TLE720941 TVA720902:TVA720941 UEW720902:UEW720941 UOS720902:UOS720941 UYO720902:UYO720941 VIK720902:VIK720941 VSG720902:VSG720941 WCC720902:WCC720941 WLY720902:WLY720941 WVU720902:WVU720941 JI786438:JI786477 TE786438:TE786477 ADA786438:ADA786477 AMW786438:AMW786477 AWS786438:AWS786477 BGO786438:BGO786477 BQK786438:BQK786477 CAG786438:CAG786477 CKC786438:CKC786477 CTY786438:CTY786477 DDU786438:DDU786477 DNQ786438:DNQ786477 DXM786438:DXM786477 EHI786438:EHI786477 ERE786438:ERE786477 FBA786438:FBA786477 FKW786438:FKW786477 FUS786438:FUS786477 GEO786438:GEO786477 GOK786438:GOK786477 GYG786438:GYG786477 HIC786438:HIC786477 HRY786438:HRY786477 IBU786438:IBU786477 ILQ786438:ILQ786477 IVM786438:IVM786477 JFI786438:JFI786477 JPE786438:JPE786477 JZA786438:JZA786477 KIW786438:KIW786477 KSS786438:KSS786477 LCO786438:LCO786477 LMK786438:LMK786477 LWG786438:LWG786477 MGC786438:MGC786477 MPY786438:MPY786477 MZU786438:MZU786477 NJQ786438:NJQ786477 NTM786438:NTM786477 ODI786438:ODI786477 ONE786438:ONE786477 OXA786438:OXA786477 PGW786438:PGW786477 PQS786438:PQS786477 QAO786438:QAO786477 QKK786438:QKK786477 QUG786438:QUG786477 REC786438:REC786477 RNY786438:RNY786477 RXU786438:RXU786477 SHQ786438:SHQ786477 SRM786438:SRM786477 TBI786438:TBI786477 TLE786438:TLE786477 TVA786438:TVA786477 UEW786438:UEW786477 UOS786438:UOS786477 UYO786438:UYO786477 VIK786438:VIK786477 VSG786438:VSG786477 WCC786438:WCC786477 WLY786438:WLY786477 WVU786438:WVU786477 JI851974:JI852013 TE851974:TE852013 ADA851974:ADA852013 AMW851974:AMW852013 AWS851974:AWS852013 BGO851974:BGO852013 BQK851974:BQK852013 CAG851974:CAG852013 CKC851974:CKC852013 CTY851974:CTY852013 DDU851974:DDU852013 DNQ851974:DNQ852013 DXM851974:DXM852013 EHI851974:EHI852013 ERE851974:ERE852013 FBA851974:FBA852013 FKW851974:FKW852013 FUS851974:FUS852013 GEO851974:GEO852013 GOK851974:GOK852013 GYG851974:GYG852013 HIC851974:HIC852013 HRY851974:HRY852013 IBU851974:IBU852013 ILQ851974:ILQ852013 IVM851974:IVM852013 JFI851974:JFI852013 JPE851974:JPE852013 JZA851974:JZA852013 KIW851974:KIW852013 KSS851974:KSS852013 LCO851974:LCO852013 LMK851974:LMK852013 LWG851974:LWG852013 MGC851974:MGC852013 MPY851974:MPY852013 MZU851974:MZU852013 NJQ851974:NJQ852013 NTM851974:NTM852013 ODI851974:ODI852013 ONE851974:ONE852013 OXA851974:OXA852013 PGW851974:PGW852013 PQS851974:PQS852013 QAO851974:QAO852013 QKK851974:QKK852013 QUG851974:QUG852013 REC851974:REC852013 RNY851974:RNY852013 RXU851974:RXU852013 SHQ851974:SHQ852013 SRM851974:SRM852013 TBI851974:TBI852013 TLE851974:TLE852013 TVA851974:TVA852013 UEW851974:UEW852013 UOS851974:UOS852013 UYO851974:UYO852013 VIK851974:VIK852013 VSG851974:VSG852013 WCC851974:WCC852013 WLY851974:WLY852013 WVU851974:WVU852013 JI917510:JI917549 TE917510:TE917549 ADA917510:ADA917549 AMW917510:AMW917549 AWS917510:AWS917549 BGO917510:BGO917549 BQK917510:BQK917549 CAG917510:CAG917549 CKC917510:CKC917549 CTY917510:CTY917549 DDU917510:DDU917549 DNQ917510:DNQ917549 DXM917510:DXM917549 EHI917510:EHI917549 ERE917510:ERE917549 FBA917510:FBA917549 FKW917510:FKW917549 FUS917510:FUS917549 GEO917510:GEO917549 GOK917510:GOK917549 GYG917510:GYG917549 HIC917510:HIC917549 HRY917510:HRY917549 IBU917510:IBU917549 ILQ917510:ILQ917549 IVM917510:IVM917549 JFI917510:JFI917549 JPE917510:JPE917549 JZA917510:JZA917549 KIW917510:KIW917549 KSS917510:KSS917549 LCO917510:LCO917549 LMK917510:LMK917549 LWG917510:LWG917549 MGC917510:MGC917549 MPY917510:MPY917549 MZU917510:MZU917549 NJQ917510:NJQ917549 NTM917510:NTM917549 ODI917510:ODI917549 ONE917510:ONE917549 OXA917510:OXA917549 PGW917510:PGW917549 PQS917510:PQS917549 QAO917510:QAO917549 QKK917510:QKK917549 QUG917510:QUG917549 REC917510:REC917549 RNY917510:RNY917549 RXU917510:RXU917549 SHQ917510:SHQ917549 SRM917510:SRM917549 TBI917510:TBI917549 TLE917510:TLE917549 TVA917510:TVA917549 UEW917510:UEW917549 UOS917510:UOS917549 UYO917510:UYO917549 VIK917510:VIK917549 VSG917510:VSG917549 WCC917510:WCC917549 WLY917510:WLY917549 WVU917510:WVU917549 JI983046:JI983085 TE983046:TE983085 ADA983046:ADA983085 AMW983046:AMW983085 AWS983046:AWS983085 BGO983046:BGO983085 BQK983046:BQK983085 CAG983046:CAG983085 CKC983046:CKC983085 CTY983046:CTY983085 DDU983046:DDU983085 DNQ983046:DNQ983085 DXM983046:DXM983085 EHI983046:EHI983085 ERE983046:ERE983085 FBA983046:FBA983085 FKW983046:FKW983085 FUS983046:FUS983085 GEO983046:GEO983085 GOK983046:GOK983085 GYG983046:GYG983085 HIC983046:HIC983085 HRY983046:HRY983085 IBU983046:IBU983085 ILQ983046:ILQ983085 IVM983046:IVM983085 JFI983046:JFI983085 JPE983046:JPE983085 JZA983046:JZA983085 KIW983046:KIW983085 KSS983046:KSS983085 LCO983046:LCO983085 LMK983046:LMK983085 LWG983046:LWG983085 MGC983046:MGC983085 MPY983046:MPY983085 MZU983046:MZU983085 NJQ983046:NJQ983085 NTM983046:NTM983085 ODI983046:ODI983085 ONE983046:ONE983085 OXA983046:OXA983085 PGW983046:PGW983085 PQS983046:PQS983085 QAO983046:QAO983085 QKK983046:QKK983085 QUG983046:QUG983085 REC983046:REC983085 RNY983046:RNY983085 RXU983046:RXU983085 SHQ983046:SHQ983085 SRM983046:SRM983085 TBI983046:TBI983085 TLE983046:TLE983085 TVA983046:TVA983085 UEW983046:UEW983085 UOS983046:UOS983085 UYO983046:UYO983085 VIK983046:VIK983085 VSG983046:VSG983085 WCC983046:WCC983085 WLY983046:WLY983085 WVU983046:WVU983085 WVU5:WVU43 WLY5:WLY43 WCC5:WCC43 VSG5:VSG43 VIK5:VIK43 UYO5:UYO43 UOS5:UOS43 UEW5:UEW43 TVA5:TVA43 TLE5:TLE43 TBI5:TBI43 SRM5:SRM43 SHQ5:SHQ43 RXU5:RXU43 RNY5:RNY43 REC5:REC43 QUG5:QUG43 QKK5:QKK43 QAO5:QAO43 PQS5:PQS43 PGW5:PGW43 OXA5:OXA43 ONE5:ONE43 ODI5:ODI43 NTM5:NTM43 NJQ5:NJQ43 MZU5:MZU43 MPY5:MPY43 MGC5:MGC43 LWG5:LWG43 LMK5:LMK43 LCO5:LCO43 KSS5:KSS43 KIW5:KIW43 JZA5:JZA43 JPE5:JPE43 JFI5:JFI43 IVM5:IVM43 ILQ5:ILQ43 IBU5:IBU43 HRY5:HRY43 HIC5:HIC43 GYG5:GYG43 GOK5:GOK43 GEO5:GEO43 FUS5:FUS43 FKW5:FKW43 FBA5:FBA43 ERE5:ERE43 EHI5:EHI43 DXM5:DXM43 DNQ5:DNQ43 DDU5:DDU43 CTY5:CTY43 CKC5:CKC43 CAG5:CAG43 BQK5:BQK43 BGO5:BGO43 AWS5:AWS43 AMW5:AMW43 ADA5:ADA43 TE5:TE43 JI5:JI43">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="يجب أن تكون القيمة بين 0 و 5" sqref="SU46:TF50 ACQ46:ADB50 AMM46:AMX50 AWI46:AWT50 BGE46:BGP50 BQA46:BQL50 BZW46:CAH50 CJS46:CKD50 CTO46:CTZ50 DDK46:DDV50 DNG46:DNR50 DXC46:DXN50 EGY46:EHJ50 EQU46:ERF50 FAQ46:FBB50 FKM46:FKX50 FUI46:FUT50 GEE46:GEP50 GOA46:GOL50 GXW46:GYH50 HHS46:HID50 HRO46:HRZ50 IBK46:IBV50 ILG46:ILR50 IVC46:IVN50 JEY46:JFJ50 JOU46:JPF50 JYQ46:JZB50 KIM46:KIX50 KSI46:KST50 LCE46:LCP50 LMA46:LML50 LVW46:LWH50 MFS46:MGD50 MPO46:MPZ50 MZK46:MZV50 NJG46:NJR50 NTC46:NTN50 OCY46:ODJ50 OMU46:ONF50 OWQ46:OXB50 PGM46:PGX50 PQI46:PQT50 QAE46:QAP50 QKA46:QKL50 QTW46:QUH50 RDS46:RED50 RNO46:RNZ50 RXK46:RXV50 SHG46:SHR50 SRC46:SRN50 TAY46:TBJ50 TKU46:TLF50 TUQ46:TVB50 UEM46:UEX50 UOI46:UOT50 UYE46:UYP50 VIA46:VIL50 VRW46:VSH50 WBS46:WCD50 WLO46:WLZ50 WVK46:WVV50 SU65584:TF65588 ACQ65584:ADB65588 AMM65584:AMX65588 AWI65584:AWT65588 BGE65584:BGP65588 BQA65584:BQL65588 BZW65584:CAH65588 CJS65584:CKD65588 CTO65584:CTZ65588 DDK65584:DDV65588 DNG65584:DNR65588 DXC65584:DXN65588 EGY65584:EHJ65588 EQU65584:ERF65588 FAQ65584:FBB65588 FKM65584:FKX65588 FUI65584:FUT65588 GEE65584:GEP65588 GOA65584:GOL65588 GXW65584:GYH65588 HHS65584:HID65588 HRO65584:HRZ65588 IBK65584:IBV65588 ILG65584:ILR65588 IVC65584:IVN65588 JEY65584:JFJ65588 JOU65584:JPF65588 JYQ65584:JZB65588 KIM65584:KIX65588 KSI65584:KST65588 LCE65584:LCP65588 LMA65584:LML65588 LVW65584:LWH65588 MFS65584:MGD65588 MPO65584:MPZ65588 MZK65584:MZV65588 NJG65584:NJR65588 NTC65584:NTN65588 OCY65584:ODJ65588 OMU65584:ONF65588 OWQ65584:OXB65588 PGM65584:PGX65588 PQI65584:PQT65588 QAE65584:QAP65588 QKA65584:QKL65588 QTW65584:QUH65588 RDS65584:RED65588 RNO65584:RNZ65588 RXK65584:RXV65588 SHG65584:SHR65588 SRC65584:SRN65588 TAY65584:TBJ65588 TKU65584:TLF65588 TUQ65584:TVB65588 UEM65584:UEX65588 UOI65584:UOT65588 UYE65584:UYP65588 VIA65584:VIL65588 VRW65584:VSH65588 WBS65584:WCD65588 WLO65584:WLZ65588 WVK65584:WVV65588 SU131120:TF131124 ACQ131120:ADB131124 AMM131120:AMX131124 AWI131120:AWT131124 BGE131120:BGP131124 BQA131120:BQL131124 BZW131120:CAH131124 CJS131120:CKD131124 CTO131120:CTZ131124 DDK131120:DDV131124 DNG131120:DNR131124 DXC131120:DXN131124 EGY131120:EHJ131124 EQU131120:ERF131124 FAQ131120:FBB131124 FKM131120:FKX131124 FUI131120:FUT131124 GEE131120:GEP131124 GOA131120:GOL131124 GXW131120:GYH131124 HHS131120:HID131124 HRO131120:HRZ131124 IBK131120:IBV131124 ILG131120:ILR131124 IVC131120:IVN131124 JEY131120:JFJ131124 JOU131120:JPF131124 JYQ131120:JZB131124 KIM131120:KIX131124 KSI131120:KST131124 LCE131120:LCP131124 LMA131120:LML131124 LVW131120:LWH131124 MFS131120:MGD131124 MPO131120:MPZ131124 MZK131120:MZV131124 NJG131120:NJR131124 NTC131120:NTN131124 OCY131120:ODJ131124 OMU131120:ONF131124 OWQ131120:OXB131124 PGM131120:PGX131124 PQI131120:PQT131124 QAE131120:QAP131124 QKA131120:QKL131124 QTW131120:QUH131124 RDS131120:RED131124 RNO131120:RNZ131124 RXK131120:RXV131124 SHG131120:SHR131124 SRC131120:SRN131124 TAY131120:TBJ131124 TKU131120:TLF131124 TUQ131120:TVB131124 UEM131120:UEX131124 UOI131120:UOT131124 UYE131120:UYP131124 VIA131120:VIL131124 VRW131120:VSH131124 WBS131120:WCD131124 WLO131120:WLZ131124 WVK131120:WVV131124 SU196656:TF196660 ACQ196656:ADB196660 AMM196656:AMX196660 AWI196656:AWT196660 BGE196656:BGP196660 BQA196656:BQL196660 BZW196656:CAH196660 CJS196656:CKD196660 CTO196656:CTZ196660 DDK196656:DDV196660 DNG196656:DNR196660 DXC196656:DXN196660 EGY196656:EHJ196660 EQU196656:ERF196660 FAQ196656:FBB196660 FKM196656:FKX196660 FUI196656:FUT196660 GEE196656:GEP196660 GOA196656:GOL196660 GXW196656:GYH196660 HHS196656:HID196660 HRO196656:HRZ196660 IBK196656:IBV196660 ILG196656:ILR196660 IVC196656:IVN196660 JEY196656:JFJ196660 JOU196656:JPF196660 JYQ196656:JZB196660 KIM196656:KIX196660 KSI196656:KST196660 LCE196656:LCP196660 LMA196656:LML196660 LVW196656:LWH196660 MFS196656:MGD196660 MPO196656:MPZ196660 MZK196656:MZV196660 NJG196656:NJR196660 NTC196656:NTN196660 OCY196656:ODJ196660 OMU196656:ONF196660 OWQ196656:OXB196660 PGM196656:PGX196660 PQI196656:PQT196660 QAE196656:QAP196660 QKA196656:QKL196660 QTW196656:QUH196660 RDS196656:RED196660 RNO196656:RNZ196660 RXK196656:RXV196660 SHG196656:SHR196660 SRC196656:SRN196660 TAY196656:TBJ196660 TKU196656:TLF196660 TUQ196656:TVB196660 UEM196656:UEX196660 UOI196656:UOT196660 UYE196656:UYP196660 VIA196656:VIL196660 VRW196656:VSH196660 WBS196656:WCD196660 WLO196656:WLZ196660 WVK196656:WVV196660 SU262192:TF262196 ACQ262192:ADB262196 AMM262192:AMX262196 AWI262192:AWT262196 BGE262192:BGP262196 BQA262192:BQL262196 BZW262192:CAH262196 CJS262192:CKD262196 CTO262192:CTZ262196 DDK262192:DDV262196 DNG262192:DNR262196 DXC262192:DXN262196 EGY262192:EHJ262196 EQU262192:ERF262196 FAQ262192:FBB262196 FKM262192:FKX262196 FUI262192:FUT262196 GEE262192:GEP262196 GOA262192:GOL262196 GXW262192:GYH262196 HHS262192:HID262196 HRO262192:HRZ262196 IBK262192:IBV262196 ILG262192:ILR262196 IVC262192:IVN262196 JEY262192:JFJ262196 JOU262192:JPF262196 JYQ262192:JZB262196 KIM262192:KIX262196 KSI262192:KST262196 LCE262192:LCP262196 LMA262192:LML262196 LVW262192:LWH262196 MFS262192:MGD262196 MPO262192:MPZ262196 MZK262192:MZV262196 NJG262192:NJR262196 NTC262192:NTN262196 OCY262192:ODJ262196 OMU262192:ONF262196 OWQ262192:OXB262196 PGM262192:PGX262196 PQI262192:PQT262196 QAE262192:QAP262196 QKA262192:QKL262196 QTW262192:QUH262196 RDS262192:RED262196 RNO262192:RNZ262196 RXK262192:RXV262196 SHG262192:SHR262196 SRC262192:SRN262196 TAY262192:TBJ262196 TKU262192:TLF262196 TUQ262192:TVB262196 UEM262192:UEX262196 UOI262192:UOT262196 UYE262192:UYP262196 VIA262192:VIL262196 VRW262192:VSH262196 WBS262192:WCD262196 WLO262192:WLZ262196 WVK262192:WVV262196 SU327728:TF327732 ACQ327728:ADB327732 AMM327728:AMX327732 AWI327728:AWT327732 BGE327728:BGP327732 BQA327728:BQL327732 BZW327728:CAH327732 CJS327728:CKD327732 CTO327728:CTZ327732 DDK327728:DDV327732 DNG327728:DNR327732 DXC327728:DXN327732 EGY327728:EHJ327732 EQU327728:ERF327732 FAQ327728:FBB327732 FKM327728:FKX327732 FUI327728:FUT327732 GEE327728:GEP327732 GOA327728:GOL327732 GXW327728:GYH327732 HHS327728:HID327732 HRO327728:HRZ327732 IBK327728:IBV327732 ILG327728:ILR327732 IVC327728:IVN327732 JEY327728:JFJ327732 JOU327728:JPF327732 JYQ327728:JZB327732 KIM327728:KIX327732 KSI327728:KST327732 LCE327728:LCP327732 LMA327728:LML327732 LVW327728:LWH327732 MFS327728:MGD327732 MPO327728:MPZ327732 MZK327728:MZV327732 NJG327728:NJR327732 NTC327728:NTN327732 OCY327728:ODJ327732 OMU327728:ONF327732 OWQ327728:OXB327732 PGM327728:PGX327732 PQI327728:PQT327732 QAE327728:QAP327732 QKA327728:QKL327732 QTW327728:QUH327732 RDS327728:RED327732 RNO327728:RNZ327732 RXK327728:RXV327732 SHG327728:SHR327732 SRC327728:SRN327732 TAY327728:TBJ327732 TKU327728:TLF327732 TUQ327728:TVB327732 UEM327728:UEX327732 UOI327728:UOT327732 UYE327728:UYP327732 VIA327728:VIL327732 VRW327728:VSH327732 WBS327728:WCD327732 WLO327728:WLZ327732 WVK327728:WVV327732 SU393264:TF393268 ACQ393264:ADB393268 AMM393264:AMX393268 AWI393264:AWT393268 BGE393264:BGP393268 BQA393264:BQL393268 BZW393264:CAH393268 CJS393264:CKD393268 CTO393264:CTZ393268 DDK393264:DDV393268 DNG393264:DNR393268 DXC393264:DXN393268 EGY393264:EHJ393268 EQU393264:ERF393268 FAQ393264:FBB393268 FKM393264:FKX393268 FUI393264:FUT393268 GEE393264:GEP393268 GOA393264:GOL393268 GXW393264:GYH393268 HHS393264:HID393268 HRO393264:HRZ393268 IBK393264:IBV393268 ILG393264:ILR393268 IVC393264:IVN393268 JEY393264:JFJ393268 JOU393264:JPF393268 JYQ393264:JZB393268 KIM393264:KIX393268 KSI393264:KST393268 LCE393264:LCP393268 LMA393264:LML393268 LVW393264:LWH393268 MFS393264:MGD393268 MPO393264:MPZ393268 MZK393264:MZV393268 NJG393264:NJR393268 NTC393264:NTN393268 OCY393264:ODJ393268 OMU393264:ONF393268 OWQ393264:OXB393268 PGM393264:PGX393268 PQI393264:PQT393268 QAE393264:QAP393268 QKA393264:QKL393268 QTW393264:QUH393268 RDS393264:RED393268 RNO393264:RNZ393268 RXK393264:RXV393268 SHG393264:SHR393268 SRC393264:SRN393268 TAY393264:TBJ393268 TKU393264:TLF393268 TUQ393264:TVB393268 UEM393264:UEX393268 UOI393264:UOT393268 UYE393264:UYP393268 VIA393264:VIL393268 VRW393264:VSH393268 WBS393264:WCD393268 WLO393264:WLZ393268 WVK393264:WVV393268 SU458800:TF458804 ACQ458800:ADB458804 AMM458800:AMX458804 AWI458800:AWT458804 BGE458800:BGP458804 BQA458800:BQL458804 BZW458800:CAH458804 CJS458800:CKD458804 CTO458800:CTZ458804 DDK458800:DDV458804 DNG458800:DNR458804 DXC458800:DXN458804 EGY458800:EHJ458804 EQU458800:ERF458804 FAQ458800:FBB458804 FKM458800:FKX458804 FUI458800:FUT458804 GEE458800:GEP458804 GOA458800:GOL458804 GXW458800:GYH458804 HHS458800:HID458804 HRO458800:HRZ458804 IBK458800:IBV458804 ILG458800:ILR458804 IVC458800:IVN458804 JEY458800:JFJ458804 JOU458800:JPF458804 JYQ458800:JZB458804 KIM458800:KIX458804 KSI458800:KST458804 LCE458800:LCP458804 LMA458800:LML458804 LVW458800:LWH458804 MFS458800:MGD458804 MPO458800:MPZ458804 MZK458800:MZV458804 NJG458800:NJR458804 NTC458800:NTN458804 OCY458800:ODJ458804 OMU458800:ONF458804 OWQ458800:OXB458804 PGM458800:PGX458804 PQI458800:PQT458804 QAE458800:QAP458804 QKA458800:QKL458804 QTW458800:QUH458804 RDS458800:RED458804 RNO458800:RNZ458804 RXK458800:RXV458804 SHG458800:SHR458804 SRC458800:SRN458804 TAY458800:TBJ458804 TKU458800:TLF458804 TUQ458800:TVB458804 UEM458800:UEX458804 UOI458800:UOT458804 UYE458800:UYP458804 VIA458800:VIL458804 VRW458800:VSH458804 WBS458800:WCD458804 WLO458800:WLZ458804 WVK458800:WVV458804 SU524336:TF524340 ACQ524336:ADB524340 AMM524336:AMX524340 AWI524336:AWT524340 BGE524336:BGP524340 BQA524336:BQL524340 BZW524336:CAH524340 CJS524336:CKD524340 CTO524336:CTZ524340 DDK524336:DDV524340 DNG524336:DNR524340 DXC524336:DXN524340 EGY524336:EHJ524340 EQU524336:ERF524340 FAQ524336:FBB524340 FKM524336:FKX524340 FUI524336:FUT524340 GEE524336:GEP524340 GOA524336:GOL524340 GXW524336:GYH524340 HHS524336:HID524340 HRO524336:HRZ524340 IBK524336:IBV524340 ILG524336:ILR524340 IVC524336:IVN524340 JEY524336:JFJ524340 JOU524336:JPF524340 JYQ524336:JZB524340 KIM524336:KIX524340 KSI524336:KST524340 LCE524336:LCP524340 LMA524336:LML524340 LVW524336:LWH524340 MFS524336:MGD524340 MPO524336:MPZ524340 MZK524336:MZV524340 NJG524336:NJR524340 NTC524336:NTN524340 OCY524336:ODJ524340 OMU524336:ONF524340 OWQ524336:OXB524340 PGM524336:PGX524340 PQI524336:PQT524340 QAE524336:QAP524340 QKA524336:QKL524340 QTW524336:QUH524340 RDS524336:RED524340 RNO524336:RNZ524340 RXK524336:RXV524340 SHG524336:SHR524340 SRC524336:SRN524340 TAY524336:TBJ524340 TKU524336:TLF524340 TUQ524336:TVB524340 UEM524336:UEX524340 UOI524336:UOT524340 UYE524336:UYP524340 VIA524336:VIL524340 VRW524336:VSH524340 WBS524336:WCD524340 WLO524336:WLZ524340 WVK524336:WVV524340 SU589872:TF589876 ACQ589872:ADB589876 AMM589872:AMX589876 AWI589872:AWT589876 BGE589872:BGP589876 BQA589872:BQL589876 BZW589872:CAH589876 CJS589872:CKD589876 CTO589872:CTZ589876 DDK589872:DDV589876 DNG589872:DNR589876 DXC589872:DXN589876 EGY589872:EHJ589876 EQU589872:ERF589876 FAQ589872:FBB589876 FKM589872:FKX589876 FUI589872:FUT589876 GEE589872:GEP589876 GOA589872:GOL589876 GXW589872:GYH589876 HHS589872:HID589876 HRO589872:HRZ589876 IBK589872:IBV589876 ILG589872:ILR589876 IVC589872:IVN589876 JEY589872:JFJ589876 JOU589872:JPF589876 JYQ589872:JZB589876 KIM589872:KIX589876 KSI589872:KST589876 LCE589872:LCP589876 LMA589872:LML589876 LVW589872:LWH589876 MFS589872:MGD589876 MPO589872:MPZ589876 MZK589872:MZV589876 NJG589872:NJR589876 NTC589872:NTN589876 OCY589872:ODJ589876 OMU589872:ONF589876 OWQ589872:OXB589876 PGM589872:PGX589876 PQI589872:PQT589876 QAE589872:QAP589876 QKA589872:QKL589876 QTW589872:QUH589876 RDS589872:RED589876 RNO589872:RNZ589876 RXK589872:RXV589876 SHG589872:SHR589876 SRC589872:SRN589876 TAY589872:TBJ589876 TKU589872:TLF589876 TUQ589872:TVB589876 UEM589872:UEX589876 UOI589872:UOT589876 UYE589872:UYP589876 VIA589872:VIL589876 VRW589872:VSH589876 WBS589872:WCD589876 WLO589872:WLZ589876 WVK589872:WVV589876 SU655408:TF655412 ACQ655408:ADB655412 AMM655408:AMX655412 AWI655408:AWT655412 BGE655408:BGP655412 BQA655408:BQL655412 BZW655408:CAH655412 CJS655408:CKD655412 CTO655408:CTZ655412 DDK655408:DDV655412 DNG655408:DNR655412 DXC655408:DXN655412 EGY655408:EHJ655412 EQU655408:ERF655412 FAQ655408:FBB655412 FKM655408:FKX655412 FUI655408:FUT655412 GEE655408:GEP655412 GOA655408:GOL655412 GXW655408:GYH655412 HHS655408:HID655412 HRO655408:HRZ655412 IBK655408:IBV655412 ILG655408:ILR655412 IVC655408:IVN655412 JEY655408:JFJ655412 JOU655408:JPF655412 JYQ655408:JZB655412 KIM655408:KIX655412 KSI655408:KST655412 LCE655408:LCP655412 LMA655408:LML655412 LVW655408:LWH655412 MFS655408:MGD655412 MPO655408:MPZ655412 MZK655408:MZV655412 NJG655408:NJR655412 NTC655408:NTN655412 OCY655408:ODJ655412 OMU655408:ONF655412 OWQ655408:OXB655412 PGM655408:PGX655412 PQI655408:PQT655412 QAE655408:QAP655412 QKA655408:QKL655412 QTW655408:QUH655412 RDS655408:RED655412 RNO655408:RNZ655412 RXK655408:RXV655412 SHG655408:SHR655412 SRC655408:SRN655412 TAY655408:TBJ655412 TKU655408:TLF655412 TUQ655408:TVB655412 UEM655408:UEX655412 UOI655408:UOT655412 UYE655408:UYP655412 VIA655408:VIL655412 VRW655408:VSH655412 WBS655408:WCD655412 WLO655408:WLZ655412 WVK655408:WVV655412 SU720944:TF720948 ACQ720944:ADB720948 AMM720944:AMX720948 AWI720944:AWT720948 BGE720944:BGP720948 BQA720944:BQL720948 BZW720944:CAH720948 CJS720944:CKD720948 CTO720944:CTZ720948 DDK720944:DDV720948 DNG720944:DNR720948 DXC720944:DXN720948 EGY720944:EHJ720948 EQU720944:ERF720948 FAQ720944:FBB720948 FKM720944:FKX720948 FUI720944:FUT720948 GEE720944:GEP720948 GOA720944:GOL720948 GXW720944:GYH720948 HHS720944:HID720948 HRO720944:HRZ720948 IBK720944:IBV720948 ILG720944:ILR720948 IVC720944:IVN720948 JEY720944:JFJ720948 JOU720944:JPF720948 JYQ720944:JZB720948 KIM720944:KIX720948 KSI720944:KST720948 LCE720944:LCP720948 LMA720944:LML720948 LVW720944:LWH720948 MFS720944:MGD720948 MPO720944:MPZ720948 MZK720944:MZV720948 NJG720944:NJR720948 NTC720944:NTN720948 OCY720944:ODJ720948 OMU720944:ONF720948 OWQ720944:OXB720948 PGM720944:PGX720948 PQI720944:PQT720948 QAE720944:QAP720948 QKA720944:QKL720948 QTW720944:QUH720948 RDS720944:RED720948 RNO720944:RNZ720948 RXK720944:RXV720948 SHG720944:SHR720948 SRC720944:SRN720948 TAY720944:TBJ720948 TKU720944:TLF720948 TUQ720944:TVB720948 UEM720944:UEX720948 UOI720944:UOT720948 UYE720944:UYP720948 VIA720944:VIL720948 VRW720944:VSH720948 WBS720944:WCD720948 WLO720944:WLZ720948 WVK720944:WVV720948 SU786480:TF786484 ACQ786480:ADB786484 AMM786480:AMX786484 AWI786480:AWT786484 BGE786480:BGP786484 BQA786480:BQL786484 BZW786480:CAH786484 CJS786480:CKD786484 CTO786480:CTZ786484 DDK786480:DDV786484 DNG786480:DNR786484 DXC786480:DXN786484 EGY786480:EHJ786484 EQU786480:ERF786484 FAQ786480:FBB786484 FKM786480:FKX786484 FUI786480:FUT786484 GEE786480:GEP786484 GOA786480:GOL786484 GXW786480:GYH786484 HHS786480:HID786484 HRO786480:HRZ786484 IBK786480:IBV786484 ILG786480:ILR786484 IVC786480:IVN786484 JEY786480:JFJ786484 JOU786480:JPF786484 JYQ786480:JZB786484 KIM786480:KIX786484 KSI786480:KST786484 LCE786480:LCP786484 LMA786480:LML786484 LVW786480:LWH786484 MFS786480:MGD786484 MPO786480:MPZ786484 MZK786480:MZV786484 NJG786480:NJR786484 NTC786480:NTN786484 OCY786480:ODJ786484 OMU786480:ONF786484 OWQ786480:OXB786484 PGM786480:PGX786484 PQI786480:PQT786484 QAE786480:QAP786484 QKA786480:QKL786484 QTW786480:QUH786484 RDS786480:RED786484 RNO786480:RNZ786484 RXK786480:RXV786484 SHG786480:SHR786484 SRC786480:SRN786484 TAY786480:TBJ786484 TKU786480:TLF786484 TUQ786480:TVB786484 UEM786480:UEX786484 UOI786480:UOT786484 UYE786480:UYP786484 VIA786480:VIL786484 VRW786480:VSH786484 WBS786480:WCD786484 WLO786480:WLZ786484 WVK786480:WVV786484 SU852016:TF852020 ACQ852016:ADB852020 AMM852016:AMX852020 AWI852016:AWT852020 BGE852016:BGP852020 BQA852016:BQL852020 BZW852016:CAH852020 CJS852016:CKD852020 CTO852016:CTZ852020 DDK852016:DDV852020 DNG852016:DNR852020 DXC852016:DXN852020 EGY852016:EHJ852020 EQU852016:ERF852020 FAQ852016:FBB852020 FKM852016:FKX852020 FUI852016:FUT852020 GEE852016:GEP852020 GOA852016:GOL852020 GXW852016:GYH852020 HHS852016:HID852020 HRO852016:HRZ852020 IBK852016:IBV852020 ILG852016:ILR852020 IVC852016:IVN852020 JEY852016:JFJ852020 JOU852016:JPF852020 JYQ852016:JZB852020 KIM852016:KIX852020 KSI852016:KST852020 LCE852016:LCP852020 LMA852016:LML852020 LVW852016:LWH852020 MFS852016:MGD852020 MPO852016:MPZ852020 MZK852016:MZV852020 NJG852016:NJR852020 NTC852016:NTN852020 OCY852016:ODJ852020 OMU852016:ONF852020 OWQ852016:OXB852020 PGM852016:PGX852020 PQI852016:PQT852020 QAE852016:QAP852020 QKA852016:QKL852020 QTW852016:QUH852020 RDS852016:RED852020 RNO852016:RNZ852020 RXK852016:RXV852020 SHG852016:SHR852020 SRC852016:SRN852020 TAY852016:TBJ852020 TKU852016:TLF852020 TUQ852016:TVB852020 UEM852016:UEX852020 UOI852016:UOT852020 UYE852016:UYP852020 VIA852016:VIL852020 VRW852016:VSH852020 WBS852016:WCD852020 WLO852016:WLZ852020 WVK852016:WVV852020 SU917552:TF917556 ACQ917552:ADB917556 AMM917552:AMX917556 AWI917552:AWT917556 BGE917552:BGP917556 BQA917552:BQL917556 BZW917552:CAH917556 CJS917552:CKD917556 CTO917552:CTZ917556 DDK917552:DDV917556 DNG917552:DNR917556 DXC917552:DXN917556 EGY917552:EHJ917556 EQU917552:ERF917556 FAQ917552:FBB917556 FKM917552:FKX917556 FUI917552:FUT917556 GEE917552:GEP917556 GOA917552:GOL917556 GXW917552:GYH917556 HHS917552:HID917556 HRO917552:HRZ917556 IBK917552:IBV917556 ILG917552:ILR917556 IVC917552:IVN917556 JEY917552:JFJ917556 JOU917552:JPF917556 JYQ917552:JZB917556 KIM917552:KIX917556 KSI917552:KST917556 LCE917552:LCP917556 LMA917552:LML917556 LVW917552:LWH917556 MFS917552:MGD917556 MPO917552:MPZ917556 MZK917552:MZV917556 NJG917552:NJR917556 NTC917552:NTN917556 OCY917552:ODJ917556 OMU917552:ONF917556 OWQ917552:OXB917556 PGM917552:PGX917556 PQI917552:PQT917556 QAE917552:QAP917556 QKA917552:QKL917556 QTW917552:QUH917556 RDS917552:RED917556 RNO917552:RNZ917556 RXK917552:RXV917556 SHG917552:SHR917556 SRC917552:SRN917556 TAY917552:TBJ917556 TKU917552:TLF917556 TUQ917552:TVB917556 UEM917552:UEX917556 UOI917552:UOT917556 UYE917552:UYP917556 VIA917552:VIL917556 VRW917552:VSH917556 WBS917552:WCD917556 WLO917552:WLZ917556 WVK917552:WVV917556 WVK983088:WVV983092 SU983088:TF983092 ACQ983088:ADB983092 AMM983088:AMX983092 AWI983088:AWT983092 BGE983088:BGP983092 BQA983088:BQL983092 BZW983088:CAH983092 CJS983088:CKD983092 CTO983088:CTZ983092 DDK983088:DDV983092 DNG983088:DNR983092 DXC983088:DXN983092 EGY983088:EHJ983092 EQU983088:ERF983092 FAQ983088:FBB983092 FKM983088:FKX983092 FUI983088:FUT983092 GEE983088:GEP983092 GOA983088:GOL983092 GXW983088:GYH983092 HHS983088:HID983092 HRO983088:HRZ983092 IBK983088:IBV983092 ILG983088:ILR983092 IVC983088:IVN983092 JEY983088:JFJ983092 JOU983088:JPF983092 JYQ983088:JZB983092 KIM983088:KIX983092 KSI983088:KST983092 LCE983088:LCP983092 LMA983088:LML983092 LVW983088:LWH983092 MFS983088:MGD983092 MPO983088:MPZ983092 MZK983088:MZV983092 NJG983088:NJR983092 NTC983088:NTN983092 OCY983088:ODJ983092 OMU983088:ONF983092 OWQ983088:OXB983092 PGM983088:PGX983092 PQI983088:PQT983092 QAE983088:QAP983092 QKA983088:QKL983092 QTW983088:QUH983092 RDS983088:RED983092 RNO983088:RNZ983092 RXK983088:RXV983092 SHG983088:SHR983092 SRC983088:SRN983092 TAY983088:TBJ983092 TKU983088:TLF983092 TUQ983088:TVB983092 UEM983088:UEX983092 UOI983088:UOT983092 UYE983088:UYP983092 VIA983088:VIL983092 VRW983088:VSH983092 WBS983088:WCD983092 WLO983088:WLZ983092 IY50:IY54 C917556:M917560 C852020:M852024 C786484:M786488 C720948:M720952 C655412:M655416 C589876:M589880 C524340:M524344 C458804:M458808 C393268:M393272 C327732:M327736 C262196:M262200 C196660:M196664 C131124:M131128 C65588:M65592 C983092:M983096 IY983092:IY983096 IZ983088:JJ983092 IY917556:IY917560 IZ917552:JJ917556 IY852020:IY852024 IZ852016:JJ852020 IY786484:IY786488 IZ786480:JJ786484 IY720948:IY720952 IZ720944:JJ720948 IY655412:IY655416 IZ655408:JJ655412 IY589876:IY589880 IZ589872:JJ589876 IY524340:IY524344 IZ524336:JJ524340 IY458804:IY458808 IZ458800:JJ458804 IY393268:IY393272 IZ393264:JJ393268 IY327732:IY327736 IZ327728:JJ327732 IY262196:IY262200 IZ262192:JJ262196 IY196660:IY196664 IZ196656:JJ196660 IY131124:IY131128 IZ131120:JJ131124 IY65588:IY65592 IZ65584:JJ65588 IZ46:JJ50 C50:M54" xr:uid="{00000000-0002-0000-0B00-000003000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JI65542:JI65581 TE65542:TE65581 ADA65542:ADA65581 AMW65542:AMW65581 AWS65542:AWS65581 BGO65542:BGO65581 BQK65542:BQK65581 CAG65542:CAG65581 CKC65542:CKC65581 CTY65542:CTY65581 DDU65542:DDU65581 DNQ65542:DNQ65581 DXM65542:DXM65581 EHI65542:EHI65581 ERE65542:ERE65581 FBA65542:FBA65581 FKW65542:FKW65581 FUS65542:FUS65581 GEO65542:GEO65581 GOK65542:GOK65581 GYG65542:GYG65581 HIC65542:HIC65581 HRY65542:HRY65581 IBU65542:IBU65581 ILQ65542:ILQ65581 IVM65542:IVM65581 JFI65542:JFI65581 JPE65542:JPE65581 JZA65542:JZA65581 KIW65542:KIW65581 KSS65542:KSS65581 LCO65542:LCO65581 LMK65542:LMK65581 LWG65542:LWG65581 MGC65542:MGC65581 MPY65542:MPY65581 MZU65542:MZU65581 NJQ65542:NJQ65581 NTM65542:NTM65581 ODI65542:ODI65581 ONE65542:ONE65581 OXA65542:OXA65581 PGW65542:PGW65581 PQS65542:PQS65581 QAO65542:QAO65581 QKK65542:QKK65581 QUG65542:QUG65581 REC65542:REC65581 RNY65542:RNY65581 RXU65542:RXU65581 SHQ65542:SHQ65581 SRM65542:SRM65581 TBI65542:TBI65581 TLE65542:TLE65581 TVA65542:TVA65581 UEW65542:UEW65581 UOS65542:UOS65581 UYO65542:UYO65581 VIK65542:VIK65581 VSG65542:VSG65581 WCC65542:WCC65581 WLY65542:WLY65581 WVU65542:WVU65581 JI131078:JI131117 TE131078:TE131117 ADA131078:ADA131117 AMW131078:AMW131117 AWS131078:AWS131117 BGO131078:BGO131117 BQK131078:BQK131117 CAG131078:CAG131117 CKC131078:CKC131117 CTY131078:CTY131117 DDU131078:DDU131117 DNQ131078:DNQ131117 DXM131078:DXM131117 EHI131078:EHI131117 ERE131078:ERE131117 FBA131078:FBA131117 FKW131078:FKW131117 FUS131078:FUS131117 GEO131078:GEO131117 GOK131078:GOK131117 GYG131078:GYG131117 HIC131078:HIC131117 HRY131078:HRY131117 IBU131078:IBU131117 ILQ131078:ILQ131117 IVM131078:IVM131117 JFI131078:JFI131117 JPE131078:JPE131117 JZA131078:JZA131117 KIW131078:KIW131117 KSS131078:KSS131117 LCO131078:LCO131117 LMK131078:LMK131117 LWG131078:LWG131117 MGC131078:MGC131117 MPY131078:MPY131117 MZU131078:MZU131117 NJQ131078:NJQ131117 NTM131078:NTM131117 ODI131078:ODI131117 ONE131078:ONE131117 OXA131078:OXA131117 PGW131078:PGW131117 PQS131078:PQS131117 QAO131078:QAO131117 QKK131078:QKK131117 QUG131078:QUG131117 REC131078:REC131117 RNY131078:RNY131117 RXU131078:RXU131117 SHQ131078:SHQ131117 SRM131078:SRM131117 TBI131078:TBI131117 TLE131078:TLE131117 TVA131078:TVA131117 UEW131078:UEW131117 UOS131078:UOS131117 UYO131078:UYO131117 VIK131078:VIK131117 VSG131078:VSG131117 WCC131078:WCC131117 WLY131078:WLY131117 WVU131078:WVU131117 JI196614:JI196653 TE196614:TE196653 ADA196614:ADA196653 AMW196614:AMW196653 AWS196614:AWS196653 BGO196614:BGO196653 BQK196614:BQK196653 CAG196614:CAG196653 CKC196614:CKC196653 CTY196614:CTY196653 DDU196614:DDU196653 DNQ196614:DNQ196653 DXM196614:DXM196653 EHI196614:EHI196653 ERE196614:ERE196653 FBA196614:FBA196653 FKW196614:FKW196653 FUS196614:FUS196653 GEO196614:GEO196653 GOK196614:GOK196653 GYG196614:GYG196653 HIC196614:HIC196653 HRY196614:HRY196653 IBU196614:IBU196653 ILQ196614:ILQ196653 IVM196614:IVM196653 JFI196614:JFI196653 JPE196614:JPE196653 JZA196614:JZA196653 KIW196614:KIW196653 KSS196614:KSS196653 LCO196614:LCO196653 LMK196614:LMK196653 LWG196614:LWG196653 MGC196614:MGC196653 MPY196614:MPY196653 MZU196614:MZU196653 NJQ196614:NJQ196653 NTM196614:NTM196653 ODI196614:ODI196653 ONE196614:ONE196653 OXA196614:OXA196653 PGW196614:PGW196653 PQS196614:PQS196653 QAO196614:QAO196653 QKK196614:QKK196653 QUG196614:QUG196653 REC196614:REC196653 RNY196614:RNY196653 RXU196614:RXU196653 SHQ196614:SHQ196653 SRM196614:SRM196653 TBI196614:TBI196653 TLE196614:TLE196653 TVA196614:TVA196653 UEW196614:UEW196653 UOS196614:UOS196653 UYO196614:UYO196653 VIK196614:VIK196653 VSG196614:VSG196653 WCC196614:WCC196653 WLY196614:WLY196653 WVU196614:WVU196653 JI262150:JI262189 TE262150:TE262189 ADA262150:ADA262189 AMW262150:AMW262189 AWS262150:AWS262189 BGO262150:BGO262189 BQK262150:BQK262189 CAG262150:CAG262189 CKC262150:CKC262189 CTY262150:CTY262189 DDU262150:DDU262189 DNQ262150:DNQ262189 DXM262150:DXM262189 EHI262150:EHI262189 ERE262150:ERE262189 FBA262150:FBA262189 FKW262150:FKW262189 FUS262150:FUS262189 GEO262150:GEO262189 GOK262150:GOK262189 GYG262150:GYG262189 HIC262150:HIC262189 HRY262150:HRY262189 IBU262150:IBU262189 ILQ262150:ILQ262189 IVM262150:IVM262189 JFI262150:JFI262189 JPE262150:JPE262189 JZA262150:JZA262189 KIW262150:KIW262189 KSS262150:KSS262189 LCO262150:LCO262189 LMK262150:LMK262189 LWG262150:LWG262189 MGC262150:MGC262189 MPY262150:MPY262189 MZU262150:MZU262189 NJQ262150:NJQ262189 NTM262150:NTM262189 ODI262150:ODI262189 ONE262150:ONE262189 OXA262150:OXA262189 PGW262150:PGW262189 PQS262150:PQS262189 QAO262150:QAO262189 QKK262150:QKK262189 QUG262150:QUG262189 REC262150:REC262189 RNY262150:RNY262189 RXU262150:RXU262189 SHQ262150:SHQ262189 SRM262150:SRM262189 TBI262150:TBI262189 TLE262150:TLE262189 TVA262150:TVA262189 UEW262150:UEW262189 UOS262150:UOS262189 UYO262150:UYO262189 VIK262150:VIK262189 VSG262150:VSG262189 WCC262150:WCC262189 WLY262150:WLY262189 WVU262150:WVU262189 JI327686:JI327725 TE327686:TE327725 ADA327686:ADA327725 AMW327686:AMW327725 AWS327686:AWS327725 BGO327686:BGO327725 BQK327686:BQK327725 CAG327686:CAG327725 CKC327686:CKC327725 CTY327686:CTY327725 DDU327686:DDU327725 DNQ327686:DNQ327725 DXM327686:DXM327725 EHI327686:EHI327725 ERE327686:ERE327725 FBA327686:FBA327725 FKW327686:FKW327725 FUS327686:FUS327725 GEO327686:GEO327725 GOK327686:GOK327725 GYG327686:GYG327725 HIC327686:HIC327725 HRY327686:HRY327725 IBU327686:IBU327725 ILQ327686:ILQ327725 IVM327686:IVM327725 JFI327686:JFI327725 JPE327686:JPE327725 JZA327686:JZA327725 KIW327686:KIW327725 KSS327686:KSS327725 LCO327686:LCO327725 LMK327686:LMK327725 LWG327686:LWG327725 MGC327686:MGC327725 MPY327686:MPY327725 MZU327686:MZU327725 NJQ327686:NJQ327725 NTM327686:NTM327725 ODI327686:ODI327725 ONE327686:ONE327725 OXA327686:OXA327725 PGW327686:PGW327725 PQS327686:PQS327725 QAO327686:QAO327725 QKK327686:QKK327725 QUG327686:QUG327725 REC327686:REC327725 RNY327686:RNY327725 RXU327686:RXU327725 SHQ327686:SHQ327725 SRM327686:SRM327725 TBI327686:TBI327725 TLE327686:TLE327725 TVA327686:TVA327725 UEW327686:UEW327725 UOS327686:UOS327725 UYO327686:UYO327725 VIK327686:VIK327725 VSG327686:VSG327725 WCC327686:WCC327725 WLY327686:WLY327725 WVU327686:WVU327725 JI393222:JI393261 TE393222:TE393261 ADA393222:ADA393261 AMW393222:AMW393261 AWS393222:AWS393261 BGO393222:BGO393261 BQK393222:BQK393261 CAG393222:CAG393261 CKC393222:CKC393261 CTY393222:CTY393261 DDU393222:DDU393261 DNQ393222:DNQ393261 DXM393222:DXM393261 EHI393222:EHI393261 ERE393222:ERE393261 FBA393222:FBA393261 FKW393222:FKW393261 FUS393222:FUS393261 GEO393222:GEO393261 GOK393222:GOK393261 GYG393222:GYG393261 HIC393222:HIC393261 HRY393222:HRY393261 IBU393222:IBU393261 ILQ393222:ILQ393261 IVM393222:IVM393261 JFI393222:JFI393261 JPE393222:JPE393261 JZA393222:JZA393261 KIW393222:KIW393261 KSS393222:KSS393261 LCO393222:LCO393261 LMK393222:LMK393261 LWG393222:LWG393261 MGC393222:MGC393261 MPY393222:MPY393261 MZU393222:MZU393261 NJQ393222:NJQ393261 NTM393222:NTM393261 ODI393222:ODI393261 ONE393222:ONE393261 OXA393222:OXA393261 PGW393222:PGW393261 PQS393222:PQS393261 QAO393222:QAO393261 QKK393222:QKK393261 QUG393222:QUG393261 REC393222:REC393261 RNY393222:RNY393261 RXU393222:RXU393261 SHQ393222:SHQ393261 SRM393222:SRM393261 TBI393222:TBI393261 TLE393222:TLE393261 TVA393222:TVA393261 UEW393222:UEW393261 UOS393222:UOS393261 UYO393222:UYO393261 VIK393222:VIK393261 VSG393222:VSG393261 WCC393222:WCC393261 WLY393222:WLY393261 WVU393222:WVU393261 JI458758:JI458797 TE458758:TE458797 ADA458758:ADA458797 AMW458758:AMW458797 AWS458758:AWS458797 BGO458758:BGO458797 BQK458758:BQK458797 CAG458758:CAG458797 CKC458758:CKC458797 CTY458758:CTY458797 DDU458758:DDU458797 DNQ458758:DNQ458797 DXM458758:DXM458797 EHI458758:EHI458797 ERE458758:ERE458797 FBA458758:FBA458797 FKW458758:FKW458797 FUS458758:FUS458797 GEO458758:GEO458797 GOK458758:GOK458797 GYG458758:GYG458797 HIC458758:HIC458797 HRY458758:HRY458797 IBU458758:IBU458797 ILQ458758:ILQ458797 IVM458758:IVM458797 JFI458758:JFI458797 JPE458758:JPE458797 JZA458758:JZA458797 KIW458758:KIW458797 KSS458758:KSS458797 LCO458758:LCO458797 LMK458758:LMK458797 LWG458758:LWG458797 MGC458758:MGC458797 MPY458758:MPY458797 MZU458758:MZU458797 NJQ458758:NJQ458797 NTM458758:NTM458797 ODI458758:ODI458797 ONE458758:ONE458797 OXA458758:OXA458797 PGW458758:PGW458797 PQS458758:PQS458797 QAO458758:QAO458797 QKK458758:QKK458797 QUG458758:QUG458797 REC458758:REC458797 RNY458758:RNY458797 RXU458758:RXU458797 SHQ458758:SHQ458797 SRM458758:SRM458797 TBI458758:TBI458797 TLE458758:TLE458797 TVA458758:TVA458797 UEW458758:UEW458797 UOS458758:UOS458797 UYO458758:UYO458797 VIK458758:VIK458797 VSG458758:VSG458797 WCC458758:WCC458797 WLY458758:WLY458797 WVU458758:WVU458797 JI524294:JI524333 TE524294:TE524333 ADA524294:ADA524333 AMW524294:AMW524333 AWS524294:AWS524333 BGO524294:BGO524333 BQK524294:BQK524333 CAG524294:CAG524333 CKC524294:CKC524333 CTY524294:CTY524333 DDU524294:DDU524333 DNQ524294:DNQ524333 DXM524294:DXM524333 EHI524294:EHI524333 ERE524294:ERE524333 FBA524294:FBA524333 FKW524294:FKW524333 FUS524294:FUS524333 GEO524294:GEO524333 GOK524294:GOK524333 GYG524294:GYG524333 HIC524294:HIC524333 HRY524294:HRY524333 IBU524294:IBU524333 ILQ524294:ILQ524333 IVM524294:IVM524333 JFI524294:JFI524333 JPE524294:JPE524333 JZA524294:JZA524333 KIW524294:KIW524333 KSS524294:KSS524333 LCO524294:LCO524333 LMK524294:LMK524333 LWG524294:LWG524333 MGC524294:MGC524333 MPY524294:MPY524333 MZU524294:MZU524333 NJQ524294:NJQ524333 NTM524294:NTM524333 ODI524294:ODI524333 ONE524294:ONE524333 OXA524294:OXA524333 PGW524294:PGW524333 PQS524294:PQS524333 QAO524294:QAO524333 QKK524294:QKK524333 QUG524294:QUG524333 REC524294:REC524333 RNY524294:RNY524333 RXU524294:RXU524333 SHQ524294:SHQ524333 SRM524294:SRM524333 TBI524294:TBI524333 TLE524294:TLE524333 TVA524294:TVA524333 UEW524294:UEW524333 UOS524294:UOS524333 UYO524294:UYO524333 VIK524294:VIK524333 VSG524294:VSG524333 WCC524294:WCC524333 WLY524294:WLY524333 WVU524294:WVU524333 JI589830:JI589869 TE589830:TE589869 ADA589830:ADA589869 AMW589830:AMW589869 AWS589830:AWS589869 BGO589830:BGO589869 BQK589830:BQK589869 CAG589830:CAG589869 CKC589830:CKC589869 CTY589830:CTY589869 DDU589830:DDU589869 DNQ589830:DNQ589869 DXM589830:DXM589869 EHI589830:EHI589869 ERE589830:ERE589869 FBA589830:FBA589869 FKW589830:FKW589869 FUS589830:FUS589869 GEO589830:GEO589869 GOK589830:GOK589869 GYG589830:GYG589869 HIC589830:HIC589869 HRY589830:HRY589869 IBU589830:IBU589869 ILQ589830:ILQ589869 IVM589830:IVM589869 JFI589830:JFI589869 JPE589830:JPE589869 JZA589830:JZA589869 KIW589830:KIW589869 KSS589830:KSS589869 LCO589830:LCO589869 LMK589830:LMK589869 LWG589830:LWG589869 MGC589830:MGC589869 MPY589830:MPY589869 MZU589830:MZU589869 NJQ589830:NJQ589869 NTM589830:NTM589869 ODI589830:ODI589869 ONE589830:ONE589869 OXA589830:OXA589869 PGW589830:PGW589869 PQS589830:PQS589869 QAO589830:QAO589869 QKK589830:QKK589869 QUG589830:QUG589869 REC589830:REC589869 RNY589830:RNY589869 RXU589830:RXU589869 SHQ589830:SHQ589869 SRM589830:SRM589869 TBI589830:TBI589869 TLE589830:TLE589869 TVA589830:TVA589869 UEW589830:UEW589869 UOS589830:UOS589869 UYO589830:UYO589869 VIK589830:VIK589869 VSG589830:VSG589869 WCC589830:WCC589869 WLY589830:WLY589869 WVU589830:WVU589869 JI655366:JI655405 TE655366:TE655405 ADA655366:ADA655405 AMW655366:AMW655405 AWS655366:AWS655405 BGO655366:BGO655405 BQK655366:BQK655405 CAG655366:CAG655405 CKC655366:CKC655405 CTY655366:CTY655405 DDU655366:DDU655405 DNQ655366:DNQ655405 DXM655366:DXM655405 EHI655366:EHI655405 ERE655366:ERE655405 FBA655366:FBA655405 FKW655366:FKW655405 FUS655366:FUS655405 GEO655366:GEO655405 GOK655366:GOK655405 GYG655366:GYG655405 HIC655366:HIC655405 HRY655366:HRY655405 IBU655366:IBU655405 ILQ655366:ILQ655405 IVM655366:IVM655405 JFI655366:JFI655405 JPE655366:JPE655405 JZA655366:JZA655405 KIW655366:KIW655405 KSS655366:KSS655405 LCO655366:LCO655405 LMK655366:LMK655405 LWG655366:LWG655405 MGC655366:MGC655405 MPY655366:MPY655405 MZU655366:MZU655405 NJQ655366:NJQ655405 NTM655366:NTM655405 ODI655366:ODI655405 ONE655366:ONE655405 OXA655366:OXA655405 PGW655366:PGW655405 PQS655366:PQS655405 QAO655366:QAO655405 QKK655366:QKK655405 QUG655366:QUG655405 REC655366:REC655405 RNY655366:RNY655405 RXU655366:RXU655405 SHQ655366:SHQ655405 SRM655366:SRM655405 TBI655366:TBI655405 TLE655366:TLE655405 TVA655366:TVA655405 UEW655366:UEW655405 UOS655366:UOS655405 UYO655366:UYO655405 VIK655366:VIK655405 VSG655366:VSG655405 WCC655366:WCC655405 WLY655366:WLY655405 WVU655366:WVU655405 JI720902:JI720941 TE720902:TE720941 ADA720902:ADA720941 AMW720902:AMW720941 AWS720902:AWS720941 BGO720902:BGO720941 BQK720902:BQK720941 CAG720902:CAG720941 CKC720902:CKC720941 CTY720902:CTY720941 DDU720902:DDU720941 DNQ720902:DNQ720941 DXM720902:DXM720941 EHI720902:EHI720941 ERE720902:ERE720941 FBA720902:FBA720941 FKW720902:FKW720941 FUS720902:FUS720941 GEO720902:GEO720941 GOK720902:GOK720941 GYG720902:GYG720941 HIC720902:HIC720941 HRY720902:HRY720941 IBU720902:IBU720941 ILQ720902:ILQ720941 IVM720902:IVM720941 JFI720902:JFI720941 JPE720902:JPE720941 JZA720902:JZA720941 KIW720902:KIW720941 KSS720902:KSS720941 LCO720902:LCO720941 LMK720902:LMK720941 LWG720902:LWG720941 MGC720902:MGC720941 MPY720902:MPY720941 MZU720902:MZU720941 NJQ720902:NJQ720941 NTM720902:NTM720941 ODI720902:ODI720941 ONE720902:ONE720941 OXA720902:OXA720941 PGW720902:PGW720941 PQS720902:PQS720941 QAO720902:QAO720941 QKK720902:QKK720941 QUG720902:QUG720941 REC720902:REC720941 RNY720902:RNY720941 RXU720902:RXU720941 SHQ720902:SHQ720941 SRM720902:SRM720941 TBI720902:TBI720941 TLE720902:TLE720941 TVA720902:TVA720941 UEW720902:UEW720941 UOS720902:UOS720941 UYO720902:UYO720941 VIK720902:VIK720941 VSG720902:VSG720941 WCC720902:WCC720941 WLY720902:WLY720941 WVU720902:WVU720941 JI786438:JI786477 TE786438:TE786477 ADA786438:ADA786477 AMW786438:AMW786477 AWS786438:AWS786477 BGO786438:BGO786477 BQK786438:BQK786477 CAG786438:CAG786477 CKC786438:CKC786477 CTY786438:CTY786477 DDU786438:DDU786477 DNQ786438:DNQ786477 DXM786438:DXM786477 EHI786438:EHI786477 ERE786438:ERE786477 FBA786438:FBA786477 FKW786438:FKW786477 FUS786438:FUS786477 GEO786438:GEO786477 GOK786438:GOK786477 GYG786438:GYG786477 HIC786438:HIC786477 HRY786438:HRY786477 IBU786438:IBU786477 ILQ786438:ILQ786477 IVM786438:IVM786477 JFI786438:JFI786477 JPE786438:JPE786477 JZA786438:JZA786477 KIW786438:KIW786477 KSS786438:KSS786477 LCO786438:LCO786477 LMK786438:LMK786477 LWG786438:LWG786477 MGC786438:MGC786477 MPY786438:MPY786477 MZU786438:MZU786477 NJQ786438:NJQ786477 NTM786438:NTM786477 ODI786438:ODI786477 ONE786438:ONE786477 OXA786438:OXA786477 PGW786438:PGW786477 PQS786438:PQS786477 QAO786438:QAO786477 QKK786438:QKK786477 QUG786438:QUG786477 REC786438:REC786477 RNY786438:RNY786477 RXU786438:RXU786477 SHQ786438:SHQ786477 SRM786438:SRM786477 TBI786438:TBI786477 TLE786438:TLE786477 TVA786438:TVA786477 UEW786438:UEW786477 UOS786438:UOS786477 UYO786438:UYO786477 VIK786438:VIK786477 VSG786438:VSG786477 WCC786438:WCC786477 WLY786438:WLY786477 WVU786438:WVU786477 JI851974:JI852013 TE851974:TE852013 ADA851974:ADA852013 AMW851974:AMW852013 AWS851974:AWS852013 BGO851974:BGO852013 BQK851974:BQK852013 CAG851974:CAG852013 CKC851974:CKC852013 CTY851974:CTY852013 DDU851974:DDU852013 DNQ851974:DNQ852013 DXM851974:DXM852013 EHI851974:EHI852013 ERE851974:ERE852013 FBA851974:FBA852013 FKW851974:FKW852013 FUS851974:FUS852013 GEO851974:GEO852013 GOK851974:GOK852013 GYG851974:GYG852013 HIC851974:HIC852013 HRY851974:HRY852013 IBU851974:IBU852013 ILQ851974:ILQ852013 IVM851974:IVM852013 JFI851974:JFI852013 JPE851974:JPE852013 JZA851974:JZA852013 KIW851974:KIW852013 KSS851974:KSS852013 LCO851974:LCO852013 LMK851974:LMK852013 LWG851974:LWG852013 MGC851974:MGC852013 MPY851974:MPY852013 MZU851974:MZU852013 NJQ851974:NJQ852013 NTM851974:NTM852013 ODI851974:ODI852013 ONE851974:ONE852013 OXA851974:OXA852013 PGW851974:PGW852013 PQS851974:PQS852013 QAO851974:QAO852013 QKK851974:QKK852013 QUG851974:QUG852013 REC851974:REC852013 RNY851974:RNY852013 RXU851974:RXU852013 SHQ851974:SHQ852013 SRM851974:SRM852013 TBI851974:TBI852013 TLE851974:TLE852013 TVA851974:TVA852013 UEW851974:UEW852013 UOS851974:UOS852013 UYO851974:UYO852013 VIK851974:VIK852013 VSG851974:VSG852013 WCC851974:WCC852013 WLY851974:WLY852013 WVU851974:WVU852013 JI917510:JI917549 TE917510:TE917549 ADA917510:ADA917549 AMW917510:AMW917549 AWS917510:AWS917549 BGO917510:BGO917549 BQK917510:BQK917549 CAG917510:CAG917549 CKC917510:CKC917549 CTY917510:CTY917549 DDU917510:DDU917549 DNQ917510:DNQ917549 DXM917510:DXM917549 EHI917510:EHI917549 ERE917510:ERE917549 FBA917510:FBA917549 FKW917510:FKW917549 FUS917510:FUS917549 GEO917510:GEO917549 GOK917510:GOK917549 GYG917510:GYG917549 HIC917510:HIC917549 HRY917510:HRY917549 IBU917510:IBU917549 ILQ917510:ILQ917549 IVM917510:IVM917549 JFI917510:JFI917549 JPE917510:JPE917549 JZA917510:JZA917549 KIW917510:KIW917549 KSS917510:KSS917549 LCO917510:LCO917549 LMK917510:LMK917549 LWG917510:LWG917549 MGC917510:MGC917549 MPY917510:MPY917549 MZU917510:MZU917549 NJQ917510:NJQ917549 NTM917510:NTM917549 ODI917510:ODI917549 ONE917510:ONE917549 OXA917510:OXA917549 PGW917510:PGW917549 PQS917510:PQS917549 QAO917510:QAO917549 QKK917510:QKK917549 QUG917510:QUG917549 REC917510:REC917549 RNY917510:RNY917549 RXU917510:RXU917549 SHQ917510:SHQ917549 SRM917510:SRM917549 TBI917510:TBI917549 TLE917510:TLE917549 TVA917510:TVA917549 UEW917510:UEW917549 UOS917510:UOS917549 UYO917510:UYO917549 VIK917510:VIK917549 VSG917510:VSG917549 WCC917510:WCC917549 WLY917510:WLY917549 WVU917510:WVU917549 JI983046:JI983085 TE983046:TE983085 ADA983046:ADA983085 AMW983046:AMW983085 AWS983046:AWS983085 BGO983046:BGO983085 BQK983046:BQK983085 CAG983046:CAG983085 CKC983046:CKC983085 CTY983046:CTY983085 DDU983046:DDU983085 DNQ983046:DNQ983085 DXM983046:DXM983085 EHI983046:EHI983085 ERE983046:ERE983085 FBA983046:FBA983085 FKW983046:FKW983085 FUS983046:FUS983085 GEO983046:GEO983085 GOK983046:GOK983085 GYG983046:GYG983085 HIC983046:HIC983085 HRY983046:HRY983085 IBU983046:IBU983085 ILQ983046:ILQ983085 IVM983046:IVM983085 JFI983046:JFI983085 JPE983046:JPE983085 JZA983046:JZA983085 KIW983046:KIW983085 KSS983046:KSS983085 LCO983046:LCO983085 LMK983046:LMK983085 LWG983046:LWG983085 MGC983046:MGC983085 MPY983046:MPY983085 MZU983046:MZU983085 NJQ983046:NJQ983085 NTM983046:NTM983085 ODI983046:ODI983085 ONE983046:ONE983085 OXA983046:OXA983085 PGW983046:PGW983085 PQS983046:PQS983085 QAO983046:QAO983085 QKK983046:QKK983085 QUG983046:QUG983085 REC983046:REC983085 RNY983046:RNY983085 RXU983046:RXU983085 SHQ983046:SHQ983085 SRM983046:SRM983085 TBI983046:TBI983085 TLE983046:TLE983085 TVA983046:TVA983085 UEW983046:UEW983085 UOS983046:UOS983085 UYO983046:UYO983085 VIK983046:VIK983085 VSG983046:VSG983085 WCC983046:WCC983085 WLY983046:WLY983085 WVU983046:WVU983085 WVU5:WVU43 WLY5:WLY43 WCC5:WCC43 VSG5:VSG43 VIK5:VIK43 UYO5:UYO43 UOS5:UOS43 UEW5:UEW43 TVA5:TVA43 TLE5:TLE43 TBI5:TBI43 SRM5:SRM43 SHQ5:SHQ43 RXU5:RXU43 RNY5:RNY43 REC5:REC43 QUG5:QUG43 QKK5:QKK43 QAO5:QAO43 PQS5:PQS43 PGW5:PGW43 OXA5:OXA43 ONE5:ONE43 ODI5:ODI43 NTM5:NTM43 NJQ5:NJQ43 MZU5:MZU43 MPY5:MPY43 MGC5:MGC43 LWG5:LWG43 LMK5:LMK43 LCO5:LCO43 KSS5:KSS43 KIW5:KIW43 JZA5:JZA43 JPE5:JPE43 JFI5:JFI43 IVM5:IVM43 ILQ5:ILQ43 IBU5:IBU43 HRY5:HRY43 HIC5:HIC43 GYG5:GYG43 GOK5:GOK43 GEO5:GEO43 FUS5:FUS43 FKW5:FKW43 FBA5:FBA43 ERE5:ERE43 EHI5:EHI43 DXM5:DXM43 DNQ5:DNQ43 DDU5:DDU43 CTY5:CTY43 CKC5:CKC43 CAG5:CAG43 BQK5:BQK43 BGO5:BGO43 AWS5:AWS43 AMW5:AMW43 ADA5:ADA43 TE5:TE43 JI5:JI43" xr:uid="{00000000-0002-0000-0B00-000004000000}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
@@ -15448,7 +15555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -15913,37 +16020,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A1" s="153"/>
-      <c r="B1" s="153"/>
-      <c r="C1" s="154" t="s">
+      <c r="A1" s="134"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
       <c r="N1" s="40"/>
       <c r="O1" s="40"/>
       <c r="P1" s="41"/>
     </row>
     <row r="2" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A2" s="156"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
       <c r="M2" s="42" t="s">
         <v>134</v>
       </c>
@@ -15954,19 +16061,19 @@
       <c r="P2" s="41"/>
     </row>
     <row r="3" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="139" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
       <c r="M3" s="42" t="s">
         <v>135</v>
       </c>
@@ -15977,8 +16084,8 @@
       <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1">
-      <c r="A4" s="151"/>
-      <c r="B4" s="152"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="133"/>
       <c r="C4" s="45"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -15993,67 +16100,67 @@
       <c r="P4" s="41"/>
     </row>
     <row r="5" spans="1:259" ht="92.25" customHeight="1">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="152" t="s">
         <v>136</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="153" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="143" t="s">
+      <c r="D5" s="154"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="153" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="146" t="s">
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="156" t="s">
         <v>140</v>
       </c>
-      <c r="L5" s="147" t="s">
+      <c r="L5" s="157" t="s">
         <v>141</v>
       </c>
-      <c r="M5" s="149" t="s">
+      <c r="M5" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="N5" s="150"/>
-      <c r="O5" s="134" t="s">
+      <c r="N5" s="160"/>
+      <c r="O5" s="144" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:259" ht="200.25" customHeight="1">
-      <c r="A6" s="142"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="145" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135" t="s">
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="148"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="N6" s="136" t="s">
+      <c r="N6" s="146" t="s">
         <v>147</v>
       </c>
-      <c r="O6" s="134"/>
+      <c r="O6" s="144"/>
     </row>
     <row r="7" spans="1:259" ht="60" customHeight="1">
-      <c r="A7" s="142"/>
+      <c r="A7" s="152"/>
       <c r="B7" s="52" t="s">
         <v>148</v>
       </c>
@@ -16090,7 +16197,7 @@
       <c r="M7" s="56">
         <v>100</v>
       </c>
-      <c r="N7" s="137"/>
+      <c r="N7" s="147"/>
       <c r="O7" s="57">
         <v>100</v>
       </c>
@@ -18170,23 +18277,23 @@
       </c>
     </row>
     <row r="48" spans="1:259" ht="60" customHeight="1">
-      <c r="A48" s="138" t="s">
+      <c r="A48" s="148" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="138"/>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="138"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="138"/>
-      <c r="J48" s="138"/>
-      <c r="K48" s="138"/>
-      <c r="L48" s="138"/>
-      <c r="M48" s="138"/>
-      <c r="N48" s="138"/>
-      <c r="O48" s="138"/>
+      <c r="B48" s="148"/>
+      <c r="C48" s="148"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="148"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="148"/>
+      <c r="J48" s="148"/>
+      <c r="K48" s="148"/>
+      <c r="L48" s="148"/>
+      <c r="M48" s="148"/>
+      <c r="N48" s="148"/>
+      <c r="O48" s="148"/>
       <c r="P48" s="68"/>
       <c r="Q48" s="68"/>
       <c r="R48" s="68"/>
@@ -18437,17 +18544,17 @@
       <c r="B49" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="C49" s="139"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="140"/>
-      <c r="F49" s="140"/>
-      <c r="G49" s="140"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="140"/>
-      <c r="K49" s="140"/>
-      <c r="L49" s="140"/>
-      <c r="M49" s="141"/>
+      <c r="C49" s="149"/>
+      <c r="D49" s="150"/>
+      <c r="E49" s="150"/>
+      <c r="F49" s="150"/>
+      <c r="G49" s="150"/>
+      <c r="H49" s="150"/>
+      <c r="I49" s="150"/>
+      <c r="J49" s="150"/>
+      <c r="K49" s="150"/>
+      <c r="L49" s="150"/>
+      <c r="M49" s="151"/>
       <c r="N49" s="71"/>
       <c r="O49" s="71"/>
     </row>
@@ -18696,24 +18803,24 @@
       <c r="B55" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="C55" s="132" t="s">
+      <c r="C55" s="142" t="s">
         <v>183</v>
       </c>
-      <c r="D55" s="132" t="s">
+      <c r="D55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="E55" s="132" t="s">
+      <c r="E55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="F55" s="132" t="s">
+      <c r="F55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="G55" s="132"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132" t="s">
+      <c r="G55" s="142"/>
+      <c r="H55" s="142"/>
+      <c r="I55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="J55" s="132" t="s">
+      <c r="J55" s="142" t="s">
         <v>184</v>
       </c>
       <c r="K55" s="79" t="s">
@@ -18728,14 +18835,14 @@
     <row r="56" spans="1:16" s="88" customFormat="1" ht="42.75" customHeight="1">
       <c r="A56" s="83"/>
       <c r="B56" s="84"/>
-      <c r="C56" s="133"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="133"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="143"/>
       <c r="K56" s="85"/>
       <c r="L56" s="86"/>
       <c r="M56" s="86"/>
@@ -18746,12 +18853,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="bymfRcfdrKcinTwDVsD9Sw9HEi8Aylyen4Sk5Zge/jYh+kvPJ7FX30Y4JStUMt7GaslXX539UxCjP4mWFs/Pug==" saltValue="rJpldvugpSjeUtd+V1m7xQ==" spinCount="100000" sheet="1"/>
   <mergeCells count="20">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:L2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:K3"/>
     <mergeCell ref="C55:J55"/>
     <mergeCell ref="C56:J56"/>
     <mergeCell ref="O5:O6"/>
@@ -18766,22 +18867,28 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:L2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:K3"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L47" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:I47 K8:K47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:I47 K8:K47" xr:uid="{00000000-0002-0000-0C00-000001000000}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D47" xr:uid="{00000000-0002-0000-0C00-000002000000}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="يجب أن تكون القيمة بين 0 و 5" sqref="SU46:TF50 ACQ46:ADB50 AMM46:AMX50 AWI46:AWT50 BGE46:BGP50 BQA46:BQL50 BZW46:CAH50 CJS46:CKD50 CTO46:CTZ50 DDK46:DDV50 DNG46:DNR50 DXC46:DXN50 EGY46:EHJ50 EQU46:ERF50 FAQ46:FBB50 FKM46:FKX50 FUI46:FUT50 GEE46:GEP50 GOA46:GOL50 GXW46:GYH50 HHS46:HID50 HRO46:HRZ50 IBK46:IBV50 ILG46:ILR50 IVC46:IVN50 JEY46:JFJ50 JOU46:JPF50 JYQ46:JZB50 KIM46:KIX50 KSI46:KST50 LCE46:LCP50 LMA46:LML50 LVW46:LWH50 MFS46:MGD50 MPO46:MPZ50 MZK46:MZV50 NJG46:NJR50 NTC46:NTN50 OCY46:ODJ50 OMU46:ONF50 OWQ46:OXB50 PGM46:PGX50 PQI46:PQT50 QAE46:QAP50 QKA46:QKL50 QTW46:QUH50 RDS46:RED50 RNO46:RNZ50 RXK46:RXV50 SHG46:SHR50 SRC46:SRN50 TAY46:TBJ50 TKU46:TLF50 TUQ46:TVB50 UEM46:UEX50 UOI46:UOT50 UYE46:UYP50 VIA46:VIL50 VRW46:VSH50 WBS46:WCD50 WLO46:WLZ50 WVK46:WVV50 SU65584:TF65588 ACQ65584:ADB65588 AMM65584:AMX65588 AWI65584:AWT65588 BGE65584:BGP65588 BQA65584:BQL65588 BZW65584:CAH65588 CJS65584:CKD65588 CTO65584:CTZ65588 DDK65584:DDV65588 DNG65584:DNR65588 DXC65584:DXN65588 EGY65584:EHJ65588 EQU65584:ERF65588 FAQ65584:FBB65588 FKM65584:FKX65588 FUI65584:FUT65588 GEE65584:GEP65588 GOA65584:GOL65588 GXW65584:GYH65588 HHS65584:HID65588 HRO65584:HRZ65588 IBK65584:IBV65588 ILG65584:ILR65588 IVC65584:IVN65588 JEY65584:JFJ65588 JOU65584:JPF65588 JYQ65584:JZB65588 KIM65584:KIX65588 KSI65584:KST65588 LCE65584:LCP65588 LMA65584:LML65588 LVW65584:LWH65588 MFS65584:MGD65588 MPO65584:MPZ65588 MZK65584:MZV65588 NJG65584:NJR65588 NTC65584:NTN65588 OCY65584:ODJ65588 OMU65584:ONF65588 OWQ65584:OXB65588 PGM65584:PGX65588 PQI65584:PQT65588 QAE65584:QAP65588 QKA65584:QKL65588 QTW65584:QUH65588 RDS65584:RED65588 RNO65584:RNZ65588 RXK65584:RXV65588 SHG65584:SHR65588 SRC65584:SRN65588 TAY65584:TBJ65588 TKU65584:TLF65588 TUQ65584:TVB65588 UEM65584:UEX65588 UOI65584:UOT65588 UYE65584:UYP65588 VIA65584:VIL65588 VRW65584:VSH65588 WBS65584:WCD65588 WLO65584:WLZ65588 WVK65584:WVV65588 SU131120:TF131124 ACQ131120:ADB131124 AMM131120:AMX131124 AWI131120:AWT131124 BGE131120:BGP131124 BQA131120:BQL131124 BZW131120:CAH131124 CJS131120:CKD131124 CTO131120:CTZ131124 DDK131120:DDV131124 DNG131120:DNR131124 DXC131120:DXN131124 EGY131120:EHJ131124 EQU131120:ERF131124 FAQ131120:FBB131124 FKM131120:FKX131124 FUI131120:FUT131124 GEE131120:GEP131124 GOA131120:GOL131124 GXW131120:GYH131124 HHS131120:HID131124 HRO131120:HRZ131124 IBK131120:IBV131124 ILG131120:ILR131124 IVC131120:IVN131124 JEY131120:JFJ131124 JOU131120:JPF131124 JYQ131120:JZB131124 KIM131120:KIX131124 KSI131120:KST131124 LCE131120:LCP131124 LMA131120:LML131124 LVW131120:LWH131124 MFS131120:MGD131124 MPO131120:MPZ131124 MZK131120:MZV131124 NJG131120:NJR131124 NTC131120:NTN131124 OCY131120:ODJ131124 OMU131120:ONF131124 OWQ131120:OXB131124 PGM131120:PGX131124 PQI131120:PQT131124 QAE131120:QAP131124 QKA131120:QKL131124 QTW131120:QUH131124 RDS131120:RED131124 RNO131120:RNZ131124 RXK131120:RXV131124 SHG131120:SHR131124 SRC131120:SRN131124 TAY131120:TBJ131124 TKU131120:TLF131124 TUQ131120:TVB131124 UEM131120:UEX131124 UOI131120:UOT131124 UYE131120:UYP131124 VIA131120:VIL131124 VRW131120:VSH131124 WBS131120:WCD131124 WLO131120:WLZ131124 WVK131120:WVV131124 SU196656:TF196660 ACQ196656:ADB196660 AMM196656:AMX196660 AWI196656:AWT196660 BGE196656:BGP196660 BQA196656:BQL196660 BZW196656:CAH196660 CJS196656:CKD196660 CTO196656:CTZ196660 DDK196656:DDV196660 DNG196656:DNR196660 DXC196656:DXN196660 EGY196656:EHJ196660 EQU196656:ERF196660 FAQ196656:FBB196660 FKM196656:FKX196660 FUI196656:FUT196660 GEE196656:GEP196660 GOA196656:GOL196660 GXW196656:GYH196660 HHS196656:HID196660 HRO196656:HRZ196660 IBK196656:IBV196660 ILG196656:ILR196660 IVC196656:IVN196660 JEY196656:JFJ196660 JOU196656:JPF196660 JYQ196656:JZB196660 KIM196656:KIX196660 KSI196656:KST196660 LCE196656:LCP196660 LMA196656:LML196660 LVW196656:LWH196660 MFS196656:MGD196660 MPO196656:MPZ196660 MZK196656:MZV196660 NJG196656:NJR196660 NTC196656:NTN196660 OCY196656:ODJ196660 OMU196656:ONF196660 OWQ196656:OXB196660 PGM196656:PGX196660 PQI196656:PQT196660 QAE196656:QAP196660 QKA196656:QKL196660 QTW196656:QUH196660 RDS196656:RED196660 RNO196656:RNZ196660 RXK196656:RXV196660 SHG196656:SHR196660 SRC196656:SRN196660 TAY196656:TBJ196660 TKU196656:TLF196660 TUQ196656:TVB196660 UEM196656:UEX196660 UOI196656:UOT196660 UYE196656:UYP196660 VIA196656:VIL196660 VRW196656:VSH196660 WBS196656:WCD196660 WLO196656:WLZ196660 WVK196656:WVV196660 SU262192:TF262196 ACQ262192:ADB262196 AMM262192:AMX262196 AWI262192:AWT262196 BGE262192:BGP262196 BQA262192:BQL262196 BZW262192:CAH262196 CJS262192:CKD262196 CTO262192:CTZ262196 DDK262192:DDV262196 DNG262192:DNR262196 DXC262192:DXN262196 EGY262192:EHJ262196 EQU262192:ERF262196 FAQ262192:FBB262196 FKM262192:FKX262196 FUI262192:FUT262196 GEE262192:GEP262196 GOA262192:GOL262196 GXW262192:GYH262196 HHS262192:HID262196 HRO262192:HRZ262196 IBK262192:IBV262196 ILG262192:ILR262196 IVC262192:IVN262196 JEY262192:JFJ262196 JOU262192:JPF262196 JYQ262192:JZB262196 KIM262192:KIX262196 KSI262192:KST262196 LCE262192:LCP262196 LMA262192:LML262196 LVW262192:LWH262196 MFS262192:MGD262196 MPO262192:MPZ262196 MZK262192:MZV262196 NJG262192:NJR262196 NTC262192:NTN262196 OCY262192:ODJ262196 OMU262192:ONF262196 OWQ262192:OXB262196 PGM262192:PGX262196 PQI262192:PQT262196 QAE262192:QAP262196 QKA262192:QKL262196 QTW262192:QUH262196 RDS262192:RED262196 RNO262192:RNZ262196 RXK262192:RXV262196 SHG262192:SHR262196 SRC262192:SRN262196 TAY262192:TBJ262196 TKU262192:TLF262196 TUQ262192:TVB262196 UEM262192:UEX262196 UOI262192:UOT262196 UYE262192:UYP262196 VIA262192:VIL262196 VRW262192:VSH262196 WBS262192:WCD262196 WLO262192:WLZ262196 WVK262192:WVV262196 SU327728:TF327732 ACQ327728:ADB327732 AMM327728:AMX327732 AWI327728:AWT327732 BGE327728:BGP327732 BQA327728:BQL327732 BZW327728:CAH327732 CJS327728:CKD327732 CTO327728:CTZ327732 DDK327728:DDV327732 DNG327728:DNR327732 DXC327728:DXN327732 EGY327728:EHJ327732 EQU327728:ERF327732 FAQ327728:FBB327732 FKM327728:FKX327732 FUI327728:FUT327732 GEE327728:GEP327732 GOA327728:GOL327732 GXW327728:GYH327732 HHS327728:HID327732 HRO327728:HRZ327732 IBK327728:IBV327732 ILG327728:ILR327732 IVC327728:IVN327732 JEY327728:JFJ327732 JOU327728:JPF327732 JYQ327728:JZB327732 KIM327728:KIX327732 KSI327728:KST327732 LCE327728:LCP327732 LMA327728:LML327732 LVW327728:LWH327732 MFS327728:MGD327732 MPO327728:MPZ327732 MZK327728:MZV327732 NJG327728:NJR327732 NTC327728:NTN327732 OCY327728:ODJ327732 OMU327728:ONF327732 OWQ327728:OXB327732 PGM327728:PGX327732 PQI327728:PQT327732 QAE327728:QAP327732 QKA327728:QKL327732 QTW327728:QUH327732 RDS327728:RED327732 RNO327728:RNZ327732 RXK327728:RXV327732 SHG327728:SHR327732 SRC327728:SRN327732 TAY327728:TBJ327732 TKU327728:TLF327732 TUQ327728:TVB327732 UEM327728:UEX327732 UOI327728:UOT327732 UYE327728:UYP327732 VIA327728:VIL327732 VRW327728:VSH327732 WBS327728:WCD327732 WLO327728:WLZ327732 WVK327728:WVV327732 SU393264:TF393268 ACQ393264:ADB393268 AMM393264:AMX393268 AWI393264:AWT393268 BGE393264:BGP393268 BQA393264:BQL393268 BZW393264:CAH393268 CJS393264:CKD393268 CTO393264:CTZ393268 DDK393264:DDV393268 DNG393264:DNR393268 DXC393264:DXN393268 EGY393264:EHJ393268 EQU393264:ERF393268 FAQ393264:FBB393268 FKM393264:FKX393268 FUI393264:FUT393268 GEE393264:GEP393268 GOA393264:GOL393268 GXW393264:GYH393268 HHS393264:HID393268 HRO393264:HRZ393268 IBK393264:IBV393268 ILG393264:ILR393268 IVC393264:IVN393268 JEY393264:JFJ393268 JOU393264:JPF393268 JYQ393264:JZB393268 KIM393264:KIX393268 KSI393264:KST393268 LCE393264:LCP393268 LMA393264:LML393268 LVW393264:LWH393268 MFS393264:MGD393268 MPO393264:MPZ393268 MZK393264:MZV393268 NJG393264:NJR393268 NTC393264:NTN393268 OCY393264:ODJ393268 OMU393264:ONF393268 OWQ393264:OXB393268 PGM393264:PGX393268 PQI393264:PQT393268 QAE393264:QAP393268 QKA393264:QKL393268 QTW393264:QUH393268 RDS393264:RED393268 RNO393264:RNZ393268 RXK393264:RXV393268 SHG393264:SHR393268 SRC393264:SRN393268 TAY393264:TBJ393268 TKU393264:TLF393268 TUQ393264:TVB393268 UEM393264:UEX393268 UOI393264:UOT393268 UYE393264:UYP393268 VIA393264:VIL393268 VRW393264:VSH393268 WBS393264:WCD393268 WLO393264:WLZ393268 WVK393264:WVV393268 SU458800:TF458804 ACQ458800:ADB458804 AMM458800:AMX458804 AWI458800:AWT458804 BGE458800:BGP458804 BQA458800:BQL458804 BZW458800:CAH458804 CJS458800:CKD458804 CTO458800:CTZ458804 DDK458800:DDV458804 DNG458800:DNR458804 DXC458800:DXN458804 EGY458800:EHJ458804 EQU458800:ERF458804 FAQ458800:FBB458804 FKM458800:FKX458804 FUI458800:FUT458804 GEE458800:GEP458804 GOA458800:GOL458804 GXW458800:GYH458804 HHS458800:HID458804 HRO458800:HRZ458804 IBK458800:IBV458804 ILG458800:ILR458804 IVC458800:IVN458804 JEY458800:JFJ458804 JOU458800:JPF458804 JYQ458800:JZB458804 KIM458800:KIX458804 KSI458800:KST458804 LCE458800:LCP458804 LMA458800:LML458804 LVW458800:LWH458804 MFS458800:MGD458804 MPO458800:MPZ458804 MZK458800:MZV458804 NJG458800:NJR458804 NTC458800:NTN458804 OCY458800:ODJ458804 OMU458800:ONF458804 OWQ458800:OXB458804 PGM458800:PGX458804 PQI458800:PQT458804 QAE458800:QAP458804 QKA458800:QKL458804 QTW458800:QUH458804 RDS458800:RED458804 RNO458800:RNZ458804 RXK458800:RXV458804 SHG458800:SHR458804 SRC458800:SRN458804 TAY458800:TBJ458804 TKU458800:TLF458804 TUQ458800:TVB458804 UEM458800:UEX458804 UOI458800:UOT458804 UYE458800:UYP458804 VIA458800:VIL458804 VRW458800:VSH458804 WBS458800:WCD458804 WLO458800:WLZ458804 WVK458800:WVV458804 SU524336:TF524340 ACQ524336:ADB524340 AMM524336:AMX524340 AWI524336:AWT524340 BGE524336:BGP524340 BQA524336:BQL524340 BZW524336:CAH524340 CJS524336:CKD524340 CTO524336:CTZ524340 DDK524336:DDV524340 DNG524336:DNR524340 DXC524336:DXN524340 EGY524336:EHJ524340 EQU524336:ERF524340 FAQ524336:FBB524340 FKM524336:FKX524340 FUI524336:FUT524340 GEE524336:GEP524340 GOA524336:GOL524340 GXW524336:GYH524340 HHS524336:HID524340 HRO524336:HRZ524340 IBK524336:IBV524340 ILG524336:ILR524340 IVC524336:IVN524340 JEY524336:JFJ524340 JOU524336:JPF524340 JYQ524336:JZB524340 KIM524336:KIX524340 KSI524336:KST524340 LCE524336:LCP524340 LMA524336:LML524340 LVW524336:LWH524340 MFS524336:MGD524340 MPO524336:MPZ524340 MZK524336:MZV524340 NJG524336:NJR524340 NTC524336:NTN524340 OCY524336:ODJ524340 OMU524336:ONF524340 OWQ524336:OXB524340 PGM524336:PGX524340 PQI524336:PQT524340 QAE524336:QAP524340 QKA524336:QKL524340 QTW524336:QUH524340 RDS524336:RED524340 RNO524336:RNZ524340 RXK524336:RXV524340 SHG524336:SHR524340 SRC524336:SRN524340 TAY524336:TBJ524340 TKU524336:TLF524340 TUQ524336:TVB524340 UEM524336:UEX524340 UOI524336:UOT524340 UYE524336:UYP524340 VIA524336:VIL524340 VRW524336:VSH524340 WBS524336:WCD524340 WLO524336:WLZ524340 WVK524336:WVV524340 SU589872:TF589876 ACQ589872:ADB589876 AMM589872:AMX589876 AWI589872:AWT589876 BGE589872:BGP589876 BQA589872:BQL589876 BZW589872:CAH589876 CJS589872:CKD589876 CTO589872:CTZ589876 DDK589872:DDV589876 DNG589872:DNR589876 DXC589872:DXN589876 EGY589872:EHJ589876 EQU589872:ERF589876 FAQ589872:FBB589876 FKM589872:FKX589876 FUI589872:FUT589876 GEE589872:GEP589876 GOA589872:GOL589876 GXW589872:GYH589876 HHS589872:HID589876 HRO589872:HRZ589876 IBK589872:IBV589876 ILG589872:ILR589876 IVC589872:IVN589876 JEY589872:JFJ589876 JOU589872:JPF589876 JYQ589872:JZB589876 KIM589872:KIX589876 KSI589872:KST589876 LCE589872:LCP589876 LMA589872:LML589876 LVW589872:LWH589876 MFS589872:MGD589876 MPO589872:MPZ589876 MZK589872:MZV589876 NJG589872:NJR589876 NTC589872:NTN589876 OCY589872:ODJ589876 OMU589872:ONF589876 OWQ589872:OXB589876 PGM589872:PGX589876 PQI589872:PQT589876 QAE589872:QAP589876 QKA589872:QKL589876 QTW589872:QUH589876 RDS589872:RED589876 RNO589872:RNZ589876 RXK589872:RXV589876 SHG589872:SHR589876 SRC589872:SRN589876 TAY589872:TBJ589876 TKU589872:TLF589876 TUQ589872:TVB589876 UEM589872:UEX589876 UOI589872:UOT589876 UYE589872:UYP589876 VIA589872:VIL589876 VRW589872:VSH589876 WBS589872:WCD589876 WLO589872:WLZ589876 WVK589872:WVV589876 SU655408:TF655412 ACQ655408:ADB655412 AMM655408:AMX655412 AWI655408:AWT655412 BGE655408:BGP655412 BQA655408:BQL655412 BZW655408:CAH655412 CJS655408:CKD655412 CTO655408:CTZ655412 DDK655408:DDV655412 DNG655408:DNR655412 DXC655408:DXN655412 EGY655408:EHJ655412 EQU655408:ERF655412 FAQ655408:FBB655412 FKM655408:FKX655412 FUI655408:FUT655412 GEE655408:GEP655412 GOA655408:GOL655412 GXW655408:GYH655412 HHS655408:HID655412 HRO655408:HRZ655412 IBK655408:IBV655412 ILG655408:ILR655412 IVC655408:IVN655412 JEY655408:JFJ655412 JOU655408:JPF655412 JYQ655408:JZB655412 KIM655408:KIX655412 KSI655408:KST655412 LCE655408:LCP655412 LMA655408:LML655412 LVW655408:LWH655412 MFS655408:MGD655412 MPO655408:MPZ655412 MZK655408:MZV655412 NJG655408:NJR655412 NTC655408:NTN655412 OCY655408:ODJ655412 OMU655408:ONF655412 OWQ655408:OXB655412 PGM655408:PGX655412 PQI655408:PQT655412 QAE655408:QAP655412 QKA655408:QKL655412 QTW655408:QUH655412 RDS655408:RED655412 RNO655408:RNZ655412 RXK655408:RXV655412 SHG655408:SHR655412 SRC655408:SRN655412 TAY655408:TBJ655412 TKU655408:TLF655412 TUQ655408:TVB655412 UEM655408:UEX655412 UOI655408:UOT655412 UYE655408:UYP655412 VIA655408:VIL655412 VRW655408:VSH655412 WBS655408:WCD655412 WLO655408:WLZ655412 WVK655408:WVV655412 SU720944:TF720948 ACQ720944:ADB720948 AMM720944:AMX720948 AWI720944:AWT720948 BGE720944:BGP720948 BQA720944:BQL720948 BZW720944:CAH720948 CJS720944:CKD720948 CTO720944:CTZ720948 DDK720944:DDV720948 DNG720944:DNR720948 DXC720944:DXN720948 EGY720944:EHJ720948 EQU720944:ERF720948 FAQ720944:FBB720948 FKM720944:FKX720948 FUI720944:FUT720948 GEE720944:GEP720948 GOA720944:GOL720948 GXW720944:GYH720948 HHS720944:HID720948 HRO720944:HRZ720948 IBK720944:IBV720948 ILG720944:ILR720948 IVC720944:IVN720948 JEY720944:JFJ720948 JOU720944:JPF720948 JYQ720944:JZB720948 KIM720944:KIX720948 KSI720944:KST720948 LCE720944:LCP720948 LMA720944:LML720948 LVW720944:LWH720948 MFS720944:MGD720948 MPO720944:MPZ720948 MZK720944:MZV720948 NJG720944:NJR720948 NTC720944:NTN720948 OCY720944:ODJ720948 OMU720944:ONF720948 OWQ720944:OXB720948 PGM720944:PGX720948 PQI720944:PQT720948 QAE720944:QAP720948 QKA720944:QKL720948 QTW720944:QUH720948 RDS720944:RED720948 RNO720944:RNZ720948 RXK720944:RXV720948 SHG720944:SHR720948 SRC720944:SRN720948 TAY720944:TBJ720948 TKU720944:TLF720948 TUQ720944:TVB720948 UEM720944:UEX720948 UOI720944:UOT720948 UYE720944:UYP720948 VIA720944:VIL720948 VRW720944:VSH720948 WBS720944:WCD720948 WLO720944:WLZ720948 WVK720944:WVV720948 SU786480:TF786484 ACQ786480:ADB786484 AMM786480:AMX786484 AWI786480:AWT786484 BGE786480:BGP786484 BQA786480:BQL786484 BZW786480:CAH786484 CJS786480:CKD786484 CTO786480:CTZ786484 DDK786480:DDV786484 DNG786480:DNR786484 DXC786480:DXN786484 EGY786480:EHJ786484 EQU786480:ERF786484 FAQ786480:FBB786484 FKM786480:FKX786484 FUI786480:FUT786484 GEE786480:GEP786484 GOA786480:GOL786484 GXW786480:GYH786484 HHS786480:HID786484 HRO786480:HRZ786484 IBK786480:IBV786484 ILG786480:ILR786484 IVC786480:IVN786484 JEY786480:JFJ786484 JOU786480:JPF786484 JYQ786480:JZB786484 KIM786480:KIX786484 KSI786480:KST786484 LCE786480:LCP786484 LMA786480:LML786484 LVW786480:LWH786484 MFS786480:MGD786484 MPO786480:MPZ786484 MZK786480:MZV786484 NJG786480:NJR786484 NTC786480:NTN786484 OCY786480:ODJ786484 OMU786480:ONF786484 OWQ786480:OXB786484 PGM786480:PGX786484 PQI786480:PQT786484 QAE786480:QAP786484 QKA786480:QKL786484 QTW786480:QUH786484 RDS786480:RED786484 RNO786480:RNZ786484 RXK786480:RXV786484 SHG786480:SHR786484 SRC786480:SRN786484 TAY786480:TBJ786484 TKU786480:TLF786484 TUQ786480:TVB786484 UEM786480:UEX786484 UOI786480:UOT786484 UYE786480:UYP786484 VIA786480:VIL786484 VRW786480:VSH786484 WBS786480:WCD786484 WLO786480:WLZ786484 WVK786480:WVV786484 SU852016:TF852020 ACQ852016:ADB852020 AMM852016:AMX852020 AWI852016:AWT852020 BGE852016:BGP852020 BQA852016:BQL852020 BZW852016:CAH852020 CJS852016:CKD852020 CTO852016:CTZ852020 DDK852016:DDV852020 DNG852016:DNR852020 DXC852016:DXN852020 EGY852016:EHJ852020 EQU852016:ERF852020 FAQ852016:FBB852020 FKM852016:FKX852020 FUI852016:FUT852020 GEE852016:GEP852020 GOA852016:GOL852020 GXW852016:GYH852020 HHS852016:HID852020 HRO852016:HRZ852020 IBK852016:IBV852020 ILG852016:ILR852020 IVC852016:IVN852020 JEY852016:JFJ852020 JOU852016:JPF852020 JYQ852016:JZB852020 KIM852016:KIX852020 KSI852016:KST852020 LCE852016:LCP852020 LMA852016:LML852020 LVW852016:LWH852020 MFS852016:MGD852020 MPO852016:MPZ852020 MZK852016:MZV852020 NJG852016:NJR852020 NTC852016:NTN852020 OCY852016:ODJ852020 OMU852016:ONF852020 OWQ852016:OXB852020 PGM852016:PGX852020 PQI852016:PQT852020 QAE852016:QAP852020 QKA852016:QKL852020 QTW852016:QUH852020 RDS852016:RED852020 RNO852016:RNZ852020 RXK852016:RXV852020 SHG852016:SHR852020 SRC852016:SRN852020 TAY852016:TBJ852020 TKU852016:TLF852020 TUQ852016:TVB852020 UEM852016:UEX852020 UOI852016:UOT852020 UYE852016:UYP852020 VIA852016:VIL852020 VRW852016:VSH852020 WBS852016:WCD852020 WLO852016:WLZ852020 WVK852016:WVV852020 SU917552:TF917556 ACQ917552:ADB917556 AMM917552:AMX917556 AWI917552:AWT917556 BGE917552:BGP917556 BQA917552:BQL917556 BZW917552:CAH917556 CJS917552:CKD917556 CTO917552:CTZ917556 DDK917552:DDV917556 DNG917552:DNR917556 DXC917552:DXN917556 EGY917552:EHJ917556 EQU917552:ERF917556 FAQ917552:FBB917556 FKM917552:FKX917556 FUI917552:FUT917556 GEE917552:GEP917556 GOA917552:GOL917556 GXW917552:GYH917556 HHS917552:HID917556 HRO917552:HRZ917556 IBK917552:IBV917556 ILG917552:ILR917556 IVC917552:IVN917556 JEY917552:JFJ917556 JOU917552:JPF917556 JYQ917552:JZB917556 KIM917552:KIX917556 KSI917552:KST917556 LCE917552:LCP917556 LMA917552:LML917556 LVW917552:LWH917556 MFS917552:MGD917556 MPO917552:MPZ917556 MZK917552:MZV917556 NJG917552:NJR917556 NTC917552:NTN917556 OCY917552:ODJ917556 OMU917552:ONF917556 OWQ917552:OXB917556 PGM917552:PGX917556 PQI917552:PQT917556 QAE917552:QAP917556 QKA917552:QKL917556 QTW917552:QUH917556 RDS917552:RED917556 RNO917552:RNZ917556 RXK917552:RXV917556 SHG917552:SHR917556 SRC917552:SRN917556 TAY917552:TBJ917556 TKU917552:TLF917556 TUQ917552:TVB917556 UEM917552:UEX917556 UOI917552:UOT917556 UYE917552:UYP917556 VIA917552:VIL917556 VRW917552:VSH917556 WBS917552:WCD917556 WLO917552:WLZ917556 WVK917552:WVV917556 WVK983088:WVV983092 SU983088:TF983092 ACQ983088:ADB983092 AMM983088:AMX983092 AWI983088:AWT983092 BGE983088:BGP983092 BQA983088:BQL983092 BZW983088:CAH983092 CJS983088:CKD983092 CTO983088:CTZ983092 DDK983088:DDV983092 DNG983088:DNR983092 DXC983088:DXN983092 EGY983088:EHJ983092 EQU983088:ERF983092 FAQ983088:FBB983092 FKM983088:FKX983092 FUI983088:FUT983092 GEE983088:GEP983092 GOA983088:GOL983092 GXW983088:GYH983092 HHS983088:HID983092 HRO983088:HRZ983092 IBK983088:IBV983092 ILG983088:ILR983092 IVC983088:IVN983092 JEY983088:JFJ983092 JOU983088:JPF983092 JYQ983088:JZB983092 KIM983088:KIX983092 KSI983088:KST983092 LCE983088:LCP983092 LMA983088:LML983092 LVW983088:LWH983092 MFS983088:MGD983092 MPO983088:MPZ983092 MZK983088:MZV983092 NJG983088:NJR983092 NTC983088:NTN983092 OCY983088:ODJ983092 OMU983088:ONF983092 OWQ983088:OXB983092 PGM983088:PGX983092 PQI983088:PQT983092 QAE983088:QAP983092 QKA983088:QKL983092 QTW983088:QUH983092 RDS983088:RED983092 RNO983088:RNZ983092 RXK983088:RXV983092 SHG983088:SHR983092 SRC983088:SRN983092 TAY983088:TBJ983092 TKU983088:TLF983092 TUQ983088:TVB983092 UEM983088:UEX983092 UOI983088:UOT983092 UYE983088:UYP983092 VIA983088:VIL983092 VRW983088:VSH983092 WBS983088:WCD983092 WLO983088:WLZ983092 IY50:IY54 C917556:M917560 C852020:M852024 C786484:M786488 C720948:M720952 C655412:M655416 C589876:M589880 C524340:M524344 C458804:M458808 C393268:M393272 C327732:M327736 C262196:M262200 C196660:M196664 C131124:M131128 C65588:M65592 C983092:M983096 IY983092:IY983096 IZ983088:JJ983092 IY917556:IY917560 IZ917552:JJ917556 IY852020:IY852024 IZ852016:JJ852020 IY786484:IY786488 IZ786480:JJ786484 IY720948:IY720952 IZ720944:JJ720948 IY655412:IY655416 IZ655408:JJ655412 IY589876:IY589880 IZ589872:JJ589876 IY524340:IY524344 IZ524336:JJ524340 IY458804:IY458808 IZ458800:JJ458804 IY393268:IY393272 IZ393264:JJ393268 IY327732:IY327736 IZ327728:JJ327732 IY262196:IY262200 IZ262192:JJ262196 IY196660:IY196664 IZ196656:JJ196660 IY131124:IY131128 IZ131120:JJ131124 IY65588:IY65592 IZ65584:JJ65588 IZ46:JJ50 C50:M54"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JI65542:JI65581 TE65542:TE65581 ADA65542:ADA65581 AMW65542:AMW65581 AWS65542:AWS65581 BGO65542:BGO65581 BQK65542:BQK65581 CAG65542:CAG65581 CKC65542:CKC65581 CTY65542:CTY65581 DDU65542:DDU65581 DNQ65542:DNQ65581 DXM65542:DXM65581 EHI65542:EHI65581 ERE65542:ERE65581 FBA65542:FBA65581 FKW65542:FKW65581 FUS65542:FUS65581 GEO65542:GEO65581 GOK65542:GOK65581 GYG65542:GYG65581 HIC65542:HIC65581 HRY65542:HRY65581 IBU65542:IBU65581 ILQ65542:ILQ65581 IVM65542:IVM65581 JFI65542:JFI65581 JPE65542:JPE65581 JZA65542:JZA65581 KIW65542:KIW65581 KSS65542:KSS65581 LCO65542:LCO65581 LMK65542:LMK65581 LWG65542:LWG65581 MGC65542:MGC65581 MPY65542:MPY65581 MZU65542:MZU65581 NJQ65542:NJQ65581 NTM65542:NTM65581 ODI65542:ODI65581 ONE65542:ONE65581 OXA65542:OXA65581 PGW65542:PGW65581 PQS65542:PQS65581 QAO65542:QAO65581 QKK65542:QKK65581 QUG65542:QUG65581 REC65542:REC65581 RNY65542:RNY65581 RXU65542:RXU65581 SHQ65542:SHQ65581 SRM65542:SRM65581 TBI65542:TBI65581 TLE65542:TLE65581 TVA65542:TVA65581 UEW65542:UEW65581 UOS65542:UOS65581 UYO65542:UYO65581 VIK65542:VIK65581 VSG65542:VSG65581 WCC65542:WCC65581 WLY65542:WLY65581 WVU65542:WVU65581 JI131078:JI131117 TE131078:TE131117 ADA131078:ADA131117 AMW131078:AMW131117 AWS131078:AWS131117 BGO131078:BGO131117 BQK131078:BQK131117 CAG131078:CAG131117 CKC131078:CKC131117 CTY131078:CTY131117 DDU131078:DDU131117 DNQ131078:DNQ131117 DXM131078:DXM131117 EHI131078:EHI131117 ERE131078:ERE131117 FBA131078:FBA131117 FKW131078:FKW131117 FUS131078:FUS131117 GEO131078:GEO131117 GOK131078:GOK131117 GYG131078:GYG131117 HIC131078:HIC131117 HRY131078:HRY131117 IBU131078:IBU131117 ILQ131078:ILQ131117 IVM131078:IVM131117 JFI131078:JFI131117 JPE131078:JPE131117 JZA131078:JZA131117 KIW131078:KIW131117 KSS131078:KSS131117 LCO131078:LCO131117 LMK131078:LMK131117 LWG131078:LWG131117 MGC131078:MGC131117 MPY131078:MPY131117 MZU131078:MZU131117 NJQ131078:NJQ131117 NTM131078:NTM131117 ODI131078:ODI131117 ONE131078:ONE131117 OXA131078:OXA131117 PGW131078:PGW131117 PQS131078:PQS131117 QAO131078:QAO131117 QKK131078:QKK131117 QUG131078:QUG131117 REC131078:REC131117 RNY131078:RNY131117 RXU131078:RXU131117 SHQ131078:SHQ131117 SRM131078:SRM131117 TBI131078:TBI131117 TLE131078:TLE131117 TVA131078:TVA131117 UEW131078:UEW131117 UOS131078:UOS131117 UYO131078:UYO131117 VIK131078:VIK131117 VSG131078:VSG131117 WCC131078:WCC131117 WLY131078:WLY131117 WVU131078:WVU131117 JI196614:JI196653 TE196614:TE196653 ADA196614:ADA196653 AMW196614:AMW196653 AWS196614:AWS196653 BGO196614:BGO196653 BQK196614:BQK196653 CAG196614:CAG196653 CKC196614:CKC196653 CTY196614:CTY196653 DDU196614:DDU196653 DNQ196614:DNQ196653 DXM196614:DXM196653 EHI196614:EHI196653 ERE196614:ERE196653 FBA196614:FBA196653 FKW196614:FKW196653 FUS196614:FUS196653 GEO196614:GEO196653 GOK196614:GOK196653 GYG196614:GYG196653 HIC196614:HIC196653 HRY196614:HRY196653 IBU196614:IBU196653 ILQ196614:ILQ196653 IVM196614:IVM196653 JFI196614:JFI196653 JPE196614:JPE196653 JZA196614:JZA196653 KIW196614:KIW196653 KSS196614:KSS196653 LCO196614:LCO196653 LMK196614:LMK196653 LWG196614:LWG196653 MGC196614:MGC196653 MPY196614:MPY196653 MZU196614:MZU196653 NJQ196614:NJQ196653 NTM196614:NTM196653 ODI196614:ODI196653 ONE196614:ONE196653 OXA196614:OXA196653 PGW196614:PGW196653 PQS196614:PQS196653 QAO196614:QAO196653 QKK196614:QKK196653 QUG196614:QUG196653 REC196614:REC196653 RNY196614:RNY196653 RXU196614:RXU196653 SHQ196614:SHQ196653 SRM196614:SRM196653 TBI196614:TBI196653 TLE196614:TLE196653 TVA196614:TVA196653 UEW196614:UEW196653 UOS196614:UOS196653 UYO196614:UYO196653 VIK196614:VIK196653 VSG196614:VSG196653 WCC196614:WCC196653 WLY196614:WLY196653 WVU196614:WVU196653 JI262150:JI262189 TE262150:TE262189 ADA262150:ADA262189 AMW262150:AMW262189 AWS262150:AWS262189 BGO262150:BGO262189 BQK262150:BQK262189 CAG262150:CAG262189 CKC262150:CKC262189 CTY262150:CTY262189 DDU262150:DDU262189 DNQ262150:DNQ262189 DXM262150:DXM262189 EHI262150:EHI262189 ERE262150:ERE262189 FBA262150:FBA262189 FKW262150:FKW262189 FUS262150:FUS262189 GEO262150:GEO262189 GOK262150:GOK262189 GYG262150:GYG262189 HIC262150:HIC262189 HRY262150:HRY262189 IBU262150:IBU262189 ILQ262150:ILQ262189 IVM262150:IVM262189 JFI262150:JFI262189 JPE262150:JPE262189 JZA262150:JZA262189 KIW262150:KIW262189 KSS262150:KSS262189 LCO262150:LCO262189 LMK262150:LMK262189 LWG262150:LWG262189 MGC262150:MGC262189 MPY262150:MPY262189 MZU262150:MZU262189 NJQ262150:NJQ262189 NTM262150:NTM262189 ODI262150:ODI262189 ONE262150:ONE262189 OXA262150:OXA262189 PGW262150:PGW262189 PQS262150:PQS262189 QAO262150:QAO262189 QKK262150:QKK262189 QUG262150:QUG262189 REC262150:REC262189 RNY262150:RNY262189 RXU262150:RXU262189 SHQ262150:SHQ262189 SRM262150:SRM262189 TBI262150:TBI262189 TLE262150:TLE262189 TVA262150:TVA262189 UEW262150:UEW262189 UOS262150:UOS262189 UYO262150:UYO262189 VIK262150:VIK262189 VSG262150:VSG262189 WCC262150:WCC262189 WLY262150:WLY262189 WVU262150:WVU262189 JI327686:JI327725 TE327686:TE327725 ADA327686:ADA327725 AMW327686:AMW327725 AWS327686:AWS327725 BGO327686:BGO327725 BQK327686:BQK327725 CAG327686:CAG327725 CKC327686:CKC327725 CTY327686:CTY327725 DDU327686:DDU327725 DNQ327686:DNQ327725 DXM327686:DXM327725 EHI327686:EHI327725 ERE327686:ERE327725 FBA327686:FBA327725 FKW327686:FKW327725 FUS327686:FUS327725 GEO327686:GEO327725 GOK327686:GOK327725 GYG327686:GYG327725 HIC327686:HIC327725 HRY327686:HRY327725 IBU327686:IBU327725 ILQ327686:ILQ327725 IVM327686:IVM327725 JFI327686:JFI327725 JPE327686:JPE327725 JZA327686:JZA327725 KIW327686:KIW327725 KSS327686:KSS327725 LCO327686:LCO327725 LMK327686:LMK327725 LWG327686:LWG327725 MGC327686:MGC327725 MPY327686:MPY327725 MZU327686:MZU327725 NJQ327686:NJQ327725 NTM327686:NTM327725 ODI327686:ODI327725 ONE327686:ONE327725 OXA327686:OXA327725 PGW327686:PGW327725 PQS327686:PQS327725 QAO327686:QAO327725 QKK327686:QKK327725 QUG327686:QUG327725 REC327686:REC327725 RNY327686:RNY327725 RXU327686:RXU327725 SHQ327686:SHQ327725 SRM327686:SRM327725 TBI327686:TBI327725 TLE327686:TLE327725 TVA327686:TVA327725 UEW327686:UEW327725 UOS327686:UOS327725 UYO327686:UYO327725 VIK327686:VIK327725 VSG327686:VSG327725 WCC327686:WCC327725 WLY327686:WLY327725 WVU327686:WVU327725 JI393222:JI393261 TE393222:TE393261 ADA393222:ADA393261 AMW393222:AMW393261 AWS393222:AWS393261 BGO393222:BGO393261 BQK393222:BQK393261 CAG393222:CAG393261 CKC393222:CKC393261 CTY393222:CTY393261 DDU393222:DDU393261 DNQ393222:DNQ393261 DXM393222:DXM393261 EHI393222:EHI393261 ERE393222:ERE393261 FBA393222:FBA393261 FKW393222:FKW393261 FUS393222:FUS393261 GEO393222:GEO393261 GOK393222:GOK393261 GYG393222:GYG393261 HIC393222:HIC393261 HRY393222:HRY393261 IBU393222:IBU393261 ILQ393222:ILQ393261 IVM393222:IVM393261 JFI393222:JFI393261 JPE393222:JPE393261 JZA393222:JZA393261 KIW393222:KIW393261 KSS393222:KSS393261 LCO393222:LCO393261 LMK393222:LMK393261 LWG393222:LWG393261 MGC393222:MGC393261 MPY393222:MPY393261 MZU393222:MZU393261 NJQ393222:NJQ393261 NTM393222:NTM393261 ODI393222:ODI393261 ONE393222:ONE393261 OXA393222:OXA393261 PGW393222:PGW393261 PQS393222:PQS393261 QAO393222:QAO393261 QKK393222:QKK393261 QUG393222:QUG393261 REC393222:REC393261 RNY393222:RNY393261 RXU393222:RXU393261 SHQ393222:SHQ393261 SRM393222:SRM393261 TBI393222:TBI393261 TLE393222:TLE393261 TVA393222:TVA393261 UEW393222:UEW393261 UOS393222:UOS393261 UYO393222:UYO393261 VIK393222:VIK393261 VSG393222:VSG393261 WCC393222:WCC393261 WLY393222:WLY393261 WVU393222:WVU393261 JI458758:JI458797 TE458758:TE458797 ADA458758:ADA458797 AMW458758:AMW458797 AWS458758:AWS458797 BGO458758:BGO458797 BQK458758:BQK458797 CAG458758:CAG458797 CKC458758:CKC458797 CTY458758:CTY458797 DDU458758:DDU458797 DNQ458758:DNQ458797 DXM458758:DXM458797 EHI458758:EHI458797 ERE458758:ERE458797 FBA458758:FBA458797 FKW458758:FKW458797 FUS458758:FUS458797 GEO458758:GEO458797 GOK458758:GOK458797 GYG458758:GYG458797 HIC458758:HIC458797 HRY458758:HRY458797 IBU458758:IBU458797 ILQ458758:ILQ458797 IVM458758:IVM458797 JFI458758:JFI458797 JPE458758:JPE458797 JZA458758:JZA458797 KIW458758:KIW458797 KSS458758:KSS458797 LCO458758:LCO458797 LMK458758:LMK458797 LWG458758:LWG458797 MGC458758:MGC458797 MPY458758:MPY458797 MZU458758:MZU458797 NJQ458758:NJQ458797 NTM458758:NTM458797 ODI458758:ODI458797 ONE458758:ONE458797 OXA458758:OXA458797 PGW458758:PGW458797 PQS458758:PQS458797 QAO458758:QAO458797 QKK458758:QKK458797 QUG458758:QUG458797 REC458758:REC458797 RNY458758:RNY458797 RXU458758:RXU458797 SHQ458758:SHQ458797 SRM458758:SRM458797 TBI458758:TBI458797 TLE458758:TLE458797 TVA458758:TVA458797 UEW458758:UEW458797 UOS458758:UOS458797 UYO458758:UYO458797 VIK458758:VIK458797 VSG458758:VSG458797 WCC458758:WCC458797 WLY458758:WLY458797 WVU458758:WVU458797 JI524294:JI524333 TE524294:TE524333 ADA524294:ADA524333 AMW524294:AMW524333 AWS524294:AWS524333 BGO524294:BGO524333 BQK524294:BQK524333 CAG524294:CAG524333 CKC524294:CKC524333 CTY524294:CTY524333 DDU524294:DDU524333 DNQ524294:DNQ524333 DXM524294:DXM524333 EHI524294:EHI524333 ERE524294:ERE524333 FBA524294:FBA524333 FKW524294:FKW524333 FUS524294:FUS524333 GEO524294:GEO524333 GOK524294:GOK524333 GYG524294:GYG524333 HIC524294:HIC524333 HRY524294:HRY524333 IBU524294:IBU524333 ILQ524294:ILQ524333 IVM524294:IVM524333 JFI524294:JFI524333 JPE524294:JPE524333 JZA524294:JZA524333 KIW524294:KIW524333 KSS524294:KSS524333 LCO524294:LCO524333 LMK524294:LMK524333 LWG524294:LWG524333 MGC524294:MGC524333 MPY524294:MPY524333 MZU524294:MZU524333 NJQ524294:NJQ524333 NTM524294:NTM524333 ODI524294:ODI524333 ONE524294:ONE524333 OXA524294:OXA524333 PGW524294:PGW524333 PQS524294:PQS524333 QAO524294:QAO524333 QKK524294:QKK524333 QUG524294:QUG524333 REC524294:REC524333 RNY524294:RNY524333 RXU524294:RXU524333 SHQ524294:SHQ524333 SRM524294:SRM524333 TBI524294:TBI524333 TLE524294:TLE524333 TVA524294:TVA524333 UEW524294:UEW524333 UOS524294:UOS524333 UYO524294:UYO524333 VIK524294:VIK524333 VSG524294:VSG524333 WCC524294:WCC524333 WLY524294:WLY524333 WVU524294:WVU524333 JI589830:JI589869 TE589830:TE589869 ADA589830:ADA589869 AMW589830:AMW589869 AWS589830:AWS589869 BGO589830:BGO589869 BQK589830:BQK589869 CAG589830:CAG589869 CKC589830:CKC589869 CTY589830:CTY589869 DDU589830:DDU589869 DNQ589830:DNQ589869 DXM589830:DXM589869 EHI589830:EHI589869 ERE589830:ERE589869 FBA589830:FBA589869 FKW589830:FKW589869 FUS589830:FUS589869 GEO589830:GEO589869 GOK589830:GOK589869 GYG589830:GYG589869 HIC589830:HIC589869 HRY589830:HRY589869 IBU589830:IBU589869 ILQ589830:ILQ589869 IVM589830:IVM589869 JFI589830:JFI589869 JPE589830:JPE589869 JZA589830:JZA589869 KIW589830:KIW589869 KSS589830:KSS589869 LCO589830:LCO589869 LMK589830:LMK589869 LWG589830:LWG589869 MGC589830:MGC589869 MPY589830:MPY589869 MZU589830:MZU589869 NJQ589830:NJQ589869 NTM589830:NTM589869 ODI589830:ODI589869 ONE589830:ONE589869 OXA589830:OXA589869 PGW589830:PGW589869 PQS589830:PQS589869 QAO589830:QAO589869 QKK589830:QKK589869 QUG589830:QUG589869 REC589830:REC589869 RNY589830:RNY589869 RXU589830:RXU589869 SHQ589830:SHQ589869 SRM589830:SRM589869 TBI589830:TBI589869 TLE589830:TLE589869 TVA589830:TVA589869 UEW589830:UEW589869 UOS589830:UOS589869 UYO589830:UYO589869 VIK589830:VIK589869 VSG589830:VSG589869 WCC589830:WCC589869 WLY589830:WLY589869 WVU589830:WVU589869 JI655366:JI655405 TE655366:TE655405 ADA655366:ADA655405 AMW655366:AMW655405 AWS655366:AWS655405 BGO655366:BGO655405 BQK655366:BQK655405 CAG655366:CAG655405 CKC655366:CKC655405 CTY655366:CTY655405 DDU655366:DDU655405 DNQ655366:DNQ655405 DXM655366:DXM655405 EHI655366:EHI655405 ERE655366:ERE655405 FBA655366:FBA655405 FKW655366:FKW655405 FUS655366:FUS655405 GEO655366:GEO655405 GOK655366:GOK655405 GYG655366:GYG655405 HIC655366:HIC655405 HRY655366:HRY655405 IBU655366:IBU655405 ILQ655366:ILQ655405 IVM655366:IVM655405 JFI655366:JFI655405 JPE655366:JPE655405 JZA655366:JZA655405 KIW655366:KIW655405 KSS655366:KSS655405 LCO655366:LCO655405 LMK655366:LMK655405 LWG655366:LWG655405 MGC655366:MGC655405 MPY655366:MPY655405 MZU655366:MZU655405 NJQ655366:NJQ655405 NTM655366:NTM655405 ODI655366:ODI655405 ONE655366:ONE655405 OXA655366:OXA655405 PGW655366:PGW655405 PQS655366:PQS655405 QAO655366:QAO655405 QKK655366:QKK655405 QUG655366:QUG655405 REC655366:REC655405 RNY655366:RNY655405 RXU655366:RXU655405 SHQ655366:SHQ655405 SRM655366:SRM655405 TBI655366:TBI655405 TLE655366:TLE655405 TVA655366:TVA655405 UEW655366:UEW655405 UOS655366:UOS655405 UYO655366:UYO655405 VIK655366:VIK655405 VSG655366:VSG655405 WCC655366:WCC655405 WLY655366:WLY655405 WVU655366:WVU655405 JI720902:JI720941 TE720902:TE720941 ADA720902:ADA720941 AMW720902:AMW720941 AWS720902:AWS720941 BGO720902:BGO720941 BQK720902:BQK720941 CAG720902:CAG720941 CKC720902:CKC720941 CTY720902:CTY720941 DDU720902:DDU720941 DNQ720902:DNQ720941 DXM720902:DXM720941 EHI720902:EHI720941 ERE720902:ERE720941 FBA720902:FBA720941 FKW720902:FKW720941 FUS720902:FUS720941 GEO720902:GEO720941 GOK720902:GOK720941 GYG720902:GYG720941 HIC720902:HIC720941 HRY720902:HRY720941 IBU720902:IBU720941 ILQ720902:ILQ720941 IVM720902:IVM720941 JFI720902:JFI720941 JPE720902:JPE720941 JZA720902:JZA720941 KIW720902:KIW720941 KSS720902:KSS720941 LCO720902:LCO720941 LMK720902:LMK720941 LWG720902:LWG720941 MGC720902:MGC720941 MPY720902:MPY720941 MZU720902:MZU720941 NJQ720902:NJQ720941 NTM720902:NTM720941 ODI720902:ODI720941 ONE720902:ONE720941 OXA720902:OXA720941 PGW720902:PGW720941 PQS720902:PQS720941 QAO720902:QAO720941 QKK720902:QKK720941 QUG720902:QUG720941 REC720902:REC720941 RNY720902:RNY720941 RXU720902:RXU720941 SHQ720902:SHQ720941 SRM720902:SRM720941 TBI720902:TBI720941 TLE720902:TLE720941 TVA720902:TVA720941 UEW720902:UEW720941 UOS720902:UOS720941 UYO720902:UYO720941 VIK720902:VIK720941 VSG720902:VSG720941 WCC720902:WCC720941 WLY720902:WLY720941 WVU720902:WVU720941 JI786438:JI786477 TE786438:TE786477 ADA786438:ADA786477 AMW786438:AMW786477 AWS786438:AWS786477 BGO786438:BGO786477 BQK786438:BQK786477 CAG786438:CAG786477 CKC786438:CKC786477 CTY786438:CTY786477 DDU786438:DDU786477 DNQ786438:DNQ786477 DXM786438:DXM786477 EHI786438:EHI786477 ERE786438:ERE786477 FBA786438:FBA786477 FKW786438:FKW786477 FUS786438:FUS786477 GEO786438:GEO786477 GOK786438:GOK786477 GYG786438:GYG786477 HIC786438:HIC786477 HRY786438:HRY786477 IBU786438:IBU786477 ILQ786438:ILQ786477 IVM786438:IVM786477 JFI786438:JFI786477 JPE786438:JPE786477 JZA786438:JZA786477 KIW786438:KIW786477 KSS786438:KSS786477 LCO786438:LCO786477 LMK786438:LMK786477 LWG786438:LWG786477 MGC786438:MGC786477 MPY786438:MPY786477 MZU786438:MZU786477 NJQ786438:NJQ786477 NTM786438:NTM786477 ODI786438:ODI786477 ONE786438:ONE786477 OXA786438:OXA786477 PGW786438:PGW786477 PQS786438:PQS786477 QAO786438:QAO786477 QKK786438:QKK786477 QUG786438:QUG786477 REC786438:REC786477 RNY786438:RNY786477 RXU786438:RXU786477 SHQ786438:SHQ786477 SRM786438:SRM786477 TBI786438:TBI786477 TLE786438:TLE786477 TVA786438:TVA786477 UEW786438:UEW786477 UOS786438:UOS786477 UYO786438:UYO786477 VIK786438:VIK786477 VSG786438:VSG786477 WCC786438:WCC786477 WLY786438:WLY786477 WVU786438:WVU786477 JI851974:JI852013 TE851974:TE852013 ADA851974:ADA852013 AMW851974:AMW852013 AWS851974:AWS852013 BGO851974:BGO852013 BQK851974:BQK852013 CAG851974:CAG852013 CKC851974:CKC852013 CTY851974:CTY852013 DDU851974:DDU852013 DNQ851974:DNQ852013 DXM851974:DXM852013 EHI851974:EHI852013 ERE851974:ERE852013 FBA851974:FBA852013 FKW851974:FKW852013 FUS851974:FUS852013 GEO851974:GEO852013 GOK851974:GOK852013 GYG851974:GYG852013 HIC851974:HIC852013 HRY851974:HRY852013 IBU851974:IBU852013 ILQ851974:ILQ852013 IVM851974:IVM852013 JFI851974:JFI852013 JPE851974:JPE852013 JZA851974:JZA852013 KIW851974:KIW852013 KSS851974:KSS852013 LCO851974:LCO852013 LMK851974:LMK852013 LWG851974:LWG852013 MGC851974:MGC852013 MPY851974:MPY852013 MZU851974:MZU852013 NJQ851974:NJQ852013 NTM851974:NTM852013 ODI851974:ODI852013 ONE851974:ONE852013 OXA851974:OXA852013 PGW851974:PGW852013 PQS851974:PQS852013 QAO851974:QAO852013 QKK851974:QKK852013 QUG851974:QUG852013 REC851974:REC852013 RNY851974:RNY852013 RXU851974:RXU852013 SHQ851974:SHQ852013 SRM851974:SRM852013 TBI851974:TBI852013 TLE851974:TLE852013 TVA851974:TVA852013 UEW851974:UEW852013 UOS851974:UOS852013 UYO851974:UYO852013 VIK851974:VIK852013 VSG851974:VSG852013 WCC851974:WCC852013 WLY851974:WLY852013 WVU851974:WVU852013 JI917510:JI917549 TE917510:TE917549 ADA917510:ADA917549 AMW917510:AMW917549 AWS917510:AWS917549 BGO917510:BGO917549 BQK917510:BQK917549 CAG917510:CAG917549 CKC917510:CKC917549 CTY917510:CTY917549 DDU917510:DDU917549 DNQ917510:DNQ917549 DXM917510:DXM917549 EHI917510:EHI917549 ERE917510:ERE917549 FBA917510:FBA917549 FKW917510:FKW917549 FUS917510:FUS917549 GEO917510:GEO917549 GOK917510:GOK917549 GYG917510:GYG917549 HIC917510:HIC917549 HRY917510:HRY917549 IBU917510:IBU917549 ILQ917510:ILQ917549 IVM917510:IVM917549 JFI917510:JFI917549 JPE917510:JPE917549 JZA917510:JZA917549 KIW917510:KIW917549 KSS917510:KSS917549 LCO917510:LCO917549 LMK917510:LMK917549 LWG917510:LWG917549 MGC917510:MGC917549 MPY917510:MPY917549 MZU917510:MZU917549 NJQ917510:NJQ917549 NTM917510:NTM917549 ODI917510:ODI917549 ONE917510:ONE917549 OXA917510:OXA917549 PGW917510:PGW917549 PQS917510:PQS917549 QAO917510:QAO917549 QKK917510:QKK917549 QUG917510:QUG917549 REC917510:REC917549 RNY917510:RNY917549 RXU917510:RXU917549 SHQ917510:SHQ917549 SRM917510:SRM917549 TBI917510:TBI917549 TLE917510:TLE917549 TVA917510:TVA917549 UEW917510:UEW917549 UOS917510:UOS917549 UYO917510:UYO917549 VIK917510:VIK917549 VSG917510:VSG917549 WCC917510:WCC917549 WLY917510:WLY917549 WVU917510:WVU917549 JI983046:JI983085 TE983046:TE983085 ADA983046:ADA983085 AMW983046:AMW983085 AWS983046:AWS983085 BGO983046:BGO983085 BQK983046:BQK983085 CAG983046:CAG983085 CKC983046:CKC983085 CTY983046:CTY983085 DDU983046:DDU983085 DNQ983046:DNQ983085 DXM983046:DXM983085 EHI983046:EHI983085 ERE983046:ERE983085 FBA983046:FBA983085 FKW983046:FKW983085 FUS983046:FUS983085 GEO983046:GEO983085 GOK983046:GOK983085 GYG983046:GYG983085 HIC983046:HIC983085 HRY983046:HRY983085 IBU983046:IBU983085 ILQ983046:ILQ983085 IVM983046:IVM983085 JFI983046:JFI983085 JPE983046:JPE983085 JZA983046:JZA983085 KIW983046:KIW983085 KSS983046:KSS983085 LCO983046:LCO983085 LMK983046:LMK983085 LWG983046:LWG983085 MGC983046:MGC983085 MPY983046:MPY983085 MZU983046:MZU983085 NJQ983046:NJQ983085 NTM983046:NTM983085 ODI983046:ODI983085 ONE983046:ONE983085 OXA983046:OXA983085 PGW983046:PGW983085 PQS983046:PQS983085 QAO983046:QAO983085 QKK983046:QKK983085 QUG983046:QUG983085 REC983046:REC983085 RNY983046:RNY983085 RXU983046:RXU983085 SHQ983046:SHQ983085 SRM983046:SRM983085 TBI983046:TBI983085 TLE983046:TLE983085 TVA983046:TVA983085 UEW983046:UEW983085 UOS983046:UOS983085 UYO983046:UYO983085 VIK983046:VIK983085 VSG983046:VSG983085 WCC983046:WCC983085 WLY983046:WLY983085 WVU983046:WVU983085 WVU5:WVU43 WLY5:WLY43 WCC5:WCC43 VSG5:VSG43 VIK5:VIK43 UYO5:UYO43 UOS5:UOS43 UEW5:UEW43 TVA5:TVA43 TLE5:TLE43 TBI5:TBI43 SRM5:SRM43 SHQ5:SHQ43 RXU5:RXU43 RNY5:RNY43 REC5:REC43 QUG5:QUG43 QKK5:QKK43 QAO5:QAO43 PQS5:PQS43 PGW5:PGW43 OXA5:OXA43 ONE5:ONE43 ODI5:ODI43 NTM5:NTM43 NJQ5:NJQ43 MZU5:MZU43 MPY5:MPY43 MGC5:MGC43 LWG5:LWG43 LMK5:LMK43 LCO5:LCO43 KSS5:KSS43 KIW5:KIW43 JZA5:JZA43 JPE5:JPE43 JFI5:JFI43 IVM5:IVM43 ILQ5:ILQ43 IBU5:IBU43 HRY5:HRY43 HIC5:HIC43 GYG5:GYG43 GOK5:GOK43 GEO5:GEO43 FUS5:FUS43 FKW5:FKW43 FBA5:FBA43 ERE5:ERE43 EHI5:EHI43 DXM5:DXM43 DNQ5:DNQ43 DDU5:DDU43 CTY5:CTY43 CKC5:CKC43 CAG5:CAG43 BQK5:BQK43 BGO5:BGO43 AWS5:AWS43 AMW5:AMW43 ADA5:ADA43 TE5:TE43 JI5:JI43">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="يجب أن تكون القيمة بين 0 و 5" sqref="SU46:TF50 ACQ46:ADB50 AMM46:AMX50 AWI46:AWT50 BGE46:BGP50 BQA46:BQL50 BZW46:CAH50 CJS46:CKD50 CTO46:CTZ50 DDK46:DDV50 DNG46:DNR50 DXC46:DXN50 EGY46:EHJ50 EQU46:ERF50 FAQ46:FBB50 FKM46:FKX50 FUI46:FUT50 GEE46:GEP50 GOA46:GOL50 GXW46:GYH50 HHS46:HID50 HRO46:HRZ50 IBK46:IBV50 ILG46:ILR50 IVC46:IVN50 JEY46:JFJ50 JOU46:JPF50 JYQ46:JZB50 KIM46:KIX50 KSI46:KST50 LCE46:LCP50 LMA46:LML50 LVW46:LWH50 MFS46:MGD50 MPO46:MPZ50 MZK46:MZV50 NJG46:NJR50 NTC46:NTN50 OCY46:ODJ50 OMU46:ONF50 OWQ46:OXB50 PGM46:PGX50 PQI46:PQT50 QAE46:QAP50 QKA46:QKL50 QTW46:QUH50 RDS46:RED50 RNO46:RNZ50 RXK46:RXV50 SHG46:SHR50 SRC46:SRN50 TAY46:TBJ50 TKU46:TLF50 TUQ46:TVB50 UEM46:UEX50 UOI46:UOT50 UYE46:UYP50 VIA46:VIL50 VRW46:VSH50 WBS46:WCD50 WLO46:WLZ50 WVK46:WVV50 SU65584:TF65588 ACQ65584:ADB65588 AMM65584:AMX65588 AWI65584:AWT65588 BGE65584:BGP65588 BQA65584:BQL65588 BZW65584:CAH65588 CJS65584:CKD65588 CTO65584:CTZ65588 DDK65584:DDV65588 DNG65584:DNR65588 DXC65584:DXN65588 EGY65584:EHJ65588 EQU65584:ERF65588 FAQ65584:FBB65588 FKM65584:FKX65588 FUI65584:FUT65588 GEE65584:GEP65588 GOA65584:GOL65588 GXW65584:GYH65588 HHS65584:HID65588 HRO65584:HRZ65588 IBK65584:IBV65588 ILG65584:ILR65588 IVC65584:IVN65588 JEY65584:JFJ65588 JOU65584:JPF65588 JYQ65584:JZB65588 KIM65584:KIX65588 KSI65584:KST65588 LCE65584:LCP65588 LMA65584:LML65588 LVW65584:LWH65588 MFS65584:MGD65588 MPO65584:MPZ65588 MZK65584:MZV65588 NJG65584:NJR65588 NTC65584:NTN65588 OCY65584:ODJ65588 OMU65584:ONF65588 OWQ65584:OXB65588 PGM65584:PGX65588 PQI65584:PQT65588 QAE65584:QAP65588 QKA65584:QKL65588 QTW65584:QUH65588 RDS65584:RED65588 RNO65584:RNZ65588 RXK65584:RXV65588 SHG65584:SHR65588 SRC65584:SRN65588 TAY65584:TBJ65588 TKU65584:TLF65588 TUQ65584:TVB65588 UEM65584:UEX65588 UOI65584:UOT65588 UYE65584:UYP65588 VIA65584:VIL65588 VRW65584:VSH65588 WBS65584:WCD65588 WLO65584:WLZ65588 WVK65584:WVV65588 SU131120:TF131124 ACQ131120:ADB131124 AMM131120:AMX131124 AWI131120:AWT131124 BGE131120:BGP131124 BQA131120:BQL131124 BZW131120:CAH131124 CJS131120:CKD131124 CTO131120:CTZ131124 DDK131120:DDV131124 DNG131120:DNR131124 DXC131120:DXN131124 EGY131120:EHJ131124 EQU131120:ERF131124 FAQ131120:FBB131124 FKM131120:FKX131124 FUI131120:FUT131124 GEE131120:GEP131124 GOA131120:GOL131124 GXW131120:GYH131124 HHS131120:HID131124 HRO131120:HRZ131124 IBK131120:IBV131124 ILG131120:ILR131124 IVC131120:IVN131124 JEY131120:JFJ131124 JOU131120:JPF131124 JYQ131120:JZB131124 KIM131120:KIX131124 KSI131120:KST131124 LCE131120:LCP131124 LMA131120:LML131124 LVW131120:LWH131124 MFS131120:MGD131124 MPO131120:MPZ131124 MZK131120:MZV131124 NJG131120:NJR131124 NTC131120:NTN131124 OCY131120:ODJ131124 OMU131120:ONF131124 OWQ131120:OXB131124 PGM131120:PGX131124 PQI131120:PQT131124 QAE131120:QAP131124 QKA131120:QKL131124 QTW131120:QUH131124 RDS131120:RED131124 RNO131120:RNZ131124 RXK131120:RXV131124 SHG131120:SHR131124 SRC131120:SRN131124 TAY131120:TBJ131124 TKU131120:TLF131124 TUQ131120:TVB131124 UEM131120:UEX131124 UOI131120:UOT131124 UYE131120:UYP131124 VIA131120:VIL131124 VRW131120:VSH131124 WBS131120:WCD131124 WLO131120:WLZ131124 WVK131120:WVV131124 SU196656:TF196660 ACQ196656:ADB196660 AMM196656:AMX196660 AWI196656:AWT196660 BGE196656:BGP196660 BQA196656:BQL196660 BZW196656:CAH196660 CJS196656:CKD196660 CTO196656:CTZ196660 DDK196656:DDV196660 DNG196656:DNR196660 DXC196656:DXN196660 EGY196656:EHJ196660 EQU196656:ERF196660 FAQ196656:FBB196660 FKM196656:FKX196660 FUI196656:FUT196660 GEE196656:GEP196660 GOA196656:GOL196660 GXW196656:GYH196660 HHS196656:HID196660 HRO196656:HRZ196660 IBK196656:IBV196660 ILG196656:ILR196660 IVC196656:IVN196660 JEY196656:JFJ196660 JOU196656:JPF196660 JYQ196656:JZB196660 KIM196656:KIX196660 KSI196656:KST196660 LCE196656:LCP196660 LMA196656:LML196660 LVW196656:LWH196660 MFS196656:MGD196660 MPO196656:MPZ196660 MZK196656:MZV196660 NJG196656:NJR196660 NTC196656:NTN196660 OCY196656:ODJ196660 OMU196656:ONF196660 OWQ196656:OXB196660 PGM196656:PGX196660 PQI196656:PQT196660 QAE196656:QAP196660 QKA196656:QKL196660 QTW196656:QUH196660 RDS196656:RED196660 RNO196656:RNZ196660 RXK196656:RXV196660 SHG196656:SHR196660 SRC196656:SRN196660 TAY196656:TBJ196660 TKU196656:TLF196660 TUQ196656:TVB196660 UEM196656:UEX196660 UOI196656:UOT196660 UYE196656:UYP196660 VIA196656:VIL196660 VRW196656:VSH196660 WBS196656:WCD196660 WLO196656:WLZ196660 WVK196656:WVV196660 SU262192:TF262196 ACQ262192:ADB262196 AMM262192:AMX262196 AWI262192:AWT262196 BGE262192:BGP262196 BQA262192:BQL262196 BZW262192:CAH262196 CJS262192:CKD262196 CTO262192:CTZ262196 DDK262192:DDV262196 DNG262192:DNR262196 DXC262192:DXN262196 EGY262192:EHJ262196 EQU262192:ERF262196 FAQ262192:FBB262196 FKM262192:FKX262196 FUI262192:FUT262196 GEE262192:GEP262196 GOA262192:GOL262196 GXW262192:GYH262196 HHS262192:HID262196 HRO262192:HRZ262196 IBK262192:IBV262196 ILG262192:ILR262196 IVC262192:IVN262196 JEY262192:JFJ262196 JOU262192:JPF262196 JYQ262192:JZB262196 KIM262192:KIX262196 KSI262192:KST262196 LCE262192:LCP262196 LMA262192:LML262196 LVW262192:LWH262196 MFS262192:MGD262196 MPO262192:MPZ262196 MZK262192:MZV262196 NJG262192:NJR262196 NTC262192:NTN262196 OCY262192:ODJ262196 OMU262192:ONF262196 OWQ262192:OXB262196 PGM262192:PGX262196 PQI262192:PQT262196 QAE262192:QAP262196 QKA262192:QKL262196 QTW262192:QUH262196 RDS262192:RED262196 RNO262192:RNZ262196 RXK262192:RXV262196 SHG262192:SHR262196 SRC262192:SRN262196 TAY262192:TBJ262196 TKU262192:TLF262196 TUQ262192:TVB262196 UEM262192:UEX262196 UOI262192:UOT262196 UYE262192:UYP262196 VIA262192:VIL262196 VRW262192:VSH262196 WBS262192:WCD262196 WLO262192:WLZ262196 WVK262192:WVV262196 SU327728:TF327732 ACQ327728:ADB327732 AMM327728:AMX327732 AWI327728:AWT327732 BGE327728:BGP327732 BQA327728:BQL327732 BZW327728:CAH327732 CJS327728:CKD327732 CTO327728:CTZ327732 DDK327728:DDV327732 DNG327728:DNR327732 DXC327728:DXN327732 EGY327728:EHJ327732 EQU327728:ERF327732 FAQ327728:FBB327732 FKM327728:FKX327732 FUI327728:FUT327732 GEE327728:GEP327732 GOA327728:GOL327732 GXW327728:GYH327732 HHS327728:HID327732 HRO327728:HRZ327732 IBK327728:IBV327732 ILG327728:ILR327732 IVC327728:IVN327732 JEY327728:JFJ327732 JOU327728:JPF327732 JYQ327728:JZB327732 KIM327728:KIX327732 KSI327728:KST327732 LCE327728:LCP327732 LMA327728:LML327732 LVW327728:LWH327732 MFS327728:MGD327732 MPO327728:MPZ327732 MZK327728:MZV327732 NJG327728:NJR327732 NTC327728:NTN327732 OCY327728:ODJ327732 OMU327728:ONF327732 OWQ327728:OXB327732 PGM327728:PGX327732 PQI327728:PQT327732 QAE327728:QAP327732 QKA327728:QKL327732 QTW327728:QUH327732 RDS327728:RED327732 RNO327728:RNZ327732 RXK327728:RXV327732 SHG327728:SHR327732 SRC327728:SRN327732 TAY327728:TBJ327732 TKU327728:TLF327732 TUQ327728:TVB327732 UEM327728:UEX327732 UOI327728:UOT327732 UYE327728:UYP327732 VIA327728:VIL327732 VRW327728:VSH327732 WBS327728:WCD327732 WLO327728:WLZ327732 WVK327728:WVV327732 SU393264:TF393268 ACQ393264:ADB393268 AMM393264:AMX393268 AWI393264:AWT393268 BGE393264:BGP393268 BQA393264:BQL393268 BZW393264:CAH393268 CJS393264:CKD393268 CTO393264:CTZ393268 DDK393264:DDV393268 DNG393264:DNR393268 DXC393264:DXN393268 EGY393264:EHJ393268 EQU393264:ERF393268 FAQ393264:FBB393268 FKM393264:FKX393268 FUI393264:FUT393268 GEE393264:GEP393268 GOA393264:GOL393268 GXW393264:GYH393268 HHS393264:HID393268 HRO393264:HRZ393268 IBK393264:IBV393268 ILG393264:ILR393268 IVC393264:IVN393268 JEY393264:JFJ393268 JOU393264:JPF393268 JYQ393264:JZB393268 KIM393264:KIX393268 KSI393264:KST393268 LCE393264:LCP393268 LMA393264:LML393268 LVW393264:LWH393268 MFS393264:MGD393268 MPO393264:MPZ393268 MZK393264:MZV393268 NJG393264:NJR393268 NTC393264:NTN393268 OCY393264:ODJ393268 OMU393264:ONF393268 OWQ393264:OXB393268 PGM393264:PGX393268 PQI393264:PQT393268 QAE393264:QAP393268 QKA393264:QKL393268 QTW393264:QUH393268 RDS393264:RED393268 RNO393264:RNZ393268 RXK393264:RXV393268 SHG393264:SHR393268 SRC393264:SRN393268 TAY393264:TBJ393268 TKU393264:TLF393268 TUQ393264:TVB393268 UEM393264:UEX393268 UOI393264:UOT393268 UYE393264:UYP393268 VIA393264:VIL393268 VRW393264:VSH393268 WBS393264:WCD393268 WLO393264:WLZ393268 WVK393264:WVV393268 SU458800:TF458804 ACQ458800:ADB458804 AMM458800:AMX458804 AWI458800:AWT458804 BGE458800:BGP458804 BQA458800:BQL458804 BZW458800:CAH458804 CJS458800:CKD458804 CTO458800:CTZ458804 DDK458800:DDV458804 DNG458800:DNR458804 DXC458800:DXN458804 EGY458800:EHJ458804 EQU458800:ERF458804 FAQ458800:FBB458804 FKM458800:FKX458804 FUI458800:FUT458804 GEE458800:GEP458804 GOA458800:GOL458804 GXW458800:GYH458804 HHS458800:HID458804 HRO458800:HRZ458804 IBK458800:IBV458804 ILG458800:ILR458804 IVC458800:IVN458804 JEY458800:JFJ458804 JOU458800:JPF458804 JYQ458800:JZB458804 KIM458800:KIX458804 KSI458800:KST458804 LCE458800:LCP458804 LMA458800:LML458804 LVW458800:LWH458804 MFS458800:MGD458804 MPO458800:MPZ458804 MZK458800:MZV458804 NJG458800:NJR458804 NTC458800:NTN458804 OCY458800:ODJ458804 OMU458800:ONF458804 OWQ458800:OXB458804 PGM458800:PGX458804 PQI458800:PQT458804 QAE458800:QAP458804 QKA458800:QKL458804 QTW458800:QUH458804 RDS458800:RED458804 RNO458800:RNZ458804 RXK458800:RXV458804 SHG458800:SHR458804 SRC458800:SRN458804 TAY458800:TBJ458804 TKU458800:TLF458804 TUQ458800:TVB458804 UEM458800:UEX458804 UOI458800:UOT458804 UYE458800:UYP458804 VIA458800:VIL458804 VRW458800:VSH458804 WBS458800:WCD458804 WLO458800:WLZ458804 WVK458800:WVV458804 SU524336:TF524340 ACQ524336:ADB524340 AMM524336:AMX524340 AWI524336:AWT524340 BGE524336:BGP524340 BQA524336:BQL524340 BZW524336:CAH524340 CJS524336:CKD524340 CTO524336:CTZ524340 DDK524336:DDV524340 DNG524336:DNR524340 DXC524336:DXN524340 EGY524336:EHJ524340 EQU524336:ERF524340 FAQ524336:FBB524340 FKM524336:FKX524340 FUI524336:FUT524340 GEE524336:GEP524340 GOA524336:GOL524340 GXW524336:GYH524340 HHS524336:HID524340 HRO524336:HRZ524340 IBK524336:IBV524340 ILG524336:ILR524340 IVC524336:IVN524340 JEY524336:JFJ524340 JOU524336:JPF524340 JYQ524336:JZB524340 KIM524336:KIX524340 KSI524336:KST524340 LCE524336:LCP524340 LMA524336:LML524340 LVW524336:LWH524340 MFS524336:MGD524340 MPO524336:MPZ524340 MZK524336:MZV524340 NJG524336:NJR524340 NTC524336:NTN524340 OCY524336:ODJ524340 OMU524336:ONF524340 OWQ524336:OXB524340 PGM524336:PGX524340 PQI524336:PQT524340 QAE524336:QAP524340 QKA524336:QKL524340 QTW524336:QUH524340 RDS524336:RED524340 RNO524336:RNZ524340 RXK524336:RXV524340 SHG524336:SHR524340 SRC524336:SRN524340 TAY524336:TBJ524340 TKU524336:TLF524340 TUQ524336:TVB524340 UEM524336:UEX524340 UOI524336:UOT524340 UYE524336:UYP524340 VIA524336:VIL524340 VRW524336:VSH524340 WBS524336:WCD524340 WLO524336:WLZ524340 WVK524336:WVV524340 SU589872:TF589876 ACQ589872:ADB589876 AMM589872:AMX589876 AWI589872:AWT589876 BGE589872:BGP589876 BQA589872:BQL589876 BZW589872:CAH589876 CJS589872:CKD589876 CTO589872:CTZ589876 DDK589872:DDV589876 DNG589872:DNR589876 DXC589872:DXN589876 EGY589872:EHJ589876 EQU589872:ERF589876 FAQ589872:FBB589876 FKM589872:FKX589876 FUI589872:FUT589876 GEE589872:GEP589876 GOA589872:GOL589876 GXW589872:GYH589876 HHS589872:HID589876 HRO589872:HRZ589876 IBK589872:IBV589876 ILG589872:ILR589876 IVC589872:IVN589876 JEY589872:JFJ589876 JOU589872:JPF589876 JYQ589872:JZB589876 KIM589872:KIX589876 KSI589872:KST589876 LCE589872:LCP589876 LMA589872:LML589876 LVW589872:LWH589876 MFS589872:MGD589876 MPO589872:MPZ589876 MZK589872:MZV589876 NJG589872:NJR589876 NTC589872:NTN589876 OCY589872:ODJ589876 OMU589872:ONF589876 OWQ589872:OXB589876 PGM589872:PGX589876 PQI589872:PQT589876 QAE589872:QAP589876 QKA589872:QKL589876 QTW589872:QUH589876 RDS589872:RED589876 RNO589872:RNZ589876 RXK589872:RXV589876 SHG589872:SHR589876 SRC589872:SRN589876 TAY589872:TBJ589876 TKU589872:TLF589876 TUQ589872:TVB589876 UEM589872:UEX589876 UOI589872:UOT589876 UYE589872:UYP589876 VIA589872:VIL589876 VRW589872:VSH589876 WBS589872:WCD589876 WLO589872:WLZ589876 WVK589872:WVV589876 SU655408:TF655412 ACQ655408:ADB655412 AMM655408:AMX655412 AWI655408:AWT655412 BGE655408:BGP655412 BQA655408:BQL655412 BZW655408:CAH655412 CJS655408:CKD655412 CTO655408:CTZ655412 DDK655408:DDV655412 DNG655408:DNR655412 DXC655408:DXN655412 EGY655408:EHJ655412 EQU655408:ERF655412 FAQ655408:FBB655412 FKM655408:FKX655412 FUI655408:FUT655412 GEE655408:GEP655412 GOA655408:GOL655412 GXW655408:GYH655412 HHS655408:HID655412 HRO655408:HRZ655412 IBK655408:IBV655412 ILG655408:ILR655412 IVC655408:IVN655412 JEY655408:JFJ655412 JOU655408:JPF655412 JYQ655408:JZB655412 KIM655408:KIX655412 KSI655408:KST655412 LCE655408:LCP655412 LMA655408:LML655412 LVW655408:LWH655412 MFS655408:MGD655412 MPO655408:MPZ655412 MZK655408:MZV655412 NJG655408:NJR655412 NTC655408:NTN655412 OCY655408:ODJ655412 OMU655408:ONF655412 OWQ655408:OXB655412 PGM655408:PGX655412 PQI655408:PQT655412 QAE655408:QAP655412 QKA655408:QKL655412 QTW655408:QUH655412 RDS655408:RED655412 RNO655408:RNZ655412 RXK655408:RXV655412 SHG655408:SHR655412 SRC655408:SRN655412 TAY655408:TBJ655412 TKU655408:TLF655412 TUQ655408:TVB655412 UEM655408:UEX655412 UOI655408:UOT655412 UYE655408:UYP655412 VIA655408:VIL655412 VRW655408:VSH655412 WBS655408:WCD655412 WLO655408:WLZ655412 WVK655408:WVV655412 SU720944:TF720948 ACQ720944:ADB720948 AMM720944:AMX720948 AWI720944:AWT720948 BGE720944:BGP720948 BQA720944:BQL720948 BZW720944:CAH720948 CJS720944:CKD720948 CTO720944:CTZ720948 DDK720944:DDV720948 DNG720944:DNR720948 DXC720944:DXN720948 EGY720944:EHJ720948 EQU720944:ERF720948 FAQ720944:FBB720948 FKM720944:FKX720948 FUI720944:FUT720948 GEE720944:GEP720948 GOA720944:GOL720948 GXW720944:GYH720948 HHS720944:HID720948 HRO720944:HRZ720948 IBK720944:IBV720948 ILG720944:ILR720948 IVC720944:IVN720948 JEY720944:JFJ720948 JOU720944:JPF720948 JYQ720944:JZB720948 KIM720944:KIX720948 KSI720944:KST720948 LCE720944:LCP720948 LMA720944:LML720948 LVW720944:LWH720948 MFS720944:MGD720948 MPO720944:MPZ720948 MZK720944:MZV720948 NJG720944:NJR720948 NTC720944:NTN720948 OCY720944:ODJ720948 OMU720944:ONF720948 OWQ720944:OXB720948 PGM720944:PGX720948 PQI720944:PQT720948 QAE720944:QAP720948 QKA720944:QKL720948 QTW720944:QUH720948 RDS720944:RED720948 RNO720944:RNZ720948 RXK720944:RXV720948 SHG720944:SHR720948 SRC720944:SRN720948 TAY720944:TBJ720948 TKU720944:TLF720948 TUQ720944:TVB720948 UEM720944:UEX720948 UOI720944:UOT720948 UYE720944:UYP720948 VIA720944:VIL720948 VRW720944:VSH720948 WBS720944:WCD720948 WLO720944:WLZ720948 WVK720944:WVV720948 SU786480:TF786484 ACQ786480:ADB786484 AMM786480:AMX786484 AWI786480:AWT786484 BGE786480:BGP786484 BQA786480:BQL786484 BZW786480:CAH786484 CJS786480:CKD786484 CTO786480:CTZ786484 DDK786480:DDV786484 DNG786480:DNR786484 DXC786480:DXN786484 EGY786480:EHJ786484 EQU786480:ERF786484 FAQ786480:FBB786484 FKM786480:FKX786484 FUI786480:FUT786484 GEE786480:GEP786484 GOA786480:GOL786484 GXW786480:GYH786484 HHS786480:HID786484 HRO786480:HRZ786484 IBK786480:IBV786484 ILG786480:ILR786484 IVC786480:IVN786484 JEY786480:JFJ786484 JOU786480:JPF786484 JYQ786480:JZB786484 KIM786480:KIX786484 KSI786480:KST786484 LCE786480:LCP786484 LMA786480:LML786484 LVW786480:LWH786484 MFS786480:MGD786484 MPO786480:MPZ786484 MZK786480:MZV786484 NJG786480:NJR786484 NTC786480:NTN786484 OCY786480:ODJ786484 OMU786480:ONF786484 OWQ786480:OXB786484 PGM786480:PGX786484 PQI786480:PQT786484 QAE786480:QAP786484 QKA786480:QKL786484 QTW786480:QUH786484 RDS786480:RED786484 RNO786480:RNZ786484 RXK786480:RXV786484 SHG786480:SHR786484 SRC786480:SRN786484 TAY786480:TBJ786484 TKU786480:TLF786484 TUQ786480:TVB786484 UEM786480:UEX786484 UOI786480:UOT786484 UYE786480:UYP786484 VIA786480:VIL786484 VRW786480:VSH786484 WBS786480:WCD786484 WLO786480:WLZ786484 WVK786480:WVV786484 SU852016:TF852020 ACQ852016:ADB852020 AMM852016:AMX852020 AWI852016:AWT852020 BGE852016:BGP852020 BQA852016:BQL852020 BZW852016:CAH852020 CJS852016:CKD852020 CTO852016:CTZ852020 DDK852016:DDV852020 DNG852016:DNR852020 DXC852016:DXN852020 EGY852016:EHJ852020 EQU852016:ERF852020 FAQ852016:FBB852020 FKM852016:FKX852020 FUI852016:FUT852020 GEE852016:GEP852020 GOA852016:GOL852020 GXW852016:GYH852020 HHS852016:HID852020 HRO852016:HRZ852020 IBK852016:IBV852020 ILG852016:ILR852020 IVC852016:IVN852020 JEY852016:JFJ852020 JOU852016:JPF852020 JYQ852016:JZB852020 KIM852016:KIX852020 KSI852016:KST852020 LCE852016:LCP852020 LMA852016:LML852020 LVW852016:LWH852020 MFS852016:MGD852020 MPO852016:MPZ852020 MZK852016:MZV852020 NJG852016:NJR852020 NTC852016:NTN852020 OCY852016:ODJ852020 OMU852016:ONF852020 OWQ852016:OXB852020 PGM852016:PGX852020 PQI852016:PQT852020 QAE852016:QAP852020 QKA852016:QKL852020 QTW852016:QUH852020 RDS852016:RED852020 RNO852016:RNZ852020 RXK852016:RXV852020 SHG852016:SHR852020 SRC852016:SRN852020 TAY852016:TBJ852020 TKU852016:TLF852020 TUQ852016:TVB852020 UEM852016:UEX852020 UOI852016:UOT852020 UYE852016:UYP852020 VIA852016:VIL852020 VRW852016:VSH852020 WBS852016:WCD852020 WLO852016:WLZ852020 WVK852016:WVV852020 SU917552:TF917556 ACQ917552:ADB917556 AMM917552:AMX917556 AWI917552:AWT917556 BGE917552:BGP917556 BQA917552:BQL917556 BZW917552:CAH917556 CJS917552:CKD917556 CTO917552:CTZ917556 DDK917552:DDV917556 DNG917552:DNR917556 DXC917552:DXN917556 EGY917552:EHJ917556 EQU917552:ERF917556 FAQ917552:FBB917556 FKM917552:FKX917556 FUI917552:FUT917556 GEE917552:GEP917556 GOA917552:GOL917556 GXW917552:GYH917556 HHS917552:HID917556 HRO917552:HRZ917556 IBK917552:IBV917556 ILG917552:ILR917556 IVC917552:IVN917556 JEY917552:JFJ917556 JOU917552:JPF917556 JYQ917552:JZB917556 KIM917552:KIX917556 KSI917552:KST917556 LCE917552:LCP917556 LMA917552:LML917556 LVW917552:LWH917556 MFS917552:MGD917556 MPO917552:MPZ917556 MZK917552:MZV917556 NJG917552:NJR917556 NTC917552:NTN917556 OCY917552:ODJ917556 OMU917552:ONF917556 OWQ917552:OXB917556 PGM917552:PGX917556 PQI917552:PQT917556 QAE917552:QAP917556 QKA917552:QKL917556 QTW917552:QUH917556 RDS917552:RED917556 RNO917552:RNZ917556 RXK917552:RXV917556 SHG917552:SHR917556 SRC917552:SRN917556 TAY917552:TBJ917556 TKU917552:TLF917556 TUQ917552:TVB917556 UEM917552:UEX917556 UOI917552:UOT917556 UYE917552:UYP917556 VIA917552:VIL917556 VRW917552:VSH917556 WBS917552:WCD917556 WLO917552:WLZ917556 WVK917552:WVV917556 WVK983088:WVV983092 SU983088:TF983092 ACQ983088:ADB983092 AMM983088:AMX983092 AWI983088:AWT983092 BGE983088:BGP983092 BQA983088:BQL983092 BZW983088:CAH983092 CJS983088:CKD983092 CTO983088:CTZ983092 DDK983088:DDV983092 DNG983088:DNR983092 DXC983088:DXN983092 EGY983088:EHJ983092 EQU983088:ERF983092 FAQ983088:FBB983092 FKM983088:FKX983092 FUI983088:FUT983092 GEE983088:GEP983092 GOA983088:GOL983092 GXW983088:GYH983092 HHS983088:HID983092 HRO983088:HRZ983092 IBK983088:IBV983092 ILG983088:ILR983092 IVC983088:IVN983092 JEY983088:JFJ983092 JOU983088:JPF983092 JYQ983088:JZB983092 KIM983088:KIX983092 KSI983088:KST983092 LCE983088:LCP983092 LMA983088:LML983092 LVW983088:LWH983092 MFS983088:MGD983092 MPO983088:MPZ983092 MZK983088:MZV983092 NJG983088:NJR983092 NTC983088:NTN983092 OCY983088:ODJ983092 OMU983088:ONF983092 OWQ983088:OXB983092 PGM983088:PGX983092 PQI983088:PQT983092 QAE983088:QAP983092 QKA983088:QKL983092 QTW983088:QUH983092 RDS983088:RED983092 RNO983088:RNZ983092 RXK983088:RXV983092 SHG983088:SHR983092 SRC983088:SRN983092 TAY983088:TBJ983092 TKU983088:TLF983092 TUQ983088:TVB983092 UEM983088:UEX983092 UOI983088:UOT983092 UYE983088:UYP983092 VIA983088:VIL983092 VRW983088:VSH983092 WBS983088:WCD983092 WLO983088:WLZ983092 IY50:IY54 C917556:M917560 C852020:M852024 C786484:M786488 C720948:M720952 C655412:M655416 C589876:M589880 C524340:M524344 C458804:M458808 C393268:M393272 C327732:M327736 C262196:M262200 C196660:M196664 C131124:M131128 C65588:M65592 C983092:M983096 IY983092:IY983096 IZ983088:JJ983092 IY917556:IY917560 IZ917552:JJ917556 IY852020:IY852024 IZ852016:JJ852020 IY786484:IY786488 IZ786480:JJ786484 IY720948:IY720952 IZ720944:JJ720948 IY655412:IY655416 IZ655408:JJ655412 IY589876:IY589880 IZ589872:JJ589876 IY524340:IY524344 IZ524336:JJ524340 IY458804:IY458808 IZ458800:JJ458804 IY393268:IY393272 IZ393264:JJ393268 IY327732:IY327736 IZ327728:JJ327732 IY262196:IY262200 IZ262192:JJ262196 IY196660:IY196664 IZ196656:JJ196660 IY131124:IY131128 IZ131120:JJ131124 IY65588:IY65592 IZ65584:JJ65588 IZ46:JJ50 C50:M54" xr:uid="{00000000-0002-0000-0C00-000003000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JI65542:JI65581 TE65542:TE65581 ADA65542:ADA65581 AMW65542:AMW65581 AWS65542:AWS65581 BGO65542:BGO65581 BQK65542:BQK65581 CAG65542:CAG65581 CKC65542:CKC65581 CTY65542:CTY65581 DDU65542:DDU65581 DNQ65542:DNQ65581 DXM65542:DXM65581 EHI65542:EHI65581 ERE65542:ERE65581 FBA65542:FBA65581 FKW65542:FKW65581 FUS65542:FUS65581 GEO65542:GEO65581 GOK65542:GOK65581 GYG65542:GYG65581 HIC65542:HIC65581 HRY65542:HRY65581 IBU65542:IBU65581 ILQ65542:ILQ65581 IVM65542:IVM65581 JFI65542:JFI65581 JPE65542:JPE65581 JZA65542:JZA65581 KIW65542:KIW65581 KSS65542:KSS65581 LCO65542:LCO65581 LMK65542:LMK65581 LWG65542:LWG65581 MGC65542:MGC65581 MPY65542:MPY65581 MZU65542:MZU65581 NJQ65542:NJQ65581 NTM65542:NTM65581 ODI65542:ODI65581 ONE65542:ONE65581 OXA65542:OXA65581 PGW65542:PGW65581 PQS65542:PQS65581 QAO65542:QAO65581 QKK65542:QKK65581 QUG65542:QUG65581 REC65542:REC65581 RNY65542:RNY65581 RXU65542:RXU65581 SHQ65542:SHQ65581 SRM65542:SRM65581 TBI65542:TBI65581 TLE65542:TLE65581 TVA65542:TVA65581 UEW65542:UEW65581 UOS65542:UOS65581 UYO65542:UYO65581 VIK65542:VIK65581 VSG65542:VSG65581 WCC65542:WCC65581 WLY65542:WLY65581 WVU65542:WVU65581 JI131078:JI131117 TE131078:TE131117 ADA131078:ADA131117 AMW131078:AMW131117 AWS131078:AWS131117 BGO131078:BGO131117 BQK131078:BQK131117 CAG131078:CAG131117 CKC131078:CKC131117 CTY131078:CTY131117 DDU131078:DDU131117 DNQ131078:DNQ131117 DXM131078:DXM131117 EHI131078:EHI131117 ERE131078:ERE131117 FBA131078:FBA131117 FKW131078:FKW131117 FUS131078:FUS131117 GEO131078:GEO131117 GOK131078:GOK131117 GYG131078:GYG131117 HIC131078:HIC131117 HRY131078:HRY131117 IBU131078:IBU131117 ILQ131078:ILQ131117 IVM131078:IVM131117 JFI131078:JFI131117 JPE131078:JPE131117 JZA131078:JZA131117 KIW131078:KIW131117 KSS131078:KSS131117 LCO131078:LCO131117 LMK131078:LMK131117 LWG131078:LWG131117 MGC131078:MGC131117 MPY131078:MPY131117 MZU131078:MZU131117 NJQ131078:NJQ131117 NTM131078:NTM131117 ODI131078:ODI131117 ONE131078:ONE131117 OXA131078:OXA131117 PGW131078:PGW131117 PQS131078:PQS131117 QAO131078:QAO131117 QKK131078:QKK131117 QUG131078:QUG131117 REC131078:REC131117 RNY131078:RNY131117 RXU131078:RXU131117 SHQ131078:SHQ131117 SRM131078:SRM131117 TBI131078:TBI131117 TLE131078:TLE131117 TVA131078:TVA131117 UEW131078:UEW131117 UOS131078:UOS131117 UYO131078:UYO131117 VIK131078:VIK131117 VSG131078:VSG131117 WCC131078:WCC131117 WLY131078:WLY131117 WVU131078:WVU131117 JI196614:JI196653 TE196614:TE196653 ADA196614:ADA196653 AMW196614:AMW196653 AWS196614:AWS196653 BGO196614:BGO196653 BQK196614:BQK196653 CAG196614:CAG196653 CKC196614:CKC196653 CTY196614:CTY196653 DDU196614:DDU196653 DNQ196614:DNQ196653 DXM196614:DXM196653 EHI196614:EHI196653 ERE196614:ERE196653 FBA196614:FBA196653 FKW196614:FKW196653 FUS196614:FUS196653 GEO196614:GEO196653 GOK196614:GOK196653 GYG196614:GYG196653 HIC196614:HIC196653 HRY196614:HRY196653 IBU196614:IBU196653 ILQ196614:ILQ196653 IVM196614:IVM196653 JFI196614:JFI196653 JPE196614:JPE196653 JZA196614:JZA196653 KIW196614:KIW196653 KSS196614:KSS196653 LCO196614:LCO196653 LMK196614:LMK196653 LWG196614:LWG196653 MGC196614:MGC196653 MPY196614:MPY196653 MZU196614:MZU196653 NJQ196614:NJQ196653 NTM196614:NTM196653 ODI196614:ODI196653 ONE196614:ONE196653 OXA196614:OXA196653 PGW196614:PGW196653 PQS196614:PQS196653 QAO196614:QAO196653 QKK196614:QKK196653 QUG196614:QUG196653 REC196614:REC196653 RNY196614:RNY196653 RXU196614:RXU196653 SHQ196614:SHQ196653 SRM196614:SRM196653 TBI196614:TBI196653 TLE196614:TLE196653 TVA196614:TVA196653 UEW196614:UEW196653 UOS196614:UOS196653 UYO196614:UYO196653 VIK196614:VIK196653 VSG196614:VSG196653 WCC196614:WCC196653 WLY196614:WLY196653 WVU196614:WVU196653 JI262150:JI262189 TE262150:TE262189 ADA262150:ADA262189 AMW262150:AMW262189 AWS262150:AWS262189 BGO262150:BGO262189 BQK262150:BQK262189 CAG262150:CAG262189 CKC262150:CKC262189 CTY262150:CTY262189 DDU262150:DDU262189 DNQ262150:DNQ262189 DXM262150:DXM262189 EHI262150:EHI262189 ERE262150:ERE262189 FBA262150:FBA262189 FKW262150:FKW262189 FUS262150:FUS262189 GEO262150:GEO262189 GOK262150:GOK262189 GYG262150:GYG262189 HIC262150:HIC262189 HRY262150:HRY262189 IBU262150:IBU262189 ILQ262150:ILQ262189 IVM262150:IVM262189 JFI262150:JFI262189 JPE262150:JPE262189 JZA262150:JZA262189 KIW262150:KIW262189 KSS262150:KSS262189 LCO262150:LCO262189 LMK262150:LMK262189 LWG262150:LWG262189 MGC262150:MGC262189 MPY262150:MPY262189 MZU262150:MZU262189 NJQ262150:NJQ262189 NTM262150:NTM262189 ODI262150:ODI262189 ONE262150:ONE262189 OXA262150:OXA262189 PGW262150:PGW262189 PQS262150:PQS262189 QAO262150:QAO262189 QKK262150:QKK262189 QUG262150:QUG262189 REC262150:REC262189 RNY262150:RNY262189 RXU262150:RXU262189 SHQ262150:SHQ262189 SRM262150:SRM262189 TBI262150:TBI262189 TLE262150:TLE262189 TVA262150:TVA262189 UEW262150:UEW262189 UOS262150:UOS262189 UYO262150:UYO262189 VIK262150:VIK262189 VSG262150:VSG262189 WCC262150:WCC262189 WLY262150:WLY262189 WVU262150:WVU262189 JI327686:JI327725 TE327686:TE327725 ADA327686:ADA327725 AMW327686:AMW327725 AWS327686:AWS327725 BGO327686:BGO327725 BQK327686:BQK327725 CAG327686:CAG327725 CKC327686:CKC327725 CTY327686:CTY327725 DDU327686:DDU327725 DNQ327686:DNQ327725 DXM327686:DXM327725 EHI327686:EHI327725 ERE327686:ERE327725 FBA327686:FBA327725 FKW327686:FKW327725 FUS327686:FUS327725 GEO327686:GEO327725 GOK327686:GOK327725 GYG327686:GYG327725 HIC327686:HIC327725 HRY327686:HRY327725 IBU327686:IBU327725 ILQ327686:ILQ327725 IVM327686:IVM327725 JFI327686:JFI327725 JPE327686:JPE327725 JZA327686:JZA327725 KIW327686:KIW327725 KSS327686:KSS327725 LCO327686:LCO327725 LMK327686:LMK327725 LWG327686:LWG327725 MGC327686:MGC327725 MPY327686:MPY327725 MZU327686:MZU327725 NJQ327686:NJQ327725 NTM327686:NTM327725 ODI327686:ODI327725 ONE327686:ONE327725 OXA327686:OXA327725 PGW327686:PGW327725 PQS327686:PQS327725 QAO327686:QAO327725 QKK327686:QKK327725 QUG327686:QUG327725 REC327686:REC327725 RNY327686:RNY327725 RXU327686:RXU327725 SHQ327686:SHQ327725 SRM327686:SRM327725 TBI327686:TBI327725 TLE327686:TLE327725 TVA327686:TVA327725 UEW327686:UEW327725 UOS327686:UOS327725 UYO327686:UYO327725 VIK327686:VIK327725 VSG327686:VSG327725 WCC327686:WCC327725 WLY327686:WLY327725 WVU327686:WVU327725 JI393222:JI393261 TE393222:TE393261 ADA393222:ADA393261 AMW393222:AMW393261 AWS393222:AWS393261 BGO393222:BGO393261 BQK393222:BQK393261 CAG393222:CAG393261 CKC393222:CKC393261 CTY393222:CTY393261 DDU393222:DDU393261 DNQ393222:DNQ393261 DXM393222:DXM393261 EHI393222:EHI393261 ERE393222:ERE393261 FBA393222:FBA393261 FKW393222:FKW393261 FUS393222:FUS393261 GEO393222:GEO393261 GOK393222:GOK393261 GYG393222:GYG393261 HIC393222:HIC393261 HRY393222:HRY393261 IBU393222:IBU393261 ILQ393222:ILQ393261 IVM393222:IVM393261 JFI393222:JFI393261 JPE393222:JPE393261 JZA393222:JZA393261 KIW393222:KIW393261 KSS393222:KSS393261 LCO393222:LCO393261 LMK393222:LMK393261 LWG393222:LWG393261 MGC393222:MGC393261 MPY393222:MPY393261 MZU393222:MZU393261 NJQ393222:NJQ393261 NTM393222:NTM393261 ODI393222:ODI393261 ONE393222:ONE393261 OXA393222:OXA393261 PGW393222:PGW393261 PQS393222:PQS393261 QAO393222:QAO393261 QKK393222:QKK393261 QUG393222:QUG393261 REC393222:REC393261 RNY393222:RNY393261 RXU393222:RXU393261 SHQ393222:SHQ393261 SRM393222:SRM393261 TBI393222:TBI393261 TLE393222:TLE393261 TVA393222:TVA393261 UEW393222:UEW393261 UOS393222:UOS393261 UYO393222:UYO393261 VIK393222:VIK393261 VSG393222:VSG393261 WCC393222:WCC393261 WLY393222:WLY393261 WVU393222:WVU393261 JI458758:JI458797 TE458758:TE458797 ADA458758:ADA458797 AMW458758:AMW458797 AWS458758:AWS458797 BGO458758:BGO458797 BQK458758:BQK458797 CAG458758:CAG458797 CKC458758:CKC458797 CTY458758:CTY458797 DDU458758:DDU458797 DNQ458758:DNQ458797 DXM458758:DXM458797 EHI458758:EHI458797 ERE458758:ERE458797 FBA458758:FBA458797 FKW458758:FKW458797 FUS458758:FUS458797 GEO458758:GEO458797 GOK458758:GOK458797 GYG458758:GYG458797 HIC458758:HIC458797 HRY458758:HRY458797 IBU458758:IBU458797 ILQ458758:ILQ458797 IVM458758:IVM458797 JFI458758:JFI458797 JPE458758:JPE458797 JZA458758:JZA458797 KIW458758:KIW458797 KSS458758:KSS458797 LCO458758:LCO458797 LMK458758:LMK458797 LWG458758:LWG458797 MGC458758:MGC458797 MPY458758:MPY458797 MZU458758:MZU458797 NJQ458758:NJQ458797 NTM458758:NTM458797 ODI458758:ODI458797 ONE458758:ONE458797 OXA458758:OXA458797 PGW458758:PGW458797 PQS458758:PQS458797 QAO458758:QAO458797 QKK458758:QKK458797 QUG458758:QUG458797 REC458758:REC458797 RNY458758:RNY458797 RXU458758:RXU458797 SHQ458758:SHQ458797 SRM458758:SRM458797 TBI458758:TBI458797 TLE458758:TLE458797 TVA458758:TVA458797 UEW458758:UEW458797 UOS458758:UOS458797 UYO458758:UYO458797 VIK458758:VIK458797 VSG458758:VSG458797 WCC458758:WCC458797 WLY458758:WLY458797 WVU458758:WVU458797 JI524294:JI524333 TE524294:TE524333 ADA524294:ADA524333 AMW524294:AMW524333 AWS524294:AWS524333 BGO524294:BGO524333 BQK524294:BQK524333 CAG524294:CAG524333 CKC524294:CKC524333 CTY524294:CTY524333 DDU524294:DDU524333 DNQ524294:DNQ524333 DXM524294:DXM524333 EHI524294:EHI524333 ERE524294:ERE524333 FBA524294:FBA524333 FKW524294:FKW524333 FUS524294:FUS524333 GEO524294:GEO524333 GOK524294:GOK524333 GYG524294:GYG524333 HIC524294:HIC524333 HRY524294:HRY524333 IBU524294:IBU524333 ILQ524294:ILQ524333 IVM524294:IVM524333 JFI524294:JFI524333 JPE524294:JPE524333 JZA524294:JZA524333 KIW524294:KIW524333 KSS524294:KSS524333 LCO524294:LCO524333 LMK524294:LMK524333 LWG524294:LWG524333 MGC524294:MGC524333 MPY524294:MPY524333 MZU524294:MZU524333 NJQ524294:NJQ524333 NTM524294:NTM524333 ODI524294:ODI524333 ONE524294:ONE524333 OXA524294:OXA524333 PGW524294:PGW524333 PQS524294:PQS524333 QAO524294:QAO524333 QKK524294:QKK524333 QUG524294:QUG524333 REC524294:REC524333 RNY524294:RNY524333 RXU524294:RXU524333 SHQ524294:SHQ524333 SRM524294:SRM524333 TBI524294:TBI524333 TLE524294:TLE524333 TVA524294:TVA524333 UEW524294:UEW524333 UOS524294:UOS524333 UYO524294:UYO524333 VIK524294:VIK524333 VSG524294:VSG524333 WCC524294:WCC524333 WLY524294:WLY524333 WVU524294:WVU524333 JI589830:JI589869 TE589830:TE589869 ADA589830:ADA589869 AMW589830:AMW589869 AWS589830:AWS589869 BGO589830:BGO589869 BQK589830:BQK589869 CAG589830:CAG589869 CKC589830:CKC589869 CTY589830:CTY589869 DDU589830:DDU589869 DNQ589830:DNQ589869 DXM589830:DXM589869 EHI589830:EHI589869 ERE589830:ERE589869 FBA589830:FBA589869 FKW589830:FKW589869 FUS589830:FUS589869 GEO589830:GEO589869 GOK589830:GOK589869 GYG589830:GYG589869 HIC589830:HIC589869 HRY589830:HRY589869 IBU589830:IBU589869 ILQ589830:ILQ589869 IVM589830:IVM589869 JFI589830:JFI589869 JPE589830:JPE589869 JZA589830:JZA589869 KIW589830:KIW589869 KSS589830:KSS589869 LCO589830:LCO589869 LMK589830:LMK589869 LWG589830:LWG589869 MGC589830:MGC589869 MPY589830:MPY589869 MZU589830:MZU589869 NJQ589830:NJQ589869 NTM589830:NTM589869 ODI589830:ODI589869 ONE589830:ONE589869 OXA589830:OXA589869 PGW589830:PGW589869 PQS589830:PQS589869 QAO589830:QAO589869 QKK589830:QKK589869 QUG589830:QUG589869 REC589830:REC589869 RNY589830:RNY589869 RXU589830:RXU589869 SHQ589830:SHQ589869 SRM589830:SRM589869 TBI589830:TBI589869 TLE589830:TLE589869 TVA589830:TVA589869 UEW589830:UEW589869 UOS589830:UOS589869 UYO589830:UYO589869 VIK589830:VIK589869 VSG589830:VSG589869 WCC589830:WCC589869 WLY589830:WLY589869 WVU589830:WVU589869 JI655366:JI655405 TE655366:TE655405 ADA655366:ADA655405 AMW655366:AMW655405 AWS655366:AWS655405 BGO655366:BGO655405 BQK655366:BQK655405 CAG655366:CAG655405 CKC655366:CKC655405 CTY655366:CTY655405 DDU655366:DDU655405 DNQ655366:DNQ655405 DXM655366:DXM655405 EHI655366:EHI655405 ERE655366:ERE655405 FBA655366:FBA655405 FKW655366:FKW655405 FUS655366:FUS655405 GEO655366:GEO655405 GOK655366:GOK655405 GYG655366:GYG655405 HIC655366:HIC655405 HRY655366:HRY655405 IBU655366:IBU655405 ILQ655366:ILQ655405 IVM655366:IVM655405 JFI655366:JFI655405 JPE655366:JPE655405 JZA655366:JZA655405 KIW655366:KIW655405 KSS655366:KSS655405 LCO655366:LCO655405 LMK655366:LMK655405 LWG655366:LWG655405 MGC655366:MGC655405 MPY655366:MPY655405 MZU655366:MZU655405 NJQ655366:NJQ655405 NTM655366:NTM655405 ODI655366:ODI655405 ONE655366:ONE655405 OXA655366:OXA655405 PGW655366:PGW655405 PQS655366:PQS655405 QAO655366:QAO655405 QKK655366:QKK655405 QUG655366:QUG655405 REC655366:REC655405 RNY655366:RNY655405 RXU655366:RXU655405 SHQ655366:SHQ655405 SRM655366:SRM655405 TBI655366:TBI655405 TLE655366:TLE655405 TVA655366:TVA655405 UEW655366:UEW655405 UOS655366:UOS655405 UYO655366:UYO655405 VIK655366:VIK655405 VSG655366:VSG655405 WCC655366:WCC655405 WLY655366:WLY655405 WVU655366:WVU655405 JI720902:JI720941 TE720902:TE720941 ADA720902:ADA720941 AMW720902:AMW720941 AWS720902:AWS720941 BGO720902:BGO720941 BQK720902:BQK720941 CAG720902:CAG720941 CKC720902:CKC720941 CTY720902:CTY720941 DDU720902:DDU720941 DNQ720902:DNQ720941 DXM720902:DXM720941 EHI720902:EHI720941 ERE720902:ERE720941 FBA720902:FBA720941 FKW720902:FKW720941 FUS720902:FUS720941 GEO720902:GEO720941 GOK720902:GOK720941 GYG720902:GYG720941 HIC720902:HIC720941 HRY720902:HRY720941 IBU720902:IBU720941 ILQ720902:ILQ720941 IVM720902:IVM720941 JFI720902:JFI720941 JPE720902:JPE720941 JZA720902:JZA720941 KIW720902:KIW720941 KSS720902:KSS720941 LCO720902:LCO720941 LMK720902:LMK720941 LWG720902:LWG720941 MGC720902:MGC720941 MPY720902:MPY720941 MZU720902:MZU720941 NJQ720902:NJQ720941 NTM720902:NTM720941 ODI720902:ODI720941 ONE720902:ONE720941 OXA720902:OXA720941 PGW720902:PGW720941 PQS720902:PQS720941 QAO720902:QAO720941 QKK720902:QKK720941 QUG720902:QUG720941 REC720902:REC720941 RNY720902:RNY720941 RXU720902:RXU720941 SHQ720902:SHQ720941 SRM720902:SRM720941 TBI720902:TBI720941 TLE720902:TLE720941 TVA720902:TVA720941 UEW720902:UEW720941 UOS720902:UOS720941 UYO720902:UYO720941 VIK720902:VIK720941 VSG720902:VSG720941 WCC720902:WCC720941 WLY720902:WLY720941 WVU720902:WVU720941 JI786438:JI786477 TE786438:TE786477 ADA786438:ADA786477 AMW786438:AMW786477 AWS786438:AWS786477 BGO786438:BGO786477 BQK786438:BQK786477 CAG786438:CAG786477 CKC786438:CKC786477 CTY786438:CTY786477 DDU786438:DDU786477 DNQ786438:DNQ786477 DXM786438:DXM786477 EHI786438:EHI786477 ERE786438:ERE786477 FBA786438:FBA786477 FKW786438:FKW786477 FUS786438:FUS786477 GEO786438:GEO786477 GOK786438:GOK786477 GYG786438:GYG786477 HIC786438:HIC786477 HRY786438:HRY786477 IBU786438:IBU786477 ILQ786438:ILQ786477 IVM786438:IVM786477 JFI786438:JFI786477 JPE786438:JPE786477 JZA786438:JZA786477 KIW786438:KIW786477 KSS786438:KSS786477 LCO786438:LCO786477 LMK786438:LMK786477 LWG786438:LWG786477 MGC786438:MGC786477 MPY786438:MPY786477 MZU786438:MZU786477 NJQ786438:NJQ786477 NTM786438:NTM786477 ODI786438:ODI786477 ONE786438:ONE786477 OXA786438:OXA786477 PGW786438:PGW786477 PQS786438:PQS786477 QAO786438:QAO786477 QKK786438:QKK786477 QUG786438:QUG786477 REC786438:REC786477 RNY786438:RNY786477 RXU786438:RXU786477 SHQ786438:SHQ786477 SRM786438:SRM786477 TBI786438:TBI786477 TLE786438:TLE786477 TVA786438:TVA786477 UEW786438:UEW786477 UOS786438:UOS786477 UYO786438:UYO786477 VIK786438:VIK786477 VSG786438:VSG786477 WCC786438:WCC786477 WLY786438:WLY786477 WVU786438:WVU786477 JI851974:JI852013 TE851974:TE852013 ADA851974:ADA852013 AMW851974:AMW852013 AWS851974:AWS852013 BGO851974:BGO852013 BQK851974:BQK852013 CAG851974:CAG852013 CKC851974:CKC852013 CTY851974:CTY852013 DDU851974:DDU852013 DNQ851974:DNQ852013 DXM851974:DXM852013 EHI851974:EHI852013 ERE851974:ERE852013 FBA851974:FBA852013 FKW851974:FKW852013 FUS851974:FUS852013 GEO851974:GEO852013 GOK851974:GOK852013 GYG851974:GYG852013 HIC851974:HIC852013 HRY851974:HRY852013 IBU851974:IBU852013 ILQ851974:ILQ852013 IVM851974:IVM852013 JFI851974:JFI852013 JPE851974:JPE852013 JZA851974:JZA852013 KIW851974:KIW852013 KSS851974:KSS852013 LCO851974:LCO852013 LMK851974:LMK852013 LWG851974:LWG852013 MGC851974:MGC852013 MPY851974:MPY852013 MZU851974:MZU852013 NJQ851974:NJQ852013 NTM851974:NTM852013 ODI851974:ODI852013 ONE851974:ONE852013 OXA851974:OXA852013 PGW851974:PGW852013 PQS851974:PQS852013 QAO851974:QAO852013 QKK851974:QKK852013 QUG851974:QUG852013 REC851974:REC852013 RNY851974:RNY852013 RXU851974:RXU852013 SHQ851974:SHQ852013 SRM851974:SRM852013 TBI851974:TBI852013 TLE851974:TLE852013 TVA851974:TVA852013 UEW851974:UEW852013 UOS851974:UOS852013 UYO851974:UYO852013 VIK851974:VIK852013 VSG851974:VSG852013 WCC851974:WCC852013 WLY851974:WLY852013 WVU851974:WVU852013 JI917510:JI917549 TE917510:TE917549 ADA917510:ADA917549 AMW917510:AMW917549 AWS917510:AWS917549 BGO917510:BGO917549 BQK917510:BQK917549 CAG917510:CAG917549 CKC917510:CKC917549 CTY917510:CTY917549 DDU917510:DDU917549 DNQ917510:DNQ917549 DXM917510:DXM917549 EHI917510:EHI917549 ERE917510:ERE917549 FBA917510:FBA917549 FKW917510:FKW917549 FUS917510:FUS917549 GEO917510:GEO917549 GOK917510:GOK917549 GYG917510:GYG917549 HIC917510:HIC917549 HRY917510:HRY917549 IBU917510:IBU917549 ILQ917510:ILQ917549 IVM917510:IVM917549 JFI917510:JFI917549 JPE917510:JPE917549 JZA917510:JZA917549 KIW917510:KIW917549 KSS917510:KSS917549 LCO917510:LCO917549 LMK917510:LMK917549 LWG917510:LWG917549 MGC917510:MGC917549 MPY917510:MPY917549 MZU917510:MZU917549 NJQ917510:NJQ917549 NTM917510:NTM917549 ODI917510:ODI917549 ONE917510:ONE917549 OXA917510:OXA917549 PGW917510:PGW917549 PQS917510:PQS917549 QAO917510:QAO917549 QKK917510:QKK917549 QUG917510:QUG917549 REC917510:REC917549 RNY917510:RNY917549 RXU917510:RXU917549 SHQ917510:SHQ917549 SRM917510:SRM917549 TBI917510:TBI917549 TLE917510:TLE917549 TVA917510:TVA917549 UEW917510:UEW917549 UOS917510:UOS917549 UYO917510:UYO917549 VIK917510:VIK917549 VSG917510:VSG917549 WCC917510:WCC917549 WLY917510:WLY917549 WVU917510:WVU917549 JI983046:JI983085 TE983046:TE983085 ADA983046:ADA983085 AMW983046:AMW983085 AWS983046:AWS983085 BGO983046:BGO983085 BQK983046:BQK983085 CAG983046:CAG983085 CKC983046:CKC983085 CTY983046:CTY983085 DDU983046:DDU983085 DNQ983046:DNQ983085 DXM983046:DXM983085 EHI983046:EHI983085 ERE983046:ERE983085 FBA983046:FBA983085 FKW983046:FKW983085 FUS983046:FUS983085 GEO983046:GEO983085 GOK983046:GOK983085 GYG983046:GYG983085 HIC983046:HIC983085 HRY983046:HRY983085 IBU983046:IBU983085 ILQ983046:ILQ983085 IVM983046:IVM983085 JFI983046:JFI983085 JPE983046:JPE983085 JZA983046:JZA983085 KIW983046:KIW983085 KSS983046:KSS983085 LCO983046:LCO983085 LMK983046:LMK983085 LWG983046:LWG983085 MGC983046:MGC983085 MPY983046:MPY983085 MZU983046:MZU983085 NJQ983046:NJQ983085 NTM983046:NTM983085 ODI983046:ODI983085 ONE983046:ONE983085 OXA983046:OXA983085 PGW983046:PGW983085 PQS983046:PQS983085 QAO983046:QAO983085 QKK983046:QKK983085 QUG983046:QUG983085 REC983046:REC983085 RNY983046:RNY983085 RXU983046:RXU983085 SHQ983046:SHQ983085 SRM983046:SRM983085 TBI983046:TBI983085 TLE983046:TLE983085 TVA983046:TVA983085 UEW983046:UEW983085 UOS983046:UOS983085 UYO983046:UYO983085 VIK983046:VIK983085 VSG983046:VSG983085 WCC983046:WCC983085 WLY983046:WLY983085 WVU983046:WVU983085 WVU5:WVU43 WLY5:WLY43 WCC5:WCC43 VSG5:VSG43 VIK5:VIK43 UYO5:UYO43 UOS5:UOS43 UEW5:UEW43 TVA5:TVA43 TLE5:TLE43 TBI5:TBI43 SRM5:SRM43 SHQ5:SHQ43 RXU5:RXU43 RNY5:RNY43 REC5:REC43 QUG5:QUG43 QKK5:QKK43 QAO5:QAO43 PQS5:PQS43 PGW5:PGW43 OXA5:OXA43 ONE5:ONE43 ODI5:ODI43 NTM5:NTM43 NJQ5:NJQ43 MZU5:MZU43 MPY5:MPY43 MGC5:MGC43 LWG5:LWG43 LMK5:LMK43 LCO5:LCO43 KSS5:KSS43 KIW5:KIW43 JZA5:JZA43 JPE5:JPE43 JFI5:JFI43 IVM5:IVM43 ILQ5:ILQ43 IBU5:IBU43 HRY5:HRY43 HIC5:HIC43 GYG5:GYG43 GOK5:GOK43 GEO5:GEO43 FUS5:FUS43 FKW5:FKW43 FBA5:FBA43 ERE5:ERE43 EHI5:EHI43 DXM5:DXM43 DNQ5:DNQ43 DDU5:DDU43 CTY5:CTY43 CKC5:CKC43 CAG5:CAG43 BQK5:BQK43 BGO5:BGO43 AWS5:AWS43 AMW5:AMW43 ADA5:ADA43 TE5:TE43 JI5:JI43" xr:uid="{00000000-0002-0000-0C00-000004000000}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
@@ -18794,7 +18901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -19259,37 +19366,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A1" s="153"/>
-      <c r="B1" s="153"/>
-      <c r="C1" s="154" t="s">
+      <c r="A1" s="134"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
       <c r="N1" s="40"/>
       <c r="O1" s="40"/>
       <c r="P1" s="41"/>
     </row>
     <row r="2" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A2" s="156"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
       <c r="M2" s="42" t="s">
         <v>134</v>
       </c>
@@ -19300,19 +19407,19 @@
       <c r="P2" s="41"/>
     </row>
     <row r="3" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="139" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
       <c r="M3" s="42" t="s">
         <v>135</v>
       </c>
@@ -19323,8 +19430,8 @@
       <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1">
-      <c r="A4" s="151"/>
-      <c r="B4" s="152"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="133"/>
       <c r="C4" s="45"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -19339,67 +19446,67 @@
       <c r="P4" s="41"/>
     </row>
     <row r="5" spans="1:259" ht="92.25" customHeight="1">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="152" t="s">
         <v>136</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="153" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="143" t="s">
+      <c r="D5" s="154"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="153" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="146" t="s">
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="156" t="s">
         <v>140</v>
       </c>
-      <c r="L5" s="147" t="s">
+      <c r="L5" s="157" t="s">
         <v>141</v>
       </c>
-      <c r="M5" s="149" t="s">
+      <c r="M5" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="N5" s="150"/>
-      <c r="O5" s="134" t="s">
+      <c r="N5" s="160"/>
+      <c r="O5" s="144" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:259" ht="200.25" customHeight="1">
-      <c r="A6" s="142"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="145" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135" t="s">
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="148"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="N6" s="136" t="s">
+      <c r="N6" s="146" t="s">
         <v>147</v>
       </c>
-      <c r="O6" s="134"/>
+      <c r="O6" s="144"/>
     </row>
     <row r="7" spans="1:259" ht="60" customHeight="1">
-      <c r="A7" s="142"/>
+      <c r="A7" s="152"/>
       <c r="B7" s="52" t="s">
         <v>148</v>
       </c>
@@ -19436,7 +19543,7 @@
       <c r="M7" s="56">
         <v>100</v>
       </c>
-      <c r="N7" s="137"/>
+      <c r="N7" s="147"/>
       <c r="O7" s="57">
         <v>100</v>
       </c>
@@ -21582,23 +21689,23 @@
       </c>
     </row>
     <row r="48" spans="1:259" ht="60" customHeight="1">
-      <c r="A48" s="138" t="s">
+      <c r="A48" s="148" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="138"/>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="138"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="138"/>
-      <c r="J48" s="138"/>
-      <c r="K48" s="138"/>
-      <c r="L48" s="138"/>
-      <c r="M48" s="138"/>
-      <c r="N48" s="138"/>
-      <c r="O48" s="138"/>
+      <c r="B48" s="148"/>
+      <c r="C48" s="148"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="148"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="148"/>
+      <c r="J48" s="148"/>
+      <c r="K48" s="148"/>
+      <c r="L48" s="148"/>
+      <c r="M48" s="148"/>
+      <c r="N48" s="148"/>
+      <c r="O48" s="148"/>
       <c r="P48" s="68"/>
       <c r="Q48" s="68"/>
       <c r="R48" s="68"/>
@@ -21849,17 +21956,17 @@
       <c r="B49" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="C49" s="139"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="140"/>
-      <c r="F49" s="140"/>
-      <c r="G49" s="140"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="140"/>
-      <c r="K49" s="140"/>
-      <c r="L49" s="140"/>
-      <c r="M49" s="141"/>
+      <c r="C49" s="149"/>
+      <c r="D49" s="150"/>
+      <c r="E49" s="150"/>
+      <c r="F49" s="150"/>
+      <c r="G49" s="150"/>
+      <c r="H49" s="150"/>
+      <c r="I49" s="150"/>
+      <c r="J49" s="150"/>
+      <c r="K49" s="150"/>
+      <c r="L49" s="150"/>
+      <c r="M49" s="151"/>
       <c r="N49" s="71"/>
       <c r="O49" s="71"/>
     </row>
@@ -22108,24 +22215,24 @@
       <c r="B55" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="C55" s="132" t="s">
+      <c r="C55" s="142" t="s">
         <v>183</v>
       </c>
-      <c r="D55" s="132" t="s">
+      <c r="D55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="E55" s="132" t="s">
+      <c r="E55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="F55" s="132" t="s">
+      <c r="F55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="G55" s="132"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132" t="s">
+      <c r="G55" s="142"/>
+      <c r="H55" s="142"/>
+      <c r="I55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="J55" s="132" t="s">
+      <c r="J55" s="142" t="s">
         <v>184</v>
       </c>
       <c r="K55" s="79" t="s">
@@ -22140,14 +22247,14 @@
     <row r="56" spans="1:16" s="88" customFormat="1" ht="42.75" customHeight="1">
       <c r="A56" s="83"/>
       <c r="B56" s="84"/>
-      <c r="C56" s="133"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="133"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="143"/>
       <c r="K56" s="85"/>
       <c r="L56" s="86"/>
       <c r="M56" s="86"/>
@@ -22158,12 +22265,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="bymfRcfdrKcinTwDVsD9Sw9HEi8Aylyen4Sk5Zge/jYh+kvPJ7FX30Y4JStUMt7GaslXX539UxCjP4mWFs/Pug==" saltValue="rJpldvugpSjeUtd+V1m7xQ==" spinCount="100000" sheet="1"/>
   <mergeCells count="20">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:L2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:K3"/>
     <mergeCell ref="C55:J55"/>
     <mergeCell ref="C56:J56"/>
     <mergeCell ref="O5:O6"/>
@@ -22178,22 +22279,28 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:L2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:K3"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L47" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:I47 K8:K47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:I47 K8:K47" xr:uid="{00000000-0002-0000-0D00-000001000000}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D47" xr:uid="{00000000-0002-0000-0D00-000002000000}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="يجب أن تكون القيمة بين 0 و 5" sqref="SU46:TF50 ACQ46:ADB50 AMM46:AMX50 AWI46:AWT50 BGE46:BGP50 BQA46:BQL50 BZW46:CAH50 CJS46:CKD50 CTO46:CTZ50 DDK46:DDV50 DNG46:DNR50 DXC46:DXN50 EGY46:EHJ50 EQU46:ERF50 FAQ46:FBB50 FKM46:FKX50 FUI46:FUT50 GEE46:GEP50 GOA46:GOL50 GXW46:GYH50 HHS46:HID50 HRO46:HRZ50 IBK46:IBV50 ILG46:ILR50 IVC46:IVN50 JEY46:JFJ50 JOU46:JPF50 JYQ46:JZB50 KIM46:KIX50 KSI46:KST50 LCE46:LCP50 LMA46:LML50 LVW46:LWH50 MFS46:MGD50 MPO46:MPZ50 MZK46:MZV50 NJG46:NJR50 NTC46:NTN50 OCY46:ODJ50 OMU46:ONF50 OWQ46:OXB50 PGM46:PGX50 PQI46:PQT50 QAE46:QAP50 QKA46:QKL50 QTW46:QUH50 RDS46:RED50 RNO46:RNZ50 RXK46:RXV50 SHG46:SHR50 SRC46:SRN50 TAY46:TBJ50 TKU46:TLF50 TUQ46:TVB50 UEM46:UEX50 UOI46:UOT50 UYE46:UYP50 VIA46:VIL50 VRW46:VSH50 WBS46:WCD50 WLO46:WLZ50 WVK46:WVV50 SU65584:TF65588 ACQ65584:ADB65588 AMM65584:AMX65588 AWI65584:AWT65588 BGE65584:BGP65588 BQA65584:BQL65588 BZW65584:CAH65588 CJS65584:CKD65588 CTO65584:CTZ65588 DDK65584:DDV65588 DNG65584:DNR65588 DXC65584:DXN65588 EGY65584:EHJ65588 EQU65584:ERF65588 FAQ65584:FBB65588 FKM65584:FKX65588 FUI65584:FUT65588 GEE65584:GEP65588 GOA65584:GOL65588 GXW65584:GYH65588 HHS65584:HID65588 HRO65584:HRZ65588 IBK65584:IBV65588 ILG65584:ILR65588 IVC65584:IVN65588 JEY65584:JFJ65588 JOU65584:JPF65588 JYQ65584:JZB65588 KIM65584:KIX65588 KSI65584:KST65588 LCE65584:LCP65588 LMA65584:LML65588 LVW65584:LWH65588 MFS65584:MGD65588 MPO65584:MPZ65588 MZK65584:MZV65588 NJG65584:NJR65588 NTC65584:NTN65588 OCY65584:ODJ65588 OMU65584:ONF65588 OWQ65584:OXB65588 PGM65584:PGX65588 PQI65584:PQT65588 QAE65584:QAP65588 QKA65584:QKL65588 QTW65584:QUH65588 RDS65584:RED65588 RNO65584:RNZ65588 RXK65584:RXV65588 SHG65584:SHR65588 SRC65584:SRN65588 TAY65584:TBJ65588 TKU65584:TLF65588 TUQ65584:TVB65588 UEM65584:UEX65588 UOI65584:UOT65588 UYE65584:UYP65588 VIA65584:VIL65588 VRW65584:VSH65588 WBS65584:WCD65588 WLO65584:WLZ65588 WVK65584:WVV65588 SU131120:TF131124 ACQ131120:ADB131124 AMM131120:AMX131124 AWI131120:AWT131124 BGE131120:BGP131124 BQA131120:BQL131124 BZW131120:CAH131124 CJS131120:CKD131124 CTO131120:CTZ131124 DDK131120:DDV131124 DNG131120:DNR131124 DXC131120:DXN131124 EGY131120:EHJ131124 EQU131120:ERF131124 FAQ131120:FBB131124 FKM131120:FKX131124 FUI131120:FUT131124 GEE131120:GEP131124 GOA131120:GOL131124 GXW131120:GYH131124 HHS131120:HID131124 HRO131120:HRZ131124 IBK131120:IBV131124 ILG131120:ILR131124 IVC131120:IVN131124 JEY131120:JFJ131124 JOU131120:JPF131124 JYQ131120:JZB131124 KIM131120:KIX131124 KSI131120:KST131124 LCE131120:LCP131124 LMA131120:LML131124 LVW131120:LWH131124 MFS131120:MGD131124 MPO131120:MPZ131124 MZK131120:MZV131124 NJG131120:NJR131124 NTC131120:NTN131124 OCY131120:ODJ131124 OMU131120:ONF131124 OWQ131120:OXB131124 PGM131120:PGX131124 PQI131120:PQT131124 QAE131120:QAP131124 QKA131120:QKL131124 QTW131120:QUH131124 RDS131120:RED131124 RNO131120:RNZ131124 RXK131120:RXV131124 SHG131120:SHR131124 SRC131120:SRN131124 TAY131120:TBJ131124 TKU131120:TLF131124 TUQ131120:TVB131124 UEM131120:UEX131124 UOI131120:UOT131124 UYE131120:UYP131124 VIA131120:VIL131124 VRW131120:VSH131124 WBS131120:WCD131124 WLO131120:WLZ131124 WVK131120:WVV131124 SU196656:TF196660 ACQ196656:ADB196660 AMM196656:AMX196660 AWI196656:AWT196660 BGE196656:BGP196660 BQA196656:BQL196660 BZW196656:CAH196660 CJS196656:CKD196660 CTO196656:CTZ196660 DDK196656:DDV196660 DNG196656:DNR196660 DXC196656:DXN196660 EGY196656:EHJ196660 EQU196656:ERF196660 FAQ196656:FBB196660 FKM196656:FKX196660 FUI196656:FUT196660 GEE196656:GEP196660 GOA196656:GOL196660 GXW196656:GYH196660 HHS196656:HID196660 HRO196656:HRZ196660 IBK196656:IBV196660 ILG196656:ILR196660 IVC196656:IVN196660 JEY196656:JFJ196660 JOU196656:JPF196660 JYQ196656:JZB196660 KIM196656:KIX196660 KSI196656:KST196660 LCE196656:LCP196660 LMA196656:LML196660 LVW196656:LWH196660 MFS196656:MGD196660 MPO196656:MPZ196660 MZK196656:MZV196660 NJG196656:NJR196660 NTC196656:NTN196660 OCY196656:ODJ196660 OMU196656:ONF196660 OWQ196656:OXB196660 PGM196656:PGX196660 PQI196656:PQT196660 QAE196656:QAP196660 QKA196656:QKL196660 QTW196656:QUH196660 RDS196656:RED196660 RNO196656:RNZ196660 RXK196656:RXV196660 SHG196656:SHR196660 SRC196656:SRN196660 TAY196656:TBJ196660 TKU196656:TLF196660 TUQ196656:TVB196660 UEM196656:UEX196660 UOI196656:UOT196660 UYE196656:UYP196660 VIA196656:VIL196660 VRW196656:VSH196660 WBS196656:WCD196660 WLO196656:WLZ196660 WVK196656:WVV196660 SU262192:TF262196 ACQ262192:ADB262196 AMM262192:AMX262196 AWI262192:AWT262196 BGE262192:BGP262196 BQA262192:BQL262196 BZW262192:CAH262196 CJS262192:CKD262196 CTO262192:CTZ262196 DDK262192:DDV262196 DNG262192:DNR262196 DXC262192:DXN262196 EGY262192:EHJ262196 EQU262192:ERF262196 FAQ262192:FBB262196 FKM262192:FKX262196 FUI262192:FUT262196 GEE262192:GEP262196 GOA262192:GOL262196 GXW262192:GYH262196 HHS262192:HID262196 HRO262192:HRZ262196 IBK262192:IBV262196 ILG262192:ILR262196 IVC262192:IVN262196 JEY262192:JFJ262196 JOU262192:JPF262196 JYQ262192:JZB262196 KIM262192:KIX262196 KSI262192:KST262196 LCE262192:LCP262196 LMA262192:LML262196 LVW262192:LWH262196 MFS262192:MGD262196 MPO262192:MPZ262196 MZK262192:MZV262196 NJG262192:NJR262196 NTC262192:NTN262196 OCY262192:ODJ262196 OMU262192:ONF262196 OWQ262192:OXB262196 PGM262192:PGX262196 PQI262192:PQT262196 QAE262192:QAP262196 QKA262192:QKL262196 QTW262192:QUH262196 RDS262192:RED262196 RNO262192:RNZ262196 RXK262192:RXV262196 SHG262192:SHR262196 SRC262192:SRN262196 TAY262192:TBJ262196 TKU262192:TLF262196 TUQ262192:TVB262196 UEM262192:UEX262196 UOI262192:UOT262196 UYE262192:UYP262196 VIA262192:VIL262196 VRW262192:VSH262196 WBS262192:WCD262196 WLO262192:WLZ262196 WVK262192:WVV262196 SU327728:TF327732 ACQ327728:ADB327732 AMM327728:AMX327732 AWI327728:AWT327732 BGE327728:BGP327732 BQA327728:BQL327732 BZW327728:CAH327732 CJS327728:CKD327732 CTO327728:CTZ327732 DDK327728:DDV327732 DNG327728:DNR327732 DXC327728:DXN327732 EGY327728:EHJ327732 EQU327728:ERF327732 FAQ327728:FBB327732 FKM327728:FKX327732 FUI327728:FUT327732 GEE327728:GEP327732 GOA327728:GOL327732 GXW327728:GYH327732 HHS327728:HID327732 HRO327728:HRZ327732 IBK327728:IBV327732 ILG327728:ILR327732 IVC327728:IVN327732 JEY327728:JFJ327732 JOU327728:JPF327732 JYQ327728:JZB327732 KIM327728:KIX327732 KSI327728:KST327732 LCE327728:LCP327732 LMA327728:LML327732 LVW327728:LWH327732 MFS327728:MGD327732 MPO327728:MPZ327732 MZK327728:MZV327732 NJG327728:NJR327732 NTC327728:NTN327732 OCY327728:ODJ327732 OMU327728:ONF327732 OWQ327728:OXB327732 PGM327728:PGX327732 PQI327728:PQT327732 QAE327728:QAP327732 QKA327728:QKL327732 QTW327728:QUH327732 RDS327728:RED327732 RNO327728:RNZ327732 RXK327728:RXV327732 SHG327728:SHR327732 SRC327728:SRN327732 TAY327728:TBJ327732 TKU327728:TLF327732 TUQ327728:TVB327732 UEM327728:UEX327732 UOI327728:UOT327732 UYE327728:UYP327732 VIA327728:VIL327732 VRW327728:VSH327732 WBS327728:WCD327732 WLO327728:WLZ327732 WVK327728:WVV327732 SU393264:TF393268 ACQ393264:ADB393268 AMM393264:AMX393268 AWI393264:AWT393268 BGE393264:BGP393268 BQA393264:BQL393268 BZW393264:CAH393268 CJS393264:CKD393268 CTO393264:CTZ393268 DDK393264:DDV393268 DNG393264:DNR393268 DXC393264:DXN393268 EGY393264:EHJ393268 EQU393264:ERF393268 FAQ393264:FBB393268 FKM393264:FKX393268 FUI393264:FUT393268 GEE393264:GEP393268 GOA393264:GOL393268 GXW393264:GYH393268 HHS393264:HID393268 HRO393264:HRZ393268 IBK393264:IBV393268 ILG393264:ILR393268 IVC393264:IVN393268 JEY393264:JFJ393268 JOU393264:JPF393268 JYQ393264:JZB393268 KIM393264:KIX393268 KSI393264:KST393268 LCE393264:LCP393268 LMA393264:LML393268 LVW393264:LWH393268 MFS393264:MGD393268 MPO393264:MPZ393268 MZK393264:MZV393268 NJG393264:NJR393268 NTC393264:NTN393268 OCY393264:ODJ393268 OMU393264:ONF393268 OWQ393264:OXB393268 PGM393264:PGX393268 PQI393264:PQT393268 QAE393264:QAP393268 QKA393264:QKL393268 QTW393264:QUH393268 RDS393264:RED393268 RNO393264:RNZ393268 RXK393264:RXV393268 SHG393264:SHR393268 SRC393264:SRN393268 TAY393264:TBJ393268 TKU393264:TLF393268 TUQ393264:TVB393268 UEM393264:UEX393268 UOI393264:UOT393268 UYE393264:UYP393268 VIA393264:VIL393268 VRW393264:VSH393268 WBS393264:WCD393268 WLO393264:WLZ393268 WVK393264:WVV393268 SU458800:TF458804 ACQ458800:ADB458804 AMM458800:AMX458804 AWI458800:AWT458804 BGE458800:BGP458804 BQA458800:BQL458804 BZW458800:CAH458804 CJS458800:CKD458804 CTO458800:CTZ458804 DDK458800:DDV458804 DNG458800:DNR458804 DXC458800:DXN458804 EGY458800:EHJ458804 EQU458800:ERF458804 FAQ458800:FBB458804 FKM458800:FKX458804 FUI458800:FUT458804 GEE458800:GEP458804 GOA458800:GOL458804 GXW458800:GYH458804 HHS458800:HID458804 HRO458800:HRZ458804 IBK458800:IBV458804 ILG458800:ILR458804 IVC458800:IVN458804 JEY458800:JFJ458804 JOU458800:JPF458804 JYQ458800:JZB458804 KIM458800:KIX458804 KSI458800:KST458804 LCE458800:LCP458804 LMA458800:LML458804 LVW458800:LWH458804 MFS458800:MGD458804 MPO458800:MPZ458804 MZK458800:MZV458804 NJG458800:NJR458804 NTC458800:NTN458804 OCY458800:ODJ458804 OMU458800:ONF458804 OWQ458800:OXB458804 PGM458800:PGX458804 PQI458800:PQT458804 QAE458800:QAP458804 QKA458800:QKL458804 QTW458800:QUH458804 RDS458800:RED458804 RNO458800:RNZ458804 RXK458800:RXV458804 SHG458800:SHR458804 SRC458800:SRN458804 TAY458800:TBJ458804 TKU458800:TLF458804 TUQ458800:TVB458804 UEM458800:UEX458804 UOI458800:UOT458804 UYE458800:UYP458804 VIA458800:VIL458804 VRW458800:VSH458804 WBS458800:WCD458804 WLO458800:WLZ458804 WVK458800:WVV458804 SU524336:TF524340 ACQ524336:ADB524340 AMM524336:AMX524340 AWI524336:AWT524340 BGE524336:BGP524340 BQA524336:BQL524340 BZW524336:CAH524340 CJS524336:CKD524340 CTO524336:CTZ524340 DDK524336:DDV524340 DNG524336:DNR524340 DXC524336:DXN524340 EGY524336:EHJ524340 EQU524336:ERF524340 FAQ524336:FBB524340 FKM524336:FKX524340 FUI524336:FUT524340 GEE524336:GEP524340 GOA524336:GOL524340 GXW524336:GYH524340 HHS524336:HID524340 HRO524336:HRZ524340 IBK524336:IBV524340 ILG524336:ILR524340 IVC524336:IVN524340 JEY524336:JFJ524340 JOU524336:JPF524340 JYQ524336:JZB524340 KIM524336:KIX524340 KSI524336:KST524340 LCE524336:LCP524340 LMA524336:LML524340 LVW524336:LWH524340 MFS524336:MGD524340 MPO524336:MPZ524340 MZK524336:MZV524340 NJG524336:NJR524340 NTC524336:NTN524340 OCY524336:ODJ524340 OMU524336:ONF524340 OWQ524336:OXB524340 PGM524336:PGX524340 PQI524336:PQT524340 QAE524336:QAP524340 QKA524336:QKL524340 QTW524336:QUH524340 RDS524336:RED524340 RNO524336:RNZ524340 RXK524336:RXV524340 SHG524336:SHR524340 SRC524336:SRN524340 TAY524336:TBJ524340 TKU524336:TLF524340 TUQ524336:TVB524340 UEM524336:UEX524340 UOI524336:UOT524340 UYE524336:UYP524340 VIA524336:VIL524340 VRW524336:VSH524340 WBS524336:WCD524340 WLO524336:WLZ524340 WVK524336:WVV524340 SU589872:TF589876 ACQ589872:ADB589876 AMM589872:AMX589876 AWI589872:AWT589876 BGE589872:BGP589876 BQA589872:BQL589876 BZW589872:CAH589876 CJS589872:CKD589876 CTO589872:CTZ589876 DDK589872:DDV589876 DNG589872:DNR589876 DXC589872:DXN589876 EGY589872:EHJ589876 EQU589872:ERF589876 FAQ589872:FBB589876 FKM589872:FKX589876 FUI589872:FUT589876 GEE589872:GEP589876 GOA589872:GOL589876 GXW589872:GYH589876 HHS589872:HID589876 HRO589872:HRZ589876 IBK589872:IBV589876 ILG589872:ILR589876 IVC589872:IVN589876 JEY589872:JFJ589876 JOU589872:JPF589876 JYQ589872:JZB589876 KIM589872:KIX589876 KSI589872:KST589876 LCE589872:LCP589876 LMA589872:LML589876 LVW589872:LWH589876 MFS589872:MGD589876 MPO589872:MPZ589876 MZK589872:MZV589876 NJG589872:NJR589876 NTC589872:NTN589876 OCY589872:ODJ589876 OMU589872:ONF589876 OWQ589872:OXB589876 PGM589872:PGX589876 PQI589872:PQT589876 QAE589872:QAP589876 QKA589872:QKL589876 QTW589872:QUH589876 RDS589872:RED589876 RNO589872:RNZ589876 RXK589872:RXV589876 SHG589872:SHR589876 SRC589872:SRN589876 TAY589872:TBJ589876 TKU589872:TLF589876 TUQ589872:TVB589876 UEM589872:UEX589876 UOI589872:UOT589876 UYE589872:UYP589876 VIA589872:VIL589876 VRW589872:VSH589876 WBS589872:WCD589876 WLO589872:WLZ589876 WVK589872:WVV589876 SU655408:TF655412 ACQ655408:ADB655412 AMM655408:AMX655412 AWI655408:AWT655412 BGE655408:BGP655412 BQA655408:BQL655412 BZW655408:CAH655412 CJS655408:CKD655412 CTO655408:CTZ655412 DDK655408:DDV655412 DNG655408:DNR655412 DXC655408:DXN655412 EGY655408:EHJ655412 EQU655408:ERF655412 FAQ655408:FBB655412 FKM655408:FKX655412 FUI655408:FUT655412 GEE655408:GEP655412 GOA655408:GOL655412 GXW655408:GYH655412 HHS655408:HID655412 HRO655408:HRZ655412 IBK655408:IBV655412 ILG655408:ILR655412 IVC655408:IVN655412 JEY655408:JFJ655412 JOU655408:JPF655412 JYQ655408:JZB655412 KIM655408:KIX655412 KSI655408:KST655412 LCE655408:LCP655412 LMA655408:LML655412 LVW655408:LWH655412 MFS655408:MGD655412 MPO655408:MPZ655412 MZK655408:MZV655412 NJG655408:NJR655412 NTC655408:NTN655412 OCY655408:ODJ655412 OMU655408:ONF655412 OWQ655408:OXB655412 PGM655408:PGX655412 PQI655408:PQT655412 QAE655408:QAP655412 QKA655408:QKL655412 QTW655408:QUH655412 RDS655408:RED655412 RNO655408:RNZ655412 RXK655408:RXV655412 SHG655408:SHR655412 SRC655408:SRN655412 TAY655408:TBJ655412 TKU655408:TLF655412 TUQ655408:TVB655412 UEM655408:UEX655412 UOI655408:UOT655412 UYE655408:UYP655412 VIA655408:VIL655412 VRW655408:VSH655412 WBS655408:WCD655412 WLO655408:WLZ655412 WVK655408:WVV655412 SU720944:TF720948 ACQ720944:ADB720948 AMM720944:AMX720948 AWI720944:AWT720948 BGE720944:BGP720948 BQA720944:BQL720948 BZW720944:CAH720948 CJS720944:CKD720948 CTO720944:CTZ720948 DDK720944:DDV720948 DNG720944:DNR720948 DXC720944:DXN720948 EGY720944:EHJ720948 EQU720944:ERF720948 FAQ720944:FBB720948 FKM720944:FKX720948 FUI720944:FUT720948 GEE720944:GEP720948 GOA720944:GOL720948 GXW720944:GYH720948 HHS720944:HID720948 HRO720944:HRZ720948 IBK720944:IBV720948 ILG720944:ILR720948 IVC720944:IVN720948 JEY720944:JFJ720948 JOU720944:JPF720948 JYQ720944:JZB720948 KIM720944:KIX720948 KSI720944:KST720948 LCE720944:LCP720948 LMA720944:LML720948 LVW720944:LWH720948 MFS720944:MGD720948 MPO720944:MPZ720948 MZK720944:MZV720948 NJG720944:NJR720948 NTC720944:NTN720948 OCY720944:ODJ720948 OMU720944:ONF720948 OWQ720944:OXB720948 PGM720944:PGX720948 PQI720944:PQT720948 QAE720944:QAP720948 QKA720944:QKL720948 QTW720944:QUH720948 RDS720944:RED720948 RNO720944:RNZ720948 RXK720944:RXV720948 SHG720944:SHR720948 SRC720944:SRN720948 TAY720944:TBJ720948 TKU720944:TLF720948 TUQ720944:TVB720948 UEM720944:UEX720948 UOI720944:UOT720948 UYE720944:UYP720948 VIA720944:VIL720948 VRW720944:VSH720948 WBS720944:WCD720948 WLO720944:WLZ720948 WVK720944:WVV720948 SU786480:TF786484 ACQ786480:ADB786484 AMM786480:AMX786484 AWI786480:AWT786484 BGE786480:BGP786484 BQA786480:BQL786484 BZW786480:CAH786484 CJS786480:CKD786484 CTO786480:CTZ786484 DDK786480:DDV786484 DNG786480:DNR786484 DXC786480:DXN786484 EGY786480:EHJ786484 EQU786480:ERF786484 FAQ786480:FBB786484 FKM786480:FKX786484 FUI786480:FUT786484 GEE786480:GEP786484 GOA786480:GOL786484 GXW786480:GYH786484 HHS786480:HID786484 HRO786480:HRZ786484 IBK786480:IBV786484 ILG786480:ILR786484 IVC786480:IVN786484 JEY786480:JFJ786484 JOU786480:JPF786484 JYQ786480:JZB786484 KIM786480:KIX786484 KSI786480:KST786484 LCE786480:LCP786484 LMA786480:LML786484 LVW786480:LWH786484 MFS786480:MGD786484 MPO786480:MPZ786484 MZK786480:MZV786484 NJG786480:NJR786484 NTC786480:NTN786484 OCY786480:ODJ786484 OMU786480:ONF786484 OWQ786480:OXB786484 PGM786480:PGX786484 PQI786480:PQT786484 QAE786480:QAP786484 QKA786480:QKL786484 QTW786480:QUH786484 RDS786480:RED786484 RNO786480:RNZ786484 RXK786480:RXV786484 SHG786480:SHR786484 SRC786480:SRN786484 TAY786480:TBJ786484 TKU786480:TLF786484 TUQ786480:TVB786484 UEM786480:UEX786484 UOI786480:UOT786484 UYE786480:UYP786484 VIA786480:VIL786484 VRW786480:VSH786484 WBS786480:WCD786484 WLO786480:WLZ786484 WVK786480:WVV786484 SU852016:TF852020 ACQ852016:ADB852020 AMM852016:AMX852020 AWI852016:AWT852020 BGE852016:BGP852020 BQA852016:BQL852020 BZW852016:CAH852020 CJS852016:CKD852020 CTO852016:CTZ852020 DDK852016:DDV852020 DNG852016:DNR852020 DXC852016:DXN852020 EGY852016:EHJ852020 EQU852016:ERF852020 FAQ852016:FBB852020 FKM852016:FKX852020 FUI852016:FUT852020 GEE852016:GEP852020 GOA852016:GOL852020 GXW852016:GYH852020 HHS852016:HID852020 HRO852016:HRZ852020 IBK852016:IBV852020 ILG852016:ILR852020 IVC852016:IVN852020 JEY852016:JFJ852020 JOU852016:JPF852020 JYQ852016:JZB852020 KIM852016:KIX852020 KSI852016:KST852020 LCE852016:LCP852020 LMA852016:LML852020 LVW852016:LWH852020 MFS852016:MGD852020 MPO852016:MPZ852020 MZK852016:MZV852020 NJG852016:NJR852020 NTC852016:NTN852020 OCY852016:ODJ852020 OMU852016:ONF852020 OWQ852016:OXB852020 PGM852016:PGX852020 PQI852016:PQT852020 QAE852016:QAP852020 QKA852016:QKL852020 QTW852016:QUH852020 RDS852016:RED852020 RNO852016:RNZ852020 RXK852016:RXV852020 SHG852016:SHR852020 SRC852016:SRN852020 TAY852016:TBJ852020 TKU852016:TLF852020 TUQ852016:TVB852020 UEM852016:UEX852020 UOI852016:UOT852020 UYE852016:UYP852020 VIA852016:VIL852020 VRW852016:VSH852020 WBS852016:WCD852020 WLO852016:WLZ852020 WVK852016:WVV852020 SU917552:TF917556 ACQ917552:ADB917556 AMM917552:AMX917556 AWI917552:AWT917556 BGE917552:BGP917556 BQA917552:BQL917556 BZW917552:CAH917556 CJS917552:CKD917556 CTO917552:CTZ917556 DDK917552:DDV917556 DNG917552:DNR917556 DXC917552:DXN917556 EGY917552:EHJ917556 EQU917552:ERF917556 FAQ917552:FBB917556 FKM917552:FKX917556 FUI917552:FUT917556 GEE917552:GEP917556 GOA917552:GOL917556 GXW917552:GYH917556 HHS917552:HID917556 HRO917552:HRZ917556 IBK917552:IBV917556 ILG917552:ILR917556 IVC917552:IVN917556 JEY917552:JFJ917556 JOU917552:JPF917556 JYQ917552:JZB917556 KIM917552:KIX917556 KSI917552:KST917556 LCE917552:LCP917556 LMA917552:LML917556 LVW917552:LWH917556 MFS917552:MGD917556 MPO917552:MPZ917556 MZK917552:MZV917556 NJG917552:NJR917556 NTC917552:NTN917556 OCY917552:ODJ917556 OMU917552:ONF917556 OWQ917552:OXB917556 PGM917552:PGX917556 PQI917552:PQT917556 QAE917552:QAP917556 QKA917552:QKL917556 QTW917552:QUH917556 RDS917552:RED917556 RNO917552:RNZ917556 RXK917552:RXV917556 SHG917552:SHR917556 SRC917552:SRN917556 TAY917552:TBJ917556 TKU917552:TLF917556 TUQ917552:TVB917556 UEM917552:UEX917556 UOI917552:UOT917556 UYE917552:UYP917556 VIA917552:VIL917556 VRW917552:VSH917556 WBS917552:WCD917556 WLO917552:WLZ917556 WVK917552:WVV917556 WVK983088:WVV983092 SU983088:TF983092 ACQ983088:ADB983092 AMM983088:AMX983092 AWI983088:AWT983092 BGE983088:BGP983092 BQA983088:BQL983092 BZW983088:CAH983092 CJS983088:CKD983092 CTO983088:CTZ983092 DDK983088:DDV983092 DNG983088:DNR983092 DXC983088:DXN983092 EGY983088:EHJ983092 EQU983088:ERF983092 FAQ983088:FBB983092 FKM983088:FKX983092 FUI983088:FUT983092 GEE983088:GEP983092 GOA983088:GOL983092 GXW983088:GYH983092 HHS983088:HID983092 HRO983088:HRZ983092 IBK983088:IBV983092 ILG983088:ILR983092 IVC983088:IVN983092 JEY983088:JFJ983092 JOU983088:JPF983092 JYQ983088:JZB983092 KIM983088:KIX983092 KSI983088:KST983092 LCE983088:LCP983092 LMA983088:LML983092 LVW983088:LWH983092 MFS983088:MGD983092 MPO983088:MPZ983092 MZK983088:MZV983092 NJG983088:NJR983092 NTC983088:NTN983092 OCY983088:ODJ983092 OMU983088:ONF983092 OWQ983088:OXB983092 PGM983088:PGX983092 PQI983088:PQT983092 QAE983088:QAP983092 QKA983088:QKL983092 QTW983088:QUH983092 RDS983088:RED983092 RNO983088:RNZ983092 RXK983088:RXV983092 SHG983088:SHR983092 SRC983088:SRN983092 TAY983088:TBJ983092 TKU983088:TLF983092 TUQ983088:TVB983092 UEM983088:UEX983092 UOI983088:UOT983092 UYE983088:UYP983092 VIA983088:VIL983092 VRW983088:VSH983092 WBS983088:WCD983092 WLO983088:WLZ983092 IY50:IY54 C917556:M917560 C852020:M852024 C786484:M786488 C720948:M720952 C655412:M655416 C589876:M589880 C524340:M524344 C458804:M458808 C393268:M393272 C327732:M327736 C262196:M262200 C196660:M196664 C131124:M131128 C65588:M65592 C983092:M983096 IY983092:IY983096 IZ983088:JJ983092 IY917556:IY917560 IZ917552:JJ917556 IY852020:IY852024 IZ852016:JJ852020 IY786484:IY786488 IZ786480:JJ786484 IY720948:IY720952 IZ720944:JJ720948 IY655412:IY655416 IZ655408:JJ655412 IY589876:IY589880 IZ589872:JJ589876 IY524340:IY524344 IZ524336:JJ524340 IY458804:IY458808 IZ458800:JJ458804 IY393268:IY393272 IZ393264:JJ393268 IY327732:IY327736 IZ327728:JJ327732 IY262196:IY262200 IZ262192:JJ262196 IY196660:IY196664 IZ196656:JJ196660 IY131124:IY131128 IZ131120:JJ131124 IY65588:IY65592 IZ65584:JJ65588 IZ46:JJ50 C50:M54"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JI65542:JI65581 TE65542:TE65581 ADA65542:ADA65581 AMW65542:AMW65581 AWS65542:AWS65581 BGO65542:BGO65581 BQK65542:BQK65581 CAG65542:CAG65581 CKC65542:CKC65581 CTY65542:CTY65581 DDU65542:DDU65581 DNQ65542:DNQ65581 DXM65542:DXM65581 EHI65542:EHI65581 ERE65542:ERE65581 FBA65542:FBA65581 FKW65542:FKW65581 FUS65542:FUS65581 GEO65542:GEO65581 GOK65542:GOK65581 GYG65542:GYG65581 HIC65542:HIC65581 HRY65542:HRY65581 IBU65542:IBU65581 ILQ65542:ILQ65581 IVM65542:IVM65581 JFI65542:JFI65581 JPE65542:JPE65581 JZA65542:JZA65581 KIW65542:KIW65581 KSS65542:KSS65581 LCO65542:LCO65581 LMK65542:LMK65581 LWG65542:LWG65581 MGC65542:MGC65581 MPY65542:MPY65581 MZU65542:MZU65581 NJQ65542:NJQ65581 NTM65542:NTM65581 ODI65542:ODI65581 ONE65542:ONE65581 OXA65542:OXA65581 PGW65542:PGW65581 PQS65542:PQS65581 QAO65542:QAO65581 QKK65542:QKK65581 QUG65542:QUG65581 REC65542:REC65581 RNY65542:RNY65581 RXU65542:RXU65581 SHQ65542:SHQ65581 SRM65542:SRM65581 TBI65542:TBI65581 TLE65542:TLE65581 TVA65542:TVA65581 UEW65542:UEW65581 UOS65542:UOS65581 UYO65542:UYO65581 VIK65542:VIK65581 VSG65542:VSG65581 WCC65542:WCC65581 WLY65542:WLY65581 WVU65542:WVU65581 JI131078:JI131117 TE131078:TE131117 ADA131078:ADA131117 AMW131078:AMW131117 AWS131078:AWS131117 BGO131078:BGO131117 BQK131078:BQK131117 CAG131078:CAG131117 CKC131078:CKC131117 CTY131078:CTY131117 DDU131078:DDU131117 DNQ131078:DNQ131117 DXM131078:DXM131117 EHI131078:EHI131117 ERE131078:ERE131117 FBA131078:FBA131117 FKW131078:FKW131117 FUS131078:FUS131117 GEO131078:GEO131117 GOK131078:GOK131117 GYG131078:GYG131117 HIC131078:HIC131117 HRY131078:HRY131117 IBU131078:IBU131117 ILQ131078:ILQ131117 IVM131078:IVM131117 JFI131078:JFI131117 JPE131078:JPE131117 JZA131078:JZA131117 KIW131078:KIW131117 KSS131078:KSS131117 LCO131078:LCO131117 LMK131078:LMK131117 LWG131078:LWG131117 MGC131078:MGC131117 MPY131078:MPY131117 MZU131078:MZU131117 NJQ131078:NJQ131117 NTM131078:NTM131117 ODI131078:ODI131117 ONE131078:ONE131117 OXA131078:OXA131117 PGW131078:PGW131117 PQS131078:PQS131117 QAO131078:QAO131117 QKK131078:QKK131117 QUG131078:QUG131117 REC131078:REC131117 RNY131078:RNY131117 RXU131078:RXU131117 SHQ131078:SHQ131117 SRM131078:SRM131117 TBI131078:TBI131117 TLE131078:TLE131117 TVA131078:TVA131117 UEW131078:UEW131117 UOS131078:UOS131117 UYO131078:UYO131117 VIK131078:VIK131117 VSG131078:VSG131117 WCC131078:WCC131117 WLY131078:WLY131117 WVU131078:WVU131117 JI196614:JI196653 TE196614:TE196653 ADA196614:ADA196653 AMW196614:AMW196653 AWS196614:AWS196653 BGO196614:BGO196653 BQK196614:BQK196653 CAG196614:CAG196653 CKC196614:CKC196653 CTY196614:CTY196653 DDU196614:DDU196653 DNQ196614:DNQ196653 DXM196614:DXM196653 EHI196614:EHI196653 ERE196614:ERE196653 FBA196614:FBA196653 FKW196614:FKW196653 FUS196614:FUS196653 GEO196614:GEO196653 GOK196614:GOK196653 GYG196614:GYG196653 HIC196614:HIC196653 HRY196614:HRY196653 IBU196614:IBU196653 ILQ196614:ILQ196653 IVM196614:IVM196653 JFI196614:JFI196653 JPE196614:JPE196653 JZA196614:JZA196653 KIW196614:KIW196653 KSS196614:KSS196653 LCO196614:LCO196653 LMK196614:LMK196653 LWG196614:LWG196653 MGC196614:MGC196653 MPY196614:MPY196653 MZU196614:MZU196653 NJQ196614:NJQ196653 NTM196614:NTM196653 ODI196614:ODI196653 ONE196614:ONE196653 OXA196614:OXA196653 PGW196614:PGW196653 PQS196614:PQS196653 QAO196614:QAO196653 QKK196614:QKK196653 QUG196614:QUG196653 REC196614:REC196653 RNY196614:RNY196653 RXU196614:RXU196653 SHQ196614:SHQ196653 SRM196614:SRM196653 TBI196614:TBI196653 TLE196614:TLE196653 TVA196614:TVA196653 UEW196614:UEW196653 UOS196614:UOS196653 UYO196614:UYO196653 VIK196614:VIK196653 VSG196614:VSG196653 WCC196614:WCC196653 WLY196614:WLY196653 WVU196614:WVU196653 JI262150:JI262189 TE262150:TE262189 ADA262150:ADA262189 AMW262150:AMW262189 AWS262150:AWS262189 BGO262150:BGO262189 BQK262150:BQK262189 CAG262150:CAG262189 CKC262150:CKC262189 CTY262150:CTY262189 DDU262150:DDU262189 DNQ262150:DNQ262189 DXM262150:DXM262189 EHI262150:EHI262189 ERE262150:ERE262189 FBA262150:FBA262189 FKW262150:FKW262189 FUS262150:FUS262189 GEO262150:GEO262189 GOK262150:GOK262189 GYG262150:GYG262189 HIC262150:HIC262189 HRY262150:HRY262189 IBU262150:IBU262189 ILQ262150:ILQ262189 IVM262150:IVM262189 JFI262150:JFI262189 JPE262150:JPE262189 JZA262150:JZA262189 KIW262150:KIW262189 KSS262150:KSS262189 LCO262150:LCO262189 LMK262150:LMK262189 LWG262150:LWG262189 MGC262150:MGC262189 MPY262150:MPY262189 MZU262150:MZU262189 NJQ262150:NJQ262189 NTM262150:NTM262189 ODI262150:ODI262189 ONE262150:ONE262189 OXA262150:OXA262189 PGW262150:PGW262189 PQS262150:PQS262189 QAO262150:QAO262189 QKK262150:QKK262189 QUG262150:QUG262189 REC262150:REC262189 RNY262150:RNY262189 RXU262150:RXU262189 SHQ262150:SHQ262189 SRM262150:SRM262189 TBI262150:TBI262189 TLE262150:TLE262189 TVA262150:TVA262189 UEW262150:UEW262189 UOS262150:UOS262189 UYO262150:UYO262189 VIK262150:VIK262189 VSG262150:VSG262189 WCC262150:WCC262189 WLY262150:WLY262189 WVU262150:WVU262189 JI327686:JI327725 TE327686:TE327725 ADA327686:ADA327725 AMW327686:AMW327725 AWS327686:AWS327725 BGO327686:BGO327725 BQK327686:BQK327725 CAG327686:CAG327725 CKC327686:CKC327725 CTY327686:CTY327725 DDU327686:DDU327725 DNQ327686:DNQ327725 DXM327686:DXM327725 EHI327686:EHI327725 ERE327686:ERE327725 FBA327686:FBA327725 FKW327686:FKW327725 FUS327686:FUS327725 GEO327686:GEO327725 GOK327686:GOK327725 GYG327686:GYG327725 HIC327686:HIC327725 HRY327686:HRY327725 IBU327686:IBU327725 ILQ327686:ILQ327725 IVM327686:IVM327725 JFI327686:JFI327725 JPE327686:JPE327725 JZA327686:JZA327725 KIW327686:KIW327725 KSS327686:KSS327725 LCO327686:LCO327725 LMK327686:LMK327725 LWG327686:LWG327725 MGC327686:MGC327725 MPY327686:MPY327725 MZU327686:MZU327725 NJQ327686:NJQ327725 NTM327686:NTM327725 ODI327686:ODI327725 ONE327686:ONE327725 OXA327686:OXA327725 PGW327686:PGW327725 PQS327686:PQS327725 QAO327686:QAO327725 QKK327686:QKK327725 QUG327686:QUG327725 REC327686:REC327725 RNY327686:RNY327725 RXU327686:RXU327725 SHQ327686:SHQ327725 SRM327686:SRM327725 TBI327686:TBI327725 TLE327686:TLE327725 TVA327686:TVA327725 UEW327686:UEW327725 UOS327686:UOS327725 UYO327686:UYO327725 VIK327686:VIK327725 VSG327686:VSG327725 WCC327686:WCC327725 WLY327686:WLY327725 WVU327686:WVU327725 JI393222:JI393261 TE393222:TE393261 ADA393222:ADA393261 AMW393222:AMW393261 AWS393222:AWS393261 BGO393222:BGO393261 BQK393222:BQK393261 CAG393222:CAG393261 CKC393222:CKC393261 CTY393222:CTY393261 DDU393222:DDU393261 DNQ393222:DNQ393261 DXM393222:DXM393261 EHI393222:EHI393261 ERE393222:ERE393261 FBA393222:FBA393261 FKW393222:FKW393261 FUS393222:FUS393261 GEO393222:GEO393261 GOK393222:GOK393261 GYG393222:GYG393261 HIC393222:HIC393261 HRY393222:HRY393261 IBU393222:IBU393261 ILQ393222:ILQ393261 IVM393222:IVM393261 JFI393222:JFI393261 JPE393222:JPE393261 JZA393222:JZA393261 KIW393222:KIW393261 KSS393222:KSS393261 LCO393222:LCO393261 LMK393222:LMK393261 LWG393222:LWG393261 MGC393222:MGC393261 MPY393222:MPY393261 MZU393222:MZU393261 NJQ393222:NJQ393261 NTM393222:NTM393261 ODI393222:ODI393261 ONE393222:ONE393261 OXA393222:OXA393261 PGW393222:PGW393261 PQS393222:PQS393261 QAO393222:QAO393261 QKK393222:QKK393261 QUG393222:QUG393261 REC393222:REC393261 RNY393222:RNY393261 RXU393222:RXU393261 SHQ393222:SHQ393261 SRM393222:SRM393261 TBI393222:TBI393261 TLE393222:TLE393261 TVA393222:TVA393261 UEW393222:UEW393261 UOS393222:UOS393261 UYO393222:UYO393261 VIK393222:VIK393261 VSG393222:VSG393261 WCC393222:WCC393261 WLY393222:WLY393261 WVU393222:WVU393261 JI458758:JI458797 TE458758:TE458797 ADA458758:ADA458797 AMW458758:AMW458797 AWS458758:AWS458797 BGO458758:BGO458797 BQK458758:BQK458797 CAG458758:CAG458797 CKC458758:CKC458797 CTY458758:CTY458797 DDU458758:DDU458797 DNQ458758:DNQ458797 DXM458758:DXM458797 EHI458758:EHI458797 ERE458758:ERE458797 FBA458758:FBA458797 FKW458758:FKW458797 FUS458758:FUS458797 GEO458758:GEO458797 GOK458758:GOK458797 GYG458758:GYG458797 HIC458758:HIC458797 HRY458758:HRY458797 IBU458758:IBU458797 ILQ458758:ILQ458797 IVM458758:IVM458797 JFI458758:JFI458797 JPE458758:JPE458797 JZA458758:JZA458797 KIW458758:KIW458797 KSS458758:KSS458797 LCO458758:LCO458797 LMK458758:LMK458797 LWG458758:LWG458797 MGC458758:MGC458797 MPY458758:MPY458797 MZU458758:MZU458797 NJQ458758:NJQ458797 NTM458758:NTM458797 ODI458758:ODI458797 ONE458758:ONE458797 OXA458758:OXA458797 PGW458758:PGW458797 PQS458758:PQS458797 QAO458758:QAO458797 QKK458758:QKK458797 QUG458758:QUG458797 REC458758:REC458797 RNY458758:RNY458797 RXU458758:RXU458797 SHQ458758:SHQ458797 SRM458758:SRM458797 TBI458758:TBI458797 TLE458758:TLE458797 TVA458758:TVA458797 UEW458758:UEW458797 UOS458758:UOS458797 UYO458758:UYO458797 VIK458758:VIK458797 VSG458758:VSG458797 WCC458758:WCC458797 WLY458758:WLY458797 WVU458758:WVU458797 JI524294:JI524333 TE524294:TE524333 ADA524294:ADA524333 AMW524294:AMW524333 AWS524294:AWS524333 BGO524294:BGO524333 BQK524294:BQK524333 CAG524294:CAG524333 CKC524294:CKC524333 CTY524294:CTY524333 DDU524294:DDU524333 DNQ524294:DNQ524333 DXM524294:DXM524333 EHI524294:EHI524333 ERE524294:ERE524333 FBA524294:FBA524333 FKW524294:FKW524333 FUS524294:FUS524333 GEO524294:GEO524333 GOK524294:GOK524333 GYG524294:GYG524333 HIC524294:HIC524333 HRY524294:HRY524333 IBU524294:IBU524333 ILQ524294:ILQ524333 IVM524294:IVM524333 JFI524294:JFI524333 JPE524294:JPE524333 JZA524294:JZA524333 KIW524294:KIW524333 KSS524294:KSS524333 LCO524294:LCO524333 LMK524294:LMK524333 LWG524294:LWG524333 MGC524294:MGC524333 MPY524294:MPY524333 MZU524294:MZU524333 NJQ524294:NJQ524333 NTM524294:NTM524333 ODI524294:ODI524333 ONE524294:ONE524333 OXA524294:OXA524333 PGW524294:PGW524333 PQS524294:PQS524333 QAO524294:QAO524333 QKK524294:QKK524333 QUG524294:QUG524333 REC524294:REC524333 RNY524294:RNY524333 RXU524294:RXU524333 SHQ524294:SHQ524333 SRM524294:SRM524333 TBI524294:TBI524333 TLE524294:TLE524333 TVA524294:TVA524333 UEW524294:UEW524333 UOS524294:UOS524333 UYO524294:UYO524333 VIK524294:VIK524333 VSG524294:VSG524333 WCC524294:WCC524333 WLY524294:WLY524333 WVU524294:WVU524333 JI589830:JI589869 TE589830:TE589869 ADA589830:ADA589869 AMW589830:AMW589869 AWS589830:AWS589869 BGO589830:BGO589869 BQK589830:BQK589869 CAG589830:CAG589869 CKC589830:CKC589869 CTY589830:CTY589869 DDU589830:DDU589869 DNQ589830:DNQ589869 DXM589830:DXM589869 EHI589830:EHI589869 ERE589830:ERE589869 FBA589830:FBA589869 FKW589830:FKW589869 FUS589830:FUS589869 GEO589830:GEO589869 GOK589830:GOK589869 GYG589830:GYG589869 HIC589830:HIC589869 HRY589830:HRY589869 IBU589830:IBU589869 ILQ589830:ILQ589869 IVM589830:IVM589869 JFI589830:JFI589869 JPE589830:JPE589869 JZA589830:JZA589869 KIW589830:KIW589869 KSS589830:KSS589869 LCO589830:LCO589869 LMK589830:LMK589869 LWG589830:LWG589869 MGC589830:MGC589869 MPY589830:MPY589869 MZU589830:MZU589869 NJQ589830:NJQ589869 NTM589830:NTM589869 ODI589830:ODI589869 ONE589830:ONE589869 OXA589830:OXA589869 PGW589830:PGW589869 PQS589830:PQS589869 QAO589830:QAO589869 QKK589830:QKK589869 QUG589830:QUG589869 REC589830:REC589869 RNY589830:RNY589869 RXU589830:RXU589869 SHQ589830:SHQ589869 SRM589830:SRM589869 TBI589830:TBI589869 TLE589830:TLE589869 TVA589830:TVA589869 UEW589830:UEW589869 UOS589830:UOS589869 UYO589830:UYO589869 VIK589830:VIK589869 VSG589830:VSG589869 WCC589830:WCC589869 WLY589830:WLY589869 WVU589830:WVU589869 JI655366:JI655405 TE655366:TE655405 ADA655366:ADA655405 AMW655366:AMW655405 AWS655366:AWS655405 BGO655366:BGO655405 BQK655366:BQK655405 CAG655366:CAG655405 CKC655366:CKC655405 CTY655366:CTY655405 DDU655366:DDU655405 DNQ655366:DNQ655405 DXM655366:DXM655405 EHI655366:EHI655405 ERE655366:ERE655405 FBA655366:FBA655405 FKW655366:FKW655405 FUS655366:FUS655405 GEO655366:GEO655405 GOK655366:GOK655405 GYG655366:GYG655405 HIC655366:HIC655405 HRY655366:HRY655405 IBU655366:IBU655405 ILQ655366:ILQ655405 IVM655366:IVM655405 JFI655366:JFI655405 JPE655366:JPE655405 JZA655366:JZA655405 KIW655366:KIW655405 KSS655366:KSS655405 LCO655366:LCO655405 LMK655366:LMK655405 LWG655366:LWG655405 MGC655366:MGC655405 MPY655366:MPY655405 MZU655366:MZU655405 NJQ655366:NJQ655405 NTM655366:NTM655405 ODI655366:ODI655405 ONE655366:ONE655405 OXA655366:OXA655405 PGW655366:PGW655405 PQS655366:PQS655405 QAO655366:QAO655405 QKK655366:QKK655405 QUG655366:QUG655405 REC655366:REC655405 RNY655366:RNY655405 RXU655366:RXU655405 SHQ655366:SHQ655405 SRM655366:SRM655405 TBI655366:TBI655405 TLE655366:TLE655405 TVA655366:TVA655405 UEW655366:UEW655405 UOS655366:UOS655405 UYO655366:UYO655405 VIK655366:VIK655405 VSG655366:VSG655405 WCC655366:WCC655405 WLY655366:WLY655405 WVU655366:WVU655405 JI720902:JI720941 TE720902:TE720941 ADA720902:ADA720941 AMW720902:AMW720941 AWS720902:AWS720941 BGO720902:BGO720941 BQK720902:BQK720941 CAG720902:CAG720941 CKC720902:CKC720941 CTY720902:CTY720941 DDU720902:DDU720941 DNQ720902:DNQ720941 DXM720902:DXM720941 EHI720902:EHI720941 ERE720902:ERE720941 FBA720902:FBA720941 FKW720902:FKW720941 FUS720902:FUS720941 GEO720902:GEO720941 GOK720902:GOK720941 GYG720902:GYG720941 HIC720902:HIC720941 HRY720902:HRY720941 IBU720902:IBU720941 ILQ720902:ILQ720941 IVM720902:IVM720941 JFI720902:JFI720941 JPE720902:JPE720941 JZA720902:JZA720941 KIW720902:KIW720941 KSS720902:KSS720941 LCO720902:LCO720941 LMK720902:LMK720941 LWG720902:LWG720941 MGC720902:MGC720941 MPY720902:MPY720941 MZU720902:MZU720941 NJQ720902:NJQ720941 NTM720902:NTM720941 ODI720902:ODI720941 ONE720902:ONE720941 OXA720902:OXA720941 PGW720902:PGW720941 PQS720902:PQS720941 QAO720902:QAO720941 QKK720902:QKK720941 QUG720902:QUG720941 REC720902:REC720941 RNY720902:RNY720941 RXU720902:RXU720941 SHQ720902:SHQ720941 SRM720902:SRM720941 TBI720902:TBI720941 TLE720902:TLE720941 TVA720902:TVA720941 UEW720902:UEW720941 UOS720902:UOS720941 UYO720902:UYO720941 VIK720902:VIK720941 VSG720902:VSG720941 WCC720902:WCC720941 WLY720902:WLY720941 WVU720902:WVU720941 JI786438:JI786477 TE786438:TE786477 ADA786438:ADA786477 AMW786438:AMW786477 AWS786438:AWS786477 BGO786438:BGO786477 BQK786438:BQK786477 CAG786438:CAG786477 CKC786438:CKC786477 CTY786438:CTY786477 DDU786438:DDU786477 DNQ786438:DNQ786477 DXM786438:DXM786477 EHI786438:EHI786477 ERE786438:ERE786477 FBA786438:FBA786477 FKW786438:FKW786477 FUS786438:FUS786477 GEO786438:GEO786477 GOK786438:GOK786477 GYG786438:GYG786477 HIC786438:HIC786477 HRY786438:HRY786477 IBU786438:IBU786477 ILQ786438:ILQ786477 IVM786438:IVM786477 JFI786438:JFI786477 JPE786438:JPE786477 JZA786438:JZA786477 KIW786438:KIW786477 KSS786438:KSS786477 LCO786438:LCO786477 LMK786438:LMK786477 LWG786438:LWG786477 MGC786438:MGC786477 MPY786438:MPY786477 MZU786438:MZU786477 NJQ786438:NJQ786477 NTM786438:NTM786477 ODI786438:ODI786477 ONE786438:ONE786477 OXA786438:OXA786477 PGW786438:PGW786477 PQS786438:PQS786477 QAO786438:QAO786477 QKK786438:QKK786477 QUG786438:QUG786477 REC786438:REC786477 RNY786438:RNY786477 RXU786438:RXU786477 SHQ786438:SHQ786477 SRM786438:SRM786477 TBI786438:TBI786477 TLE786438:TLE786477 TVA786438:TVA786477 UEW786438:UEW786477 UOS786438:UOS786477 UYO786438:UYO786477 VIK786438:VIK786477 VSG786438:VSG786477 WCC786438:WCC786477 WLY786438:WLY786477 WVU786438:WVU786477 JI851974:JI852013 TE851974:TE852013 ADA851974:ADA852013 AMW851974:AMW852013 AWS851974:AWS852013 BGO851974:BGO852013 BQK851974:BQK852013 CAG851974:CAG852013 CKC851974:CKC852013 CTY851974:CTY852013 DDU851974:DDU852013 DNQ851974:DNQ852013 DXM851974:DXM852013 EHI851974:EHI852013 ERE851974:ERE852013 FBA851974:FBA852013 FKW851974:FKW852013 FUS851974:FUS852013 GEO851974:GEO852013 GOK851974:GOK852013 GYG851974:GYG852013 HIC851974:HIC852013 HRY851974:HRY852013 IBU851974:IBU852013 ILQ851974:ILQ852013 IVM851974:IVM852013 JFI851974:JFI852013 JPE851974:JPE852013 JZA851974:JZA852013 KIW851974:KIW852013 KSS851974:KSS852013 LCO851974:LCO852013 LMK851974:LMK852013 LWG851974:LWG852013 MGC851974:MGC852013 MPY851974:MPY852013 MZU851974:MZU852013 NJQ851974:NJQ852013 NTM851974:NTM852013 ODI851974:ODI852013 ONE851974:ONE852013 OXA851974:OXA852013 PGW851974:PGW852013 PQS851974:PQS852013 QAO851974:QAO852013 QKK851974:QKK852013 QUG851974:QUG852013 REC851974:REC852013 RNY851974:RNY852013 RXU851974:RXU852013 SHQ851974:SHQ852013 SRM851974:SRM852013 TBI851974:TBI852013 TLE851974:TLE852013 TVA851974:TVA852013 UEW851974:UEW852013 UOS851974:UOS852013 UYO851974:UYO852013 VIK851974:VIK852013 VSG851974:VSG852013 WCC851974:WCC852013 WLY851974:WLY852013 WVU851974:WVU852013 JI917510:JI917549 TE917510:TE917549 ADA917510:ADA917549 AMW917510:AMW917549 AWS917510:AWS917549 BGO917510:BGO917549 BQK917510:BQK917549 CAG917510:CAG917549 CKC917510:CKC917549 CTY917510:CTY917549 DDU917510:DDU917549 DNQ917510:DNQ917549 DXM917510:DXM917549 EHI917510:EHI917549 ERE917510:ERE917549 FBA917510:FBA917549 FKW917510:FKW917549 FUS917510:FUS917549 GEO917510:GEO917549 GOK917510:GOK917549 GYG917510:GYG917549 HIC917510:HIC917549 HRY917510:HRY917549 IBU917510:IBU917549 ILQ917510:ILQ917549 IVM917510:IVM917549 JFI917510:JFI917549 JPE917510:JPE917549 JZA917510:JZA917549 KIW917510:KIW917549 KSS917510:KSS917549 LCO917510:LCO917549 LMK917510:LMK917549 LWG917510:LWG917549 MGC917510:MGC917549 MPY917510:MPY917549 MZU917510:MZU917549 NJQ917510:NJQ917549 NTM917510:NTM917549 ODI917510:ODI917549 ONE917510:ONE917549 OXA917510:OXA917549 PGW917510:PGW917549 PQS917510:PQS917549 QAO917510:QAO917549 QKK917510:QKK917549 QUG917510:QUG917549 REC917510:REC917549 RNY917510:RNY917549 RXU917510:RXU917549 SHQ917510:SHQ917549 SRM917510:SRM917549 TBI917510:TBI917549 TLE917510:TLE917549 TVA917510:TVA917549 UEW917510:UEW917549 UOS917510:UOS917549 UYO917510:UYO917549 VIK917510:VIK917549 VSG917510:VSG917549 WCC917510:WCC917549 WLY917510:WLY917549 WVU917510:WVU917549 JI983046:JI983085 TE983046:TE983085 ADA983046:ADA983085 AMW983046:AMW983085 AWS983046:AWS983085 BGO983046:BGO983085 BQK983046:BQK983085 CAG983046:CAG983085 CKC983046:CKC983085 CTY983046:CTY983085 DDU983046:DDU983085 DNQ983046:DNQ983085 DXM983046:DXM983085 EHI983046:EHI983085 ERE983046:ERE983085 FBA983046:FBA983085 FKW983046:FKW983085 FUS983046:FUS983085 GEO983046:GEO983085 GOK983046:GOK983085 GYG983046:GYG983085 HIC983046:HIC983085 HRY983046:HRY983085 IBU983046:IBU983085 ILQ983046:ILQ983085 IVM983046:IVM983085 JFI983046:JFI983085 JPE983046:JPE983085 JZA983046:JZA983085 KIW983046:KIW983085 KSS983046:KSS983085 LCO983046:LCO983085 LMK983046:LMK983085 LWG983046:LWG983085 MGC983046:MGC983085 MPY983046:MPY983085 MZU983046:MZU983085 NJQ983046:NJQ983085 NTM983046:NTM983085 ODI983046:ODI983085 ONE983046:ONE983085 OXA983046:OXA983085 PGW983046:PGW983085 PQS983046:PQS983085 QAO983046:QAO983085 QKK983046:QKK983085 QUG983046:QUG983085 REC983046:REC983085 RNY983046:RNY983085 RXU983046:RXU983085 SHQ983046:SHQ983085 SRM983046:SRM983085 TBI983046:TBI983085 TLE983046:TLE983085 TVA983046:TVA983085 UEW983046:UEW983085 UOS983046:UOS983085 UYO983046:UYO983085 VIK983046:VIK983085 VSG983046:VSG983085 WCC983046:WCC983085 WLY983046:WLY983085 WVU983046:WVU983085 WVU5:WVU43 WLY5:WLY43 WCC5:WCC43 VSG5:VSG43 VIK5:VIK43 UYO5:UYO43 UOS5:UOS43 UEW5:UEW43 TVA5:TVA43 TLE5:TLE43 TBI5:TBI43 SRM5:SRM43 SHQ5:SHQ43 RXU5:RXU43 RNY5:RNY43 REC5:REC43 QUG5:QUG43 QKK5:QKK43 QAO5:QAO43 PQS5:PQS43 PGW5:PGW43 OXA5:OXA43 ONE5:ONE43 ODI5:ODI43 NTM5:NTM43 NJQ5:NJQ43 MZU5:MZU43 MPY5:MPY43 MGC5:MGC43 LWG5:LWG43 LMK5:LMK43 LCO5:LCO43 KSS5:KSS43 KIW5:KIW43 JZA5:JZA43 JPE5:JPE43 JFI5:JFI43 IVM5:IVM43 ILQ5:ILQ43 IBU5:IBU43 HRY5:HRY43 HIC5:HIC43 GYG5:GYG43 GOK5:GOK43 GEO5:GEO43 FUS5:FUS43 FKW5:FKW43 FBA5:FBA43 ERE5:ERE43 EHI5:EHI43 DXM5:DXM43 DNQ5:DNQ43 DDU5:DDU43 CTY5:CTY43 CKC5:CKC43 CAG5:CAG43 BQK5:BQK43 BGO5:BGO43 AWS5:AWS43 AMW5:AMW43 ADA5:ADA43 TE5:TE43 JI5:JI43">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="يجب أن تكون القيمة بين 0 و 5" sqref="SU46:TF50 ACQ46:ADB50 AMM46:AMX50 AWI46:AWT50 BGE46:BGP50 BQA46:BQL50 BZW46:CAH50 CJS46:CKD50 CTO46:CTZ50 DDK46:DDV50 DNG46:DNR50 DXC46:DXN50 EGY46:EHJ50 EQU46:ERF50 FAQ46:FBB50 FKM46:FKX50 FUI46:FUT50 GEE46:GEP50 GOA46:GOL50 GXW46:GYH50 HHS46:HID50 HRO46:HRZ50 IBK46:IBV50 ILG46:ILR50 IVC46:IVN50 JEY46:JFJ50 JOU46:JPF50 JYQ46:JZB50 KIM46:KIX50 KSI46:KST50 LCE46:LCP50 LMA46:LML50 LVW46:LWH50 MFS46:MGD50 MPO46:MPZ50 MZK46:MZV50 NJG46:NJR50 NTC46:NTN50 OCY46:ODJ50 OMU46:ONF50 OWQ46:OXB50 PGM46:PGX50 PQI46:PQT50 QAE46:QAP50 QKA46:QKL50 QTW46:QUH50 RDS46:RED50 RNO46:RNZ50 RXK46:RXV50 SHG46:SHR50 SRC46:SRN50 TAY46:TBJ50 TKU46:TLF50 TUQ46:TVB50 UEM46:UEX50 UOI46:UOT50 UYE46:UYP50 VIA46:VIL50 VRW46:VSH50 WBS46:WCD50 WLO46:WLZ50 WVK46:WVV50 SU65584:TF65588 ACQ65584:ADB65588 AMM65584:AMX65588 AWI65584:AWT65588 BGE65584:BGP65588 BQA65584:BQL65588 BZW65584:CAH65588 CJS65584:CKD65588 CTO65584:CTZ65588 DDK65584:DDV65588 DNG65584:DNR65588 DXC65584:DXN65588 EGY65584:EHJ65588 EQU65584:ERF65588 FAQ65584:FBB65588 FKM65584:FKX65588 FUI65584:FUT65588 GEE65584:GEP65588 GOA65584:GOL65588 GXW65584:GYH65588 HHS65584:HID65588 HRO65584:HRZ65588 IBK65584:IBV65588 ILG65584:ILR65588 IVC65584:IVN65588 JEY65584:JFJ65588 JOU65584:JPF65588 JYQ65584:JZB65588 KIM65584:KIX65588 KSI65584:KST65588 LCE65584:LCP65588 LMA65584:LML65588 LVW65584:LWH65588 MFS65584:MGD65588 MPO65584:MPZ65588 MZK65584:MZV65588 NJG65584:NJR65588 NTC65584:NTN65588 OCY65584:ODJ65588 OMU65584:ONF65588 OWQ65584:OXB65588 PGM65584:PGX65588 PQI65584:PQT65588 QAE65584:QAP65588 QKA65584:QKL65588 QTW65584:QUH65588 RDS65584:RED65588 RNO65584:RNZ65588 RXK65584:RXV65588 SHG65584:SHR65588 SRC65584:SRN65588 TAY65584:TBJ65588 TKU65584:TLF65588 TUQ65584:TVB65588 UEM65584:UEX65588 UOI65584:UOT65588 UYE65584:UYP65588 VIA65584:VIL65588 VRW65584:VSH65588 WBS65584:WCD65588 WLO65584:WLZ65588 WVK65584:WVV65588 SU131120:TF131124 ACQ131120:ADB131124 AMM131120:AMX131124 AWI131120:AWT131124 BGE131120:BGP131124 BQA131120:BQL131124 BZW131120:CAH131124 CJS131120:CKD131124 CTO131120:CTZ131124 DDK131120:DDV131124 DNG131120:DNR131124 DXC131120:DXN131124 EGY131120:EHJ131124 EQU131120:ERF131124 FAQ131120:FBB131124 FKM131120:FKX131124 FUI131120:FUT131124 GEE131120:GEP131124 GOA131120:GOL131124 GXW131120:GYH131124 HHS131120:HID131124 HRO131120:HRZ131124 IBK131120:IBV131124 ILG131120:ILR131124 IVC131120:IVN131124 JEY131120:JFJ131124 JOU131120:JPF131124 JYQ131120:JZB131124 KIM131120:KIX131124 KSI131120:KST131124 LCE131120:LCP131124 LMA131120:LML131124 LVW131120:LWH131124 MFS131120:MGD131124 MPO131120:MPZ131124 MZK131120:MZV131124 NJG131120:NJR131124 NTC131120:NTN131124 OCY131120:ODJ131124 OMU131120:ONF131124 OWQ131120:OXB131124 PGM131120:PGX131124 PQI131120:PQT131124 QAE131120:QAP131124 QKA131120:QKL131124 QTW131120:QUH131124 RDS131120:RED131124 RNO131120:RNZ131124 RXK131120:RXV131124 SHG131120:SHR131124 SRC131120:SRN131124 TAY131120:TBJ131124 TKU131120:TLF131124 TUQ131120:TVB131124 UEM131120:UEX131124 UOI131120:UOT131124 UYE131120:UYP131124 VIA131120:VIL131124 VRW131120:VSH131124 WBS131120:WCD131124 WLO131120:WLZ131124 WVK131120:WVV131124 SU196656:TF196660 ACQ196656:ADB196660 AMM196656:AMX196660 AWI196656:AWT196660 BGE196656:BGP196660 BQA196656:BQL196660 BZW196656:CAH196660 CJS196656:CKD196660 CTO196656:CTZ196660 DDK196656:DDV196660 DNG196656:DNR196660 DXC196656:DXN196660 EGY196656:EHJ196660 EQU196656:ERF196660 FAQ196656:FBB196660 FKM196656:FKX196660 FUI196656:FUT196660 GEE196656:GEP196660 GOA196656:GOL196660 GXW196656:GYH196660 HHS196656:HID196660 HRO196656:HRZ196660 IBK196656:IBV196660 ILG196656:ILR196660 IVC196656:IVN196660 JEY196656:JFJ196660 JOU196656:JPF196660 JYQ196656:JZB196660 KIM196656:KIX196660 KSI196656:KST196660 LCE196656:LCP196660 LMA196656:LML196660 LVW196656:LWH196660 MFS196656:MGD196660 MPO196656:MPZ196660 MZK196656:MZV196660 NJG196656:NJR196660 NTC196656:NTN196660 OCY196656:ODJ196660 OMU196656:ONF196660 OWQ196656:OXB196660 PGM196656:PGX196660 PQI196656:PQT196660 QAE196656:QAP196660 QKA196656:QKL196660 QTW196656:QUH196660 RDS196656:RED196660 RNO196656:RNZ196660 RXK196656:RXV196660 SHG196656:SHR196660 SRC196656:SRN196660 TAY196656:TBJ196660 TKU196656:TLF196660 TUQ196656:TVB196660 UEM196656:UEX196660 UOI196656:UOT196660 UYE196656:UYP196660 VIA196656:VIL196660 VRW196656:VSH196660 WBS196656:WCD196660 WLO196656:WLZ196660 WVK196656:WVV196660 SU262192:TF262196 ACQ262192:ADB262196 AMM262192:AMX262196 AWI262192:AWT262196 BGE262192:BGP262196 BQA262192:BQL262196 BZW262192:CAH262196 CJS262192:CKD262196 CTO262192:CTZ262196 DDK262192:DDV262196 DNG262192:DNR262196 DXC262192:DXN262196 EGY262192:EHJ262196 EQU262192:ERF262196 FAQ262192:FBB262196 FKM262192:FKX262196 FUI262192:FUT262196 GEE262192:GEP262196 GOA262192:GOL262196 GXW262192:GYH262196 HHS262192:HID262196 HRO262192:HRZ262196 IBK262192:IBV262196 ILG262192:ILR262196 IVC262192:IVN262196 JEY262192:JFJ262196 JOU262192:JPF262196 JYQ262192:JZB262196 KIM262192:KIX262196 KSI262192:KST262196 LCE262192:LCP262196 LMA262192:LML262196 LVW262192:LWH262196 MFS262192:MGD262196 MPO262192:MPZ262196 MZK262192:MZV262196 NJG262192:NJR262196 NTC262192:NTN262196 OCY262192:ODJ262196 OMU262192:ONF262196 OWQ262192:OXB262196 PGM262192:PGX262196 PQI262192:PQT262196 QAE262192:QAP262196 QKA262192:QKL262196 QTW262192:QUH262196 RDS262192:RED262196 RNO262192:RNZ262196 RXK262192:RXV262196 SHG262192:SHR262196 SRC262192:SRN262196 TAY262192:TBJ262196 TKU262192:TLF262196 TUQ262192:TVB262196 UEM262192:UEX262196 UOI262192:UOT262196 UYE262192:UYP262196 VIA262192:VIL262196 VRW262192:VSH262196 WBS262192:WCD262196 WLO262192:WLZ262196 WVK262192:WVV262196 SU327728:TF327732 ACQ327728:ADB327732 AMM327728:AMX327732 AWI327728:AWT327732 BGE327728:BGP327732 BQA327728:BQL327732 BZW327728:CAH327732 CJS327728:CKD327732 CTO327728:CTZ327732 DDK327728:DDV327732 DNG327728:DNR327732 DXC327728:DXN327732 EGY327728:EHJ327732 EQU327728:ERF327732 FAQ327728:FBB327732 FKM327728:FKX327732 FUI327728:FUT327732 GEE327728:GEP327732 GOA327728:GOL327732 GXW327728:GYH327732 HHS327728:HID327732 HRO327728:HRZ327732 IBK327728:IBV327732 ILG327728:ILR327732 IVC327728:IVN327732 JEY327728:JFJ327732 JOU327728:JPF327732 JYQ327728:JZB327732 KIM327728:KIX327732 KSI327728:KST327732 LCE327728:LCP327732 LMA327728:LML327732 LVW327728:LWH327732 MFS327728:MGD327732 MPO327728:MPZ327732 MZK327728:MZV327732 NJG327728:NJR327732 NTC327728:NTN327732 OCY327728:ODJ327732 OMU327728:ONF327732 OWQ327728:OXB327732 PGM327728:PGX327732 PQI327728:PQT327732 QAE327728:QAP327732 QKA327728:QKL327732 QTW327728:QUH327732 RDS327728:RED327732 RNO327728:RNZ327732 RXK327728:RXV327732 SHG327728:SHR327732 SRC327728:SRN327732 TAY327728:TBJ327732 TKU327728:TLF327732 TUQ327728:TVB327732 UEM327728:UEX327732 UOI327728:UOT327732 UYE327728:UYP327732 VIA327728:VIL327732 VRW327728:VSH327732 WBS327728:WCD327732 WLO327728:WLZ327732 WVK327728:WVV327732 SU393264:TF393268 ACQ393264:ADB393268 AMM393264:AMX393268 AWI393264:AWT393268 BGE393264:BGP393268 BQA393264:BQL393268 BZW393264:CAH393268 CJS393264:CKD393268 CTO393264:CTZ393268 DDK393264:DDV393268 DNG393264:DNR393268 DXC393264:DXN393268 EGY393264:EHJ393268 EQU393264:ERF393268 FAQ393264:FBB393268 FKM393264:FKX393268 FUI393264:FUT393268 GEE393264:GEP393268 GOA393264:GOL393268 GXW393264:GYH393268 HHS393264:HID393268 HRO393264:HRZ393268 IBK393264:IBV393268 ILG393264:ILR393268 IVC393264:IVN393268 JEY393264:JFJ393268 JOU393264:JPF393268 JYQ393264:JZB393268 KIM393264:KIX393268 KSI393264:KST393268 LCE393264:LCP393268 LMA393264:LML393268 LVW393264:LWH393268 MFS393264:MGD393268 MPO393264:MPZ393268 MZK393264:MZV393268 NJG393264:NJR393268 NTC393264:NTN393268 OCY393264:ODJ393268 OMU393264:ONF393268 OWQ393264:OXB393268 PGM393264:PGX393268 PQI393264:PQT393268 QAE393264:QAP393268 QKA393264:QKL393268 QTW393264:QUH393268 RDS393264:RED393268 RNO393264:RNZ393268 RXK393264:RXV393268 SHG393264:SHR393268 SRC393264:SRN393268 TAY393264:TBJ393268 TKU393264:TLF393268 TUQ393264:TVB393268 UEM393264:UEX393268 UOI393264:UOT393268 UYE393264:UYP393268 VIA393264:VIL393268 VRW393264:VSH393268 WBS393264:WCD393268 WLO393264:WLZ393268 WVK393264:WVV393268 SU458800:TF458804 ACQ458800:ADB458804 AMM458800:AMX458804 AWI458800:AWT458804 BGE458800:BGP458804 BQA458800:BQL458804 BZW458800:CAH458804 CJS458800:CKD458804 CTO458800:CTZ458804 DDK458800:DDV458804 DNG458800:DNR458804 DXC458800:DXN458804 EGY458800:EHJ458804 EQU458800:ERF458804 FAQ458800:FBB458804 FKM458800:FKX458804 FUI458800:FUT458804 GEE458800:GEP458804 GOA458800:GOL458804 GXW458800:GYH458804 HHS458800:HID458804 HRO458800:HRZ458804 IBK458800:IBV458804 ILG458800:ILR458804 IVC458800:IVN458804 JEY458800:JFJ458804 JOU458800:JPF458804 JYQ458800:JZB458804 KIM458800:KIX458804 KSI458800:KST458804 LCE458800:LCP458804 LMA458800:LML458804 LVW458800:LWH458804 MFS458800:MGD458804 MPO458800:MPZ458804 MZK458800:MZV458804 NJG458800:NJR458804 NTC458800:NTN458804 OCY458800:ODJ458804 OMU458800:ONF458804 OWQ458800:OXB458804 PGM458800:PGX458804 PQI458800:PQT458804 QAE458800:QAP458804 QKA458800:QKL458804 QTW458800:QUH458804 RDS458800:RED458804 RNO458800:RNZ458804 RXK458800:RXV458804 SHG458800:SHR458804 SRC458800:SRN458804 TAY458800:TBJ458804 TKU458800:TLF458804 TUQ458800:TVB458804 UEM458800:UEX458804 UOI458800:UOT458804 UYE458800:UYP458804 VIA458800:VIL458804 VRW458800:VSH458804 WBS458800:WCD458804 WLO458800:WLZ458804 WVK458800:WVV458804 SU524336:TF524340 ACQ524336:ADB524340 AMM524336:AMX524340 AWI524336:AWT524340 BGE524336:BGP524340 BQA524336:BQL524340 BZW524336:CAH524340 CJS524336:CKD524340 CTO524336:CTZ524340 DDK524336:DDV524340 DNG524336:DNR524340 DXC524336:DXN524340 EGY524336:EHJ524340 EQU524336:ERF524340 FAQ524336:FBB524340 FKM524336:FKX524340 FUI524336:FUT524340 GEE524336:GEP524340 GOA524336:GOL524340 GXW524336:GYH524340 HHS524336:HID524340 HRO524336:HRZ524340 IBK524336:IBV524340 ILG524336:ILR524340 IVC524336:IVN524340 JEY524336:JFJ524340 JOU524336:JPF524340 JYQ524336:JZB524340 KIM524336:KIX524340 KSI524336:KST524340 LCE524336:LCP524340 LMA524336:LML524340 LVW524336:LWH524340 MFS524336:MGD524340 MPO524336:MPZ524340 MZK524336:MZV524340 NJG524336:NJR524340 NTC524336:NTN524340 OCY524336:ODJ524340 OMU524336:ONF524340 OWQ524336:OXB524340 PGM524336:PGX524340 PQI524336:PQT524340 QAE524336:QAP524340 QKA524336:QKL524340 QTW524336:QUH524340 RDS524336:RED524340 RNO524336:RNZ524340 RXK524336:RXV524340 SHG524336:SHR524340 SRC524336:SRN524340 TAY524336:TBJ524340 TKU524336:TLF524340 TUQ524336:TVB524340 UEM524336:UEX524340 UOI524336:UOT524340 UYE524336:UYP524340 VIA524336:VIL524340 VRW524336:VSH524340 WBS524336:WCD524340 WLO524336:WLZ524340 WVK524336:WVV524340 SU589872:TF589876 ACQ589872:ADB589876 AMM589872:AMX589876 AWI589872:AWT589876 BGE589872:BGP589876 BQA589872:BQL589876 BZW589872:CAH589876 CJS589872:CKD589876 CTO589872:CTZ589876 DDK589872:DDV589876 DNG589872:DNR589876 DXC589872:DXN589876 EGY589872:EHJ589876 EQU589872:ERF589876 FAQ589872:FBB589876 FKM589872:FKX589876 FUI589872:FUT589876 GEE589872:GEP589876 GOA589872:GOL589876 GXW589872:GYH589876 HHS589872:HID589876 HRO589872:HRZ589876 IBK589872:IBV589876 ILG589872:ILR589876 IVC589872:IVN589876 JEY589872:JFJ589876 JOU589872:JPF589876 JYQ589872:JZB589876 KIM589872:KIX589876 KSI589872:KST589876 LCE589872:LCP589876 LMA589872:LML589876 LVW589872:LWH589876 MFS589872:MGD589876 MPO589872:MPZ589876 MZK589872:MZV589876 NJG589872:NJR589876 NTC589872:NTN589876 OCY589872:ODJ589876 OMU589872:ONF589876 OWQ589872:OXB589876 PGM589872:PGX589876 PQI589872:PQT589876 QAE589872:QAP589876 QKA589872:QKL589876 QTW589872:QUH589876 RDS589872:RED589876 RNO589872:RNZ589876 RXK589872:RXV589876 SHG589872:SHR589876 SRC589872:SRN589876 TAY589872:TBJ589876 TKU589872:TLF589876 TUQ589872:TVB589876 UEM589872:UEX589876 UOI589872:UOT589876 UYE589872:UYP589876 VIA589872:VIL589876 VRW589872:VSH589876 WBS589872:WCD589876 WLO589872:WLZ589876 WVK589872:WVV589876 SU655408:TF655412 ACQ655408:ADB655412 AMM655408:AMX655412 AWI655408:AWT655412 BGE655408:BGP655412 BQA655408:BQL655412 BZW655408:CAH655412 CJS655408:CKD655412 CTO655408:CTZ655412 DDK655408:DDV655412 DNG655408:DNR655412 DXC655408:DXN655412 EGY655408:EHJ655412 EQU655408:ERF655412 FAQ655408:FBB655412 FKM655408:FKX655412 FUI655408:FUT655412 GEE655408:GEP655412 GOA655408:GOL655412 GXW655408:GYH655412 HHS655408:HID655412 HRO655408:HRZ655412 IBK655408:IBV655412 ILG655408:ILR655412 IVC655408:IVN655412 JEY655408:JFJ655412 JOU655408:JPF655412 JYQ655408:JZB655412 KIM655408:KIX655412 KSI655408:KST655412 LCE655408:LCP655412 LMA655408:LML655412 LVW655408:LWH655412 MFS655408:MGD655412 MPO655408:MPZ655412 MZK655408:MZV655412 NJG655408:NJR655412 NTC655408:NTN655412 OCY655408:ODJ655412 OMU655408:ONF655412 OWQ655408:OXB655412 PGM655408:PGX655412 PQI655408:PQT655412 QAE655408:QAP655412 QKA655408:QKL655412 QTW655408:QUH655412 RDS655408:RED655412 RNO655408:RNZ655412 RXK655408:RXV655412 SHG655408:SHR655412 SRC655408:SRN655412 TAY655408:TBJ655412 TKU655408:TLF655412 TUQ655408:TVB655412 UEM655408:UEX655412 UOI655408:UOT655412 UYE655408:UYP655412 VIA655408:VIL655412 VRW655408:VSH655412 WBS655408:WCD655412 WLO655408:WLZ655412 WVK655408:WVV655412 SU720944:TF720948 ACQ720944:ADB720948 AMM720944:AMX720948 AWI720944:AWT720948 BGE720944:BGP720948 BQA720944:BQL720948 BZW720944:CAH720948 CJS720944:CKD720948 CTO720944:CTZ720948 DDK720944:DDV720948 DNG720944:DNR720948 DXC720944:DXN720948 EGY720944:EHJ720948 EQU720944:ERF720948 FAQ720944:FBB720948 FKM720944:FKX720948 FUI720944:FUT720948 GEE720944:GEP720948 GOA720944:GOL720948 GXW720944:GYH720948 HHS720944:HID720948 HRO720944:HRZ720948 IBK720944:IBV720948 ILG720944:ILR720948 IVC720944:IVN720948 JEY720944:JFJ720948 JOU720944:JPF720948 JYQ720944:JZB720948 KIM720944:KIX720948 KSI720944:KST720948 LCE720944:LCP720948 LMA720944:LML720948 LVW720944:LWH720948 MFS720944:MGD720948 MPO720944:MPZ720948 MZK720944:MZV720948 NJG720944:NJR720948 NTC720944:NTN720948 OCY720944:ODJ720948 OMU720944:ONF720948 OWQ720944:OXB720948 PGM720944:PGX720948 PQI720944:PQT720948 QAE720944:QAP720948 QKA720944:QKL720948 QTW720944:QUH720948 RDS720944:RED720948 RNO720944:RNZ720948 RXK720944:RXV720948 SHG720944:SHR720948 SRC720944:SRN720948 TAY720944:TBJ720948 TKU720944:TLF720948 TUQ720944:TVB720948 UEM720944:UEX720948 UOI720944:UOT720948 UYE720944:UYP720948 VIA720944:VIL720948 VRW720944:VSH720948 WBS720944:WCD720948 WLO720944:WLZ720948 WVK720944:WVV720948 SU786480:TF786484 ACQ786480:ADB786484 AMM786480:AMX786484 AWI786480:AWT786484 BGE786480:BGP786484 BQA786480:BQL786484 BZW786480:CAH786484 CJS786480:CKD786484 CTO786480:CTZ786484 DDK786480:DDV786484 DNG786480:DNR786484 DXC786480:DXN786484 EGY786480:EHJ786484 EQU786480:ERF786484 FAQ786480:FBB786484 FKM786480:FKX786484 FUI786480:FUT786484 GEE786480:GEP786484 GOA786480:GOL786484 GXW786480:GYH786484 HHS786480:HID786484 HRO786480:HRZ786484 IBK786480:IBV786484 ILG786480:ILR786484 IVC786480:IVN786484 JEY786480:JFJ786484 JOU786480:JPF786484 JYQ786480:JZB786484 KIM786480:KIX786484 KSI786480:KST786484 LCE786480:LCP786484 LMA786480:LML786484 LVW786480:LWH786484 MFS786480:MGD786484 MPO786480:MPZ786484 MZK786480:MZV786484 NJG786480:NJR786484 NTC786480:NTN786484 OCY786480:ODJ786484 OMU786480:ONF786484 OWQ786480:OXB786484 PGM786480:PGX786484 PQI786480:PQT786484 QAE786480:QAP786484 QKA786480:QKL786484 QTW786480:QUH786484 RDS786480:RED786484 RNO786480:RNZ786484 RXK786480:RXV786484 SHG786480:SHR786484 SRC786480:SRN786484 TAY786480:TBJ786484 TKU786480:TLF786484 TUQ786480:TVB786484 UEM786480:UEX786484 UOI786480:UOT786484 UYE786480:UYP786484 VIA786480:VIL786484 VRW786480:VSH786484 WBS786480:WCD786484 WLO786480:WLZ786484 WVK786480:WVV786484 SU852016:TF852020 ACQ852016:ADB852020 AMM852016:AMX852020 AWI852016:AWT852020 BGE852016:BGP852020 BQA852016:BQL852020 BZW852016:CAH852020 CJS852016:CKD852020 CTO852016:CTZ852020 DDK852016:DDV852020 DNG852016:DNR852020 DXC852016:DXN852020 EGY852016:EHJ852020 EQU852016:ERF852020 FAQ852016:FBB852020 FKM852016:FKX852020 FUI852016:FUT852020 GEE852016:GEP852020 GOA852016:GOL852020 GXW852016:GYH852020 HHS852016:HID852020 HRO852016:HRZ852020 IBK852016:IBV852020 ILG852016:ILR852020 IVC852016:IVN852020 JEY852016:JFJ852020 JOU852016:JPF852020 JYQ852016:JZB852020 KIM852016:KIX852020 KSI852016:KST852020 LCE852016:LCP852020 LMA852016:LML852020 LVW852016:LWH852020 MFS852016:MGD852020 MPO852016:MPZ852020 MZK852016:MZV852020 NJG852016:NJR852020 NTC852016:NTN852020 OCY852016:ODJ852020 OMU852016:ONF852020 OWQ852016:OXB852020 PGM852016:PGX852020 PQI852016:PQT852020 QAE852016:QAP852020 QKA852016:QKL852020 QTW852016:QUH852020 RDS852016:RED852020 RNO852016:RNZ852020 RXK852016:RXV852020 SHG852016:SHR852020 SRC852016:SRN852020 TAY852016:TBJ852020 TKU852016:TLF852020 TUQ852016:TVB852020 UEM852016:UEX852020 UOI852016:UOT852020 UYE852016:UYP852020 VIA852016:VIL852020 VRW852016:VSH852020 WBS852016:WCD852020 WLO852016:WLZ852020 WVK852016:WVV852020 SU917552:TF917556 ACQ917552:ADB917556 AMM917552:AMX917556 AWI917552:AWT917556 BGE917552:BGP917556 BQA917552:BQL917556 BZW917552:CAH917556 CJS917552:CKD917556 CTO917552:CTZ917556 DDK917552:DDV917556 DNG917552:DNR917556 DXC917552:DXN917556 EGY917552:EHJ917556 EQU917552:ERF917556 FAQ917552:FBB917556 FKM917552:FKX917556 FUI917552:FUT917556 GEE917552:GEP917556 GOA917552:GOL917556 GXW917552:GYH917556 HHS917552:HID917556 HRO917552:HRZ917556 IBK917552:IBV917556 ILG917552:ILR917556 IVC917552:IVN917556 JEY917552:JFJ917556 JOU917552:JPF917556 JYQ917552:JZB917556 KIM917552:KIX917556 KSI917552:KST917556 LCE917552:LCP917556 LMA917552:LML917556 LVW917552:LWH917556 MFS917552:MGD917556 MPO917552:MPZ917556 MZK917552:MZV917556 NJG917552:NJR917556 NTC917552:NTN917556 OCY917552:ODJ917556 OMU917552:ONF917556 OWQ917552:OXB917556 PGM917552:PGX917556 PQI917552:PQT917556 QAE917552:QAP917556 QKA917552:QKL917556 QTW917552:QUH917556 RDS917552:RED917556 RNO917552:RNZ917556 RXK917552:RXV917556 SHG917552:SHR917556 SRC917552:SRN917556 TAY917552:TBJ917556 TKU917552:TLF917556 TUQ917552:TVB917556 UEM917552:UEX917556 UOI917552:UOT917556 UYE917552:UYP917556 VIA917552:VIL917556 VRW917552:VSH917556 WBS917552:WCD917556 WLO917552:WLZ917556 WVK917552:WVV917556 WVK983088:WVV983092 SU983088:TF983092 ACQ983088:ADB983092 AMM983088:AMX983092 AWI983088:AWT983092 BGE983088:BGP983092 BQA983088:BQL983092 BZW983088:CAH983092 CJS983088:CKD983092 CTO983088:CTZ983092 DDK983088:DDV983092 DNG983088:DNR983092 DXC983088:DXN983092 EGY983088:EHJ983092 EQU983088:ERF983092 FAQ983088:FBB983092 FKM983088:FKX983092 FUI983088:FUT983092 GEE983088:GEP983092 GOA983088:GOL983092 GXW983088:GYH983092 HHS983088:HID983092 HRO983088:HRZ983092 IBK983088:IBV983092 ILG983088:ILR983092 IVC983088:IVN983092 JEY983088:JFJ983092 JOU983088:JPF983092 JYQ983088:JZB983092 KIM983088:KIX983092 KSI983088:KST983092 LCE983088:LCP983092 LMA983088:LML983092 LVW983088:LWH983092 MFS983088:MGD983092 MPO983088:MPZ983092 MZK983088:MZV983092 NJG983088:NJR983092 NTC983088:NTN983092 OCY983088:ODJ983092 OMU983088:ONF983092 OWQ983088:OXB983092 PGM983088:PGX983092 PQI983088:PQT983092 QAE983088:QAP983092 QKA983088:QKL983092 QTW983088:QUH983092 RDS983088:RED983092 RNO983088:RNZ983092 RXK983088:RXV983092 SHG983088:SHR983092 SRC983088:SRN983092 TAY983088:TBJ983092 TKU983088:TLF983092 TUQ983088:TVB983092 UEM983088:UEX983092 UOI983088:UOT983092 UYE983088:UYP983092 VIA983088:VIL983092 VRW983088:VSH983092 WBS983088:WCD983092 WLO983088:WLZ983092 IY50:IY54 C917556:M917560 C852020:M852024 C786484:M786488 C720948:M720952 C655412:M655416 C589876:M589880 C524340:M524344 C458804:M458808 C393268:M393272 C327732:M327736 C262196:M262200 C196660:M196664 C131124:M131128 C65588:M65592 C983092:M983096 IY983092:IY983096 IZ983088:JJ983092 IY917556:IY917560 IZ917552:JJ917556 IY852020:IY852024 IZ852016:JJ852020 IY786484:IY786488 IZ786480:JJ786484 IY720948:IY720952 IZ720944:JJ720948 IY655412:IY655416 IZ655408:JJ655412 IY589876:IY589880 IZ589872:JJ589876 IY524340:IY524344 IZ524336:JJ524340 IY458804:IY458808 IZ458800:JJ458804 IY393268:IY393272 IZ393264:JJ393268 IY327732:IY327736 IZ327728:JJ327732 IY262196:IY262200 IZ262192:JJ262196 IY196660:IY196664 IZ196656:JJ196660 IY131124:IY131128 IZ131120:JJ131124 IY65588:IY65592 IZ65584:JJ65588 IZ46:JJ50 C50:M54" xr:uid="{00000000-0002-0000-0D00-000003000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JI65542:JI65581 TE65542:TE65581 ADA65542:ADA65581 AMW65542:AMW65581 AWS65542:AWS65581 BGO65542:BGO65581 BQK65542:BQK65581 CAG65542:CAG65581 CKC65542:CKC65581 CTY65542:CTY65581 DDU65542:DDU65581 DNQ65542:DNQ65581 DXM65542:DXM65581 EHI65542:EHI65581 ERE65542:ERE65581 FBA65542:FBA65581 FKW65542:FKW65581 FUS65542:FUS65581 GEO65542:GEO65581 GOK65542:GOK65581 GYG65542:GYG65581 HIC65542:HIC65581 HRY65542:HRY65581 IBU65542:IBU65581 ILQ65542:ILQ65581 IVM65542:IVM65581 JFI65542:JFI65581 JPE65542:JPE65581 JZA65542:JZA65581 KIW65542:KIW65581 KSS65542:KSS65581 LCO65542:LCO65581 LMK65542:LMK65581 LWG65542:LWG65581 MGC65542:MGC65581 MPY65542:MPY65581 MZU65542:MZU65581 NJQ65542:NJQ65581 NTM65542:NTM65581 ODI65542:ODI65581 ONE65542:ONE65581 OXA65542:OXA65581 PGW65542:PGW65581 PQS65542:PQS65581 QAO65542:QAO65581 QKK65542:QKK65581 QUG65542:QUG65581 REC65542:REC65581 RNY65542:RNY65581 RXU65542:RXU65581 SHQ65542:SHQ65581 SRM65542:SRM65581 TBI65542:TBI65581 TLE65542:TLE65581 TVA65542:TVA65581 UEW65542:UEW65581 UOS65542:UOS65581 UYO65542:UYO65581 VIK65542:VIK65581 VSG65542:VSG65581 WCC65542:WCC65581 WLY65542:WLY65581 WVU65542:WVU65581 JI131078:JI131117 TE131078:TE131117 ADA131078:ADA131117 AMW131078:AMW131117 AWS131078:AWS131117 BGO131078:BGO131117 BQK131078:BQK131117 CAG131078:CAG131117 CKC131078:CKC131117 CTY131078:CTY131117 DDU131078:DDU131117 DNQ131078:DNQ131117 DXM131078:DXM131117 EHI131078:EHI131117 ERE131078:ERE131117 FBA131078:FBA131117 FKW131078:FKW131117 FUS131078:FUS131117 GEO131078:GEO131117 GOK131078:GOK131117 GYG131078:GYG131117 HIC131078:HIC131117 HRY131078:HRY131117 IBU131078:IBU131117 ILQ131078:ILQ131117 IVM131078:IVM131117 JFI131078:JFI131117 JPE131078:JPE131117 JZA131078:JZA131117 KIW131078:KIW131117 KSS131078:KSS131117 LCO131078:LCO131117 LMK131078:LMK131117 LWG131078:LWG131117 MGC131078:MGC131117 MPY131078:MPY131117 MZU131078:MZU131117 NJQ131078:NJQ131117 NTM131078:NTM131117 ODI131078:ODI131117 ONE131078:ONE131117 OXA131078:OXA131117 PGW131078:PGW131117 PQS131078:PQS131117 QAO131078:QAO131117 QKK131078:QKK131117 QUG131078:QUG131117 REC131078:REC131117 RNY131078:RNY131117 RXU131078:RXU131117 SHQ131078:SHQ131117 SRM131078:SRM131117 TBI131078:TBI131117 TLE131078:TLE131117 TVA131078:TVA131117 UEW131078:UEW131117 UOS131078:UOS131117 UYO131078:UYO131117 VIK131078:VIK131117 VSG131078:VSG131117 WCC131078:WCC131117 WLY131078:WLY131117 WVU131078:WVU131117 JI196614:JI196653 TE196614:TE196653 ADA196614:ADA196653 AMW196614:AMW196653 AWS196614:AWS196653 BGO196614:BGO196653 BQK196614:BQK196653 CAG196614:CAG196653 CKC196614:CKC196653 CTY196614:CTY196653 DDU196614:DDU196653 DNQ196614:DNQ196653 DXM196614:DXM196653 EHI196614:EHI196653 ERE196614:ERE196653 FBA196614:FBA196653 FKW196614:FKW196653 FUS196614:FUS196653 GEO196614:GEO196653 GOK196614:GOK196653 GYG196614:GYG196653 HIC196614:HIC196653 HRY196614:HRY196653 IBU196614:IBU196653 ILQ196614:ILQ196653 IVM196614:IVM196653 JFI196614:JFI196653 JPE196614:JPE196653 JZA196614:JZA196653 KIW196614:KIW196653 KSS196614:KSS196653 LCO196614:LCO196653 LMK196614:LMK196653 LWG196614:LWG196653 MGC196614:MGC196653 MPY196614:MPY196653 MZU196614:MZU196653 NJQ196614:NJQ196653 NTM196614:NTM196653 ODI196614:ODI196653 ONE196614:ONE196653 OXA196614:OXA196653 PGW196614:PGW196653 PQS196614:PQS196653 QAO196614:QAO196653 QKK196614:QKK196653 QUG196614:QUG196653 REC196614:REC196653 RNY196614:RNY196653 RXU196614:RXU196653 SHQ196614:SHQ196653 SRM196614:SRM196653 TBI196614:TBI196653 TLE196614:TLE196653 TVA196614:TVA196653 UEW196614:UEW196653 UOS196614:UOS196653 UYO196614:UYO196653 VIK196614:VIK196653 VSG196614:VSG196653 WCC196614:WCC196653 WLY196614:WLY196653 WVU196614:WVU196653 JI262150:JI262189 TE262150:TE262189 ADA262150:ADA262189 AMW262150:AMW262189 AWS262150:AWS262189 BGO262150:BGO262189 BQK262150:BQK262189 CAG262150:CAG262189 CKC262150:CKC262189 CTY262150:CTY262189 DDU262150:DDU262189 DNQ262150:DNQ262189 DXM262150:DXM262189 EHI262150:EHI262189 ERE262150:ERE262189 FBA262150:FBA262189 FKW262150:FKW262189 FUS262150:FUS262189 GEO262150:GEO262189 GOK262150:GOK262189 GYG262150:GYG262189 HIC262150:HIC262189 HRY262150:HRY262189 IBU262150:IBU262189 ILQ262150:ILQ262189 IVM262150:IVM262189 JFI262150:JFI262189 JPE262150:JPE262189 JZA262150:JZA262189 KIW262150:KIW262189 KSS262150:KSS262189 LCO262150:LCO262189 LMK262150:LMK262189 LWG262150:LWG262189 MGC262150:MGC262189 MPY262150:MPY262189 MZU262150:MZU262189 NJQ262150:NJQ262189 NTM262150:NTM262189 ODI262150:ODI262189 ONE262150:ONE262189 OXA262150:OXA262189 PGW262150:PGW262189 PQS262150:PQS262189 QAO262150:QAO262189 QKK262150:QKK262189 QUG262150:QUG262189 REC262150:REC262189 RNY262150:RNY262189 RXU262150:RXU262189 SHQ262150:SHQ262189 SRM262150:SRM262189 TBI262150:TBI262189 TLE262150:TLE262189 TVA262150:TVA262189 UEW262150:UEW262189 UOS262150:UOS262189 UYO262150:UYO262189 VIK262150:VIK262189 VSG262150:VSG262189 WCC262150:WCC262189 WLY262150:WLY262189 WVU262150:WVU262189 JI327686:JI327725 TE327686:TE327725 ADA327686:ADA327725 AMW327686:AMW327725 AWS327686:AWS327725 BGO327686:BGO327725 BQK327686:BQK327725 CAG327686:CAG327725 CKC327686:CKC327725 CTY327686:CTY327725 DDU327686:DDU327725 DNQ327686:DNQ327725 DXM327686:DXM327725 EHI327686:EHI327725 ERE327686:ERE327725 FBA327686:FBA327725 FKW327686:FKW327725 FUS327686:FUS327725 GEO327686:GEO327725 GOK327686:GOK327725 GYG327686:GYG327725 HIC327686:HIC327725 HRY327686:HRY327725 IBU327686:IBU327725 ILQ327686:ILQ327725 IVM327686:IVM327725 JFI327686:JFI327725 JPE327686:JPE327725 JZA327686:JZA327725 KIW327686:KIW327725 KSS327686:KSS327725 LCO327686:LCO327725 LMK327686:LMK327725 LWG327686:LWG327725 MGC327686:MGC327725 MPY327686:MPY327725 MZU327686:MZU327725 NJQ327686:NJQ327725 NTM327686:NTM327725 ODI327686:ODI327725 ONE327686:ONE327725 OXA327686:OXA327725 PGW327686:PGW327725 PQS327686:PQS327725 QAO327686:QAO327725 QKK327686:QKK327725 QUG327686:QUG327725 REC327686:REC327725 RNY327686:RNY327725 RXU327686:RXU327725 SHQ327686:SHQ327725 SRM327686:SRM327725 TBI327686:TBI327725 TLE327686:TLE327725 TVA327686:TVA327725 UEW327686:UEW327725 UOS327686:UOS327725 UYO327686:UYO327725 VIK327686:VIK327725 VSG327686:VSG327725 WCC327686:WCC327725 WLY327686:WLY327725 WVU327686:WVU327725 JI393222:JI393261 TE393222:TE393261 ADA393222:ADA393261 AMW393222:AMW393261 AWS393222:AWS393261 BGO393222:BGO393261 BQK393222:BQK393261 CAG393222:CAG393261 CKC393222:CKC393261 CTY393222:CTY393261 DDU393222:DDU393261 DNQ393222:DNQ393261 DXM393222:DXM393261 EHI393222:EHI393261 ERE393222:ERE393261 FBA393222:FBA393261 FKW393222:FKW393261 FUS393222:FUS393261 GEO393222:GEO393261 GOK393222:GOK393261 GYG393222:GYG393261 HIC393222:HIC393261 HRY393222:HRY393261 IBU393222:IBU393261 ILQ393222:ILQ393261 IVM393222:IVM393261 JFI393222:JFI393261 JPE393222:JPE393261 JZA393222:JZA393261 KIW393222:KIW393261 KSS393222:KSS393261 LCO393222:LCO393261 LMK393222:LMK393261 LWG393222:LWG393261 MGC393222:MGC393261 MPY393222:MPY393261 MZU393222:MZU393261 NJQ393222:NJQ393261 NTM393222:NTM393261 ODI393222:ODI393261 ONE393222:ONE393261 OXA393222:OXA393261 PGW393222:PGW393261 PQS393222:PQS393261 QAO393222:QAO393261 QKK393222:QKK393261 QUG393222:QUG393261 REC393222:REC393261 RNY393222:RNY393261 RXU393222:RXU393261 SHQ393222:SHQ393261 SRM393222:SRM393261 TBI393222:TBI393261 TLE393222:TLE393261 TVA393222:TVA393261 UEW393222:UEW393261 UOS393222:UOS393261 UYO393222:UYO393261 VIK393222:VIK393261 VSG393222:VSG393261 WCC393222:WCC393261 WLY393222:WLY393261 WVU393222:WVU393261 JI458758:JI458797 TE458758:TE458797 ADA458758:ADA458797 AMW458758:AMW458797 AWS458758:AWS458797 BGO458758:BGO458797 BQK458758:BQK458797 CAG458758:CAG458797 CKC458758:CKC458797 CTY458758:CTY458797 DDU458758:DDU458797 DNQ458758:DNQ458797 DXM458758:DXM458797 EHI458758:EHI458797 ERE458758:ERE458797 FBA458758:FBA458797 FKW458758:FKW458797 FUS458758:FUS458797 GEO458758:GEO458797 GOK458758:GOK458797 GYG458758:GYG458797 HIC458758:HIC458797 HRY458758:HRY458797 IBU458758:IBU458797 ILQ458758:ILQ458797 IVM458758:IVM458797 JFI458758:JFI458797 JPE458758:JPE458797 JZA458758:JZA458797 KIW458758:KIW458797 KSS458758:KSS458797 LCO458758:LCO458797 LMK458758:LMK458797 LWG458758:LWG458797 MGC458758:MGC458797 MPY458758:MPY458797 MZU458758:MZU458797 NJQ458758:NJQ458797 NTM458758:NTM458797 ODI458758:ODI458797 ONE458758:ONE458797 OXA458758:OXA458797 PGW458758:PGW458797 PQS458758:PQS458797 QAO458758:QAO458797 QKK458758:QKK458797 QUG458758:QUG458797 REC458758:REC458797 RNY458758:RNY458797 RXU458758:RXU458797 SHQ458758:SHQ458797 SRM458758:SRM458797 TBI458758:TBI458797 TLE458758:TLE458797 TVA458758:TVA458797 UEW458758:UEW458797 UOS458758:UOS458797 UYO458758:UYO458797 VIK458758:VIK458797 VSG458758:VSG458797 WCC458758:WCC458797 WLY458758:WLY458797 WVU458758:WVU458797 JI524294:JI524333 TE524294:TE524333 ADA524294:ADA524333 AMW524294:AMW524333 AWS524294:AWS524333 BGO524294:BGO524333 BQK524294:BQK524333 CAG524294:CAG524333 CKC524294:CKC524333 CTY524294:CTY524333 DDU524294:DDU524333 DNQ524294:DNQ524333 DXM524294:DXM524333 EHI524294:EHI524333 ERE524294:ERE524333 FBA524294:FBA524333 FKW524294:FKW524333 FUS524294:FUS524333 GEO524294:GEO524333 GOK524294:GOK524333 GYG524294:GYG524333 HIC524294:HIC524333 HRY524294:HRY524333 IBU524294:IBU524333 ILQ524294:ILQ524333 IVM524294:IVM524333 JFI524294:JFI524333 JPE524294:JPE524333 JZA524294:JZA524333 KIW524294:KIW524333 KSS524294:KSS524333 LCO524294:LCO524333 LMK524294:LMK524333 LWG524294:LWG524333 MGC524294:MGC524333 MPY524294:MPY524333 MZU524294:MZU524333 NJQ524294:NJQ524333 NTM524294:NTM524333 ODI524294:ODI524333 ONE524294:ONE524333 OXA524294:OXA524333 PGW524294:PGW524333 PQS524294:PQS524333 QAO524294:QAO524333 QKK524294:QKK524333 QUG524294:QUG524333 REC524294:REC524333 RNY524294:RNY524333 RXU524294:RXU524333 SHQ524294:SHQ524333 SRM524294:SRM524333 TBI524294:TBI524333 TLE524294:TLE524333 TVA524294:TVA524333 UEW524294:UEW524333 UOS524294:UOS524333 UYO524294:UYO524333 VIK524294:VIK524333 VSG524294:VSG524333 WCC524294:WCC524333 WLY524294:WLY524333 WVU524294:WVU524333 JI589830:JI589869 TE589830:TE589869 ADA589830:ADA589869 AMW589830:AMW589869 AWS589830:AWS589869 BGO589830:BGO589869 BQK589830:BQK589869 CAG589830:CAG589869 CKC589830:CKC589869 CTY589830:CTY589869 DDU589830:DDU589869 DNQ589830:DNQ589869 DXM589830:DXM589869 EHI589830:EHI589869 ERE589830:ERE589869 FBA589830:FBA589869 FKW589830:FKW589869 FUS589830:FUS589869 GEO589830:GEO589869 GOK589830:GOK589869 GYG589830:GYG589869 HIC589830:HIC589869 HRY589830:HRY589869 IBU589830:IBU589869 ILQ589830:ILQ589869 IVM589830:IVM589869 JFI589830:JFI589869 JPE589830:JPE589869 JZA589830:JZA589869 KIW589830:KIW589869 KSS589830:KSS589869 LCO589830:LCO589869 LMK589830:LMK589869 LWG589830:LWG589869 MGC589830:MGC589869 MPY589830:MPY589869 MZU589830:MZU589869 NJQ589830:NJQ589869 NTM589830:NTM589869 ODI589830:ODI589869 ONE589830:ONE589869 OXA589830:OXA589869 PGW589830:PGW589869 PQS589830:PQS589869 QAO589830:QAO589869 QKK589830:QKK589869 QUG589830:QUG589869 REC589830:REC589869 RNY589830:RNY589869 RXU589830:RXU589869 SHQ589830:SHQ589869 SRM589830:SRM589869 TBI589830:TBI589869 TLE589830:TLE589869 TVA589830:TVA589869 UEW589830:UEW589869 UOS589830:UOS589869 UYO589830:UYO589869 VIK589830:VIK589869 VSG589830:VSG589869 WCC589830:WCC589869 WLY589830:WLY589869 WVU589830:WVU589869 JI655366:JI655405 TE655366:TE655405 ADA655366:ADA655405 AMW655366:AMW655405 AWS655366:AWS655405 BGO655366:BGO655405 BQK655366:BQK655405 CAG655366:CAG655405 CKC655366:CKC655405 CTY655366:CTY655405 DDU655366:DDU655405 DNQ655366:DNQ655405 DXM655366:DXM655405 EHI655366:EHI655405 ERE655366:ERE655405 FBA655366:FBA655405 FKW655366:FKW655405 FUS655366:FUS655405 GEO655366:GEO655405 GOK655366:GOK655405 GYG655366:GYG655405 HIC655366:HIC655405 HRY655366:HRY655405 IBU655366:IBU655405 ILQ655366:ILQ655405 IVM655366:IVM655405 JFI655366:JFI655405 JPE655366:JPE655405 JZA655366:JZA655405 KIW655366:KIW655405 KSS655366:KSS655405 LCO655366:LCO655405 LMK655366:LMK655405 LWG655366:LWG655405 MGC655366:MGC655405 MPY655366:MPY655405 MZU655366:MZU655405 NJQ655366:NJQ655405 NTM655366:NTM655405 ODI655366:ODI655405 ONE655366:ONE655405 OXA655366:OXA655405 PGW655366:PGW655405 PQS655366:PQS655405 QAO655366:QAO655405 QKK655366:QKK655405 QUG655366:QUG655405 REC655366:REC655405 RNY655366:RNY655405 RXU655366:RXU655405 SHQ655366:SHQ655405 SRM655366:SRM655405 TBI655366:TBI655405 TLE655366:TLE655405 TVA655366:TVA655405 UEW655366:UEW655405 UOS655366:UOS655405 UYO655366:UYO655405 VIK655366:VIK655405 VSG655366:VSG655405 WCC655366:WCC655405 WLY655366:WLY655405 WVU655366:WVU655405 JI720902:JI720941 TE720902:TE720941 ADA720902:ADA720941 AMW720902:AMW720941 AWS720902:AWS720941 BGO720902:BGO720941 BQK720902:BQK720941 CAG720902:CAG720941 CKC720902:CKC720941 CTY720902:CTY720941 DDU720902:DDU720941 DNQ720902:DNQ720941 DXM720902:DXM720941 EHI720902:EHI720941 ERE720902:ERE720941 FBA720902:FBA720941 FKW720902:FKW720941 FUS720902:FUS720941 GEO720902:GEO720941 GOK720902:GOK720941 GYG720902:GYG720941 HIC720902:HIC720941 HRY720902:HRY720941 IBU720902:IBU720941 ILQ720902:ILQ720941 IVM720902:IVM720941 JFI720902:JFI720941 JPE720902:JPE720941 JZA720902:JZA720941 KIW720902:KIW720941 KSS720902:KSS720941 LCO720902:LCO720941 LMK720902:LMK720941 LWG720902:LWG720941 MGC720902:MGC720941 MPY720902:MPY720941 MZU720902:MZU720941 NJQ720902:NJQ720941 NTM720902:NTM720941 ODI720902:ODI720941 ONE720902:ONE720941 OXA720902:OXA720941 PGW720902:PGW720941 PQS720902:PQS720941 QAO720902:QAO720941 QKK720902:QKK720941 QUG720902:QUG720941 REC720902:REC720941 RNY720902:RNY720941 RXU720902:RXU720941 SHQ720902:SHQ720941 SRM720902:SRM720941 TBI720902:TBI720941 TLE720902:TLE720941 TVA720902:TVA720941 UEW720902:UEW720941 UOS720902:UOS720941 UYO720902:UYO720941 VIK720902:VIK720941 VSG720902:VSG720941 WCC720902:WCC720941 WLY720902:WLY720941 WVU720902:WVU720941 JI786438:JI786477 TE786438:TE786477 ADA786438:ADA786477 AMW786438:AMW786477 AWS786438:AWS786477 BGO786438:BGO786477 BQK786438:BQK786477 CAG786438:CAG786477 CKC786438:CKC786477 CTY786438:CTY786477 DDU786438:DDU786477 DNQ786438:DNQ786477 DXM786438:DXM786477 EHI786438:EHI786477 ERE786438:ERE786477 FBA786438:FBA786477 FKW786438:FKW786477 FUS786438:FUS786477 GEO786438:GEO786477 GOK786438:GOK786477 GYG786438:GYG786477 HIC786438:HIC786477 HRY786438:HRY786477 IBU786438:IBU786477 ILQ786438:ILQ786477 IVM786438:IVM786477 JFI786438:JFI786477 JPE786438:JPE786477 JZA786438:JZA786477 KIW786438:KIW786477 KSS786438:KSS786477 LCO786438:LCO786477 LMK786438:LMK786477 LWG786438:LWG786477 MGC786438:MGC786477 MPY786438:MPY786477 MZU786438:MZU786477 NJQ786438:NJQ786477 NTM786438:NTM786477 ODI786438:ODI786477 ONE786438:ONE786477 OXA786438:OXA786477 PGW786438:PGW786477 PQS786438:PQS786477 QAO786438:QAO786477 QKK786438:QKK786477 QUG786438:QUG786477 REC786438:REC786477 RNY786438:RNY786477 RXU786438:RXU786477 SHQ786438:SHQ786477 SRM786438:SRM786477 TBI786438:TBI786477 TLE786438:TLE786477 TVA786438:TVA786477 UEW786438:UEW786477 UOS786438:UOS786477 UYO786438:UYO786477 VIK786438:VIK786477 VSG786438:VSG786477 WCC786438:WCC786477 WLY786438:WLY786477 WVU786438:WVU786477 JI851974:JI852013 TE851974:TE852013 ADA851974:ADA852013 AMW851974:AMW852013 AWS851974:AWS852013 BGO851974:BGO852013 BQK851974:BQK852013 CAG851974:CAG852013 CKC851974:CKC852013 CTY851974:CTY852013 DDU851974:DDU852013 DNQ851974:DNQ852013 DXM851974:DXM852013 EHI851974:EHI852013 ERE851974:ERE852013 FBA851974:FBA852013 FKW851974:FKW852013 FUS851974:FUS852013 GEO851974:GEO852013 GOK851974:GOK852013 GYG851974:GYG852013 HIC851974:HIC852013 HRY851974:HRY852013 IBU851974:IBU852013 ILQ851974:ILQ852013 IVM851974:IVM852013 JFI851974:JFI852013 JPE851974:JPE852013 JZA851974:JZA852013 KIW851974:KIW852013 KSS851974:KSS852013 LCO851974:LCO852013 LMK851974:LMK852013 LWG851974:LWG852013 MGC851974:MGC852013 MPY851974:MPY852013 MZU851974:MZU852013 NJQ851974:NJQ852013 NTM851974:NTM852013 ODI851974:ODI852013 ONE851974:ONE852013 OXA851974:OXA852013 PGW851974:PGW852013 PQS851974:PQS852013 QAO851974:QAO852013 QKK851974:QKK852013 QUG851974:QUG852013 REC851974:REC852013 RNY851974:RNY852013 RXU851974:RXU852013 SHQ851974:SHQ852013 SRM851974:SRM852013 TBI851974:TBI852013 TLE851974:TLE852013 TVA851974:TVA852013 UEW851974:UEW852013 UOS851974:UOS852013 UYO851974:UYO852013 VIK851974:VIK852013 VSG851974:VSG852013 WCC851974:WCC852013 WLY851974:WLY852013 WVU851974:WVU852013 JI917510:JI917549 TE917510:TE917549 ADA917510:ADA917549 AMW917510:AMW917549 AWS917510:AWS917549 BGO917510:BGO917549 BQK917510:BQK917549 CAG917510:CAG917549 CKC917510:CKC917549 CTY917510:CTY917549 DDU917510:DDU917549 DNQ917510:DNQ917549 DXM917510:DXM917549 EHI917510:EHI917549 ERE917510:ERE917549 FBA917510:FBA917549 FKW917510:FKW917549 FUS917510:FUS917549 GEO917510:GEO917549 GOK917510:GOK917549 GYG917510:GYG917549 HIC917510:HIC917549 HRY917510:HRY917549 IBU917510:IBU917549 ILQ917510:ILQ917549 IVM917510:IVM917549 JFI917510:JFI917549 JPE917510:JPE917549 JZA917510:JZA917549 KIW917510:KIW917549 KSS917510:KSS917549 LCO917510:LCO917549 LMK917510:LMK917549 LWG917510:LWG917549 MGC917510:MGC917549 MPY917510:MPY917549 MZU917510:MZU917549 NJQ917510:NJQ917549 NTM917510:NTM917549 ODI917510:ODI917549 ONE917510:ONE917549 OXA917510:OXA917549 PGW917510:PGW917549 PQS917510:PQS917549 QAO917510:QAO917549 QKK917510:QKK917549 QUG917510:QUG917549 REC917510:REC917549 RNY917510:RNY917549 RXU917510:RXU917549 SHQ917510:SHQ917549 SRM917510:SRM917549 TBI917510:TBI917549 TLE917510:TLE917549 TVA917510:TVA917549 UEW917510:UEW917549 UOS917510:UOS917549 UYO917510:UYO917549 VIK917510:VIK917549 VSG917510:VSG917549 WCC917510:WCC917549 WLY917510:WLY917549 WVU917510:WVU917549 JI983046:JI983085 TE983046:TE983085 ADA983046:ADA983085 AMW983046:AMW983085 AWS983046:AWS983085 BGO983046:BGO983085 BQK983046:BQK983085 CAG983046:CAG983085 CKC983046:CKC983085 CTY983046:CTY983085 DDU983046:DDU983085 DNQ983046:DNQ983085 DXM983046:DXM983085 EHI983046:EHI983085 ERE983046:ERE983085 FBA983046:FBA983085 FKW983046:FKW983085 FUS983046:FUS983085 GEO983046:GEO983085 GOK983046:GOK983085 GYG983046:GYG983085 HIC983046:HIC983085 HRY983046:HRY983085 IBU983046:IBU983085 ILQ983046:ILQ983085 IVM983046:IVM983085 JFI983046:JFI983085 JPE983046:JPE983085 JZA983046:JZA983085 KIW983046:KIW983085 KSS983046:KSS983085 LCO983046:LCO983085 LMK983046:LMK983085 LWG983046:LWG983085 MGC983046:MGC983085 MPY983046:MPY983085 MZU983046:MZU983085 NJQ983046:NJQ983085 NTM983046:NTM983085 ODI983046:ODI983085 ONE983046:ONE983085 OXA983046:OXA983085 PGW983046:PGW983085 PQS983046:PQS983085 QAO983046:QAO983085 QKK983046:QKK983085 QUG983046:QUG983085 REC983046:REC983085 RNY983046:RNY983085 RXU983046:RXU983085 SHQ983046:SHQ983085 SRM983046:SRM983085 TBI983046:TBI983085 TLE983046:TLE983085 TVA983046:TVA983085 UEW983046:UEW983085 UOS983046:UOS983085 UYO983046:UYO983085 VIK983046:VIK983085 VSG983046:VSG983085 WCC983046:WCC983085 WLY983046:WLY983085 WVU983046:WVU983085 WVU5:WVU43 WLY5:WLY43 WCC5:WCC43 VSG5:VSG43 VIK5:VIK43 UYO5:UYO43 UOS5:UOS43 UEW5:UEW43 TVA5:TVA43 TLE5:TLE43 TBI5:TBI43 SRM5:SRM43 SHQ5:SHQ43 RXU5:RXU43 RNY5:RNY43 REC5:REC43 QUG5:QUG43 QKK5:QKK43 QAO5:QAO43 PQS5:PQS43 PGW5:PGW43 OXA5:OXA43 ONE5:ONE43 ODI5:ODI43 NTM5:NTM43 NJQ5:NJQ43 MZU5:MZU43 MPY5:MPY43 MGC5:MGC43 LWG5:LWG43 LMK5:LMK43 LCO5:LCO43 KSS5:KSS43 KIW5:KIW43 JZA5:JZA43 JPE5:JPE43 JFI5:JFI43 IVM5:IVM43 ILQ5:ILQ43 IBU5:IBU43 HRY5:HRY43 HIC5:HIC43 GYG5:GYG43 GOK5:GOK43 GEO5:GEO43 FUS5:FUS43 FKW5:FKW43 FBA5:FBA43 ERE5:ERE43 EHI5:EHI43 DXM5:DXM43 DNQ5:DNQ43 DDU5:DDU43 CTY5:CTY43 CKC5:CKC43 CAG5:CAG43 BQK5:BQK43 BGO5:BGO43 AWS5:AWS43 AMW5:AMW43 ADA5:ADA43 TE5:TE43 JI5:JI43" xr:uid="{00000000-0002-0000-0D00-000004000000}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
@@ -22206,7 +22313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -22671,37 +22778,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A1" s="153"/>
-      <c r="B1" s="153"/>
-      <c r="C1" s="154" t="s">
+      <c r="A1" s="134"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
       <c r="N1" s="40"/>
       <c r="O1" s="40"/>
       <c r="P1" s="41"/>
     </row>
     <row r="2" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A2" s="156"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
       <c r="M2" s="42" t="s">
         <v>134</v>
       </c>
@@ -22712,19 +22819,19 @@
       <c r="P2" s="41"/>
     </row>
     <row r="3" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="139" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
       <c r="M3" s="42" t="s">
         <v>135</v>
       </c>
@@ -22735,8 +22842,8 @@
       <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1">
-      <c r="A4" s="151"/>
-      <c r="B4" s="152"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="133"/>
       <c r="C4" s="45"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -22751,67 +22858,67 @@
       <c r="P4" s="41"/>
     </row>
     <row r="5" spans="1:259" ht="92.25" customHeight="1">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="152" t="s">
         <v>136</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="153" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="143" t="s">
+      <c r="D5" s="154"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="153" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="146" t="s">
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="156" t="s">
         <v>140</v>
       </c>
-      <c r="L5" s="147" t="s">
+      <c r="L5" s="157" t="s">
         <v>141</v>
       </c>
-      <c r="M5" s="149" t="s">
+      <c r="M5" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="N5" s="150"/>
-      <c r="O5" s="134" t="s">
+      <c r="N5" s="160"/>
+      <c r="O5" s="144" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:259" ht="200.25" customHeight="1">
-      <c r="A6" s="142"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="145" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135" t="s">
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="148"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="N6" s="136" t="s">
+      <c r="N6" s="146" t="s">
         <v>147</v>
       </c>
-      <c r="O6" s="134"/>
+      <c r="O6" s="144"/>
     </row>
     <row r="7" spans="1:259" ht="60" customHeight="1">
-      <c r="A7" s="142"/>
+      <c r="A7" s="152"/>
       <c r="B7" s="52" t="s">
         <v>148</v>
       </c>
@@ -22848,7 +22955,7 @@
       <c r="M7" s="56">
         <v>100</v>
       </c>
-      <c r="N7" s="137"/>
+      <c r="N7" s="147"/>
       <c r="O7" s="57">
         <v>100</v>
       </c>
@@ -24988,23 +25095,23 @@
       </c>
     </row>
     <row r="48" spans="1:259" ht="60" customHeight="1">
-      <c r="A48" s="138" t="s">
+      <c r="A48" s="148" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="138"/>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="138"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="138"/>
-      <c r="J48" s="138"/>
-      <c r="K48" s="138"/>
-      <c r="L48" s="138"/>
-      <c r="M48" s="138"/>
-      <c r="N48" s="138"/>
-      <c r="O48" s="138"/>
+      <c r="B48" s="148"/>
+      <c r="C48" s="148"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="148"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="148"/>
+      <c r="J48" s="148"/>
+      <c r="K48" s="148"/>
+      <c r="L48" s="148"/>
+      <c r="M48" s="148"/>
+      <c r="N48" s="148"/>
+      <c r="O48" s="148"/>
       <c r="P48" s="68"/>
       <c r="Q48" s="68"/>
       <c r="R48" s="68"/>
@@ -25255,17 +25362,17 @@
       <c r="B49" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="C49" s="139"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="140"/>
-      <c r="F49" s="140"/>
-      <c r="G49" s="140"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="140"/>
-      <c r="K49" s="140"/>
-      <c r="L49" s="140"/>
-      <c r="M49" s="141"/>
+      <c r="C49" s="149"/>
+      <c r="D49" s="150"/>
+      <c r="E49" s="150"/>
+      <c r="F49" s="150"/>
+      <c r="G49" s="150"/>
+      <c r="H49" s="150"/>
+      <c r="I49" s="150"/>
+      <c r="J49" s="150"/>
+      <c r="K49" s="150"/>
+      <c r="L49" s="150"/>
+      <c r="M49" s="151"/>
       <c r="N49" s="71"/>
       <c r="O49" s="71"/>
     </row>
@@ -25514,24 +25621,24 @@
       <c r="B55" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="C55" s="132" t="s">
+      <c r="C55" s="142" t="s">
         <v>183</v>
       </c>
-      <c r="D55" s="132" t="s">
+      <c r="D55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="E55" s="132" t="s">
+      <c r="E55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="F55" s="132" t="s">
+      <c r="F55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="G55" s="132"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132" t="s">
+      <c r="G55" s="142"/>
+      <c r="H55" s="142"/>
+      <c r="I55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="J55" s="132" t="s">
+      <c r="J55" s="142" t="s">
         <v>184</v>
       </c>
       <c r="K55" s="79" t="s">
@@ -25546,14 +25653,14 @@
     <row r="56" spans="1:16" s="88" customFormat="1" ht="42.75" customHeight="1">
       <c r="A56" s="83"/>
       <c r="B56" s="84"/>
-      <c r="C56" s="133"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="133"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="143"/>
       <c r="K56" s="85"/>
       <c r="L56" s="86"/>
       <c r="M56" s="86"/>
@@ -25564,12 +25671,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="bymfRcfdrKcinTwDVsD9Sw9HEi8Aylyen4Sk5Zge/jYh+kvPJ7FX30Y4JStUMt7GaslXX539UxCjP4mWFs/Pug==" saltValue="rJpldvugpSjeUtd+V1m7xQ==" spinCount="100000" sheet="1"/>
   <mergeCells count="20">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:L2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:K3"/>
     <mergeCell ref="C55:J55"/>
     <mergeCell ref="C56:J56"/>
     <mergeCell ref="O5:O6"/>
@@ -25584,22 +25685,28 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:L2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:K3"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L47" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:I47 K8:K47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:I47 K8:K47" xr:uid="{00000000-0002-0000-0E00-000001000000}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D47" xr:uid="{00000000-0002-0000-0E00-000002000000}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="يجب أن تكون القيمة بين 0 و 5" sqref="SU46:TF50 ACQ46:ADB50 AMM46:AMX50 AWI46:AWT50 BGE46:BGP50 BQA46:BQL50 BZW46:CAH50 CJS46:CKD50 CTO46:CTZ50 DDK46:DDV50 DNG46:DNR50 DXC46:DXN50 EGY46:EHJ50 EQU46:ERF50 FAQ46:FBB50 FKM46:FKX50 FUI46:FUT50 GEE46:GEP50 GOA46:GOL50 GXW46:GYH50 HHS46:HID50 HRO46:HRZ50 IBK46:IBV50 ILG46:ILR50 IVC46:IVN50 JEY46:JFJ50 JOU46:JPF50 JYQ46:JZB50 KIM46:KIX50 KSI46:KST50 LCE46:LCP50 LMA46:LML50 LVW46:LWH50 MFS46:MGD50 MPO46:MPZ50 MZK46:MZV50 NJG46:NJR50 NTC46:NTN50 OCY46:ODJ50 OMU46:ONF50 OWQ46:OXB50 PGM46:PGX50 PQI46:PQT50 QAE46:QAP50 QKA46:QKL50 QTW46:QUH50 RDS46:RED50 RNO46:RNZ50 RXK46:RXV50 SHG46:SHR50 SRC46:SRN50 TAY46:TBJ50 TKU46:TLF50 TUQ46:TVB50 UEM46:UEX50 UOI46:UOT50 UYE46:UYP50 VIA46:VIL50 VRW46:VSH50 WBS46:WCD50 WLO46:WLZ50 WVK46:WVV50 SU65584:TF65588 ACQ65584:ADB65588 AMM65584:AMX65588 AWI65584:AWT65588 BGE65584:BGP65588 BQA65584:BQL65588 BZW65584:CAH65588 CJS65584:CKD65588 CTO65584:CTZ65588 DDK65584:DDV65588 DNG65584:DNR65588 DXC65584:DXN65588 EGY65584:EHJ65588 EQU65584:ERF65588 FAQ65584:FBB65588 FKM65584:FKX65588 FUI65584:FUT65588 GEE65584:GEP65588 GOA65584:GOL65588 GXW65584:GYH65588 HHS65584:HID65588 HRO65584:HRZ65588 IBK65584:IBV65588 ILG65584:ILR65588 IVC65584:IVN65588 JEY65584:JFJ65588 JOU65584:JPF65588 JYQ65584:JZB65588 KIM65584:KIX65588 KSI65584:KST65588 LCE65584:LCP65588 LMA65584:LML65588 LVW65584:LWH65588 MFS65584:MGD65588 MPO65584:MPZ65588 MZK65584:MZV65588 NJG65584:NJR65588 NTC65584:NTN65588 OCY65584:ODJ65588 OMU65584:ONF65588 OWQ65584:OXB65588 PGM65584:PGX65588 PQI65584:PQT65588 QAE65584:QAP65588 QKA65584:QKL65588 QTW65584:QUH65588 RDS65584:RED65588 RNO65584:RNZ65588 RXK65584:RXV65588 SHG65584:SHR65588 SRC65584:SRN65588 TAY65584:TBJ65588 TKU65584:TLF65588 TUQ65584:TVB65588 UEM65584:UEX65588 UOI65584:UOT65588 UYE65584:UYP65588 VIA65584:VIL65588 VRW65584:VSH65588 WBS65584:WCD65588 WLO65584:WLZ65588 WVK65584:WVV65588 SU131120:TF131124 ACQ131120:ADB131124 AMM131120:AMX131124 AWI131120:AWT131124 BGE131120:BGP131124 BQA131120:BQL131124 BZW131120:CAH131124 CJS131120:CKD131124 CTO131120:CTZ131124 DDK131120:DDV131124 DNG131120:DNR131124 DXC131120:DXN131124 EGY131120:EHJ131124 EQU131120:ERF131124 FAQ131120:FBB131124 FKM131120:FKX131124 FUI131120:FUT131124 GEE131120:GEP131124 GOA131120:GOL131124 GXW131120:GYH131124 HHS131120:HID131124 HRO131120:HRZ131124 IBK131120:IBV131124 ILG131120:ILR131124 IVC131120:IVN131124 JEY131120:JFJ131124 JOU131120:JPF131124 JYQ131120:JZB131124 KIM131120:KIX131124 KSI131120:KST131124 LCE131120:LCP131124 LMA131120:LML131124 LVW131120:LWH131124 MFS131120:MGD131124 MPO131120:MPZ131124 MZK131120:MZV131124 NJG131120:NJR131124 NTC131120:NTN131124 OCY131120:ODJ131124 OMU131120:ONF131124 OWQ131120:OXB131124 PGM131120:PGX131124 PQI131120:PQT131124 QAE131120:QAP131124 QKA131120:QKL131124 QTW131120:QUH131124 RDS131120:RED131124 RNO131120:RNZ131124 RXK131120:RXV131124 SHG131120:SHR131124 SRC131120:SRN131124 TAY131120:TBJ131124 TKU131120:TLF131124 TUQ131120:TVB131124 UEM131120:UEX131124 UOI131120:UOT131124 UYE131120:UYP131124 VIA131120:VIL131124 VRW131120:VSH131124 WBS131120:WCD131124 WLO131120:WLZ131124 WVK131120:WVV131124 SU196656:TF196660 ACQ196656:ADB196660 AMM196656:AMX196660 AWI196656:AWT196660 BGE196656:BGP196660 BQA196656:BQL196660 BZW196656:CAH196660 CJS196656:CKD196660 CTO196656:CTZ196660 DDK196656:DDV196660 DNG196656:DNR196660 DXC196656:DXN196660 EGY196656:EHJ196660 EQU196656:ERF196660 FAQ196656:FBB196660 FKM196656:FKX196660 FUI196656:FUT196660 GEE196656:GEP196660 GOA196656:GOL196660 GXW196656:GYH196660 HHS196656:HID196660 HRO196656:HRZ196660 IBK196656:IBV196660 ILG196656:ILR196660 IVC196656:IVN196660 JEY196656:JFJ196660 JOU196656:JPF196660 JYQ196656:JZB196660 KIM196656:KIX196660 KSI196656:KST196660 LCE196656:LCP196660 LMA196656:LML196660 LVW196656:LWH196660 MFS196656:MGD196660 MPO196656:MPZ196660 MZK196656:MZV196660 NJG196656:NJR196660 NTC196656:NTN196660 OCY196656:ODJ196660 OMU196656:ONF196660 OWQ196656:OXB196660 PGM196656:PGX196660 PQI196656:PQT196660 QAE196656:QAP196660 QKA196656:QKL196660 QTW196656:QUH196660 RDS196656:RED196660 RNO196656:RNZ196660 RXK196656:RXV196660 SHG196656:SHR196660 SRC196656:SRN196660 TAY196656:TBJ196660 TKU196656:TLF196660 TUQ196656:TVB196660 UEM196656:UEX196660 UOI196656:UOT196660 UYE196656:UYP196660 VIA196656:VIL196660 VRW196656:VSH196660 WBS196656:WCD196660 WLO196656:WLZ196660 WVK196656:WVV196660 SU262192:TF262196 ACQ262192:ADB262196 AMM262192:AMX262196 AWI262192:AWT262196 BGE262192:BGP262196 BQA262192:BQL262196 BZW262192:CAH262196 CJS262192:CKD262196 CTO262192:CTZ262196 DDK262192:DDV262196 DNG262192:DNR262196 DXC262192:DXN262196 EGY262192:EHJ262196 EQU262192:ERF262196 FAQ262192:FBB262196 FKM262192:FKX262196 FUI262192:FUT262196 GEE262192:GEP262196 GOA262192:GOL262196 GXW262192:GYH262196 HHS262192:HID262196 HRO262192:HRZ262196 IBK262192:IBV262196 ILG262192:ILR262196 IVC262192:IVN262196 JEY262192:JFJ262196 JOU262192:JPF262196 JYQ262192:JZB262196 KIM262192:KIX262196 KSI262192:KST262196 LCE262192:LCP262196 LMA262192:LML262196 LVW262192:LWH262196 MFS262192:MGD262196 MPO262192:MPZ262196 MZK262192:MZV262196 NJG262192:NJR262196 NTC262192:NTN262196 OCY262192:ODJ262196 OMU262192:ONF262196 OWQ262192:OXB262196 PGM262192:PGX262196 PQI262192:PQT262196 QAE262192:QAP262196 QKA262192:QKL262196 QTW262192:QUH262196 RDS262192:RED262196 RNO262192:RNZ262196 RXK262192:RXV262196 SHG262192:SHR262196 SRC262192:SRN262196 TAY262192:TBJ262196 TKU262192:TLF262196 TUQ262192:TVB262196 UEM262192:UEX262196 UOI262192:UOT262196 UYE262192:UYP262196 VIA262192:VIL262196 VRW262192:VSH262196 WBS262192:WCD262196 WLO262192:WLZ262196 WVK262192:WVV262196 SU327728:TF327732 ACQ327728:ADB327732 AMM327728:AMX327732 AWI327728:AWT327732 BGE327728:BGP327732 BQA327728:BQL327732 BZW327728:CAH327732 CJS327728:CKD327732 CTO327728:CTZ327732 DDK327728:DDV327732 DNG327728:DNR327732 DXC327728:DXN327732 EGY327728:EHJ327732 EQU327728:ERF327732 FAQ327728:FBB327732 FKM327728:FKX327732 FUI327728:FUT327732 GEE327728:GEP327732 GOA327728:GOL327732 GXW327728:GYH327732 HHS327728:HID327732 HRO327728:HRZ327732 IBK327728:IBV327732 ILG327728:ILR327732 IVC327728:IVN327732 JEY327728:JFJ327732 JOU327728:JPF327732 JYQ327728:JZB327732 KIM327728:KIX327732 KSI327728:KST327732 LCE327728:LCP327732 LMA327728:LML327732 LVW327728:LWH327732 MFS327728:MGD327732 MPO327728:MPZ327732 MZK327728:MZV327732 NJG327728:NJR327732 NTC327728:NTN327732 OCY327728:ODJ327732 OMU327728:ONF327732 OWQ327728:OXB327732 PGM327728:PGX327732 PQI327728:PQT327732 QAE327728:QAP327732 QKA327728:QKL327732 QTW327728:QUH327732 RDS327728:RED327732 RNO327728:RNZ327732 RXK327728:RXV327732 SHG327728:SHR327732 SRC327728:SRN327732 TAY327728:TBJ327732 TKU327728:TLF327732 TUQ327728:TVB327732 UEM327728:UEX327732 UOI327728:UOT327732 UYE327728:UYP327732 VIA327728:VIL327732 VRW327728:VSH327732 WBS327728:WCD327732 WLO327728:WLZ327732 WVK327728:WVV327732 SU393264:TF393268 ACQ393264:ADB393268 AMM393264:AMX393268 AWI393264:AWT393268 BGE393264:BGP393268 BQA393264:BQL393268 BZW393264:CAH393268 CJS393264:CKD393268 CTO393264:CTZ393268 DDK393264:DDV393268 DNG393264:DNR393268 DXC393264:DXN393268 EGY393264:EHJ393268 EQU393264:ERF393268 FAQ393264:FBB393268 FKM393264:FKX393268 FUI393264:FUT393268 GEE393264:GEP393268 GOA393264:GOL393268 GXW393264:GYH393268 HHS393264:HID393268 HRO393264:HRZ393268 IBK393264:IBV393268 ILG393264:ILR393268 IVC393264:IVN393268 JEY393264:JFJ393268 JOU393264:JPF393268 JYQ393264:JZB393268 KIM393264:KIX393268 KSI393264:KST393268 LCE393264:LCP393268 LMA393264:LML393268 LVW393264:LWH393268 MFS393264:MGD393268 MPO393264:MPZ393268 MZK393264:MZV393268 NJG393264:NJR393268 NTC393264:NTN393268 OCY393264:ODJ393268 OMU393264:ONF393268 OWQ393264:OXB393268 PGM393264:PGX393268 PQI393264:PQT393268 QAE393264:QAP393268 QKA393264:QKL393268 QTW393264:QUH393268 RDS393264:RED393268 RNO393264:RNZ393268 RXK393264:RXV393268 SHG393264:SHR393268 SRC393264:SRN393268 TAY393264:TBJ393268 TKU393264:TLF393268 TUQ393264:TVB393268 UEM393264:UEX393268 UOI393264:UOT393268 UYE393264:UYP393268 VIA393264:VIL393268 VRW393264:VSH393268 WBS393264:WCD393268 WLO393264:WLZ393268 WVK393264:WVV393268 SU458800:TF458804 ACQ458800:ADB458804 AMM458800:AMX458804 AWI458800:AWT458804 BGE458800:BGP458804 BQA458800:BQL458804 BZW458800:CAH458804 CJS458800:CKD458804 CTO458800:CTZ458804 DDK458800:DDV458804 DNG458800:DNR458804 DXC458800:DXN458804 EGY458800:EHJ458804 EQU458800:ERF458804 FAQ458800:FBB458804 FKM458800:FKX458804 FUI458800:FUT458804 GEE458800:GEP458804 GOA458800:GOL458804 GXW458800:GYH458804 HHS458800:HID458804 HRO458800:HRZ458804 IBK458800:IBV458804 ILG458800:ILR458804 IVC458800:IVN458804 JEY458800:JFJ458804 JOU458800:JPF458804 JYQ458800:JZB458804 KIM458800:KIX458804 KSI458800:KST458804 LCE458800:LCP458804 LMA458800:LML458804 LVW458800:LWH458804 MFS458800:MGD458804 MPO458800:MPZ458804 MZK458800:MZV458804 NJG458800:NJR458804 NTC458800:NTN458804 OCY458800:ODJ458804 OMU458800:ONF458804 OWQ458800:OXB458804 PGM458800:PGX458804 PQI458800:PQT458804 QAE458800:QAP458804 QKA458800:QKL458804 QTW458800:QUH458804 RDS458800:RED458804 RNO458800:RNZ458804 RXK458800:RXV458804 SHG458800:SHR458804 SRC458800:SRN458804 TAY458800:TBJ458804 TKU458800:TLF458804 TUQ458800:TVB458804 UEM458800:UEX458804 UOI458800:UOT458804 UYE458800:UYP458804 VIA458800:VIL458804 VRW458800:VSH458804 WBS458800:WCD458804 WLO458800:WLZ458804 WVK458800:WVV458804 SU524336:TF524340 ACQ524336:ADB524340 AMM524336:AMX524340 AWI524336:AWT524340 BGE524336:BGP524340 BQA524336:BQL524340 BZW524336:CAH524340 CJS524336:CKD524340 CTO524336:CTZ524340 DDK524336:DDV524340 DNG524336:DNR524340 DXC524336:DXN524340 EGY524336:EHJ524340 EQU524336:ERF524340 FAQ524336:FBB524340 FKM524336:FKX524340 FUI524336:FUT524340 GEE524336:GEP524340 GOA524336:GOL524340 GXW524336:GYH524340 HHS524336:HID524340 HRO524336:HRZ524340 IBK524336:IBV524340 ILG524336:ILR524340 IVC524336:IVN524340 JEY524336:JFJ524340 JOU524336:JPF524340 JYQ524336:JZB524340 KIM524336:KIX524340 KSI524336:KST524340 LCE524336:LCP524340 LMA524336:LML524340 LVW524336:LWH524340 MFS524336:MGD524340 MPO524336:MPZ524340 MZK524336:MZV524340 NJG524336:NJR524340 NTC524336:NTN524340 OCY524336:ODJ524340 OMU524336:ONF524340 OWQ524336:OXB524340 PGM524336:PGX524340 PQI524336:PQT524340 QAE524336:QAP524340 QKA524336:QKL524340 QTW524336:QUH524340 RDS524336:RED524340 RNO524336:RNZ524340 RXK524336:RXV524340 SHG524336:SHR524340 SRC524336:SRN524340 TAY524336:TBJ524340 TKU524336:TLF524340 TUQ524336:TVB524340 UEM524336:UEX524340 UOI524336:UOT524340 UYE524336:UYP524340 VIA524336:VIL524340 VRW524336:VSH524340 WBS524336:WCD524340 WLO524336:WLZ524340 WVK524336:WVV524340 SU589872:TF589876 ACQ589872:ADB589876 AMM589872:AMX589876 AWI589872:AWT589876 BGE589872:BGP589876 BQA589872:BQL589876 BZW589872:CAH589876 CJS589872:CKD589876 CTO589872:CTZ589876 DDK589872:DDV589876 DNG589872:DNR589876 DXC589872:DXN589876 EGY589872:EHJ589876 EQU589872:ERF589876 FAQ589872:FBB589876 FKM589872:FKX589876 FUI589872:FUT589876 GEE589872:GEP589876 GOA589872:GOL589876 GXW589872:GYH589876 HHS589872:HID589876 HRO589872:HRZ589876 IBK589872:IBV589876 ILG589872:ILR589876 IVC589872:IVN589876 JEY589872:JFJ589876 JOU589872:JPF589876 JYQ589872:JZB589876 KIM589872:KIX589876 KSI589872:KST589876 LCE589872:LCP589876 LMA589872:LML589876 LVW589872:LWH589876 MFS589872:MGD589876 MPO589872:MPZ589876 MZK589872:MZV589876 NJG589872:NJR589876 NTC589872:NTN589876 OCY589872:ODJ589876 OMU589872:ONF589876 OWQ589872:OXB589876 PGM589872:PGX589876 PQI589872:PQT589876 QAE589872:QAP589876 QKA589872:QKL589876 QTW589872:QUH589876 RDS589872:RED589876 RNO589872:RNZ589876 RXK589872:RXV589876 SHG589872:SHR589876 SRC589872:SRN589876 TAY589872:TBJ589876 TKU589872:TLF589876 TUQ589872:TVB589876 UEM589872:UEX589876 UOI589872:UOT589876 UYE589872:UYP589876 VIA589872:VIL589876 VRW589872:VSH589876 WBS589872:WCD589876 WLO589872:WLZ589876 WVK589872:WVV589876 SU655408:TF655412 ACQ655408:ADB655412 AMM655408:AMX655412 AWI655408:AWT655412 BGE655408:BGP655412 BQA655408:BQL655412 BZW655408:CAH655412 CJS655408:CKD655412 CTO655408:CTZ655412 DDK655408:DDV655412 DNG655408:DNR655412 DXC655408:DXN655412 EGY655408:EHJ655412 EQU655408:ERF655412 FAQ655408:FBB655412 FKM655408:FKX655412 FUI655408:FUT655412 GEE655408:GEP655412 GOA655408:GOL655412 GXW655408:GYH655412 HHS655408:HID655412 HRO655408:HRZ655412 IBK655408:IBV655412 ILG655408:ILR655412 IVC655408:IVN655412 JEY655408:JFJ655412 JOU655408:JPF655412 JYQ655408:JZB655412 KIM655408:KIX655412 KSI655408:KST655412 LCE655408:LCP655412 LMA655408:LML655412 LVW655408:LWH655412 MFS655408:MGD655412 MPO655408:MPZ655412 MZK655408:MZV655412 NJG655408:NJR655412 NTC655408:NTN655412 OCY655408:ODJ655412 OMU655408:ONF655412 OWQ655408:OXB655412 PGM655408:PGX655412 PQI655408:PQT655412 QAE655408:QAP655412 QKA655408:QKL655412 QTW655408:QUH655412 RDS655408:RED655412 RNO655408:RNZ655412 RXK655408:RXV655412 SHG655408:SHR655412 SRC655408:SRN655412 TAY655408:TBJ655412 TKU655408:TLF655412 TUQ655408:TVB655412 UEM655408:UEX655412 UOI655408:UOT655412 UYE655408:UYP655412 VIA655408:VIL655412 VRW655408:VSH655412 WBS655408:WCD655412 WLO655408:WLZ655412 WVK655408:WVV655412 SU720944:TF720948 ACQ720944:ADB720948 AMM720944:AMX720948 AWI720944:AWT720948 BGE720944:BGP720948 BQA720944:BQL720948 BZW720944:CAH720948 CJS720944:CKD720948 CTO720944:CTZ720948 DDK720944:DDV720948 DNG720944:DNR720948 DXC720944:DXN720948 EGY720944:EHJ720948 EQU720944:ERF720948 FAQ720944:FBB720948 FKM720944:FKX720948 FUI720944:FUT720948 GEE720944:GEP720948 GOA720944:GOL720948 GXW720944:GYH720948 HHS720944:HID720948 HRO720944:HRZ720948 IBK720944:IBV720948 ILG720944:ILR720948 IVC720944:IVN720948 JEY720944:JFJ720948 JOU720944:JPF720948 JYQ720944:JZB720948 KIM720944:KIX720948 KSI720944:KST720948 LCE720944:LCP720948 LMA720944:LML720948 LVW720944:LWH720948 MFS720944:MGD720948 MPO720944:MPZ720948 MZK720944:MZV720948 NJG720944:NJR720948 NTC720944:NTN720948 OCY720944:ODJ720948 OMU720944:ONF720948 OWQ720944:OXB720948 PGM720944:PGX720948 PQI720944:PQT720948 QAE720944:QAP720948 QKA720944:QKL720948 QTW720944:QUH720948 RDS720944:RED720948 RNO720944:RNZ720948 RXK720944:RXV720948 SHG720944:SHR720948 SRC720944:SRN720948 TAY720944:TBJ720948 TKU720944:TLF720948 TUQ720944:TVB720948 UEM720944:UEX720948 UOI720944:UOT720948 UYE720944:UYP720948 VIA720944:VIL720948 VRW720944:VSH720948 WBS720944:WCD720948 WLO720944:WLZ720948 WVK720944:WVV720948 SU786480:TF786484 ACQ786480:ADB786484 AMM786480:AMX786484 AWI786480:AWT786484 BGE786480:BGP786484 BQA786480:BQL786484 BZW786480:CAH786484 CJS786480:CKD786484 CTO786480:CTZ786484 DDK786480:DDV786484 DNG786480:DNR786484 DXC786480:DXN786484 EGY786480:EHJ786484 EQU786480:ERF786484 FAQ786480:FBB786484 FKM786480:FKX786484 FUI786480:FUT786484 GEE786480:GEP786484 GOA786480:GOL786484 GXW786480:GYH786484 HHS786480:HID786484 HRO786480:HRZ786484 IBK786480:IBV786484 ILG786480:ILR786484 IVC786480:IVN786484 JEY786480:JFJ786484 JOU786480:JPF786484 JYQ786480:JZB786484 KIM786480:KIX786484 KSI786480:KST786484 LCE786480:LCP786484 LMA786480:LML786484 LVW786480:LWH786484 MFS786480:MGD786484 MPO786480:MPZ786484 MZK786480:MZV786484 NJG786480:NJR786484 NTC786480:NTN786484 OCY786480:ODJ786484 OMU786480:ONF786484 OWQ786480:OXB786484 PGM786480:PGX786484 PQI786480:PQT786484 QAE786480:QAP786484 QKA786480:QKL786484 QTW786480:QUH786484 RDS786480:RED786484 RNO786480:RNZ786484 RXK786480:RXV786484 SHG786480:SHR786484 SRC786480:SRN786484 TAY786480:TBJ786484 TKU786480:TLF786484 TUQ786480:TVB786484 UEM786480:UEX786484 UOI786480:UOT786484 UYE786480:UYP786484 VIA786480:VIL786484 VRW786480:VSH786484 WBS786480:WCD786484 WLO786480:WLZ786484 WVK786480:WVV786484 SU852016:TF852020 ACQ852016:ADB852020 AMM852016:AMX852020 AWI852016:AWT852020 BGE852016:BGP852020 BQA852016:BQL852020 BZW852016:CAH852020 CJS852016:CKD852020 CTO852016:CTZ852020 DDK852016:DDV852020 DNG852016:DNR852020 DXC852016:DXN852020 EGY852016:EHJ852020 EQU852016:ERF852020 FAQ852016:FBB852020 FKM852016:FKX852020 FUI852016:FUT852020 GEE852016:GEP852020 GOA852016:GOL852020 GXW852016:GYH852020 HHS852016:HID852020 HRO852016:HRZ852020 IBK852016:IBV852020 ILG852016:ILR852020 IVC852016:IVN852020 JEY852016:JFJ852020 JOU852016:JPF852020 JYQ852016:JZB852020 KIM852016:KIX852020 KSI852016:KST852020 LCE852016:LCP852020 LMA852016:LML852020 LVW852016:LWH852020 MFS852016:MGD852020 MPO852016:MPZ852020 MZK852016:MZV852020 NJG852016:NJR852020 NTC852016:NTN852020 OCY852016:ODJ852020 OMU852016:ONF852020 OWQ852016:OXB852020 PGM852016:PGX852020 PQI852016:PQT852020 QAE852016:QAP852020 QKA852016:QKL852020 QTW852016:QUH852020 RDS852016:RED852020 RNO852016:RNZ852020 RXK852016:RXV852020 SHG852016:SHR852020 SRC852016:SRN852020 TAY852016:TBJ852020 TKU852016:TLF852020 TUQ852016:TVB852020 UEM852016:UEX852020 UOI852016:UOT852020 UYE852016:UYP852020 VIA852016:VIL852020 VRW852016:VSH852020 WBS852016:WCD852020 WLO852016:WLZ852020 WVK852016:WVV852020 SU917552:TF917556 ACQ917552:ADB917556 AMM917552:AMX917556 AWI917552:AWT917556 BGE917552:BGP917556 BQA917552:BQL917556 BZW917552:CAH917556 CJS917552:CKD917556 CTO917552:CTZ917556 DDK917552:DDV917556 DNG917552:DNR917556 DXC917552:DXN917556 EGY917552:EHJ917556 EQU917552:ERF917556 FAQ917552:FBB917556 FKM917552:FKX917556 FUI917552:FUT917556 GEE917552:GEP917556 GOA917552:GOL917556 GXW917552:GYH917556 HHS917552:HID917556 HRO917552:HRZ917556 IBK917552:IBV917556 ILG917552:ILR917556 IVC917552:IVN917556 JEY917552:JFJ917556 JOU917552:JPF917556 JYQ917552:JZB917556 KIM917552:KIX917556 KSI917552:KST917556 LCE917552:LCP917556 LMA917552:LML917556 LVW917552:LWH917556 MFS917552:MGD917556 MPO917552:MPZ917556 MZK917552:MZV917556 NJG917552:NJR917556 NTC917552:NTN917556 OCY917552:ODJ917556 OMU917552:ONF917556 OWQ917552:OXB917556 PGM917552:PGX917556 PQI917552:PQT917556 QAE917552:QAP917556 QKA917552:QKL917556 QTW917552:QUH917556 RDS917552:RED917556 RNO917552:RNZ917556 RXK917552:RXV917556 SHG917552:SHR917556 SRC917552:SRN917556 TAY917552:TBJ917556 TKU917552:TLF917556 TUQ917552:TVB917556 UEM917552:UEX917556 UOI917552:UOT917556 UYE917552:UYP917556 VIA917552:VIL917556 VRW917552:VSH917556 WBS917552:WCD917556 WLO917552:WLZ917556 WVK917552:WVV917556 WVK983088:WVV983092 SU983088:TF983092 ACQ983088:ADB983092 AMM983088:AMX983092 AWI983088:AWT983092 BGE983088:BGP983092 BQA983088:BQL983092 BZW983088:CAH983092 CJS983088:CKD983092 CTO983088:CTZ983092 DDK983088:DDV983092 DNG983088:DNR983092 DXC983088:DXN983092 EGY983088:EHJ983092 EQU983088:ERF983092 FAQ983088:FBB983092 FKM983088:FKX983092 FUI983088:FUT983092 GEE983088:GEP983092 GOA983088:GOL983092 GXW983088:GYH983092 HHS983088:HID983092 HRO983088:HRZ983092 IBK983088:IBV983092 ILG983088:ILR983092 IVC983088:IVN983092 JEY983088:JFJ983092 JOU983088:JPF983092 JYQ983088:JZB983092 KIM983088:KIX983092 KSI983088:KST983092 LCE983088:LCP983092 LMA983088:LML983092 LVW983088:LWH983092 MFS983088:MGD983092 MPO983088:MPZ983092 MZK983088:MZV983092 NJG983088:NJR983092 NTC983088:NTN983092 OCY983088:ODJ983092 OMU983088:ONF983092 OWQ983088:OXB983092 PGM983088:PGX983092 PQI983088:PQT983092 QAE983088:QAP983092 QKA983088:QKL983092 QTW983088:QUH983092 RDS983088:RED983092 RNO983088:RNZ983092 RXK983088:RXV983092 SHG983088:SHR983092 SRC983088:SRN983092 TAY983088:TBJ983092 TKU983088:TLF983092 TUQ983088:TVB983092 UEM983088:UEX983092 UOI983088:UOT983092 UYE983088:UYP983092 VIA983088:VIL983092 VRW983088:VSH983092 WBS983088:WCD983092 WLO983088:WLZ983092 IY50:IY54 C917556:M917560 C852020:M852024 C786484:M786488 C720948:M720952 C655412:M655416 C589876:M589880 C524340:M524344 C458804:M458808 C393268:M393272 C327732:M327736 C262196:M262200 C196660:M196664 C131124:M131128 C65588:M65592 C983092:M983096 IY983092:IY983096 IZ983088:JJ983092 IY917556:IY917560 IZ917552:JJ917556 IY852020:IY852024 IZ852016:JJ852020 IY786484:IY786488 IZ786480:JJ786484 IY720948:IY720952 IZ720944:JJ720948 IY655412:IY655416 IZ655408:JJ655412 IY589876:IY589880 IZ589872:JJ589876 IY524340:IY524344 IZ524336:JJ524340 IY458804:IY458808 IZ458800:JJ458804 IY393268:IY393272 IZ393264:JJ393268 IY327732:IY327736 IZ327728:JJ327732 IY262196:IY262200 IZ262192:JJ262196 IY196660:IY196664 IZ196656:JJ196660 IY131124:IY131128 IZ131120:JJ131124 IY65588:IY65592 IZ65584:JJ65588 IZ46:JJ50 C50:M54"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JI65542:JI65581 TE65542:TE65581 ADA65542:ADA65581 AMW65542:AMW65581 AWS65542:AWS65581 BGO65542:BGO65581 BQK65542:BQK65581 CAG65542:CAG65581 CKC65542:CKC65581 CTY65542:CTY65581 DDU65542:DDU65581 DNQ65542:DNQ65581 DXM65542:DXM65581 EHI65542:EHI65581 ERE65542:ERE65581 FBA65542:FBA65581 FKW65542:FKW65581 FUS65542:FUS65581 GEO65542:GEO65581 GOK65542:GOK65581 GYG65542:GYG65581 HIC65542:HIC65581 HRY65542:HRY65581 IBU65542:IBU65581 ILQ65542:ILQ65581 IVM65542:IVM65581 JFI65542:JFI65581 JPE65542:JPE65581 JZA65542:JZA65581 KIW65542:KIW65581 KSS65542:KSS65581 LCO65542:LCO65581 LMK65542:LMK65581 LWG65542:LWG65581 MGC65542:MGC65581 MPY65542:MPY65581 MZU65542:MZU65581 NJQ65542:NJQ65581 NTM65542:NTM65581 ODI65542:ODI65581 ONE65542:ONE65581 OXA65542:OXA65581 PGW65542:PGW65581 PQS65542:PQS65581 QAO65542:QAO65581 QKK65542:QKK65581 QUG65542:QUG65581 REC65542:REC65581 RNY65542:RNY65581 RXU65542:RXU65581 SHQ65542:SHQ65581 SRM65542:SRM65581 TBI65542:TBI65581 TLE65542:TLE65581 TVA65542:TVA65581 UEW65542:UEW65581 UOS65542:UOS65581 UYO65542:UYO65581 VIK65542:VIK65581 VSG65542:VSG65581 WCC65542:WCC65581 WLY65542:WLY65581 WVU65542:WVU65581 JI131078:JI131117 TE131078:TE131117 ADA131078:ADA131117 AMW131078:AMW131117 AWS131078:AWS131117 BGO131078:BGO131117 BQK131078:BQK131117 CAG131078:CAG131117 CKC131078:CKC131117 CTY131078:CTY131117 DDU131078:DDU131117 DNQ131078:DNQ131117 DXM131078:DXM131117 EHI131078:EHI131117 ERE131078:ERE131117 FBA131078:FBA131117 FKW131078:FKW131117 FUS131078:FUS131117 GEO131078:GEO131117 GOK131078:GOK131117 GYG131078:GYG131117 HIC131078:HIC131117 HRY131078:HRY131117 IBU131078:IBU131117 ILQ131078:ILQ131117 IVM131078:IVM131117 JFI131078:JFI131117 JPE131078:JPE131117 JZA131078:JZA131117 KIW131078:KIW131117 KSS131078:KSS131117 LCO131078:LCO131117 LMK131078:LMK131117 LWG131078:LWG131117 MGC131078:MGC131117 MPY131078:MPY131117 MZU131078:MZU131117 NJQ131078:NJQ131117 NTM131078:NTM131117 ODI131078:ODI131117 ONE131078:ONE131117 OXA131078:OXA131117 PGW131078:PGW131117 PQS131078:PQS131117 QAO131078:QAO131117 QKK131078:QKK131117 QUG131078:QUG131117 REC131078:REC131117 RNY131078:RNY131117 RXU131078:RXU131117 SHQ131078:SHQ131117 SRM131078:SRM131117 TBI131078:TBI131117 TLE131078:TLE131117 TVA131078:TVA131117 UEW131078:UEW131117 UOS131078:UOS131117 UYO131078:UYO131117 VIK131078:VIK131117 VSG131078:VSG131117 WCC131078:WCC131117 WLY131078:WLY131117 WVU131078:WVU131117 JI196614:JI196653 TE196614:TE196653 ADA196614:ADA196653 AMW196614:AMW196653 AWS196614:AWS196653 BGO196614:BGO196653 BQK196614:BQK196653 CAG196614:CAG196653 CKC196614:CKC196653 CTY196614:CTY196653 DDU196614:DDU196653 DNQ196614:DNQ196653 DXM196614:DXM196653 EHI196614:EHI196653 ERE196614:ERE196653 FBA196614:FBA196653 FKW196614:FKW196653 FUS196614:FUS196653 GEO196614:GEO196653 GOK196614:GOK196653 GYG196614:GYG196653 HIC196614:HIC196653 HRY196614:HRY196653 IBU196614:IBU196653 ILQ196614:ILQ196653 IVM196614:IVM196653 JFI196614:JFI196653 JPE196614:JPE196653 JZA196614:JZA196653 KIW196614:KIW196653 KSS196614:KSS196653 LCO196614:LCO196653 LMK196614:LMK196653 LWG196614:LWG196653 MGC196614:MGC196653 MPY196614:MPY196653 MZU196614:MZU196653 NJQ196614:NJQ196653 NTM196614:NTM196653 ODI196614:ODI196653 ONE196614:ONE196653 OXA196614:OXA196653 PGW196614:PGW196653 PQS196614:PQS196653 QAO196614:QAO196653 QKK196614:QKK196653 QUG196614:QUG196653 REC196614:REC196653 RNY196614:RNY196653 RXU196614:RXU196653 SHQ196614:SHQ196653 SRM196614:SRM196653 TBI196614:TBI196653 TLE196614:TLE196653 TVA196614:TVA196653 UEW196614:UEW196653 UOS196614:UOS196653 UYO196614:UYO196653 VIK196614:VIK196653 VSG196614:VSG196653 WCC196614:WCC196653 WLY196614:WLY196653 WVU196614:WVU196653 JI262150:JI262189 TE262150:TE262189 ADA262150:ADA262189 AMW262150:AMW262189 AWS262150:AWS262189 BGO262150:BGO262189 BQK262150:BQK262189 CAG262150:CAG262189 CKC262150:CKC262189 CTY262150:CTY262189 DDU262150:DDU262189 DNQ262150:DNQ262189 DXM262150:DXM262189 EHI262150:EHI262189 ERE262150:ERE262189 FBA262150:FBA262189 FKW262150:FKW262189 FUS262150:FUS262189 GEO262150:GEO262189 GOK262150:GOK262189 GYG262150:GYG262189 HIC262150:HIC262189 HRY262150:HRY262189 IBU262150:IBU262189 ILQ262150:ILQ262189 IVM262150:IVM262189 JFI262150:JFI262189 JPE262150:JPE262189 JZA262150:JZA262189 KIW262150:KIW262189 KSS262150:KSS262189 LCO262150:LCO262189 LMK262150:LMK262189 LWG262150:LWG262189 MGC262150:MGC262189 MPY262150:MPY262189 MZU262150:MZU262189 NJQ262150:NJQ262189 NTM262150:NTM262189 ODI262150:ODI262189 ONE262150:ONE262189 OXA262150:OXA262189 PGW262150:PGW262189 PQS262150:PQS262189 QAO262150:QAO262189 QKK262150:QKK262189 QUG262150:QUG262189 REC262150:REC262189 RNY262150:RNY262189 RXU262150:RXU262189 SHQ262150:SHQ262189 SRM262150:SRM262189 TBI262150:TBI262189 TLE262150:TLE262189 TVA262150:TVA262189 UEW262150:UEW262189 UOS262150:UOS262189 UYO262150:UYO262189 VIK262150:VIK262189 VSG262150:VSG262189 WCC262150:WCC262189 WLY262150:WLY262189 WVU262150:WVU262189 JI327686:JI327725 TE327686:TE327725 ADA327686:ADA327725 AMW327686:AMW327725 AWS327686:AWS327725 BGO327686:BGO327725 BQK327686:BQK327725 CAG327686:CAG327725 CKC327686:CKC327725 CTY327686:CTY327725 DDU327686:DDU327725 DNQ327686:DNQ327725 DXM327686:DXM327725 EHI327686:EHI327725 ERE327686:ERE327725 FBA327686:FBA327725 FKW327686:FKW327725 FUS327686:FUS327725 GEO327686:GEO327725 GOK327686:GOK327725 GYG327686:GYG327725 HIC327686:HIC327725 HRY327686:HRY327725 IBU327686:IBU327725 ILQ327686:ILQ327725 IVM327686:IVM327725 JFI327686:JFI327725 JPE327686:JPE327725 JZA327686:JZA327725 KIW327686:KIW327725 KSS327686:KSS327725 LCO327686:LCO327725 LMK327686:LMK327725 LWG327686:LWG327725 MGC327686:MGC327725 MPY327686:MPY327725 MZU327686:MZU327725 NJQ327686:NJQ327725 NTM327686:NTM327725 ODI327686:ODI327725 ONE327686:ONE327725 OXA327686:OXA327725 PGW327686:PGW327725 PQS327686:PQS327725 QAO327686:QAO327725 QKK327686:QKK327725 QUG327686:QUG327725 REC327686:REC327725 RNY327686:RNY327725 RXU327686:RXU327725 SHQ327686:SHQ327725 SRM327686:SRM327725 TBI327686:TBI327725 TLE327686:TLE327725 TVA327686:TVA327725 UEW327686:UEW327725 UOS327686:UOS327725 UYO327686:UYO327725 VIK327686:VIK327725 VSG327686:VSG327725 WCC327686:WCC327725 WLY327686:WLY327725 WVU327686:WVU327725 JI393222:JI393261 TE393222:TE393261 ADA393222:ADA393261 AMW393222:AMW393261 AWS393222:AWS393261 BGO393222:BGO393261 BQK393222:BQK393261 CAG393222:CAG393261 CKC393222:CKC393261 CTY393222:CTY393261 DDU393222:DDU393261 DNQ393222:DNQ393261 DXM393222:DXM393261 EHI393222:EHI393261 ERE393222:ERE393261 FBA393222:FBA393261 FKW393222:FKW393261 FUS393222:FUS393261 GEO393222:GEO393261 GOK393222:GOK393261 GYG393222:GYG393261 HIC393222:HIC393261 HRY393222:HRY393261 IBU393222:IBU393261 ILQ393222:ILQ393261 IVM393222:IVM393261 JFI393222:JFI393261 JPE393222:JPE393261 JZA393222:JZA393261 KIW393222:KIW393261 KSS393222:KSS393261 LCO393222:LCO393261 LMK393222:LMK393261 LWG393222:LWG393261 MGC393222:MGC393261 MPY393222:MPY393261 MZU393222:MZU393261 NJQ393222:NJQ393261 NTM393222:NTM393261 ODI393222:ODI393261 ONE393222:ONE393261 OXA393222:OXA393261 PGW393222:PGW393261 PQS393222:PQS393261 QAO393222:QAO393261 QKK393222:QKK393261 QUG393222:QUG393261 REC393222:REC393261 RNY393222:RNY393261 RXU393222:RXU393261 SHQ393222:SHQ393261 SRM393222:SRM393261 TBI393222:TBI393261 TLE393222:TLE393261 TVA393222:TVA393261 UEW393222:UEW393261 UOS393222:UOS393261 UYO393222:UYO393261 VIK393222:VIK393261 VSG393222:VSG393261 WCC393222:WCC393261 WLY393222:WLY393261 WVU393222:WVU393261 JI458758:JI458797 TE458758:TE458797 ADA458758:ADA458797 AMW458758:AMW458797 AWS458758:AWS458797 BGO458758:BGO458797 BQK458758:BQK458797 CAG458758:CAG458797 CKC458758:CKC458797 CTY458758:CTY458797 DDU458758:DDU458797 DNQ458758:DNQ458797 DXM458758:DXM458797 EHI458758:EHI458797 ERE458758:ERE458797 FBA458758:FBA458797 FKW458758:FKW458797 FUS458758:FUS458797 GEO458758:GEO458797 GOK458758:GOK458797 GYG458758:GYG458797 HIC458758:HIC458797 HRY458758:HRY458797 IBU458758:IBU458797 ILQ458758:ILQ458797 IVM458758:IVM458797 JFI458758:JFI458797 JPE458758:JPE458797 JZA458758:JZA458797 KIW458758:KIW458797 KSS458758:KSS458797 LCO458758:LCO458797 LMK458758:LMK458797 LWG458758:LWG458797 MGC458758:MGC458797 MPY458758:MPY458797 MZU458758:MZU458797 NJQ458758:NJQ458797 NTM458758:NTM458797 ODI458758:ODI458797 ONE458758:ONE458797 OXA458758:OXA458797 PGW458758:PGW458797 PQS458758:PQS458797 QAO458758:QAO458797 QKK458758:QKK458797 QUG458758:QUG458797 REC458758:REC458797 RNY458758:RNY458797 RXU458758:RXU458797 SHQ458758:SHQ458797 SRM458758:SRM458797 TBI458758:TBI458797 TLE458758:TLE458797 TVA458758:TVA458797 UEW458758:UEW458797 UOS458758:UOS458797 UYO458758:UYO458797 VIK458758:VIK458797 VSG458758:VSG458797 WCC458758:WCC458797 WLY458758:WLY458797 WVU458758:WVU458797 JI524294:JI524333 TE524294:TE524333 ADA524294:ADA524333 AMW524294:AMW524333 AWS524294:AWS524333 BGO524294:BGO524333 BQK524294:BQK524333 CAG524294:CAG524333 CKC524294:CKC524333 CTY524294:CTY524333 DDU524294:DDU524333 DNQ524294:DNQ524333 DXM524294:DXM524333 EHI524294:EHI524333 ERE524294:ERE524333 FBA524294:FBA524333 FKW524294:FKW524333 FUS524294:FUS524333 GEO524294:GEO524333 GOK524294:GOK524333 GYG524294:GYG524333 HIC524294:HIC524333 HRY524294:HRY524333 IBU524294:IBU524333 ILQ524294:ILQ524333 IVM524294:IVM524333 JFI524294:JFI524333 JPE524294:JPE524333 JZA524294:JZA524333 KIW524294:KIW524333 KSS524294:KSS524333 LCO524294:LCO524333 LMK524294:LMK524333 LWG524294:LWG524333 MGC524294:MGC524333 MPY524294:MPY524333 MZU524294:MZU524333 NJQ524294:NJQ524333 NTM524294:NTM524333 ODI524294:ODI524333 ONE524294:ONE524333 OXA524294:OXA524333 PGW524294:PGW524333 PQS524294:PQS524333 QAO524294:QAO524333 QKK524294:QKK524333 QUG524294:QUG524333 REC524294:REC524333 RNY524294:RNY524333 RXU524294:RXU524333 SHQ524294:SHQ524333 SRM524294:SRM524333 TBI524294:TBI524333 TLE524294:TLE524333 TVA524294:TVA524333 UEW524294:UEW524333 UOS524294:UOS524333 UYO524294:UYO524333 VIK524294:VIK524333 VSG524294:VSG524333 WCC524294:WCC524333 WLY524294:WLY524333 WVU524294:WVU524333 JI589830:JI589869 TE589830:TE589869 ADA589830:ADA589869 AMW589830:AMW589869 AWS589830:AWS589869 BGO589830:BGO589869 BQK589830:BQK589869 CAG589830:CAG589869 CKC589830:CKC589869 CTY589830:CTY589869 DDU589830:DDU589869 DNQ589830:DNQ589869 DXM589830:DXM589869 EHI589830:EHI589869 ERE589830:ERE589869 FBA589830:FBA589869 FKW589830:FKW589869 FUS589830:FUS589869 GEO589830:GEO589869 GOK589830:GOK589869 GYG589830:GYG589869 HIC589830:HIC589869 HRY589830:HRY589869 IBU589830:IBU589869 ILQ589830:ILQ589869 IVM589830:IVM589869 JFI589830:JFI589869 JPE589830:JPE589869 JZA589830:JZA589869 KIW589830:KIW589869 KSS589830:KSS589869 LCO589830:LCO589869 LMK589830:LMK589869 LWG589830:LWG589869 MGC589830:MGC589869 MPY589830:MPY589869 MZU589830:MZU589869 NJQ589830:NJQ589869 NTM589830:NTM589869 ODI589830:ODI589869 ONE589830:ONE589869 OXA589830:OXA589869 PGW589830:PGW589869 PQS589830:PQS589869 QAO589830:QAO589869 QKK589830:QKK589869 QUG589830:QUG589869 REC589830:REC589869 RNY589830:RNY589869 RXU589830:RXU589869 SHQ589830:SHQ589869 SRM589830:SRM589869 TBI589830:TBI589869 TLE589830:TLE589869 TVA589830:TVA589869 UEW589830:UEW589869 UOS589830:UOS589869 UYO589830:UYO589869 VIK589830:VIK589869 VSG589830:VSG589869 WCC589830:WCC589869 WLY589830:WLY589869 WVU589830:WVU589869 JI655366:JI655405 TE655366:TE655405 ADA655366:ADA655405 AMW655366:AMW655405 AWS655366:AWS655405 BGO655366:BGO655405 BQK655366:BQK655405 CAG655366:CAG655405 CKC655366:CKC655405 CTY655366:CTY655405 DDU655366:DDU655405 DNQ655366:DNQ655405 DXM655366:DXM655405 EHI655366:EHI655405 ERE655366:ERE655405 FBA655366:FBA655405 FKW655366:FKW655405 FUS655366:FUS655405 GEO655366:GEO655405 GOK655366:GOK655405 GYG655366:GYG655405 HIC655366:HIC655405 HRY655366:HRY655405 IBU655366:IBU655405 ILQ655366:ILQ655405 IVM655366:IVM655405 JFI655366:JFI655405 JPE655366:JPE655405 JZA655366:JZA655405 KIW655366:KIW655405 KSS655366:KSS655405 LCO655366:LCO655405 LMK655366:LMK655405 LWG655366:LWG655405 MGC655366:MGC655405 MPY655366:MPY655405 MZU655366:MZU655405 NJQ655366:NJQ655405 NTM655366:NTM655405 ODI655366:ODI655405 ONE655366:ONE655405 OXA655366:OXA655405 PGW655366:PGW655405 PQS655366:PQS655405 QAO655366:QAO655405 QKK655366:QKK655405 QUG655366:QUG655405 REC655366:REC655405 RNY655366:RNY655405 RXU655366:RXU655405 SHQ655366:SHQ655405 SRM655366:SRM655405 TBI655366:TBI655405 TLE655366:TLE655405 TVA655366:TVA655405 UEW655366:UEW655405 UOS655366:UOS655405 UYO655366:UYO655405 VIK655366:VIK655405 VSG655366:VSG655405 WCC655366:WCC655405 WLY655366:WLY655405 WVU655366:WVU655405 JI720902:JI720941 TE720902:TE720941 ADA720902:ADA720941 AMW720902:AMW720941 AWS720902:AWS720941 BGO720902:BGO720941 BQK720902:BQK720941 CAG720902:CAG720941 CKC720902:CKC720941 CTY720902:CTY720941 DDU720902:DDU720941 DNQ720902:DNQ720941 DXM720902:DXM720941 EHI720902:EHI720941 ERE720902:ERE720941 FBA720902:FBA720941 FKW720902:FKW720941 FUS720902:FUS720941 GEO720902:GEO720941 GOK720902:GOK720941 GYG720902:GYG720941 HIC720902:HIC720941 HRY720902:HRY720941 IBU720902:IBU720941 ILQ720902:ILQ720941 IVM720902:IVM720941 JFI720902:JFI720941 JPE720902:JPE720941 JZA720902:JZA720941 KIW720902:KIW720941 KSS720902:KSS720941 LCO720902:LCO720941 LMK720902:LMK720941 LWG720902:LWG720941 MGC720902:MGC720941 MPY720902:MPY720941 MZU720902:MZU720941 NJQ720902:NJQ720941 NTM720902:NTM720941 ODI720902:ODI720941 ONE720902:ONE720941 OXA720902:OXA720941 PGW720902:PGW720941 PQS720902:PQS720941 QAO720902:QAO720941 QKK720902:QKK720941 QUG720902:QUG720941 REC720902:REC720941 RNY720902:RNY720941 RXU720902:RXU720941 SHQ720902:SHQ720941 SRM720902:SRM720941 TBI720902:TBI720941 TLE720902:TLE720941 TVA720902:TVA720941 UEW720902:UEW720941 UOS720902:UOS720941 UYO720902:UYO720941 VIK720902:VIK720941 VSG720902:VSG720941 WCC720902:WCC720941 WLY720902:WLY720941 WVU720902:WVU720941 JI786438:JI786477 TE786438:TE786477 ADA786438:ADA786477 AMW786438:AMW786477 AWS786438:AWS786477 BGO786438:BGO786477 BQK786438:BQK786477 CAG786438:CAG786477 CKC786438:CKC786477 CTY786438:CTY786477 DDU786438:DDU786477 DNQ786438:DNQ786477 DXM786438:DXM786477 EHI786438:EHI786477 ERE786438:ERE786477 FBA786438:FBA786477 FKW786438:FKW786477 FUS786438:FUS786477 GEO786438:GEO786477 GOK786438:GOK786477 GYG786438:GYG786477 HIC786438:HIC786477 HRY786438:HRY786477 IBU786438:IBU786477 ILQ786438:ILQ786477 IVM786438:IVM786477 JFI786438:JFI786477 JPE786438:JPE786477 JZA786438:JZA786477 KIW786438:KIW786477 KSS786438:KSS786477 LCO786438:LCO786477 LMK786438:LMK786477 LWG786438:LWG786477 MGC786438:MGC786477 MPY786438:MPY786477 MZU786438:MZU786477 NJQ786438:NJQ786477 NTM786438:NTM786477 ODI786438:ODI786477 ONE786438:ONE786477 OXA786438:OXA786477 PGW786438:PGW786477 PQS786438:PQS786477 QAO786438:QAO786477 QKK786438:QKK786477 QUG786438:QUG786477 REC786438:REC786477 RNY786438:RNY786477 RXU786438:RXU786477 SHQ786438:SHQ786477 SRM786438:SRM786477 TBI786438:TBI786477 TLE786438:TLE786477 TVA786438:TVA786477 UEW786438:UEW786477 UOS786438:UOS786477 UYO786438:UYO786477 VIK786438:VIK786477 VSG786438:VSG786477 WCC786438:WCC786477 WLY786438:WLY786477 WVU786438:WVU786477 JI851974:JI852013 TE851974:TE852013 ADA851974:ADA852013 AMW851974:AMW852013 AWS851974:AWS852013 BGO851974:BGO852013 BQK851974:BQK852013 CAG851974:CAG852013 CKC851974:CKC852013 CTY851974:CTY852013 DDU851974:DDU852013 DNQ851974:DNQ852013 DXM851974:DXM852013 EHI851974:EHI852013 ERE851974:ERE852013 FBA851974:FBA852013 FKW851974:FKW852013 FUS851974:FUS852013 GEO851974:GEO852013 GOK851974:GOK852013 GYG851974:GYG852013 HIC851974:HIC852013 HRY851974:HRY852013 IBU851974:IBU852013 ILQ851974:ILQ852013 IVM851974:IVM852013 JFI851974:JFI852013 JPE851974:JPE852013 JZA851974:JZA852013 KIW851974:KIW852013 KSS851974:KSS852013 LCO851974:LCO852013 LMK851974:LMK852013 LWG851974:LWG852013 MGC851974:MGC852013 MPY851974:MPY852013 MZU851974:MZU852013 NJQ851974:NJQ852013 NTM851974:NTM852013 ODI851974:ODI852013 ONE851974:ONE852013 OXA851974:OXA852013 PGW851974:PGW852013 PQS851974:PQS852013 QAO851974:QAO852013 QKK851974:QKK852013 QUG851974:QUG852013 REC851974:REC852013 RNY851974:RNY852013 RXU851974:RXU852013 SHQ851974:SHQ852013 SRM851974:SRM852013 TBI851974:TBI852013 TLE851974:TLE852013 TVA851974:TVA852013 UEW851974:UEW852013 UOS851974:UOS852013 UYO851974:UYO852013 VIK851974:VIK852013 VSG851974:VSG852013 WCC851974:WCC852013 WLY851974:WLY852013 WVU851974:WVU852013 JI917510:JI917549 TE917510:TE917549 ADA917510:ADA917549 AMW917510:AMW917549 AWS917510:AWS917549 BGO917510:BGO917549 BQK917510:BQK917549 CAG917510:CAG917549 CKC917510:CKC917549 CTY917510:CTY917549 DDU917510:DDU917549 DNQ917510:DNQ917549 DXM917510:DXM917549 EHI917510:EHI917549 ERE917510:ERE917549 FBA917510:FBA917549 FKW917510:FKW917549 FUS917510:FUS917549 GEO917510:GEO917549 GOK917510:GOK917549 GYG917510:GYG917549 HIC917510:HIC917549 HRY917510:HRY917549 IBU917510:IBU917549 ILQ917510:ILQ917549 IVM917510:IVM917549 JFI917510:JFI917549 JPE917510:JPE917549 JZA917510:JZA917549 KIW917510:KIW917549 KSS917510:KSS917549 LCO917510:LCO917549 LMK917510:LMK917549 LWG917510:LWG917549 MGC917510:MGC917549 MPY917510:MPY917549 MZU917510:MZU917549 NJQ917510:NJQ917549 NTM917510:NTM917549 ODI917510:ODI917549 ONE917510:ONE917549 OXA917510:OXA917549 PGW917510:PGW917549 PQS917510:PQS917549 QAO917510:QAO917549 QKK917510:QKK917549 QUG917510:QUG917549 REC917510:REC917549 RNY917510:RNY917549 RXU917510:RXU917549 SHQ917510:SHQ917549 SRM917510:SRM917549 TBI917510:TBI917549 TLE917510:TLE917549 TVA917510:TVA917549 UEW917510:UEW917549 UOS917510:UOS917549 UYO917510:UYO917549 VIK917510:VIK917549 VSG917510:VSG917549 WCC917510:WCC917549 WLY917510:WLY917549 WVU917510:WVU917549 JI983046:JI983085 TE983046:TE983085 ADA983046:ADA983085 AMW983046:AMW983085 AWS983046:AWS983085 BGO983046:BGO983085 BQK983046:BQK983085 CAG983046:CAG983085 CKC983046:CKC983085 CTY983046:CTY983085 DDU983046:DDU983085 DNQ983046:DNQ983085 DXM983046:DXM983085 EHI983046:EHI983085 ERE983046:ERE983085 FBA983046:FBA983085 FKW983046:FKW983085 FUS983046:FUS983085 GEO983046:GEO983085 GOK983046:GOK983085 GYG983046:GYG983085 HIC983046:HIC983085 HRY983046:HRY983085 IBU983046:IBU983085 ILQ983046:ILQ983085 IVM983046:IVM983085 JFI983046:JFI983085 JPE983046:JPE983085 JZA983046:JZA983085 KIW983046:KIW983085 KSS983046:KSS983085 LCO983046:LCO983085 LMK983046:LMK983085 LWG983046:LWG983085 MGC983046:MGC983085 MPY983046:MPY983085 MZU983046:MZU983085 NJQ983046:NJQ983085 NTM983046:NTM983085 ODI983046:ODI983085 ONE983046:ONE983085 OXA983046:OXA983085 PGW983046:PGW983085 PQS983046:PQS983085 QAO983046:QAO983085 QKK983046:QKK983085 QUG983046:QUG983085 REC983046:REC983085 RNY983046:RNY983085 RXU983046:RXU983085 SHQ983046:SHQ983085 SRM983046:SRM983085 TBI983046:TBI983085 TLE983046:TLE983085 TVA983046:TVA983085 UEW983046:UEW983085 UOS983046:UOS983085 UYO983046:UYO983085 VIK983046:VIK983085 VSG983046:VSG983085 WCC983046:WCC983085 WLY983046:WLY983085 WVU983046:WVU983085 WVU5:WVU43 WLY5:WLY43 WCC5:WCC43 VSG5:VSG43 VIK5:VIK43 UYO5:UYO43 UOS5:UOS43 UEW5:UEW43 TVA5:TVA43 TLE5:TLE43 TBI5:TBI43 SRM5:SRM43 SHQ5:SHQ43 RXU5:RXU43 RNY5:RNY43 REC5:REC43 QUG5:QUG43 QKK5:QKK43 QAO5:QAO43 PQS5:PQS43 PGW5:PGW43 OXA5:OXA43 ONE5:ONE43 ODI5:ODI43 NTM5:NTM43 NJQ5:NJQ43 MZU5:MZU43 MPY5:MPY43 MGC5:MGC43 LWG5:LWG43 LMK5:LMK43 LCO5:LCO43 KSS5:KSS43 KIW5:KIW43 JZA5:JZA43 JPE5:JPE43 JFI5:JFI43 IVM5:IVM43 ILQ5:ILQ43 IBU5:IBU43 HRY5:HRY43 HIC5:HIC43 GYG5:GYG43 GOK5:GOK43 GEO5:GEO43 FUS5:FUS43 FKW5:FKW43 FBA5:FBA43 ERE5:ERE43 EHI5:EHI43 DXM5:DXM43 DNQ5:DNQ43 DDU5:DDU43 CTY5:CTY43 CKC5:CKC43 CAG5:CAG43 BQK5:BQK43 BGO5:BGO43 AWS5:AWS43 AMW5:AMW43 ADA5:ADA43 TE5:TE43 JI5:JI43">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="يجب أن تكون القيمة بين 0 و 5" sqref="SU46:TF50 ACQ46:ADB50 AMM46:AMX50 AWI46:AWT50 BGE46:BGP50 BQA46:BQL50 BZW46:CAH50 CJS46:CKD50 CTO46:CTZ50 DDK46:DDV50 DNG46:DNR50 DXC46:DXN50 EGY46:EHJ50 EQU46:ERF50 FAQ46:FBB50 FKM46:FKX50 FUI46:FUT50 GEE46:GEP50 GOA46:GOL50 GXW46:GYH50 HHS46:HID50 HRO46:HRZ50 IBK46:IBV50 ILG46:ILR50 IVC46:IVN50 JEY46:JFJ50 JOU46:JPF50 JYQ46:JZB50 KIM46:KIX50 KSI46:KST50 LCE46:LCP50 LMA46:LML50 LVW46:LWH50 MFS46:MGD50 MPO46:MPZ50 MZK46:MZV50 NJG46:NJR50 NTC46:NTN50 OCY46:ODJ50 OMU46:ONF50 OWQ46:OXB50 PGM46:PGX50 PQI46:PQT50 QAE46:QAP50 QKA46:QKL50 QTW46:QUH50 RDS46:RED50 RNO46:RNZ50 RXK46:RXV50 SHG46:SHR50 SRC46:SRN50 TAY46:TBJ50 TKU46:TLF50 TUQ46:TVB50 UEM46:UEX50 UOI46:UOT50 UYE46:UYP50 VIA46:VIL50 VRW46:VSH50 WBS46:WCD50 WLO46:WLZ50 WVK46:WVV50 SU65584:TF65588 ACQ65584:ADB65588 AMM65584:AMX65588 AWI65584:AWT65588 BGE65584:BGP65588 BQA65584:BQL65588 BZW65584:CAH65588 CJS65584:CKD65588 CTO65584:CTZ65588 DDK65584:DDV65588 DNG65584:DNR65588 DXC65584:DXN65588 EGY65584:EHJ65588 EQU65584:ERF65588 FAQ65584:FBB65588 FKM65584:FKX65588 FUI65584:FUT65588 GEE65584:GEP65588 GOA65584:GOL65588 GXW65584:GYH65588 HHS65584:HID65588 HRO65584:HRZ65588 IBK65584:IBV65588 ILG65584:ILR65588 IVC65584:IVN65588 JEY65584:JFJ65588 JOU65584:JPF65588 JYQ65584:JZB65588 KIM65584:KIX65588 KSI65584:KST65588 LCE65584:LCP65588 LMA65584:LML65588 LVW65584:LWH65588 MFS65584:MGD65588 MPO65584:MPZ65588 MZK65584:MZV65588 NJG65584:NJR65588 NTC65584:NTN65588 OCY65584:ODJ65588 OMU65584:ONF65588 OWQ65584:OXB65588 PGM65584:PGX65588 PQI65584:PQT65588 QAE65584:QAP65588 QKA65584:QKL65588 QTW65584:QUH65588 RDS65584:RED65588 RNO65584:RNZ65588 RXK65584:RXV65588 SHG65584:SHR65588 SRC65584:SRN65588 TAY65584:TBJ65588 TKU65584:TLF65588 TUQ65584:TVB65588 UEM65584:UEX65588 UOI65584:UOT65588 UYE65584:UYP65588 VIA65584:VIL65588 VRW65584:VSH65588 WBS65584:WCD65588 WLO65584:WLZ65588 WVK65584:WVV65588 SU131120:TF131124 ACQ131120:ADB131124 AMM131120:AMX131124 AWI131120:AWT131124 BGE131120:BGP131124 BQA131120:BQL131124 BZW131120:CAH131124 CJS131120:CKD131124 CTO131120:CTZ131124 DDK131120:DDV131124 DNG131120:DNR131124 DXC131120:DXN131124 EGY131120:EHJ131124 EQU131120:ERF131124 FAQ131120:FBB131124 FKM131120:FKX131124 FUI131120:FUT131124 GEE131120:GEP131124 GOA131120:GOL131124 GXW131120:GYH131124 HHS131120:HID131124 HRO131120:HRZ131124 IBK131120:IBV131124 ILG131120:ILR131124 IVC131120:IVN131124 JEY131120:JFJ131124 JOU131120:JPF131124 JYQ131120:JZB131124 KIM131120:KIX131124 KSI131120:KST131124 LCE131120:LCP131124 LMA131120:LML131124 LVW131120:LWH131124 MFS131120:MGD131124 MPO131120:MPZ131124 MZK131120:MZV131124 NJG131120:NJR131124 NTC131120:NTN131124 OCY131120:ODJ131124 OMU131120:ONF131124 OWQ131120:OXB131124 PGM131120:PGX131124 PQI131120:PQT131124 QAE131120:QAP131124 QKA131120:QKL131124 QTW131120:QUH131124 RDS131120:RED131124 RNO131120:RNZ131124 RXK131120:RXV131124 SHG131120:SHR131124 SRC131120:SRN131124 TAY131120:TBJ131124 TKU131120:TLF131124 TUQ131120:TVB131124 UEM131120:UEX131124 UOI131120:UOT131124 UYE131120:UYP131124 VIA131120:VIL131124 VRW131120:VSH131124 WBS131120:WCD131124 WLO131120:WLZ131124 WVK131120:WVV131124 SU196656:TF196660 ACQ196656:ADB196660 AMM196656:AMX196660 AWI196656:AWT196660 BGE196656:BGP196660 BQA196656:BQL196660 BZW196656:CAH196660 CJS196656:CKD196660 CTO196656:CTZ196660 DDK196656:DDV196660 DNG196656:DNR196660 DXC196656:DXN196660 EGY196656:EHJ196660 EQU196656:ERF196660 FAQ196656:FBB196660 FKM196656:FKX196660 FUI196656:FUT196660 GEE196656:GEP196660 GOA196656:GOL196660 GXW196656:GYH196660 HHS196656:HID196660 HRO196656:HRZ196660 IBK196656:IBV196660 ILG196656:ILR196660 IVC196656:IVN196660 JEY196656:JFJ196660 JOU196656:JPF196660 JYQ196656:JZB196660 KIM196656:KIX196660 KSI196656:KST196660 LCE196656:LCP196660 LMA196656:LML196660 LVW196656:LWH196660 MFS196656:MGD196660 MPO196656:MPZ196660 MZK196656:MZV196660 NJG196656:NJR196660 NTC196656:NTN196660 OCY196656:ODJ196660 OMU196656:ONF196660 OWQ196656:OXB196660 PGM196656:PGX196660 PQI196656:PQT196660 QAE196656:QAP196660 QKA196656:QKL196660 QTW196656:QUH196660 RDS196656:RED196660 RNO196656:RNZ196660 RXK196656:RXV196660 SHG196656:SHR196660 SRC196656:SRN196660 TAY196656:TBJ196660 TKU196656:TLF196660 TUQ196656:TVB196660 UEM196656:UEX196660 UOI196656:UOT196660 UYE196656:UYP196660 VIA196656:VIL196660 VRW196656:VSH196660 WBS196656:WCD196660 WLO196656:WLZ196660 WVK196656:WVV196660 SU262192:TF262196 ACQ262192:ADB262196 AMM262192:AMX262196 AWI262192:AWT262196 BGE262192:BGP262196 BQA262192:BQL262196 BZW262192:CAH262196 CJS262192:CKD262196 CTO262192:CTZ262196 DDK262192:DDV262196 DNG262192:DNR262196 DXC262192:DXN262196 EGY262192:EHJ262196 EQU262192:ERF262196 FAQ262192:FBB262196 FKM262192:FKX262196 FUI262192:FUT262196 GEE262192:GEP262196 GOA262192:GOL262196 GXW262192:GYH262196 HHS262192:HID262196 HRO262192:HRZ262196 IBK262192:IBV262196 ILG262192:ILR262196 IVC262192:IVN262196 JEY262192:JFJ262196 JOU262192:JPF262196 JYQ262192:JZB262196 KIM262192:KIX262196 KSI262192:KST262196 LCE262192:LCP262196 LMA262192:LML262196 LVW262192:LWH262196 MFS262192:MGD262196 MPO262192:MPZ262196 MZK262192:MZV262196 NJG262192:NJR262196 NTC262192:NTN262196 OCY262192:ODJ262196 OMU262192:ONF262196 OWQ262192:OXB262196 PGM262192:PGX262196 PQI262192:PQT262196 QAE262192:QAP262196 QKA262192:QKL262196 QTW262192:QUH262196 RDS262192:RED262196 RNO262192:RNZ262196 RXK262192:RXV262196 SHG262192:SHR262196 SRC262192:SRN262196 TAY262192:TBJ262196 TKU262192:TLF262196 TUQ262192:TVB262196 UEM262192:UEX262196 UOI262192:UOT262196 UYE262192:UYP262196 VIA262192:VIL262196 VRW262192:VSH262196 WBS262192:WCD262196 WLO262192:WLZ262196 WVK262192:WVV262196 SU327728:TF327732 ACQ327728:ADB327732 AMM327728:AMX327732 AWI327728:AWT327732 BGE327728:BGP327732 BQA327728:BQL327732 BZW327728:CAH327732 CJS327728:CKD327732 CTO327728:CTZ327732 DDK327728:DDV327732 DNG327728:DNR327732 DXC327728:DXN327732 EGY327728:EHJ327732 EQU327728:ERF327732 FAQ327728:FBB327732 FKM327728:FKX327732 FUI327728:FUT327732 GEE327728:GEP327732 GOA327728:GOL327732 GXW327728:GYH327732 HHS327728:HID327732 HRO327728:HRZ327732 IBK327728:IBV327732 ILG327728:ILR327732 IVC327728:IVN327732 JEY327728:JFJ327732 JOU327728:JPF327732 JYQ327728:JZB327732 KIM327728:KIX327732 KSI327728:KST327732 LCE327728:LCP327732 LMA327728:LML327732 LVW327728:LWH327732 MFS327728:MGD327732 MPO327728:MPZ327732 MZK327728:MZV327732 NJG327728:NJR327732 NTC327728:NTN327732 OCY327728:ODJ327732 OMU327728:ONF327732 OWQ327728:OXB327732 PGM327728:PGX327732 PQI327728:PQT327732 QAE327728:QAP327732 QKA327728:QKL327732 QTW327728:QUH327732 RDS327728:RED327732 RNO327728:RNZ327732 RXK327728:RXV327732 SHG327728:SHR327732 SRC327728:SRN327732 TAY327728:TBJ327732 TKU327728:TLF327732 TUQ327728:TVB327732 UEM327728:UEX327732 UOI327728:UOT327732 UYE327728:UYP327732 VIA327728:VIL327732 VRW327728:VSH327732 WBS327728:WCD327732 WLO327728:WLZ327732 WVK327728:WVV327732 SU393264:TF393268 ACQ393264:ADB393268 AMM393264:AMX393268 AWI393264:AWT393268 BGE393264:BGP393268 BQA393264:BQL393268 BZW393264:CAH393268 CJS393264:CKD393268 CTO393264:CTZ393268 DDK393264:DDV393268 DNG393264:DNR393268 DXC393264:DXN393268 EGY393264:EHJ393268 EQU393264:ERF393268 FAQ393264:FBB393268 FKM393264:FKX393268 FUI393264:FUT393268 GEE393264:GEP393268 GOA393264:GOL393268 GXW393264:GYH393268 HHS393264:HID393268 HRO393264:HRZ393268 IBK393264:IBV393268 ILG393264:ILR393268 IVC393264:IVN393268 JEY393264:JFJ393268 JOU393264:JPF393268 JYQ393264:JZB393268 KIM393264:KIX393268 KSI393264:KST393268 LCE393264:LCP393268 LMA393264:LML393268 LVW393264:LWH393268 MFS393264:MGD393268 MPO393264:MPZ393268 MZK393264:MZV393268 NJG393264:NJR393268 NTC393264:NTN393268 OCY393264:ODJ393268 OMU393264:ONF393268 OWQ393264:OXB393268 PGM393264:PGX393268 PQI393264:PQT393268 QAE393264:QAP393268 QKA393264:QKL393268 QTW393264:QUH393268 RDS393264:RED393268 RNO393264:RNZ393268 RXK393264:RXV393268 SHG393264:SHR393268 SRC393264:SRN393268 TAY393264:TBJ393268 TKU393264:TLF393268 TUQ393264:TVB393268 UEM393264:UEX393268 UOI393264:UOT393268 UYE393264:UYP393268 VIA393264:VIL393268 VRW393264:VSH393268 WBS393264:WCD393268 WLO393264:WLZ393268 WVK393264:WVV393268 SU458800:TF458804 ACQ458800:ADB458804 AMM458800:AMX458804 AWI458800:AWT458804 BGE458800:BGP458804 BQA458800:BQL458804 BZW458800:CAH458804 CJS458800:CKD458804 CTO458800:CTZ458804 DDK458800:DDV458804 DNG458800:DNR458804 DXC458800:DXN458804 EGY458800:EHJ458804 EQU458800:ERF458804 FAQ458800:FBB458804 FKM458800:FKX458804 FUI458800:FUT458804 GEE458800:GEP458804 GOA458800:GOL458804 GXW458800:GYH458804 HHS458800:HID458804 HRO458800:HRZ458804 IBK458800:IBV458804 ILG458800:ILR458804 IVC458800:IVN458804 JEY458800:JFJ458804 JOU458800:JPF458804 JYQ458800:JZB458804 KIM458800:KIX458804 KSI458800:KST458804 LCE458800:LCP458804 LMA458800:LML458804 LVW458800:LWH458804 MFS458800:MGD458804 MPO458800:MPZ458804 MZK458800:MZV458804 NJG458800:NJR458804 NTC458800:NTN458804 OCY458800:ODJ458804 OMU458800:ONF458804 OWQ458800:OXB458804 PGM458800:PGX458804 PQI458800:PQT458804 QAE458800:QAP458804 QKA458800:QKL458804 QTW458800:QUH458804 RDS458800:RED458804 RNO458800:RNZ458804 RXK458800:RXV458804 SHG458800:SHR458804 SRC458800:SRN458804 TAY458800:TBJ458804 TKU458800:TLF458804 TUQ458800:TVB458804 UEM458800:UEX458804 UOI458800:UOT458804 UYE458800:UYP458804 VIA458800:VIL458804 VRW458800:VSH458804 WBS458800:WCD458804 WLO458800:WLZ458804 WVK458800:WVV458804 SU524336:TF524340 ACQ524336:ADB524340 AMM524336:AMX524340 AWI524336:AWT524340 BGE524336:BGP524340 BQA524336:BQL524340 BZW524336:CAH524340 CJS524336:CKD524340 CTO524336:CTZ524340 DDK524336:DDV524340 DNG524336:DNR524340 DXC524336:DXN524340 EGY524336:EHJ524340 EQU524336:ERF524340 FAQ524336:FBB524340 FKM524336:FKX524340 FUI524336:FUT524340 GEE524336:GEP524340 GOA524336:GOL524340 GXW524336:GYH524340 HHS524336:HID524340 HRO524336:HRZ524340 IBK524336:IBV524340 ILG524336:ILR524340 IVC524336:IVN524340 JEY524336:JFJ524340 JOU524336:JPF524340 JYQ524336:JZB524340 KIM524336:KIX524340 KSI524336:KST524340 LCE524336:LCP524340 LMA524336:LML524340 LVW524336:LWH524340 MFS524336:MGD524340 MPO524336:MPZ524340 MZK524336:MZV524340 NJG524336:NJR524340 NTC524336:NTN524340 OCY524336:ODJ524340 OMU524336:ONF524340 OWQ524336:OXB524340 PGM524336:PGX524340 PQI524336:PQT524340 QAE524336:QAP524340 QKA524336:QKL524340 QTW524336:QUH524340 RDS524336:RED524340 RNO524336:RNZ524340 RXK524336:RXV524340 SHG524336:SHR524340 SRC524336:SRN524340 TAY524336:TBJ524340 TKU524336:TLF524340 TUQ524336:TVB524340 UEM524336:UEX524340 UOI524336:UOT524340 UYE524336:UYP524340 VIA524336:VIL524340 VRW524336:VSH524340 WBS524336:WCD524340 WLO524336:WLZ524340 WVK524336:WVV524340 SU589872:TF589876 ACQ589872:ADB589876 AMM589872:AMX589876 AWI589872:AWT589876 BGE589872:BGP589876 BQA589872:BQL589876 BZW589872:CAH589876 CJS589872:CKD589876 CTO589872:CTZ589876 DDK589872:DDV589876 DNG589872:DNR589876 DXC589872:DXN589876 EGY589872:EHJ589876 EQU589872:ERF589876 FAQ589872:FBB589876 FKM589872:FKX589876 FUI589872:FUT589876 GEE589872:GEP589876 GOA589872:GOL589876 GXW589872:GYH589876 HHS589872:HID589876 HRO589872:HRZ589876 IBK589872:IBV589876 ILG589872:ILR589876 IVC589872:IVN589876 JEY589872:JFJ589876 JOU589872:JPF589876 JYQ589872:JZB589876 KIM589872:KIX589876 KSI589872:KST589876 LCE589872:LCP589876 LMA589872:LML589876 LVW589872:LWH589876 MFS589872:MGD589876 MPO589872:MPZ589876 MZK589872:MZV589876 NJG589872:NJR589876 NTC589872:NTN589876 OCY589872:ODJ589876 OMU589872:ONF589876 OWQ589872:OXB589876 PGM589872:PGX589876 PQI589872:PQT589876 QAE589872:QAP589876 QKA589872:QKL589876 QTW589872:QUH589876 RDS589872:RED589876 RNO589872:RNZ589876 RXK589872:RXV589876 SHG589872:SHR589876 SRC589872:SRN589876 TAY589872:TBJ589876 TKU589872:TLF589876 TUQ589872:TVB589876 UEM589872:UEX589876 UOI589872:UOT589876 UYE589872:UYP589876 VIA589872:VIL589876 VRW589872:VSH589876 WBS589872:WCD589876 WLO589872:WLZ589876 WVK589872:WVV589876 SU655408:TF655412 ACQ655408:ADB655412 AMM655408:AMX655412 AWI655408:AWT655412 BGE655408:BGP655412 BQA655408:BQL655412 BZW655408:CAH655412 CJS655408:CKD655412 CTO655408:CTZ655412 DDK655408:DDV655412 DNG655408:DNR655412 DXC655408:DXN655412 EGY655408:EHJ655412 EQU655408:ERF655412 FAQ655408:FBB655412 FKM655408:FKX655412 FUI655408:FUT655412 GEE655408:GEP655412 GOA655408:GOL655412 GXW655408:GYH655412 HHS655408:HID655412 HRO655408:HRZ655412 IBK655408:IBV655412 ILG655408:ILR655412 IVC655408:IVN655412 JEY655408:JFJ655412 JOU655408:JPF655412 JYQ655408:JZB655412 KIM655408:KIX655412 KSI655408:KST655412 LCE655408:LCP655412 LMA655408:LML655412 LVW655408:LWH655412 MFS655408:MGD655412 MPO655408:MPZ655412 MZK655408:MZV655412 NJG655408:NJR655412 NTC655408:NTN655412 OCY655408:ODJ655412 OMU655408:ONF655412 OWQ655408:OXB655412 PGM655408:PGX655412 PQI655408:PQT655412 QAE655408:QAP655412 QKA655408:QKL655412 QTW655408:QUH655412 RDS655408:RED655412 RNO655408:RNZ655412 RXK655408:RXV655412 SHG655408:SHR655412 SRC655408:SRN655412 TAY655408:TBJ655412 TKU655408:TLF655412 TUQ655408:TVB655412 UEM655408:UEX655412 UOI655408:UOT655412 UYE655408:UYP655412 VIA655408:VIL655412 VRW655408:VSH655412 WBS655408:WCD655412 WLO655408:WLZ655412 WVK655408:WVV655412 SU720944:TF720948 ACQ720944:ADB720948 AMM720944:AMX720948 AWI720944:AWT720948 BGE720944:BGP720948 BQA720944:BQL720948 BZW720944:CAH720948 CJS720944:CKD720948 CTO720944:CTZ720948 DDK720944:DDV720948 DNG720944:DNR720948 DXC720944:DXN720948 EGY720944:EHJ720948 EQU720944:ERF720948 FAQ720944:FBB720948 FKM720944:FKX720948 FUI720944:FUT720948 GEE720944:GEP720948 GOA720944:GOL720948 GXW720944:GYH720948 HHS720944:HID720948 HRO720944:HRZ720948 IBK720944:IBV720948 ILG720944:ILR720948 IVC720944:IVN720948 JEY720944:JFJ720948 JOU720944:JPF720948 JYQ720944:JZB720948 KIM720944:KIX720948 KSI720944:KST720948 LCE720944:LCP720948 LMA720944:LML720948 LVW720944:LWH720948 MFS720944:MGD720948 MPO720944:MPZ720948 MZK720944:MZV720948 NJG720944:NJR720948 NTC720944:NTN720948 OCY720944:ODJ720948 OMU720944:ONF720948 OWQ720944:OXB720948 PGM720944:PGX720948 PQI720944:PQT720948 QAE720944:QAP720948 QKA720944:QKL720948 QTW720944:QUH720948 RDS720944:RED720948 RNO720944:RNZ720948 RXK720944:RXV720948 SHG720944:SHR720948 SRC720944:SRN720948 TAY720944:TBJ720948 TKU720944:TLF720948 TUQ720944:TVB720948 UEM720944:UEX720948 UOI720944:UOT720948 UYE720944:UYP720948 VIA720944:VIL720948 VRW720944:VSH720948 WBS720944:WCD720948 WLO720944:WLZ720948 WVK720944:WVV720948 SU786480:TF786484 ACQ786480:ADB786484 AMM786480:AMX786484 AWI786480:AWT786484 BGE786480:BGP786484 BQA786480:BQL786484 BZW786480:CAH786484 CJS786480:CKD786484 CTO786480:CTZ786484 DDK786480:DDV786484 DNG786480:DNR786484 DXC786480:DXN786484 EGY786480:EHJ786484 EQU786480:ERF786484 FAQ786480:FBB786484 FKM786480:FKX786484 FUI786480:FUT786484 GEE786480:GEP786484 GOA786480:GOL786484 GXW786480:GYH786484 HHS786480:HID786484 HRO786480:HRZ786484 IBK786480:IBV786484 ILG786480:ILR786484 IVC786480:IVN786484 JEY786480:JFJ786484 JOU786480:JPF786484 JYQ786480:JZB786484 KIM786480:KIX786484 KSI786480:KST786484 LCE786480:LCP786484 LMA786480:LML786484 LVW786480:LWH786484 MFS786480:MGD786484 MPO786480:MPZ786484 MZK786480:MZV786484 NJG786480:NJR786484 NTC786480:NTN786484 OCY786480:ODJ786484 OMU786480:ONF786484 OWQ786480:OXB786484 PGM786480:PGX786484 PQI786480:PQT786484 QAE786480:QAP786484 QKA786480:QKL786484 QTW786480:QUH786484 RDS786480:RED786484 RNO786480:RNZ786484 RXK786480:RXV786484 SHG786480:SHR786484 SRC786480:SRN786484 TAY786480:TBJ786484 TKU786480:TLF786484 TUQ786480:TVB786484 UEM786480:UEX786484 UOI786480:UOT786484 UYE786480:UYP786484 VIA786480:VIL786484 VRW786480:VSH786484 WBS786480:WCD786484 WLO786480:WLZ786484 WVK786480:WVV786484 SU852016:TF852020 ACQ852016:ADB852020 AMM852016:AMX852020 AWI852016:AWT852020 BGE852016:BGP852020 BQA852016:BQL852020 BZW852016:CAH852020 CJS852016:CKD852020 CTO852016:CTZ852020 DDK852016:DDV852020 DNG852016:DNR852020 DXC852016:DXN852020 EGY852016:EHJ852020 EQU852016:ERF852020 FAQ852016:FBB852020 FKM852016:FKX852020 FUI852016:FUT852020 GEE852016:GEP852020 GOA852016:GOL852020 GXW852016:GYH852020 HHS852016:HID852020 HRO852016:HRZ852020 IBK852016:IBV852020 ILG852016:ILR852020 IVC852016:IVN852020 JEY852016:JFJ852020 JOU852016:JPF852020 JYQ852016:JZB852020 KIM852016:KIX852020 KSI852016:KST852020 LCE852016:LCP852020 LMA852016:LML852020 LVW852016:LWH852020 MFS852016:MGD852020 MPO852016:MPZ852020 MZK852016:MZV852020 NJG852016:NJR852020 NTC852016:NTN852020 OCY852016:ODJ852020 OMU852016:ONF852020 OWQ852016:OXB852020 PGM852016:PGX852020 PQI852016:PQT852020 QAE852016:QAP852020 QKA852016:QKL852020 QTW852016:QUH852020 RDS852016:RED852020 RNO852016:RNZ852020 RXK852016:RXV852020 SHG852016:SHR852020 SRC852016:SRN852020 TAY852016:TBJ852020 TKU852016:TLF852020 TUQ852016:TVB852020 UEM852016:UEX852020 UOI852016:UOT852020 UYE852016:UYP852020 VIA852016:VIL852020 VRW852016:VSH852020 WBS852016:WCD852020 WLO852016:WLZ852020 WVK852016:WVV852020 SU917552:TF917556 ACQ917552:ADB917556 AMM917552:AMX917556 AWI917552:AWT917556 BGE917552:BGP917556 BQA917552:BQL917556 BZW917552:CAH917556 CJS917552:CKD917556 CTO917552:CTZ917556 DDK917552:DDV917556 DNG917552:DNR917556 DXC917552:DXN917556 EGY917552:EHJ917556 EQU917552:ERF917556 FAQ917552:FBB917556 FKM917552:FKX917556 FUI917552:FUT917556 GEE917552:GEP917556 GOA917552:GOL917556 GXW917552:GYH917556 HHS917552:HID917556 HRO917552:HRZ917556 IBK917552:IBV917556 ILG917552:ILR917556 IVC917552:IVN917556 JEY917552:JFJ917556 JOU917552:JPF917556 JYQ917552:JZB917556 KIM917552:KIX917556 KSI917552:KST917556 LCE917552:LCP917556 LMA917552:LML917556 LVW917552:LWH917556 MFS917552:MGD917556 MPO917552:MPZ917556 MZK917552:MZV917556 NJG917552:NJR917556 NTC917552:NTN917556 OCY917552:ODJ917556 OMU917552:ONF917556 OWQ917552:OXB917556 PGM917552:PGX917556 PQI917552:PQT917556 QAE917552:QAP917556 QKA917552:QKL917556 QTW917552:QUH917556 RDS917552:RED917556 RNO917552:RNZ917556 RXK917552:RXV917556 SHG917552:SHR917556 SRC917552:SRN917556 TAY917552:TBJ917556 TKU917552:TLF917556 TUQ917552:TVB917556 UEM917552:UEX917556 UOI917552:UOT917556 UYE917552:UYP917556 VIA917552:VIL917556 VRW917552:VSH917556 WBS917552:WCD917556 WLO917552:WLZ917556 WVK917552:WVV917556 WVK983088:WVV983092 SU983088:TF983092 ACQ983088:ADB983092 AMM983088:AMX983092 AWI983088:AWT983092 BGE983088:BGP983092 BQA983088:BQL983092 BZW983088:CAH983092 CJS983088:CKD983092 CTO983088:CTZ983092 DDK983088:DDV983092 DNG983088:DNR983092 DXC983088:DXN983092 EGY983088:EHJ983092 EQU983088:ERF983092 FAQ983088:FBB983092 FKM983088:FKX983092 FUI983088:FUT983092 GEE983088:GEP983092 GOA983088:GOL983092 GXW983088:GYH983092 HHS983088:HID983092 HRO983088:HRZ983092 IBK983088:IBV983092 ILG983088:ILR983092 IVC983088:IVN983092 JEY983088:JFJ983092 JOU983088:JPF983092 JYQ983088:JZB983092 KIM983088:KIX983092 KSI983088:KST983092 LCE983088:LCP983092 LMA983088:LML983092 LVW983088:LWH983092 MFS983088:MGD983092 MPO983088:MPZ983092 MZK983088:MZV983092 NJG983088:NJR983092 NTC983088:NTN983092 OCY983088:ODJ983092 OMU983088:ONF983092 OWQ983088:OXB983092 PGM983088:PGX983092 PQI983088:PQT983092 QAE983088:QAP983092 QKA983088:QKL983092 QTW983088:QUH983092 RDS983088:RED983092 RNO983088:RNZ983092 RXK983088:RXV983092 SHG983088:SHR983092 SRC983088:SRN983092 TAY983088:TBJ983092 TKU983088:TLF983092 TUQ983088:TVB983092 UEM983088:UEX983092 UOI983088:UOT983092 UYE983088:UYP983092 VIA983088:VIL983092 VRW983088:VSH983092 WBS983088:WCD983092 WLO983088:WLZ983092 IY50:IY54 C917556:M917560 C852020:M852024 C786484:M786488 C720948:M720952 C655412:M655416 C589876:M589880 C524340:M524344 C458804:M458808 C393268:M393272 C327732:M327736 C262196:M262200 C196660:M196664 C131124:M131128 C65588:M65592 C983092:M983096 IY983092:IY983096 IZ983088:JJ983092 IY917556:IY917560 IZ917552:JJ917556 IY852020:IY852024 IZ852016:JJ852020 IY786484:IY786488 IZ786480:JJ786484 IY720948:IY720952 IZ720944:JJ720948 IY655412:IY655416 IZ655408:JJ655412 IY589876:IY589880 IZ589872:JJ589876 IY524340:IY524344 IZ524336:JJ524340 IY458804:IY458808 IZ458800:JJ458804 IY393268:IY393272 IZ393264:JJ393268 IY327732:IY327736 IZ327728:JJ327732 IY262196:IY262200 IZ262192:JJ262196 IY196660:IY196664 IZ196656:JJ196660 IY131124:IY131128 IZ131120:JJ131124 IY65588:IY65592 IZ65584:JJ65588 IZ46:JJ50 C50:M54" xr:uid="{00000000-0002-0000-0E00-000003000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JI65542:JI65581 TE65542:TE65581 ADA65542:ADA65581 AMW65542:AMW65581 AWS65542:AWS65581 BGO65542:BGO65581 BQK65542:BQK65581 CAG65542:CAG65581 CKC65542:CKC65581 CTY65542:CTY65581 DDU65542:DDU65581 DNQ65542:DNQ65581 DXM65542:DXM65581 EHI65542:EHI65581 ERE65542:ERE65581 FBA65542:FBA65581 FKW65542:FKW65581 FUS65542:FUS65581 GEO65542:GEO65581 GOK65542:GOK65581 GYG65542:GYG65581 HIC65542:HIC65581 HRY65542:HRY65581 IBU65542:IBU65581 ILQ65542:ILQ65581 IVM65542:IVM65581 JFI65542:JFI65581 JPE65542:JPE65581 JZA65542:JZA65581 KIW65542:KIW65581 KSS65542:KSS65581 LCO65542:LCO65581 LMK65542:LMK65581 LWG65542:LWG65581 MGC65542:MGC65581 MPY65542:MPY65581 MZU65542:MZU65581 NJQ65542:NJQ65581 NTM65542:NTM65581 ODI65542:ODI65581 ONE65542:ONE65581 OXA65542:OXA65581 PGW65542:PGW65581 PQS65542:PQS65581 QAO65542:QAO65581 QKK65542:QKK65581 QUG65542:QUG65581 REC65542:REC65581 RNY65542:RNY65581 RXU65542:RXU65581 SHQ65542:SHQ65581 SRM65542:SRM65581 TBI65542:TBI65581 TLE65542:TLE65581 TVA65542:TVA65581 UEW65542:UEW65581 UOS65542:UOS65581 UYO65542:UYO65581 VIK65542:VIK65581 VSG65542:VSG65581 WCC65542:WCC65581 WLY65542:WLY65581 WVU65542:WVU65581 JI131078:JI131117 TE131078:TE131117 ADA131078:ADA131117 AMW131078:AMW131117 AWS131078:AWS131117 BGO131078:BGO131117 BQK131078:BQK131117 CAG131078:CAG131117 CKC131078:CKC131117 CTY131078:CTY131117 DDU131078:DDU131117 DNQ131078:DNQ131117 DXM131078:DXM131117 EHI131078:EHI131117 ERE131078:ERE131117 FBA131078:FBA131117 FKW131078:FKW131117 FUS131078:FUS131117 GEO131078:GEO131117 GOK131078:GOK131117 GYG131078:GYG131117 HIC131078:HIC131117 HRY131078:HRY131117 IBU131078:IBU131117 ILQ131078:ILQ131117 IVM131078:IVM131117 JFI131078:JFI131117 JPE131078:JPE131117 JZA131078:JZA131117 KIW131078:KIW131117 KSS131078:KSS131117 LCO131078:LCO131117 LMK131078:LMK131117 LWG131078:LWG131117 MGC131078:MGC131117 MPY131078:MPY131117 MZU131078:MZU131117 NJQ131078:NJQ131117 NTM131078:NTM131117 ODI131078:ODI131117 ONE131078:ONE131117 OXA131078:OXA131117 PGW131078:PGW131117 PQS131078:PQS131117 QAO131078:QAO131117 QKK131078:QKK131117 QUG131078:QUG131117 REC131078:REC131117 RNY131078:RNY131117 RXU131078:RXU131117 SHQ131078:SHQ131117 SRM131078:SRM131117 TBI131078:TBI131117 TLE131078:TLE131117 TVA131078:TVA131117 UEW131078:UEW131117 UOS131078:UOS131117 UYO131078:UYO131117 VIK131078:VIK131117 VSG131078:VSG131117 WCC131078:WCC131117 WLY131078:WLY131117 WVU131078:WVU131117 JI196614:JI196653 TE196614:TE196653 ADA196614:ADA196653 AMW196614:AMW196653 AWS196614:AWS196653 BGO196614:BGO196653 BQK196614:BQK196653 CAG196614:CAG196653 CKC196614:CKC196653 CTY196614:CTY196653 DDU196614:DDU196653 DNQ196614:DNQ196653 DXM196614:DXM196653 EHI196614:EHI196653 ERE196614:ERE196653 FBA196614:FBA196653 FKW196614:FKW196653 FUS196614:FUS196653 GEO196614:GEO196653 GOK196614:GOK196653 GYG196614:GYG196653 HIC196614:HIC196653 HRY196614:HRY196653 IBU196614:IBU196653 ILQ196614:ILQ196653 IVM196614:IVM196653 JFI196614:JFI196653 JPE196614:JPE196653 JZA196614:JZA196653 KIW196614:KIW196653 KSS196614:KSS196653 LCO196614:LCO196653 LMK196614:LMK196653 LWG196614:LWG196653 MGC196614:MGC196653 MPY196614:MPY196653 MZU196614:MZU196653 NJQ196614:NJQ196653 NTM196614:NTM196653 ODI196614:ODI196653 ONE196614:ONE196653 OXA196614:OXA196653 PGW196614:PGW196653 PQS196614:PQS196653 QAO196614:QAO196653 QKK196614:QKK196653 QUG196614:QUG196653 REC196614:REC196653 RNY196614:RNY196653 RXU196614:RXU196653 SHQ196614:SHQ196653 SRM196614:SRM196653 TBI196614:TBI196653 TLE196614:TLE196653 TVA196614:TVA196653 UEW196614:UEW196653 UOS196614:UOS196653 UYO196614:UYO196653 VIK196614:VIK196653 VSG196614:VSG196653 WCC196614:WCC196653 WLY196614:WLY196653 WVU196614:WVU196653 JI262150:JI262189 TE262150:TE262189 ADA262150:ADA262189 AMW262150:AMW262189 AWS262150:AWS262189 BGO262150:BGO262189 BQK262150:BQK262189 CAG262150:CAG262189 CKC262150:CKC262189 CTY262150:CTY262189 DDU262150:DDU262189 DNQ262150:DNQ262189 DXM262150:DXM262189 EHI262150:EHI262189 ERE262150:ERE262189 FBA262150:FBA262189 FKW262150:FKW262189 FUS262150:FUS262189 GEO262150:GEO262189 GOK262150:GOK262189 GYG262150:GYG262189 HIC262150:HIC262189 HRY262150:HRY262189 IBU262150:IBU262189 ILQ262150:ILQ262189 IVM262150:IVM262189 JFI262150:JFI262189 JPE262150:JPE262189 JZA262150:JZA262189 KIW262150:KIW262189 KSS262150:KSS262189 LCO262150:LCO262189 LMK262150:LMK262189 LWG262150:LWG262189 MGC262150:MGC262189 MPY262150:MPY262189 MZU262150:MZU262189 NJQ262150:NJQ262189 NTM262150:NTM262189 ODI262150:ODI262189 ONE262150:ONE262189 OXA262150:OXA262189 PGW262150:PGW262189 PQS262150:PQS262189 QAO262150:QAO262189 QKK262150:QKK262189 QUG262150:QUG262189 REC262150:REC262189 RNY262150:RNY262189 RXU262150:RXU262189 SHQ262150:SHQ262189 SRM262150:SRM262189 TBI262150:TBI262189 TLE262150:TLE262189 TVA262150:TVA262189 UEW262150:UEW262189 UOS262150:UOS262189 UYO262150:UYO262189 VIK262150:VIK262189 VSG262150:VSG262189 WCC262150:WCC262189 WLY262150:WLY262189 WVU262150:WVU262189 JI327686:JI327725 TE327686:TE327725 ADA327686:ADA327725 AMW327686:AMW327725 AWS327686:AWS327725 BGO327686:BGO327725 BQK327686:BQK327725 CAG327686:CAG327725 CKC327686:CKC327725 CTY327686:CTY327725 DDU327686:DDU327725 DNQ327686:DNQ327725 DXM327686:DXM327725 EHI327686:EHI327725 ERE327686:ERE327725 FBA327686:FBA327725 FKW327686:FKW327725 FUS327686:FUS327725 GEO327686:GEO327725 GOK327686:GOK327725 GYG327686:GYG327725 HIC327686:HIC327725 HRY327686:HRY327725 IBU327686:IBU327725 ILQ327686:ILQ327725 IVM327686:IVM327725 JFI327686:JFI327725 JPE327686:JPE327725 JZA327686:JZA327725 KIW327686:KIW327725 KSS327686:KSS327725 LCO327686:LCO327725 LMK327686:LMK327725 LWG327686:LWG327725 MGC327686:MGC327725 MPY327686:MPY327725 MZU327686:MZU327725 NJQ327686:NJQ327725 NTM327686:NTM327725 ODI327686:ODI327725 ONE327686:ONE327725 OXA327686:OXA327725 PGW327686:PGW327725 PQS327686:PQS327725 QAO327686:QAO327725 QKK327686:QKK327725 QUG327686:QUG327725 REC327686:REC327725 RNY327686:RNY327725 RXU327686:RXU327725 SHQ327686:SHQ327725 SRM327686:SRM327725 TBI327686:TBI327725 TLE327686:TLE327725 TVA327686:TVA327725 UEW327686:UEW327725 UOS327686:UOS327725 UYO327686:UYO327725 VIK327686:VIK327725 VSG327686:VSG327725 WCC327686:WCC327725 WLY327686:WLY327725 WVU327686:WVU327725 JI393222:JI393261 TE393222:TE393261 ADA393222:ADA393261 AMW393222:AMW393261 AWS393222:AWS393261 BGO393222:BGO393261 BQK393222:BQK393261 CAG393222:CAG393261 CKC393222:CKC393261 CTY393222:CTY393261 DDU393222:DDU393261 DNQ393222:DNQ393261 DXM393222:DXM393261 EHI393222:EHI393261 ERE393222:ERE393261 FBA393222:FBA393261 FKW393222:FKW393261 FUS393222:FUS393261 GEO393222:GEO393261 GOK393222:GOK393261 GYG393222:GYG393261 HIC393222:HIC393261 HRY393222:HRY393261 IBU393222:IBU393261 ILQ393222:ILQ393261 IVM393222:IVM393261 JFI393222:JFI393261 JPE393222:JPE393261 JZA393222:JZA393261 KIW393222:KIW393261 KSS393222:KSS393261 LCO393222:LCO393261 LMK393222:LMK393261 LWG393222:LWG393261 MGC393222:MGC393261 MPY393222:MPY393261 MZU393222:MZU393261 NJQ393222:NJQ393261 NTM393222:NTM393261 ODI393222:ODI393261 ONE393222:ONE393261 OXA393222:OXA393261 PGW393222:PGW393261 PQS393222:PQS393261 QAO393222:QAO393261 QKK393222:QKK393261 QUG393222:QUG393261 REC393222:REC393261 RNY393222:RNY393261 RXU393222:RXU393261 SHQ393222:SHQ393261 SRM393222:SRM393261 TBI393222:TBI393261 TLE393222:TLE393261 TVA393222:TVA393261 UEW393222:UEW393261 UOS393222:UOS393261 UYO393222:UYO393261 VIK393222:VIK393261 VSG393222:VSG393261 WCC393222:WCC393261 WLY393222:WLY393261 WVU393222:WVU393261 JI458758:JI458797 TE458758:TE458797 ADA458758:ADA458797 AMW458758:AMW458797 AWS458758:AWS458797 BGO458758:BGO458797 BQK458758:BQK458797 CAG458758:CAG458797 CKC458758:CKC458797 CTY458758:CTY458797 DDU458758:DDU458797 DNQ458758:DNQ458797 DXM458758:DXM458797 EHI458758:EHI458797 ERE458758:ERE458797 FBA458758:FBA458797 FKW458758:FKW458797 FUS458758:FUS458797 GEO458758:GEO458797 GOK458758:GOK458797 GYG458758:GYG458797 HIC458758:HIC458797 HRY458758:HRY458797 IBU458758:IBU458797 ILQ458758:ILQ458797 IVM458758:IVM458797 JFI458758:JFI458797 JPE458758:JPE458797 JZA458758:JZA458797 KIW458758:KIW458797 KSS458758:KSS458797 LCO458758:LCO458797 LMK458758:LMK458797 LWG458758:LWG458797 MGC458758:MGC458797 MPY458758:MPY458797 MZU458758:MZU458797 NJQ458758:NJQ458797 NTM458758:NTM458797 ODI458758:ODI458797 ONE458758:ONE458797 OXA458758:OXA458797 PGW458758:PGW458797 PQS458758:PQS458797 QAO458758:QAO458797 QKK458758:QKK458797 QUG458758:QUG458797 REC458758:REC458797 RNY458758:RNY458797 RXU458758:RXU458797 SHQ458758:SHQ458797 SRM458758:SRM458797 TBI458758:TBI458797 TLE458758:TLE458797 TVA458758:TVA458797 UEW458758:UEW458797 UOS458758:UOS458797 UYO458758:UYO458797 VIK458758:VIK458797 VSG458758:VSG458797 WCC458758:WCC458797 WLY458758:WLY458797 WVU458758:WVU458797 JI524294:JI524333 TE524294:TE524333 ADA524294:ADA524333 AMW524294:AMW524333 AWS524294:AWS524333 BGO524294:BGO524333 BQK524294:BQK524333 CAG524294:CAG524333 CKC524294:CKC524333 CTY524294:CTY524333 DDU524294:DDU524333 DNQ524294:DNQ524333 DXM524294:DXM524333 EHI524294:EHI524333 ERE524294:ERE524333 FBA524294:FBA524333 FKW524294:FKW524333 FUS524294:FUS524333 GEO524294:GEO524333 GOK524294:GOK524333 GYG524294:GYG524333 HIC524294:HIC524333 HRY524294:HRY524333 IBU524294:IBU524333 ILQ524294:ILQ524333 IVM524294:IVM524333 JFI524294:JFI524333 JPE524294:JPE524333 JZA524294:JZA524333 KIW524294:KIW524333 KSS524294:KSS524333 LCO524294:LCO524333 LMK524294:LMK524333 LWG524294:LWG524333 MGC524294:MGC524333 MPY524294:MPY524333 MZU524294:MZU524333 NJQ524294:NJQ524333 NTM524294:NTM524333 ODI524294:ODI524333 ONE524294:ONE524333 OXA524294:OXA524333 PGW524294:PGW524333 PQS524294:PQS524333 QAO524294:QAO524333 QKK524294:QKK524333 QUG524294:QUG524333 REC524294:REC524333 RNY524294:RNY524333 RXU524294:RXU524333 SHQ524294:SHQ524333 SRM524294:SRM524333 TBI524294:TBI524333 TLE524294:TLE524333 TVA524294:TVA524333 UEW524294:UEW524333 UOS524294:UOS524333 UYO524294:UYO524333 VIK524294:VIK524333 VSG524294:VSG524333 WCC524294:WCC524333 WLY524294:WLY524333 WVU524294:WVU524333 JI589830:JI589869 TE589830:TE589869 ADA589830:ADA589869 AMW589830:AMW589869 AWS589830:AWS589869 BGO589830:BGO589869 BQK589830:BQK589869 CAG589830:CAG589869 CKC589830:CKC589869 CTY589830:CTY589869 DDU589830:DDU589869 DNQ589830:DNQ589869 DXM589830:DXM589869 EHI589830:EHI589869 ERE589830:ERE589869 FBA589830:FBA589869 FKW589830:FKW589869 FUS589830:FUS589869 GEO589830:GEO589869 GOK589830:GOK589869 GYG589830:GYG589869 HIC589830:HIC589869 HRY589830:HRY589869 IBU589830:IBU589869 ILQ589830:ILQ589869 IVM589830:IVM589869 JFI589830:JFI589869 JPE589830:JPE589869 JZA589830:JZA589869 KIW589830:KIW589869 KSS589830:KSS589869 LCO589830:LCO589869 LMK589830:LMK589869 LWG589830:LWG589869 MGC589830:MGC589869 MPY589830:MPY589869 MZU589830:MZU589869 NJQ589830:NJQ589869 NTM589830:NTM589869 ODI589830:ODI589869 ONE589830:ONE589869 OXA589830:OXA589869 PGW589830:PGW589869 PQS589830:PQS589869 QAO589830:QAO589869 QKK589830:QKK589869 QUG589830:QUG589869 REC589830:REC589869 RNY589830:RNY589869 RXU589830:RXU589869 SHQ589830:SHQ589869 SRM589830:SRM589869 TBI589830:TBI589869 TLE589830:TLE589869 TVA589830:TVA589869 UEW589830:UEW589869 UOS589830:UOS589869 UYO589830:UYO589869 VIK589830:VIK589869 VSG589830:VSG589869 WCC589830:WCC589869 WLY589830:WLY589869 WVU589830:WVU589869 JI655366:JI655405 TE655366:TE655405 ADA655366:ADA655405 AMW655366:AMW655405 AWS655366:AWS655405 BGO655366:BGO655405 BQK655366:BQK655405 CAG655366:CAG655405 CKC655366:CKC655405 CTY655366:CTY655405 DDU655366:DDU655405 DNQ655366:DNQ655405 DXM655366:DXM655405 EHI655366:EHI655405 ERE655366:ERE655405 FBA655366:FBA655405 FKW655366:FKW655405 FUS655366:FUS655405 GEO655366:GEO655405 GOK655366:GOK655405 GYG655366:GYG655405 HIC655366:HIC655405 HRY655366:HRY655405 IBU655366:IBU655405 ILQ655366:ILQ655405 IVM655366:IVM655405 JFI655366:JFI655405 JPE655366:JPE655405 JZA655366:JZA655405 KIW655366:KIW655405 KSS655366:KSS655405 LCO655366:LCO655405 LMK655366:LMK655405 LWG655366:LWG655405 MGC655366:MGC655405 MPY655366:MPY655405 MZU655366:MZU655405 NJQ655366:NJQ655405 NTM655366:NTM655405 ODI655366:ODI655405 ONE655366:ONE655405 OXA655366:OXA655405 PGW655366:PGW655405 PQS655366:PQS655405 QAO655366:QAO655405 QKK655366:QKK655405 QUG655366:QUG655405 REC655366:REC655405 RNY655366:RNY655405 RXU655366:RXU655405 SHQ655366:SHQ655405 SRM655366:SRM655405 TBI655366:TBI655405 TLE655366:TLE655405 TVA655366:TVA655405 UEW655366:UEW655405 UOS655366:UOS655405 UYO655366:UYO655405 VIK655366:VIK655405 VSG655366:VSG655405 WCC655366:WCC655405 WLY655366:WLY655405 WVU655366:WVU655405 JI720902:JI720941 TE720902:TE720941 ADA720902:ADA720941 AMW720902:AMW720941 AWS720902:AWS720941 BGO720902:BGO720941 BQK720902:BQK720941 CAG720902:CAG720941 CKC720902:CKC720941 CTY720902:CTY720941 DDU720902:DDU720941 DNQ720902:DNQ720941 DXM720902:DXM720941 EHI720902:EHI720941 ERE720902:ERE720941 FBA720902:FBA720941 FKW720902:FKW720941 FUS720902:FUS720941 GEO720902:GEO720941 GOK720902:GOK720941 GYG720902:GYG720941 HIC720902:HIC720941 HRY720902:HRY720941 IBU720902:IBU720941 ILQ720902:ILQ720941 IVM720902:IVM720941 JFI720902:JFI720941 JPE720902:JPE720941 JZA720902:JZA720941 KIW720902:KIW720941 KSS720902:KSS720941 LCO720902:LCO720941 LMK720902:LMK720941 LWG720902:LWG720941 MGC720902:MGC720941 MPY720902:MPY720941 MZU720902:MZU720941 NJQ720902:NJQ720941 NTM720902:NTM720941 ODI720902:ODI720941 ONE720902:ONE720941 OXA720902:OXA720941 PGW720902:PGW720941 PQS720902:PQS720941 QAO720902:QAO720941 QKK720902:QKK720941 QUG720902:QUG720941 REC720902:REC720941 RNY720902:RNY720941 RXU720902:RXU720941 SHQ720902:SHQ720941 SRM720902:SRM720941 TBI720902:TBI720941 TLE720902:TLE720941 TVA720902:TVA720941 UEW720902:UEW720941 UOS720902:UOS720941 UYO720902:UYO720941 VIK720902:VIK720941 VSG720902:VSG720941 WCC720902:WCC720941 WLY720902:WLY720941 WVU720902:WVU720941 JI786438:JI786477 TE786438:TE786477 ADA786438:ADA786477 AMW786438:AMW786477 AWS786438:AWS786477 BGO786438:BGO786477 BQK786438:BQK786477 CAG786438:CAG786477 CKC786438:CKC786477 CTY786438:CTY786477 DDU786438:DDU786477 DNQ786438:DNQ786477 DXM786438:DXM786477 EHI786438:EHI786477 ERE786438:ERE786477 FBA786438:FBA786477 FKW786438:FKW786477 FUS786438:FUS786477 GEO786438:GEO786477 GOK786438:GOK786477 GYG786438:GYG786477 HIC786438:HIC786477 HRY786438:HRY786477 IBU786438:IBU786477 ILQ786438:ILQ786477 IVM786438:IVM786477 JFI786438:JFI786477 JPE786438:JPE786477 JZA786438:JZA786477 KIW786438:KIW786477 KSS786438:KSS786477 LCO786438:LCO786477 LMK786438:LMK786477 LWG786438:LWG786477 MGC786438:MGC786477 MPY786438:MPY786477 MZU786438:MZU786477 NJQ786438:NJQ786477 NTM786438:NTM786477 ODI786438:ODI786477 ONE786438:ONE786477 OXA786438:OXA786477 PGW786438:PGW786477 PQS786438:PQS786477 QAO786438:QAO786477 QKK786438:QKK786477 QUG786438:QUG786477 REC786438:REC786477 RNY786438:RNY786477 RXU786438:RXU786477 SHQ786438:SHQ786477 SRM786438:SRM786477 TBI786438:TBI786477 TLE786438:TLE786477 TVA786438:TVA786477 UEW786438:UEW786477 UOS786438:UOS786477 UYO786438:UYO786477 VIK786438:VIK786477 VSG786438:VSG786477 WCC786438:WCC786477 WLY786438:WLY786477 WVU786438:WVU786477 JI851974:JI852013 TE851974:TE852013 ADA851974:ADA852013 AMW851974:AMW852013 AWS851974:AWS852013 BGO851974:BGO852013 BQK851974:BQK852013 CAG851974:CAG852013 CKC851974:CKC852013 CTY851974:CTY852013 DDU851974:DDU852013 DNQ851974:DNQ852013 DXM851974:DXM852013 EHI851974:EHI852013 ERE851974:ERE852013 FBA851974:FBA852013 FKW851974:FKW852013 FUS851974:FUS852013 GEO851974:GEO852013 GOK851974:GOK852013 GYG851974:GYG852013 HIC851974:HIC852013 HRY851974:HRY852013 IBU851974:IBU852013 ILQ851974:ILQ852013 IVM851974:IVM852013 JFI851974:JFI852013 JPE851974:JPE852013 JZA851974:JZA852013 KIW851974:KIW852013 KSS851974:KSS852013 LCO851974:LCO852013 LMK851974:LMK852013 LWG851974:LWG852013 MGC851974:MGC852013 MPY851974:MPY852013 MZU851974:MZU852013 NJQ851974:NJQ852013 NTM851974:NTM852013 ODI851974:ODI852013 ONE851974:ONE852013 OXA851974:OXA852013 PGW851974:PGW852013 PQS851974:PQS852013 QAO851974:QAO852013 QKK851974:QKK852013 QUG851974:QUG852013 REC851974:REC852013 RNY851974:RNY852013 RXU851974:RXU852013 SHQ851974:SHQ852013 SRM851974:SRM852013 TBI851974:TBI852013 TLE851974:TLE852013 TVA851974:TVA852013 UEW851974:UEW852013 UOS851974:UOS852013 UYO851974:UYO852013 VIK851974:VIK852013 VSG851974:VSG852013 WCC851974:WCC852013 WLY851974:WLY852013 WVU851974:WVU852013 JI917510:JI917549 TE917510:TE917549 ADA917510:ADA917549 AMW917510:AMW917549 AWS917510:AWS917549 BGO917510:BGO917549 BQK917510:BQK917549 CAG917510:CAG917549 CKC917510:CKC917549 CTY917510:CTY917549 DDU917510:DDU917549 DNQ917510:DNQ917549 DXM917510:DXM917549 EHI917510:EHI917549 ERE917510:ERE917549 FBA917510:FBA917549 FKW917510:FKW917549 FUS917510:FUS917549 GEO917510:GEO917549 GOK917510:GOK917549 GYG917510:GYG917549 HIC917510:HIC917549 HRY917510:HRY917549 IBU917510:IBU917549 ILQ917510:ILQ917549 IVM917510:IVM917549 JFI917510:JFI917549 JPE917510:JPE917549 JZA917510:JZA917549 KIW917510:KIW917549 KSS917510:KSS917549 LCO917510:LCO917549 LMK917510:LMK917549 LWG917510:LWG917549 MGC917510:MGC917549 MPY917510:MPY917549 MZU917510:MZU917549 NJQ917510:NJQ917549 NTM917510:NTM917549 ODI917510:ODI917549 ONE917510:ONE917549 OXA917510:OXA917549 PGW917510:PGW917549 PQS917510:PQS917549 QAO917510:QAO917549 QKK917510:QKK917549 QUG917510:QUG917549 REC917510:REC917549 RNY917510:RNY917549 RXU917510:RXU917549 SHQ917510:SHQ917549 SRM917510:SRM917549 TBI917510:TBI917549 TLE917510:TLE917549 TVA917510:TVA917549 UEW917510:UEW917549 UOS917510:UOS917549 UYO917510:UYO917549 VIK917510:VIK917549 VSG917510:VSG917549 WCC917510:WCC917549 WLY917510:WLY917549 WVU917510:WVU917549 JI983046:JI983085 TE983046:TE983085 ADA983046:ADA983085 AMW983046:AMW983085 AWS983046:AWS983085 BGO983046:BGO983085 BQK983046:BQK983085 CAG983046:CAG983085 CKC983046:CKC983085 CTY983046:CTY983085 DDU983046:DDU983085 DNQ983046:DNQ983085 DXM983046:DXM983085 EHI983046:EHI983085 ERE983046:ERE983085 FBA983046:FBA983085 FKW983046:FKW983085 FUS983046:FUS983085 GEO983046:GEO983085 GOK983046:GOK983085 GYG983046:GYG983085 HIC983046:HIC983085 HRY983046:HRY983085 IBU983046:IBU983085 ILQ983046:ILQ983085 IVM983046:IVM983085 JFI983046:JFI983085 JPE983046:JPE983085 JZA983046:JZA983085 KIW983046:KIW983085 KSS983046:KSS983085 LCO983046:LCO983085 LMK983046:LMK983085 LWG983046:LWG983085 MGC983046:MGC983085 MPY983046:MPY983085 MZU983046:MZU983085 NJQ983046:NJQ983085 NTM983046:NTM983085 ODI983046:ODI983085 ONE983046:ONE983085 OXA983046:OXA983085 PGW983046:PGW983085 PQS983046:PQS983085 QAO983046:QAO983085 QKK983046:QKK983085 QUG983046:QUG983085 REC983046:REC983085 RNY983046:RNY983085 RXU983046:RXU983085 SHQ983046:SHQ983085 SRM983046:SRM983085 TBI983046:TBI983085 TLE983046:TLE983085 TVA983046:TVA983085 UEW983046:UEW983085 UOS983046:UOS983085 UYO983046:UYO983085 VIK983046:VIK983085 VSG983046:VSG983085 WCC983046:WCC983085 WLY983046:WLY983085 WVU983046:WVU983085 WVU5:WVU43 WLY5:WLY43 WCC5:WCC43 VSG5:VSG43 VIK5:VIK43 UYO5:UYO43 UOS5:UOS43 UEW5:UEW43 TVA5:TVA43 TLE5:TLE43 TBI5:TBI43 SRM5:SRM43 SHQ5:SHQ43 RXU5:RXU43 RNY5:RNY43 REC5:REC43 QUG5:QUG43 QKK5:QKK43 QAO5:QAO43 PQS5:PQS43 PGW5:PGW43 OXA5:OXA43 ONE5:ONE43 ODI5:ODI43 NTM5:NTM43 NJQ5:NJQ43 MZU5:MZU43 MPY5:MPY43 MGC5:MGC43 LWG5:LWG43 LMK5:LMK43 LCO5:LCO43 KSS5:KSS43 KIW5:KIW43 JZA5:JZA43 JPE5:JPE43 JFI5:JFI43 IVM5:IVM43 ILQ5:ILQ43 IBU5:IBU43 HRY5:HRY43 HIC5:HIC43 GYG5:GYG43 GOK5:GOK43 GEO5:GEO43 FUS5:FUS43 FKW5:FKW43 FBA5:FBA43 ERE5:ERE43 EHI5:EHI43 DXM5:DXM43 DNQ5:DNQ43 DDU5:DDU43 CTY5:CTY43 CKC5:CKC43 CAG5:CAG43 BQK5:BQK43 BGO5:BGO43 AWS5:AWS43 AMW5:AMW43 ADA5:ADA43 TE5:TE43 JI5:JI43" xr:uid="{00000000-0002-0000-0E00-000004000000}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
@@ -25612,7 +25719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" rightToLeft="1" workbookViewId="0">
@@ -25628,7 +25735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
@@ -26733,7 +26840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
@@ -27928,7 +28035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
@@ -29129,7 +29236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" rightToLeft="1" workbookViewId="0">
@@ -29144,7 +29251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
@@ -30144,7 +30251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
@@ -31248,7 +31355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
@@ -32436,7 +32543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
@@ -33656,7 +33763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
@@ -34882,7 +34989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
@@ -35796,7 +35903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
@@ -37252,7 +37359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
@@ -38714,7 +38821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
@@ -40176,7 +40283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
@@ -41853,7 +41960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView rightToLeft="1" view="pageLayout" topLeftCell="B1" zoomScale="150" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -41875,240 +41982,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="36.950000000000003" customHeight="1" thickBot="1">
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
     </row>
     <row r="2" spans="2:10" ht="29.1" customHeight="1">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123" t="s">
+      <c r="D2" s="97"/>
+      <c r="E2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="123" t="s">
+      <c r="F2" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="123" t="s">
+      <c r="G2" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="123" t="s">
+      <c r="I2" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="125" t="s">
+      <c r="J2" s="99" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="29.1" customHeight="1" thickBot="1">
-      <c r="B3" s="122"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="126"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="100"/>
     </row>
     <row r="4" spans="2:10" ht="29.1" customHeight="1">
-      <c r="B4" s="115">
+      <c r="B4" s="109">
         <v>1</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="119" t="s">
+      <c r="E4" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="116" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="114" t="s">
+      <c r="H4" s="101" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="2:10" ht="29.1" customHeight="1">
-      <c r="B5" s="116"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="98"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="116"/>
       <c r="G5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="112"/>
+      <c r="H5" s="102"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="2:10" ht="29.1" customHeight="1">
-      <c r="B6" s="116"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="98"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="116"/>
       <c r="G6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="113"/>
+      <c r="H6" s="103"/>
       <c r="I6" s="9"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="2:10" ht="29.1" customHeight="1">
-      <c r="B7" s="105">
+      <c r="B7" s="104">
         <v>2</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="108" t="s">
+      <c r="D7" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="111" t="s">
+      <c r="E7" s="114"/>
+      <c r="F7" s="108" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="111" t="s">
+      <c r="H7" s="108" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="2:10" ht="29.1" customHeight="1">
-      <c r="B8" s="106"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="112"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="102"/>
       <c r="G8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="112"/>
+      <c r="H8" s="102"/>
       <c r="I8" s="9"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="2:10" ht="29.1" customHeight="1">
-      <c r="B9" s="105">
+      <c r="B9" s="104">
         <v>3</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="108" t="s">
+      <c r="D9" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="103"/>
-      <c r="F9" s="111" t="s">
+      <c r="E9" s="114"/>
+      <c r="F9" s="108" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="112"/>
+      <c r="H9" s="102"/>
       <c r="I9" s="9"/>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="2:10" ht="29.1" customHeight="1">
-      <c r="B10" s="106"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="112"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="102"/>
       <c r="G10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="112"/>
+      <c r="H10" s="102"/>
       <c r="I10" s="9"/>
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="2:10" ht="29.1" customHeight="1">
-      <c r="B11" s="107"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="113"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="103"/>
       <c r="G11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="113"/>
+      <c r="H11" s="103"/>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="2:10" ht="29.1" customHeight="1">
-      <c r="B12" s="96">
+      <c r="B12" s="117">
         <v>4</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="103"/>
-      <c r="F12" s="98" t="s">
+      <c r="E12" s="114"/>
+      <c r="F12" s="116" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="99" t="s">
+      <c r="H12" s="119" t="s">
         <v>41</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="2:10" ht="29.1" customHeight="1">
-      <c r="B13" s="96"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="98"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="116"/>
       <c r="G13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="100"/>
+      <c r="H13" s="120"/>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="2:10" ht="29.1" customHeight="1">
-      <c r="B14" s="96"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="98"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="116"/>
       <c r="G14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="101"/>
+      <c r="H14" s="121"/>
       <c r="I14" s="9" t="s">
         <v>44</v>
       </c>
@@ -42124,7 +42231,7 @@
       <c r="D15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="102" t="s">
+      <c r="E15" s="124" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -42133,154 +42240,154 @@
       <c r="G15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="99" t="s">
+      <c r="H15" s="119" t="s">
         <v>49</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="2:10" ht="29.1" customHeight="1">
-      <c r="B16" s="96">
+      <c r="B16" s="117">
         <v>6</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="97" t="s">
+      <c r="D16" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="103"/>
-      <c r="F16" s="98" t="s">
+      <c r="E16" s="114"/>
+      <c r="F16" s="116" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="100"/>
+      <c r="H16" s="120"/>
       <c r="I16" s="9"/>
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="2:10" ht="29.1" customHeight="1">
-      <c r="B17" s="96"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="98"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="116"/>
       <c r="G17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="101"/>
+      <c r="H17" s="121"/>
       <c r="I17" s="9"/>
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="2:10" ht="29.1" customHeight="1">
-      <c r="B18" s="96">
+      <c r="B18" s="117">
         <v>7</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="97" t="s">
+      <c r="D18" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="98" t="s">
+      <c r="E18" s="114"/>
+      <c r="F18" s="116" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="99" t="s">
+      <c r="H18" s="119" t="s">
         <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="2:10" ht="29.1" customHeight="1">
-      <c r="B19" s="96"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="98"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="116"/>
       <c r="G19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="100"/>
+      <c r="H19" s="120"/>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="2:10" ht="29.1" customHeight="1">
-      <c r="B20" s="96"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="98"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="116"/>
       <c r="G20" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="100"/>
+      <c r="H20" s="120"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="2:10" ht="29.1" customHeight="1">
-      <c r="B21" s="96"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="98"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="116"/>
       <c r="G21" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="101"/>
+      <c r="H21" s="121"/>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="2:10" ht="29.1" customHeight="1">
-      <c r="B22" s="96">
+      <c r="B22" s="117">
         <v>8</v>
       </c>
-      <c r="C22" s="97" t="s">
+      <c r="C22" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="97" t="s">
+      <c r="D22" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="103"/>
-      <c r="F22" s="98" t="s">
+      <c r="E22" s="114"/>
+      <c r="F22" s="116" t="s">
         <v>23</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="99" t="s">
+      <c r="H22" s="119" t="s">
         <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="2:10" ht="29.1" customHeight="1">
-      <c r="B23" s="96"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="98"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="116"/>
       <c r="G23" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="100"/>
+      <c r="H23" s="120"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="2:10" ht="29.1" customHeight="1">
-      <c r="B24" s="96"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="98"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="116"/>
       <c r="G24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="101"/>
+      <c r="H24" s="121"/>
       <c r="I24" s="9" t="s">
         <v>67</v>
       </c>
@@ -42317,32 +42424,32 @@
       <c r="J26" s="26"/>
     </row>
     <row r="27" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94" t="s">
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94" t="s">
+      <c r="G27" s="125"/>
+      <c r="H27" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="125"/>
     </row>
     <row r="28" spans="2:10" ht="33.950000000000003" customHeight="1">
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="126"/>
     </row>
     <row r="29" spans="2:10" ht="15">
       <c r="B29" s="27"/>
@@ -42368,15 +42475,32 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="E15:E24"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="H18:H21"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -42393,32 +42517,15 @@
     <mergeCell ref="F12:F14"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="H7:H11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="E15:E24"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.1" bottom="0.1" header="0.1" footer="0.1"/>
@@ -42427,7 +42534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
@@ -43851,7 +43958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
@@ -45547,7 +45654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
@@ -47326,7 +47433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
@@ -49105,7 +49212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A17" workbookViewId="0">
@@ -50830,7 +50937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
@@ -52522,7 +52629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
@@ -54328,7 +54435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
@@ -55972,7 +56079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" rightToLeft="1" workbookViewId="0"/>
@@ -55985,7 +56092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView rightToLeft="1" view="pageLayout" topLeftCell="B8" zoomScale="150" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -56007,276 +56114,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="36.950000000000003" customHeight="1" thickBot="1">
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
     </row>
     <row r="2" spans="2:10" ht="33" customHeight="1">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123" t="s">
+      <c r="D2" s="97"/>
+      <c r="E2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="123" t="s">
+      <c r="F2" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="123" t="s">
+      <c r="G2" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="123" t="s">
+      <c r="I2" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="125" t="s">
+      <c r="J2" s="99" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="33" customHeight="1" thickBot="1">
-      <c r="B3" s="122"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="126"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="100"/>
     </row>
     <row r="4" spans="2:10" ht="33" customHeight="1">
-      <c r="B4" s="115">
+      <c r="B4" s="109">
         <v>1</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="119" t="s">
+      <c r="E4" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="116" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="128" t="s">
+      <c r="H4" s="127" t="s">
         <v>77</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="2:10" ht="33" customHeight="1">
-      <c r="B5" s="116"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="98"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="116"/>
       <c r="G5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="100"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="2:10" ht="33" customHeight="1">
-      <c r="B6" s="116"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="98"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="116"/>
       <c r="G6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="101"/>
+      <c r="H6" s="121"/>
       <c r="I6" s="9"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="2:10" ht="33" customHeight="1">
-      <c r="B7" s="96">
+      <c r="B7" s="117">
         <v>2</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="98" t="s">
+      <c r="E7" s="114"/>
+      <c r="F7" s="116" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="99" t="s">
+      <c r="H7" s="119" t="s">
         <v>81</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="2:10" ht="33" customHeight="1">
-      <c r="B8" s="96"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="98"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="116"/>
       <c r="G8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="100"/>
+      <c r="H8" s="120"/>
       <c r="I8" s="9"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="2:10" ht="33" customHeight="1">
-      <c r="B9" s="105">
+      <c r="B9" s="104">
         <v>3</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="108" t="s">
+      <c r="D9" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="103"/>
-      <c r="F9" s="98" t="s">
+      <c r="E9" s="114"/>
+      <c r="F9" s="116" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="100"/>
+      <c r="H9" s="120"/>
       <c r="I9" s="9"/>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="2:10" ht="33" customHeight="1">
-      <c r="B10" s="106"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="98"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="116"/>
       <c r="G10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="101"/>
+      <c r="H10" s="121"/>
       <c r="I10" s="9"/>
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="2:10" ht="33" customHeight="1">
-      <c r="B11" s="96">
+      <c r="B11" s="117">
         <v>4</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="97" t="s">
+      <c r="D11" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="103"/>
-      <c r="F11" s="98" t="s">
+      <c r="E11" s="114"/>
+      <c r="F11" s="116" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="99" t="s">
+      <c r="H11" s="119" t="s">
         <v>86</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="2:10" ht="33" customHeight="1">
-      <c r="B12" s="96"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="98"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="116"/>
       <c r="G12" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="100"/>
+      <c r="H12" s="120"/>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="2:10" ht="33" customHeight="1">
-      <c r="B13" s="96"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="98"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="116"/>
       <c r="G13" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="101"/>
+      <c r="H13" s="121"/>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="2:10" ht="33" customHeight="1">
-      <c r="B14" s="96">
+      <c r="B14" s="117">
         <v>5</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="103"/>
-      <c r="F14" s="98" t="s">
+      <c r="E14" s="114"/>
+      <c r="F14" s="116" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="99" t="s">
+      <c r="H14" s="119" t="s">
         <v>90</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="2:10" ht="33" customHeight="1">
-      <c r="B15" s="96"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="98"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="116"/>
       <c r="G15" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="100"/>
+      <c r="H15" s="120"/>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="2:10" ht="33" customHeight="1">
-      <c r="B16" s="96"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="98"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="116"/>
       <c r="G16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="101"/>
+      <c r="H16" s="121"/>
       <c r="I16" s="9" t="s">
         <v>44</v>
       </c>
@@ -56292,7 +56399,7 @@
       <c r="D17" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="102" t="s">
+      <c r="E17" s="124" t="s">
         <v>93</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -56310,72 +56417,72 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="33" customHeight="1">
-      <c r="B18" s="96">
+      <c r="B18" s="117">
         <v>7</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="97" t="s">
+      <c r="D18" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="98" t="s">
+      <c r="E18" s="114"/>
+      <c r="F18" s="116" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="99" t="s">
+      <c r="H18" s="119" t="s">
         <v>98</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="2:10" ht="33" customHeight="1">
-      <c r="B19" s="96"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="98"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="116"/>
       <c r="G19" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="100"/>
+      <c r="H19" s="120"/>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="2:10" ht="33" customHeight="1">
-      <c r="B20" s="96">
+      <c r="B20" s="117">
         <v>8</v>
       </c>
-      <c r="C20" s="97" t="s">
+      <c r="C20" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="97" t="s">
+      <c r="D20" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="103"/>
-      <c r="F20" s="98" t="s">
+      <c r="E20" s="114"/>
+      <c r="F20" s="116" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="100"/>
+      <c r="H20" s="120"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="2:10" ht="33" customHeight="1">
-      <c r="B21" s="96"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="98"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="116"/>
       <c r="G21" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="101"/>
+      <c r="H21" s="121"/>
       <c r="I21" s="9" t="s">
         <v>67</v>
       </c>
@@ -56391,7 +56498,7 @@
       <c r="D22" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="127"/>
+      <c r="E22" s="128"/>
       <c r="F22" s="17"/>
       <c r="G22" s="18"/>
       <c r="H22" s="19"/>
@@ -56412,32 +56519,32 @@
       <c r="J23" s="26"/>
     </row>
     <row r="24" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94" t="s">
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94" t="s">
+      <c r="G24" s="125"/>
+      <c r="H24" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="125"/>
     </row>
     <row r="25" spans="2:10" ht="33.950000000000003" customHeight="1">
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
     </row>
     <row r="26" spans="2:10" ht="15">
       <c r="B26" s="27"/>
@@ -56463,16 +56570,26 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="H14:H16"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="B7:B8"/>
@@ -56489,30 +56606,20 @@
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="E17:E22"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.1" bottom="0.1" header="0.1" footer="0.1"/>
@@ -56521,7 +56628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView rightToLeft="1" view="pageLayout" topLeftCell="B1" zoomScale="150" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -56543,176 +56650,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="36.950000000000003" customHeight="1" thickBot="1">
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
     </row>
     <row r="2" spans="2:10" ht="42.95" customHeight="1">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123" t="s">
+      <c r="D2" s="97"/>
+      <c r="E2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="123" t="s">
+      <c r="F2" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="123" t="s">
+      <c r="G2" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="123" t="s">
+      <c r="I2" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="125" t="s">
+      <c r="J2" s="99" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="42.95" customHeight="1" thickBot="1">
-      <c r="B3" s="122"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="126"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="100"/>
     </row>
     <row r="4" spans="2:10" ht="42.95" customHeight="1">
-      <c r="B4" s="115">
+      <c r="B4" s="109">
         <v>1</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="119" t="s">
+      <c r="E4" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="116" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="128" t="s">
+      <c r="H4" s="127" t="s">
         <v>104</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="2:10" ht="42.95" customHeight="1">
-      <c r="B5" s="115"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="98"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="116"/>
       <c r="G5" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="100"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="4"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="2:10" ht="42.95" customHeight="1">
-      <c r="B6" s="116"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="98"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="116"/>
       <c r="G6" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="100"/>
+      <c r="H6" s="120"/>
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="2:10" ht="42.95" customHeight="1">
-      <c r="B7" s="96">
+      <c r="B7" s="117">
         <v>2</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="98" t="s">
+      <c r="E7" s="114"/>
+      <c r="F7" s="116" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="100"/>
+      <c r="H7" s="120"/>
       <c r="I7" s="9"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="2:10" ht="42.95" customHeight="1">
-      <c r="B8" s="96"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="98"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="116"/>
       <c r="G8" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="100"/>
+      <c r="H8" s="120"/>
       <c r="I8" s="9"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="2:10" ht="42.95" customHeight="1">
-      <c r="B9" s="105">
+      <c r="B9" s="104">
         <v>3</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="108" t="s">
+      <c r="D9" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="103"/>
-      <c r="F9" s="98" t="s">
+      <c r="E9" s="114"/>
+      <c r="F9" s="116" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="H9" s="100"/>
+      <c r="H9" s="120"/>
       <c r="I9" s="9"/>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="2:10" ht="42.95" customHeight="1">
-      <c r="B10" s="106"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="98"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="116"/>
       <c r="G10" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="101"/>
+      <c r="H10" s="121"/>
       <c r="I10" s="9"/>
       <c r="J10" s="8"/>
     </row>
@@ -56726,14 +56833,14 @@
       <c r="D11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="103"/>
+      <c r="E11" s="114"/>
       <c r="F11" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="129" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="99" t="s">
+      <c r="H11" s="119" t="s">
         <v>112</v>
       </c>
       <c r="I11" s="9"/>
@@ -56749,12 +56856,12 @@
       <c r="D12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="103"/>
+      <c r="E12" s="114"/>
       <c r="F12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="130"/>
-      <c r="H12" s="100"/>
+      <c r="H12" s="120"/>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
     </row>
@@ -56768,50 +56875,50 @@
       <c r="D13" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="103"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="131"/>
-      <c r="H13" s="101"/>
+      <c r="H13" s="121"/>
       <c r="I13" s="9" t="s">
         <v>44</v>
       </c>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="2:10" ht="42.95" customHeight="1">
-      <c r="B14" s="96">
+      <c r="B14" s="117">
         <v>7</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="103"/>
-      <c r="F14" s="98" t="s">
+      <c r="E14" s="114"/>
+      <c r="F14" s="116" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="99" t="s">
+      <c r="H14" s="119" t="s">
         <v>114</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="2:10" ht="42.95" customHeight="1">
-      <c r="B15" s="96"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="98"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="116"/>
       <c r="G15" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="100"/>
+      <c r="H15" s="120"/>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
     </row>
@@ -56825,14 +56932,14 @@
       <c r="D16" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="104"/>
+      <c r="E16" s="115"/>
       <c r="F16" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="101"/>
+      <c r="H16" s="121"/>
       <c r="I16" s="9" t="s">
         <v>67</v>
       </c>
@@ -56869,32 +56976,32 @@
       <c r="J18" s="26"/>
     </row>
     <row r="19" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94" t="s">
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94" t="s">
+      <c r="G19" s="125"/>
+      <c r="H19" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="125"/>
     </row>
     <row r="20" spans="2:10" ht="33.950000000000003" customHeight="1">
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="126"/>
     </row>
     <row r="21" spans="2:10" ht="15">
       <c r="B21" s="27"/>
@@ -56920,15 +57027,17 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
@@ -56945,17 +57054,15 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G11:G13"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.1" bottom="0.1" header="0.1" footer="0.1"/>
@@ -56964,7 +57071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView rightToLeft="1" view="pageLayout" topLeftCell="B1" zoomScale="150" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -56986,129 +57093,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="36.950000000000003" customHeight="1" thickBot="1">
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
     </row>
     <row r="2" spans="2:10" ht="53.1" customHeight="1">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123" t="s">
+      <c r="D2" s="97"/>
+      <c r="E2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="123" t="s">
+      <c r="F2" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="123" t="s">
+      <c r="G2" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="123" t="s">
+      <c r="I2" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="125" t="s">
+      <c r="J2" s="99" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="53.1" customHeight="1" thickBot="1">
-      <c r="B3" s="122"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="126"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="100"/>
     </row>
     <row r="4" spans="2:10" ht="53.1" customHeight="1">
-      <c r="B4" s="115">
+      <c r="B4" s="109">
         <v>1</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="119" t="s">
+      <c r="E4" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="116" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="128" t="s">
+      <c r="H4" s="127" t="s">
         <v>120</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="2:10" ht="53.1" customHeight="1">
-      <c r="B5" s="116"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="98"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="116"/>
       <c r="G5" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="100"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="2:10" ht="53.1" customHeight="1">
-      <c r="B6" s="96">
+      <c r="B6" s="117">
         <v>2</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="98" t="s">
+      <c r="E6" s="114"/>
+      <c r="F6" s="116" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="100"/>
+      <c r="H6" s="120"/>
       <c r="I6" s="9"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="2:10" ht="53.1" customHeight="1">
-      <c r="B7" s="96"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="98"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="116"/>
       <c r="G7" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H7" s="100"/>
+      <c r="H7" s="120"/>
       <c r="I7" s="9"/>
       <c r="J7" s="8"/>
     </row>
@@ -57122,14 +57229,14 @@
       <c r="D8" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="103"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="99" t="s">
+      <c r="H8" s="119" t="s">
         <v>125</v>
       </c>
       <c r="I8" s="9"/>
@@ -57145,14 +57252,14 @@
       <c r="D9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="103"/>
+      <c r="E9" s="114"/>
       <c r="F9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="100"/>
+      <c r="H9" s="120"/>
       <c r="I9" s="9" t="s">
         <v>44</v>
       </c>
@@ -57168,14 +57275,14 @@
       <c r="D10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="103"/>
+      <c r="E10" s="114"/>
       <c r="F10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="99" t="s">
+      <c r="H10" s="119" t="s">
         <v>128</v>
       </c>
       <c r="I10" s="9"/>
@@ -57191,14 +57298,14 @@
       <c r="D11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="103"/>
+      <c r="E11" s="114"/>
       <c r="F11" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="100"/>
+      <c r="H11" s="120"/>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
     </row>
@@ -57212,14 +57319,14 @@
       <c r="D12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="103"/>
+      <c r="E12" s="114"/>
       <c r="F12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="99" t="s">
+      <c r="H12" s="119" t="s">
         <v>131</v>
       </c>
       <c r="I12" s="9"/>
@@ -57235,14 +57342,14 @@
       <c r="D13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="103"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="101"/>
+      <c r="H13" s="121"/>
       <c r="I13" s="9" t="s">
         <v>67</v>
       </c>
@@ -57279,32 +57386,32 @@
       <c r="J15" s="26"/>
     </row>
     <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94" t="s">
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94" t="s">
+      <c r="G16" s="125"/>
+      <c r="H16" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
     </row>
     <row r="17" spans="2:10" ht="33.950000000000003" customHeight="1">
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="126"/>
     </row>
     <row r="18" spans="2:10" ht="15">
       <c r="B18" s="27"/>
@@ -57330,15 +57437,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
     <mergeCell ref="H4:H7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
@@ -57349,15 +57456,15 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E13"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.1" bottom="0.1" header="0.1" footer="0.1"/>
@@ -57366,7 +57473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" rightToLeft="1" workbookViewId="0"/>
@@ -57379,13 +57486,13 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IY56"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -57844,37 +57951,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A1" s="153"/>
-      <c r="B1" s="153"/>
-      <c r="C1" s="154" t="s">
+      <c r="A1" s="134"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
       <c r="N1" s="40"/>
       <c r="O1" s="40"/>
       <c r="P1" s="41"/>
     </row>
     <row r="2" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A2" s="156"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
       <c r="M2" s="42" t="s">
         <v>134</v>
       </c>
@@ -57885,19 +57992,19 @@
       <c r="P2" s="41"/>
     </row>
     <row r="3" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="139" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
       <c r="M3" s="42" t="s">
         <v>135</v>
       </c>
@@ -57908,8 +58015,8 @@
       <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1">
-      <c r="A4" s="151"/>
-      <c r="B4" s="152"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="133"/>
       <c r="C4" s="45"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -57924,67 +58031,67 @@
       <c r="P4" s="41"/>
     </row>
     <row r="5" spans="1:259" ht="92.25" customHeight="1">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="152" t="s">
         <v>136</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="153" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="143" t="s">
+      <c r="D5" s="154"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="153" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="146" t="s">
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="156" t="s">
         <v>140</v>
       </c>
-      <c r="L5" s="147" t="s">
+      <c r="L5" s="157" t="s">
         <v>141</v>
       </c>
-      <c r="M5" s="149" t="s">
+      <c r="M5" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="N5" s="150"/>
-      <c r="O5" s="134" t="s">
+      <c r="N5" s="160"/>
+      <c r="O5" s="144" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:259" ht="200.25" customHeight="1">
-      <c r="A6" s="142"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="145" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135" t="s">
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="148"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="N6" s="136" t="s">
+      <c r="N6" s="146" t="s">
         <v>147</v>
       </c>
-      <c r="O6" s="134"/>
+      <c r="O6" s="144"/>
     </row>
     <row r="7" spans="1:259" ht="60" customHeight="1">
-      <c r="A7" s="142"/>
+      <c r="A7" s="152"/>
       <c r="B7" s="52" t="s">
         <v>148</v>
       </c>
@@ -58021,7 +58128,7 @@
       <c r="M7" s="56">
         <v>100</v>
       </c>
-      <c r="N7" s="137"/>
+      <c r="N7" s="147"/>
       <c r="O7" s="57">
         <v>100</v>
       </c>
@@ -60185,23 +60292,23 @@
       </c>
     </row>
     <row r="48" spans="1:259" ht="60" customHeight="1">
-      <c r="A48" s="138" t="s">
+      <c r="A48" s="148" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="138"/>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="138"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="138"/>
-      <c r="J48" s="138"/>
-      <c r="K48" s="138"/>
-      <c r="L48" s="138"/>
-      <c r="M48" s="138"/>
-      <c r="N48" s="138"/>
-      <c r="O48" s="138"/>
+      <c r="B48" s="148"/>
+      <c r="C48" s="148"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="148"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="148"/>
+      <c r="J48" s="148"/>
+      <c r="K48" s="148"/>
+      <c r="L48" s="148"/>
+      <c r="M48" s="148"/>
+      <c r="N48" s="148"/>
+      <c r="O48" s="148"/>
       <c r="P48" s="68"/>
       <c r="Q48" s="68"/>
       <c r="R48" s="68"/>
@@ -60452,17 +60559,17 @@
       <c r="B49" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="C49" s="139"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="140"/>
-      <c r="F49" s="140"/>
-      <c r="G49" s="140"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="140"/>
-      <c r="K49" s="140"/>
-      <c r="L49" s="140"/>
-      <c r="M49" s="141"/>
+      <c r="C49" s="149"/>
+      <c r="D49" s="150"/>
+      <c r="E49" s="150"/>
+      <c r="F49" s="150"/>
+      <c r="G49" s="150"/>
+      <c r="H49" s="150"/>
+      <c r="I49" s="150"/>
+      <c r="J49" s="150"/>
+      <c r="K49" s="150"/>
+      <c r="L49" s="150"/>
+      <c r="M49" s="151"/>
       <c r="N49" s="71"/>
       <c r="O49" s="71"/>
     </row>
@@ -60711,24 +60818,24 @@
       <c r="B55" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="C55" s="132" t="s">
+      <c r="C55" s="142" t="s">
         <v>183</v>
       </c>
-      <c r="D55" s="132" t="s">
+      <c r="D55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="E55" s="132" t="s">
+      <c r="E55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="F55" s="132" t="s">
+      <c r="F55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="G55" s="132"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132" t="s">
+      <c r="G55" s="142"/>
+      <c r="H55" s="142"/>
+      <c r="I55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="J55" s="132" t="s">
+      <c r="J55" s="142" t="s">
         <v>184</v>
       </c>
       <c r="K55" s="79" t="s">
@@ -60743,14 +60850,14 @@
     <row r="56" spans="1:16" s="88" customFormat="1" ht="42.75" customHeight="1">
       <c r="A56" s="83"/>
       <c r="B56" s="84"/>
-      <c r="C56" s="133"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="133"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="143"/>
       <c r="K56" s="85"/>
       <c r="L56" s="86"/>
       <c r="M56" s="86"/>
@@ -60761,12 +60868,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="bymfRcfdrKcinTwDVsD9Sw9HEi8Aylyen4Sk5Zge/jYh+kvPJ7FX30Y4JStUMt7GaslXX539UxCjP4mWFs/Pug==" saltValue="rJpldvugpSjeUtd+V1m7xQ==" spinCount="100000" sheet="1"/>
   <mergeCells count="20">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:L2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:K3"/>
     <mergeCell ref="C55:J55"/>
     <mergeCell ref="C56:J56"/>
     <mergeCell ref="O5:O6"/>
@@ -60781,22 +60882,28 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:L2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:K3"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L47" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:I47 K8:K47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:I47 K8:K47" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D47" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="يجب أن تكون القيمة بين 0 و 5" sqref="SU46:TF50 ACQ46:ADB50 AMM46:AMX50 AWI46:AWT50 BGE46:BGP50 BQA46:BQL50 BZW46:CAH50 CJS46:CKD50 CTO46:CTZ50 DDK46:DDV50 DNG46:DNR50 DXC46:DXN50 EGY46:EHJ50 EQU46:ERF50 FAQ46:FBB50 FKM46:FKX50 FUI46:FUT50 GEE46:GEP50 GOA46:GOL50 GXW46:GYH50 HHS46:HID50 HRO46:HRZ50 IBK46:IBV50 ILG46:ILR50 IVC46:IVN50 JEY46:JFJ50 JOU46:JPF50 JYQ46:JZB50 KIM46:KIX50 KSI46:KST50 LCE46:LCP50 LMA46:LML50 LVW46:LWH50 MFS46:MGD50 MPO46:MPZ50 MZK46:MZV50 NJG46:NJR50 NTC46:NTN50 OCY46:ODJ50 OMU46:ONF50 OWQ46:OXB50 PGM46:PGX50 PQI46:PQT50 QAE46:QAP50 QKA46:QKL50 QTW46:QUH50 RDS46:RED50 RNO46:RNZ50 RXK46:RXV50 SHG46:SHR50 SRC46:SRN50 TAY46:TBJ50 TKU46:TLF50 TUQ46:TVB50 UEM46:UEX50 UOI46:UOT50 UYE46:UYP50 VIA46:VIL50 VRW46:VSH50 WBS46:WCD50 WLO46:WLZ50 WVK46:WVV50 SU65584:TF65588 ACQ65584:ADB65588 AMM65584:AMX65588 AWI65584:AWT65588 BGE65584:BGP65588 BQA65584:BQL65588 BZW65584:CAH65588 CJS65584:CKD65588 CTO65584:CTZ65588 DDK65584:DDV65588 DNG65584:DNR65588 DXC65584:DXN65588 EGY65584:EHJ65588 EQU65584:ERF65588 FAQ65584:FBB65588 FKM65584:FKX65588 FUI65584:FUT65588 GEE65584:GEP65588 GOA65584:GOL65588 GXW65584:GYH65588 HHS65584:HID65588 HRO65584:HRZ65588 IBK65584:IBV65588 ILG65584:ILR65588 IVC65584:IVN65588 JEY65584:JFJ65588 JOU65584:JPF65588 JYQ65584:JZB65588 KIM65584:KIX65588 KSI65584:KST65588 LCE65584:LCP65588 LMA65584:LML65588 LVW65584:LWH65588 MFS65584:MGD65588 MPO65584:MPZ65588 MZK65584:MZV65588 NJG65584:NJR65588 NTC65584:NTN65588 OCY65584:ODJ65588 OMU65584:ONF65588 OWQ65584:OXB65588 PGM65584:PGX65588 PQI65584:PQT65588 QAE65584:QAP65588 QKA65584:QKL65588 QTW65584:QUH65588 RDS65584:RED65588 RNO65584:RNZ65588 RXK65584:RXV65588 SHG65584:SHR65588 SRC65584:SRN65588 TAY65584:TBJ65588 TKU65584:TLF65588 TUQ65584:TVB65588 UEM65584:UEX65588 UOI65584:UOT65588 UYE65584:UYP65588 VIA65584:VIL65588 VRW65584:VSH65588 WBS65584:WCD65588 WLO65584:WLZ65588 WVK65584:WVV65588 SU131120:TF131124 ACQ131120:ADB131124 AMM131120:AMX131124 AWI131120:AWT131124 BGE131120:BGP131124 BQA131120:BQL131124 BZW131120:CAH131124 CJS131120:CKD131124 CTO131120:CTZ131124 DDK131120:DDV131124 DNG131120:DNR131124 DXC131120:DXN131124 EGY131120:EHJ131124 EQU131120:ERF131124 FAQ131120:FBB131124 FKM131120:FKX131124 FUI131120:FUT131124 GEE131120:GEP131124 GOA131120:GOL131124 GXW131120:GYH131124 HHS131120:HID131124 HRO131120:HRZ131124 IBK131120:IBV131124 ILG131120:ILR131124 IVC131120:IVN131124 JEY131120:JFJ131124 JOU131120:JPF131124 JYQ131120:JZB131124 KIM131120:KIX131124 KSI131120:KST131124 LCE131120:LCP131124 LMA131120:LML131124 LVW131120:LWH131124 MFS131120:MGD131124 MPO131120:MPZ131124 MZK131120:MZV131124 NJG131120:NJR131124 NTC131120:NTN131124 OCY131120:ODJ131124 OMU131120:ONF131124 OWQ131120:OXB131124 PGM131120:PGX131124 PQI131120:PQT131124 QAE131120:QAP131124 QKA131120:QKL131124 QTW131120:QUH131124 RDS131120:RED131124 RNO131120:RNZ131124 RXK131120:RXV131124 SHG131120:SHR131124 SRC131120:SRN131124 TAY131120:TBJ131124 TKU131120:TLF131124 TUQ131120:TVB131124 UEM131120:UEX131124 UOI131120:UOT131124 UYE131120:UYP131124 VIA131120:VIL131124 VRW131120:VSH131124 WBS131120:WCD131124 WLO131120:WLZ131124 WVK131120:WVV131124 SU196656:TF196660 ACQ196656:ADB196660 AMM196656:AMX196660 AWI196656:AWT196660 BGE196656:BGP196660 BQA196656:BQL196660 BZW196656:CAH196660 CJS196656:CKD196660 CTO196656:CTZ196660 DDK196656:DDV196660 DNG196656:DNR196660 DXC196656:DXN196660 EGY196656:EHJ196660 EQU196656:ERF196660 FAQ196656:FBB196660 FKM196656:FKX196660 FUI196656:FUT196660 GEE196656:GEP196660 GOA196656:GOL196660 GXW196656:GYH196660 HHS196656:HID196660 HRO196656:HRZ196660 IBK196656:IBV196660 ILG196656:ILR196660 IVC196656:IVN196660 JEY196656:JFJ196660 JOU196656:JPF196660 JYQ196656:JZB196660 KIM196656:KIX196660 KSI196656:KST196660 LCE196656:LCP196660 LMA196656:LML196660 LVW196656:LWH196660 MFS196656:MGD196660 MPO196656:MPZ196660 MZK196656:MZV196660 NJG196656:NJR196660 NTC196656:NTN196660 OCY196656:ODJ196660 OMU196656:ONF196660 OWQ196656:OXB196660 PGM196656:PGX196660 PQI196656:PQT196660 QAE196656:QAP196660 QKA196656:QKL196660 QTW196656:QUH196660 RDS196656:RED196660 RNO196656:RNZ196660 RXK196656:RXV196660 SHG196656:SHR196660 SRC196656:SRN196660 TAY196656:TBJ196660 TKU196656:TLF196660 TUQ196656:TVB196660 UEM196656:UEX196660 UOI196656:UOT196660 UYE196656:UYP196660 VIA196656:VIL196660 VRW196656:VSH196660 WBS196656:WCD196660 WLO196656:WLZ196660 WVK196656:WVV196660 SU262192:TF262196 ACQ262192:ADB262196 AMM262192:AMX262196 AWI262192:AWT262196 BGE262192:BGP262196 BQA262192:BQL262196 BZW262192:CAH262196 CJS262192:CKD262196 CTO262192:CTZ262196 DDK262192:DDV262196 DNG262192:DNR262196 DXC262192:DXN262196 EGY262192:EHJ262196 EQU262192:ERF262196 FAQ262192:FBB262196 FKM262192:FKX262196 FUI262192:FUT262196 GEE262192:GEP262196 GOA262192:GOL262196 GXW262192:GYH262196 HHS262192:HID262196 HRO262192:HRZ262196 IBK262192:IBV262196 ILG262192:ILR262196 IVC262192:IVN262196 JEY262192:JFJ262196 JOU262192:JPF262196 JYQ262192:JZB262196 KIM262192:KIX262196 KSI262192:KST262196 LCE262192:LCP262196 LMA262192:LML262196 LVW262192:LWH262196 MFS262192:MGD262196 MPO262192:MPZ262196 MZK262192:MZV262196 NJG262192:NJR262196 NTC262192:NTN262196 OCY262192:ODJ262196 OMU262192:ONF262196 OWQ262192:OXB262196 PGM262192:PGX262196 PQI262192:PQT262196 QAE262192:QAP262196 QKA262192:QKL262196 QTW262192:QUH262196 RDS262192:RED262196 RNO262192:RNZ262196 RXK262192:RXV262196 SHG262192:SHR262196 SRC262192:SRN262196 TAY262192:TBJ262196 TKU262192:TLF262196 TUQ262192:TVB262196 UEM262192:UEX262196 UOI262192:UOT262196 UYE262192:UYP262196 VIA262192:VIL262196 VRW262192:VSH262196 WBS262192:WCD262196 WLO262192:WLZ262196 WVK262192:WVV262196 SU327728:TF327732 ACQ327728:ADB327732 AMM327728:AMX327732 AWI327728:AWT327732 BGE327728:BGP327732 BQA327728:BQL327732 BZW327728:CAH327732 CJS327728:CKD327732 CTO327728:CTZ327732 DDK327728:DDV327732 DNG327728:DNR327732 DXC327728:DXN327732 EGY327728:EHJ327732 EQU327728:ERF327732 FAQ327728:FBB327732 FKM327728:FKX327732 FUI327728:FUT327732 GEE327728:GEP327732 GOA327728:GOL327732 GXW327728:GYH327732 HHS327728:HID327732 HRO327728:HRZ327732 IBK327728:IBV327732 ILG327728:ILR327732 IVC327728:IVN327732 JEY327728:JFJ327732 JOU327728:JPF327732 JYQ327728:JZB327732 KIM327728:KIX327732 KSI327728:KST327732 LCE327728:LCP327732 LMA327728:LML327732 LVW327728:LWH327732 MFS327728:MGD327732 MPO327728:MPZ327732 MZK327728:MZV327732 NJG327728:NJR327732 NTC327728:NTN327732 OCY327728:ODJ327732 OMU327728:ONF327732 OWQ327728:OXB327732 PGM327728:PGX327732 PQI327728:PQT327732 QAE327728:QAP327732 QKA327728:QKL327732 QTW327728:QUH327732 RDS327728:RED327732 RNO327728:RNZ327732 RXK327728:RXV327732 SHG327728:SHR327732 SRC327728:SRN327732 TAY327728:TBJ327732 TKU327728:TLF327732 TUQ327728:TVB327732 UEM327728:UEX327732 UOI327728:UOT327732 UYE327728:UYP327732 VIA327728:VIL327732 VRW327728:VSH327732 WBS327728:WCD327732 WLO327728:WLZ327732 WVK327728:WVV327732 SU393264:TF393268 ACQ393264:ADB393268 AMM393264:AMX393268 AWI393264:AWT393268 BGE393264:BGP393268 BQA393264:BQL393268 BZW393264:CAH393268 CJS393264:CKD393268 CTO393264:CTZ393268 DDK393264:DDV393268 DNG393264:DNR393268 DXC393264:DXN393268 EGY393264:EHJ393268 EQU393264:ERF393268 FAQ393264:FBB393268 FKM393264:FKX393268 FUI393264:FUT393268 GEE393264:GEP393268 GOA393264:GOL393268 GXW393264:GYH393268 HHS393264:HID393268 HRO393264:HRZ393268 IBK393264:IBV393268 ILG393264:ILR393268 IVC393264:IVN393268 JEY393264:JFJ393268 JOU393264:JPF393268 JYQ393264:JZB393268 KIM393264:KIX393268 KSI393264:KST393268 LCE393264:LCP393268 LMA393264:LML393268 LVW393264:LWH393268 MFS393264:MGD393268 MPO393264:MPZ393268 MZK393264:MZV393268 NJG393264:NJR393268 NTC393264:NTN393268 OCY393264:ODJ393268 OMU393264:ONF393268 OWQ393264:OXB393268 PGM393264:PGX393268 PQI393264:PQT393268 QAE393264:QAP393268 QKA393264:QKL393268 QTW393264:QUH393268 RDS393264:RED393268 RNO393264:RNZ393268 RXK393264:RXV393268 SHG393264:SHR393268 SRC393264:SRN393268 TAY393264:TBJ393268 TKU393264:TLF393268 TUQ393264:TVB393268 UEM393264:UEX393268 UOI393264:UOT393268 UYE393264:UYP393268 VIA393264:VIL393268 VRW393264:VSH393268 WBS393264:WCD393268 WLO393264:WLZ393268 WVK393264:WVV393268 SU458800:TF458804 ACQ458800:ADB458804 AMM458800:AMX458804 AWI458800:AWT458804 BGE458800:BGP458804 BQA458800:BQL458804 BZW458800:CAH458804 CJS458800:CKD458804 CTO458800:CTZ458804 DDK458800:DDV458804 DNG458800:DNR458804 DXC458800:DXN458804 EGY458800:EHJ458804 EQU458800:ERF458804 FAQ458800:FBB458804 FKM458800:FKX458804 FUI458800:FUT458804 GEE458800:GEP458804 GOA458800:GOL458804 GXW458800:GYH458804 HHS458800:HID458804 HRO458800:HRZ458804 IBK458800:IBV458804 ILG458800:ILR458804 IVC458800:IVN458804 JEY458800:JFJ458804 JOU458800:JPF458804 JYQ458800:JZB458804 KIM458800:KIX458804 KSI458800:KST458804 LCE458800:LCP458804 LMA458800:LML458804 LVW458800:LWH458804 MFS458800:MGD458804 MPO458800:MPZ458804 MZK458800:MZV458804 NJG458800:NJR458804 NTC458800:NTN458804 OCY458800:ODJ458804 OMU458800:ONF458804 OWQ458800:OXB458804 PGM458800:PGX458804 PQI458800:PQT458804 QAE458800:QAP458804 QKA458800:QKL458804 QTW458800:QUH458804 RDS458800:RED458804 RNO458800:RNZ458804 RXK458800:RXV458804 SHG458800:SHR458804 SRC458800:SRN458804 TAY458800:TBJ458804 TKU458800:TLF458804 TUQ458800:TVB458804 UEM458800:UEX458804 UOI458800:UOT458804 UYE458800:UYP458804 VIA458800:VIL458804 VRW458800:VSH458804 WBS458800:WCD458804 WLO458800:WLZ458804 WVK458800:WVV458804 SU524336:TF524340 ACQ524336:ADB524340 AMM524336:AMX524340 AWI524336:AWT524340 BGE524336:BGP524340 BQA524336:BQL524340 BZW524336:CAH524340 CJS524336:CKD524340 CTO524336:CTZ524340 DDK524336:DDV524340 DNG524336:DNR524340 DXC524336:DXN524340 EGY524336:EHJ524340 EQU524336:ERF524340 FAQ524336:FBB524340 FKM524336:FKX524340 FUI524336:FUT524340 GEE524336:GEP524340 GOA524336:GOL524340 GXW524336:GYH524340 HHS524336:HID524340 HRO524336:HRZ524340 IBK524336:IBV524340 ILG524336:ILR524340 IVC524336:IVN524340 JEY524336:JFJ524340 JOU524336:JPF524340 JYQ524336:JZB524340 KIM524336:KIX524340 KSI524336:KST524340 LCE524336:LCP524340 LMA524336:LML524340 LVW524336:LWH524340 MFS524336:MGD524340 MPO524336:MPZ524340 MZK524336:MZV524340 NJG524336:NJR524340 NTC524336:NTN524340 OCY524336:ODJ524340 OMU524336:ONF524340 OWQ524336:OXB524340 PGM524336:PGX524340 PQI524336:PQT524340 QAE524336:QAP524340 QKA524336:QKL524340 QTW524336:QUH524340 RDS524336:RED524340 RNO524336:RNZ524340 RXK524336:RXV524340 SHG524336:SHR524340 SRC524336:SRN524340 TAY524336:TBJ524340 TKU524336:TLF524340 TUQ524336:TVB524340 UEM524336:UEX524340 UOI524336:UOT524340 UYE524336:UYP524340 VIA524336:VIL524340 VRW524336:VSH524340 WBS524336:WCD524340 WLO524336:WLZ524340 WVK524336:WVV524340 SU589872:TF589876 ACQ589872:ADB589876 AMM589872:AMX589876 AWI589872:AWT589876 BGE589872:BGP589876 BQA589872:BQL589876 BZW589872:CAH589876 CJS589872:CKD589876 CTO589872:CTZ589876 DDK589872:DDV589876 DNG589872:DNR589876 DXC589872:DXN589876 EGY589872:EHJ589876 EQU589872:ERF589876 FAQ589872:FBB589876 FKM589872:FKX589876 FUI589872:FUT589876 GEE589872:GEP589876 GOA589872:GOL589876 GXW589872:GYH589876 HHS589872:HID589876 HRO589872:HRZ589876 IBK589872:IBV589876 ILG589872:ILR589876 IVC589872:IVN589876 JEY589872:JFJ589876 JOU589872:JPF589876 JYQ589872:JZB589876 KIM589872:KIX589876 KSI589872:KST589876 LCE589872:LCP589876 LMA589872:LML589876 LVW589872:LWH589876 MFS589872:MGD589876 MPO589872:MPZ589876 MZK589872:MZV589876 NJG589872:NJR589876 NTC589872:NTN589876 OCY589872:ODJ589876 OMU589872:ONF589876 OWQ589872:OXB589876 PGM589872:PGX589876 PQI589872:PQT589876 QAE589872:QAP589876 QKA589872:QKL589876 QTW589872:QUH589876 RDS589872:RED589876 RNO589872:RNZ589876 RXK589872:RXV589876 SHG589872:SHR589876 SRC589872:SRN589876 TAY589872:TBJ589876 TKU589872:TLF589876 TUQ589872:TVB589876 UEM589872:UEX589876 UOI589872:UOT589876 UYE589872:UYP589876 VIA589872:VIL589876 VRW589872:VSH589876 WBS589872:WCD589876 WLO589872:WLZ589876 WVK589872:WVV589876 SU655408:TF655412 ACQ655408:ADB655412 AMM655408:AMX655412 AWI655408:AWT655412 BGE655408:BGP655412 BQA655408:BQL655412 BZW655408:CAH655412 CJS655408:CKD655412 CTO655408:CTZ655412 DDK655408:DDV655412 DNG655408:DNR655412 DXC655408:DXN655412 EGY655408:EHJ655412 EQU655408:ERF655412 FAQ655408:FBB655412 FKM655408:FKX655412 FUI655408:FUT655412 GEE655408:GEP655412 GOA655408:GOL655412 GXW655408:GYH655412 HHS655408:HID655412 HRO655408:HRZ655412 IBK655408:IBV655412 ILG655408:ILR655412 IVC655408:IVN655412 JEY655408:JFJ655412 JOU655408:JPF655412 JYQ655408:JZB655412 KIM655408:KIX655412 KSI655408:KST655412 LCE655408:LCP655412 LMA655408:LML655412 LVW655408:LWH655412 MFS655408:MGD655412 MPO655408:MPZ655412 MZK655408:MZV655412 NJG655408:NJR655412 NTC655408:NTN655412 OCY655408:ODJ655412 OMU655408:ONF655412 OWQ655408:OXB655412 PGM655408:PGX655412 PQI655408:PQT655412 QAE655408:QAP655412 QKA655408:QKL655412 QTW655408:QUH655412 RDS655408:RED655412 RNO655408:RNZ655412 RXK655408:RXV655412 SHG655408:SHR655412 SRC655408:SRN655412 TAY655408:TBJ655412 TKU655408:TLF655412 TUQ655408:TVB655412 UEM655408:UEX655412 UOI655408:UOT655412 UYE655408:UYP655412 VIA655408:VIL655412 VRW655408:VSH655412 WBS655408:WCD655412 WLO655408:WLZ655412 WVK655408:WVV655412 SU720944:TF720948 ACQ720944:ADB720948 AMM720944:AMX720948 AWI720944:AWT720948 BGE720944:BGP720948 BQA720944:BQL720948 BZW720944:CAH720948 CJS720944:CKD720948 CTO720944:CTZ720948 DDK720944:DDV720948 DNG720944:DNR720948 DXC720944:DXN720948 EGY720944:EHJ720948 EQU720944:ERF720948 FAQ720944:FBB720948 FKM720944:FKX720948 FUI720944:FUT720948 GEE720944:GEP720948 GOA720944:GOL720948 GXW720944:GYH720948 HHS720944:HID720948 HRO720944:HRZ720948 IBK720944:IBV720948 ILG720944:ILR720948 IVC720944:IVN720948 JEY720944:JFJ720948 JOU720944:JPF720948 JYQ720944:JZB720948 KIM720944:KIX720948 KSI720944:KST720948 LCE720944:LCP720948 LMA720944:LML720948 LVW720944:LWH720948 MFS720944:MGD720948 MPO720944:MPZ720948 MZK720944:MZV720948 NJG720944:NJR720948 NTC720944:NTN720948 OCY720944:ODJ720948 OMU720944:ONF720948 OWQ720944:OXB720948 PGM720944:PGX720948 PQI720944:PQT720948 QAE720944:QAP720948 QKA720944:QKL720948 QTW720944:QUH720948 RDS720944:RED720948 RNO720944:RNZ720948 RXK720944:RXV720948 SHG720944:SHR720948 SRC720944:SRN720948 TAY720944:TBJ720948 TKU720944:TLF720948 TUQ720944:TVB720948 UEM720944:UEX720948 UOI720944:UOT720948 UYE720944:UYP720948 VIA720944:VIL720948 VRW720944:VSH720948 WBS720944:WCD720948 WLO720944:WLZ720948 WVK720944:WVV720948 SU786480:TF786484 ACQ786480:ADB786484 AMM786480:AMX786484 AWI786480:AWT786484 BGE786480:BGP786484 BQA786480:BQL786484 BZW786480:CAH786484 CJS786480:CKD786484 CTO786480:CTZ786484 DDK786480:DDV786484 DNG786480:DNR786484 DXC786480:DXN786484 EGY786480:EHJ786484 EQU786480:ERF786484 FAQ786480:FBB786484 FKM786480:FKX786484 FUI786480:FUT786484 GEE786480:GEP786484 GOA786480:GOL786484 GXW786480:GYH786484 HHS786480:HID786484 HRO786480:HRZ786484 IBK786480:IBV786484 ILG786480:ILR786484 IVC786480:IVN786484 JEY786480:JFJ786484 JOU786480:JPF786484 JYQ786480:JZB786484 KIM786480:KIX786484 KSI786480:KST786484 LCE786480:LCP786484 LMA786480:LML786484 LVW786480:LWH786484 MFS786480:MGD786484 MPO786480:MPZ786484 MZK786480:MZV786484 NJG786480:NJR786484 NTC786480:NTN786484 OCY786480:ODJ786484 OMU786480:ONF786484 OWQ786480:OXB786484 PGM786480:PGX786484 PQI786480:PQT786484 QAE786480:QAP786484 QKA786480:QKL786484 QTW786480:QUH786484 RDS786480:RED786484 RNO786480:RNZ786484 RXK786480:RXV786484 SHG786480:SHR786484 SRC786480:SRN786484 TAY786480:TBJ786484 TKU786480:TLF786484 TUQ786480:TVB786484 UEM786480:UEX786484 UOI786480:UOT786484 UYE786480:UYP786484 VIA786480:VIL786484 VRW786480:VSH786484 WBS786480:WCD786484 WLO786480:WLZ786484 WVK786480:WVV786484 SU852016:TF852020 ACQ852016:ADB852020 AMM852016:AMX852020 AWI852016:AWT852020 BGE852016:BGP852020 BQA852016:BQL852020 BZW852016:CAH852020 CJS852016:CKD852020 CTO852016:CTZ852020 DDK852016:DDV852020 DNG852016:DNR852020 DXC852016:DXN852020 EGY852016:EHJ852020 EQU852016:ERF852020 FAQ852016:FBB852020 FKM852016:FKX852020 FUI852016:FUT852020 GEE852016:GEP852020 GOA852016:GOL852020 GXW852016:GYH852020 HHS852016:HID852020 HRO852016:HRZ852020 IBK852016:IBV852020 ILG852016:ILR852020 IVC852016:IVN852020 JEY852016:JFJ852020 JOU852016:JPF852020 JYQ852016:JZB852020 KIM852016:KIX852020 KSI852016:KST852020 LCE852016:LCP852020 LMA852016:LML852020 LVW852016:LWH852020 MFS852016:MGD852020 MPO852016:MPZ852020 MZK852016:MZV852020 NJG852016:NJR852020 NTC852016:NTN852020 OCY852016:ODJ852020 OMU852016:ONF852020 OWQ852016:OXB852020 PGM852016:PGX852020 PQI852016:PQT852020 QAE852016:QAP852020 QKA852016:QKL852020 QTW852016:QUH852020 RDS852016:RED852020 RNO852016:RNZ852020 RXK852016:RXV852020 SHG852016:SHR852020 SRC852016:SRN852020 TAY852016:TBJ852020 TKU852016:TLF852020 TUQ852016:TVB852020 UEM852016:UEX852020 UOI852016:UOT852020 UYE852016:UYP852020 VIA852016:VIL852020 VRW852016:VSH852020 WBS852016:WCD852020 WLO852016:WLZ852020 WVK852016:WVV852020 SU917552:TF917556 ACQ917552:ADB917556 AMM917552:AMX917556 AWI917552:AWT917556 BGE917552:BGP917556 BQA917552:BQL917556 BZW917552:CAH917556 CJS917552:CKD917556 CTO917552:CTZ917556 DDK917552:DDV917556 DNG917552:DNR917556 DXC917552:DXN917556 EGY917552:EHJ917556 EQU917552:ERF917556 FAQ917552:FBB917556 FKM917552:FKX917556 FUI917552:FUT917556 GEE917552:GEP917556 GOA917552:GOL917556 GXW917552:GYH917556 HHS917552:HID917556 HRO917552:HRZ917556 IBK917552:IBV917556 ILG917552:ILR917556 IVC917552:IVN917556 JEY917552:JFJ917556 JOU917552:JPF917556 JYQ917552:JZB917556 KIM917552:KIX917556 KSI917552:KST917556 LCE917552:LCP917556 LMA917552:LML917556 LVW917552:LWH917556 MFS917552:MGD917556 MPO917552:MPZ917556 MZK917552:MZV917556 NJG917552:NJR917556 NTC917552:NTN917556 OCY917552:ODJ917556 OMU917552:ONF917556 OWQ917552:OXB917556 PGM917552:PGX917556 PQI917552:PQT917556 QAE917552:QAP917556 QKA917552:QKL917556 QTW917552:QUH917556 RDS917552:RED917556 RNO917552:RNZ917556 RXK917552:RXV917556 SHG917552:SHR917556 SRC917552:SRN917556 TAY917552:TBJ917556 TKU917552:TLF917556 TUQ917552:TVB917556 UEM917552:UEX917556 UOI917552:UOT917556 UYE917552:UYP917556 VIA917552:VIL917556 VRW917552:VSH917556 WBS917552:WCD917556 WLO917552:WLZ917556 WVK917552:WVV917556 WVK983088:WVV983092 SU983088:TF983092 ACQ983088:ADB983092 AMM983088:AMX983092 AWI983088:AWT983092 BGE983088:BGP983092 BQA983088:BQL983092 BZW983088:CAH983092 CJS983088:CKD983092 CTO983088:CTZ983092 DDK983088:DDV983092 DNG983088:DNR983092 DXC983088:DXN983092 EGY983088:EHJ983092 EQU983088:ERF983092 FAQ983088:FBB983092 FKM983088:FKX983092 FUI983088:FUT983092 GEE983088:GEP983092 GOA983088:GOL983092 GXW983088:GYH983092 HHS983088:HID983092 HRO983088:HRZ983092 IBK983088:IBV983092 ILG983088:ILR983092 IVC983088:IVN983092 JEY983088:JFJ983092 JOU983088:JPF983092 JYQ983088:JZB983092 KIM983088:KIX983092 KSI983088:KST983092 LCE983088:LCP983092 LMA983088:LML983092 LVW983088:LWH983092 MFS983088:MGD983092 MPO983088:MPZ983092 MZK983088:MZV983092 NJG983088:NJR983092 NTC983088:NTN983092 OCY983088:ODJ983092 OMU983088:ONF983092 OWQ983088:OXB983092 PGM983088:PGX983092 PQI983088:PQT983092 QAE983088:QAP983092 QKA983088:QKL983092 QTW983088:QUH983092 RDS983088:RED983092 RNO983088:RNZ983092 RXK983088:RXV983092 SHG983088:SHR983092 SRC983088:SRN983092 TAY983088:TBJ983092 TKU983088:TLF983092 TUQ983088:TVB983092 UEM983088:UEX983092 UOI983088:UOT983092 UYE983088:UYP983092 VIA983088:VIL983092 VRW983088:VSH983092 WBS983088:WCD983092 WLO983088:WLZ983092 IY50:IY54 C917556:M917560 C852020:M852024 C786484:M786488 C720948:M720952 C655412:M655416 C589876:M589880 C524340:M524344 C458804:M458808 C393268:M393272 C327732:M327736 C262196:M262200 C196660:M196664 C131124:M131128 C65588:M65592 C983092:M983096 IY983092:IY983096 IZ983088:JJ983092 IY917556:IY917560 IZ917552:JJ917556 IY852020:IY852024 IZ852016:JJ852020 IY786484:IY786488 IZ786480:JJ786484 IY720948:IY720952 IZ720944:JJ720948 IY655412:IY655416 IZ655408:JJ655412 IY589876:IY589880 IZ589872:JJ589876 IY524340:IY524344 IZ524336:JJ524340 IY458804:IY458808 IZ458800:JJ458804 IY393268:IY393272 IZ393264:JJ393268 IY327732:IY327736 IZ327728:JJ327732 IY262196:IY262200 IZ262192:JJ262196 IY196660:IY196664 IZ196656:JJ196660 IY131124:IY131128 IZ131120:JJ131124 IY65588:IY65592 IZ65584:JJ65588 IZ46:JJ50 C50:M54"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JI65542:JI65581 TE65542:TE65581 ADA65542:ADA65581 AMW65542:AMW65581 AWS65542:AWS65581 BGO65542:BGO65581 BQK65542:BQK65581 CAG65542:CAG65581 CKC65542:CKC65581 CTY65542:CTY65581 DDU65542:DDU65581 DNQ65542:DNQ65581 DXM65542:DXM65581 EHI65542:EHI65581 ERE65542:ERE65581 FBA65542:FBA65581 FKW65542:FKW65581 FUS65542:FUS65581 GEO65542:GEO65581 GOK65542:GOK65581 GYG65542:GYG65581 HIC65542:HIC65581 HRY65542:HRY65581 IBU65542:IBU65581 ILQ65542:ILQ65581 IVM65542:IVM65581 JFI65542:JFI65581 JPE65542:JPE65581 JZA65542:JZA65581 KIW65542:KIW65581 KSS65542:KSS65581 LCO65542:LCO65581 LMK65542:LMK65581 LWG65542:LWG65581 MGC65542:MGC65581 MPY65542:MPY65581 MZU65542:MZU65581 NJQ65542:NJQ65581 NTM65542:NTM65581 ODI65542:ODI65581 ONE65542:ONE65581 OXA65542:OXA65581 PGW65542:PGW65581 PQS65542:PQS65581 QAO65542:QAO65581 QKK65542:QKK65581 QUG65542:QUG65581 REC65542:REC65581 RNY65542:RNY65581 RXU65542:RXU65581 SHQ65542:SHQ65581 SRM65542:SRM65581 TBI65542:TBI65581 TLE65542:TLE65581 TVA65542:TVA65581 UEW65542:UEW65581 UOS65542:UOS65581 UYO65542:UYO65581 VIK65542:VIK65581 VSG65542:VSG65581 WCC65542:WCC65581 WLY65542:WLY65581 WVU65542:WVU65581 JI131078:JI131117 TE131078:TE131117 ADA131078:ADA131117 AMW131078:AMW131117 AWS131078:AWS131117 BGO131078:BGO131117 BQK131078:BQK131117 CAG131078:CAG131117 CKC131078:CKC131117 CTY131078:CTY131117 DDU131078:DDU131117 DNQ131078:DNQ131117 DXM131078:DXM131117 EHI131078:EHI131117 ERE131078:ERE131117 FBA131078:FBA131117 FKW131078:FKW131117 FUS131078:FUS131117 GEO131078:GEO131117 GOK131078:GOK131117 GYG131078:GYG131117 HIC131078:HIC131117 HRY131078:HRY131117 IBU131078:IBU131117 ILQ131078:ILQ131117 IVM131078:IVM131117 JFI131078:JFI131117 JPE131078:JPE131117 JZA131078:JZA131117 KIW131078:KIW131117 KSS131078:KSS131117 LCO131078:LCO131117 LMK131078:LMK131117 LWG131078:LWG131117 MGC131078:MGC131117 MPY131078:MPY131117 MZU131078:MZU131117 NJQ131078:NJQ131117 NTM131078:NTM131117 ODI131078:ODI131117 ONE131078:ONE131117 OXA131078:OXA131117 PGW131078:PGW131117 PQS131078:PQS131117 QAO131078:QAO131117 QKK131078:QKK131117 QUG131078:QUG131117 REC131078:REC131117 RNY131078:RNY131117 RXU131078:RXU131117 SHQ131078:SHQ131117 SRM131078:SRM131117 TBI131078:TBI131117 TLE131078:TLE131117 TVA131078:TVA131117 UEW131078:UEW131117 UOS131078:UOS131117 UYO131078:UYO131117 VIK131078:VIK131117 VSG131078:VSG131117 WCC131078:WCC131117 WLY131078:WLY131117 WVU131078:WVU131117 JI196614:JI196653 TE196614:TE196653 ADA196614:ADA196653 AMW196614:AMW196653 AWS196614:AWS196653 BGO196614:BGO196653 BQK196614:BQK196653 CAG196614:CAG196653 CKC196614:CKC196653 CTY196614:CTY196653 DDU196614:DDU196653 DNQ196614:DNQ196653 DXM196614:DXM196653 EHI196614:EHI196653 ERE196614:ERE196653 FBA196614:FBA196653 FKW196614:FKW196653 FUS196614:FUS196653 GEO196614:GEO196653 GOK196614:GOK196653 GYG196614:GYG196653 HIC196614:HIC196653 HRY196614:HRY196653 IBU196614:IBU196653 ILQ196614:ILQ196653 IVM196614:IVM196653 JFI196614:JFI196653 JPE196614:JPE196653 JZA196614:JZA196653 KIW196614:KIW196653 KSS196614:KSS196653 LCO196614:LCO196653 LMK196614:LMK196653 LWG196614:LWG196653 MGC196614:MGC196653 MPY196614:MPY196653 MZU196614:MZU196653 NJQ196614:NJQ196653 NTM196614:NTM196653 ODI196614:ODI196653 ONE196614:ONE196653 OXA196614:OXA196653 PGW196614:PGW196653 PQS196614:PQS196653 QAO196614:QAO196653 QKK196614:QKK196653 QUG196614:QUG196653 REC196614:REC196653 RNY196614:RNY196653 RXU196614:RXU196653 SHQ196614:SHQ196653 SRM196614:SRM196653 TBI196614:TBI196653 TLE196614:TLE196653 TVA196614:TVA196653 UEW196614:UEW196653 UOS196614:UOS196653 UYO196614:UYO196653 VIK196614:VIK196653 VSG196614:VSG196653 WCC196614:WCC196653 WLY196614:WLY196653 WVU196614:WVU196653 JI262150:JI262189 TE262150:TE262189 ADA262150:ADA262189 AMW262150:AMW262189 AWS262150:AWS262189 BGO262150:BGO262189 BQK262150:BQK262189 CAG262150:CAG262189 CKC262150:CKC262189 CTY262150:CTY262189 DDU262150:DDU262189 DNQ262150:DNQ262189 DXM262150:DXM262189 EHI262150:EHI262189 ERE262150:ERE262189 FBA262150:FBA262189 FKW262150:FKW262189 FUS262150:FUS262189 GEO262150:GEO262189 GOK262150:GOK262189 GYG262150:GYG262189 HIC262150:HIC262189 HRY262150:HRY262189 IBU262150:IBU262189 ILQ262150:ILQ262189 IVM262150:IVM262189 JFI262150:JFI262189 JPE262150:JPE262189 JZA262150:JZA262189 KIW262150:KIW262189 KSS262150:KSS262189 LCO262150:LCO262189 LMK262150:LMK262189 LWG262150:LWG262189 MGC262150:MGC262189 MPY262150:MPY262189 MZU262150:MZU262189 NJQ262150:NJQ262189 NTM262150:NTM262189 ODI262150:ODI262189 ONE262150:ONE262189 OXA262150:OXA262189 PGW262150:PGW262189 PQS262150:PQS262189 QAO262150:QAO262189 QKK262150:QKK262189 QUG262150:QUG262189 REC262150:REC262189 RNY262150:RNY262189 RXU262150:RXU262189 SHQ262150:SHQ262189 SRM262150:SRM262189 TBI262150:TBI262189 TLE262150:TLE262189 TVA262150:TVA262189 UEW262150:UEW262189 UOS262150:UOS262189 UYO262150:UYO262189 VIK262150:VIK262189 VSG262150:VSG262189 WCC262150:WCC262189 WLY262150:WLY262189 WVU262150:WVU262189 JI327686:JI327725 TE327686:TE327725 ADA327686:ADA327725 AMW327686:AMW327725 AWS327686:AWS327725 BGO327686:BGO327725 BQK327686:BQK327725 CAG327686:CAG327725 CKC327686:CKC327725 CTY327686:CTY327725 DDU327686:DDU327725 DNQ327686:DNQ327725 DXM327686:DXM327725 EHI327686:EHI327725 ERE327686:ERE327725 FBA327686:FBA327725 FKW327686:FKW327725 FUS327686:FUS327725 GEO327686:GEO327725 GOK327686:GOK327725 GYG327686:GYG327725 HIC327686:HIC327725 HRY327686:HRY327725 IBU327686:IBU327725 ILQ327686:ILQ327725 IVM327686:IVM327725 JFI327686:JFI327725 JPE327686:JPE327725 JZA327686:JZA327725 KIW327686:KIW327725 KSS327686:KSS327725 LCO327686:LCO327725 LMK327686:LMK327725 LWG327686:LWG327725 MGC327686:MGC327725 MPY327686:MPY327725 MZU327686:MZU327725 NJQ327686:NJQ327725 NTM327686:NTM327725 ODI327686:ODI327725 ONE327686:ONE327725 OXA327686:OXA327725 PGW327686:PGW327725 PQS327686:PQS327725 QAO327686:QAO327725 QKK327686:QKK327725 QUG327686:QUG327725 REC327686:REC327725 RNY327686:RNY327725 RXU327686:RXU327725 SHQ327686:SHQ327725 SRM327686:SRM327725 TBI327686:TBI327725 TLE327686:TLE327725 TVA327686:TVA327725 UEW327686:UEW327725 UOS327686:UOS327725 UYO327686:UYO327725 VIK327686:VIK327725 VSG327686:VSG327725 WCC327686:WCC327725 WLY327686:WLY327725 WVU327686:WVU327725 JI393222:JI393261 TE393222:TE393261 ADA393222:ADA393261 AMW393222:AMW393261 AWS393222:AWS393261 BGO393222:BGO393261 BQK393222:BQK393261 CAG393222:CAG393261 CKC393222:CKC393261 CTY393222:CTY393261 DDU393222:DDU393261 DNQ393222:DNQ393261 DXM393222:DXM393261 EHI393222:EHI393261 ERE393222:ERE393261 FBA393222:FBA393261 FKW393222:FKW393261 FUS393222:FUS393261 GEO393222:GEO393261 GOK393222:GOK393261 GYG393222:GYG393261 HIC393222:HIC393261 HRY393222:HRY393261 IBU393222:IBU393261 ILQ393222:ILQ393261 IVM393222:IVM393261 JFI393222:JFI393261 JPE393222:JPE393261 JZA393222:JZA393261 KIW393222:KIW393261 KSS393222:KSS393261 LCO393222:LCO393261 LMK393222:LMK393261 LWG393222:LWG393261 MGC393222:MGC393261 MPY393222:MPY393261 MZU393222:MZU393261 NJQ393222:NJQ393261 NTM393222:NTM393261 ODI393222:ODI393261 ONE393222:ONE393261 OXA393222:OXA393261 PGW393222:PGW393261 PQS393222:PQS393261 QAO393222:QAO393261 QKK393222:QKK393261 QUG393222:QUG393261 REC393222:REC393261 RNY393222:RNY393261 RXU393222:RXU393261 SHQ393222:SHQ393261 SRM393222:SRM393261 TBI393222:TBI393261 TLE393222:TLE393261 TVA393222:TVA393261 UEW393222:UEW393261 UOS393222:UOS393261 UYO393222:UYO393261 VIK393222:VIK393261 VSG393222:VSG393261 WCC393222:WCC393261 WLY393222:WLY393261 WVU393222:WVU393261 JI458758:JI458797 TE458758:TE458797 ADA458758:ADA458797 AMW458758:AMW458797 AWS458758:AWS458797 BGO458758:BGO458797 BQK458758:BQK458797 CAG458758:CAG458797 CKC458758:CKC458797 CTY458758:CTY458797 DDU458758:DDU458797 DNQ458758:DNQ458797 DXM458758:DXM458797 EHI458758:EHI458797 ERE458758:ERE458797 FBA458758:FBA458797 FKW458758:FKW458797 FUS458758:FUS458797 GEO458758:GEO458797 GOK458758:GOK458797 GYG458758:GYG458797 HIC458758:HIC458797 HRY458758:HRY458797 IBU458758:IBU458797 ILQ458758:ILQ458797 IVM458758:IVM458797 JFI458758:JFI458797 JPE458758:JPE458797 JZA458758:JZA458797 KIW458758:KIW458797 KSS458758:KSS458797 LCO458758:LCO458797 LMK458758:LMK458797 LWG458758:LWG458797 MGC458758:MGC458797 MPY458758:MPY458797 MZU458758:MZU458797 NJQ458758:NJQ458797 NTM458758:NTM458797 ODI458758:ODI458797 ONE458758:ONE458797 OXA458758:OXA458797 PGW458758:PGW458797 PQS458758:PQS458797 QAO458758:QAO458797 QKK458758:QKK458797 QUG458758:QUG458797 REC458758:REC458797 RNY458758:RNY458797 RXU458758:RXU458797 SHQ458758:SHQ458797 SRM458758:SRM458797 TBI458758:TBI458797 TLE458758:TLE458797 TVA458758:TVA458797 UEW458758:UEW458797 UOS458758:UOS458797 UYO458758:UYO458797 VIK458758:VIK458797 VSG458758:VSG458797 WCC458758:WCC458797 WLY458758:WLY458797 WVU458758:WVU458797 JI524294:JI524333 TE524294:TE524333 ADA524294:ADA524333 AMW524294:AMW524333 AWS524294:AWS524333 BGO524294:BGO524333 BQK524294:BQK524333 CAG524294:CAG524333 CKC524294:CKC524333 CTY524294:CTY524333 DDU524294:DDU524333 DNQ524294:DNQ524333 DXM524294:DXM524333 EHI524294:EHI524333 ERE524294:ERE524333 FBA524294:FBA524333 FKW524294:FKW524333 FUS524294:FUS524333 GEO524294:GEO524333 GOK524294:GOK524333 GYG524294:GYG524333 HIC524294:HIC524333 HRY524294:HRY524333 IBU524294:IBU524333 ILQ524294:ILQ524333 IVM524294:IVM524333 JFI524294:JFI524333 JPE524294:JPE524333 JZA524294:JZA524333 KIW524294:KIW524333 KSS524294:KSS524333 LCO524294:LCO524333 LMK524294:LMK524333 LWG524294:LWG524333 MGC524294:MGC524333 MPY524294:MPY524333 MZU524294:MZU524333 NJQ524294:NJQ524333 NTM524294:NTM524333 ODI524294:ODI524333 ONE524294:ONE524333 OXA524294:OXA524333 PGW524294:PGW524333 PQS524294:PQS524333 QAO524294:QAO524333 QKK524294:QKK524333 QUG524294:QUG524333 REC524294:REC524333 RNY524294:RNY524333 RXU524294:RXU524333 SHQ524294:SHQ524333 SRM524294:SRM524333 TBI524294:TBI524333 TLE524294:TLE524333 TVA524294:TVA524333 UEW524294:UEW524333 UOS524294:UOS524333 UYO524294:UYO524333 VIK524294:VIK524333 VSG524294:VSG524333 WCC524294:WCC524333 WLY524294:WLY524333 WVU524294:WVU524333 JI589830:JI589869 TE589830:TE589869 ADA589830:ADA589869 AMW589830:AMW589869 AWS589830:AWS589869 BGO589830:BGO589869 BQK589830:BQK589869 CAG589830:CAG589869 CKC589830:CKC589869 CTY589830:CTY589869 DDU589830:DDU589869 DNQ589830:DNQ589869 DXM589830:DXM589869 EHI589830:EHI589869 ERE589830:ERE589869 FBA589830:FBA589869 FKW589830:FKW589869 FUS589830:FUS589869 GEO589830:GEO589869 GOK589830:GOK589869 GYG589830:GYG589869 HIC589830:HIC589869 HRY589830:HRY589869 IBU589830:IBU589869 ILQ589830:ILQ589869 IVM589830:IVM589869 JFI589830:JFI589869 JPE589830:JPE589869 JZA589830:JZA589869 KIW589830:KIW589869 KSS589830:KSS589869 LCO589830:LCO589869 LMK589830:LMK589869 LWG589830:LWG589869 MGC589830:MGC589869 MPY589830:MPY589869 MZU589830:MZU589869 NJQ589830:NJQ589869 NTM589830:NTM589869 ODI589830:ODI589869 ONE589830:ONE589869 OXA589830:OXA589869 PGW589830:PGW589869 PQS589830:PQS589869 QAO589830:QAO589869 QKK589830:QKK589869 QUG589830:QUG589869 REC589830:REC589869 RNY589830:RNY589869 RXU589830:RXU589869 SHQ589830:SHQ589869 SRM589830:SRM589869 TBI589830:TBI589869 TLE589830:TLE589869 TVA589830:TVA589869 UEW589830:UEW589869 UOS589830:UOS589869 UYO589830:UYO589869 VIK589830:VIK589869 VSG589830:VSG589869 WCC589830:WCC589869 WLY589830:WLY589869 WVU589830:WVU589869 JI655366:JI655405 TE655366:TE655405 ADA655366:ADA655405 AMW655366:AMW655405 AWS655366:AWS655405 BGO655366:BGO655405 BQK655366:BQK655405 CAG655366:CAG655405 CKC655366:CKC655405 CTY655366:CTY655405 DDU655366:DDU655405 DNQ655366:DNQ655405 DXM655366:DXM655405 EHI655366:EHI655405 ERE655366:ERE655405 FBA655366:FBA655405 FKW655366:FKW655405 FUS655366:FUS655405 GEO655366:GEO655405 GOK655366:GOK655405 GYG655366:GYG655405 HIC655366:HIC655405 HRY655366:HRY655405 IBU655366:IBU655405 ILQ655366:ILQ655405 IVM655366:IVM655405 JFI655366:JFI655405 JPE655366:JPE655405 JZA655366:JZA655405 KIW655366:KIW655405 KSS655366:KSS655405 LCO655366:LCO655405 LMK655366:LMK655405 LWG655366:LWG655405 MGC655366:MGC655405 MPY655366:MPY655405 MZU655366:MZU655405 NJQ655366:NJQ655405 NTM655366:NTM655405 ODI655366:ODI655405 ONE655366:ONE655405 OXA655366:OXA655405 PGW655366:PGW655405 PQS655366:PQS655405 QAO655366:QAO655405 QKK655366:QKK655405 QUG655366:QUG655405 REC655366:REC655405 RNY655366:RNY655405 RXU655366:RXU655405 SHQ655366:SHQ655405 SRM655366:SRM655405 TBI655366:TBI655405 TLE655366:TLE655405 TVA655366:TVA655405 UEW655366:UEW655405 UOS655366:UOS655405 UYO655366:UYO655405 VIK655366:VIK655405 VSG655366:VSG655405 WCC655366:WCC655405 WLY655366:WLY655405 WVU655366:WVU655405 JI720902:JI720941 TE720902:TE720941 ADA720902:ADA720941 AMW720902:AMW720941 AWS720902:AWS720941 BGO720902:BGO720941 BQK720902:BQK720941 CAG720902:CAG720941 CKC720902:CKC720941 CTY720902:CTY720941 DDU720902:DDU720941 DNQ720902:DNQ720941 DXM720902:DXM720941 EHI720902:EHI720941 ERE720902:ERE720941 FBA720902:FBA720941 FKW720902:FKW720941 FUS720902:FUS720941 GEO720902:GEO720941 GOK720902:GOK720941 GYG720902:GYG720941 HIC720902:HIC720941 HRY720902:HRY720941 IBU720902:IBU720941 ILQ720902:ILQ720941 IVM720902:IVM720941 JFI720902:JFI720941 JPE720902:JPE720941 JZA720902:JZA720941 KIW720902:KIW720941 KSS720902:KSS720941 LCO720902:LCO720941 LMK720902:LMK720941 LWG720902:LWG720941 MGC720902:MGC720941 MPY720902:MPY720941 MZU720902:MZU720941 NJQ720902:NJQ720941 NTM720902:NTM720941 ODI720902:ODI720941 ONE720902:ONE720941 OXA720902:OXA720941 PGW720902:PGW720941 PQS720902:PQS720941 QAO720902:QAO720941 QKK720902:QKK720941 QUG720902:QUG720941 REC720902:REC720941 RNY720902:RNY720941 RXU720902:RXU720941 SHQ720902:SHQ720941 SRM720902:SRM720941 TBI720902:TBI720941 TLE720902:TLE720941 TVA720902:TVA720941 UEW720902:UEW720941 UOS720902:UOS720941 UYO720902:UYO720941 VIK720902:VIK720941 VSG720902:VSG720941 WCC720902:WCC720941 WLY720902:WLY720941 WVU720902:WVU720941 JI786438:JI786477 TE786438:TE786477 ADA786438:ADA786477 AMW786438:AMW786477 AWS786438:AWS786477 BGO786438:BGO786477 BQK786438:BQK786477 CAG786438:CAG786477 CKC786438:CKC786477 CTY786438:CTY786477 DDU786438:DDU786477 DNQ786438:DNQ786477 DXM786438:DXM786477 EHI786438:EHI786477 ERE786438:ERE786477 FBA786438:FBA786477 FKW786438:FKW786477 FUS786438:FUS786477 GEO786438:GEO786477 GOK786438:GOK786477 GYG786438:GYG786477 HIC786438:HIC786477 HRY786438:HRY786477 IBU786438:IBU786477 ILQ786438:ILQ786477 IVM786438:IVM786477 JFI786438:JFI786477 JPE786438:JPE786477 JZA786438:JZA786477 KIW786438:KIW786477 KSS786438:KSS786477 LCO786438:LCO786477 LMK786438:LMK786477 LWG786438:LWG786477 MGC786438:MGC786477 MPY786438:MPY786477 MZU786438:MZU786477 NJQ786438:NJQ786477 NTM786438:NTM786477 ODI786438:ODI786477 ONE786438:ONE786477 OXA786438:OXA786477 PGW786438:PGW786477 PQS786438:PQS786477 QAO786438:QAO786477 QKK786438:QKK786477 QUG786438:QUG786477 REC786438:REC786477 RNY786438:RNY786477 RXU786438:RXU786477 SHQ786438:SHQ786477 SRM786438:SRM786477 TBI786438:TBI786477 TLE786438:TLE786477 TVA786438:TVA786477 UEW786438:UEW786477 UOS786438:UOS786477 UYO786438:UYO786477 VIK786438:VIK786477 VSG786438:VSG786477 WCC786438:WCC786477 WLY786438:WLY786477 WVU786438:WVU786477 JI851974:JI852013 TE851974:TE852013 ADA851974:ADA852013 AMW851974:AMW852013 AWS851974:AWS852013 BGO851974:BGO852013 BQK851974:BQK852013 CAG851974:CAG852013 CKC851974:CKC852013 CTY851974:CTY852013 DDU851974:DDU852013 DNQ851974:DNQ852013 DXM851974:DXM852013 EHI851974:EHI852013 ERE851974:ERE852013 FBA851974:FBA852013 FKW851974:FKW852013 FUS851974:FUS852013 GEO851974:GEO852013 GOK851974:GOK852013 GYG851974:GYG852013 HIC851974:HIC852013 HRY851974:HRY852013 IBU851974:IBU852013 ILQ851974:ILQ852013 IVM851974:IVM852013 JFI851974:JFI852013 JPE851974:JPE852013 JZA851974:JZA852013 KIW851974:KIW852013 KSS851974:KSS852013 LCO851974:LCO852013 LMK851974:LMK852013 LWG851974:LWG852013 MGC851974:MGC852013 MPY851974:MPY852013 MZU851974:MZU852013 NJQ851974:NJQ852013 NTM851974:NTM852013 ODI851974:ODI852013 ONE851974:ONE852013 OXA851974:OXA852013 PGW851974:PGW852013 PQS851974:PQS852013 QAO851974:QAO852013 QKK851974:QKK852013 QUG851974:QUG852013 REC851974:REC852013 RNY851974:RNY852013 RXU851974:RXU852013 SHQ851974:SHQ852013 SRM851974:SRM852013 TBI851974:TBI852013 TLE851974:TLE852013 TVA851974:TVA852013 UEW851974:UEW852013 UOS851974:UOS852013 UYO851974:UYO852013 VIK851974:VIK852013 VSG851974:VSG852013 WCC851974:WCC852013 WLY851974:WLY852013 WVU851974:WVU852013 JI917510:JI917549 TE917510:TE917549 ADA917510:ADA917549 AMW917510:AMW917549 AWS917510:AWS917549 BGO917510:BGO917549 BQK917510:BQK917549 CAG917510:CAG917549 CKC917510:CKC917549 CTY917510:CTY917549 DDU917510:DDU917549 DNQ917510:DNQ917549 DXM917510:DXM917549 EHI917510:EHI917549 ERE917510:ERE917549 FBA917510:FBA917549 FKW917510:FKW917549 FUS917510:FUS917549 GEO917510:GEO917549 GOK917510:GOK917549 GYG917510:GYG917549 HIC917510:HIC917549 HRY917510:HRY917549 IBU917510:IBU917549 ILQ917510:ILQ917549 IVM917510:IVM917549 JFI917510:JFI917549 JPE917510:JPE917549 JZA917510:JZA917549 KIW917510:KIW917549 KSS917510:KSS917549 LCO917510:LCO917549 LMK917510:LMK917549 LWG917510:LWG917549 MGC917510:MGC917549 MPY917510:MPY917549 MZU917510:MZU917549 NJQ917510:NJQ917549 NTM917510:NTM917549 ODI917510:ODI917549 ONE917510:ONE917549 OXA917510:OXA917549 PGW917510:PGW917549 PQS917510:PQS917549 QAO917510:QAO917549 QKK917510:QKK917549 QUG917510:QUG917549 REC917510:REC917549 RNY917510:RNY917549 RXU917510:RXU917549 SHQ917510:SHQ917549 SRM917510:SRM917549 TBI917510:TBI917549 TLE917510:TLE917549 TVA917510:TVA917549 UEW917510:UEW917549 UOS917510:UOS917549 UYO917510:UYO917549 VIK917510:VIK917549 VSG917510:VSG917549 WCC917510:WCC917549 WLY917510:WLY917549 WVU917510:WVU917549 JI983046:JI983085 TE983046:TE983085 ADA983046:ADA983085 AMW983046:AMW983085 AWS983046:AWS983085 BGO983046:BGO983085 BQK983046:BQK983085 CAG983046:CAG983085 CKC983046:CKC983085 CTY983046:CTY983085 DDU983046:DDU983085 DNQ983046:DNQ983085 DXM983046:DXM983085 EHI983046:EHI983085 ERE983046:ERE983085 FBA983046:FBA983085 FKW983046:FKW983085 FUS983046:FUS983085 GEO983046:GEO983085 GOK983046:GOK983085 GYG983046:GYG983085 HIC983046:HIC983085 HRY983046:HRY983085 IBU983046:IBU983085 ILQ983046:ILQ983085 IVM983046:IVM983085 JFI983046:JFI983085 JPE983046:JPE983085 JZA983046:JZA983085 KIW983046:KIW983085 KSS983046:KSS983085 LCO983046:LCO983085 LMK983046:LMK983085 LWG983046:LWG983085 MGC983046:MGC983085 MPY983046:MPY983085 MZU983046:MZU983085 NJQ983046:NJQ983085 NTM983046:NTM983085 ODI983046:ODI983085 ONE983046:ONE983085 OXA983046:OXA983085 PGW983046:PGW983085 PQS983046:PQS983085 QAO983046:QAO983085 QKK983046:QKK983085 QUG983046:QUG983085 REC983046:REC983085 RNY983046:RNY983085 RXU983046:RXU983085 SHQ983046:SHQ983085 SRM983046:SRM983085 TBI983046:TBI983085 TLE983046:TLE983085 TVA983046:TVA983085 UEW983046:UEW983085 UOS983046:UOS983085 UYO983046:UYO983085 VIK983046:VIK983085 VSG983046:VSG983085 WCC983046:WCC983085 WLY983046:WLY983085 WVU983046:WVU983085 WVU5:WVU43 WLY5:WLY43 WCC5:WCC43 VSG5:VSG43 VIK5:VIK43 UYO5:UYO43 UOS5:UOS43 UEW5:UEW43 TVA5:TVA43 TLE5:TLE43 TBI5:TBI43 SRM5:SRM43 SHQ5:SHQ43 RXU5:RXU43 RNY5:RNY43 REC5:REC43 QUG5:QUG43 QKK5:QKK43 QAO5:QAO43 PQS5:PQS43 PGW5:PGW43 OXA5:OXA43 ONE5:ONE43 ODI5:ODI43 NTM5:NTM43 NJQ5:NJQ43 MZU5:MZU43 MPY5:MPY43 MGC5:MGC43 LWG5:LWG43 LMK5:LMK43 LCO5:LCO43 KSS5:KSS43 KIW5:KIW43 JZA5:JZA43 JPE5:JPE43 JFI5:JFI43 IVM5:IVM43 ILQ5:ILQ43 IBU5:IBU43 HRY5:HRY43 HIC5:HIC43 GYG5:GYG43 GOK5:GOK43 GEO5:GEO43 FUS5:FUS43 FKW5:FKW43 FBA5:FBA43 ERE5:ERE43 EHI5:EHI43 DXM5:DXM43 DNQ5:DNQ43 DDU5:DDU43 CTY5:CTY43 CKC5:CKC43 CAG5:CAG43 BQK5:BQK43 BGO5:BGO43 AWS5:AWS43 AMW5:AMW43 ADA5:ADA43 TE5:TE43 JI5:JI43">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="يجب أن تكون القيمة بين 0 و 5" sqref="SU46:TF50 ACQ46:ADB50 AMM46:AMX50 AWI46:AWT50 BGE46:BGP50 BQA46:BQL50 BZW46:CAH50 CJS46:CKD50 CTO46:CTZ50 DDK46:DDV50 DNG46:DNR50 DXC46:DXN50 EGY46:EHJ50 EQU46:ERF50 FAQ46:FBB50 FKM46:FKX50 FUI46:FUT50 GEE46:GEP50 GOA46:GOL50 GXW46:GYH50 HHS46:HID50 HRO46:HRZ50 IBK46:IBV50 ILG46:ILR50 IVC46:IVN50 JEY46:JFJ50 JOU46:JPF50 JYQ46:JZB50 KIM46:KIX50 KSI46:KST50 LCE46:LCP50 LMA46:LML50 LVW46:LWH50 MFS46:MGD50 MPO46:MPZ50 MZK46:MZV50 NJG46:NJR50 NTC46:NTN50 OCY46:ODJ50 OMU46:ONF50 OWQ46:OXB50 PGM46:PGX50 PQI46:PQT50 QAE46:QAP50 QKA46:QKL50 QTW46:QUH50 RDS46:RED50 RNO46:RNZ50 RXK46:RXV50 SHG46:SHR50 SRC46:SRN50 TAY46:TBJ50 TKU46:TLF50 TUQ46:TVB50 UEM46:UEX50 UOI46:UOT50 UYE46:UYP50 VIA46:VIL50 VRW46:VSH50 WBS46:WCD50 WLO46:WLZ50 WVK46:WVV50 SU65584:TF65588 ACQ65584:ADB65588 AMM65584:AMX65588 AWI65584:AWT65588 BGE65584:BGP65588 BQA65584:BQL65588 BZW65584:CAH65588 CJS65584:CKD65588 CTO65584:CTZ65588 DDK65584:DDV65588 DNG65584:DNR65588 DXC65584:DXN65588 EGY65584:EHJ65588 EQU65584:ERF65588 FAQ65584:FBB65588 FKM65584:FKX65588 FUI65584:FUT65588 GEE65584:GEP65588 GOA65584:GOL65588 GXW65584:GYH65588 HHS65584:HID65588 HRO65584:HRZ65588 IBK65584:IBV65588 ILG65584:ILR65588 IVC65584:IVN65588 JEY65584:JFJ65588 JOU65584:JPF65588 JYQ65584:JZB65588 KIM65584:KIX65588 KSI65584:KST65588 LCE65584:LCP65588 LMA65584:LML65588 LVW65584:LWH65588 MFS65584:MGD65588 MPO65584:MPZ65588 MZK65584:MZV65588 NJG65584:NJR65588 NTC65584:NTN65588 OCY65584:ODJ65588 OMU65584:ONF65588 OWQ65584:OXB65588 PGM65584:PGX65588 PQI65584:PQT65588 QAE65584:QAP65588 QKA65584:QKL65588 QTW65584:QUH65588 RDS65584:RED65588 RNO65584:RNZ65588 RXK65584:RXV65588 SHG65584:SHR65588 SRC65584:SRN65588 TAY65584:TBJ65588 TKU65584:TLF65588 TUQ65584:TVB65588 UEM65584:UEX65588 UOI65584:UOT65588 UYE65584:UYP65588 VIA65584:VIL65588 VRW65584:VSH65588 WBS65584:WCD65588 WLO65584:WLZ65588 WVK65584:WVV65588 SU131120:TF131124 ACQ131120:ADB131124 AMM131120:AMX131124 AWI131120:AWT131124 BGE131120:BGP131124 BQA131120:BQL131124 BZW131120:CAH131124 CJS131120:CKD131124 CTO131120:CTZ131124 DDK131120:DDV131124 DNG131120:DNR131124 DXC131120:DXN131124 EGY131120:EHJ131124 EQU131120:ERF131124 FAQ131120:FBB131124 FKM131120:FKX131124 FUI131120:FUT131124 GEE131120:GEP131124 GOA131120:GOL131124 GXW131120:GYH131124 HHS131120:HID131124 HRO131120:HRZ131124 IBK131120:IBV131124 ILG131120:ILR131124 IVC131120:IVN131124 JEY131120:JFJ131124 JOU131120:JPF131124 JYQ131120:JZB131124 KIM131120:KIX131124 KSI131120:KST131124 LCE131120:LCP131124 LMA131120:LML131124 LVW131120:LWH131124 MFS131120:MGD131124 MPO131120:MPZ131124 MZK131120:MZV131124 NJG131120:NJR131124 NTC131120:NTN131124 OCY131120:ODJ131124 OMU131120:ONF131124 OWQ131120:OXB131124 PGM131120:PGX131124 PQI131120:PQT131124 QAE131120:QAP131124 QKA131120:QKL131124 QTW131120:QUH131124 RDS131120:RED131124 RNO131120:RNZ131124 RXK131120:RXV131124 SHG131120:SHR131124 SRC131120:SRN131124 TAY131120:TBJ131124 TKU131120:TLF131124 TUQ131120:TVB131124 UEM131120:UEX131124 UOI131120:UOT131124 UYE131120:UYP131124 VIA131120:VIL131124 VRW131120:VSH131124 WBS131120:WCD131124 WLO131120:WLZ131124 WVK131120:WVV131124 SU196656:TF196660 ACQ196656:ADB196660 AMM196656:AMX196660 AWI196656:AWT196660 BGE196656:BGP196660 BQA196656:BQL196660 BZW196656:CAH196660 CJS196656:CKD196660 CTO196656:CTZ196660 DDK196656:DDV196660 DNG196656:DNR196660 DXC196656:DXN196660 EGY196656:EHJ196660 EQU196656:ERF196660 FAQ196656:FBB196660 FKM196656:FKX196660 FUI196656:FUT196660 GEE196656:GEP196660 GOA196656:GOL196660 GXW196656:GYH196660 HHS196656:HID196660 HRO196656:HRZ196660 IBK196656:IBV196660 ILG196656:ILR196660 IVC196656:IVN196660 JEY196656:JFJ196660 JOU196656:JPF196660 JYQ196656:JZB196660 KIM196656:KIX196660 KSI196656:KST196660 LCE196656:LCP196660 LMA196656:LML196660 LVW196656:LWH196660 MFS196656:MGD196660 MPO196656:MPZ196660 MZK196656:MZV196660 NJG196656:NJR196660 NTC196656:NTN196660 OCY196656:ODJ196660 OMU196656:ONF196660 OWQ196656:OXB196660 PGM196656:PGX196660 PQI196656:PQT196660 QAE196656:QAP196660 QKA196656:QKL196660 QTW196656:QUH196660 RDS196656:RED196660 RNO196656:RNZ196660 RXK196656:RXV196660 SHG196656:SHR196660 SRC196656:SRN196660 TAY196656:TBJ196660 TKU196656:TLF196660 TUQ196656:TVB196660 UEM196656:UEX196660 UOI196656:UOT196660 UYE196656:UYP196660 VIA196656:VIL196660 VRW196656:VSH196660 WBS196656:WCD196660 WLO196656:WLZ196660 WVK196656:WVV196660 SU262192:TF262196 ACQ262192:ADB262196 AMM262192:AMX262196 AWI262192:AWT262196 BGE262192:BGP262196 BQA262192:BQL262196 BZW262192:CAH262196 CJS262192:CKD262196 CTO262192:CTZ262196 DDK262192:DDV262196 DNG262192:DNR262196 DXC262192:DXN262196 EGY262192:EHJ262196 EQU262192:ERF262196 FAQ262192:FBB262196 FKM262192:FKX262196 FUI262192:FUT262196 GEE262192:GEP262196 GOA262192:GOL262196 GXW262192:GYH262196 HHS262192:HID262196 HRO262192:HRZ262196 IBK262192:IBV262196 ILG262192:ILR262196 IVC262192:IVN262196 JEY262192:JFJ262196 JOU262192:JPF262196 JYQ262192:JZB262196 KIM262192:KIX262196 KSI262192:KST262196 LCE262192:LCP262196 LMA262192:LML262196 LVW262192:LWH262196 MFS262192:MGD262196 MPO262192:MPZ262196 MZK262192:MZV262196 NJG262192:NJR262196 NTC262192:NTN262196 OCY262192:ODJ262196 OMU262192:ONF262196 OWQ262192:OXB262196 PGM262192:PGX262196 PQI262192:PQT262196 QAE262192:QAP262196 QKA262192:QKL262196 QTW262192:QUH262196 RDS262192:RED262196 RNO262192:RNZ262196 RXK262192:RXV262196 SHG262192:SHR262196 SRC262192:SRN262196 TAY262192:TBJ262196 TKU262192:TLF262196 TUQ262192:TVB262196 UEM262192:UEX262196 UOI262192:UOT262196 UYE262192:UYP262196 VIA262192:VIL262196 VRW262192:VSH262196 WBS262192:WCD262196 WLO262192:WLZ262196 WVK262192:WVV262196 SU327728:TF327732 ACQ327728:ADB327732 AMM327728:AMX327732 AWI327728:AWT327732 BGE327728:BGP327732 BQA327728:BQL327732 BZW327728:CAH327732 CJS327728:CKD327732 CTO327728:CTZ327732 DDK327728:DDV327732 DNG327728:DNR327732 DXC327728:DXN327732 EGY327728:EHJ327732 EQU327728:ERF327732 FAQ327728:FBB327732 FKM327728:FKX327732 FUI327728:FUT327732 GEE327728:GEP327732 GOA327728:GOL327732 GXW327728:GYH327732 HHS327728:HID327732 HRO327728:HRZ327732 IBK327728:IBV327732 ILG327728:ILR327732 IVC327728:IVN327732 JEY327728:JFJ327732 JOU327728:JPF327732 JYQ327728:JZB327732 KIM327728:KIX327732 KSI327728:KST327732 LCE327728:LCP327732 LMA327728:LML327732 LVW327728:LWH327732 MFS327728:MGD327732 MPO327728:MPZ327732 MZK327728:MZV327732 NJG327728:NJR327732 NTC327728:NTN327732 OCY327728:ODJ327732 OMU327728:ONF327732 OWQ327728:OXB327732 PGM327728:PGX327732 PQI327728:PQT327732 QAE327728:QAP327732 QKA327728:QKL327732 QTW327728:QUH327732 RDS327728:RED327732 RNO327728:RNZ327732 RXK327728:RXV327732 SHG327728:SHR327732 SRC327728:SRN327732 TAY327728:TBJ327732 TKU327728:TLF327732 TUQ327728:TVB327732 UEM327728:UEX327732 UOI327728:UOT327732 UYE327728:UYP327732 VIA327728:VIL327732 VRW327728:VSH327732 WBS327728:WCD327732 WLO327728:WLZ327732 WVK327728:WVV327732 SU393264:TF393268 ACQ393264:ADB393268 AMM393264:AMX393268 AWI393264:AWT393268 BGE393264:BGP393268 BQA393264:BQL393268 BZW393264:CAH393268 CJS393264:CKD393268 CTO393264:CTZ393268 DDK393264:DDV393268 DNG393264:DNR393268 DXC393264:DXN393268 EGY393264:EHJ393268 EQU393264:ERF393268 FAQ393264:FBB393268 FKM393264:FKX393268 FUI393264:FUT393268 GEE393264:GEP393268 GOA393264:GOL393268 GXW393264:GYH393268 HHS393264:HID393268 HRO393264:HRZ393268 IBK393264:IBV393268 ILG393264:ILR393268 IVC393264:IVN393268 JEY393264:JFJ393268 JOU393264:JPF393268 JYQ393264:JZB393268 KIM393264:KIX393268 KSI393264:KST393268 LCE393264:LCP393268 LMA393264:LML393268 LVW393264:LWH393268 MFS393264:MGD393268 MPO393264:MPZ393268 MZK393264:MZV393268 NJG393264:NJR393268 NTC393264:NTN393268 OCY393264:ODJ393268 OMU393264:ONF393268 OWQ393264:OXB393268 PGM393264:PGX393268 PQI393264:PQT393268 QAE393264:QAP393268 QKA393264:QKL393268 QTW393264:QUH393268 RDS393264:RED393268 RNO393264:RNZ393268 RXK393264:RXV393268 SHG393264:SHR393268 SRC393264:SRN393268 TAY393264:TBJ393268 TKU393264:TLF393268 TUQ393264:TVB393268 UEM393264:UEX393268 UOI393264:UOT393268 UYE393264:UYP393268 VIA393264:VIL393268 VRW393264:VSH393268 WBS393264:WCD393268 WLO393264:WLZ393268 WVK393264:WVV393268 SU458800:TF458804 ACQ458800:ADB458804 AMM458800:AMX458804 AWI458800:AWT458804 BGE458800:BGP458804 BQA458800:BQL458804 BZW458800:CAH458804 CJS458800:CKD458804 CTO458800:CTZ458804 DDK458800:DDV458804 DNG458800:DNR458804 DXC458800:DXN458804 EGY458800:EHJ458804 EQU458800:ERF458804 FAQ458800:FBB458804 FKM458800:FKX458804 FUI458800:FUT458804 GEE458800:GEP458804 GOA458800:GOL458804 GXW458800:GYH458804 HHS458800:HID458804 HRO458800:HRZ458804 IBK458800:IBV458804 ILG458800:ILR458804 IVC458800:IVN458804 JEY458800:JFJ458804 JOU458800:JPF458804 JYQ458800:JZB458804 KIM458800:KIX458804 KSI458800:KST458804 LCE458800:LCP458804 LMA458800:LML458804 LVW458800:LWH458804 MFS458800:MGD458804 MPO458800:MPZ458804 MZK458800:MZV458804 NJG458800:NJR458804 NTC458800:NTN458804 OCY458800:ODJ458804 OMU458800:ONF458804 OWQ458800:OXB458804 PGM458800:PGX458804 PQI458800:PQT458804 QAE458800:QAP458804 QKA458800:QKL458804 QTW458800:QUH458804 RDS458800:RED458804 RNO458800:RNZ458804 RXK458800:RXV458804 SHG458800:SHR458804 SRC458800:SRN458804 TAY458800:TBJ458804 TKU458800:TLF458804 TUQ458800:TVB458804 UEM458800:UEX458804 UOI458800:UOT458804 UYE458800:UYP458804 VIA458800:VIL458804 VRW458800:VSH458804 WBS458800:WCD458804 WLO458800:WLZ458804 WVK458800:WVV458804 SU524336:TF524340 ACQ524336:ADB524340 AMM524336:AMX524340 AWI524336:AWT524340 BGE524336:BGP524340 BQA524336:BQL524340 BZW524336:CAH524340 CJS524336:CKD524340 CTO524336:CTZ524340 DDK524336:DDV524340 DNG524336:DNR524340 DXC524336:DXN524340 EGY524336:EHJ524340 EQU524336:ERF524340 FAQ524336:FBB524340 FKM524336:FKX524340 FUI524336:FUT524340 GEE524336:GEP524340 GOA524336:GOL524340 GXW524336:GYH524340 HHS524336:HID524340 HRO524336:HRZ524340 IBK524336:IBV524340 ILG524336:ILR524340 IVC524336:IVN524340 JEY524336:JFJ524340 JOU524336:JPF524340 JYQ524336:JZB524340 KIM524336:KIX524340 KSI524336:KST524340 LCE524336:LCP524340 LMA524336:LML524340 LVW524336:LWH524340 MFS524336:MGD524340 MPO524336:MPZ524340 MZK524336:MZV524340 NJG524336:NJR524340 NTC524336:NTN524340 OCY524336:ODJ524340 OMU524336:ONF524340 OWQ524336:OXB524340 PGM524336:PGX524340 PQI524336:PQT524340 QAE524336:QAP524340 QKA524336:QKL524340 QTW524336:QUH524340 RDS524336:RED524340 RNO524336:RNZ524340 RXK524336:RXV524340 SHG524336:SHR524340 SRC524336:SRN524340 TAY524336:TBJ524340 TKU524336:TLF524340 TUQ524336:TVB524340 UEM524336:UEX524340 UOI524336:UOT524340 UYE524336:UYP524340 VIA524336:VIL524340 VRW524336:VSH524340 WBS524336:WCD524340 WLO524336:WLZ524340 WVK524336:WVV524340 SU589872:TF589876 ACQ589872:ADB589876 AMM589872:AMX589876 AWI589872:AWT589876 BGE589872:BGP589876 BQA589872:BQL589876 BZW589872:CAH589876 CJS589872:CKD589876 CTO589872:CTZ589876 DDK589872:DDV589876 DNG589872:DNR589876 DXC589872:DXN589876 EGY589872:EHJ589876 EQU589872:ERF589876 FAQ589872:FBB589876 FKM589872:FKX589876 FUI589872:FUT589876 GEE589872:GEP589876 GOA589872:GOL589876 GXW589872:GYH589876 HHS589872:HID589876 HRO589872:HRZ589876 IBK589872:IBV589876 ILG589872:ILR589876 IVC589872:IVN589876 JEY589872:JFJ589876 JOU589872:JPF589876 JYQ589872:JZB589876 KIM589872:KIX589876 KSI589872:KST589876 LCE589872:LCP589876 LMA589872:LML589876 LVW589872:LWH589876 MFS589872:MGD589876 MPO589872:MPZ589876 MZK589872:MZV589876 NJG589872:NJR589876 NTC589872:NTN589876 OCY589872:ODJ589876 OMU589872:ONF589876 OWQ589872:OXB589876 PGM589872:PGX589876 PQI589872:PQT589876 QAE589872:QAP589876 QKA589872:QKL589876 QTW589872:QUH589876 RDS589872:RED589876 RNO589872:RNZ589876 RXK589872:RXV589876 SHG589872:SHR589876 SRC589872:SRN589876 TAY589872:TBJ589876 TKU589872:TLF589876 TUQ589872:TVB589876 UEM589872:UEX589876 UOI589872:UOT589876 UYE589872:UYP589876 VIA589872:VIL589876 VRW589872:VSH589876 WBS589872:WCD589876 WLO589872:WLZ589876 WVK589872:WVV589876 SU655408:TF655412 ACQ655408:ADB655412 AMM655408:AMX655412 AWI655408:AWT655412 BGE655408:BGP655412 BQA655408:BQL655412 BZW655408:CAH655412 CJS655408:CKD655412 CTO655408:CTZ655412 DDK655408:DDV655412 DNG655408:DNR655412 DXC655408:DXN655412 EGY655408:EHJ655412 EQU655408:ERF655412 FAQ655408:FBB655412 FKM655408:FKX655412 FUI655408:FUT655412 GEE655408:GEP655412 GOA655408:GOL655412 GXW655408:GYH655412 HHS655408:HID655412 HRO655408:HRZ655412 IBK655408:IBV655412 ILG655408:ILR655412 IVC655408:IVN655412 JEY655408:JFJ655412 JOU655408:JPF655412 JYQ655408:JZB655412 KIM655408:KIX655412 KSI655408:KST655412 LCE655408:LCP655412 LMA655408:LML655412 LVW655408:LWH655412 MFS655408:MGD655412 MPO655408:MPZ655412 MZK655408:MZV655412 NJG655408:NJR655412 NTC655408:NTN655412 OCY655408:ODJ655412 OMU655408:ONF655412 OWQ655408:OXB655412 PGM655408:PGX655412 PQI655408:PQT655412 QAE655408:QAP655412 QKA655408:QKL655412 QTW655408:QUH655412 RDS655408:RED655412 RNO655408:RNZ655412 RXK655408:RXV655412 SHG655408:SHR655412 SRC655408:SRN655412 TAY655408:TBJ655412 TKU655408:TLF655412 TUQ655408:TVB655412 UEM655408:UEX655412 UOI655408:UOT655412 UYE655408:UYP655412 VIA655408:VIL655412 VRW655408:VSH655412 WBS655408:WCD655412 WLO655408:WLZ655412 WVK655408:WVV655412 SU720944:TF720948 ACQ720944:ADB720948 AMM720944:AMX720948 AWI720944:AWT720948 BGE720944:BGP720948 BQA720944:BQL720948 BZW720944:CAH720948 CJS720944:CKD720948 CTO720944:CTZ720948 DDK720944:DDV720948 DNG720944:DNR720948 DXC720944:DXN720948 EGY720944:EHJ720948 EQU720944:ERF720948 FAQ720944:FBB720948 FKM720944:FKX720948 FUI720944:FUT720948 GEE720944:GEP720948 GOA720944:GOL720948 GXW720944:GYH720948 HHS720944:HID720948 HRO720944:HRZ720948 IBK720944:IBV720948 ILG720944:ILR720948 IVC720944:IVN720948 JEY720944:JFJ720948 JOU720944:JPF720948 JYQ720944:JZB720948 KIM720944:KIX720948 KSI720944:KST720948 LCE720944:LCP720948 LMA720944:LML720948 LVW720944:LWH720948 MFS720944:MGD720948 MPO720944:MPZ720948 MZK720944:MZV720948 NJG720944:NJR720948 NTC720944:NTN720948 OCY720944:ODJ720948 OMU720944:ONF720948 OWQ720944:OXB720948 PGM720944:PGX720948 PQI720944:PQT720948 QAE720944:QAP720948 QKA720944:QKL720948 QTW720944:QUH720948 RDS720944:RED720948 RNO720944:RNZ720948 RXK720944:RXV720948 SHG720944:SHR720948 SRC720944:SRN720948 TAY720944:TBJ720948 TKU720944:TLF720948 TUQ720944:TVB720948 UEM720944:UEX720948 UOI720944:UOT720948 UYE720944:UYP720948 VIA720944:VIL720948 VRW720944:VSH720948 WBS720944:WCD720948 WLO720944:WLZ720948 WVK720944:WVV720948 SU786480:TF786484 ACQ786480:ADB786484 AMM786480:AMX786484 AWI786480:AWT786484 BGE786480:BGP786484 BQA786480:BQL786484 BZW786480:CAH786484 CJS786480:CKD786484 CTO786480:CTZ786484 DDK786480:DDV786484 DNG786480:DNR786484 DXC786480:DXN786484 EGY786480:EHJ786484 EQU786480:ERF786484 FAQ786480:FBB786484 FKM786480:FKX786484 FUI786480:FUT786484 GEE786480:GEP786484 GOA786480:GOL786484 GXW786480:GYH786484 HHS786480:HID786484 HRO786480:HRZ786484 IBK786480:IBV786484 ILG786480:ILR786484 IVC786480:IVN786484 JEY786480:JFJ786484 JOU786480:JPF786484 JYQ786480:JZB786484 KIM786480:KIX786484 KSI786480:KST786484 LCE786480:LCP786484 LMA786480:LML786484 LVW786480:LWH786484 MFS786480:MGD786484 MPO786480:MPZ786484 MZK786480:MZV786484 NJG786480:NJR786484 NTC786480:NTN786484 OCY786480:ODJ786484 OMU786480:ONF786484 OWQ786480:OXB786484 PGM786480:PGX786484 PQI786480:PQT786484 QAE786480:QAP786484 QKA786480:QKL786484 QTW786480:QUH786484 RDS786480:RED786484 RNO786480:RNZ786484 RXK786480:RXV786484 SHG786480:SHR786484 SRC786480:SRN786484 TAY786480:TBJ786484 TKU786480:TLF786484 TUQ786480:TVB786484 UEM786480:UEX786484 UOI786480:UOT786484 UYE786480:UYP786484 VIA786480:VIL786484 VRW786480:VSH786484 WBS786480:WCD786484 WLO786480:WLZ786484 WVK786480:WVV786484 SU852016:TF852020 ACQ852016:ADB852020 AMM852016:AMX852020 AWI852016:AWT852020 BGE852016:BGP852020 BQA852016:BQL852020 BZW852016:CAH852020 CJS852016:CKD852020 CTO852016:CTZ852020 DDK852016:DDV852020 DNG852016:DNR852020 DXC852016:DXN852020 EGY852016:EHJ852020 EQU852016:ERF852020 FAQ852016:FBB852020 FKM852016:FKX852020 FUI852016:FUT852020 GEE852016:GEP852020 GOA852016:GOL852020 GXW852016:GYH852020 HHS852016:HID852020 HRO852016:HRZ852020 IBK852016:IBV852020 ILG852016:ILR852020 IVC852016:IVN852020 JEY852016:JFJ852020 JOU852016:JPF852020 JYQ852016:JZB852020 KIM852016:KIX852020 KSI852016:KST852020 LCE852016:LCP852020 LMA852016:LML852020 LVW852016:LWH852020 MFS852016:MGD852020 MPO852016:MPZ852020 MZK852016:MZV852020 NJG852016:NJR852020 NTC852016:NTN852020 OCY852016:ODJ852020 OMU852016:ONF852020 OWQ852016:OXB852020 PGM852016:PGX852020 PQI852016:PQT852020 QAE852016:QAP852020 QKA852016:QKL852020 QTW852016:QUH852020 RDS852016:RED852020 RNO852016:RNZ852020 RXK852016:RXV852020 SHG852016:SHR852020 SRC852016:SRN852020 TAY852016:TBJ852020 TKU852016:TLF852020 TUQ852016:TVB852020 UEM852016:UEX852020 UOI852016:UOT852020 UYE852016:UYP852020 VIA852016:VIL852020 VRW852016:VSH852020 WBS852016:WCD852020 WLO852016:WLZ852020 WVK852016:WVV852020 SU917552:TF917556 ACQ917552:ADB917556 AMM917552:AMX917556 AWI917552:AWT917556 BGE917552:BGP917556 BQA917552:BQL917556 BZW917552:CAH917556 CJS917552:CKD917556 CTO917552:CTZ917556 DDK917552:DDV917556 DNG917552:DNR917556 DXC917552:DXN917556 EGY917552:EHJ917556 EQU917552:ERF917556 FAQ917552:FBB917556 FKM917552:FKX917556 FUI917552:FUT917556 GEE917552:GEP917556 GOA917552:GOL917556 GXW917552:GYH917556 HHS917552:HID917556 HRO917552:HRZ917556 IBK917552:IBV917556 ILG917552:ILR917556 IVC917552:IVN917556 JEY917552:JFJ917556 JOU917552:JPF917556 JYQ917552:JZB917556 KIM917552:KIX917556 KSI917552:KST917556 LCE917552:LCP917556 LMA917552:LML917556 LVW917552:LWH917556 MFS917552:MGD917556 MPO917552:MPZ917556 MZK917552:MZV917556 NJG917552:NJR917556 NTC917552:NTN917556 OCY917552:ODJ917556 OMU917552:ONF917556 OWQ917552:OXB917556 PGM917552:PGX917556 PQI917552:PQT917556 QAE917552:QAP917556 QKA917552:QKL917556 QTW917552:QUH917556 RDS917552:RED917556 RNO917552:RNZ917556 RXK917552:RXV917556 SHG917552:SHR917556 SRC917552:SRN917556 TAY917552:TBJ917556 TKU917552:TLF917556 TUQ917552:TVB917556 UEM917552:UEX917556 UOI917552:UOT917556 UYE917552:UYP917556 VIA917552:VIL917556 VRW917552:VSH917556 WBS917552:WCD917556 WLO917552:WLZ917556 WVK917552:WVV917556 WVK983088:WVV983092 SU983088:TF983092 ACQ983088:ADB983092 AMM983088:AMX983092 AWI983088:AWT983092 BGE983088:BGP983092 BQA983088:BQL983092 BZW983088:CAH983092 CJS983088:CKD983092 CTO983088:CTZ983092 DDK983088:DDV983092 DNG983088:DNR983092 DXC983088:DXN983092 EGY983088:EHJ983092 EQU983088:ERF983092 FAQ983088:FBB983092 FKM983088:FKX983092 FUI983088:FUT983092 GEE983088:GEP983092 GOA983088:GOL983092 GXW983088:GYH983092 HHS983088:HID983092 HRO983088:HRZ983092 IBK983088:IBV983092 ILG983088:ILR983092 IVC983088:IVN983092 JEY983088:JFJ983092 JOU983088:JPF983092 JYQ983088:JZB983092 KIM983088:KIX983092 KSI983088:KST983092 LCE983088:LCP983092 LMA983088:LML983092 LVW983088:LWH983092 MFS983088:MGD983092 MPO983088:MPZ983092 MZK983088:MZV983092 NJG983088:NJR983092 NTC983088:NTN983092 OCY983088:ODJ983092 OMU983088:ONF983092 OWQ983088:OXB983092 PGM983088:PGX983092 PQI983088:PQT983092 QAE983088:QAP983092 QKA983088:QKL983092 QTW983088:QUH983092 RDS983088:RED983092 RNO983088:RNZ983092 RXK983088:RXV983092 SHG983088:SHR983092 SRC983088:SRN983092 TAY983088:TBJ983092 TKU983088:TLF983092 TUQ983088:TVB983092 UEM983088:UEX983092 UOI983088:UOT983092 UYE983088:UYP983092 VIA983088:VIL983092 VRW983088:VSH983092 WBS983088:WCD983092 WLO983088:WLZ983092 IY50:IY54 C917556:M917560 C852020:M852024 C786484:M786488 C720948:M720952 C655412:M655416 C589876:M589880 C524340:M524344 C458804:M458808 C393268:M393272 C327732:M327736 C262196:M262200 C196660:M196664 C131124:M131128 C65588:M65592 C983092:M983096 IY983092:IY983096 IZ983088:JJ983092 IY917556:IY917560 IZ917552:JJ917556 IY852020:IY852024 IZ852016:JJ852020 IY786484:IY786488 IZ786480:JJ786484 IY720948:IY720952 IZ720944:JJ720948 IY655412:IY655416 IZ655408:JJ655412 IY589876:IY589880 IZ589872:JJ589876 IY524340:IY524344 IZ524336:JJ524340 IY458804:IY458808 IZ458800:JJ458804 IY393268:IY393272 IZ393264:JJ393268 IY327732:IY327736 IZ327728:JJ327732 IY262196:IY262200 IZ262192:JJ262196 IY196660:IY196664 IZ196656:JJ196660 IY131124:IY131128 IZ131120:JJ131124 IY65588:IY65592 IZ65584:JJ65588 IZ46:JJ50 C50:M54" xr:uid="{00000000-0002-0000-0700-000003000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JI65542:JI65581 TE65542:TE65581 ADA65542:ADA65581 AMW65542:AMW65581 AWS65542:AWS65581 BGO65542:BGO65581 BQK65542:BQK65581 CAG65542:CAG65581 CKC65542:CKC65581 CTY65542:CTY65581 DDU65542:DDU65581 DNQ65542:DNQ65581 DXM65542:DXM65581 EHI65542:EHI65581 ERE65542:ERE65581 FBA65542:FBA65581 FKW65542:FKW65581 FUS65542:FUS65581 GEO65542:GEO65581 GOK65542:GOK65581 GYG65542:GYG65581 HIC65542:HIC65581 HRY65542:HRY65581 IBU65542:IBU65581 ILQ65542:ILQ65581 IVM65542:IVM65581 JFI65542:JFI65581 JPE65542:JPE65581 JZA65542:JZA65581 KIW65542:KIW65581 KSS65542:KSS65581 LCO65542:LCO65581 LMK65542:LMK65581 LWG65542:LWG65581 MGC65542:MGC65581 MPY65542:MPY65581 MZU65542:MZU65581 NJQ65542:NJQ65581 NTM65542:NTM65581 ODI65542:ODI65581 ONE65542:ONE65581 OXA65542:OXA65581 PGW65542:PGW65581 PQS65542:PQS65581 QAO65542:QAO65581 QKK65542:QKK65581 QUG65542:QUG65581 REC65542:REC65581 RNY65542:RNY65581 RXU65542:RXU65581 SHQ65542:SHQ65581 SRM65542:SRM65581 TBI65542:TBI65581 TLE65542:TLE65581 TVA65542:TVA65581 UEW65542:UEW65581 UOS65542:UOS65581 UYO65542:UYO65581 VIK65542:VIK65581 VSG65542:VSG65581 WCC65542:WCC65581 WLY65542:WLY65581 WVU65542:WVU65581 JI131078:JI131117 TE131078:TE131117 ADA131078:ADA131117 AMW131078:AMW131117 AWS131078:AWS131117 BGO131078:BGO131117 BQK131078:BQK131117 CAG131078:CAG131117 CKC131078:CKC131117 CTY131078:CTY131117 DDU131078:DDU131117 DNQ131078:DNQ131117 DXM131078:DXM131117 EHI131078:EHI131117 ERE131078:ERE131117 FBA131078:FBA131117 FKW131078:FKW131117 FUS131078:FUS131117 GEO131078:GEO131117 GOK131078:GOK131117 GYG131078:GYG131117 HIC131078:HIC131117 HRY131078:HRY131117 IBU131078:IBU131117 ILQ131078:ILQ131117 IVM131078:IVM131117 JFI131078:JFI131117 JPE131078:JPE131117 JZA131078:JZA131117 KIW131078:KIW131117 KSS131078:KSS131117 LCO131078:LCO131117 LMK131078:LMK131117 LWG131078:LWG131117 MGC131078:MGC131117 MPY131078:MPY131117 MZU131078:MZU131117 NJQ131078:NJQ131117 NTM131078:NTM131117 ODI131078:ODI131117 ONE131078:ONE131117 OXA131078:OXA131117 PGW131078:PGW131117 PQS131078:PQS131117 QAO131078:QAO131117 QKK131078:QKK131117 QUG131078:QUG131117 REC131078:REC131117 RNY131078:RNY131117 RXU131078:RXU131117 SHQ131078:SHQ131117 SRM131078:SRM131117 TBI131078:TBI131117 TLE131078:TLE131117 TVA131078:TVA131117 UEW131078:UEW131117 UOS131078:UOS131117 UYO131078:UYO131117 VIK131078:VIK131117 VSG131078:VSG131117 WCC131078:WCC131117 WLY131078:WLY131117 WVU131078:WVU131117 JI196614:JI196653 TE196614:TE196653 ADA196614:ADA196653 AMW196614:AMW196653 AWS196614:AWS196653 BGO196614:BGO196653 BQK196614:BQK196653 CAG196614:CAG196653 CKC196614:CKC196653 CTY196614:CTY196653 DDU196614:DDU196653 DNQ196614:DNQ196653 DXM196614:DXM196653 EHI196614:EHI196653 ERE196614:ERE196653 FBA196614:FBA196653 FKW196614:FKW196653 FUS196614:FUS196653 GEO196614:GEO196653 GOK196614:GOK196653 GYG196614:GYG196653 HIC196614:HIC196653 HRY196614:HRY196653 IBU196614:IBU196653 ILQ196614:ILQ196653 IVM196614:IVM196653 JFI196614:JFI196653 JPE196614:JPE196653 JZA196614:JZA196653 KIW196614:KIW196653 KSS196614:KSS196653 LCO196614:LCO196653 LMK196614:LMK196653 LWG196614:LWG196653 MGC196614:MGC196653 MPY196614:MPY196653 MZU196614:MZU196653 NJQ196614:NJQ196653 NTM196614:NTM196653 ODI196614:ODI196653 ONE196614:ONE196653 OXA196614:OXA196653 PGW196614:PGW196653 PQS196614:PQS196653 QAO196614:QAO196653 QKK196614:QKK196653 QUG196614:QUG196653 REC196614:REC196653 RNY196614:RNY196653 RXU196614:RXU196653 SHQ196614:SHQ196653 SRM196614:SRM196653 TBI196614:TBI196653 TLE196614:TLE196653 TVA196614:TVA196653 UEW196614:UEW196653 UOS196614:UOS196653 UYO196614:UYO196653 VIK196614:VIK196653 VSG196614:VSG196653 WCC196614:WCC196653 WLY196614:WLY196653 WVU196614:WVU196653 JI262150:JI262189 TE262150:TE262189 ADA262150:ADA262189 AMW262150:AMW262189 AWS262150:AWS262189 BGO262150:BGO262189 BQK262150:BQK262189 CAG262150:CAG262189 CKC262150:CKC262189 CTY262150:CTY262189 DDU262150:DDU262189 DNQ262150:DNQ262189 DXM262150:DXM262189 EHI262150:EHI262189 ERE262150:ERE262189 FBA262150:FBA262189 FKW262150:FKW262189 FUS262150:FUS262189 GEO262150:GEO262189 GOK262150:GOK262189 GYG262150:GYG262189 HIC262150:HIC262189 HRY262150:HRY262189 IBU262150:IBU262189 ILQ262150:ILQ262189 IVM262150:IVM262189 JFI262150:JFI262189 JPE262150:JPE262189 JZA262150:JZA262189 KIW262150:KIW262189 KSS262150:KSS262189 LCO262150:LCO262189 LMK262150:LMK262189 LWG262150:LWG262189 MGC262150:MGC262189 MPY262150:MPY262189 MZU262150:MZU262189 NJQ262150:NJQ262189 NTM262150:NTM262189 ODI262150:ODI262189 ONE262150:ONE262189 OXA262150:OXA262189 PGW262150:PGW262189 PQS262150:PQS262189 QAO262150:QAO262189 QKK262150:QKK262189 QUG262150:QUG262189 REC262150:REC262189 RNY262150:RNY262189 RXU262150:RXU262189 SHQ262150:SHQ262189 SRM262150:SRM262189 TBI262150:TBI262189 TLE262150:TLE262189 TVA262150:TVA262189 UEW262150:UEW262189 UOS262150:UOS262189 UYO262150:UYO262189 VIK262150:VIK262189 VSG262150:VSG262189 WCC262150:WCC262189 WLY262150:WLY262189 WVU262150:WVU262189 JI327686:JI327725 TE327686:TE327725 ADA327686:ADA327725 AMW327686:AMW327725 AWS327686:AWS327725 BGO327686:BGO327725 BQK327686:BQK327725 CAG327686:CAG327725 CKC327686:CKC327725 CTY327686:CTY327725 DDU327686:DDU327725 DNQ327686:DNQ327725 DXM327686:DXM327725 EHI327686:EHI327725 ERE327686:ERE327725 FBA327686:FBA327725 FKW327686:FKW327725 FUS327686:FUS327725 GEO327686:GEO327725 GOK327686:GOK327725 GYG327686:GYG327725 HIC327686:HIC327725 HRY327686:HRY327725 IBU327686:IBU327725 ILQ327686:ILQ327725 IVM327686:IVM327725 JFI327686:JFI327725 JPE327686:JPE327725 JZA327686:JZA327725 KIW327686:KIW327725 KSS327686:KSS327725 LCO327686:LCO327725 LMK327686:LMK327725 LWG327686:LWG327725 MGC327686:MGC327725 MPY327686:MPY327725 MZU327686:MZU327725 NJQ327686:NJQ327725 NTM327686:NTM327725 ODI327686:ODI327725 ONE327686:ONE327725 OXA327686:OXA327725 PGW327686:PGW327725 PQS327686:PQS327725 QAO327686:QAO327725 QKK327686:QKK327725 QUG327686:QUG327725 REC327686:REC327725 RNY327686:RNY327725 RXU327686:RXU327725 SHQ327686:SHQ327725 SRM327686:SRM327725 TBI327686:TBI327725 TLE327686:TLE327725 TVA327686:TVA327725 UEW327686:UEW327725 UOS327686:UOS327725 UYO327686:UYO327725 VIK327686:VIK327725 VSG327686:VSG327725 WCC327686:WCC327725 WLY327686:WLY327725 WVU327686:WVU327725 JI393222:JI393261 TE393222:TE393261 ADA393222:ADA393261 AMW393222:AMW393261 AWS393222:AWS393261 BGO393222:BGO393261 BQK393222:BQK393261 CAG393222:CAG393261 CKC393222:CKC393261 CTY393222:CTY393261 DDU393222:DDU393261 DNQ393222:DNQ393261 DXM393222:DXM393261 EHI393222:EHI393261 ERE393222:ERE393261 FBA393222:FBA393261 FKW393222:FKW393261 FUS393222:FUS393261 GEO393222:GEO393261 GOK393222:GOK393261 GYG393222:GYG393261 HIC393222:HIC393261 HRY393222:HRY393261 IBU393222:IBU393261 ILQ393222:ILQ393261 IVM393222:IVM393261 JFI393222:JFI393261 JPE393222:JPE393261 JZA393222:JZA393261 KIW393222:KIW393261 KSS393222:KSS393261 LCO393222:LCO393261 LMK393222:LMK393261 LWG393222:LWG393261 MGC393222:MGC393261 MPY393222:MPY393261 MZU393222:MZU393261 NJQ393222:NJQ393261 NTM393222:NTM393261 ODI393222:ODI393261 ONE393222:ONE393261 OXA393222:OXA393261 PGW393222:PGW393261 PQS393222:PQS393261 QAO393222:QAO393261 QKK393222:QKK393261 QUG393222:QUG393261 REC393222:REC393261 RNY393222:RNY393261 RXU393222:RXU393261 SHQ393222:SHQ393261 SRM393222:SRM393261 TBI393222:TBI393261 TLE393222:TLE393261 TVA393222:TVA393261 UEW393222:UEW393261 UOS393222:UOS393261 UYO393222:UYO393261 VIK393222:VIK393261 VSG393222:VSG393261 WCC393222:WCC393261 WLY393222:WLY393261 WVU393222:WVU393261 JI458758:JI458797 TE458758:TE458797 ADA458758:ADA458797 AMW458758:AMW458797 AWS458758:AWS458797 BGO458758:BGO458797 BQK458758:BQK458797 CAG458758:CAG458797 CKC458758:CKC458797 CTY458758:CTY458797 DDU458758:DDU458797 DNQ458758:DNQ458797 DXM458758:DXM458797 EHI458758:EHI458797 ERE458758:ERE458797 FBA458758:FBA458797 FKW458758:FKW458797 FUS458758:FUS458797 GEO458758:GEO458797 GOK458758:GOK458797 GYG458758:GYG458797 HIC458758:HIC458797 HRY458758:HRY458797 IBU458758:IBU458797 ILQ458758:ILQ458797 IVM458758:IVM458797 JFI458758:JFI458797 JPE458758:JPE458797 JZA458758:JZA458797 KIW458758:KIW458797 KSS458758:KSS458797 LCO458758:LCO458797 LMK458758:LMK458797 LWG458758:LWG458797 MGC458758:MGC458797 MPY458758:MPY458797 MZU458758:MZU458797 NJQ458758:NJQ458797 NTM458758:NTM458797 ODI458758:ODI458797 ONE458758:ONE458797 OXA458758:OXA458797 PGW458758:PGW458797 PQS458758:PQS458797 QAO458758:QAO458797 QKK458758:QKK458797 QUG458758:QUG458797 REC458758:REC458797 RNY458758:RNY458797 RXU458758:RXU458797 SHQ458758:SHQ458797 SRM458758:SRM458797 TBI458758:TBI458797 TLE458758:TLE458797 TVA458758:TVA458797 UEW458758:UEW458797 UOS458758:UOS458797 UYO458758:UYO458797 VIK458758:VIK458797 VSG458758:VSG458797 WCC458758:WCC458797 WLY458758:WLY458797 WVU458758:WVU458797 JI524294:JI524333 TE524294:TE524333 ADA524294:ADA524333 AMW524294:AMW524333 AWS524294:AWS524333 BGO524294:BGO524333 BQK524294:BQK524333 CAG524294:CAG524333 CKC524294:CKC524333 CTY524294:CTY524333 DDU524294:DDU524333 DNQ524294:DNQ524333 DXM524294:DXM524333 EHI524294:EHI524333 ERE524294:ERE524333 FBA524294:FBA524333 FKW524294:FKW524333 FUS524294:FUS524333 GEO524294:GEO524333 GOK524294:GOK524333 GYG524294:GYG524333 HIC524294:HIC524333 HRY524294:HRY524333 IBU524294:IBU524333 ILQ524294:ILQ524333 IVM524294:IVM524333 JFI524294:JFI524333 JPE524294:JPE524333 JZA524294:JZA524333 KIW524294:KIW524333 KSS524294:KSS524333 LCO524294:LCO524333 LMK524294:LMK524333 LWG524294:LWG524333 MGC524294:MGC524333 MPY524294:MPY524333 MZU524294:MZU524333 NJQ524294:NJQ524333 NTM524294:NTM524333 ODI524294:ODI524333 ONE524294:ONE524333 OXA524294:OXA524333 PGW524294:PGW524333 PQS524294:PQS524333 QAO524294:QAO524333 QKK524294:QKK524333 QUG524294:QUG524333 REC524294:REC524333 RNY524294:RNY524333 RXU524294:RXU524333 SHQ524294:SHQ524333 SRM524294:SRM524333 TBI524294:TBI524333 TLE524294:TLE524333 TVA524294:TVA524333 UEW524294:UEW524333 UOS524294:UOS524333 UYO524294:UYO524333 VIK524294:VIK524333 VSG524294:VSG524333 WCC524294:WCC524333 WLY524294:WLY524333 WVU524294:WVU524333 JI589830:JI589869 TE589830:TE589869 ADA589830:ADA589869 AMW589830:AMW589869 AWS589830:AWS589869 BGO589830:BGO589869 BQK589830:BQK589869 CAG589830:CAG589869 CKC589830:CKC589869 CTY589830:CTY589869 DDU589830:DDU589869 DNQ589830:DNQ589869 DXM589830:DXM589869 EHI589830:EHI589869 ERE589830:ERE589869 FBA589830:FBA589869 FKW589830:FKW589869 FUS589830:FUS589869 GEO589830:GEO589869 GOK589830:GOK589869 GYG589830:GYG589869 HIC589830:HIC589869 HRY589830:HRY589869 IBU589830:IBU589869 ILQ589830:ILQ589869 IVM589830:IVM589869 JFI589830:JFI589869 JPE589830:JPE589869 JZA589830:JZA589869 KIW589830:KIW589869 KSS589830:KSS589869 LCO589830:LCO589869 LMK589830:LMK589869 LWG589830:LWG589869 MGC589830:MGC589869 MPY589830:MPY589869 MZU589830:MZU589869 NJQ589830:NJQ589869 NTM589830:NTM589869 ODI589830:ODI589869 ONE589830:ONE589869 OXA589830:OXA589869 PGW589830:PGW589869 PQS589830:PQS589869 QAO589830:QAO589869 QKK589830:QKK589869 QUG589830:QUG589869 REC589830:REC589869 RNY589830:RNY589869 RXU589830:RXU589869 SHQ589830:SHQ589869 SRM589830:SRM589869 TBI589830:TBI589869 TLE589830:TLE589869 TVA589830:TVA589869 UEW589830:UEW589869 UOS589830:UOS589869 UYO589830:UYO589869 VIK589830:VIK589869 VSG589830:VSG589869 WCC589830:WCC589869 WLY589830:WLY589869 WVU589830:WVU589869 JI655366:JI655405 TE655366:TE655405 ADA655366:ADA655405 AMW655366:AMW655405 AWS655366:AWS655405 BGO655366:BGO655405 BQK655366:BQK655405 CAG655366:CAG655405 CKC655366:CKC655405 CTY655366:CTY655405 DDU655366:DDU655405 DNQ655366:DNQ655405 DXM655366:DXM655405 EHI655366:EHI655405 ERE655366:ERE655405 FBA655366:FBA655405 FKW655366:FKW655405 FUS655366:FUS655405 GEO655366:GEO655405 GOK655366:GOK655405 GYG655366:GYG655405 HIC655366:HIC655405 HRY655366:HRY655405 IBU655366:IBU655405 ILQ655366:ILQ655405 IVM655366:IVM655405 JFI655366:JFI655405 JPE655366:JPE655405 JZA655366:JZA655405 KIW655366:KIW655405 KSS655366:KSS655405 LCO655366:LCO655405 LMK655366:LMK655405 LWG655366:LWG655405 MGC655366:MGC655405 MPY655366:MPY655405 MZU655366:MZU655405 NJQ655366:NJQ655405 NTM655366:NTM655405 ODI655366:ODI655405 ONE655366:ONE655405 OXA655366:OXA655405 PGW655366:PGW655405 PQS655366:PQS655405 QAO655366:QAO655405 QKK655366:QKK655405 QUG655366:QUG655405 REC655366:REC655405 RNY655366:RNY655405 RXU655366:RXU655405 SHQ655366:SHQ655405 SRM655366:SRM655405 TBI655366:TBI655405 TLE655366:TLE655405 TVA655366:TVA655405 UEW655366:UEW655405 UOS655366:UOS655405 UYO655366:UYO655405 VIK655366:VIK655405 VSG655366:VSG655405 WCC655366:WCC655405 WLY655366:WLY655405 WVU655366:WVU655405 JI720902:JI720941 TE720902:TE720941 ADA720902:ADA720941 AMW720902:AMW720941 AWS720902:AWS720941 BGO720902:BGO720941 BQK720902:BQK720941 CAG720902:CAG720941 CKC720902:CKC720941 CTY720902:CTY720941 DDU720902:DDU720941 DNQ720902:DNQ720941 DXM720902:DXM720941 EHI720902:EHI720941 ERE720902:ERE720941 FBA720902:FBA720941 FKW720902:FKW720941 FUS720902:FUS720941 GEO720902:GEO720941 GOK720902:GOK720941 GYG720902:GYG720941 HIC720902:HIC720941 HRY720902:HRY720941 IBU720902:IBU720941 ILQ720902:ILQ720941 IVM720902:IVM720941 JFI720902:JFI720941 JPE720902:JPE720941 JZA720902:JZA720941 KIW720902:KIW720941 KSS720902:KSS720941 LCO720902:LCO720941 LMK720902:LMK720941 LWG720902:LWG720941 MGC720902:MGC720941 MPY720902:MPY720941 MZU720902:MZU720941 NJQ720902:NJQ720941 NTM720902:NTM720941 ODI720902:ODI720941 ONE720902:ONE720941 OXA720902:OXA720941 PGW720902:PGW720941 PQS720902:PQS720941 QAO720902:QAO720941 QKK720902:QKK720941 QUG720902:QUG720941 REC720902:REC720941 RNY720902:RNY720941 RXU720902:RXU720941 SHQ720902:SHQ720941 SRM720902:SRM720941 TBI720902:TBI720941 TLE720902:TLE720941 TVA720902:TVA720941 UEW720902:UEW720941 UOS720902:UOS720941 UYO720902:UYO720941 VIK720902:VIK720941 VSG720902:VSG720941 WCC720902:WCC720941 WLY720902:WLY720941 WVU720902:WVU720941 JI786438:JI786477 TE786438:TE786477 ADA786438:ADA786477 AMW786438:AMW786477 AWS786438:AWS786477 BGO786438:BGO786477 BQK786438:BQK786477 CAG786438:CAG786477 CKC786438:CKC786477 CTY786438:CTY786477 DDU786438:DDU786477 DNQ786438:DNQ786477 DXM786438:DXM786477 EHI786438:EHI786477 ERE786438:ERE786477 FBA786438:FBA786477 FKW786438:FKW786477 FUS786438:FUS786477 GEO786438:GEO786477 GOK786438:GOK786477 GYG786438:GYG786477 HIC786438:HIC786477 HRY786438:HRY786477 IBU786438:IBU786477 ILQ786438:ILQ786477 IVM786438:IVM786477 JFI786438:JFI786477 JPE786438:JPE786477 JZA786438:JZA786477 KIW786438:KIW786477 KSS786438:KSS786477 LCO786438:LCO786477 LMK786438:LMK786477 LWG786438:LWG786477 MGC786438:MGC786477 MPY786438:MPY786477 MZU786438:MZU786477 NJQ786438:NJQ786477 NTM786438:NTM786477 ODI786438:ODI786477 ONE786438:ONE786477 OXA786438:OXA786477 PGW786438:PGW786477 PQS786438:PQS786477 QAO786438:QAO786477 QKK786438:QKK786477 QUG786438:QUG786477 REC786438:REC786477 RNY786438:RNY786477 RXU786438:RXU786477 SHQ786438:SHQ786477 SRM786438:SRM786477 TBI786438:TBI786477 TLE786438:TLE786477 TVA786438:TVA786477 UEW786438:UEW786477 UOS786438:UOS786477 UYO786438:UYO786477 VIK786438:VIK786477 VSG786438:VSG786477 WCC786438:WCC786477 WLY786438:WLY786477 WVU786438:WVU786477 JI851974:JI852013 TE851974:TE852013 ADA851974:ADA852013 AMW851974:AMW852013 AWS851974:AWS852013 BGO851974:BGO852013 BQK851974:BQK852013 CAG851974:CAG852013 CKC851974:CKC852013 CTY851974:CTY852013 DDU851974:DDU852013 DNQ851974:DNQ852013 DXM851974:DXM852013 EHI851974:EHI852013 ERE851974:ERE852013 FBA851974:FBA852013 FKW851974:FKW852013 FUS851974:FUS852013 GEO851974:GEO852013 GOK851974:GOK852013 GYG851974:GYG852013 HIC851974:HIC852013 HRY851974:HRY852013 IBU851974:IBU852013 ILQ851974:ILQ852013 IVM851974:IVM852013 JFI851974:JFI852013 JPE851974:JPE852013 JZA851974:JZA852013 KIW851974:KIW852013 KSS851974:KSS852013 LCO851974:LCO852013 LMK851974:LMK852013 LWG851974:LWG852013 MGC851974:MGC852013 MPY851974:MPY852013 MZU851974:MZU852013 NJQ851974:NJQ852013 NTM851974:NTM852013 ODI851974:ODI852013 ONE851974:ONE852013 OXA851974:OXA852013 PGW851974:PGW852013 PQS851974:PQS852013 QAO851974:QAO852013 QKK851974:QKK852013 QUG851974:QUG852013 REC851974:REC852013 RNY851974:RNY852013 RXU851974:RXU852013 SHQ851974:SHQ852013 SRM851974:SRM852013 TBI851974:TBI852013 TLE851974:TLE852013 TVA851974:TVA852013 UEW851974:UEW852013 UOS851974:UOS852013 UYO851974:UYO852013 VIK851974:VIK852013 VSG851974:VSG852013 WCC851974:WCC852013 WLY851974:WLY852013 WVU851974:WVU852013 JI917510:JI917549 TE917510:TE917549 ADA917510:ADA917549 AMW917510:AMW917549 AWS917510:AWS917549 BGO917510:BGO917549 BQK917510:BQK917549 CAG917510:CAG917549 CKC917510:CKC917549 CTY917510:CTY917549 DDU917510:DDU917549 DNQ917510:DNQ917549 DXM917510:DXM917549 EHI917510:EHI917549 ERE917510:ERE917549 FBA917510:FBA917549 FKW917510:FKW917549 FUS917510:FUS917549 GEO917510:GEO917549 GOK917510:GOK917549 GYG917510:GYG917549 HIC917510:HIC917549 HRY917510:HRY917549 IBU917510:IBU917549 ILQ917510:ILQ917549 IVM917510:IVM917549 JFI917510:JFI917549 JPE917510:JPE917549 JZA917510:JZA917549 KIW917510:KIW917549 KSS917510:KSS917549 LCO917510:LCO917549 LMK917510:LMK917549 LWG917510:LWG917549 MGC917510:MGC917549 MPY917510:MPY917549 MZU917510:MZU917549 NJQ917510:NJQ917549 NTM917510:NTM917549 ODI917510:ODI917549 ONE917510:ONE917549 OXA917510:OXA917549 PGW917510:PGW917549 PQS917510:PQS917549 QAO917510:QAO917549 QKK917510:QKK917549 QUG917510:QUG917549 REC917510:REC917549 RNY917510:RNY917549 RXU917510:RXU917549 SHQ917510:SHQ917549 SRM917510:SRM917549 TBI917510:TBI917549 TLE917510:TLE917549 TVA917510:TVA917549 UEW917510:UEW917549 UOS917510:UOS917549 UYO917510:UYO917549 VIK917510:VIK917549 VSG917510:VSG917549 WCC917510:WCC917549 WLY917510:WLY917549 WVU917510:WVU917549 JI983046:JI983085 TE983046:TE983085 ADA983046:ADA983085 AMW983046:AMW983085 AWS983046:AWS983085 BGO983046:BGO983085 BQK983046:BQK983085 CAG983046:CAG983085 CKC983046:CKC983085 CTY983046:CTY983085 DDU983046:DDU983085 DNQ983046:DNQ983085 DXM983046:DXM983085 EHI983046:EHI983085 ERE983046:ERE983085 FBA983046:FBA983085 FKW983046:FKW983085 FUS983046:FUS983085 GEO983046:GEO983085 GOK983046:GOK983085 GYG983046:GYG983085 HIC983046:HIC983085 HRY983046:HRY983085 IBU983046:IBU983085 ILQ983046:ILQ983085 IVM983046:IVM983085 JFI983046:JFI983085 JPE983046:JPE983085 JZA983046:JZA983085 KIW983046:KIW983085 KSS983046:KSS983085 LCO983046:LCO983085 LMK983046:LMK983085 LWG983046:LWG983085 MGC983046:MGC983085 MPY983046:MPY983085 MZU983046:MZU983085 NJQ983046:NJQ983085 NTM983046:NTM983085 ODI983046:ODI983085 ONE983046:ONE983085 OXA983046:OXA983085 PGW983046:PGW983085 PQS983046:PQS983085 QAO983046:QAO983085 QKK983046:QKK983085 QUG983046:QUG983085 REC983046:REC983085 RNY983046:RNY983085 RXU983046:RXU983085 SHQ983046:SHQ983085 SRM983046:SRM983085 TBI983046:TBI983085 TLE983046:TLE983085 TVA983046:TVA983085 UEW983046:UEW983085 UOS983046:UOS983085 UYO983046:UYO983085 VIK983046:VIK983085 VSG983046:VSG983085 WCC983046:WCC983085 WLY983046:WLY983085 WVU983046:WVU983085 WVU5:WVU43 WLY5:WLY43 WCC5:WCC43 VSG5:VSG43 VIK5:VIK43 UYO5:UYO43 UOS5:UOS43 UEW5:UEW43 TVA5:TVA43 TLE5:TLE43 TBI5:TBI43 SRM5:SRM43 SHQ5:SHQ43 RXU5:RXU43 RNY5:RNY43 REC5:REC43 QUG5:QUG43 QKK5:QKK43 QAO5:QAO43 PQS5:PQS43 PGW5:PGW43 OXA5:OXA43 ONE5:ONE43 ODI5:ODI43 NTM5:NTM43 NJQ5:NJQ43 MZU5:MZU43 MPY5:MPY43 MGC5:MGC43 LWG5:LWG43 LMK5:LMK43 LCO5:LCO43 KSS5:KSS43 KIW5:KIW43 JZA5:JZA43 JPE5:JPE43 JFI5:JFI43 IVM5:IVM43 ILQ5:ILQ43 IBU5:IBU43 HRY5:HRY43 HIC5:HIC43 GYG5:GYG43 GOK5:GOK43 GEO5:GEO43 FUS5:FUS43 FKW5:FKW43 FBA5:FBA43 ERE5:ERE43 EHI5:EHI43 DXM5:DXM43 DNQ5:DNQ43 DDU5:DDU43 CTY5:CTY43 CKC5:CKC43 CAG5:CAG43 BQK5:BQK43 BGO5:BGO43 AWS5:AWS43 AMW5:AMW43 ADA5:ADA43 TE5:TE43 JI5:JI43" xr:uid="{00000000-0002-0000-0700-000004000000}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
@@ -60809,7 +60916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -61274,37 +61381,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A1" s="153"/>
-      <c r="B1" s="153"/>
-      <c r="C1" s="154" t="s">
+      <c r="A1" s="134"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
       <c r="N1" s="40"/>
       <c r="O1" s="40"/>
       <c r="P1" s="41"/>
     </row>
     <row r="2" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A2" s="156"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
       <c r="M2" s="42" t="s">
         <v>134</v>
       </c>
@@ -61315,19 +61422,19 @@
       <c r="P2" s="41"/>
     </row>
     <row r="3" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="139" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
       <c r="M3" s="42" t="s">
         <v>135</v>
       </c>
@@ -61338,8 +61445,8 @@
       <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:259" s="39" customFormat="1" ht="39" customHeight="1">
-      <c r="A4" s="151"/>
-      <c r="B4" s="152"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="133"/>
       <c r="C4" s="45"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -61354,67 +61461,67 @@
       <c r="P4" s="41"/>
     </row>
     <row r="5" spans="1:259" ht="92.25" customHeight="1">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="152" t="s">
         <v>136</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="153" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="143" t="s">
+      <c r="D5" s="154"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="153" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="146" t="s">
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="156" t="s">
         <v>140</v>
       </c>
-      <c r="L5" s="147" t="s">
+      <c r="L5" s="157" t="s">
         <v>141</v>
       </c>
-      <c r="M5" s="149" t="s">
+      <c r="M5" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="N5" s="150"/>
-      <c r="O5" s="134" t="s">
+      <c r="N5" s="160"/>
+      <c r="O5" s="144" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:259" ht="200.25" customHeight="1">
-      <c r="A6" s="142"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="145" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135" t="s">
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="148"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="N6" s="136" t="s">
+      <c r="N6" s="146" t="s">
         <v>147</v>
       </c>
-      <c r="O6" s="134"/>
+      <c r="O6" s="144"/>
     </row>
     <row r="7" spans="1:259" ht="60" customHeight="1">
-      <c r="A7" s="142"/>
+      <c r="A7" s="152"/>
       <c r="B7" s="52" t="s">
         <v>148</v>
       </c>
@@ -61451,7 +61558,7 @@
       <c r="M7" s="56">
         <v>100</v>
       </c>
-      <c r="N7" s="137"/>
+      <c r="N7" s="147"/>
       <c r="O7" s="57">
         <v>100</v>
       </c>
@@ -63613,23 +63720,23 @@
       </c>
     </row>
     <row r="48" spans="1:259" ht="60" customHeight="1">
-      <c r="A48" s="138" t="s">
+      <c r="A48" s="148" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="138"/>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="138"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="138"/>
-      <c r="J48" s="138"/>
-      <c r="K48" s="138"/>
-      <c r="L48" s="138"/>
-      <c r="M48" s="138"/>
-      <c r="N48" s="138"/>
-      <c r="O48" s="138"/>
+      <c r="B48" s="148"/>
+      <c r="C48" s="148"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="148"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="148"/>
+      <c r="J48" s="148"/>
+      <c r="K48" s="148"/>
+      <c r="L48" s="148"/>
+      <c r="M48" s="148"/>
+      <c r="N48" s="148"/>
+      <c r="O48" s="148"/>
       <c r="P48" s="68"/>
       <c r="Q48" s="68"/>
       <c r="R48" s="68"/>
@@ -63880,17 +63987,17 @@
       <c r="B49" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="C49" s="139"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="140"/>
-      <c r="F49" s="140"/>
-      <c r="G49" s="140"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="140"/>
-      <c r="K49" s="140"/>
-      <c r="L49" s="140"/>
-      <c r="M49" s="141"/>
+      <c r="C49" s="149"/>
+      <c r="D49" s="150"/>
+      <c r="E49" s="150"/>
+      <c r="F49" s="150"/>
+      <c r="G49" s="150"/>
+      <c r="H49" s="150"/>
+      <c r="I49" s="150"/>
+      <c r="J49" s="150"/>
+      <c r="K49" s="150"/>
+      <c r="L49" s="150"/>
+      <c r="M49" s="151"/>
       <c r="N49" s="71"/>
       <c r="O49" s="71"/>
     </row>
@@ -64139,24 +64246,24 @@
       <c r="B55" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="C55" s="132" t="s">
+      <c r="C55" s="142" t="s">
         <v>183</v>
       </c>
-      <c r="D55" s="132" t="s">
+      <c r="D55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="E55" s="132" t="s">
+      <c r="E55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="F55" s="132" t="s">
+      <c r="F55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="G55" s="132"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132" t="s">
+      <c r="G55" s="142"/>
+      <c r="H55" s="142"/>
+      <c r="I55" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="J55" s="132" t="s">
+      <c r="J55" s="142" t="s">
         <v>184</v>
       </c>
       <c r="K55" s="79" t="s">
@@ -64191,12 +64298,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="bymfRcfdrKcinTwDVsD9Sw9HEi8Aylyen4Sk5Zge/jYh+kvPJ7FX30Y4JStUMt7GaslXX539UxCjP4mWFs/Pug==" saltValue="rJpldvugpSjeUtd+V1m7xQ==" spinCount="100000" sheet="1"/>
   <mergeCells count="19">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:L2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:K3"/>
     <mergeCell ref="C55:J55"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="C6:E6"/>
@@ -64210,22 +64311,28 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:L2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:K3"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L47" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:I47 K8:K47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:I47 K8:K47" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D47" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="يجب أن تكون القيمة بين 0 و 5" sqref="SU46:TF50 ACQ46:ADB50 AMM46:AMX50 AWI46:AWT50 BGE46:BGP50 BQA46:BQL50 BZW46:CAH50 CJS46:CKD50 CTO46:CTZ50 DDK46:DDV50 DNG46:DNR50 DXC46:DXN50 EGY46:EHJ50 EQU46:ERF50 FAQ46:FBB50 FKM46:FKX50 FUI46:FUT50 GEE46:GEP50 GOA46:GOL50 GXW46:GYH50 HHS46:HID50 HRO46:HRZ50 IBK46:IBV50 ILG46:ILR50 IVC46:IVN50 JEY46:JFJ50 JOU46:JPF50 JYQ46:JZB50 KIM46:KIX50 KSI46:KST50 LCE46:LCP50 LMA46:LML50 LVW46:LWH50 MFS46:MGD50 MPO46:MPZ50 MZK46:MZV50 NJG46:NJR50 NTC46:NTN50 OCY46:ODJ50 OMU46:ONF50 OWQ46:OXB50 PGM46:PGX50 PQI46:PQT50 QAE46:QAP50 QKA46:QKL50 QTW46:QUH50 RDS46:RED50 RNO46:RNZ50 RXK46:RXV50 SHG46:SHR50 SRC46:SRN50 TAY46:TBJ50 TKU46:TLF50 TUQ46:TVB50 UEM46:UEX50 UOI46:UOT50 UYE46:UYP50 VIA46:VIL50 VRW46:VSH50 WBS46:WCD50 WLO46:WLZ50 WVK46:WVV50 SU65584:TF65588 ACQ65584:ADB65588 AMM65584:AMX65588 AWI65584:AWT65588 BGE65584:BGP65588 BQA65584:BQL65588 BZW65584:CAH65588 CJS65584:CKD65588 CTO65584:CTZ65588 DDK65584:DDV65588 DNG65584:DNR65588 DXC65584:DXN65588 EGY65584:EHJ65588 EQU65584:ERF65588 FAQ65584:FBB65588 FKM65584:FKX65588 FUI65584:FUT65588 GEE65584:GEP65588 GOA65584:GOL65588 GXW65584:GYH65588 HHS65584:HID65588 HRO65584:HRZ65588 IBK65584:IBV65588 ILG65584:ILR65588 IVC65584:IVN65588 JEY65584:JFJ65588 JOU65584:JPF65588 JYQ65584:JZB65588 KIM65584:KIX65588 KSI65584:KST65588 LCE65584:LCP65588 LMA65584:LML65588 LVW65584:LWH65588 MFS65584:MGD65588 MPO65584:MPZ65588 MZK65584:MZV65588 NJG65584:NJR65588 NTC65584:NTN65588 OCY65584:ODJ65588 OMU65584:ONF65588 OWQ65584:OXB65588 PGM65584:PGX65588 PQI65584:PQT65588 QAE65584:QAP65588 QKA65584:QKL65588 QTW65584:QUH65588 RDS65584:RED65588 RNO65584:RNZ65588 RXK65584:RXV65588 SHG65584:SHR65588 SRC65584:SRN65588 TAY65584:TBJ65588 TKU65584:TLF65588 TUQ65584:TVB65588 UEM65584:UEX65588 UOI65584:UOT65588 UYE65584:UYP65588 VIA65584:VIL65588 VRW65584:VSH65588 WBS65584:WCD65588 WLO65584:WLZ65588 WVK65584:WVV65588 SU131120:TF131124 ACQ131120:ADB131124 AMM131120:AMX131124 AWI131120:AWT131124 BGE131120:BGP131124 BQA131120:BQL131124 BZW131120:CAH131124 CJS131120:CKD131124 CTO131120:CTZ131124 DDK131120:DDV131124 DNG131120:DNR131124 DXC131120:DXN131124 EGY131120:EHJ131124 EQU131120:ERF131124 FAQ131120:FBB131124 FKM131120:FKX131124 FUI131120:FUT131124 GEE131120:GEP131124 GOA131120:GOL131124 GXW131120:GYH131124 HHS131120:HID131124 HRO131120:HRZ131124 IBK131120:IBV131124 ILG131120:ILR131124 IVC131120:IVN131124 JEY131120:JFJ131124 JOU131120:JPF131124 JYQ131120:JZB131124 KIM131120:KIX131124 KSI131120:KST131124 LCE131120:LCP131124 LMA131120:LML131124 LVW131120:LWH131124 MFS131120:MGD131124 MPO131120:MPZ131124 MZK131120:MZV131124 NJG131120:NJR131124 NTC131120:NTN131124 OCY131120:ODJ131124 OMU131120:ONF131124 OWQ131120:OXB131124 PGM131120:PGX131124 PQI131120:PQT131124 QAE131120:QAP131124 QKA131120:QKL131124 QTW131120:QUH131124 RDS131120:RED131124 RNO131120:RNZ131124 RXK131120:RXV131124 SHG131120:SHR131124 SRC131120:SRN131124 TAY131120:TBJ131124 TKU131120:TLF131124 TUQ131120:TVB131124 UEM131120:UEX131124 UOI131120:UOT131124 UYE131120:UYP131124 VIA131120:VIL131124 VRW131120:VSH131124 WBS131120:WCD131124 WLO131120:WLZ131124 WVK131120:WVV131124 SU196656:TF196660 ACQ196656:ADB196660 AMM196656:AMX196660 AWI196656:AWT196660 BGE196656:BGP196660 BQA196656:BQL196660 BZW196656:CAH196660 CJS196656:CKD196660 CTO196656:CTZ196660 DDK196656:DDV196660 DNG196656:DNR196660 DXC196656:DXN196660 EGY196656:EHJ196660 EQU196656:ERF196660 FAQ196656:FBB196660 FKM196656:FKX196660 FUI196656:FUT196660 GEE196656:GEP196660 GOA196656:GOL196660 GXW196656:GYH196660 HHS196656:HID196660 HRO196656:HRZ196660 IBK196656:IBV196660 ILG196656:ILR196660 IVC196656:IVN196660 JEY196656:JFJ196660 JOU196656:JPF196660 JYQ196656:JZB196660 KIM196656:KIX196660 KSI196656:KST196660 LCE196656:LCP196660 LMA196656:LML196660 LVW196656:LWH196660 MFS196656:MGD196660 MPO196656:MPZ196660 MZK196656:MZV196660 NJG196656:NJR196660 NTC196656:NTN196660 OCY196656:ODJ196660 OMU196656:ONF196660 OWQ196656:OXB196660 PGM196656:PGX196660 PQI196656:PQT196660 QAE196656:QAP196660 QKA196656:QKL196660 QTW196656:QUH196660 RDS196656:RED196660 RNO196656:RNZ196660 RXK196656:RXV196660 SHG196656:SHR196660 SRC196656:SRN196660 TAY196656:TBJ196660 TKU196656:TLF196660 TUQ196656:TVB196660 UEM196656:UEX196660 UOI196656:UOT196660 UYE196656:UYP196660 VIA196656:VIL196660 VRW196656:VSH196660 WBS196656:WCD196660 WLO196656:WLZ196660 WVK196656:WVV196660 SU262192:TF262196 ACQ262192:ADB262196 AMM262192:AMX262196 AWI262192:AWT262196 BGE262192:BGP262196 BQA262192:BQL262196 BZW262192:CAH262196 CJS262192:CKD262196 CTO262192:CTZ262196 DDK262192:DDV262196 DNG262192:DNR262196 DXC262192:DXN262196 EGY262192:EHJ262196 EQU262192:ERF262196 FAQ262192:FBB262196 FKM262192:FKX262196 FUI262192:FUT262196 GEE262192:GEP262196 GOA262192:GOL262196 GXW262192:GYH262196 HHS262192:HID262196 HRO262192:HRZ262196 IBK262192:IBV262196 ILG262192:ILR262196 IVC262192:IVN262196 JEY262192:JFJ262196 JOU262192:JPF262196 JYQ262192:JZB262196 KIM262192:KIX262196 KSI262192:KST262196 LCE262192:LCP262196 LMA262192:LML262196 LVW262192:LWH262196 MFS262192:MGD262196 MPO262192:MPZ262196 MZK262192:MZV262196 NJG262192:NJR262196 NTC262192:NTN262196 OCY262192:ODJ262196 OMU262192:ONF262196 OWQ262192:OXB262196 PGM262192:PGX262196 PQI262192:PQT262196 QAE262192:QAP262196 QKA262192:QKL262196 QTW262192:QUH262196 RDS262192:RED262196 RNO262192:RNZ262196 RXK262192:RXV262196 SHG262192:SHR262196 SRC262192:SRN262196 TAY262192:TBJ262196 TKU262192:TLF262196 TUQ262192:TVB262196 UEM262192:UEX262196 UOI262192:UOT262196 UYE262192:UYP262196 VIA262192:VIL262196 VRW262192:VSH262196 WBS262192:WCD262196 WLO262192:WLZ262196 WVK262192:WVV262196 SU327728:TF327732 ACQ327728:ADB327732 AMM327728:AMX327732 AWI327728:AWT327732 BGE327728:BGP327732 BQA327728:BQL327732 BZW327728:CAH327732 CJS327728:CKD327732 CTO327728:CTZ327732 DDK327728:DDV327732 DNG327728:DNR327732 DXC327728:DXN327732 EGY327728:EHJ327732 EQU327728:ERF327732 FAQ327728:FBB327732 FKM327728:FKX327732 FUI327728:FUT327732 GEE327728:GEP327732 GOA327728:GOL327732 GXW327728:GYH327732 HHS327728:HID327732 HRO327728:HRZ327732 IBK327728:IBV327732 ILG327728:ILR327732 IVC327728:IVN327732 JEY327728:JFJ327732 JOU327728:JPF327732 JYQ327728:JZB327732 KIM327728:KIX327732 KSI327728:KST327732 LCE327728:LCP327732 LMA327728:LML327732 LVW327728:LWH327732 MFS327728:MGD327732 MPO327728:MPZ327732 MZK327728:MZV327732 NJG327728:NJR327732 NTC327728:NTN327732 OCY327728:ODJ327732 OMU327728:ONF327732 OWQ327728:OXB327732 PGM327728:PGX327732 PQI327728:PQT327732 QAE327728:QAP327732 QKA327728:QKL327732 QTW327728:QUH327732 RDS327728:RED327732 RNO327728:RNZ327732 RXK327728:RXV327732 SHG327728:SHR327732 SRC327728:SRN327732 TAY327728:TBJ327732 TKU327728:TLF327732 TUQ327728:TVB327732 UEM327728:UEX327732 UOI327728:UOT327732 UYE327728:UYP327732 VIA327728:VIL327732 VRW327728:VSH327732 WBS327728:WCD327732 WLO327728:WLZ327732 WVK327728:WVV327732 SU393264:TF393268 ACQ393264:ADB393268 AMM393264:AMX393268 AWI393264:AWT393268 BGE393264:BGP393268 BQA393264:BQL393268 BZW393264:CAH393268 CJS393264:CKD393268 CTO393264:CTZ393268 DDK393264:DDV393268 DNG393264:DNR393268 DXC393264:DXN393268 EGY393264:EHJ393268 EQU393264:ERF393268 FAQ393264:FBB393268 FKM393264:FKX393268 FUI393264:FUT393268 GEE393264:GEP393268 GOA393264:GOL393268 GXW393264:GYH393268 HHS393264:HID393268 HRO393264:HRZ393268 IBK393264:IBV393268 ILG393264:ILR393268 IVC393264:IVN393268 JEY393264:JFJ393268 JOU393264:JPF393268 JYQ393264:JZB393268 KIM393264:KIX393268 KSI393264:KST393268 LCE393264:LCP393268 LMA393264:LML393268 LVW393264:LWH393268 MFS393264:MGD393268 MPO393264:MPZ393268 MZK393264:MZV393268 NJG393264:NJR393268 NTC393264:NTN393268 OCY393264:ODJ393268 OMU393264:ONF393268 OWQ393264:OXB393268 PGM393264:PGX393268 PQI393264:PQT393268 QAE393264:QAP393268 QKA393264:QKL393268 QTW393264:QUH393268 RDS393264:RED393268 RNO393264:RNZ393268 RXK393264:RXV393268 SHG393264:SHR393268 SRC393264:SRN393268 TAY393264:TBJ393268 TKU393264:TLF393268 TUQ393264:TVB393268 UEM393264:UEX393268 UOI393264:UOT393268 UYE393264:UYP393268 VIA393264:VIL393268 VRW393264:VSH393268 WBS393264:WCD393268 WLO393264:WLZ393268 WVK393264:WVV393268 SU458800:TF458804 ACQ458800:ADB458804 AMM458800:AMX458804 AWI458800:AWT458804 BGE458800:BGP458804 BQA458800:BQL458804 BZW458800:CAH458804 CJS458800:CKD458804 CTO458800:CTZ458804 DDK458800:DDV458804 DNG458800:DNR458804 DXC458800:DXN458804 EGY458800:EHJ458804 EQU458800:ERF458804 FAQ458800:FBB458804 FKM458800:FKX458804 FUI458800:FUT458804 GEE458800:GEP458804 GOA458800:GOL458804 GXW458800:GYH458804 HHS458800:HID458804 HRO458800:HRZ458804 IBK458800:IBV458804 ILG458800:ILR458804 IVC458800:IVN458804 JEY458800:JFJ458804 JOU458800:JPF458804 JYQ458800:JZB458804 KIM458800:KIX458804 KSI458800:KST458804 LCE458800:LCP458804 LMA458800:LML458804 LVW458800:LWH458804 MFS458800:MGD458804 MPO458800:MPZ458804 MZK458800:MZV458804 NJG458800:NJR458804 NTC458800:NTN458804 OCY458800:ODJ458804 OMU458800:ONF458804 OWQ458800:OXB458804 PGM458800:PGX458804 PQI458800:PQT458804 QAE458800:QAP458804 QKA458800:QKL458804 QTW458800:QUH458804 RDS458800:RED458804 RNO458800:RNZ458804 RXK458800:RXV458804 SHG458800:SHR458804 SRC458800:SRN458804 TAY458800:TBJ458804 TKU458800:TLF458804 TUQ458800:TVB458804 UEM458800:UEX458804 UOI458800:UOT458804 UYE458800:UYP458804 VIA458800:VIL458804 VRW458800:VSH458804 WBS458800:WCD458804 WLO458800:WLZ458804 WVK458800:WVV458804 SU524336:TF524340 ACQ524336:ADB524340 AMM524336:AMX524340 AWI524336:AWT524340 BGE524336:BGP524340 BQA524336:BQL524340 BZW524336:CAH524340 CJS524336:CKD524340 CTO524336:CTZ524340 DDK524336:DDV524340 DNG524336:DNR524340 DXC524336:DXN524340 EGY524336:EHJ524340 EQU524336:ERF524340 FAQ524336:FBB524340 FKM524336:FKX524340 FUI524336:FUT524340 GEE524336:GEP524340 GOA524336:GOL524340 GXW524336:GYH524340 HHS524336:HID524340 HRO524336:HRZ524340 IBK524336:IBV524340 ILG524336:ILR524340 IVC524336:IVN524340 JEY524336:JFJ524340 JOU524336:JPF524340 JYQ524336:JZB524340 KIM524336:KIX524340 KSI524336:KST524340 LCE524336:LCP524340 LMA524336:LML524340 LVW524336:LWH524340 MFS524336:MGD524340 MPO524336:MPZ524340 MZK524336:MZV524340 NJG524336:NJR524340 NTC524336:NTN524340 OCY524336:ODJ524340 OMU524336:ONF524340 OWQ524336:OXB524340 PGM524336:PGX524340 PQI524336:PQT524340 QAE524336:QAP524340 QKA524336:QKL524340 QTW524336:QUH524340 RDS524336:RED524340 RNO524336:RNZ524340 RXK524336:RXV524340 SHG524336:SHR524340 SRC524336:SRN524340 TAY524336:TBJ524340 TKU524336:TLF524340 TUQ524336:TVB524340 UEM524336:UEX524340 UOI524336:UOT524340 UYE524336:UYP524340 VIA524336:VIL524340 VRW524336:VSH524340 WBS524336:WCD524340 WLO524336:WLZ524340 WVK524336:WVV524340 SU589872:TF589876 ACQ589872:ADB589876 AMM589872:AMX589876 AWI589872:AWT589876 BGE589872:BGP589876 BQA589872:BQL589876 BZW589872:CAH589876 CJS589872:CKD589876 CTO589872:CTZ589876 DDK589872:DDV589876 DNG589872:DNR589876 DXC589872:DXN589876 EGY589872:EHJ589876 EQU589872:ERF589876 FAQ589872:FBB589876 FKM589872:FKX589876 FUI589872:FUT589876 GEE589872:GEP589876 GOA589872:GOL589876 GXW589872:GYH589876 HHS589872:HID589876 HRO589872:HRZ589876 IBK589872:IBV589876 ILG589872:ILR589876 IVC589872:IVN589876 JEY589872:JFJ589876 JOU589872:JPF589876 JYQ589872:JZB589876 KIM589872:KIX589876 KSI589872:KST589876 LCE589872:LCP589876 LMA589872:LML589876 LVW589872:LWH589876 MFS589872:MGD589876 MPO589872:MPZ589876 MZK589872:MZV589876 NJG589872:NJR589876 NTC589872:NTN589876 OCY589872:ODJ589876 OMU589872:ONF589876 OWQ589872:OXB589876 PGM589872:PGX589876 PQI589872:PQT589876 QAE589872:QAP589876 QKA589872:QKL589876 QTW589872:QUH589876 RDS589872:RED589876 RNO589872:RNZ589876 RXK589872:RXV589876 SHG589872:SHR589876 SRC589872:SRN589876 TAY589872:TBJ589876 TKU589872:TLF589876 TUQ589872:TVB589876 UEM589872:UEX589876 UOI589872:UOT589876 UYE589872:UYP589876 VIA589872:VIL589876 VRW589872:VSH589876 WBS589872:WCD589876 WLO589872:WLZ589876 WVK589872:WVV589876 SU655408:TF655412 ACQ655408:ADB655412 AMM655408:AMX655412 AWI655408:AWT655412 BGE655408:BGP655412 BQA655408:BQL655412 BZW655408:CAH655412 CJS655408:CKD655412 CTO655408:CTZ655412 DDK655408:DDV655412 DNG655408:DNR655412 DXC655408:DXN655412 EGY655408:EHJ655412 EQU655408:ERF655412 FAQ655408:FBB655412 FKM655408:FKX655412 FUI655408:FUT655412 GEE655408:GEP655412 GOA655408:GOL655412 GXW655408:GYH655412 HHS655408:HID655412 HRO655408:HRZ655412 IBK655408:IBV655412 ILG655408:ILR655412 IVC655408:IVN655412 JEY655408:JFJ655412 JOU655408:JPF655412 JYQ655408:JZB655412 KIM655408:KIX655412 KSI655408:KST655412 LCE655408:LCP655412 LMA655408:LML655412 LVW655408:LWH655412 MFS655408:MGD655412 MPO655408:MPZ655412 MZK655408:MZV655412 NJG655408:NJR655412 NTC655408:NTN655412 OCY655408:ODJ655412 OMU655408:ONF655412 OWQ655408:OXB655412 PGM655408:PGX655412 PQI655408:PQT655412 QAE655408:QAP655412 QKA655408:QKL655412 QTW655408:QUH655412 RDS655408:RED655412 RNO655408:RNZ655412 RXK655408:RXV655412 SHG655408:SHR655412 SRC655408:SRN655412 TAY655408:TBJ655412 TKU655408:TLF655412 TUQ655408:TVB655412 UEM655408:UEX655412 UOI655408:UOT655412 UYE655408:UYP655412 VIA655408:VIL655412 VRW655408:VSH655412 WBS655408:WCD655412 WLO655408:WLZ655412 WVK655408:WVV655412 SU720944:TF720948 ACQ720944:ADB720948 AMM720944:AMX720948 AWI720944:AWT720948 BGE720944:BGP720948 BQA720944:BQL720948 BZW720944:CAH720948 CJS720944:CKD720948 CTO720944:CTZ720948 DDK720944:DDV720948 DNG720944:DNR720948 DXC720944:DXN720948 EGY720944:EHJ720948 EQU720944:ERF720948 FAQ720944:FBB720948 FKM720944:FKX720948 FUI720944:FUT720948 GEE720944:GEP720948 GOA720944:GOL720948 GXW720944:GYH720948 HHS720944:HID720948 HRO720944:HRZ720948 IBK720944:IBV720948 ILG720944:ILR720948 IVC720944:IVN720948 JEY720944:JFJ720948 JOU720944:JPF720948 JYQ720944:JZB720948 KIM720944:KIX720948 KSI720944:KST720948 LCE720944:LCP720948 LMA720944:LML720948 LVW720944:LWH720948 MFS720944:MGD720948 MPO720944:MPZ720948 MZK720944:MZV720948 NJG720944:NJR720948 NTC720944:NTN720948 OCY720944:ODJ720948 OMU720944:ONF720948 OWQ720944:OXB720948 PGM720944:PGX720948 PQI720944:PQT720948 QAE720944:QAP720948 QKA720944:QKL720948 QTW720944:QUH720948 RDS720944:RED720948 RNO720944:RNZ720948 RXK720944:RXV720948 SHG720944:SHR720948 SRC720944:SRN720948 TAY720944:TBJ720948 TKU720944:TLF720948 TUQ720944:TVB720948 UEM720944:UEX720948 UOI720944:UOT720948 UYE720944:UYP720948 VIA720944:VIL720948 VRW720944:VSH720948 WBS720944:WCD720948 WLO720944:WLZ720948 WVK720944:WVV720948 SU786480:TF786484 ACQ786480:ADB786484 AMM786480:AMX786484 AWI786480:AWT786484 BGE786480:BGP786484 BQA786480:BQL786484 BZW786480:CAH786484 CJS786480:CKD786484 CTO786480:CTZ786484 DDK786480:DDV786484 DNG786480:DNR786484 DXC786480:DXN786484 EGY786480:EHJ786484 EQU786480:ERF786484 FAQ786480:FBB786484 FKM786480:FKX786484 FUI786480:FUT786484 GEE786480:GEP786484 GOA786480:GOL786484 GXW786480:GYH786484 HHS786480:HID786484 HRO786480:HRZ786484 IBK786480:IBV786484 ILG786480:ILR786484 IVC786480:IVN786484 JEY786480:JFJ786484 JOU786480:JPF786484 JYQ786480:JZB786484 KIM786480:KIX786484 KSI786480:KST786484 LCE786480:LCP786484 LMA786480:LML786484 LVW786480:LWH786484 MFS786480:MGD786484 MPO786480:MPZ786484 MZK786480:MZV786484 NJG786480:NJR786484 NTC786480:NTN786484 OCY786480:ODJ786484 OMU786480:ONF786484 OWQ786480:OXB786484 PGM786480:PGX786484 PQI786480:PQT786484 QAE786480:QAP786484 QKA786480:QKL786484 QTW786480:QUH786484 RDS786480:RED786484 RNO786480:RNZ786484 RXK786480:RXV786484 SHG786480:SHR786484 SRC786480:SRN786484 TAY786480:TBJ786484 TKU786480:TLF786484 TUQ786480:TVB786484 UEM786480:UEX786484 UOI786480:UOT786484 UYE786480:UYP786484 VIA786480:VIL786484 VRW786480:VSH786484 WBS786480:WCD786484 WLO786480:WLZ786484 WVK786480:WVV786484 SU852016:TF852020 ACQ852016:ADB852020 AMM852016:AMX852020 AWI852016:AWT852020 BGE852016:BGP852020 BQA852016:BQL852020 BZW852016:CAH852020 CJS852016:CKD852020 CTO852016:CTZ852020 DDK852016:DDV852020 DNG852016:DNR852020 DXC852016:DXN852020 EGY852016:EHJ852020 EQU852016:ERF852020 FAQ852016:FBB852020 FKM852016:FKX852020 FUI852016:FUT852020 GEE852016:GEP852020 GOA852016:GOL852020 GXW852016:GYH852020 HHS852016:HID852020 HRO852016:HRZ852020 IBK852016:IBV852020 ILG852016:ILR852020 IVC852016:IVN852020 JEY852016:JFJ852020 JOU852016:JPF852020 JYQ852016:JZB852020 KIM852016:KIX852020 KSI852016:KST852020 LCE852016:LCP852020 LMA852016:LML852020 LVW852016:LWH852020 MFS852016:MGD852020 MPO852016:MPZ852020 MZK852016:MZV852020 NJG852016:NJR852020 NTC852016:NTN852020 OCY852016:ODJ852020 OMU852016:ONF852020 OWQ852016:OXB852020 PGM852016:PGX852020 PQI852016:PQT852020 QAE852016:QAP852020 QKA852016:QKL852020 QTW852016:QUH852020 RDS852016:RED852020 RNO852016:RNZ852020 RXK852016:RXV852020 SHG852016:SHR852020 SRC852016:SRN852020 TAY852016:TBJ852020 TKU852016:TLF852020 TUQ852016:TVB852020 UEM852016:UEX852020 UOI852016:UOT852020 UYE852016:UYP852020 VIA852016:VIL852020 VRW852016:VSH852020 WBS852016:WCD852020 WLO852016:WLZ852020 WVK852016:WVV852020 SU917552:TF917556 ACQ917552:ADB917556 AMM917552:AMX917556 AWI917552:AWT917556 BGE917552:BGP917556 BQA917552:BQL917556 BZW917552:CAH917556 CJS917552:CKD917556 CTO917552:CTZ917556 DDK917552:DDV917556 DNG917552:DNR917556 DXC917552:DXN917556 EGY917552:EHJ917556 EQU917552:ERF917556 FAQ917552:FBB917556 FKM917552:FKX917556 FUI917552:FUT917556 GEE917552:GEP917556 GOA917552:GOL917556 GXW917552:GYH917556 HHS917552:HID917556 HRO917552:HRZ917556 IBK917552:IBV917556 ILG917552:ILR917556 IVC917552:IVN917556 JEY917552:JFJ917556 JOU917552:JPF917556 JYQ917552:JZB917556 KIM917552:KIX917556 KSI917552:KST917556 LCE917552:LCP917556 LMA917552:LML917556 LVW917552:LWH917556 MFS917552:MGD917556 MPO917552:MPZ917556 MZK917552:MZV917556 NJG917552:NJR917556 NTC917552:NTN917556 OCY917552:ODJ917556 OMU917552:ONF917556 OWQ917552:OXB917556 PGM917552:PGX917556 PQI917552:PQT917556 QAE917552:QAP917556 QKA917552:QKL917556 QTW917552:QUH917556 RDS917552:RED917556 RNO917552:RNZ917556 RXK917552:RXV917556 SHG917552:SHR917556 SRC917552:SRN917556 TAY917552:TBJ917556 TKU917552:TLF917556 TUQ917552:TVB917556 UEM917552:UEX917556 UOI917552:UOT917556 UYE917552:UYP917556 VIA917552:VIL917556 VRW917552:VSH917556 WBS917552:WCD917556 WLO917552:WLZ917556 WVK917552:WVV917556 WVK983088:WVV983092 SU983088:TF983092 ACQ983088:ADB983092 AMM983088:AMX983092 AWI983088:AWT983092 BGE983088:BGP983092 BQA983088:BQL983092 BZW983088:CAH983092 CJS983088:CKD983092 CTO983088:CTZ983092 DDK983088:DDV983092 DNG983088:DNR983092 DXC983088:DXN983092 EGY983088:EHJ983092 EQU983088:ERF983092 FAQ983088:FBB983092 FKM983088:FKX983092 FUI983088:FUT983092 GEE983088:GEP983092 GOA983088:GOL983092 GXW983088:GYH983092 HHS983088:HID983092 HRO983088:HRZ983092 IBK983088:IBV983092 ILG983088:ILR983092 IVC983088:IVN983092 JEY983088:JFJ983092 JOU983088:JPF983092 JYQ983088:JZB983092 KIM983088:KIX983092 KSI983088:KST983092 LCE983088:LCP983092 LMA983088:LML983092 LVW983088:LWH983092 MFS983088:MGD983092 MPO983088:MPZ983092 MZK983088:MZV983092 NJG983088:NJR983092 NTC983088:NTN983092 OCY983088:ODJ983092 OMU983088:ONF983092 OWQ983088:OXB983092 PGM983088:PGX983092 PQI983088:PQT983092 QAE983088:QAP983092 QKA983088:QKL983092 QTW983088:QUH983092 RDS983088:RED983092 RNO983088:RNZ983092 RXK983088:RXV983092 SHG983088:SHR983092 SRC983088:SRN983092 TAY983088:TBJ983092 TKU983088:TLF983092 TUQ983088:TVB983092 UEM983088:UEX983092 UOI983088:UOT983092 UYE983088:UYP983092 VIA983088:VIL983092 VRW983088:VSH983092 WBS983088:WCD983092 WLO983088:WLZ983092 IY50:IY54 C917556:M917560 C852020:M852024 C786484:M786488 C720948:M720952 C655412:M655416 C589876:M589880 C524340:M524344 C458804:M458808 C393268:M393272 C327732:M327736 C262196:M262200 C196660:M196664 C131124:M131128 C65588:M65592 C983092:M983096 IY983092:IY983096 IZ983088:JJ983092 IY917556:IY917560 IZ917552:JJ917556 IY852020:IY852024 IZ852016:JJ852020 IY786484:IY786488 IZ786480:JJ786484 IY720948:IY720952 IZ720944:JJ720948 IY655412:IY655416 IZ655408:JJ655412 IY589876:IY589880 IZ589872:JJ589876 IY524340:IY524344 IZ524336:JJ524340 IY458804:IY458808 IZ458800:JJ458804 IY393268:IY393272 IZ393264:JJ393268 IY327732:IY327736 IZ327728:JJ327732 IY262196:IY262200 IZ262192:JJ262196 IY196660:IY196664 IZ196656:JJ196660 IY131124:IY131128 IZ131120:JJ131124 IY65588:IY65592 IZ65584:JJ65588 IZ46:JJ50 C50:M54"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JI65542:JI65581 TE65542:TE65581 ADA65542:ADA65581 AMW65542:AMW65581 AWS65542:AWS65581 BGO65542:BGO65581 BQK65542:BQK65581 CAG65542:CAG65581 CKC65542:CKC65581 CTY65542:CTY65581 DDU65542:DDU65581 DNQ65542:DNQ65581 DXM65542:DXM65581 EHI65542:EHI65581 ERE65542:ERE65581 FBA65542:FBA65581 FKW65542:FKW65581 FUS65542:FUS65581 GEO65542:GEO65581 GOK65542:GOK65581 GYG65542:GYG65581 HIC65542:HIC65581 HRY65542:HRY65581 IBU65542:IBU65581 ILQ65542:ILQ65581 IVM65542:IVM65581 JFI65542:JFI65581 JPE65542:JPE65581 JZA65542:JZA65581 KIW65542:KIW65581 KSS65542:KSS65581 LCO65542:LCO65581 LMK65542:LMK65581 LWG65542:LWG65581 MGC65542:MGC65581 MPY65542:MPY65581 MZU65542:MZU65581 NJQ65542:NJQ65581 NTM65542:NTM65581 ODI65542:ODI65581 ONE65542:ONE65581 OXA65542:OXA65581 PGW65542:PGW65581 PQS65542:PQS65581 QAO65542:QAO65581 QKK65542:QKK65581 QUG65542:QUG65581 REC65542:REC65581 RNY65542:RNY65581 RXU65542:RXU65581 SHQ65542:SHQ65581 SRM65542:SRM65581 TBI65542:TBI65581 TLE65542:TLE65581 TVA65542:TVA65581 UEW65542:UEW65581 UOS65542:UOS65581 UYO65542:UYO65581 VIK65542:VIK65581 VSG65542:VSG65581 WCC65542:WCC65581 WLY65542:WLY65581 WVU65542:WVU65581 JI131078:JI131117 TE131078:TE131117 ADA131078:ADA131117 AMW131078:AMW131117 AWS131078:AWS131117 BGO131078:BGO131117 BQK131078:BQK131117 CAG131078:CAG131117 CKC131078:CKC131117 CTY131078:CTY131117 DDU131078:DDU131117 DNQ131078:DNQ131117 DXM131078:DXM131117 EHI131078:EHI131117 ERE131078:ERE131117 FBA131078:FBA131117 FKW131078:FKW131117 FUS131078:FUS131117 GEO131078:GEO131117 GOK131078:GOK131117 GYG131078:GYG131117 HIC131078:HIC131117 HRY131078:HRY131117 IBU131078:IBU131117 ILQ131078:ILQ131117 IVM131078:IVM131117 JFI131078:JFI131117 JPE131078:JPE131117 JZA131078:JZA131117 KIW131078:KIW131117 KSS131078:KSS131117 LCO131078:LCO131117 LMK131078:LMK131117 LWG131078:LWG131117 MGC131078:MGC131117 MPY131078:MPY131117 MZU131078:MZU131117 NJQ131078:NJQ131117 NTM131078:NTM131117 ODI131078:ODI131117 ONE131078:ONE131117 OXA131078:OXA131117 PGW131078:PGW131117 PQS131078:PQS131117 QAO131078:QAO131117 QKK131078:QKK131117 QUG131078:QUG131117 REC131078:REC131117 RNY131078:RNY131117 RXU131078:RXU131117 SHQ131078:SHQ131117 SRM131078:SRM131117 TBI131078:TBI131117 TLE131078:TLE131117 TVA131078:TVA131117 UEW131078:UEW131117 UOS131078:UOS131117 UYO131078:UYO131117 VIK131078:VIK131117 VSG131078:VSG131117 WCC131078:WCC131117 WLY131078:WLY131117 WVU131078:WVU131117 JI196614:JI196653 TE196614:TE196653 ADA196614:ADA196653 AMW196614:AMW196653 AWS196614:AWS196653 BGO196614:BGO196653 BQK196614:BQK196653 CAG196614:CAG196653 CKC196614:CKC196653 CTY196614:CTY196653 DDU196614:DDU196653 DNQ196614:DNQ196653 DXM196614:DXM196653 EHI196614:EHI196653 ERE196614:ERE196653 FBA196614:FBA196653 FKW196614:FKW196653 FUS196614:FUS196653 GEO196614:GEO196653 GOK196614:GOK196653 GYG196614:GYG196653 HIC196614:HIC196653 HRY196614:HRY196653 IBU196614:IBU196653 ILQ196614:ILQ196653 IVM196614:IVM196653 JFI196614:JFI196653 JPE196614:JPE196653 JZA196614:JZA196653 KIW196614:KIW196653 KSS196614:KSS196653 LCO196614:LCO196653 LMK196614:LMK196653 LWG196614:LWG196653 MGC196614:MGC196653 MPY196614:MPY196653 MZU196614:MZU196653 NJQ196614:NJQ196653 NTM196614:NTM196653 ODI196614:ODI196653 ONE196614:ONE196653 OXA196614:OXA196653 PGW196614:PGW196653 PQS196614:PQS196653 QAO196614:QAO196653 QKK196614:QKK196653 QUG196614:QUG196653 REC196614:REC196653 RNY196614:RNY196653 RXU196614:RXU196653 SHQ196614:SHQ196653 SRM196614:SRM196653 TBI196614:TBI196653 TLE196614:TLE196653 TVA196614:TVA196653 UEW196614:UEW196653 UOS196614:UOS196653 UYO196614:UYO196653 VIK196614:VIK196653 VSG196614:VSG196653 WCC196614:WCC196653 WLY196614:WLY196653 WVU196614:WVU196653 JI262150:JI262189 TE262150:TE262189 ADA262150:ADA262189 AMW262150:AMW262189 AWS262150:AWS262189 BGO262150:BGO262189 BQK262150:BQK262189 CAG262150:CAG262189 CKC262150:CKC262189 CTY262150:CTY262189 DDU262150:DDU262189 DNQ262150:DNQ262189 DXM262150:DXM262189 EHI262150:EHI262189 ERE262150:ERE262189 FBA262150:FBA262189 FKW262150:FKW262189 FUS262150:FUS262189 GEO262150:GEO262189 GOK262150:GOK262189 GYG262150:GYG262189 HIC262150:HIC262189 HRY262150:HRY262189 IBU262150:IBU262189 ILQ262150:ILQ262189 IVM262150:IVM262189 JFI262150:JFI262189 JPE262150:JPE262189 JZA262150:JZA262189 KIW262150:KIW262189 KSS262150:KSS262189 LCO262150:LCO262189 LMK262150:LMK262189 LWG262150:LWG262189 MGC262150:MGC262189 MPY262150:MPY262189 MZU262150:MZU262189 NJQ262150:NJQ262189 NTM262150:NTM262189 ODI262150:ODI262189 ONE262150:ONE262189 OXA262150:OXA262189 PGW262150:PGW262189 PQS262150:PQS262189 QAO262150:QAO262189 QKK262150:QKK262189 QUG262150:QUG262189 REC262150:REC262189 RNY262150:RNY262189 RXU262150:RXU262189 SHQ262150:SHQ262189 SRM262150:SRM262189 TBI262150:TBI262189 TLE262150:TLE262189 TVA262150:TVA262189 UEW262150:UEW262189 UOS262150:UOS262189 UYO262150:UYO262189 VIK262150:VIK262189 VSG262150:VSG262189 WCC262150:WCC262189 WLY262150:WLY262189 WVU262150:WVU262189 JI327686:JI327725 TE327686:TE327725 ADA327686:ADA327725 AMW327686:AMW327725 AWS327686:AWS327725 BGO327686:BGO327725 BQK327686:BQK327725 CAG327686:CAG327725 CKC327686:CKC327725 CTY327686:CTY327725 DDU327686:DDU327725 DNQ327686:DNQ327725 DXM327686:DXM327725 EHI327686:EHI327725 ERE327686:ERE327725 FBA327686:FBA327725 FKW327686:FKW327725 FUS327686:FUS327725 GEO327686:GEO327725 GOK327686:GOK327725 GYG327686:GYG327725 HIC327686:HIC327725 HRY327686:HRY327725 IBU327686:IBU327725 ILQ327686:ILQ327725 IVM327686:IVM327725 JFI327686:JFI327725 JPE327686:JPE327725 JZA327686:JZA327725 KIW327686:KIW327725 KSS327686:KSS327725 LCO327686:LCO327725 LMK327686:LMK327725 LWG327686:LWG327725 MGC327686:MGC327725 MPY327686:MPY327725 MZU327686:MZU327725 NJQ327686:NJQ327725 NTM327686:NTM327725 ODI327686:ODI327725 ONE327686:ONE327725 OXA327686:OXA327725 PGW327686:PGW327725 PQS327686:PQS327725 QAO327686:QAO327725 QKK327686:QKK327725 QUG327686:QUG327725 REC327686:REC327725 RNY327686:RNY327725 RXU327686:RXU327725 SHQ327686:SHQ327725 SRM327686:SRM327725 TBI327686:TBI327725 TLE327686:TLE327725 TVA327686:TVA327725 UEW327686:UEW327725 UOS327686:UOS327725 UYO327686:UYO327725 VIK327686:VIK327725 VSG327686:VSG327725 WCC327686:WCC327725 WLY327686:WLY327725 WVU327686:WVU327725 JI393222:JI393261 TE393222:TE393261 ADA393222:ADA393261 AMW393222:AMW393261 AWS393222:AWS393261 BGO393222:BGO393261 BQK393222:BQK393261 CAG393222:CAG393261 CKC393222:CKC393261 CTY393222:CTY393261 DDU393222:DDU393261 DNQ393222:DNQ393261 DXM393222:DXM393261 EHI393222:EHI393261 ERE393222:ERE393261 FBA393222:FBA393261 FKW393222:FKW393261 FUS393222:FUS393261 GEO393222:GEO393261 GOK393222:GOK393261 GYG393222:GYG393261 HIC393222:HIC393261 HRY393222:HRY393261 IBU393222:IBU393261 ILQ393222:ILQ393261 IVM393222:IVM393261 JFI393222:JFI393261 JPE393222:JPE393261 JZA393222:JZA393261 KIW393222:KIW393261 KSS393222:KSS393261 LCO393222:LCO393261 LMK393222:LMK393261 LWG393222:LWG393261 MGC393222:MGC393261 MPY393222:MPY393261 MZU393222:MZU393261 NJQ393222:NJQ393261 NTM393222:NTM393261 ODI393222:ODI393261 ONE393222:ONE393261 OXA393222:OXA393261 PGW393222:PGW393261 PQS393222:PQS393261 QAO393222:QAO393261 QKK393222:QKK393261 QUG393222:QUG393261 REC393222:REC393261 RNY393222:RNY393261 RXU393222:RXU393261 SHQ393222:SHQ393261 SRM393222:SRM393261 TBI393222:TBI393261 TLE393222:TLE393261 TVA393222:TVA393261 UEW393222:UEW393261 UOS393222:UOS393261 UYO393222:UYO393261 VIK393222:VIK393261 VSG393222:VSG393261 WCC393222:WCC393261 WLY393222:WLY393261 WVU393222:WVU393261 JI458758:JI458797 TE458758:TE458797 ADA458758:ADA458797 AMW458758:AMW458797 AWS458758:AWS458797 BGO458758:BGO458797 BQK458758:BQK458797 CAG458758:CAG458797 CKC458758:CKC458797 CTY458758:CTY458797 DDU458758:DDU458797 DNQ458758:DNQ458797 DXM458758:DXM458797 EHI458758:EHI458797 ERE458758:ERE458797 FBA458758:FBA458797 FKW458758:FKW458797 FUS458758:FUS458797 GEO458758:GEO458797 GOK458758:GOK458797 GYG458758:GYG458797 HIC458758:HIC458797 HRY458758:HRY458797 IBU458758:IBU458797 ILQ458758:ILQ458797 IVM458758:IVM458797 JFI458758:JFI458797 JPE458758:JPE458797 JZA458758:JZA458797 KIW458758:KIW458797 KSS458758:KSS458797 LCO458758:LCO458797 LMK458758:LMK458797 LWG458758:LWG458797 MGC458758:MGC458797 MPY458758:MPY458797 MZU458758:MZU458797 NJQ458758:NJQ458797 NTM458758:NTM458797 ODI458758:ODI458797 ONE458758:ONE458797 OXA458758:OXA458797 PGW458758:PGW458797 PQS458758:PQS458797 QAO458758:QAO458797 QKK458758:QKK458797 QUG458758:QUG458797 REC458758:REC458797 RNY458758:RNY458797 RXU458758:RXU458797 SHQ458758:SHQ458797 SRM458758:SRM458797 TBI458758:TBI458797 TLE458758:TLE458797 TVA458758:TVA458797 UEW458758:UEW458797 UOS458758:UOS458797 UYO458758:UYO458797 VIK458758:VIK458797 VSG458758:VSG458797 WCC458758:WCC458797 WLY458758:WLY458797 WVU458758:WVU458797 JI524294:JI524333 TE524294:TE524333 ADA524294:ADA524333 AMW524294:AMW524333 AWS524294:AWS524333 BGO524294:BGO524333 BQK524294:BQK524333 CAG524294:CAG524333 CKC524294:CKC524333 CTY524294:CTY524333 DDU524294:DDU524333 DNQ524294:DNQ524333 DXM524294:DXM524333 EHI524294:EHI524333 ERE524294:ERE524333 FBA524294:FBA524333 FKW524294:FKW524333 FUS524294:FUS524333 GEO524294:GEO524333 GOK524294:GOK524333 GYG524294:GYG524333 HIC524294:HIC524333 HRY524294:HRY524333 IBU524294:IBU524333 ILQ524294:ILQ524333 IVM524294:IVM524333 JFI524294:JFI524333 JPE524294:JPE524333 JZA524294:JZA524333 KIW524294:KIW524333 KSS524294:KSS524333 LCO524294:LCO524333 LMK524294:LMK524333 LWG524294:LWG524333 MGC524294:MGC524333 MPY524294:MPY524333 MZU524294:MZU524333 NJQ524294:NJQ524333 NTM524294:NTM524333 ODI524294:ODI524333 ONE524294:ONE524333 OXA524294:OXA524333 PGW524294:PGW524333 PQS524294:PQS524333 QAO524294:QAO524333 QKK524294:QKK524333 QUG524294:QUG524333 REC524294:REC524333 RNY524294:RNY524333 RXU524294:RXU524333 SHQ524294:SHQ524333 SRM524294:SRM524333 TBI524294:TBI524333 TLE524294:TLE524333 TVA524294:TVA524333 UEW524294:UEW524333 UOS524294:UOS524333 UYO524294:UYO524333 VIK524294:VIK524333 VSG524294:VSG524333 WCC524294:WCC524333 WLY524294:WLY524333 WVU524294:WVU524333 JI589830:JI589869 TE589830:TE589869 ADA589830:ADA589869 AMW589830:AMW589869 AWS589830:AWS589869 BGO589830:BGO589869 BQK589830:BQK589869 CAG589830:CAG589869 CKC589830:CKC589869 CTY589830:CTY589869 DDU589830:DDU589869 DNQ589830:DNQ589869 DXM589830:DXM589869 EHI589830:EHI589869 ERE589830:ERE589869 FBA589830:FBA589869 FKW589830:FKW589869 FUS589830:FUS589869 GEO589830:GEO589869 GOK589830:GOK589869 GYG589830:GYG589869 HIC589830:HIC589869 HRY589830:HRY589869 IBU589830:IBU589869 ILQ589830:ILQ589869 IVM589830:IVM589869 JFI589830:JFI589869 JPE589830:JPE589869 JZA589830:JZA589869 KIW589830:KIW589869 KSS589830:KSS589869 LCO589830:LCO589869 LMK589830:LMK589869 LWG589830:LWG589869 MGC589830:MGC589869 MPY589830:MPY589869 MZU589830:MZU589869 NJQ589830:NJQ589869 NTM589830:NTM589869 ODI589830:ODI589869 ONE589830:ONE589869 OXA589830:OXA589869 PGW589830:PGW589869 PQS589830:PQS589869 QAO589830:QAO589869 QKK589830:QKK589869 QUG589830:QUG589869 REC589830:REC589869 RNY589830:RNY589869 RXU589830:RXU589869 SHQ589830:SHQ589869 SRM589830:SRM589869 TBI589830:TBI589869 TLE589830:TLE589869 TVA589830:TVA589869 UEW589830:UEW589869 UOS589830:UOS589869 UYO589830:UYO589869 VIK589830:VIK589869 VSG589830:VSG589869 WCC589830:WCC589869 WLY589830:WLY589869 WVU589830:WVU589869 JI655366:JI655405 TE655366:TE655405 ADA655366:ADA655405 AMW655366:AMW655405 AWS655366:AWS655405 BGO655366:BGO655405 BQK655366:BQK655405 CAG655366:CAG655405 CKC655366:CKC655405 CTY655366:CTY655405 DDU655366:DDU655405 DNQ655366:DNQ655405 DXM655366:DXM655405 EHI655366:EHI655405 ERE655366:ERE655405 FBA655366:FBA655405 FKW655366:FKW655405 FUS655366:FUS655405 GEO655366:GEO655405 GOK655366:GOK655405 GYG655366:GYG655405 HIC655366:HIC655405 HRY655366:HRY655405 IBU655366:IBU655405 ILQ655366:ILQ655405 IVM655366:IVM655405 JFI655366:JFI655405 JPE655366:JPE655405 JZA655366:JZA655405 KIW655366:KIW655405 KSS655366:KSS655405 LCO655366:LCO655405 LMK655366:LMK655405 LWG655366:LWG655405 MGC655366:MGC655405 MPY655366:MPY655405 MZU655366:MZU655405 NJQ655366:NJQ655405 NTM655366:NTM655405 ODI655366:ODI655405 ONE655366:ONE655405 OXA655366:OXA655405 PGW655366:PGW655405 PQS655366:PQS655405 QAO655366:QAO655405 QKK655366:QKK655405 QUG655366:QUG655405 REC655366:REC655405 RNY655366:RNY655405 RXU655366:RXU655405 SHQ655366:SHQ655405 SRM655366:SRM655405 TBI655366:TBI655405 TLE655366:TLE655405 TVA655366:TVA655405 UEW655366:UEW655405 UOS655366:UOS655405 UYO655366:UYO655405 VIK655366:VIK655405 VSG655366:VSG655405 WCC655366:WCC655405 WLY655366:WLY655405 WVU655366:WVU655405 JI720902:JI720941 TE720902:TE720941 ADA720902:ADA720941 AMW720902:AMW720941 AWS720902:AWS720941 BGO720902:BGO720941 BQK720902:BQK720941 CAG720902:CAG720941 CKC720902:CKC720941 CTY720902:CTY720941 DDU720902:DDU720941 DNQ720902:DNQ720941 DXM720902:DXM720941 EHI720902:EHI720941 ERE720902:ERE720941 FBA720902:FBA720941 FKW720902:FKW720941 FUS720902:FUS720941 GEO720902:GEO720941 GOK720902:GOK720941 GYG720902:GYG720941 HIC720902:HIC720941 HRY720902:HRY720941 IBU720902:IBU720941 ILQ720902:ILQ720941 IVM720902:IVM720941 JFI720902:JFI720941 JPE720902:JPE720941 JZA720902:JZA720941 KIW720902:KIW720941 KSS720902:KSS720941 LCO720902:LCO720941 LMK720902:LMK720941 LWG720902:LWG720941 MGC720902:MGC720941 MPY720902:MPY720941 MZU720902:MZU720941 NJQ720902:NJQ720941 NTM720902:NTM720941 ODI720902:ODI720941 ONE720902:ONE720941 OXA720902:OXA720941 PGW720902:PGW720941 PQS720902:PQS720941 QAO720902:QAO720941 QKK720902:QKK720941 QUG720902:QUG720941 REC720902:REC720941 RNY720902:RNY720941 RXU720902:RXU720941 SHQ720902:SHQ720941 SRM720902:SRM720941 TBI720902:TBI720941 TLE720902:TLE720941 TVA720902:TVA720941 UEW720902:UEW720941 UOS720902:UOS720941 UYO720902:UYO720941 VIK720902:VIK720941 VSG720902:VSG720941 WCC720902:WCC720941 WLY720902:WLY720941 WVU720902:WVU720941 JI786438:JI786477 TE786438:TE786477 ADA786438:ADA786477 AMW786438:AMW786477 AWS786438:AWS786477 BGO786438:BGO786477 BQK786438:BQK786477 CAG786438:CAG786477 CKC786438:CKC786477 CTY786438:CTY786477 DDU786438:DDU786477 DNQ786438:DNQ786477 DXM786438:DXM786477 EHI786438:EHI786477 ERE786438:ERE786477 FBA786438:FBA786477 FKW786438:FKW786477 FUS786438:FUS786477 GEO786438:GEO786477 GOK786438:GOK786477 GYG786438:GYG786477 HIC786438:HIC786477 HRY786438:HRY786477 IBU786438:IBU786477 ILQ786438:ILQ786477 IVM786438:IVM786477 JFI786438:JFI786477 JPE786438:JPE786477 JZA786438:JZA786477 KIW786438:KIW786477 KSS786438:KSS786477 LCO786438:LCO786477 LMK786438:LMK786477 LWG786438:LWG786477 MGC786438:MGC786477 MPY786438:MPY786477 MZU786438:MZU786477 NJQ786438:NJQ786477 NTM786438:NTM786477 ODI786438:ODI786477 ONE786438:ONE786477 OXA786438:OXA786477 PGW786438:PGW786477 PQS786438:PQS786477 QAO786438:QAO786477 QKK786438:QKK786477 QUG786438:QUG786477 REC786438:REC786477 RNY786438:RNY786477 RXU786438:RXU786477 SHQ786438:SHQ786477 SRM786438:SRM786477 TBI786438:TBI786477 TLE786438:TLE786477 TVA786438:TVA786477 UEW786438:UEW786477 UOS786438:UOS786477 UYO786438:UYO786477 VIK786438:VIK786477 VSG786438:VSG786477 WCC786438:WCC786477 WLY786438:WLY786477 WVU786438:WVU786477 JI851974:JI852013 TE851974:TE852013 ADA851974:ADA852013 AMW851974:AMW852013 AWS851974:AWS852013 BGO851974:BGO852013 BQK851974:BQK852013 CAG851974:CAG852013 CKC851974:CKC852013 CTY851974:CTY852013 DDU851974:DDU852013 DNQ851974:DNQ852013 DXM851974:DXM852013 EHI851974:EHI852013 ERE851974:ERE852013 FBA851974:FBA852013 FKW851974:FKW852013 FUS851974:FUS852013 GEO851974:GEO852013 GOK851974:GOK852013 GYG851974:GYG852013 HIC851974:HIC852013 HRY851974:HRY852013 IBU851974:IBU852013 ILQ851974:ILQ852013 IVM851974:IVM852013 JFI851974:JFI852013 JPE851974:JPE852013 JZA851974:JZA852013 KIW851974:KIW852013 KSS851974:KSS852013 LCO851974:LCO852013 LMK851974:LMK852013 LWG851974:LWG852013 MGC851974:MGC852013 MPY851974:MPY852013 MZU851974:MZU852013 NJQ851974:NJQ852013 NTM851974:NTM852013 ODI851974:ODI852013 ONE851974:ONE852013 OXA851974:OXA852013 PGW851974:PGW852013 PQS851974:PQS852013 QAO851974:QAO852013 QKK851974:QKK852013 QUG851974:QUG852013 REC851974:REC852013 RNY851974:RNY852013 RXU851974:RXU852013 SHQ851974:SHQ852013 SRM851974:SRM852013 TBI851974:TBI852013 TLE851974:TLE852013 TVA851974:TVA852013 UEW851974:UEW852013 UOS851974:UOS852013 UYO851974:UYO852013 VIK851974:VIK852013 VSG851974:VSG852013 WCC851974:WCC852013 WLY851974:WLY852013 WVU851974:WVU852013 JI917510:JI917549 TE917510:TE917549 ADA917510:ADA917549 AMW917510:AMW917549 AWS917510:AWS917549 BGO917510:BGO917549 BQK917510:BQK917549 CAG917510:CAG917549 CKC917510:CKC917549 CTY917510:CTY917549 DDU917510:DDU917549 DNQ917510:DNQ917549 DXM917510:DXM917549 EHI917510:EHI917549 ERE917510:ERE917549 FBA917510:FBA917549 FKW917510:FKW917549 FUS917510:FUS917549 GEO917510:GEO917549 GOK917510:GOK917549 GYG917510:GYG917549 HIC917510:HIC917549 HRY917510:HRY917549 IBU917510:IBU917549 ILQ917510:ILQ917549 IVM917510:IVM917549 JFI917510:JFI917549 JPE917510:JPE917549 JZA917510:JZA917549 KIW917510:KIW917549 KSS917510:KSS917549 LCO917510:LCO917549 LMK917510:LMK917549 LWG917510:LWG917549 MGC917510:MGC917549 MPY917510:MPY917549 MZU917510:MZU917549 NJQ917510:NJQ917549 NTM917510:NTM917549 ODI917510:ODI917549 ONE917510:ONE917549 OXA917510:OXA917549 PGW917510:PGW917549 PQS917510:PQS917549 QAO917510:QAO917549 QKK917510:QKK917549 QUG917510:QUG917549 REC917510:REC917549 RNY917510:RNY917549 RXU917510:RXU917549 SHQ917510:SHQ917549 SRM917510:SRM917549 TBI917510:TBI917549 TLE917510:TLE917549 TVA917510:TVA917549 UEW917510:UEW917549 UOS917510:UOS917549 UYO917510:UYO917549 VIK917510:VIK917549 VSG917510:VSG917549 WCC917510:WCC917549 WLY917510:WLY917549 WVU917510:WVU917549 JI983046:JI983085 TE983046:TE983085 ADA983046:ADA983085 AMW983046:AMW983085 AWS983046:AWS983085 BGO983046:BGO983085 BQK983046:BQK983085 CAG983046:CAG983085 CKC983046:CKC983085 CTY983046:CTY983085 DDU983046:DDU983085 DNQ983046:DNQ983085 DXM983046:DXM983085 EHI983046:EHI983085 ERE983046:ERE983085 FBA983046:FBA983085 FKW983046:FKW983085 FUS983046:FUS983085 GEO983046:GEO983085 GOK983046:GOK983085 GYG983046:GYG983085 HIC983046:HIC983085 HRY983046:HRY983085 IBU983046:IBU983085 ILQ983046:ILQ983085 IVM983046:IVM983085 JFI983046:JFI983085 JPE983046:JPE983085 JZA983046:JZA983085 KIW983046:KIW983085 KSS983046:KSS983085 LCO983046:LCO983085 LMK983046:LMK983085 LWG983046:LWG983085 MGC983046:MGC983085 MPY983046:MPY983085 MZU983046:MZU983085 NJQ983046:NJQ983085 NTM983046:NTM983085 ODI983046:ODI983085 ONE983046:ONE983085 OXA983046:OXA983085 PGW983046:PGW983085 PQS983046:PQS983085 QAO983046:QAO983085 QKK983046:QKK983085 QUG983046:QUG983085 REC983046:REC983085 RNY983046:RNY983085 RXU983046:RXU983085 SHQ983046:SHQ983085 SRM983046:SRM983085 TBI983046:TBI983085 TLE983046:TLE983085 TVA983046:TVA983085 UEW983046:UEW983085 UOS983046:UOS983085 UYO983046:UYO983085 VIK983046:VIK983085 VSG983046:VSG983085 WCC983046:WCC983085 WLY983046:WLY983085 WVU983046:WVU983085 WVU5:WVU43 WLY5:WLY43 WCC5:WCC43 VSG5:VSG43 VIK5:VIK43 UYO5:UYO43 UOS5:UOS43 UEW5:UEW43 TVA5:TVA43 TLE5:TLE43 TBI5:TBI43 SRM5:SRM43 SHQ5:SHQ43 RXU5:RXU43 RNY5:RNY43 REC5:REC43 QUG5:QUG43 QKK5:QKK43 QAO5:QAO43 PQS5:PQS43 PGW5:PGW43 OXA5:OXA43 ONE5:ONE43 ODI5:ODI43 NTM5:NTM43 NJQ5:NJQ43 MZU5:MZU43 MPY5:MPY43 MGC5:MGC43 LWG5:LWG43 LMK5:LMK43 LCO5:LCO43 KSS5:KSS43 KIW5:KIW43 JZA5:JZA43 JPE5:JPE43 JFI5:JFI43 IVM5:IVM43 ILQ5:ILQ43 IBU5:IBU43 HRY5:HRY43 HIC5:HIC43 GYG5:GYG43 GOK5:GOK43 GEO5:GEO43 FUS5:FUS43 FKW5:FKW43 FBA5:FBA43 ERE5:ERE43 EHI5:EHI43 DXM5:DXM43 DNQ5:DNQ43 DDU5:DDU43 CTY5:CTY43 CKC5:CKC43 CAG5:CAG43 BQK5:BQK43 BGO5:BGO43 AWS5:AWS43 AMW5:AMW43 ADA5:ADA43 TE5:TE43 JI5:JI43">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="يجب أن تكون القيمة بين 0 و 5" sqref="SU46:TF50 ACQ46:ADB50 AMM46:AMX50 AWI46:AWT50 BGE46:BGP50 BQA46:BQL50 BZW46:CAH50 CJS46:CKD50 CTO46:CTZ50 DDK46:DDV50 DNG46:DNR50 DXC46:DXN50 EGY46:EHJ50 EQU46:ERF50 FAQ46:FBB50 FKM46:FKX50 FUI46:FUT50 GEE46:GEP50 GOA46:GOL50 GXW46:GYH50 HHS46:HID50 HRO46:HRZ50 IBK46:IBV50 ILG46:ILR50 IVC46:IVN50 JEY46:JFJ50 JOU46:JPF50 JYQ46:JZB50 KIM46:KIX50 KSI46:KST50 LCE46:LCP50 LMA46:LML50 LVW46:LWH50 MFS46:MGD50 MPO46:MPZ50 MZK46:MZV50 NJG46:NJR50 NTC46:NTN50 OCY46:ODJ50 OMU46:ONF50 OWQ46:OXB50 PGM46:PGX50 PQI46:PQT50 QAE46:QAP50 QKA46:QKL50 QTW46:QUH50 RDS46:RED50 RNO46:RNZ50 RXK46:RXV50 SHG46:SHR50 SRC46:SRN50 TAY46:TBJ50 TKU46:TLF50 TUQ46:TVB50 UEM46:UEX50 UOI46:UOT50 UYE46:UYP50 VIA46:VIL50 VRW46:VSH50 WBS46:WCD50 WLO46:WLZ50 WVK46:WVV50 SU65584:TF65588 ACQ65584:ADB65588 AMM65584:AMX65588 AWI65584:AWT65588 BGE65584:BGP65588 BQA65584:BQL65588 BZW65584:CAH65588 CJS65584:CKD65588 CTO65584:CTZ65588 DDK65584:DDV65588 DNG65584:DNR65588 DXC65584:DXN65588 EGY65584:EHJ65588 EQU65584:ERF65588 FAQ65584:FBB65588 FKM65584:FKX65588 FUI65584:FUT65588 GEE65584:GEP65588 GOA65584:GOL65588 GXW65584:GYH65588 HHS65584:HID65588 HRO65584:HRZ65588 IBK65584:IBV65588 ILG65584:ILR65588 IVC65584:IVN65588 JEY65584:JFJ65588 JOU65584:JPF65588 JYQ65584:JZB65588 KIM65584:KIX65588 KSI65584:KST65588 LCE65584:LCP65588 LMA65584:LML65588 LVW65584:LWH65588 MFS65584:MGD65588 MPO65584:MPZ65588 MZK65584:MZV65588 NJG65584:NJR65588 NTC65584:NTN65588 OCY65584:ODJ65588 OMU65584:ONF65588 OWQ65584:OXB65588 PGM65584:PGX65588 PQI65584:PQT65588 QAE65584:QAP65588 QKA65584:QKL65588 QTW65584:QUH65588 RDS65584:RED65588 RNO65584:RNZ65588 RXK65584:RXV65588 SHG65584:SHR65588 SRC65584:SRN65588 TAY65584:TBJ65588 TKU65584:TLF65588 TUQ65584:TVB65588 UEM65584:UEX65588 UOI65584:UOT65588 UYE65584:UYP65588 VIA65584:VIL65588 VRW65584:VSH65588 WBS65584:WCD65588 WLO65584:WLZ65588 WVK65584:WVV65588 SU131120:TF131124 ACQ131120:ADB131124 AMM131120:AMX131124 AWI131120:AWT131124 BGE131120:BGP131124 BQA131120:BQL131124 BZW131120:CAH131124 CJS131120:CKD131124 CTO131120:CTZ131124 DDK131120:DDV131124 DNG131120:DNR131124 DXC131120:DXN131124 EGY131120:EHJ131124 EQU131120:ERF131124 FAQ131120:FBB131124 FKM131120:FKX131124 FUI131120:FUT131124 GEE131120:GEP131124 GOA131120:GOL131124 GXW131120:GYH131124 HHS131120:HID131124 HRO131120:HRZ131124 IBK131120:IBV131124 ILG131120:ILR131124 IVC131120:IVN131124 JEY131120:JFJ131124 JOU131120:JPF131124 JYQ131120:JZB131124 KIM131120:KIX131124 KSI131120:KST131124 LCE131120:LCP131124 LMA131120:LML131124 LVW131120:LWH131124 MFS131120:MGD131124 MPO131120:MPZ131124 MZK131120:MZV131124 NJG131120:NJR131124 NTC131120:NTN131124 OCY131120:ODJ131124 OMU131120:ONF131124 OWQ131120:OXB131124 PGM131120:PGX131124 PQI131120:PQT131124 QAE131120:QAP131124 QKA131120:QKL131124 QTW131120:QUH131124 RDS131120:RED131124 RNO131120:RNZ131124 RXK131120:RXV131124 SHG131120:SHR131124 SRC131120:SRN131124 TAY131120:TBJ131124 TKU131120:TLF131124 TUQ131120:TVB131124 UEM131120:UEX131124 UOI131120:UOT131124 UYE131120:UYP131124 VIA131120:VIL131124 VRW131120:VSH131124 WBS131120:WCD131124 WLO131120:WLZ131124 WVK131120:WVV131124 SU196656:TF196660 ACQ196656:ADB196660 AMM196656:AMX196660 AWI196656:AWT196660 BGE196656:BGP196660 BQA196656:BQL196660 BZW196656:CAH196660 CJS196656:CKD196660 CTO196656:CTZ196660 DDK196656:DDV196660 DNG196656:DNR196660 DXC196656:DXN196660 EGY196656:EHJ196660 EQU196656:ERF196660 FAQ196656:FBB196660 FKM196656:FKX196660 FUI196656:FUT196660 GEE196656:GEP196660 GOA196656:GOL196660 GXW196656:GYH196660 HHS196656:HID196660 HRO196656:HRZ196660 IBK196656:IBV196660 ILG196656:ILR196660 IVC196656:IVN196660 JEY196656:JFJ196660 JOU196656:JPF196660 JYQ196656:JZB196660 KIM196656:KIX196660 KSI196656:KST196660 LCE196656:LCP196660 LMA196656:LML196660 LVW196656:LWH196660 MFS196656:MGD196660 MPO196656:MPZ196660 MZK196656:MZV196660 NJG196656:NJR196660 NTC196656:NTN196660 OCY196656:ODJ196660 OMU196656:ONF196660 OWQ196656:OXB196660 PGM196656:PGX196660 PQI196656:PQT196660 QAE196656:QAP196660 QKA196656:QKL196660 QTW196656:QUH196660 RDS196656:RED196660 RNO196656:RNZ196660 RXK196656:RXV196660 SHG196656:SHR196660 SRC196656:SRN196660 TAY196656:TBJ196660 TKU196656:TLF196660 TUQ196656:TVB196660 UEM196656:UEX196660 UOI196656:UOT196660 UYE196656:UYP196660 VIA196656:VIL196660 VRW196656:VSH196660 WBS196656:WCD196660 WLO196656:WLZ196660 WVK196656:WVV196660 SU262192:TF262196 ACQ262192:ADB262196 AMM262192:AMX262196 AWI262192:AWT262196 BGE262192:BGP262196 BQA262192:BQL262196 BZW262192:CAH262196 CJS262192:CKD262196 CTO262192:CTZ262196 DDK262192:DDV262196 DNG262192:DNR262196 DXC262192:DXN262196 EGY262192:EHJ262196 EQU262192:ERF262196 FAQ262192:FBB262196 FKM262192:FKX262196 FUI262192:FUT262196 GEE262192:GEP262196 GOA262192:GOL262196 GXW262192:GYH262196 HHS262192:HID262196 HRO262192:HRZ262196 IBK262192:IBV262196 ILG262192:ILR262196 IVC262192:IVN262196 JEY262192:JFJ262196 JOU262192:JPF262196 JYQ262192:JZB262196 KIM262192:KIX262196 KSI262192:KST262196 LCE262192:LCP262196 LMA262192:LML262196 LVW262192:LWH262196 MFS262192:MGD262196 MPO262192:MPZ262196 MZK262192:MZV262196 NJG262192:NJR262196 NTC262192:NTN262196 OCY262192:ODJ262196 OMU262192:ONF262196 OWQ262192:OXB262196 PGM262192:PGX262196 PQI262192:PQT262196 QAE262192:QAP262196 QKA262192:QKL262196 QTW262192:QUH262196 RDS262192:RED262196 RNO262192:RNZ262196 RXK262192:RXV262196 SHG262192:SHR262196 SRC262192:SRN262196 TAY262192:TBJ262196 TKU262192:TLF262196 TUQ262192:TVB262196 UEM262192:UEX262196 UOI262192:UOT262196 UYE262192:UYP262196 VIA262192:VIL262196 VRW262192:VSH262196 WBS262192:WCD262196 WLO262192:WLZ262196 WVK262192:WVV262196 SU327728:TF327732 ACQ327728:ADB327732 AMM327728:AMX327732 AWI327728:AWT327732 BGE327728:BGP327732 BQA327728:BQL327732 BZW327728:CAH327732 CJS327728:CKD327732 CTO327728:CTZ327732 DDK327728:DDV327732 DNG327728:DNR327732 DXC327728:DXN327732 EGY327728:EHJ327732 EQU327728:ERF327732 FAQ327728:FBB327732 FKM327728:FKX327732 FUI327728:FUT327732 GEE327728:GEP327732 GOA327728:GOL327732 GXW327728:GYH327732 HHS327728:HID327732 HRO327728:HRZ327732 IBK327728:IBV327732 ILG327728:ILR327732 IVC327728:IVN327732 JEY327728:JFJ327732 JOU327728:JPF327732 JYQ327728:JZB327732 KIM327728:KIX327732 KSI327728:KST327732 LCE327728:LCP327732 LMA327728:LML327732 LVW327728:LWH327732 MFS327728:MGD327732 MPO327728:MPZ327732 MZK327728:MZV327732 NJG327728:NJR327732 NTC327728:NTN327732 OCY327728:ODJ327732 OMU327728:ONF327732 OWQ327728:OXB327732 PGM327728:PGX327732 PQI327728:PQT327732 QAE327728:QAP327732 QKA327728:QKL327732 QTW327728:QUH327732 RDS327728:RED327732 RNO327728:RNZ327732 RXK327728:RXV327732 SHG327728:SHR327732 SRC327728:SRN327732 TAY327728:TBJ327732 TKU327728:TLF327732 TUQ327728:TVB327732 UEM327728:UEX327732 UOI327728:UOT327732 UYE327728:UYP327732 VIA327728:VIL327732 VRW327728:VSH327732 WBS327728:WCD327732 WLO327728:WLZ327732 WVK327728:WVV327732 SU393264:TF393268 ACQ393264:ADB393268 AMM393264:AMX393268 AWI393264:AWT393268 BGE393264:BGP393268 BQA393264:BQL393268 BZW393264:CAH393268 CJS393264:CKD393268 CTO393264:CTZ393268 DDK393264:DDV393268 DNG393264:DNR393268 DXC393264:DXN393268 EGY393264:EHJ393268 EQU393264:ERF393268 FAQ393264:FBB393268 FKM393264:FKX393268 FUI393264:FUT393268 GEE393264:GEP393268 GOA393264:GOL393268 GXW393264:GYH393268 HHS393264:HID393268 HRO393264:HRZ393268 IBK393264:IBV393268 ILG393264:ILR393268 IVC393264:IVN393268 JEY393264:JFJ393268 JOU393264:JPF393268 JYQ393264:JZB393268 KIM393264:KIX393268 KSI393264:KST393268 LCE393264:LCP393268 LMA393264:LML393268 LVW393264:LWH393268 MFS393264:MGD393268 MPO393264:MPZ393268 MZK393264:MZV393268 NJG393264:NJR393268 NTC393264:NTN393268 OCY393264:ODJ393268 OMU393264:ONF393268 OWQ393264:OXB393268 PGM393264:PGX393268 PQI393264:PQT393268 QAE393264:QAP393268 QKA393264:QKL393268 QTW393264:QUH393268 RDS393264:RED393268 RNO393264:RNZ393268 RXK393264:RXV393268 SHG393264:SHR393268 SRC393264:SRN393268 TAY393264:TBJ393268 TKU393264:TLF393268 TUQ393264:TVB393268 UEM393264:UEX393268 UOI393264:UOT393268 UYE393264:UYP393268 VIA393264:VIL393268 VRW393264:VSH393268 WBS393264:WCD393268 WLO393264:WLZ393268 WVK393264:WVV393268 SU458800:TF458804 ACQ458800:ADB458804 AMM458800:AMX458804 AWI458800:AWT458804 BGE458800:BGP458804 BQA458800:BQL458804 BZW458800:CAH458804 CJS458800:CKD458804 CTO458800:CTZ458804 DDK458800:DDV458804 DNG458800:DNR458804 DXC458800:DXN458804 EGY458800:EHJ458804 EQU458800:ERF458804 FAQ458800:FBB458804 FKM458800:FKX458804 FUI458800:FUT458804 GEE458800:GEP458804 GOA458800:GOL458804 GXW458800:GYH458804 HHS458800:HID458804 HRO458800:HRZ458804 IBK458800:IBV458804 ILG458800:ILR458804 IVC458800:IVN458804 JEY458800:JFJ458804 JOU458800:JPF458804 JYQ458800:JZB458804 KIM458800:KIX458804 KSI458800:KST458804 LCE458800:LCP458804 LMA458800:LML458804 LVW458800:LWH458804 MFS458800:MGD458804 MPO458800:MPZ458804 MZK458800:MZV458804 NJG458800:NJR458804 NTC458800:NTN458804 OCY458800:ODJ458804 OMU458800:ONF458804 OWQ458800:OXB458804 PGM458800:PGX458804 PQI458800:PQT458804 QAE458800:QAP458804 QKA458800:QKL458804 QTW458800:QUH458804 RDS458800:RED458804 RNO458800:RNZ458804 RXK458800:RXV458804 SHG458800:SHR458804 SRC458800:SRN458804 TAY458800:TBJ458804 TKU458800:TLF458804 TUQ458800:TVB458804 UEM458800:UEX458804 UOI458800:UOT458804 UYE458800:UYP458804 VIA458800:VIL458804 VRW458800:VSH458804 WBS458800:WCD458804 WLO458800:WLZ458804 WVK458800:WVV458804 SU524336:TF524340 ACQ524336:ADB524340 AMM524336:AMX524340 AWI524336:AWT524340 BGE524336:BGP524340 BQA524336:BQL524340 BZW524336:CAH524340 CJS524336:CKD524340 CTO524336:CTZ524340 DDK524336:DDV524340 DNG524336:DNR524340 DXC524336:DXN524340 EGY524336:EHJ524340 EQU524336:ERF524340 FAQ524336:FBB524340 FKM524336:FKX524340 FUI524336:FUT524340 GEE524336:GEP524340 GOA524336:GOL524340 GXW524336:GYH524340 HHS524336:HID524340 HRO524336:HRZ524340 IBK524336:IBV524340 ILG524336:ILR524340 IVC524336:IVN524340 JEY524336:JFJ524340 JOU524336:JPF524340 JYQ524336:JZB524340 KIM524336:KIX524340 KSI524336:KST524340 LCE524336:LCP524340 LMA524336:LML524340 LVW524336:LWH524340 MFS524336:MGD524340 MPO524336:MPZ524340 MZK524336:MZV524340 NJG524336:NJR524340 NTC524336:NTN524340 OCY524336:ODJ524340 OMU524336:ONF524340 OWQ524336:OXB524340 PGM524336:PGX524340 PQI524336:PQT524340 QAE524336:QAP524340 QKA524336:QKL524340 QTW524336:QUH524340 RDS524336:RED524340 RNO524336:RNZ524340 RXK524336:RXV524340 SHG524336:SHR524340 SRC524336:SRN524340 TAY524336:TBJ524340 TKU524336:TLF524340 TUQ524336:TVB524340 UEM524336:UEX524340 UOI524336:UOT524340 UYE524336:UYP524340 VIA524336:VIL524340 VRW524336:VSH524340 WBS524336:WCD524340 WLO524336:WLZ524340 WVK524336:WVV524340 SU589872:TF589876 ACQ589872:ADB589876 AMM589872:AMX589876 AWI589872:AWT589876 BGE589872:BGP589876 BQA589872:BQL589876 BZW589872:CAH589876 CJS589872:CKD589876 CTO589872:CTZ589876 DDK589872:DDV589876 DNG589872:DNR589876 DXC589872:DXN589876 EGY589872:EHJ589876 EQU589872:ERF589876 FAQ589872:FBB589876 FKM589872:FKX589876 FUI589872:FUT589876 GEE589872:GEP589876 GOA589872:GOL589876 GXW589872:GYH589876 HHS589872:HID589876 HRO589872:HRZ589876 IBK589872:IBV589876 ILG589872:ILR589876 IVC589872:IVN589876 JEY589872:JFJ589876 JOU589872:JPF589876 JYQ589872:JZB589876 KIM589872:KIX589876 KSI589872:KST589876 LCE589872:LCP589876 LMA589872:LML589876 LVW589872:LWH589876 MFS589872:MGD589876 MPO589872:MPZ589876 MZK589872:MZV589876 NJG589872:NJR589876 NTC589872:NTN589876 OCY589872:ODJ589876 OMU589872:ONF589876 OWQ589872:OXB589876 PGM589872:PGX589876 PQI589872:PQT589876 QAE589872:QAP589876 QKA589872:QKL589876 QTW589872:QUH589876 RDS589872:RED589876 RNO589872:RNZ589876 RXK589872:RXV589876 SHG589872:SHR589876 SRC589872:SRN589876 TAY589872:TBJ589876 TKU589872:TLF589876 TUQ589872:TVB589876 UEM589872:UEX589876 UOI589872:UOT589876 UYE589872:UYP589876 VIA589872:VIL589876 VRW589872:VSH589876 WBS589872:WCD589876 WLO589872:WLZ589876 WVK589872:WVV589876 SU655408:TF655412 ACQ655408:ADB655412 AMM655408:AMX655412 AWI655408:AWT655412 BGE655408:BGP655412 BQA655408:BQL655412 BZW655408:CAH655412 CJS655408:CKD655412 CTO655408:CTZ655412 DDK655408:DDV655412 DNG655408:DNR655412 DXC655408:DXN655412 EGY655408:EHJ655412 EQU655408:ERF655412 FAQ655408:FBB655412 FKM655408:FKX655412 FUI655408:FUT655412 GEE655408:GEP655412 GOA655408:GOL655412 GXW655408:GYH655412 HHS655408:HID655412 HRO655408:HRZ655412 IBK655408:IBV655412 ILG655408:ILR655412 IVC655408:IVN655412 JEY655408:JFJ655412 JOU655408:JPF655412 JYQ655408:JZB655412 KIM655408:KIX655412 KSI655408:KST655412 LCE655408:LCP655412 LMA655408:LML655412 LVW655408:LWH655412 MFS655408:MGD655412 MPO655408:MPZ655412 MZK655408:MZV655412 NJG655408:NJR655412 NTC655408:NTN655412 OCY655408:ODJ655412 OMU655408:ONF655412 OWQ655408:OXB655412 PGM655408:PGX655412 PQI655408:PQT655412 QAE655408:QAP655412 QKA655408:QKL655412 QTW655408:QUH655412 RDS655408:RED655412 RNO655408:RNZ655412 RXK655408:RXV655412 SHG655408:SHR655412 SRC655408:SRN655412 TAY655408:TBJ655412 TKU655408:TLF655412 TUQ655408:TVB655412 UEM655408:UEX655412 UOI655408:UOT655412 UYE655408:UYP655412 VIA655408:VIL655412 VRW655408:VSH655412 WBS655408:WCD655412 WLO655408:WLZ655412 WVK655408:WVV655412 SU720944:TF720948 ACQ720944:ADB720948 AMM720944:AMX720948 AWI720944:AWT720948 BGE720944:BGP720948 BQA720944:BQL720948 BZW720944:CAH720948 CJS720944:CKD720948 CTO720944:CTZ720948 DDK720944:DDV720948 DNG720944:DNR720948 DXC720944:DXN720948 EGY720944:EHJ720948 EQU720944:ERF720948 FAQ720944:FBB720948 FKM720944:FKX720948 FUI720944:FUT720948 GEE720944:GEP720948 GOA720944:GOL720948 GXW720944:GYH720948 HHS720944:HID720948 HRO720944:HRZ720948 IBK720944:IBV720948 ILG720944:ILR720948 IVC720944:IVN720948 JEY720944:JFJ720948 JOU720944:JPF720948 JYQ720944:JZB720948 KIM720944:KIX720948 KSI720944:KST720948 LCE720944:LCP720948 LMA720944:LML720948 LVW720944:LWH720948 MFS720944:MGD720948 MPO720944:MPZ720948 MZK720944:MZV720948 NJG720944:NJR720948 NTC720944:NTN720948 OCY720944:ODJ720948 OMU720944:ONF720948 OWQ720944:OXB720948 PGM720944:PGX720948 PQI720944:PQT720948 QAE720944:QAP720948 QKA720944:QKL720948 QTW720944:QUH720948 RDS720944:RED720948 RNO720944:RNZ720948 RXK720944:RXV720948 SHG720944:SHR720948 SRC720944:SRN720948 TAY720944:TBJ720948 TKU720944:TLF720948 TUQ720944:TVB720948 UEM720944:UEX720948 UOI720944:UOT720948 UYE720944:UYP720948 VIA720944:VIL720948 VRW720944:VSH720948 WBS720944:WCD720948 WLO720944:WLZ720948 WVK720944:WVV720948 SU786480:TF786484 ACQ786480:ADB786484 AMM786480:AMX786484 AWI786480:AWT786484 BGE786480:BGP786484 BQA786480:BQL786484 BZW786480:CAH786484 CJS786480:CKD786484 CTO786480:CTZ786484 DDK786480:DDV786484 DNG786480:DNR786484 DXC786480:DXN786484 EGY786480:EHJ786484 EQU786480:ERF786484 FAQ786480:FBB786484 FKM786480:FKX786484 FUI786480:FUT786484 GEE786480:GEP786484 GOA786480:GOL786484 GXW786480:GYH786484 HHS786480:HID786484 HRO786480:HRZ786484 IBK786480:IBV786484 ILG786480:ILR786484 IVC786480:IVN786484 JEY786480:JFJ786484 JOU786480:JPF786484 JYQ786480:JZB786484 KIM786480:KIX786484 KSI786480:KST786484 LCE786480:LCP786484 LMA786480:LML786484 LVW786480:LWH786484 MFS786480:MGD786484 MPO786480:MPZ786484 MZK786480:MZV786484 NJG786480:NJR786484 NTC786480:NTN786484 OCY786480:ODJ786484 OMU786480:ONF786484 OWQ786480:OXB786484 PGM786480:PGX786484 PQI786480:PQT786484 QAE786480:QAP786484 QKA786480:QKL786484 QTW786480:QUH786484 RDS786480:RED786484 RNO786480:RNZ786484 RXK786480:RXV786484 SHG786480:SHR786484 SRC786480:SRN786484 TAY786480:TBJ786484 TKU786480:TLF786484 TUQ786480:TVB786484 UEM786480:UEX786484 UOI786480:UOT786484 UYE786480:UYP786484 VIA786480:VIL786484 VRW786480:VSH786484 WBS786480:WCD786484 WLO786480:WLZ786484 WVK786480:WVV786484 SU852016:TF852020 ACQ852016:ADB852020 AMM852016:AMX852020 AWI852016:AWT852020 BGE852016:BGP852020 BQA852016:BQL852020 BZW852016:CAH852020 CJS852016:CKD852020 CTO852016:CTZ852020 DDK852016:DDV852020 DNG852016:DNR852020 DXC852016:DXN852020 EGY852016:EHJ852020 EQU852016:ERF852020 FAQ852016:FBB852020 FKM852016:FKX852020 FUI852016:FUT852020 GEE852016:GEP852020 GOA852016:GOL852020 GXW852016:GYH852020 HHS852016:HID852020 HRO852016:HRZ852020 IBK852016:IBV852020 ILG852016:ILR852020 IVC852016:IVN852020 JEY852016:JFJ852020 JOU852016:JPF852020 JYQ852016:JZB852020 KIM852016:KIX852020 KSI852016:KST852020 LCE852016:LCP852020 LMA852016:LML852020 LVW852016:LWH852020 MFS852016:MGD852020 MPO852016:MPZ852020 MZK852016:MZV852020 NJG852016:NJR852020 NTC852016:NTN852020 OCY852016:ODJ852020 OMU852016:ONF852020 OWQ852016:OXB852020 PGM852016:PGX852020 PQI852016:PQT852020 QAE852016:QAP852020 QKA852016:QKL852020 QTW852016:QUH852020 RDS852016:RED852020 RNO852016:RNZ852020 RXK852016:RXV852020 SHG852016:SHR852020 SRC852016:SRN852020 TAY852016:TBJ852020 TKU852016:TLF852020 TUQ852016:TVB852020 UEM852016:UEX852020 UOI852016:UOT852020 UYE852016:UYP852020 VIA852016:VIL852020 VRW852016:VSH852020 WBS852016:WCD852020 WLO852016:WLZ852020 WVK852016:WVV852020 SU917552:TF917556 ACQ917552:ADB917556 AMM917552:AMX917556 AWI917552:AWT917556 BGE917552:BGP917556 BQA917552:BQL917556 BZW917552:CAH917556 CJS917552:CKD917556 CTO917552:CTZ917556 DDK917552:DDV917556 DNG917552:DNR917556 DXC917552:DXN917556 EGY917552:EHJ917556 EQU917552:ERF917556 FAQ917552:FBB917556 FKM917552:FKX917556 FUI917552:FUT917556 GEE917552:GEP917556 GOA917552:GOL917556 GXW917552:GYH917556 HHS917552:HID917556 HRO917552:HRZ917556 IBK917552:IBV917556 ILG917552:ILR917556 IVC917552:IVN917556 JEY917552:JFJ917556 JOU917552:JPF917556 JYQ917552:JZB917556 KIM917552:KIX917556 KSI917552:KST917556 LCE917552:LCP917556 LMA917552:LML917556 LVW917552:LWH917556 MFS917552:MGD917556 MPO917552:MPZ917556 MZK917552:MZV917556 NJG917552:NJR917556 NTC917552:NTN917556 OCY917552:ODJ917556 OMU917552:ONF917556 OWQ917552:OXB917556 PGM917552:PGX917556 PQI917552:PQT917556 QAE917552:QAP917556 QKA917552:QKL917556 QTW917552:QUH917556 RDS917552:RED917556 RNO917552:RNZ917556 RXK917552:RXV917556 SHG917552:SHR917556 SRC917552:SRN917556 TAY917552:TBJ917556 TKU917552:TLF917556 TUQ917552:TVB917556 UEM917552:UEX917556 UOI917552:UOT917556 UYE917552:UYP917556 VIA917552:VIL917556 VRW917552:VSH917556 WBS917552:WCD917556 WLO917552:WLZ917556 WVK917552:WVV917556 WVK983088:WVV983092 SU983088:TF983092 ACQ983088:ADB983092 AMM983088:AMX983092 AWI983088:AWT983092 BGE983088:BGP983092 BQA983088:BQL983092 BZW983088:CAH983092 CJS983088:CKD983092 CTO983088:CTZ983092 DDK983088:DDV983092 DNG983088:DNR983092 DXC983088:DXN983092 EGY983088:EHJ983092 EQU983088:ERF983092 FAQ983088:FBB983092 FKM983088:FKX983092 FUI983088:FUT983092 GEE983088:GEP983092 GOA983088:GOL983092 GXW983088:GYH983092 HHS983088:HID983092 HRO983088:HRZ983092 IBK983088:IBV983092 ILG983088:ILR983092 IVC983088:IVN983092 JEY983088:JFJ983092 JOU983088:JPF983092 JYQ983088:JZB983092 KIM983088:KIX983092 KSI983088:KST983092 LCE983088:LCP983092 LMA983088:LML983092 LVW983088:LWH983092 MFS983088:MGD983092 MPO983088:MPZ983092 MZK983088:MZV983092 NJG983088:NJR983092 NTC983088:NTN983092 OCY983088:ODJ983092 OMU983088:ONF983092 OWQ983088:OXB983092 PGM983088:PGX983092 PQI983088:PQT983092 QAE983088:QAP983092 QKA983088:QKL983092 QTW983088:QUH983092 RDS983088:RED983092 RNO983088:RNZ983092 RXK983088:RXV983092 SHG983088:SHR983092 SRC983088:SRN983092 TAY983088:TBJ983092 TKU983088:TLF983092 TUQ983088:TVB983092 UEM983088:UEX983092 UOI983088:UOT983092 UYE983088:UYP983092 VIA983088:VIL983092 VRW983088:VSH983092 WBS983088:WCD983092 WLO983088:WLZ983092 IY50:IY54 C917556:M917560 C852020:M852024 C786484:M786488 C720948:M720952 C655412:M655416 C589876:M589880 C524340:M524344 C458804:M458808 C393268:M393272 C327732:M327736 C262196:M262200 C196660:M196664 C131124:M131128 C65588:M65592 C983092:M983096 IY983092:IY983096 IZ983088:JJ983092 IY917556:IY917560 IZ917552:JJ917556 IY852020:IY852024 IZ852016:JJ852020 IY786484:IY786488 IZ786480:JJ786484 IY720948:IY720952 IZ720944:JJ720948 IY655412:IY655416 IZ655408:JJ655412 IY589876:IY589880 IZ589872:JJ589876 IY524340:IY524344 IZ524336:JJ524340 IY458804:IY458808 IZ458800:JJ458804 IY393268:IY393272 IZ393264:JJ393268 IY327732:IY327736 IZ327728:JJ327732 IY262196:IY262200 IZ262192:JJ262196 IY196660:IY196664 IZ196656:JJ196660 IY131124:IY131128 IZ131120:JJ131124 IY65588:IY65592 IZ65584:JJ65588 IZ46:JJ50 C50:M54" xr:uid="{00000000-0002-0000-0800-000003000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JI65542:JI65581 TE65542:TE65581 ADA65542:ADA65581 AMW65542:AMW65581 AWS65542:AWS65581 BGO65542:BGO65581 BQK65542:BQK65581 CAG65542:CAG65581 CKC65542:CKC65581 CTY65542:CTY65581 DDU65542:DDU65581 DNQ65542:DNQ65581 DXM65542:DXM65581 EHI65542:EHI65581 ERE65542:ERE65581 FBA65542:FBA65581 FKW65542:FKW65581 FUS65542:FUS65581 GEO65542:GEO65581 GOK65542:GOK65581 GYG65542:GYG65581 HIC65542:HIC65581 HRY65542:HRY65581 IBU65542:IBU65581 ILQ65542:ILQ65581 IVM65542:IVM65581 JFI65542:JFI65581 JPE65542:JPE65581 JZA65542:JZA65581 KIW65542:KIW65581 KSS65542:KSS65581 LCO65542:LCO65581 LMK65542:LMK65581 LWG65542:LWG65581 MGC65542:MGC65581 MPY65542:MPY65581 MZU65542:MZU65581 NJQ65542:NJQ65581 NTM65542:NTM65581 ODI65542:ODI65581 ONE65542:ONE65581 OXA65542:OXA65581 PGW65542:PGW65581 PQS65542:PQS65581 QAO65542:QAO65581 QKK65542:QKK65581 QUG65542:QUG65581 REC65542:REC65581 RNY65542:RNY65581 RXU65542:RXU65581 SHQ65542:SHQ65581 SRM65542:SRM65581 TBI65542:TBI65581 TLE65542:TLE65581 TVA65542:TVA65581 UEW65542:UEW65581 UOS65542:UOS65581 UYO65542:UYO65581 VIK65542:VIK65581 VSG65542:VSG65581 WCC65542:WCC65581 WLY65542:WLY65581 WVU65542:WVU65581 JI131078:JI131117 TE131078:TE131117 ADA131078:ADA131117 AMW131078:AMW131117 AWS131078:AWS131117 BGO131078:BGO131117 BQK131078:BQK131117 CAG131078:CAG131117 CKC131078:CKC131117 CTY131078:CTY131117 DDU131078:DDU131117 DNQ131078:DNQ131117 DXM131078:DXM131117 EHI131078:EHI131117 ERE131078:ERE131117 FBA131078:FBA131117 FKW131078:FKW131117 FUS131078:FUS131117 GEO131078:GEO131117 GOK131078:GOK131117 GYG131078:GYG131117 HIC131078:HIC131117 HRY131078:HRY131117 IBU131078:IBU131117 ILQ131078:ILQ131117 IVM131078:IVM131117 JFI131078:JFI131117 JPE131078:JPE131117 JZA131078:JZA131117 KIW131078:KIW131117 KSS131078:KSS131117 LCO131078:LCO131117 LMK131078:LMK131117 LWG131078:LWG131117 MGC131078:MGC131117 MPY131078:MPY131117 MZU131078:MZU131117 NJQ131078:NJQ131117 NTM131078:NTM131117 ODI131078:ODI131117 ONE131078:ONE131117 OXA131078:OXA131117 PGW131078:PGW131117 PQS131078:PQS131117 QAO131078:QAO131117 QKK131078:QKK131117 QUG131078:QUG131117 REC131078:REC131117 RNY131078:RNY131117 RXU131078:RXU131117 SHQ131078:SHQ131117 SRM131078:SRM131117 TBI131078:TBI131117 TLE131078:TLE131117 TVA131078:TVA131117 UEW131078:UEW131117 UOS131078:UOS131117 UYO131078:UYO131117 VIK131078:VIK131117 VSG131078:VSG131117 WCC131078:WCC131117 WLY131078:WLY131117 WVU131078:WVU131117 JI196614:JI196653 TE196614:TE196653 ADA196614:ADA196653 AMW196614:AMW196653 AWS196614:AWS196653 BGO196614:BGO196653 BQK196614:BQK196653 CAG196614:CAG196653 CKC196614:CKC196653 CTY196614:CTY196653 DDU196614:DDU196653 DNQ196614:DNQ196653 DXM196614:DXM196653 EHI196614:EHI196653 ERE196614:ERE196653 FBA196614:FBA196653 FKW196614:FKW196653 FUS196614:FUS196653 GEO196614:GEO196653 GOK196614:GOK196653 GYG196614:GYG196653 HIC196614:HIC196653 HRY196614:HRY196653 IBU196614:IBU196653 ILQ196614:ILQ196653 IVM196614:IVM196653 JFI196614:JFI196653 JPE196614:JPE196653 JZA196614:JZA196653 KIW196614:KIW196653 KSS196614:KSS196653 LCO196614:LCO196653 LMK196614:LMK196653 LWG196614:LWG196653 MGC196614:MGC196653 MPY196614:MPY196653 MZU196614:MZU196653 NJQ196614:NJQ196653 NTM196614:NTM196653 ODI196614:ODI196653 ONE196614:ONE196653 OXA196614:OXA196653 PGW196614:PGW196653 PQS196614:PQS196653 QAO196614:QAO196653 QKK196614:QKK196653 QUG196614:QUG196653 REC196614:REC196653 RNY196614:RNY196653 RXU196614:RXU196653 SHQ196614:SHQ196653 SRM196614:SRM196653 TBI196614:TBI196653 TLE196614:TLE196653 TVA196614:TVA196653 UEW196614:UEW196653 UOS196614:UOS196653 UYO196614:UYO196653 VIK196614:VIK196653 VSG196614:VSG196653 WCC196614:WCC196653 WLY196614:WLY196653 WVU196614:WVU196653 JI262150:JI262189 TE262150:TE262189 ADA262150:ADA262189 AMW262150:AMW262189 AWS262150:AWS262189 BGO262150:BGO262189 BQK262150:BQK262189 CAG262150:CAG262189 CKC262150:CKC262189 CTY262150:CTY262189 DDU262150:DDU262189 DNQ262150:DNQ262189 DXM262150:DXM262189 EHI262150:EHI262189 ERE262150:ERE262189 FBA262150:FBA262189 FKW262150:FKW262189 FUS262150:FUS262189 GEO262150:GEO262189 GOK262150:GOK262189 GYG262150:GYG262189 HIC262150:HIC262189 HRY262150:HRY262189 IBU262150:IBU262189 ILQ262150:ILQ262189 IVM262150:IVM262189 JFI262150:JFI262189 JPE262150:JPE262189 JZA262150:JZA262189 KIW262150:KIW262189 KSS262150:KSS262189 LCO262150:LCO262189 LMK262150:LMK262189 LWG262150:LWG262189 MGC262150:MGC262189 MPY262150:MPY262189 MZU262150:MZU262189 NJQ262150:NJQ262189 NTM262150:NTM262189 ODI262150:ODI262189 ONE262150:ONE262189 OXA262150:OXA262189 PGW262150:PGW262189 PQS262150:PQS262189 QAO262150:QAO262189 QKK262150:QKK262189 QUG262150:QUG262189 REC262150:REC262189 RNY262150:RNY262189 RXU262150:RXU262189 SHQ262150:SHQ262189 SRM262150:SRM262189 TBI262150:TBI262189 TLE262150:TLE262189 TVA262150:TVA262189 UEW262150:UEW262189 UOS262150:UOS262189 UYO262150:UYO262189 VIK262150:VIK262189 VSG262150:VSG262189 WCC262150:WCC262189 WLY262150:WLY262189 WVU262150:WVU262189 JI327686:JI327725 TE327686:TE327725 ADA327686:ADA327725 AMW327686:AMW327725 AWS327686:AWS327725 BGO327686:BGO327725 BQK327686:BQK327725 CAG327686:CAG327725 CKC327686:CKC327725 CTY327686:CTY327725 DDU327686:DDU327725 DNQ327686:DNQ327725 DXM327686:DXM327725 EHI327686:EHI327725 ERE327686:ERE327725 FBA327686:FBA327725 FKW327686:FKW327725 FUS327686:FUS327725 GEO327686:GEO327725 GOK327686:GOK327725 GYG327686:GYG327725 HIC327686:HIC327725 HRY327686:HRY327725 IBU327686:IBU327725 ILQ327686:ILQ327725 IVM327686:IVM327725 JFI327686:JFI327725 JPE327686:JPE327725 JZA327686:JZA327725 KIW327686:KIW327725 KSS327686:KSS327725 LCO327686:LCO327725 LMK327686:LMK327725 LWG327686:LWG327725 MGC327686:MGC327725 MPY327686:MPY327725 MZU327686:MZU327725 NJQ327686:NJQ327725 NTM327686:NTM327725 ODI327686:ODI327725 ONE327686:ONE327725 OXA327686:OXA327725 PGW327686:PGW327725 PQS327686:PQS327725 QAO327686:QAO327725 QKK327686:QKK327725 QUG327686:QUG327725 REC327686:REC327725 RNY327686:RNY327725 RXU327686:RXU327725 SHQ327686:SHQ327725 SRM327686:SRM327725 TBI327686:TBI327725 TLE327686:TLE327725 TVA327686:TVA327725 UEW327686:UEW327725 UOS327686:UOS327725 UYO327686:UYO327725 VIK327686:VIK327725 VSG327686:VSG327725 WCC327686:WCC327725 WLY327686:WLY327725 WVU327686:WVU327725 JI393222:JI393261 TE393222:TE393261 ADA393222:ADA393261 AMW393222:AMW393261 AWS393222:AWS393261 BGO393222:BGO393261 BQK393222:BQK393261 CAG393222:CAG393261 CKC393222:CKC393261 CTY393222:CTY393261 DDU393222:DDU393261 DNQ393222:DNQ393261 DXM393222:DXM393261 EHI393222:EHI393261 ERE393222:ERE393261 FBA393222:FBA393261 FKW393222:FKW393261 FUS393222:FUS393261 GEO393222:GEO393261 GOK393222:GOK393261 GYG393222:GYG393261 HIC393222:HIC393261 HRY393222:HRY393261 IBU393222:IBU393261 ILQ393222:ILQ393261 IVM393222:IVM393261 JFI393222:JFI393261 JPE393222:JPE393261 JZA393222:JZA393261 KIW393222:KIW393261 KSS393222:KSS393261 LCO393222:LCO393261 LMK393222:LMK393261 LWG393222:LWG393261 MGC393222:MGC393261 MPY393222:MPY393261 MZU393222:MZU393261 NJQ393222:NJQ393261 NTM393222:NTM393261 ODI393222:ODI393261 ONE393222:ONE393261 OXA393222:OXA393261 PGW393222:PGW393261 PQS393222:PQS393261 QAO393222:QAO393261 QKK393222:QKK393261 QUG393222:QUG393261 REC393222:REC393261 RNY393222:RNY393261 RXU393222:RXU393261 SHQ393222:SHQ393261 SRM393222:SRM393261 TBI393222:TBI393261 TLE393222:TLE393261 TVA393222:TVA393261 UEW393222:UEW393261 UOS393222:UOS393261 UYO393222:UYO393261 VIK393222:VIK393261 VSG393222:VSG393261 WCC393222:WCC393261 WLY393222:WLY393261 WVU393222:WVU393261 JI458758:JI458797 TE458758:TE458797 ADA458758:ADA458797 AMW458758:AMW458797 AWS458758:AWS458797 BGO458758:BGO458797 BQK458758:BQK458797 CAG458758:CAG458797 CKC458758:CKC458797 CTY458758:CTY458797 DDU458758:DDU458797 DNQ458758:DNQ458797 DXM458758:DXM458797 EHI458758:EHI458797 ERE458758:ERE458797 FBA458758:FBA458797 FKW458758:FKW458797 FUS458758:FUS458797 GEO458758:GEO458797 GOK458758:GOK458797 GYG458758:GYG458797 HIC458758:HIC458797 HRY458758:HRY458797 IBU458758:IBU458797 ILQ458758:ILQ458797 IVM458758:IVM458797 JFI458758:JFI458797 JPE458758:JPE458797 JZA458758:JZA458797 KIW458758:KIW458797 KSS458758:KSS458797 LCO458758:LCO458797 LMK458758:LMK458797 LWG458758:LWG458797 MGC458758:MGC458797 MPY458758:MPY458797 MZU458758:MZU458797 NJQ458758:NJQ458797 NTM458758:NTM458797 ODI458758:ODI458797 ONE458758:ONE458797 OXA458758:OXA458797 PGW458758:PGW458797 PQS458758:PQS458797 QAO458758:QAO458797 QKK458758:QKK458797 QUG458758:QUG458797 REC458758:REC458797 RNY458758:RNY458797 RXU458758:RXU458797 SHQ458758:SHQ458797 SRM458758:SRM458797 TBI458758:TBI458797 TLE458758:TLE458797 TVA458758:TVA458797 UEW458758:UEW458797 UOS458758:UOS458797 UYO458758:UYO458797 VIK458758:VIK458797 VSG458758:VSG458797 WCC458758:WCC458797 WLY458758:WLY458797 WVU458758:WVU458797 JI524294:JI524333 TE524294:TE524333 ADA524294:ADA524333 AMW524294:AMW524333 AWS524294:AWS524333 BGO524294:BGO524333 BQK524294:BQK524333 CAG524294:CAG524333 CKC524294:CKC524333 CTY524294:CTY524333 DDU524294:DDU524333 DNQ524294:DNQ524333 DXM524294:DXM524333 EHI524294:EHI524333 ERE524294:ERE524333 FBA524294:FBA524333 FKW524294:FKW524333 FUS524294:FUS524333 GEO524294:GEO524333 GOK524294:GOK524333 GYG524294:GYG524333 HIC524294:HIC524333 HRY524294:HRY524333 IBU524294:IBU524333 ILQ524294:ILQ524333 IVM524294:IVM524333 JFI524294:JFI524333 JPE524294:JPE524333 JZA524294:JZA524333 KIW524294:KIW524333 KSS524294:KSS524333 LCO524294:LCO524333 LMK524294:LMK524333 LWG524294:LWG524333 MGC524294:MGC524333 MPY524294:MPY524333 MZU524294:MZU524333 NJQ524294:NJQ524333 NTM524294:NTM524333 ODI524294:ODI524333 ONE524294:ONE524333 OXA524294:OXA524333 PGW524294:PGW524333 PQS524294:PQS524333 QAO524294:QAO524333 QKK524294:QKK524333 QUG524294:QUG524333 REC524294:REC524333 RNY524294:RNY524333 RXU524294:RXU524333 SHQ524294:SHQ524333 SRM524294:SRM524333 TBI524294:TBI524333 TLE524294:TLE524333 TVA524294:TVA524333 UEW524294:UEW524333 UOS524294:UOS524333 UYO524294:UYO524333 VIK524294:VIK524333 VSG524294:VSG524333 WCC524294:WCC524333 WLY524294:WLY524333 WVU524294:WVU524333 JI589830:JI589869 TE589830:TE589869 ADA589830:ADA589869 AMW589830:AMW589869 AWS589830:AWS589869 BGO589830:BGO589869 BQK589830:BQK589869 CAG589830:CAG589869 CKC589830:CKC589869 CTY589830:CTY589869 DDU589830:DDU589869 DNQ589830:DNQ589869 DXM589830:DXM589869 EHI589830:EHI589869 ERE589830:ERE589869 FBA589830:FBA589869 FKW589830:FKW589869 FUS589830:FUS589869 GEO589830:GEO589869 GOK589830:GOK589869 GYG589830:GYG589869 HIC589830:HIC589869 HRY589830:HRY589869 IBU589830:IBU589869 ILQ589830:ILQ589869 IVM589830:IVM589869 JFI589830:JFI589869 JPE589830:JPE589869 JZA589830:JZA589869 KIW589830:KIW589869 KSS589830:KSS589869 LCO589830:LCO589869 LMK589830:LMK589869 LWG589830:LWG589869 MGC589830:MGC589869 MPY589830:MPY589869 MZU589830:MZU589869 NJQ589830:NJQ589869 NTM589830:NTM589869 ODI589830:ODI589869 ONE589830:ONE589869 OXA589830:OXA589869 PGW589830:PGW589869 PQS589830:PQS589869 QAO589830:QAO589869 QKK589830:QKK589869 QUG589830:QUG589869 REC589830:REC589869 RNY589830:RNY589869 RXU589830:RXU589869 SHQ589830:SHQ589869 SRM589830:SRM589869 TBI589830:TBI589869 TLE589830:TLE589869 TVA589830:TVA589869 UEW589830:UEW589869 UOS589830:UOS589869 UYO589830:UYO589869 VIK589830:VIK589869 VSG589830:VSG589869 WCC589830:WCC589869 WLY589830:WLY589869 WVU589830:WVU589869 JI655366:JI655405 TE655366:TE655405 ADA655366:ADA655405 AMW655366:AMW655405 AWS655366:AWS655405 BGO655366:BGO655405 BQK655366:BQK655405 CAG655366:CAG655405 CKC655366:CKC655405 CTY655366:CTY655405 DDU655366:DDU655405 DNQ655366:DNQ655405 DXM655366:DXM655405 EHI655366:EHI655405 ERE655366:ERE655405 FBA655366:FBA655405 FKW655366:FKW655405 FUS655366:FUS655405 GEO655366:GEO655405 GOK655366:GOK655405 GYG655366:GYG655405 HIC655366:HIC655405 HRY655366:HRY655405 IBU655366:IBU655405 ILQ655366:ILQ655405 IVM655366:IVM655405 JFI655366:JFI655405 JPE655366:JPE655405 JZA655366:JZA655405 KIW655366:KIW655405 KSS655366:KSS655405 LCO655366:LCO655405 LMK655366:LMK655405 LWG655366:LWG655405 MGC655366:MGC655405 MPY655366:MPY655405 MZU655366:MZU655405 NJQ655366:NJQ655405 NTM655366:NTM655405 ODI655366:ODI655405 ONE655366:ONE655405 OXA655366:OXA655405 PGW655366:PGW655405 PQS655366:PQS655405 QAO655366:QAO655405 QKK655366:QKK655405 QUG655366:QUG655405 REC655366:REC655405 RNY655366:RNY655405 RXU655366:RXU655405 SHQ655366:SHQ655405 SRM655366:SRM655405 TBI655366:TBI655405 TLE655366:TLE655405 TVA655366:TVA655405 UEW655366:UEW655405 UOS655366:UOS655405 UYO655366:UYO655405 VIK655366:VIK655405 VSG655366:VSG655405 WCC655366:WCC655405 WLY655366:WLY655405 WVU655366:WVU655405 JI720902:JI720941 TE720902:TE720941 ADA720902:ADA720941 AMW720902:AMW720941 AWS720902:AWS720941 BGO720902:BGO720941 BQK720902:BQK720941 CAG720902:CAG720941 CKC720902:CKC720941 CTY720902:CTY720941 DDU720902:DDU720941 DNQ720902:DNQ720941 DXM720902:DXM720941 EHI720902:EHI720941 ERE720902:ERE720941 FBA720902:FBA720941 FKW720902:FKW720941 FUS720902:FUS720941 GEO720902:GEO720941 GOK720902:GOK720941 GYG720902:GYG720941 HIC720902:HIC720941 HRY720902:HRY720941 IBU720902:IBU720941 ILQ720902:ILQ720941 IVM720902:IVM720941 JFI720902:JFI720941 JPE720902:JPE720941 JZA720902:JZA720941 KIW720902:KIW720941 KSS720902:KSS720941 LCO720902:LCO720941 LMK720902:LMK720941 LWG720902:LWG720941 MGC720902:MGC720941 MPY720902:MPY720941 MZU720902:MZU720941 NJQ720902:NJQ720941 NTM720902:NTM720941 ODI720902:ODI720941 ONE720902:ONE720941 OXA720902:OXA720941 PGW720902:PGW720941 PQS720902:PQS720941 QAO720902:QAO720941 QKK720902:QKK720941 QUG720902:QUG720941 REC720902:REC720941 RNY720902:RNY720941 RXU720902:RXU720941 SHQ720902:SHQ720941 SRM720902:SRM720941 TBI720902:TBI720941 TLE720902:TLE720941 TVA720902:TVA720941 UEW720902:UEW720941 UOS720902:UOS720941 UYO720902:UYO720941 VIK720902:VIK720941 VSG720902:VSG720941 WCC720902:WCC720941 WLY720902:WLY720941 WVU720902:WVU720941 JI786438:JI786477 TE786438:TE786477 ADA786438:ADA786477 AMW786438:AMW786477 AWS786438:AWS786477 BGO786438:BGO786477 BQK786438:BQK786477 CAG786438:CAG786477 CKC786438:CKC786477 CTY786438:CTY786477 DDU786438:DDU786477 DNQ786438:DNQ786477 DXM786438:DXM786477 EHI786438:EHI786477 ERE786438:ERE786477 FBA786438:FBA786477 FKW786438:FKW786477 FUS786438:FUS786477 GEO786438:GEO786477 GOK786438:GOK786477 GYG786438:GYG786477 HIC786438:HIC786477 HRY786438:HRY786477 IBU786438:IBU786477 ILQ786438:ILQ786477 IVM786438:IVM786477 JFI786438:JFI786477 JPE786438:JPE786477 JZA786438:JZA786477 KIW786438:KIW786477 KSS786438:KSS786477 LCO786438:LCO786477 LMK786438:LMK786477 LWG786438:LWG786477 MGC786438:MGC786477 MPY786438:MPY786477 MZU786438:MZU786477 NJQ786438:NJQ786477 NTM786438:NTM786477 ODI786438:ODI786477 ONE786438:ONE786477 OXA786438:OXA786477 PGW786438:PGW786477 PQS786438:PQS786477 QAO786438:QAO786477 QKK786438:QKK786477 QUG786438:QUG786477 REC786438:REC786477 RNY786438:RNY786477 RXU786438:RXU786477 SHQ786438:SHQ786477 SRM786438:SRM786477 TBI786438:TBI786477 TLE786438:TLE786477 TVA786438:TVA786477 UEW786438:UEW786477 UOS786438:UOS786477 UYO786438:UYO786477 VIK786438:VIK786477 VSG786438:VSG786477 WCC786438:WCC786477 WLY786438:WLY786477 WVU786438:WVU786477 JI851974:JI852013 TE851974:TE852013 ADA851974:ADA852013 AMW851974:AMW852013 AWS851974:AWS852013 BGO851974:BGO852013 BQK851974:BQK852013 CAG851974:CAG852013 CKC851974:CKC852013 CTY851974:CTY852013 DDU851974:DDU852013 DNQ851974:DNQ852013 DXM851974:DXM852013 EHI851974:EHI852013 ERE851974:ERE852013 FBA851974:FBA852013 FKW851974:FKW852013 FUS851974:FUS852013 GEO851974:GEO852013 GOK851974:GOK852013 GYG851974:GYG852013 HIC851974:HIC852013 HRY851974:HRY852013 IBU851974:IBU852013 ILQ851974:ILQ852013 IVM851974:IVM852013 JFI851974:JFI852013 JPE851974:JPE852013 JZA851974:JZA852013 KIW851974:KIW852013 KSS851974:KSS852013 LCO851974:LCO852013 LMK851974:LMK852013 LWG851974:LWG852013 MGC851974:MGC852013 MPY851974:MPY852013 MZU851974:MZU852013 NJQ851974:NJQ852013 NTM851974:NTM852013 ODI851974:ODI852013 ONE851974:ONE852013 OXA851974:OXA852013 PGW851974:PGW852013 PQS851974:PQS852013 QAO851974:QAO852013 QKK851974:QKK852013 QUG851974:QUG852013 REC851974:REC852013 RNY851974:RNY852013 RXU851974:RXU852013 SHQ851974:SHQ852013 SRM851974:SRM852013 TBI851974:TBI852013 TLE851974:TLE852013 TVA851974:TVA852013 UEW851974:UEW852013 UOS851974:UOS852013 UYO851974:UYO852013 VIK851974:VIK852013 VSG851974:VSG852013 WCC851974:WCC852013 WLY851974:WLY852013 WVU851974:WVU852013 JI917510:JI917549 TE917510:TE917549 ADA917510:ADA917549 AMW917510:AMW917549 AWS917510:AWS917549 BGO917510:BGO917549 BQK917510:BQK917549 CAG917510:CAG917549 CKC917510:CKC917549 CTY917510:CTY917549 DDU917510:DDU917549 DNQ917510:DNQ917549 DXM917510:DXM917549 EHI917510:EHI917549 ERE917510:ERE917549 FBA917510:FBA917549 FKW917510:FKW917549 FUS917510:FUS917549 GEO917510:GEO917549 GOK917510:GOK917549 GYG917510:GYG917549 HIC917510:HIC917549 HRY917510:HRY917549 IBU917510:IBU917549 ILQ917510:ILQ917549 IVM917510:IVM917549 JFI917510:JFI917549 JPE917510:JPE917549 JZA917510:JZA917549 KIW917510:KIW917549 KSS917510:KSS917549 LCO917510:LCO917549 LMK917510:LMK917549 LWG917510:LWG917549 MGC917510:MGC917549 MPY917510:MPY917549 MZU917510:MZU917549 NJQ917510:NJQ917549 NTM917510:NTM917549 ODI917510:ODI917549 ONE917510:ONE917549 OXA917510:OXA917549 PGW917510:PGW917549 PQS917510:PQS917549 QAO917510:QAO917549 QKK917510:QKK917549 QUG917510:QUG917549 REC917510:REC917549 RNY917510:RNY917549 RXU917510:RXU917549 SHQ917510:SHQ917549 SRM917510:SRM917549 TBI917510:TBI917549 TLE917510:TLE917549 TVA917510:TVA917549 UEW917510:UEW917549 UOS917510:UOS917549 UYO917510:UYO917549 VIK917510:VIK917549 VSG917510:VSG917549 WCC917510:WCC917549 WLY917510:WLY917549 WVU917510:WVU917549 JI983046:JI983085 TE983046:TE983085 ADA983046:ADA983085 AMW983046:AMW983085 AWS983046:AWS983085 BGO983046:BGO983085 BQK983046:BQK983085 CAG983046:CAG983085 CKC983046:CKC983085 CTY983046:CTY983085 DDU983046:DDU983085 DNQ983046:DNQ983085 DXM983046:DXM983085 EHI983046:EHI983085 ERE983046:ERE983085 FBA983046:FBA983085 FKW983046:FKW983085 FUS983046:FUS983085 GEO983046:GEO983085 GOK983046:GOK983085 GYG983046:GYG983085 HIC983046:HIC983085 HRY983046:HRY983085 IBU983046:IBU983085 ILQ983046:ILQ983085 IVM983046:IVM983085 JFI983046:JFI983085 JPE983046:JPE983085 JZA983046:JZA983085 KIW983046:KIW983085 KSS983046:KSS983085 LCO983046:LCO983085 LMK983046:LMK983085 LWG983046:LWG983085 MGC983046:MGC983085 MPY983046:MPY983085 MZU983046:MZU983085 NJQ983046:NJQ983085 NTM983046:NTM983085 ODI983046:ODI983085 ONE983046:ONE983085 OXA983046:OXA983085 PGW983046:PGW983085 PQS983046:PQS983085 QAO983046:QAO983085 QKK983046:QKK983085 QUG983046:QUG983085 REC983046:REC983085 RNY983046:RNY983085 RXU983046:RXU983085 SHQ983046:SHQ983085 SRM983046:SRM983085 TBI983046:TBI983085 TLE983046:TLE983085 TVA983046:TVA983085 UEW983046:UEW983085 UOS983046:UOS983085 UYO983046:UYO983085 VIK983046:VIK983085 VSG983046:VSG983085 WCC983046:WCC983085 WLY983046:WLY983085 WVU983046:WVU983085 WVU5:WVU43 WLY5:WLY43 WCC5:WCC43 VSG5:VSG43 VIK5:VIK43 UYO5:UYO43 UOS5:UOS43 UEW5:UEW43 TVA5:TVA43 TLE5:TLE43 TBI5:TBI43 SRM5:SRM43 SHQ5:SHQ43 RXU5:RXU43 RNY5:RNY43 REC5:REC43 QUG5:QUG43 QKK5:QKK43 QAO5:QAO43 PQS5:PQS43 PGW5:PGW43 OXA5:OXA43 ONE5:ONE43 ODI5:ODI43 NTM5:NTM43 NJQ5:NJQ43 MZU5:MZU43 MPY5:MPY43 MGC5:MGC43 LWG5:LWG43 LMK5:LMK43 LCO5:LCO43 KSS5:KSS43 KIW5:KIW43 JZA5:JZA43 JPE5:JPE43 JFI5:JFI43 IVM5:IVM43 ILQ5:ILQ43 IBU5:IBU43 HRY5:HRY43 HIC5:HIC43 GYG5:GYG43 GOK5:GOK43 GEO5:GEO43 FUS5:FUS43 FKW5:FKW43 FBA5:FBA43 ERE5:ERE43 EHI5:EHI43 DXM5:DXM43 DNQ5:DNQ43 DDU5:DDU43 CTY5:CTY43 CKC5:CKC43 CAG5:CAG43 BQK5:BQK43 BGO5:BGO43 AWS5:AWS43 AMW5:AMW43 ADA5:ADA43 TE5:TE43 JI5:JI43" xr:uid="{00000000-0002-0000-0800-000004000000}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
